--- a/data/stainless_steel_304_with_predictions.xlsx
+++ b/data/stainless_steel_304_with_predictions.xlsx
@@ -471,10 +471,10 @@
         <v>395.603300876209</v>
       </c>
       <c r="D2" t="n">
-        <v>353.4511413574219</v>
+        <v>447.7631530761719</v>
       </c>
       <c r="E2" t="n">
-        <v>42.15216064453125</v>
+        <v>-52.15985107421875</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>399.477725504481</v>
       </c>
       <c r="D3" t="n">
-        <v>353.4441528320312</v>
+        <v>448.198486328125</v>
       </c>
       <c r="E3" t="n">
-        <v>46.0335693359375</v>
+        <v>-48.72076416015625</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>403.129622067849</v>
       </c>
       <c r="D4" t="n">
-        <v>353.4374694824219</v>
+        <v>448.65576171875</v>
       </c>
       <c r="E4" t="n">
-        <v>49.692138671875</v>
+        <v>-45.52615356445312</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>406.555897479841</v>
       </c>
       <c r="D5" t="n">
-        <v>353.4313049316406</v>
+        <v>449.133056640625</v>
       </c>
       <c r="E5" t="n">
-        <v>53.12460327148438</v>
+        <v>-42.5771484375</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>409.757028790634</v>
       </c>
       <c r="D6" t="n">
-        <v>353.4258117675781</v>
+        <v>449.6283264160156</v>
       </c>
       <c r="E6" t="n">
-        <v>56.33120727539062</v>
+        <v>-39.87130737304688</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>412.737171626757</v>
       </c>
       <c r="D7" t="n">
-        <v>353.4210510253906</v>
+        <v>450.1401672363281</v>
       </c>
       <c r="E7" t="n">
-        <v>59.31613159179688</v>
+        <v>-37.40298461914062</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>415.510401390927</v>
       </c>
       <c r="D8" t="n">
-        <v>353.4171142578125</v>
+        <v>450.6670837402344</v>
       </c>
       <c r="E8" t="n">
-        <v>62.09329223632812</v>
+        <v>-35.15667724609375</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>418.090374171948</v>
       </c>
       <c r="D9" t="n">
-        <v>353.4140319824219</v>
+        <v>451.2068786621094</v>
       </c>
       <c r="E9" t="n">
-        <v>64.67633056640625</v>
+        <v>-33.11651611328125</v>
       </c>
     </row>
     <row r="10">
@@ -607,10 +607,10 @@
         <v>420.491343142817</v>
       </c>
       <c r="D10" t="n">
-        <v>353.4119567871094</v>
+        <v>451.757568359375</v>
       </c>
       <c r="E10" t="n">
-        <v>67.07937622070312</v>
+        <v>-31.2662353515625</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v>422.72583850844</v>
       </c>
       <c r="D11" t="n">
-        <v>353.4107360839844</v>
+        <v>452.3180541992188</v>
       </c>
       <c r="E11" t="n">
-        <v>69.31509399414062</v>
+        <v>-29.59222412109375</v>
       </c>
     </row>
     <row r="12">
@@ -641,10 +641,10 @@
         <v>424.807830694658</v>
       </c>
       <c r="D12" t="n">
-        <v>353.4103698730469</v>
+        <v>452.887451171875</v>
       </c>
       <c r="E12" t="n">
-        <v>71.3974609375</v>
+        <v>-28.07962036132812</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>426.7522086401821</v>
       </c>
       <c r="D13" t="n">
-        <v>353.4107971191406</v>
+        <v>453.46484375</v>
       </c>
       <c r="E13" t="n">
-        <v>73.34140014648438</v>
+        <v>-26.712646484375</v>
       </c>
     </row>
     <row r="14">
@@ -675,10 +675,10 @@
         <v>428.5692326158421</v>
       </c>
       <c r="D14" t="n">
-        <v>353.4119567871094</v>
+        <v>454.0493469238281</v>
       </c>
       <c r="E14" t="n">
-        <v>75.15728759765625</v>
+        <v>-25.4801025390625</v>
       </c>
     </row>
     <row r="15">
@@ -692,10 +692,10 @@
         <v>430.2810408094271</v>
       </c>
       <c r="D15" t="n">
-        <v>353.4137573242188</v>
+        <v>454.640380859375</v>
       </c>
       <c r="E15" t="n">
-        <v>76.86727905273438</v>
+        <v>-24.35934448242188</v>
       </c>
     </row>
     <row r="16">
@@ -709,10 +709,10 @@
         <v>431.913928949627</v>
       </c>
       <c r="D16" t="n">
-        <v>353.4161987304688</v>
+        <v>455.2370910644531</v>
       </c>
       <c r="E16" t="n">
-        <v>78.49774169921875</v>
+        <v>-23.32315063476562</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         <v>433.489415394423</v>
       </c>
       <c r="D17" t="n">
-        <v>353.4192810058594</v>
+        <v>455.8385620117188</v>
       </c>
       <c r="E17" t="n">
-        <v>80.07012939453125</v>
+        <v>-22.34915161132812</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         <v>435.0243126933601</v>
       </c>
       <c r="D18" t="n">
-        <v>353.4228820800781</v>
+        <v>456.4442749023438</v>
       </c>
       <c r="E18" t="n">
-        <v>81.6014404296875</v>
+        <v>-21.41995239257812</v>
       </c>
     </row>
     <row r="19">
@@ -760,10 +760,10 @@
         <v>436.527803060661</v>
       </c>
       <c r="D19" t="n">
-        <v>353.427001953125</v>
+        <v>457.0536193847656</v>
       </c>
       <c r="E19" t="n">
-        <v>83.10079956054688</v>
+        <v>-20.52581787109375</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         <v>438.001682240205</v>
       </c>
       <c r="D20" t="n">
-        <v>353.4316101074219</v>
+        <v>457.6658935546875</v>
       </c>
       <c r="E20" t="n">
-        <v>84.570068359375</v>
+        <v>-19.66421508789062</v>
       </c>
     </row>
     <row r="21">
@@ -794,10 +794,10 @@
         <v>439.443744523748</v>
       </c>
       <c r="D21" t="n">
-        <v>353.4366455078125</v>
+        <v>458.2809143066406</v>
       </c>
       <c r="E21" t="n">
-        <v>86.00711059570312</v>
+        <v>-18.837158203125</v>
       </c>
     </row>
     <row r="22">
@@ -811,10 +811,10 @@
         <v>440.848074323229</v>
       </c>
       <c r="D22" t="n">
-        <v>353.4420471191406</v>
+        <v>458.8984375</v>
       </c>
       <c r="E22" t="n">
-        <v>87.40603637695312</v>
+        <v>-18.05035400390625</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         <v>442.208071069627</v>
       </c>
       <c r="D23" t="n">
-        <v>353.4478149414062</v>
+        <v>459.517822265625</v>
       </c>
       <c r="E23" t="n">
-        <v>88.76025390625</v>
+        <v>-17.30975341796875</v>
       </c>
     </row>
     <row r="24">
@@ -845,10 +845,10 @@
         <v>443.519542436043</v>
       </c>
       <c r="D24" t="n">
-        <v>353.4538879394531</v>
+        <v>460.1387634277344</v>
       </c>
       <c r="E24" t="n">
-        <v>90.06564331054688</v>
+        <v>-16.61923217773438</v>
       </c>
     </row>
     <row r="25">
@@ -862,10 +862,10 @@
         <v>444.7838075429399</v>
       </c>
       <c r="D25" t="n">
-        <v>353.4602661132812</v>
+        <v>460.7608032226562</v>
       </c>
       <c r="E25" t="n">
-        <v>91.32354736328125</v>
+        <v>-15.97698974609375</v>
       </c>
     </row>
     <row r="26">
@@ -879,10 +879,10 @@
         <v>446.004589943748</v>
       </c>
       <c r="D26" t="n">
-        <v>353.4668579101562</v>
+        <v>461.3844299316406</v>
       </c>
       <c r="E26" t="n">
-        <v>92.5377197265625</v>
+        <v>-15.37985229492188</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>447.185365792356</v>
       </c>
       <c r="D27" t="n">
-        <v>353.4736022949219</v>
+        <v>462.0094604492188</v>
       </c>
       <c r="E27" t="n">
-        <v>93.71176147460938</v>
+        <v>-14.8240966796875</v>
       </c>
     </row>
     <row r="28">
@@ -913,10 +913,10 @@
         <v>448.33179646193</v>
       </c>
       <c r="D28" t="n">
-        <v>353.4804992675781</v>
+        <v>462.6358947753906</v>
       </c>
       <c r="E28" t="n">
-        <v>94.85128784179688</v>
+        <v>-14.30410766601562</v>
       </c>
     </row>
     <row r="29">
@@ -930,10 +930,10 @@
         <v>449.4430736196809</v>
       </c>
       <c r="D29" t="n">
-        <v>353.4875183105469</v>
+        <v>463.2637329101562</v>
       </c>
       <c r="E29" t="n">
-        <v>95.95556640625</v>
+        <v>-13.82064819335938</v>
       </c>
     </row>
     <row r="30">
@@ -947,10 +947,10 @@
         <v>450.516546689884</v>
       </c>
       <c r="D30" t="n">
-        <v>353.4945983886719</v>
+        <v>463.8934936523438</v>
       </c>
       <c r="E30" t="n">
-        <v>97.02194213867188</v>
+        <v>-13.376953125</v>
       </c>
     </row>
     <row r="31">
@@ -964,10 +964,10 @@
         <v>451.551415719795</v>
       </c>
       <c r="D31" t="n">
-        <v>353.501708984375</v>
+        <v>464.5249938964844</v>
       </c>
       <c r="E31" t="n">
-        <v>98.04971313476562</v>
+        <v>-12.97357177734375</v>
       </c>
     </row>
     <row r="32">
@@ -981,10 +981,10 @@
         <v>452.551730855008</v>
       </c>
       <c r="D32" t="n">
-        <v>353.5088500976562</v>
+        <v>465.1585083007812</v>
       </c>
       <c r="E32" t="n">
-        <v>99.04287719726562</v>
+        <v>-12.60678100585938</v>
       </c>
     </row>
     <row r="33">
@@ -998,10 +998,10 @@
         <v>453.5281279871621</v>
       </c>
       <c r="D33" t="n">
-        <v>353.5160522460938</v>
+        <v>465.7939147949219</v>
       </c>
       <c r="E33" t="n">
-        <v>100.0120849609375</v>
+        <v>-12.26577758789062</v>
       </c>
     </row>
     <row r="34">
@@ -1015,10 +1015,10 @@
         <v>454.494356195184</v>
       </c>
       <c r="D34" t="n">
-        <v>353.5233154296875</v>
+        <v>466.4305725097656</v>
       </c>
       <c r="E34" t="n">
-        <v>100.9710388183594</v>
+        <v>-11.93621826171875</v>
       </c>
     </row>
     <row r="35">
@@ -1032,10 +1032,10 @@
         <v>455.456910103284</v>
       </c>
       <c r="D35" t="n">
-        <v>353.5307006835938</v>
+        <v>467.0682373046875</v>
       </c>
       <c r="E35" t="n">
-        <v>101.9262084960938</v>
+        <v>-11.611328125</v>
       </c>
     </row>
     <row r="36">
@@ -1049,10 +1049,10 @@
         <v>456.419549877027</v>
       </c>
       <c r="D36" t="n">
-        <v>353.5381469726562</v>
+        <v>467.7073059082031</v>
       </c>
       <c r="E36" t="n">
-        <v>102.8814086914062</v>
+        <v>-11.28775024414062</v>
       </c>
     </row>
     <row r="37">
@@ -1066,10 +1066,10 @@
         <v>457.383368841973</v>
       </c>
       <c r="D37" t="n">
-        <v>353.5455932617188</v>
+        <v>468.3480834960938</v>
       </c>
       <c r="E37" t="n">
-        <v>103.8377685546875</v>
+        <v>-10.9647216796875</v>
       </c>
     </row>
     <row r="38">
@@ -1083,10 +1083,10 @@
         <v>458.346881056813</v>
       </c>
       <c r="D38" t="n">
-        <v>353.5530700683594</v>
+        <v>468.9901733398438</v>
       </c>
       <c r="E38" t="n">
-        <v>104.7938232421875</v>
+        <v>-10.64328002929688</v>
       </c>
     </row>
     <row r="39">
@@ -1100,10 +1100,10 @@
         <v>459.3056902717281</v>
       </c>
       <c r="D39" t="n">
-        <v>353.5606689453125</v>
+        <v>469.6332702636719</v>
       </c>
       <c r="E39" t="n">
-        <v>105.7450256347656</v>
+        <v>-10.32757568359375</v>
       </c>
     </row>
     <row r="40">
@@ -1117,10 +1117,10 @@
         <v>460.257071814311</v>
       </c>
       <c r="D40" t="n">
-        <v>353.5682983398438</v>
+        <v>470.2774658203125</v>
       </c>
       <c r="E40" t="n">
-        <v>106.6887817382812</v>
+        <v>-10.0203857421875</v>
       </c>
     </row>
     <row r="41">
@@ -1134,10 +1134,10 @@
         <v>461.211656546065</v>
       </c>
       <c r="D41" t="n">
-        <v>353.5759887695312</v>
+        <v>470.9225158691406</v>
       </c>
       <c r="E41" t="n">
-        <v>107.6356811523438</v>
+        <v>-9.710845947265625</v>
       </c>
     </row>
     <row r="42">
@@ -1151,10 +1151,10 @@
         <v>462.176666239077</v>
       </c>
       <c r="D42" t="n">
-        <v>353.583740234375</v>
+        <v>471.5684814453125</v>
       </c>
       <c r="E42" t="n">
-        <v>108.5929260253906</v>
+        <v>-9.391815185546875</v>
       </c>
     </row>
     <row r="43">
@@ -1168,10 +1168,10 @@
         <v>463.150431838265</v>
       </c>
       <c r="D43" t="n">
-        <v>353.591552734375</v>
+        <v>472.2154235839844</v>
       </c>
       <c r="E43" t="n">
-        <v>109.5588684082031</v>
+        <v>-9.06500244140625</v>
       </c>
     </row>
     <row r="44">
@@ -1185,10 +1185,10 @@
         <v>464.13087981713</v>
       </c>
       <c r="D44" t="n">
-        <v>353.599365234375</v>
+        <v>472.8633117675781</v>
       </c>
       <c r="E44" t="n">
-        <v>110.5315246582031</v>
+        <v>-8.732421875</v>
       </c>
     </row>
     <row r="45">
@@ -1202,10 +1202,10 @@
         <v>465.11381737751</v>
       </c>
       <c r="D45" t="n">
-        <v>353.6072692871094</v>
+        <v>473.5120239257812</v>
       </c>
       <c r="E45" t="n">
-        <v>111.5065612792969</v>
+        <v>-8.398193359375</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>466.093449295937</v>
       </c>
       <c r="D46" t="n">
-        <v>353.6151428222656</v>
+        <v>474.1617431640625</v>
       </c>
       <c r="E46" t="n">
-        <v>112.4783020019531</v>
+        <v>-8.06829833984375</v>
       </c>
     </row>
     <row r="47">
@@ -1236,10 +1236,10 @@
         <v>467.065282627381</v>
       </c>
       <c r="D47" t="n">
-        <v>353.623046875</v>
+        <v>474.8127136230469</v>
       </c>
       <c r="E47" t="n">
-        <v>113.4422302246094</v>
+        <v>-7.7474365234375</v>
       </c>
     </row>
     <row r="48">
@@ -1253,10 +1253,10 @@
         <v>468.028365014842</v>
       </c>
       <c r="D48" t="n">
-        <v>353.6309204101562</v>
+        <v>475.46484375</v>
       </c>
       <c r="E48" t="n">
-        <v>114.3974304199219</v>
+        <v>-7.436492919921875</v>
       </c>
     </row>
     <row r="49">
@@ -1270,10 +1270,10 @@
         <v>468.980682897926</v>
       </c>
       <c r="D49" t="n">
-        <v>353.6388244628906</v>
+        <v>476.1181030273438</v>
       </c>
       <c r="E49" t="n">
-        <v>115.3418579101562</v>
+        <v>-7.137420654296875</v>
       </c>
     </row>
     <row r="50">
@@ -1287,10 +1287,10 @@
         <v>469.9191282195241</v>
       </c>
       <c r="D50" t="n">
-        <v>353.6466979980469</v>
+        <v>476.7728271484375</v>
       </c>
       <c r="E50" t="n">
-        <v>116.2724304199219</v>
+        <v>-6.85369873046875</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>470.842777793803</v>
       </c>
       <c r="D51" t="n">
-        <v>353.6545715332031</v>
+        <v>477.4289245605469</v>
       </c>
       <c r="E51" t="n">
-        <v>117.1882019042969</v>
+        <v>-6.586151123046875</v>
       </c>
     </row>
     <row r="52">
@@ -1321,10 +1321,10 @@
         <v>471.7556512590941</v>
       </c>
       <c r="D52" t="n">
-        <v>353.6624145507812</v>
+        <v>478.0867309570312</v>
       </c>
       <c r="E52" t="n">
-        <v>118.0932312011719</v>
+        <v>-6.331085205078125</v>
       </c>
     </row>
     <row r="53">
@@ -1338,10 +1338,10 @@
         <v>472.657554171301</v>
       </c>
       <c r="D53" t="n">
-        <v>353.6703186035156</v>
+        <v>478.745361328125</v>
       </c>
       <c r="E53" t="n">
-        <v>118.9872436523438</v>
+        <v>-6.087799072265625</v>
       </c>
     </row>
     <row r="54">
@@ -1355,10 +1355,10 @@
         <v>473.543736147793</v>
       </c>
       <c r="D54" t="n">
-        <v>353.6783142089844</v>
+        <v>479.4046020507812</v>
       </c>
       <c r="E54" t="n">
-        <v>119.8654174804688</v>
+        <v>-5.860870361328125</v>
       </c>
     </row>
     <row r="55">
@@ -1372,10 +1372,10 @@
         <v>474.410940570323</v>
       </c>
       <c r="D55" t="n">
-        <v>353.6863708496094</v>
+        <v>480.064208984375</v>
       </c>
       <c r="E55" t="n">
-        <v>120.7245788574219</v>
+        <v>-5.65325927734375</v>
       </c>
     </row>
     <row r="56">
@@ -1389,10 +1389,10 @@
         <v>475.262352803119</v>
       </c>
       <c r="D56" t="n">
-        <v>353.6945495605469</v>
+        <v>480.7239990234375</v>
       </c>
       <c r="E56" t="n">
-        <v>121.5678100585938</v>
+        <v>-5.461639404296875</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>476.1052025488499</v>
       </c>
       <c r="D57" t="n">
-        <v>353.7028198242188</v>
+        <v>481.3836669921875</v>
       </c>
       <c r="E57" t="n">
-        <v>122.4023742675781</v>
+        <v>-5.278472900390625</v>
       </c>
     </row>
     <row r="58">
@@ -1423,10 +1423,10 @@
         <v>476.948782171043</v>
       </c>
       <c r="D58" t="n">
-        <v>353.711181640625</v>
+        <v>482.0434265136719</v>
       </c>
       <c r="E58" t="n">
-        <v>123.2376098632812</v>
+        <v>-5.094635009765625</v>
       </c>
     </row>
     <row r="59">
@@ -1440,10 +1440,10 @@
         <v>477.802196933531</v>
       </c>
       <c r="D59" t="n">
-        <v>353.7196350097656</v>
+        <v>482.7024230957031</v>
       </c>
       <c r="E59" t="n">
-        <v>124.0825500488281</v>
+        <v>-4.900238037109375</v>
       </c>
     </row>
     <row r="60">
@@ -1457,10 +1457,10 @@
         <v>478.667774289469</v>
       </c>
       <c r="D60" t="n">
-        <v>353.728271484375</v>
+        <v>483.3602905273438</v>
       </c>
       <c r="E60" t="n">
-        <v>124.9395141601562</v>
+        <v>-4.6925048828125</v>
       </c>
     </row>
     <row r="61">
@@ -1474,10 +1474,10 @@
         <v>479.542533797816</v>
       </c>
       <c r="D61" t="n">
-        <v>353.737060546875</v>
+        <v>484.0164794921875</v>
       </c>
       <c r="E61" t="n">
-        <v>125.8054809570312</v>
+        <v>-4.47393798828125</v>
       </c>
     </row>
     <row r="62">
@@ -1491,10 +1491,10 @@
         <v>480.420709306088</v>
       </c>
       <c r="D62" t="n">
-        <v>353.7459411621094</v>
+        <v>484.671630859375</v>
       </c>
       <c r="E62" t="n">
-        <v>126.6747741699219</v>
+        <v>-4.25091552734375</v>
       </c>
     </row>
     <row r="63">
@@ -1508,10 +1508,10 @@
         <v>481.298531072099</v>
       </c>
       <c r="D63" t="n">
-        <v>353.7547302246094</v>
+        <v>485.3267822265625</v>
       </c>
       <c r="E63" t="n">
-        <v>127.5437927246094</v>
+        <v>-4.02825927734375</v>
       </c>
     </row>
     <row r="64">
@@ -1525,10 +1525,10 @@
         <v>482.177826573142</v>
       </c>
       <c r="D64" t="n">
-        <v>353.7634582519531</v>
+        <v>485.9818725585938</v>
       </c>
       <c r="E64" t="n">
-        <v>128.4143676757812</v>
+        <v>-3.804046630859375</v>
       </c>
     </row>
     <row r="65">
@@ -1542,10 +1542,10 @@
         <v>483.060910808503</v>
       </c>
       <c r="D65" t="n">
-        <v>353.7721862792969</v>
+        <v>486.6368713378906</v>
       </c>
       <c r="E65" t="n">
-        <v>129.2887268066406</v>
+        <v>-3.575958251953125</v>
       </c>
     </row>
     <row r="66">
@@ -1559,10 +1559,10 @@
         <v>483.949912896613</v>
       </c>
       <c r="D66" t="n">
-        <v>353.7808532714844</v>
+        <v>487.2921752929688</v>
       </c>
       <c r="E66" t="n">
-        <v>130.1690673828125</v>
+        <v>-3.342254638671875</v>
       </c>
     </row>
     <row r="67">
@@ -1576,10 +1576,10 @@
         <v>484.844975749093</v>
       </c>
       <c r="D67" t="n">
-        <v>353.7893981933594</v>
+        <v>487.9482727050781</v>
       </c>
       <c r="E67" t="n">
-        <v>131.0555725097656</v>
+        <v>-3.103302001953125</v>
       </c>
     </row>
     <row r="68">
@@ -1593,10 +1593,10 @@
         <v>485.744020357855</v>
       </c>
       <c r="D68" t="n">
-        <v>353.7978210449219</v>
+        <v>488.60546875</v>
       </c>
       <c r="E68" t="n">
-        <v>131.9461975097656</v>
+        <v>-2.8614501953125</v>
       </c>
     </row>
     <row r="69">
@@ -1610,10 +1610,10 @@
         <v>486.642665222879</v>
       </c>
       <c r="D69" t="n">
-        <v>353.80615234375</v>
+        <v>489.2639770507812</v>
       </c>
       <c r="E69" t="n">
-        <v>132.8365173339844</v>
+        <v>-2.621307373046875</v>
       </c>
     </row>
     <row r="70">
@@ -1627,10 +1627,10 @@
         <v>487.537224992439</v>
       </c>
       <c r="D70" t="n">
-        <v>353.8144226074219</v>
+        <v>489.9236755371094</v>
       </c>
       <c r="E70" t="n">
-        <v>133.7228088378906</v>
+        <v>-2.386444091796875</v>
       </c>
     </row>
     <row r="71">
@@ -1644,10 +1644,10 @@
         <v>488.420856269206</v>
       </c>
       <c r="D71" t="n">
-        <v>353.8226318359375</v>
+        <v>490.5845947265625</v>
       </c>
       <c r="E71" t="n">
-        <v>134.5982360839844</v>
+        <v>-2.163726806640625</v>
       </c>
     </row>
     <row r="72">
@@ -1661,10 +1661,10 @@
         <v>489.2896929436931</v>
       </c>
       <c r="D72" t="n">
-        <v>353.8308410644531</v>
+        <v>491.2461853027344</v>
       </c>
       <c r="E72" t="n">
-        <v>135.4588623046875</v>
+        <v>-1.95648193359375</v>
       </c>
     </row>
     <row r="73">
@@ -1678,10 +1678,10 @@
         <v>490.1427074516311</v>
       </c>
       <c r="D73" t="n">
-        <v>353.8391418457031</v>
+        <v>491.9078979492188</v>
       </c>
       <c r="E73" t="n">
-        <v>136.3035583496094</v>
+        <v>-1.76519775390625</v>
       </c>
     </row>
     <row r="74">
@@ -1695,10 +1695,10 @@
         <v>490.983261379538</v>
       </c>
       <c r="D74" t="n">
-        <v>353.8474426269531</v>
+        <v>492.5701293945312</v>
       </c>
       <c r="E74" t="n">
-        <v>137.1358337402344</v>
+        <v>-1.58685302734375</v>
       </c>
     </row>
     <row r="75">
@@ -1712,10 +1712,10 @@
         <v>491.813853618332</v>
       </c>
       <c r="D75" t="n">
-        <v>353.8557739257812</v>
+        <v>493.2330322265625</v>
       </c>
       <c r="E75" t="n">
-        <v>137.9580688476562</v>
+        <v>-1.419189453125</v>
       </c>
     </row>
     <row r="76">
@@ -1729,10 +1729,10 @@
         <v>492.634286527768</v>
       </c>
       <c r="D76" t="n">
-        <v>353.8641052246094</v>
+        <v>493.8964233398438</v>
       </c>
       <c r="E76" t="n">
-        <v>138.7701721191406</v>
+        <v>-1.26214599609375</v>
       </c>
     </row>
     <row r="77">
@@ -1746,10 +1746,10 @@
         <v>493.447403437293</v>
       </c>
       <c r="D77" t="n">
-        <v>353.8724670410156</v>
+        <v>494.5599365234375</v>
       </c>
       <c r="E77" t="n">
-        <v>139.574951171875</v>
+        <v>-1.112518310546875</v>
       </c>
     </row>
     <row r="78">
@@ -1763,10 +1763,10 @@
         <v>494.2590632122991</v>
       </c>
       <c r="D78" t="n">
-        <v>353.8809204101562</v>
+        <v>495.223388671875</v>
       </c>
       <c r="E78" t="n">
-        <v>140.3781433105469</v>
+        <v>-0.964324951171875</v>
       </c>
     </row>
     <row r="79">
@@ -1780,10 +1780,10 @@
         <v>495.069036974399</v>
       </c>
       <c r="D79" t="n">
-        <v>353.8894653320312</v>
+        <v>495.8865966796875</v>
       </c>
       <c r="E79" t="n">
-        <v>141.1795654296875</v>
+        <v>-0.81756591796875</v>
       </c>
     </row>
     <row r="80">
@@ -1797,10 +1797,10 @@
         <v>495.8777053753091</v>
       </c>
       <c r="D80" t="n">
-        <v>353.8980407714844</v>
+        <v>496.5494995117188</v>
       </c>
       <c r="E80" t="n">
-        <v>141.9796752929688</v>
+        <v>-0.671783447265625</v>
       </c>
     </row>
     <row r="81">
@@ -1814,10 +1814,10 @@
         <v>496.69020134807</v>
       </c>
       <c r="D81" t="n">
-        <v>353.9066467285156</v>
+        <v>497.2123413085938</v>
       </c>
       <c r="E81" t="n">
-        <v>142.7835693359375</v>
+        <v>-0.522125244140625</v>
       </c>
     </row>
     <row r="82">
@@ -1831,10 +1831,10 @@
         <v>497.5100296993839</v>
       </c>
       <c r="D82" t="n">
-        <v>353.9152221679688</v>
+        <v>497.8756713867188</v>
       </c>
       <c r="E82" t="n">
-        <v>143.5948181152344</v>
+        <v>-0.365631103515625</v>
       </c>
     </row>
     <row r="83">
@@ -1848,10 +1848,10 @@
         <v>498.341642030644</v>
       </c>
       <c r="D83" t="n">
-        <v>353.9237365722656</v>
+        <v>498.5396728515625</v>
       </c>
       <c r="E83" t="n">
-        <v>144.4179077148438</v>
+        <v>-0.198028564453125</v>
       </c>
     </row>
     <row r="84">
@@ -1865,10 +1865,10 @@
         <v>499.184959764205</v>
       </c>
       <c r="D84" t="n">
-        <v>353.9321899414062</v>
+        <v>499.2044067382812</v>
       </c>
       <c r="E84" t="n">
-        <v>145.2527770996094</v>
+        <v>-0.019439697265625</v>
       </c>
     </row>
     <row r="85">
@@ -1882,10 +1882,10 @@
         <v>500.036474759567</v>
       </c>
       <c r="D85" t="n">
-        <v>353.9406433105469</v>
+        <v>499.8697509765625</v>
       </c>
       <c r="E85" t="n">
-        <v>146.0958251953125</v>
+        <v>0.166717529296875</v>
       </c>
     </row>
     <row r="86">
@@ -1899,10 +1899,10 @@
         <v>500.893958518343</v>
       </c>
       <c r="D86" t="n">
-        <v>353.9490661621094</v>
+        <v>500.535888671875</v>
       </c>
       <c r="E86" t="n">
-        <v>146.9448852539062</v>
+        <v>0.358062744140625</v>
       </c>
     </row>
     <row r="87">
@@ -1916,10 +1916,10 @@
         <v>501.75496063733</v>
       </c>
       <c r="D87" t="n">
-        <v>353.9574584960938</v>
+        <v>501.2025756835938</v>
       </c>
       <c r="E87" t="n">
-        <v>147.7975158691406</v>
+        <v>0.552398681640625</v>
       </c>
     </row>
     <row r="88">
@@ -1933,10 +1933,10 @@
         <v>502.615028776655</v>
       </c>
       <c r="D88" t="n">
-        <v>353.9659423828125</v>
+        <v>501.8693542480469</v>
       </c>
       <c r="E88" t="n">
-        <v>148.6490783691406</v>
+        <v>0.74566650390625</v>
       </c>
     </row>
     <row r="89">
@@ -1950,10 +1950,10 @@
         <v>503.4725272339761</v>
       </c>
       <c r="D89" t="n">
-        <v>353.9745178222656</v>
+        <v>502.5357055664062</v>
       </c>
       <c r="E89" t="n">
-        <v>149.4980163574219</v>
+        <v>0.93682861328125</v>
       </c>
     </row>
     <row r="90">
@@ -1967,10 +1967,10 @@
         <v>504.329045479308</v>
       </c>
       <c r="D90" t="n">
-        <v>353.9831848144531</v>
+        <v>503.201171875</v>
       </c>
       <c r="E90" t="n">
-        <v>150.3458557128906</v>
+        <v>1.12786865234375</v>
       </c>
     </row>
     <row r="91">
@@ -1984,10 +1984,10 @@
         <v>505.187877626213</v>
       </c>
       <c r="D91" t="n">
-        <v>353.9919738769531</v>
+        <v>503.8657836914062</v>
       </c>
       <c r="E91" t="n">
-        <v>151.1958923339844</v>
+        <v>1.32208251953125</v>
       </c>
     </row>
     <row r="92">
@@ -2001,10 +2001,10 @@
         <v>506.045120564935</v>
       </c>
       <c r="D92" t="n">
-        <v>354.000732421875</v>
+        <v>504.5303955078125</v>
       </c>
       <c r="E92" t="n">
-        <v>152.0444030761719</v>
+        <v>1.514739990234375</v>
       </c>
     </row>
     <row r="93">
@@ -2018,10 +2018,10 @@
         <v>506.894402650837</v>
       </c>
       <c r="D93" t="n">
-        <v>354.0094604492188</v>
+        <v>505.195068359375</v>
       </c>
       <c r="E93" t="n">
-        <v>152.8849487304688</v>
+        <v>1.6993408203125</v>
       </c>
     </row>
     <row r="94">
@@ -2035,10 +2035,10 @@
         <v>507.729759959008</v>
       </c>
       <c r="D94" t="n">
-        <v>354.0182495117188</v>
+        <v>505.8591918945312</v>
       </c>
       <c r="E94" t="n">
-        <v>153.7115173339844</v>
+        <v>1.870574951171875</v>
       </c>
     </row>
     <row r="95">
@@ -2052,10 +2052,10 @@
         <v>508.548500683855</v>
       </c>
       <c r="D95" t="n">
-        <v>354.0270690917969</v>
+        <v>506.522705078125</v>
       </c>
       <c r="E95" t="n">
-        <v>154.5214233398438</v>
+        <v>2.025787353515625</v>
       </c>
     </row>
     <row r="96">
@@ -2069,10 +2069,10 @@
         <v>509.35051551836</v>
       </c>
       <c r="D96" t="n">
-        <v>354.0358276367188</v>
+        <v>507.1864624023438</v>
       </c>
       <c r="E96" t="n">
-        <v>155.314697265625</v>
+        <v>2.1640625</v>
       </c>
     </row>
     <row r="97">
@@ -2086,10 +2086,10 @@
         <v>510.1390004948551</v>
       </c>
       <c r="D97" t="n">
-        <v>354.0444641113281</v>
+        <v>507.8512268066406</v>
       </c>
       <c r="E97" t="n">
-        <v>156.0945434570312</v>
+        <v>2.28778076171875</v>
       </c>
     </row>
     <row r="98">
@@ -2103,10 +2103,10 @@
         <v>510.916598314415</v>
       </c>
       <c r="D98" t="n">
-        <v>354.0530395507812</v>
+        <v>508.5167846679688</v>
       </c>
       <c r="E98" t="n">
-        <v>156.8635559082031</v>
+        <v>2.399810791015625</v>
       </c>
     </row>
     <row r="99">
@@ -2120,10 +2120,10 @@
         <v>511.689313919243</v>
       </c>
       <c r="D99" t="n">
-        <v>354.0615539550781</v>
+        <v>509.1829833984375</v>
       </c>
       <c r="E99" t="n">
-        <v>157.6277465820312</v>
+        <v>2.506317138671875</v>
       </c>
     </row>
     <row r="100">
@@ -2137,10 +2137,10 @@
         <v>512.462492884584</v>
       </c>
       <c r="D100" t="n">
-        <v>354.0700378417969</v>
+        <v>509.8498840332031</v>
       </c>
       <c r="E100" t="n">
-        <v>158.3924255371094</v>
+        <v>2.612579345703125</v>
       </c>
     </row>
     <row r="101">
@@ -2154,10 +2154,10 @@
         <v>513.237101541007</v>
       </c>
       <c r="D101" t="n">
-        <v>354.0785217285156</v>
+        <v>510.5171508789062</v>
       </c>
       <c r="E101" t="n">
-        <v>159.1585998535156</v>
+        <v>2.719970703125</v>
       </c>
     </row>
     <row r="102">
@@ -2171,10 +2171,10 @@
         <v>514.012907844708</v>
       </c>
       <c r="D102" t="n">
-        <v>354.0870361328125</v>
+        <v>511.1846313476562</v>
       </c>
       <c r="E102" t="n">
-        <v>159.9258422851562</v>
+        <v>2.8282470703125</v>
       </c>
     </row>
     <row r="103">
@@ -2188,10 +2188,10 @@
         <v>514.794184775429</v>
       </c>
       <c r="D103" t="n">
-        <v>354.0955200195312</v>
+        <v>511.8527221679688</v>
       </c>
       <c r="E103" t="n">
-        <v>160.6986694335938</v>
+        <v>2.94146728515625</v>
       </c>
     </row>
     <row r="104">
@@ -2205,10 +2205,10 @@
         <v>515.585042287075</v>
       </c>
       <c r="D104" t="n">
-        <v>354.1040649414062</v>
+        <v>512.52099609375</v>
       </c>
       <c r="E104" t="n">
-        <v>161.48095703125</v>
+        <v>3.06402587890625</v>
       </c>
     </row>
     <row r="105">
@@ -2222,10 +2222,10 @@
         <v>516.382043385204</v>
       </c>
       <c r="D105" t="n">
-        <v>354.1126708984375</v>
+        <v>513.188720703125</v>
       </c>
       <c r="E105" t="n">
-        <v>162.2693481445312</v>
+        <v>3.19329833984375</v>
       </c>
     </row>
     <row r="106">
@@ -2239,10 +2239,10 @@
         <v>517.1815427831759</v>
       </c>
       <c r="D106" t="n">
-        <v>354.1213989257812</v>
+        <v>513.8558349609375</v>
       </c>
       <c r="E106" t="n">
-        <v>163.0601196289062</v>
+        <v>3.32568359375</v>
       </c>
     </row>
     <row r="107">
@@ -2256,10 +2256,10 @@
         <v>517.9794213237441</v>
       </c>
       <c r="D107" t="n">
-        <v>354.1301574707031</v>
+        <v>514.5224609375</v>
       </c>
       <c r="E107" t="n">
-        <v>163.8492736816406</v>
+        <v>3.45697021484375</v>
       </c>
     </row>
     <row r="108">
@@ -2273,10 +2273,10 @@
         <v>518.775930697411</v>
       </c>
       <c r="D108" t="n">
-        <v>354.138916015625</v>
+        <v>515.1890869140625</v>
       </c>
       <c r="E108" t="n">
-        <v>164.6370239257812</v>
+        <v>3.58685302734375</v>
       </c>
     </row>
     <row r="109">
@@ -2290,10 +2290,10 @@
         <v>519.573257265865</v>
       </c>
       <c r="D109" t="n">
-        <v>354.1477355957031</v>
+        <v>515.8549194335938</v>
       </c>
       <c r="E109" t="n">
-        <v>165.4255065917969</v>
+        <v>3.71832275390625</v>
       </c>
     </row>
     <row r="110">
@@ -2307,10 +2307,10 @@
         <v>520.369388681492</v>
       </c>
       <c r="D110" t="n">
-        <v>354.1565856933594</v>
+        <v>516.520263671875</v>
       </c>
       <c r="E110" t="n">
-        <v>166.2127990722656</v>
+        <v>3.84912109375</v>
       </c>
     </row>
     <row r="111">
@@ -2324,10 +2324,10 @@
         <v>521.1644328619909</v>
       </c>
       <c r="D111" t="n">
-        <v>354.1654052734375</v>
+        <v>517.1854248046875</v>
       </c>
       <c r="E111" t="n">
-        <v>166.9990234375</v>
+        <v>3.97900390625</v>
       </c>
     </row>
     <row r="112">
@@ -2341,10 +2341,10 @@
         <v>521.961533450585</v>
       </c>
       <c r="D112" t="n">
-        <v>354.1741943359375</v>
+        <v>517.8507080078125</v>
       </c>
       <c r="E112" t="n">
-        <v>167.787353515625</v>
+        <v>4.11083984375</v>
       </c>
     </row>
     <row r="113">
@@ -2358,10 +2358,10 @@
         <v>522.760464163294</v>
       </c>
       <c r="D113" t="n">
-        <v>354.1829833984375</v>
+        <v>518.5158081054688</v>
       </c>
       <c r="E113" t="n">
-        <v>168.5774536132812</v>
+        <v>4.24462890625</v>
       </c>
     </row>
     <row r="114">
@@ -2375,10 +2375,10 @@
         <v>523.557609596411</v>
       </c>
       <c r="D114" t="n">
-        <v>354.1918334960938</v>
+        <v>519.18017578125</v>
       </c>
       <c r="E114" t="n">
-        <v>169.3657836914062</v>
+        <v>4.37744140625</v>
       </c>
     </row>
     <row r="115">
@@ -2392,10 +2392,10 @@
         <v>524.3508763392609</v>
       </c>
       <c r="D115" t="n">
-        <v>354.2006530761719</v>
+        <v>519.8444213867188</v>
       </c>
       <c r="E115" t="n">
-        <v>170.1502380371094</v>
+        <v>4.5064697265625</v>
       </c>
     </row>
     <row r="116">
@@ -2409,10 +2409,10 @@
         <v>525.13905408516</v>
       </c>
       <c r="D116" t="n">
-        <v>354.2093811035156</v>
+        <v>520.5093383789062</v>
       </c>
       <c r="E116" t="n">
-        <v>170.9296569824219</v>
+        <v>4.62969970703125</v>
       </c>
     </row>
     <row r="117">
@@ -2426,10 +2426,10 @@
         <v>525.92923097068</v>
       </c>
       <c r="D117" t="n">
-        <v>354.218017578125</v>
+        <v>521.175048828125</v>
       </c>
       <c r="E117" t="n">
-        <v>171.7112426757812</v>
+        <v>4.75421142578125</v>
       </c>
     </row>
     <row r="118">
@@ -2443,10 +2443,10 @@
         <v>526.7266300602059</v>
       </c>
       <c r="D118" t="n">
-        <v>354.2264709472656</v>
+        <v>521.8423461914062</v>
       </c>
       <c r="E118" t="n">
-        <v>172.5001525878906</v>
+        <v>4.88427734375</v>
       </c>
     </row>
     <row r="119">
@@ -2460,10 +2460,10 @@
         <v>527.531264074822</v>
       </c>
       <c r="D119" t="n">
-        <v>354.2348937988281</v>
+        <v>522.5108642578125</v>
       </c>
       <c r="E119" t="n">
-        <v>173.2963562011719</v>
+        <v>5.0203857421875</v>
       </c>
     </row>
     <row r="120">
@@ -2477,10 +2477,10 @@
         <v>528.337681948824</v>
       </c>
       <c r="D120" t="n">
-        <v>354.2433471679688</v>
+        <v>523.1793823242188</v>
       </c>
       <c r="E120" t="n">
-        <v>174.0943603515625</v>
+        <v>5.1583251953125</v>
       </c>
     </row>
     <row r="121">
@@ -2494,10 +2494,10 @@
         <v>529.141108687154</v>
       </c>
       <c r="D121" t="n">
-        <v>354.2518310546875</v>
+        <v>523.8482055664062</v>
       </c>
       <c r="E121" t="n">
-        <v>174.8892822265625</v>
+        <v>5.29290771484375</v>
       </c>
     </row>
     <row r="122">
@@ -2511,10 +2511,10 @@
         <v>529.938784510251</v>
       </c>
       <c r="D122" t="n">
-        <v>354.2602844238281</v>
+        <v>524.517822265625</v>
       </c>
       <c r="E122" t="n">
-        <v>175.6784973144531</v>
+        <v>5.42095947265625</v>
       </c>
     </row>
     <row r="123">
@@ -2528,10 +2528,10 @@
         <v>530.730932788171</v>
       </c>
       <c r="D123" t="n">
-        <v>354.2687072753906</v>
+        <v>525.1883544921875</v>
       </c>
       <c r="E123" t="n">
-        <v>176.4622497558594</v>
+        <v>5.5426025390625</v>
       </c>
     </row>
     <row r="124">
@@ -2545,10 +2545,10 @@
         <v>531.520061451296</v>
       </c>
       <c r="D124" t="n">
-        <v>354.277099609375</v>
+        <v>525.8598022460938</v>
       </c>
       <c r="E124" t="n">
-        <v>177.2429809570312</v>
+        <v>5.6602783203125</v>
       </c>
     </row>
     <row r="125">
@@ -2562,10 +2562,10 @@
         <v>532.30970074917</v>
       </c>
       <c r="D125" t="n">
-        <v>354.2854614257812</v>
+        <v>526.5321655273438</v>
       </c>
       <c r="E125" t="n">
-        <v>178.0242309570312</v>
+        <v>5.77752685546875</v>
       </c>
     </row>
     <row r="126">
@@ -2579,10 +2579,10 @@
         <v>533.09975937603</v>
       </c>
       <c r="D126" t="n">
-        <v>354.2938232421875</v>
+        <v>527.2054443359375</v>
       </c>
       <c r="E126" t="n">
-        <v>178.805908203125</v>
+        <v>5.894287109375</v>
       </c>
     </row>
     <row r="127">
@@ -2596,10 +2596,10 @@
         <v>533.890796334353</v>
       </c>
       <c r="D127" t="n">
-        <v>354.3021545410156</v>
+        <v>527.8797607421875</v>
       </c>
       <c r="E127" t="n">
-        <v>179.5886535644531</v>
+        <v>6.01104736328125</v>
       </c>
     </row>
     <row r="128">
@@ -2613,10 +2613,10 @@
         <v>534.685509182465</v>
       </c>
       <c r="D128" t="n">
-        <v>354.3104553222656</v>
+        <v>528.5554809570312</v>
       </c>
       <c r="E128" t="n">
-        <v>180.3750305175781</v>
+        <v>6.1300048828125</v>
       </c>
     </row>
     <row r="129">
@@ -2630,10 +2630,10 @@
         <v>535.488739001942</v>
       </c>
       <c r="D129" t="n">
-        <v>354.3187561035156</v>
+        <v>529.2322387695312</v>
       </c>
       <c r="E129" t="n">
-        <v>181.1699523925781</v>
+        <v>6.2564697265625</v>
       </c>
     </row>
     <row r="130">
@@ -2647,10 +2647,10 @@
         <v>536.300083591088</v>
       </c>
       <c r="D130" t="n">
-        <v>354.3271179199219</v>
+        <v>529.9091796875</v>
       </c>
       <c r="E130" t="n">
-        <v>181.9729919433594</v>
+        <v>6.39093017578125</v>
       </c>
     </row>
     <row r="131">
@@ -2664,10 +2664,10 @@
         <v>537.1117940385531</v>
       </c>
       <c r="D131" t="n">
-        <v>354.3356628417969</v>
+        <v>530.5857543945312</v>
       </c>
       <c r="E131" t="n">
-        <v>182.7761535644531</v>
+        <v>6.52606201171875</v>
       </c>
     </row>
     <row r="132">
@@ -2681,10 +2681,10 @@
         <v>537.9202601223781</v>
       </c>
       <c r="D132" t="n">
-        <v>354.3442993164062</v>
+        <v>531.26171875</v>
       </c>
       <c r="E132" t="n">
-        <v>183.5759887695312</v>
+        <v>6.6585693359375</v>
       </c>
     </row>
     <row r="133">
@@ -2698,10 +2698,10 @@
         <v>538.722572709315</v>
       </c>
       <c r="D133" t="n">
-        <v>354.3530883789062</v>
+        <v>531.9368896484375</v>
       </c>
       <c r="E133" t="n">
-        <v>184.3695068359375</v>
+        <v>6.78570556640625</v>
       </c>
     </row>
     <row r="134">
@@ -2715,10 +2715,10 @@
         <v>539.517546450646</v>
       </c>
       <c r="D134" t="n">
-        <v>354.3619384765625</v>
+        <v>532.6114501953125</v>
       </c>
       <c r="E134" t="n">
-        <v>185.1555786132812</v>
+        <v>6.90606689453125</v>
       </c>
     </row>
     <row r="135">
@@ -2732,10 +2732,10 @@
         <v>540.303542877867</v>
       </c>
       <c r="D135" t="n">
-        <v>354.3707885742188</v>
+        <v>533.28564453125</v>
       </c>
       <c r="E135" t="n">
-        <v>185.9327392578125</v>
+        <v>7.01788330078125</v>
       </c>
     </row>
     <row r="136">
@@ -2749,10 +2749,10 @@
         <v>541.077054873213</v>
       </c>
       <c r="D136" t="n">
-        <v>354.3796081542969</v>
+        <v>533.9605102539062</v>
       </c>
       <c r="E136" t="n">
-        <v>186.6974182128906</v>
+        <v>7.11651611328125</v>
       </c>
     </row>
     <row r="137">
@@ -2766,10 +2766,10 @@
         <v>541.834585991448</v>
       </c>
       <c r="D137" t="n">
-        <v>354.3883361816406</v>
+        <v>534.6357421875</v>
       </c>
       <c r="E137" t="n">
-        <v>187.4462585449219</v>
+        <v>7.1988525390625</v>
       </c>
     </row>
     <row r="138">
@@ -2783,10 +2783,10 @@
         <v>542.584876679496</v>
       </c>
       <c r="D138" t="n">
-        <v>354.3971252441406</v>
+        <v>535.3109741210938</v>
       </c>
       <c r="E138" t="n">
-        <v>188.1877746582031</v>
+        <v>7.27392578125</v>
       </c>
     </row>
     <row r="139">
@@ -2800,10 +2800,10 @@
         <v>543.335969225772</v>
       </c>
       <c r="D139" t="n">
-        <v>354.4059448242188</v>
+        <v>535.9859008789062</v>
       </c>
       <c r="E139" t="n">
-        <v>188.9300537109375</v>
+        <v>7.35009765625</v>
       </c>
     </row>
     <row r="140">
@@ -2817,10 +2817,10 @@
         <v>544.089736943475</v>
       </c>
       <c r="D140" t="n">
-        <v>354.414794921875</v>
+        <v>536.6603393554688</v>
       </c>
       <c r="E140" t="n">
-        <v>189.6749267578125</v>
+        <v>7.42938232421875</v>
       </c>
     </row>
     <row r="141">
@@ -2834,10 +2834,10 @@
         <v>544.851398144488</v>
       </c>
       <c r="D141" t="n">
-        <v>354.4236450195312</v>
+        <v>537.334716796875</v>
       </c>
       <c r="E141" t="n">
-        <v>190.427734375</v>
+        <v>7.51666259765625</v>
       </c>
     </row>
     <row r="142">
@@ -2851,10 +2851,10 @@
         <v>545.6258687875741</v>
       </c>
       <c r="D142" t="n">
-        <v>354.4325256347656</v>
+        <v>538.0089111328125</v>
       </c>
       <c r="E142" t="n">
-        <v>191.1933288574219</v>
+        <v>7.616943359375</v>
       </c>
     </row>
     <row r="143">
@@ -2868,10 +2868,10 @@
         <v>546.418037271244</v>
       </c>
       <c r="D143" t="n">
-        <v>354.44140625</v>
+        <v>538.6829833984375</v>
       </c>
       <c r="E143" t="n">
-        <v>191.9766235351562</v>
+        <v>7.73504638671875</v>
       </c>
     </row>
     <row r="144">
@@ -2885,10 +2885,10 @@
         <v>547.226733806461</v>
       </c>
       <c r="D144" t="n">
-        <v>354.4501953125</v>
+        <v>539.3575439453125</v>
       </c>
       <c r="E144" t="n">
-        <v>192.7765502929688</v>
+        <v>7.86920166015625</v>
       </c>
     </row>
     <row r="145">
@@ -2902,10 +2902,10 @@
         <v>548.043876050138</v>
       </c>
       <c r="D145" t="n">
-        <v>354.4590148925781</v>
+        <v>540.0321044921875</v>
       </c>
       <c r="E145" t="n">
-        <v>193.5848693847656</v>
+        <v>8.01177978515625</v>
       </c>
     </row>
     <row r="146">
@@ -2919,10 +2919,10 @@
         <v>548.860162671794</v>
       </c>
       <c r="D146" t="n">
-        <v>354.4678039550781</v>
+        <v>540.7066650390625</v>
       </c>
       <c r="E146" t="n">
-        <v>194.3923645019531</v>
+        <v>8.15350341796875</v>
       </c>
     </row>
     <row r="147">
@@ -2936,10 +2936,10 @@
         <v>549.669826655524</v>
       </c>
       <c r="D147" t="n">
-        <v>354.4765930175781</v>
+        <v>541.3814697265625</v>
       </c>
       <c r="E147" t="n">
-        <v>195.1932067871094</v>
+        <v>8.288330078125</v>
       </c>
     </row>
     <row r="148">
@@ -2953,10 +2953,10 @@
         <v>550.4697453914939</v>
       </c>
       <c r="D148" t="n">
-        <v>354.4853210449219</v>
+        <v>542.056640625</v>
       </c>
       <c r="E148" t="n">
-        <v>195.9844055175781</v>
+        <v>8.4130859375</v>
       </c>
     </row>
     <row r="149">
@@ -2970,10 +2970,10 @@
         <v>551.2578901511171</v>
       </c>
       <c r="D149" t="n">
-        <v>354.4941101074219</v>
+        <v>542.7317504882812</v>
       </c>
       <c r="E149" t="n">
-        <v>196.7637634277344</v>
+        <v>8.526123046875</v>
       </c>
     </row>
     <row r="150">
@@ -2987,10 +2987,10 @@
         <v>552.033748229647</v>
       </c>
       <c r="D150" t="n">
-        <v>354.5028991699219</v>
+        <v>543.4066772460938</v>
       </c>
       <c r="E150" t="n">
-        <v>197.5308532714844</v>
+        <v>8.6270751953125</v>
       </c>
     </row>
     <row r="151">
@@ -3004,10 +3004,10 @@
         <v>552.798343373407</v>
       </c>
       <c r="D151" t="n">
-        <v>354.5116882324219</v>
+        <v>544.081787109375</v>
       </c>
       <c r="E151" t="n">
-        <v>198.2866516113281</v>
+        <v>8.716552734375</v>
       </c>
     </row>
     <row r="152">
@@ -3021,10 +3021,10 @@
         <v>553.5542391086431</v>
       </c>
       <c r="D152" t="n">
-        <v>354.5204162597656</v>
+        <v>544.7572631835938</v>
       </c>
       <c r="E152" t="n">
-        <v>199.0338439941406</v>
+        <v>8.7969970703125</v>
       </c>
     </row>
     <row r="153">
@@ -3038,10 +3038,10 @@
         <v>554.30511703942</v>
       </c>
       <c r="D153" t="n">
-        <v>354.5291137695312</v>
+        <v>545.4334106445312</v>
       </c>
       <c r="E153" t="n">
-        <v>199.7760009765625</v>
+        <v>8.8717041015625</v>
       </c>
     </row>
     <row r="154">
@@ -3055,10 +3055,10 @@
         <v>555.0512731800339</v>
       </c>
       <c r="D154" t="n">
-        <v>354.5378112792969</v>
+        <v>546.1099853515625</v>
       </c>
       <c r="E154" t="n">
-        <v>200.5134582519531</v>
+        <v>8.9412841796875</v>
       </c>
     </row>
     <row r="155">
@@ -3072,10 +3072,10 @@
         <v>555.7934720108041</v>
       </c>
       <c r="D155" t="n">
-        <v>354.5465698242188</v>
+        <v>546.7859497070312</v>
       </c>
       <c r="E155" t="n">
-        <v>201.2468872070312</v>
+        <v>9.00750732421875</v>
       </c>
     </row>
     <row r="156">
@@ -3089,10 +3089,10 @@
         <v>556.529665678295</v>
       </c>
       <c r="D156" t="n">
-        <v>354.555419921875</v>
+        <v>547.4613037109375</v>
       </c>
       <c r="E156" t="n">
-        <v>201.9742431640625</v>
+        <v>9.068359375</v>
       </c>
     </row>
     <row r="157">
@@ -3106,10 +3106,10 @@
         <v>557.261705510237</v>
       </c>
       <c r="D157" t="n">
-        <v>354.5643310546875</v>
+        <v>548.1360473632812</v>
       </c>
       <c r="E157" t="n">
-        <v>202.6973876953125</v>
+        <v>9.12567138671875</v>
       </c>
     </row>
     <row r="158">
@@ -3123,10 +3123,10 @@
         <v>557.994565095105</v>
       </c>
       <c r="D158" t="n">
-        <v>354.5732727050781</v>
+        <v>548.8103637695312</v>
       </c>
       <c r="E158" t="n">
-        <v>203.4212951660156</v>
+        <v>9.1842041015625</v>
       </c>
     </row>
     <row r="159">
@@ -3140,10 +3140,10 @@
         <v>558.73443819181</v>
       </c>
       <c r="D159" t="n">
-        <v>354.5821838378906</v>
+        <v>549.4847412109375</v>
       </c>
       <c r="E159" t="n">
-        <v>204.1522521972656</v>
+        <v>9.24969482421875</v>
       </c>
     </row>
     <row r="160">
@@ -3157,10 +3157,10 @@
         <v>559.4860486916471</v>
       </c>
       <c r="D160" t="n">
-        <v>354.5910034179688</v>
+        <v>550.1595458984375</v>
       </c>
       <c r="E160" t="n">
-        <v>204.89501953125</v>
+        <v>9.32647705078125</v>
       </c>
     </row>
     <row r="161">
@@ -3174,10 +3174,10 @@
         <v>560.2470921282111</v>
       </c>
       <c r="D161" t="n">
-        <v>354.5997619628906</v>
+        <v>550.8349609375</v>
       </c>
       <c r="E161" t="n">
-        <v>205.6473083496094</v>
+        <v>9.412109375</v>
       </c>
     </row>
     <row r="162">
@@ -3191,10 +3191,10 @@
         <v>561.012226911323</v>
       </c>
       <c r="D162" t="n">
-        <v>354.6084899902344</v>
+        <v>551.510986328125</v>
       </c>
       <c r="E162" t="n">
-        <v>206.4037170410156</v>
+        <v>9.501220703125</v>
       </c>
     </row>
     <row r="163">
@@ -3208,10 +3208,10 @@
         <v>561.77619213815</v>
       </c>
       <c r="D163" t="n">
-        <v>354.6172180175781</v>
+        <v>552.1871948242188</v>
       </c>
       <c r="E163" t="n">
-        <v>207.1589660644531</v>
+        <v>9.5889892578125</v>
       </c>
     </row>
     <row r="164">
@@ -3225,10 +3225,10 @@
         <v>562.5425275875859</v>
       </c>
       <c r="D164" t="n">
-        <v>354.6259155273438</v>
+        <v>552.8637084960938</v>
       </c>
       <c r="E164" t="n">
-        <v>207.9166259765625</v>
+        <v>9.6788330078125</v>
       </c>
     </row>
     <row r="165">
@@ -3242,10 +3242,10 @@
         <v>563.310378650635</v>
       </c>
       <c r="D165" t="n">
-        <v>354.6345520019531</v>
+        <v>553.5410766601562</v>
       </c>
       <c r="E165" t="n">
-        <v>208.6758117675781</v>
+        <v>9.769287109375</v>
       </c>
     </row>
     <row r="166">
@@ -3259,10 +3259,10 @@
         <v>564.076790434184</v>
       </c>
       <c r="D166" t="n">
-        <v>354.6431884765625</v>
+        <v>554.2190551757812</v>
       </c>
       <c r="E166" t="n">
-        <v>209.43359375</v>
+        <v>9.85772705078125</v>
       </c>
     </row>
     <row r="167">
@@ -3276,10 +3276,10 @@
         <v>564.846380122058</v>
       </c>
       <c r="D167" t="n">
-        <v>354.6517639160156</v>
+        <v>554.89794921875</v>
       </c>
       <c r="E167" t="n">
-        <v>210.1946105957031</v>
+        <v>9.94842529296875</v>
       </c>
     </row>
     <row r="168">
@@ -3293,10 +3293,10 @@
         <v>565.6177463081809</v>
       </c>
       <c r="D168" t="n">
-        <v>354.6603088378906</v>
+        <v>555.5775146484375</v>
       </c>
       <c r="E168" t="n">
-        <v>210.9574279785156</v>
+        <v>10.04022216796875</v>
       </c>
     </row>
     <row r="169">
@@ -3310,10 +3310,10 @@
         <v>566.3837947847439</v>
       </c>
       <c r="D169" t="n">
-        <v>354.6688232421875</v>
+        <v>556.2581787109375</v>
       </c>
       <c r="E169" t="n">
-        <v>211.7149658203125</v>
+        <v>10.1256103515625</v>
       </c>
     </row>
     <row r="170">
@@ -3327,10 +3327,10 @@
         <v>567.147078184546</v>
       </c>
       <c r="D170" t="n">
-        <v>354.67724609375</v>
+        <v>556.9404296875</v>
       </c>
       <c r="E170" t="n">
-        <v>212.4698486328125</v>
+        <v>10.2066650390625</v>
       </c>
     </row>
     <row r="171">
@@ -3344,10 +3344,10 @@
         <v>567.913653135667</v>
       </c>
       <c r="D171" t="n">
-        <v>354.6856384277344</v>
+        <v>557.6239013671875</v>
       </c>
       <c r="E171" t="n">
-        <v>213.2279968261719</v>
+        <v>10.28973388671875</v>
       </c>
     </row>
     <row r="172">
@@ -3361,10 +3361,10 @@
         <v>568.685604495657</v>
       </c>
       <c r="D172" t="n">
-        <v>354.6940307617188</v>
+        <v>558.3084716796875</v>
       </c>
       <c r="E172" t="n">
-        <v>213.9915771484375</v>
+        <v>10.37713623046875</v>
       </c>
     </row>
     <row r="173">
@@ -3378,10 +3378,10 @@
         <v>569.462648934653</v>
       </c>
       <c r="D173" t="n">
-        <v>354.7025146484375</v>
+        <v>558.9932861328125</v>
       </c>
       <c r="E173" t="n">
-        <v>214.7601318359375</v>
+        <v>10.4693603515625</v>
       </c>
     </row>
     <row r="174">
@@ -3395,10 +3395,10 @@
         <v>570.240508587697</v>
       </c>
       <c r="D174" t="n">
-        <v>354.7111206054688</v>
+        <v>559.6778564453125</v>
       </c>
       <c r="E174" t="n">
-        <v>215.5293579101562</v>
+        <v>10.5626220703125</v>
       </c>
     </row>
     <row r="175">
@@ -3412,10 +3412,10 @@
         <v>571.016013120167</v>
       </c>
       <c r="D175" t="n">
-        <v>354.7198791503906</v>
+        <v>560.3615112304688</v>
       </c>
       <c r="E175" t="n">
-        <v>216.2961120605469</v>
+        <v>10.65447998046875</v>
       </c>
     </row>
     <row r="176">
@@ -3429,10 +3429,10 @@
         <v>571.789637823436</v>
       </c>
       <c r="D176" t="n">
-        <v>354.728759765625</v>
+        <v>561.04443359375</v>
       </c>
       <c r="E176" t="n">
-        <v>217.0608520507812</v>
+        <v>10.74517822265625</v>
       </c>
     </row>
     <row r="177">
@@ -3446,10 +3446,10 @@
         <v>572.565149511662</v>
       </c>
       <c r="D177" t="n">
-        <v>354.7376708984375</v>
+        <v>561.7272338867188</v>
       </c>
       <c r="E177" t="n">
-        <v>217.8274536132812</v>
+        <v>10.837890625</v>
       </c>
     </row>
     <row r="178">
@@ -3463,10 +3463,10 @@
         <v>573.343602866576</v>
       </c>
       <c r="D178" t="n">
-        <v>354.7465209960938</v>
+        <v>562.410400390625</v>
       </c>
       <c r="E178" t="n">
-        <v>218.5971069335938</v>
+        <v>10.9332275390625</v>
       </c>
     </row>
     <row r="179">
@@ -3480,10 +3480,10 @@
         <v>574.126523624147</v>
       </c>
       <c r="D179" t="n">
-        <v>354.7553405761719</v>
+        <v>563.0941162109375</v>
       </c>
       <c r="E179" t="n">
-        <v>219.3711853027344</v>
+        <v>11.03240966796875</v>
       </c>
     </row>
     <row r="180">
@@ -3497,10 +3497,10 @@
         <v>574.909902208724</v>
       </c>
       <c r="D180" t="n">
-        <v>354.76416015625</v>
+        <v>563.7780151367188</v>
       </c>
       <c r="E180" t="n">
-        <v>220.145751953125</v>
+        <v>11.13189697265625</v>
       </c>
     </row>
     <row r="181">
@@ -3514,10 +3514,10 @@
         <v>575.68657857253</v>
       </c>
       <c r="D181" t="n">
-        <v>354.7730712890625</v>
+        <v>564.46142578125</v>
       </c>
       <c r="E181" t="n">
-        <v>220.9135131835938</v>
+        <v>11.22515869140625</v>
       </c>
     </row>
     <row r="182">
@@ -3531,10 +3531,10 @@
         <v>576.449995797848</v>
       </c>
       <c r="D182" t="n">
-        <v>354.7820129394531</v>
+        <v>565.1443481445312</v>
       </c>
       <c r="E182" t="n">
-        <v>221.6679992675781</v>
+        <v>11.3056640625</v>
       </c>
     </row>
     <row r="183">
@@ -3548,10 +3548,10 @@
         <v>577.199722184597</v>
       </c>
       <c r="D183" t="n">
-        <v>354.7910461425781</v>
+        <v>565.82666015625</v>
       </c>
       <c r="E183" t="n">
-        <v>222.4086608886719</v>
+        <v>11.373046875</v>
       </c>
     </row>
     <row r="184">
@@ -3565,10 +3565,10 @@
         <v>577.935739099875</v>
       </c>
       <c r="D184" t="n">
-        <v>354.8000793457031</v>
+        <v>566.50830078125</v>
       </c>
       <c r="E184" t="n">
-        <v>223.1356506347656</v>
+        <v>11.42742919921875</v>
       </c>
     </row>
     <row r="185">
@@ -3582,10 +3582,10 @@
         <v>578.658247057946</v>
       </c>
       <c r="D185" t="n">
-        <v>354.8091735839844</v>
+        <v>567.1895751953125</v>
       </c>
       <c r="E185" t="n">
-        <v>223.8490905761719</v>
+        <v>11.46868896484375</v>
       </c>
     </row>
     <row r="186">
@@ -3599,10 +3599,10 @@
         <v>579.363985294252</v>
       </c>
       <c r="D186" t="n">
-        <v>354.8182067871094</v>
+        <v>567.8707275390625</v>
       </c>
       <c r="E186" t="n">
-        <v>224.5458068847656</v>
+        <v>11.4932861328125</v>
       </c>
     </row>
     <row r="187">
@@ -3616,10 +3616,10 @@
         <v>580.04698545442</v>
       </c>
       <c r="D187" t="n">
-        <v>354.8272094726562</v>
+        <v>568.5520629882812</v>
       </c>
       <c r="E187" t="n">
-        <v>225.2197875976562</v>
+        <v>11.49493408203125</v>
       </c>
     </row>
     <row r="188">
@@ -3633,10 +3633,10 @@
         <v>580.721074972618</v>
       </c>
       <c r="D188" t="n">
-        <v>354.8361511230469</v>
+        <v>569.233642578125</v>
       </c>
       <c r="E188" t="n">
-        <v>225.8849182128906</v>
+        <v>11.4874267578125</v>
       </c>
     </row>
     <row r="189">
@@ -3650,10 +3650,10 @@
         <v>581.405491470642</v>
       </c>
       <c r="D189" t="n">
-        <v>354.8450927734375</v>
+        <v>569.9151611328125</v>
       </c>
       <c r="E189" t="n">
-        <v>226.5604248046875</v>
+        <v>11.4903564453125</v>
       </c>
     </row>
     <row r="190">
@@ -3667,10 +3667,10 @@
         <v>582.124395497207</v>
       </c>
       <c r="D190" t="n">
-        <v>354.8540649414062</v>
+        <v>570.5964965820312</v>
       </c>
       <c r="E190" t="n">
-        <v>227.2703247070312</v>
+        <v>11.52789306640625</v>
       </c>
     </row>
     <row r="191">
@@ -3684,10 +3684,10 @@
         <v>582.876182388795</v>
       </c>
       <c r="D191" t="n">
-        <v>354.8631591796875</v>
+        <v>571.2762451171875</v>
       </c>
       <c r="E191" t="n">
-        <v>228.0130004882812</v>
+        <v>11.59991455078125</v>
       </c>
     </row>
     <row r="192">
@@ -3701,10 +3701,10 @@
         <v>583.670106799146</v>
       </c>
       <c r="D192" t="n">
-        <v>354.8722229003906</v>
+        <v>571.9560546875</v>
       </c>
       <c r="E192" t="n">
-        <v>228.7978820800781</v>
+        <v>11.71405029296875</v>
       </c>
     </row>
     <row r="193">
@@ -3718,10 +3718,10 @@
         <v>584.414259534326</v>
       </c>
       <c r="D193" t="n">
-        <v>354.881103515625</v>
+        <v>572.63720703125</v>
       </c>
       <c r="E193" t="n">
-        <v>229.5331420898438</v>
+        <v>11.77703857421875</v>
       </c>
     </row>
     <row r="194">
@@ -3735,10 +3735,10 @@
         <v>585.1355745735659</v>
       </c>
       <c r="D194" t="n">
-        <v>354.8899536132812</v>
+        <v>573.318603515625</v>
       </c>
       <c r="E194" t="n">
-        <v>230.24560546875</v>
+        <v>11.81695556640625</v>
       </c>
     </row>
     <row r="195">
@@ -3752,10 +3752,10 @@
         <v>585.8493721784751</v>
       </c>
       <c r="D195" t="n">
-        <v>354.8988037109375</v>
+        <v>573.93505859375</v>
       </c>
       <c r="E195" t="n">
-        <v>230.9505615234375</v>
+        <v>11.914306640625</v>
       </c>
     </row>
     <row r="196">
@@ -3769,10 +3769,10 @@
         <v>586.561215476556</v>
       </c>
       <c r="D196" t="n">
-        <v>354.9076843261719</v>
+        <v>574.5072631835938</v>
       </c>
       <c r="E196" t="n">
-        <v>231.6535339355469</v>
+        <v>12.053955078125</v>
       </c>
     </row>
     <row r="197">
@@ -3786,10 +3786,10 @@
         <v>587.2730302167849</v>
       </c>
       <c r="D197" t="n">
-        <v>354.9165954589844</v>
+        <v>575.079345703125</v>
       </c>
       <c r="E197" t="n">
-        <v>232.3564147949219</v>
+        <v>12.19366455078125</v>
       </c>
     </row>
     <row r="198">
@@ -3803,10 +3803,10 @@
         <v>587.9851294139361</v>
       </c>
       <c r="D198" t="n">
-        <v>354.9254760742188</v>
+        <v>575.6513671875</v>
       </c>
       <c r="E198" t="n">
-        <v>233.0596313476562</v>
+        <v>12.333740234375</v>
       </c>
     </row>
     <row r="199">
@@ -3820,10 +3820,10 @@
         <v>588.696958039101</v>
       </c>
       <c r="D199" t="n">
-        <v>354.9343872070312</v>
+        <v>576.2233276367188</v>
       </c>
       <c r="E199" t="n">
-        <v>233.7625732421875</v>
+        <v>12.4736328125</v>
       </c>
     </row>
     <row r="200">
@@ -3837,10 +3837,10 @@
         <v>589.4074008957271</v>
       </c>
       <c r="D200" t="n">
-        <v>354.9432678222656</v>
+        <v>576.7953491210938</v>
       </c>
       <c r="E200" t="n">
-        <v>234.4641418457031</v>
+        <v>12.612060546875</v>
       </c>
     </row>
     <row r="201">
@@ -3854,10 +3854,10 @@
         <v>590.114891995119</v>
       </c>
       <c r="D201" t="n">
-        <v>354.9521789550781</v>
+        <v>577.3425903320312</v>
       </c>
       <c r="E201" t="n">
-        <v>235.1626892089844</v>
+        <v>12.77227783203125</v>
       </c>
     </row>
     <row r="202">
@@ -3871,10 +3871,10 @@
         <v>590.818051071176</v>
       </c>
       <c r="D202" t="n">
-        <v>354.9610595703125</v>
+        <v>577.7386474609375</v>
       </c>
       <c r="E202" t="n">
-        <v>235.8569946289062</v>
+        <v>13.07940673828125</v>
       </c>
     </row>
     <row r="203">
@@ -3888,10 +3888,10 @@
         <v>591.515826724007</v>
       </c>
       <c r="D203" t="n">
-        <v>354.969970703125</v>
+        <v>578.0670166015625</v>
       </c>
       <c r="E203" t="n">
-        <v>236.5458374023438</v>
+        <v>13.44879150390625</v>
       </c>
     </row>
     <row r="204">
@@ -3905,10 +3905,10 @@
         <v>592.208001982814</v>
       </c>
       <c r="D204" t="n">
-        <v>354.9788208007812</v>
+        <v>578.3953247070312</v>
       </c>
       <c r="E204" t="n">
-        <v>237.2291870117188</v>
+        <v>13.81268310546875</v>
       </c>
     </row>
     <row r="205">
@@ -3922,10 +3922,10 @@
         <v>251.671021855103</v>
       </c>
       <c r="D205" t="n">
-        <v>350.7395324707031</v>
+        <v>283.2811279296875</v>
       </c>
       <c r="E205" t="n">
-        <v>-99.06851196289062</v>
+        <v>-31.610107421875</v>
       </c>
     </row>
     <row r="206">
@@ -3939,10 +3939,10 @@
         <v>264.21622891732</v>
       </c>
       <c r="D206" t="n">
-        <v>350.8316650390625</v>
+        <v>287.1099548339844</v>
       </c>
       <c r="E206" t="n">
-        <v>-86.61544799804688</v>
+        <v>-22.89373779296875</v>
       </c>
     </row>
     <row r="207">
@@ -3956,10 +3956,10 @@
         <v>273.78575888259</v>
       </c>
       <c r="D207" t="n">
-        <v>351.0443725585938</v>
+        <v>291.0157775878906</v>
       </c>
       <c r="E207" t="n">
-        <v>-77.25860595703125</v>
+        <v>-17.23001098632812</v>
       </c>
     </row>
     <row r="208">
@@ -3973,10 +3973,10 @@
         <v>281.271311585657</v>
       </c>
       <c r="D208" t="n">
-        <v>351.3157348632812</v>
+        <v>294.2549133300781</v>
       </c>
       <c r="E208" t="n">
-        <v>-70.04443359375</v>
+        <v>-12.98361206054688</v>
       </c>
     </row>
     <row r="209">
@@ -3990,10 +3990,10 @@
         <v>287.530316916377</v>
       </c>
       <c r="D209" t="n">
-        <v>351.6065673828125</v>
+        <v>297.8497009277344</v>
       </c>
       <c r="E209" t="n">
-        <v>-64.07626342773438</v>
+        <v>-10.31939697265625</v>
       </c>
     </row>
     <row r="210">
@@ -4007,10 +4007,10 @@
         <v>293.135799212507</v>
       </c>
       <c r="D210" t="n">
-        <v>351.8741760253906</v>
+        <v>301.27294921875</v>
       </c>
       <c r="E210" t="n">
-        <v>-58.73837280273438</v>
+        <v>-8.13714599609375</v>
       </c>
     </row>
     <row r="211">
@@ -4024,10 +4024,10 @@
         <v>297.872315429841</v>
       </c>
       <c r="D211" t="n">
-        <v>352.1116027832031</v>
+        <v>304.46337890625</v>
       </c>
       <c r="E211" t="n">
-        <v>-54.23928833007812</v>
+        <v>-6.591064453125</v>
       </c>
     </row>
     <row r="212">
@@ -4041,10 +4041,10 @@
         <v>302.182437460197</v>
       </c>
       <c r="D212" t="n">
-        <v>352.3180541992188</v>
+        <v>307.7889709472656</v>
       </c>
       <c r="E212" t="n">
-        <v>-50.1356201171875</v>
+        <v>-5.606536865234375</v>
       </c>
     </row>
     <row r="213">
@@ -4058,10 +4058,10 @@
         <v>306.855290595792</v>
       </c>
       <c r="D213" t="n">
-        <v>352.4893188476562</v>
+        <v>310.9556274414062</v>
       </c>
       <c r="E213" t="n">
-        <v>-45.634033203125</v>
+        <v>-4.100341796875</v>
       </c>
     </row>
     <row r="214">
@@ -4075,10 +4075,10 @@
         <v>311.5812611667</v>
       </c>
       <c r="D214" t="n">
-        <v>352.6494445800781</v>
+        <v>314.159423828125</v>
       </c>
       <c r="E214" t="n">
-        <v>-41.06817626953125</v>
+        <v>-2.578155517578125</v>
       </c>
     </row>
     <row r="215">
@@ -4092,10 +4092,10 @@
         <v>316.151980459623</v>
       </c>
       <c r="D215" t="n">
-        <v>352.8160095214844</v>
+        <v>317.3008728027344</v>
       </c>
       <c r="E215" t="n">
-        <v>-36.66403198242188</v>
+        <v>-1.148895263671875</v>
       </c>
     </row>
     <row r="216">
@@ -4109,10 +4109,10 @@
         <v>321.024230909476</v>
       </c>
       <c r="D216" t="n">
-        <v>352.9885864257812</v>
+        <v>320.4236450195312</v>
       </c>
       <c r="E216" t="n">
-        <v>-31.96435546875</v>
+        <v>0.6005859375</v>
       </c>
     </row>
     <row r="217">
@@ -4126,10 +4126,10 @@
         <v>325.720452469642</v>
       </c>
       <c r="D217" t="n">
-        <v>353.1557922363281</v>
+        <v>323.5999450683594</v>
       </c>
       <c r="E217" t="n">
-        <v>-27.43533325195312</v>
+        <v>2.120513916015625</v>
       </c>
     </row>
     <row r="218">
@@ -4143,10 +4143,10 @@
         <v>329.938070675481</v>
       </c>
       <c r="D218" t="n">
-        <v>353.3067321777344</v>
+        <v>326.6217651367188</v>
       </c>
       <c r="E218" t="n">
-        <v>-23.36865234375</v>
+        <v>3.316314697265625</v>
       </c>
     </row>
     <row r="219">
@@ -4160,10 +4160,10 @@
         <v>334.215214491751</v>
       </c>
       <c r="D219" t="n">
-        <v>353.4503173828125</v>
+        <v>329.7733459472656</v>
       </c>
       <c r="E219" t="n">
-        <v>-19.235107421875</v>
+        <v>4.441864013671875</v>
       </c>
     </row>
     <row r="220">
@@ -4177,10 +4177,10 @@
         <v>337.884943190913</v>
       </c>
       <c r="D220" t="n">
-        <v>353.5956420898438</v>
+        <v>332.9883117675781</v>
       </c>
       <c r="E220" t="n">
-        <v>-15.710693359375</v>
+        <v>4.896636962890625</v>
       </c>
     </row>
     <row r="221">
@@ -4194,10 +4194,10 @@
         <v>340.494973180004</v>
       </c>
       <c r="D221" t="n">
-        <v>353.7372436523438</v>
+        <v>336.1042785644531</v>
       </c>
       <c r="E221" t="n">
-        <v>-13.24227905273438</v>
+        <v>4.39068603515625</v>
       </c>
     </row>
     <row r="222">
@@ -4211,10 +4211,10 @@
         <v>343.401474260756</v>
       </c>
       <c r="D222" t="n">
-        <v>353.8524475097656</v>
+        <v>339.34130859375</v>
       </c>
       <c r="E222" t="n">
-        <v>-10.45095825195312</v>
+        <v>4.0601806640625</v>
       </c>
     </row>
     <row r="223">
@@ -4228,10 +4228,10 @@
         <v>347.066950140101</v>
       </c>
       <c r="D223" t="n">
-        <v>353.9176940917969</v>
+        <v>342.5020141601562</v>
       </c>
       <c r="E223" t="n">
-        <v>-6.850738525390625</v>
+        <v>4.56494140625</v>
       </c>
     </row>
     <row r="224">
@@ -4245,10 +4245,10 @@
         <v>350.64108801961</v>
       </c>
       <c r="D224" t="n">
-        <v>353.9740600585938</v>
+        <v>345.6200561523438</v>
       </c>
       <c r="E224" t="n">
-        <v>-3.332977294921875</v>
+        <v>5.021026611328125</v>
       </c>
     </row>
     <row r="225">
@@ -4262,10 +4262,10 @@
         <v>354.109238630759</v>
       </c>
       <c r="D225" t="n">
-        <v>354.0236206054688</v>
+        <v>348.9546203613281</v>
       </c>
       <c r="E225" t="n">
-        <v>0.08563232421875</v>
+        <v>5.154632568359375</v>
       </c>
     </row>
     <row r="226">
@@ -4279,10 +4279,10 @@
         <v>357.621819120563</v>
       </c>
       <c r="D226" t="n">
-        <v>354.0792846679688</v>
+        <v>352.1337585449219</v>
       </c>
       <c r="E226" t="n">
-        <v>3.54254150390625</v>
+        <v>5.488067626953125</v>
       </c>
     </row>
     <row r="227">
@@ -4296,10 +4296,10 @@
         <v>360.763218221998</v>
       </c>
       <c r="D227" t="n">
-        <v>354.1359252929688</v>
+        <v>355.5705261230469</v>
       </c>
       <c r="E227" t="n">
-        <v>6.627288818359375</v>
+        <v>5.19268798828125</v>
       </c>
     </row>
     <row r="228">
@@ -4313,10 +4313,10 @@
         <v>364.206888941698</v>
       </c>
       <c r="D228" t="n">
-        <v>354.1887512207031</v>
+        <v>358.7986755371094</v>
       </c>
       <c r="E228" t="n">
-        <v>10.01812744140625</v>
+        <v>5.408203125</v>
       </c>
     </row>
     <row r="229">
@@ -4330,10 +4330,10 @@
         <v>368.431991902877</v>
       </c>
       <c r="D229" t="n">
-        <v>354.245361328125</v>
+        <v>362.0917053222656</v>
       </c>
       <c r="E229" t="n">
-        <v>14.1866455078125</v>
+        <v>6.340301513671875</v>
       </c>
     </row>
     <row r="230">
@@ -4347,10 +4347,10 @@
         <v>372.602133626715</v>
       </c>
       <c r="D230" t="n">
-        <v>354.3028869628906</v>
+        <v>365.5628967285156</v>
       </c>
       <c r="E230" t="n">
-        <v>18.29925537109375</v>
+        <v>7.03924560546875</v>
       </c>
     </row>
     <row r="231">
@@ -4364,10 +4364,10 @@
         <v>376.112602258517</v>
       </c>
       <c r="D231" t="n">
-        <v>354.3536682128906</v>
+        <v>368.8740539550781</v>
       </c>
       <c r="E231" t="n">
-        <v>21.75894165039062</v>
+        <v>7.238555908203125</v>
       </c>
     </row>
     <row r="232">
@@ -4381,10 +4381,10 @@
         <v>378.8712623499</v>
       </c>
       <c r="D232" t="n">
-        <v>354.4048156738281</v>
+        <v>372.3947143554688</v>
       </c>
       <c r="E232" t="n">
-        <v>24.46646118164062</v>
+        <v>6.4765625</v>
       </c>
     </row>
     <row r="233">
@@ -4398,10 +4398,10 @@
         <v>380.968581440183</v>
       </c>
       <c r="D233" t="n">
-        <v>354.4628601074219</v>
+        <v>375.7089538574219</v>
       </c>
       <c r="E233" t="n">
-        <v>26.50570678710938</v>
+        <v>5.259613037109375</v>
       </c>
     </row>
     <row r="234">
@@ -4415,10 +4415,10 @@
         <v>382.878105269777</v>
       </c>
       <c r="D234" t="n">
-        <v>354.5157165527344</v>
+        <v>379.2820739746094</v>
       </c>
       <c r="E234" t="n">
-        <v>28.36239624023438</v>
+        <v>3.596038818359375</v>
       </c>
     </row>
     <row r="235">
@@ -4432,10 +4432,10 @@
         <v>385.12847359556</v>
       </c>
       <c r="D235" t="n">
-        <v>354.5673217773438</v>
+        <v>382.6524047851562</v>
       </c>
       <c r="E235" t="n">
-        <v>30.5611572265625</v>
+        <v>2.47607421875</v>
       </c>
     </row>
     <row r="236">
@@ -4449,10 +4449,10 @@
         <v>387.971702780591</v>
       </c>
       <c r="D236" t="n">
-        <v>354.6213073730469</v>
+        <v>386.0419311523438</v>
       </c>
       <c r="E236" t="n">
-        <v>33.35040283203125</v>
+        <v>1.929779052734375</v>
       </c>
     </row>
     <row r="237">
@@ -4466,10 +4466,10 @@
         <v>391.452552277676</v>
       </c>
       <c r="D237" t="n">
-        <v>354.6693115234375</v>
+        <v>390.1434326171875</v>
       </c>
       <c r="E237" t="n">
-        <v>36.78323364257812</v>
+        <v>1.309112548828125</v>
       </c>
     </row>
     <row r="238">
@@ -4483,10 +4483,10 @@
         <v>395.032971553912</v>
       </c>
       <c r="D238" t="n">
-        <v>354.7116394042969</v>
+        <v>394.0470886230469</v>
       </c>
       <c r="E238" t="n">
-        <v>40.32131958007812</v>
+        <v>0.985870361328125</v>
       </c>
     </row>
     <row r="239">
@@ -4500,10 +4500,10 @@
         <v>398.280777627916</v>
       </c>
       <c r="D239" t="n">
-        <v>354.752685546875</v>
+        <v>398.2713317871094</v>
       </c>
       <c r="E239" t="n">
-        <v>43.52810668945312</v>
+        <v>0.00946044921875</v>
       </c>
     </row>
     <row r="240">
@@ -4517,10 +4517,10 @@
         <v>401.319887746144</v>
       </c>
       <c r="D240" t="n">
-        <v>354.8012390136719</v>
+        <v>402.0889282226562</v>
       </c>
       <c r="E240" t="n">
-        <v>46.51864624023438</v>
+        <v>-0.76904296875</v>
       </c>
     </row>
     <row r="241">
@@ -4534,10 +4534,10 @@
         <v>404.181049259923</v>
       </c>
       <c r="D241" t="n">
-        <v>354.8548889160156</v>
+        <v>406.24560546875</v>
       </c>
       <c r="E241" t="n">
-        <v>49.326171875</v>
+        <v>-2.064544677734375</v>
       </c>
     </row>
     <row r="242">
@@ -4551,10 +4551,10 @@
         <v>406.987507775872</v>
       </c>
       <c r="D242" t="n">
-        <v>354.9111938476562</v>
+        <v>410.1901245117188</v>
       </c>
       <c r="E242" t="n">
-        <v>52.07632446289062</v>
+        <v>-3.202606201171875</v>
       </c>
     </row>
     <row r="243">
@@ -4568,10 +4568,10 @@
         <v>409.908858985516</v>
       </c>
       <c r="D243" t="n">
-        <v>354.9676818847656</v>
+        <v>413.4481201171875</v>
       </c>
       <c r="E243" t="n">
-        <v>54.941162109375</v>
+        <v>-3.539276123046875</v>
       </c>
     </row>
     <row r="244">
@@ -4585,10 +4585,10 @@
         <v>412.755444712887</v>
       </c>
       <c r="D244" t="n">
-        <v>355.0200500488281</v>
+        <v>417.0021057128906</v>
       </c>
       <c r="E244" t="n">
-        <v>57.73538208007812</v>
+        <v>-4.246673583984375</v>
       </c>
     </row>
     <row r="245">
@@ -4602,10 +4602,10 @@
         <v>415.668896967125</v>
       </c>
       <c r="D245" t="n">
-        <v>355.0735778808594</v>
+        <v>420.35400390625</v>
       </c>
       <c r="E245" t="n">
-        <v>60.59530639648438</v>
+        <v>-4.68511962890625</v>
       </c>
     </row>
     <row r="246">
@@ -4619,10 +4619,10 @@
         <v>418.832170261699</v>
       </c>
       <c r="D246" t="n">
-        <v>355.1310729980469</v>
+        <v>423.8072204589844</v>
       </c>
       <c r="E246" t="n">
-        <v>63.70111083984375</v>
+        <v>-4.97503662109375</v>
       </c>
     </row>
     <row r="247">
@@ -4636,10 +4636,10 @@
         <v>422.010877906935</v>
       </c>
       <c r="D247" t="n">
-        <v>355.1947631835938</v>
+        <v>427.2137145996094</v>
       </c>
       <c r="E247" t="n">
-        <v>66.81610107421875</v>
+        <v>-5.202850341796875</v>
       </c>
     </row>
     <row r="248">
@@ -4653,10 +4653,10 @@
         <v>425.037382089327</v>
       </c>
       <c r="D248" t="n">
-        <v>355.2544860839844</v>
+        <v>431.0098571777344</v>
       </c>
       <c r="E248" t="n">
-        <v>69.78289794921875</v>
+        <v>-5.97247314453125</v>
       </c>
     </row>
     <row r="249">
@@ -4670,10 +4670,10 @@
         <v>427.868814223569</v>
       </c>
       <c r="D249" t="n">
-        <v>355.3055419921875</v>
+        <v>434.6019592285156</v>
       </c>
       <c r="E249" t="n">
-        <v>72.56326293945312</v>
+        <v>-6.733154296875</v>
       </c>
     </row>
     <row r="250">
@@ -4687,10 +4687,10 @@
         <v>430.578997579081</v>
       </c>
       <c r="D250" t="n">
-        <v>355.35205078125</v>
+        <v>438.1136169433594</v>
       </c>
       <c r="E250" t="n">
-        <v>75.22695922851562</v>
+        <v>-7.53460693359375</v>
       </c>
     </row>
     <row r="251">
@@ -4704,10 +4704,10 @@
         <v>433.637530085374</v>
       </c>
       <c r="D251" t="n">
-        <v>355.4014892578125</v>
+        <v>441.791015625</v>
       </c>
       <c r="E251" t="n">
-        <v>78.23605346679688</v>
+        <v>-8.153472900390625</v>
       </c>
     </row>
     <row r="252">
@@ -4721,10 +4721,10 @@
         <v>437.125932179922</v>
       </c>
       <c r="D252" t="n">
-        <v>355.45751953125</v>
+        <v>445.5613403320312</v>
       </c>
       <c r="E252" t="n">
-        <v>81.66842651367188</v>
+        <v>-8.435394287109375</v>
       </c>
     </row>
     <row r="253">
@@ -4738,10 +4738,10 @@
         <v>440.4055118365101</v>
       </c>
       <c r="D253" t="n">
-        <v>355.5208435058594</v>
+        <v>449.28125</v>
       </c>
       <c r="E253" t="n">
-        <v>84.88467407226562</v>
+        <v>-8.875732421875</v>
       </c>
     </row>
     <row r="254">
@@ -4755,10 +4755,10 @@
         <v>443.030677527441</v>
       </c>
       <c r="D254" t="n">
-        <v>355.5845336914062</v>
+        <v>452.2207336425781</v>
       </c>
       <c r="E254" t="n">
-        <v>87.44613647460938</v>
+        <v>-9.1900634765625</v>
       </c>
     </row>
     <row r="255">
@@ -4772,10 +4772,10 @@
         <v>445.101870792375</v>
       </c>
       <c r="D255" t="n">
-        <v>355.6394653320312</v>
+        <v>455.0933227539062</v>
       </c>
       <c r="E255" t="n">
-        <v>89.46240234375</v>
+        <v>-9.991455078125</v>
       </c>
     </row>
     <row r="256">
@@ -4789,10 +4789,10 @@
         <v>447.220367875882</v>
       </c>
       <c r="D256" t="n">
-        <v>355.6903991699219</v>
+        <v>458.2120971679688</v>
       </c>
       <c r="E256" t="n">
-        <v>91.52996826171875</v>
+        <v>-10.99172973632812</v>
       </c>
     </row>
     <row r="257">
@@ -4806,10 +4806,10 @@
         <v>449.90041684165</v>
       </c>
       <c r="D257" t="n">
-        <v>355.748291015625</v>
+        <v>461.2605590820312</v>
       </c>
       <c r="E257" t="n">
-        <v>94.15213012695312</v>
+        <v>-11.36013793945312</v>
       </c>
     </row>
     <row r="258">
@@ -4823,10 +4823,10 @@
         <v>453.08609835363</v>
       </c>
       <c r="D258" t="n">
-        <v>355.8138427734375</v>
+        <v>464.2130126953125</v>
       </c>
       <c r="E258" t="n">
-        <v>97.27224731445312</v>
+        <v>-11.12692260742188</v>
       </c>
     </row>
     <row r="259">
@@ -4840,10 +4840,10 @@
         <v>456.288903224159</v>
       </c>
       <c r="D259" t="n">
-        <v>355.8844299316406</v>
+        <v>467.1689758300781</v>
       </c>
       <c r="E259" t="n">
-        <v>100.4044799804688</v>
+        <v>-10.88006591796875</v>
       </c>
     </row>
     <row r="260">
@@ -4857,10 +4857,10 @@
         <v>459.272590377322</v>
       </c>
       <c r="D260" t="n">
-        <v>355.9547119140625</v>
+        <v>470.0733032226562</v>
       </c>
       <c r="E260" t="n">
-        <v>103.31787109375</v>
+        <v>-10.80072021484375</v>
       </c>
     </row>
     <row r="261">
@@ -4874,10 +4874,10 @@
         <v>461.846979094997</v>
       </c>
       <c r="D261" t="n">
-        <v>356.0166015625</v>
+        <v>473.2360229492188</v>
       </c>
       <c r="E261" t="n">
-        <v>105.8303833007812</v>
+        <v>-11.3890380859375</v>
       </c>
     </row>
     <row r="262">
@@ -4891,10 +4891,10 @@
         <v>464.240694187358</v>
       </c>
       <c r="D262" t="n">
-        <v>356.0762939453125</v>
+        <v>476.2646484375</v>
       </c>
       <c r="E262" t="n">
-        <v>108.1643981933594</v>
+        <v>-12.02395629882812</v>
       </c>
     </row>
     <row r="263">
@@ -4908,10 +4908,10 @@
         <v>466.983677783346</v>
       </c>
       <c r="D263" t="n">
-        <v>356.1389465332031</v>
+        <v>479.5443115234375</v>
       </c>
       <c r="E263" t="n">
-        <v>110.8447265625</v>
+        <v>-12.56063842773438</v>
       </c>
     </row>
     <row r="264">
@@ -4925,10 +4925,10 @@
         <v>469.973982253232</v>
       </c>
       <c r="D264" t="n">
-        <v>356.2015686035156</v>
+        <v>482.7952270507812</v>
       </c>
       <c r="E264" t="n">
-        <v>113.7723999023438</v>
+        <v>-12.82125854492188</v>
       </c>
     </row>
     <row r="265">
@@ -4942,10 +4942,10 @@
         <v>473.183710603448</v>
       </c>
       <c r="D265" t="n">
-        <v>356.2470397949219</v>
+        <v>486.2669982910156</v>
       </c>
       <c r="E265" t="n">
-        <v>116.9366760253906</v>
+        <v>-13.08328247070312</v>
       </c>
     </row>
     <row r="266">
@@ -4959,10 +4959,10 @@
         <v>476.273930801176</v>
       </c>
       <c r="D266" t="n">
-        <v>356.2890930175781</v>
+        <v>489.8461303710938</v>
       </c>
       <c r="E266" t="n">
-        <v>119.9848327636719</v>
+        <v>-13.57220458984375</v>
       </c>
     </row>
     <row r="267">
@@ -4976,10 +4976,10 @@
         <v>478.9648680035809</v>
       </c>
       <c r="D267" t="n">
-        <v>356.31787109375</v>
+        <v>492.3838500976562</v>
       </c>
       <c r="E267" t="n">
-        <v>122.6470031738281</v>
+        <v>-13.41897583007812</v>
       </c>
     </row>
     <row r="268">
@@ -4993,10 +4993,10 @@
         <v>481.301869594563</v>
       </c>
       <c r="D268" t="n">
-        <v>356.2745361328125</v>
+        <v>495.0460815429688</v>
       </c>
       <c r="E268" t="n">
-        <v>125.02734375</v>
+        <v>-13.74420166015625</v>
       </c>
     </row>
     <row r="269">
@@ -5010,10 +5010,10 @@
         <v>483.404662241365</v>
       </c>
       <c r="D269" t="n">
-        <v>356.2044067382812</v>
+        <v>497.9774780273438</v>
       </c>
       <c r="E269" t="n">
-        <v>127.2002563476562</v>
+        <v>-14.57281494140625</v>
       </c>
     </row>
     <row r="270">
@@ -5027,10 +5027,10 @@
         <v>485.908303383375</v>
       </c>
       <c r="D270" t="n">
-        <v>356.0880126953125</v>
+        <v>500.7338256835938</v>
       </c>
       <c r="E270" t="n">
-        <v>129.8202819824219</v>
+        <v>-14.82553100585938</v>
       </c>
     </row>
     <row r="271">
@@ -5044,10 +5044,10 @@
         <v>489.179033892991</v>
       </c>
       <c r="D271" t="n">
-        <v>355.9287414550781</v>
+        <v>502.4407348632812</v>
       </c>
       <c r="E271" t="n">
-        <v>133.2503051757812</v>
+        <v>-13.26168823242188</v>
       </c>
     </row>
     <row r="272">
@@ -5061,10 +5061,10 @@
         <v>492.769763847007</v>
       </c>
       <c r="D272" t="n">
-        <v>355.7786865234375</v>
+        <v>503.9286193847656</v>
       </c>
       <c r="E272" t="n">
-        <v>136.9910888671875</v>
+        <v>-11.15884399414062</v>
       </c>
     </row>
     <row r="273">
@@ -5078,10 +5078,10 @@
         <v>496.2343376394909</v>
       </c>
       <c r="D273" t="n">
-        <v>355.6539611816406</v>
+        <v>505.26904296875</v>
       </c>
       <c r="E273" t="n">
-        <v>140.5803833007812</v>
+        <v>-9.034698486328125</v>
       </c>
     </row>
     <row r="274">
@@ -5095,10 +5095,10 @@
         <v>499.506164512729</v>
       </c>
       <c r="D274" t="n">
-        <v>355.5176086425781</v>
+        <v>506.3177490234375</v>
       </c>
       <c r="E274" t="n">
-        <v>143.9885559082031</v>
+        <v>-6.81158447265625</v>
       </c>
     </row>
     <row r="275">
@@ -5112,10 +5112,10 @@
         <v>502.12503366448</v>
       </c>
       <c r="D275" t="n">
-        <v>355.3363037109375</v>
+        <v>507.302001953125</v>
       </c>
       <c r="E275" t="n">
-        <v>146.7887268066406</v>
+        <v>-5.176971435546875</v>
       </c>
     </row>
     <row r="276">
@@ -5129,10 +5129,10 @@
         <v>504.570658586534</v>
       </c>
       <c r="D276" t="n">
-        <v>355.1520080566406</v>
+        <v>508.3624267578125</v>
       </c>
       <c r="E276" t="n">
-        <v>149.4186401367188</v>
+        <v>-3.791778564453125</v>
       </c>
     </row>
     <row r="277">
@@ -5146,10 +5146,10 @@
         <v>507.426541289789</v>
       </c>
       <c r="D277" t="n">
-        <v>354.9635620117188</v>
+        <v>509.4078369140625</v>
       </c>
       <c r="E277" t="n">
-        <v>152.4629821777344</v>
+        <v>-1.981292724609375</v>
       </c>
     </row>
     <row r="278">
@@ -5163,10 +5163,10 @@
         <v>510.206821492631</v>
       </c>
       <c r="D278" t="n">
-        <v>354.7798156738281</v>
+        <v>510.6117553710938</v>
       </c>
       <c r="E278" t="n">
-        <v>155.427001953125</v>
+        <v>-0.404937744140625</v>
       </c>
     </row>
     <row r="279">
@@ -5180,10 +5180,10 @@
         <v>513.133422872093</v>
       </c>
       <c r="D279" t="n">
-        <v>354.5950317382812</v>
+        <v>511.8052368164062</v>
       </c>
       <c r="E279" t="n">
-        <v>158.5383911132812</v>
+        <v>1.32818603515625</v>
       </c>
     </row>
     <row r="280">
@@ -5197,10 +5197,10 @@
         <v>516.392326152721</v>
       </c>
       <c r="D280" t="n">
-        <v>354.4087524414062</v>
+        <v>512.9564208984375</v>
       </c>
       <c r="E280" t="n">
-        <v>161.9835815429688</v>
+        <v>3.4359130859375</v>
       </c>
     </row>
     <row r="281">
@@ -5214,10 +5214,10 @@
         <v>519.867730694367</v>
       </c>
       <c r="D281" t="n">
-        <v>354.2289733886719</v>
+        <v>514.32666015625</v>
       </c>
       <c r="E281" t="n">
-        <v>165.6387634277344</v>
+        <v>5.54107666015625</v>
       </c>
     </row>
     <row r="282">
@@ -5231,10 +5231,10 @@
         <v>523.585325081704</v>
       </c>
       <c r="D282" t="n">
-        <v>354.0448303222656</v>
+        <v>516.0530395507812</v>
       </c>
       <c r="E282" t="n">
-        <v>169.5404968261719</v>
+        <v>7.53228759765625</v>
       </c>
     </row>
     <row r="283">
@@ -5248,10 +5248,10 @@
         <v>527.5624824212999</v>
       </c>
       <c r="D283" t="n">
-        <v>353.8686218261719</v>
+        <v>518.5826416015625</v>
       </c>
       <c r="E283" t="n">
-        <v>173.6938781738281</v>
+        <v>8.9798583984375</v>
       </c>
     </row>
     <row r="284">
@@ -5265,10 +5265,10 @@
         <v>209.011927927369</v>
       </c>
       <c r="D284" t="n">
-        <v>347.6279602050781</v>
+        <v>212.0518951416016</v>
       </c>
       <c r="E284" t="n">
-        <v>-138.6160278320312</v>
+        <v>-3.039962768554688</v>
       </c>
     </row>
     <row r="285">
@@ -5282,10 +5282,10 @@
         <v>221.793120754345</v>
       </c>
       <c r="D285" t="n">
-        <v>347.6073608398438</v>
+        <v>216.0042877197266</v>
       </c>
       <c r="E285" t="n">
-        <v>-125.8142395019531</v>
+        <v>5.788833618164062</v>
       </c>
     </row>
     <row r="286">
@@ -5299,10 +5299,10 @@
         <v>232.08539600163</v>
       </c>
       <c r="D286" t="n">
-        <v>347.6083068847656</v>
+        <v>220.8787994384766</v>
       </c>
       <c r="E286" t="n">
-        <v>-115.5229034423828</v>
+        <v>11.20660400390625</v>
       </c>
     </row>
     <row r="287">
@@ -5316,10 +5316,10 @@
         <v>240.627714197648</v>
       </c>
       <c r="D287" t="n">
-        <v>347.6374816894531</v>
+        <v>226.0780792236328</v>
       </c>
       <c r="E287" t="n">
-        <v>-107.009765625</v>
+        <v>14.54963684082031</v>
       </c>
     </row>
     <row r="288">
@@ -5333,10 +5333,10 @@
         <v>247.673377492787</v>
       </c>
       <c r="D288" t="n">
-        <v>347.7013854980469</v>
+        <v>231.7264251708984</v>
       </c>
       <c r="E288" t="n">
-        <v>-100.0280151367188</v>
+        <v>15.94694519042969</v>
       </c>
     </row>
     <row r="289">
@@ -5350,10 +5350,10 @@
         <v>253.62721707432</v>
       </c>
       <c r="D289" t="n">
-        <v>347.8020935058594</v>
+        <v>236.8611450195312</v>
       </c>
       <c r="E289" t="n">
-        <v>-94.17488098144531</v>
+        <v>16.76606750488281</v>
       </c>
     </row>
     <row r="290">
@@ -5367,10 +5367,10 @@
         <v>258.910505498735</v>
       </c>
       <c r="D290" t="n">
-        <v>347.9415893554688</v>
+        <v>241.9124450683594</v>
       </c>
       <c r="E290" t="n">
-        <v>-89.03109741210938</v>
+        <v>16.998046875</v>
       </c>
     </row>
     <row r="291">
@@ -5384,10 +5384,10 @@
         <v>263.769089088647</v>
       </c>
       <c r="D291" t="n">
-        <v>348.1178588867188</v>
+        <v>246.4188537597656</v>
       </c>
       <c r="E291" t="n">
-        <v>-84.3487548828125</v>
+        <v>17.35025024414062</v>
       </c>
     </row>
     <row r="292">
@@ -5401,10 +5401,10 @@
         <v>268.326278819998</v>
       </c>
       <c r="D292" t="n">
-        <v>348.3264770507812</v>
+        <v>250.0384063720703</v>
       </c>
       <c r="E292" t="n">
-        <v>-80.00018310546875</v>
+        <v>18.28788757324219</v>
       </c>
     </row>
     <row r="293">
@@ -5418,10 +5418,10 @@
         <v>272.764100113871</v>
       </c>
       <c r="D293" t="n">
-        <v>348.5612182617188</v>
+        <v>253.1501007080078</v>
       </c>
       <c r="E293" t="n">
-        <v>-75.797119140625</v>
+        <v>19.61399841308594</v>
       </c>
     </row>
     <row r="294">
@@ -5435,10 +5435,10 @@
         <v>277.179396142188</v>
       </c>
       <c r="D294" t="n">
-        <v>348.8133544921875</v>
+        <v>256.4600830078125</v>
       </c>
       <c r="E294" t="n">
-        <v>-71.63397216796875</v>
+        <v>20.71929931640625</v>
       </c>
     </row>
     <row r="295">
@@ -5452,10 +5452,10 @@
         <v>281.596883976502</v>
       </c>
       <c r="D295" t="n">
-        <v>349.2723693847656</v>
+        <v>259.06591796875</v>
       </c>
       <c r="E295" t="n">
-        <v>-67.67547607421875</v>
+        <v>22.53097534179688</v>
       </c>
     </row>
     <row r="296">
@@ -5469,10 +5469,10 @@
         <v>285.936384261871</v>
       </c>
       <c r="D296" t="n">
-        <v>349.72802734375</v>
+        <v>262.2008056640625</v>
       </c>
       <c r="E296" t="n">
-        <v>-63.79165649414062</v>
+        <v>23.73556518554688</v>
       </c>
     </row>
     <row r="297">
@@ -5486,10 +5486,10 @@
         <v>289.997027688002</v>
       </c>
       <c r="D297" t="n">
-        <v>350.1404113769531</v>
+        <v>265.554931640625</v>
       </c>
       <c r="E297" t="n">
-        <v>-60.14337158203125</v>
+        <v>24.44210815429688</v>
       </c>
     </row>
     <row r="298">
@@ -5503,10 +5503,10 @@
         <v>293.644256271626</v>
       </c>
       <c r="D298" t="n">
-        <v>350.4862976074219</v>
+        <v>269.2702941894531</v>
       </c>
       <c r="E298" t="n">
-        <v>-56.842041015625</v>
+        <v>24.37396240234375</v>
       </c>
     </row>
     <row r="299">
@@ -5520,10 +5520,10 @@
         <v>297.09172180026</v>
       </c>
       <c r="D299" t="n">
-        <v>350.8026123046875</v>
+        <v>274.098876953125</v>
       </c>
       <c r="E299" t="n">
-        <v>-53.71087646484375</v>
+        <v>22.99285888671875</v>
       </c>
     </row>
     <row r="300">
@@ -5537,10 +5537,10 @@
         <v>300.675120438056</v>
       </c>
       <c r="D300" t="n">
-        <v>350.998291015625</v>
+        <v>279.1927795410156</v>
       </c>
       <c r="E300" t="n">
-        <v>-50.32318115234375</v>
+        <v>21.48233032226562</v>
       </c>
     </row>
     <row r="301">
@@ -5554,10 +5554,10 @@
         <v>304.535182081305</v>
       </c>
       <c r="D301" t="n">
-        <v>351.0447387695312</v>
+        <v>285.0505981445312</v>
       </c>
       <c r="E301" t="n">
-        <v>-46.50955200195312</v>
+        <v>19.48458862304688</v>
       </c>
     </row>
     <row r="302">
@@ -5571,10 +5571,10 @@
         <v>308.817816097269</v>
       </c>
       <c r="D302" t="n">
-        <v>350.9983825683594</v>
+        <v>292.4899291992188</v>
       </c>
       <c r="E302" t="n">
-        <v>-42.18057250976562</v>
+        <v>16.327880859375</v>
       </c>
     </row>
     <row r="303">
@@ -5588,10 +5588,10 @@
         <v>313.470210775533</v>
       </c>
       <c r="D303" t="n">
-        <v>350.9341125488281</v>
+        <v>300.1398620605469</v>
       </c>
       <c r="E303" t="n">
-        <v>-37.46389770507812</v>
+        <v>13.33035278320312</v>
       </c>
     </row>
     <row r="304">
@@ -5605,10 +5605,10 @@
         <v>318.288355032208</v>
       </c>
       <c r="D304" t="n">
-        <v>350.7125854492188</v>
+        <v>309.3542175292969</v>
       </c>
       <c r="E304" t="n">
-        <v>-32.42422485351562</v>
+        <v>8.93414306640625</v>
       </c>
     </row>
     <row r="305">
@@ -5622,10 +5622,10 @@
         <v>323.194075039336</v>
       </c>
       <c r="D305" t="n">
-        <v>350.2648010253906</v>
+        <v>318.9407043457031</v>
       </c>
       <c r="E305" t="n">
-        <v>-27.07073974609375</v>
+        <v>4.25335693359375</v>
       </c>
     </row>
     <row r="306">
@@ -5639,10 +5639,10 @@
         <v>328.042963331813</v>
       </c>
       <c r="D306" t="n">
-        <v>349.8130493164062</v>
+        <v>328.3736877441406</v>
       </c>
       <c r="E306" t="n">
-        <v>-21.77008056640625</v>
+        <v>-0.330718994140625</v>
       </c>
     </row>
     <row r="307">
@@ -5656,10 +5656,10 @@
         <v>332.718792742664</v>
       </c>
       <c r="D307" t="n">
-        <v>349.409912109375</v>
+        <v>337.9499816894531</v>
       </c>
       <c r="E307" t="n">
-        <v>-16.69113159179688</v>
+        <v>-5.231201171875</v>
       </c>
     </row>
     <row r="308">
@@ -5673,10 +5673,10 @@
         <v>337.13789681928</v>
       </c>
       <c r="D308" t="n">
-        <v>349.0508117675781</v>
+        <v>344.5338439941406</v>
       </c>
       <c r="E308" t="n">
-        <v>-11.91290283203125</v>
+        <v>-7.39593505859375</v>
       </c>
     </row>
     <row r="309">
@@ -5690,10 +5690,10 @@
         <v>341.168194159613</v>
       </c>
       <c r="D309" t="n">
-        <v>348.759033203125</v>
+        <v>349.9145812988281</v>
       </c>
       <c r="E309" t="n">
-        <v>-7.590850830078125</v>
+        <v>-8.74639892578125</v>
       </c>
     </row>
     <row r="310">
@@ -5707,10 +5707,10 @@
         <v>344.610402220772</v>
       </c>
       <c r="D310" t="n">
-        <v>348.552734375</v>
+        <v>354.5540466308594</v>
       </c>
       <c r="E310" t="n">
-        <v>-3.94232177734375</v>
+        <v>-9.943634033203125</v>
       </c>
     </row>
     <row r="311">
@@ -5724,10 +5724,10 @@
         <v>347.323034102117</v>
       </c>
       <c r="D311" t="n">
-        <v>348.4081115722656</v>
+        <v>357.8323669433594</v>
       </c>
       <c r="E311" t="n">
-        <v>-1.0850830078125</v>
+        <v>-10.50933837890625</v>
       </c>
     </row>
     <row r="312">
@@ -5741,10 +5741,10 @@
         <v>349.262051131422</v>
       </c>
       <c r="D312" t="n">
-        <v>348.3030395507812</v>
+        <v>359.4515380859375</v>
       </c>
       <c r="E312" t="n">
-        <v>0.959014892578125</v>
+        <v>-10.18948364257812</v>
       </c>
     </row>
     <row r="313">
@@ -5758,10 +5758,10 @@
         <v>350.623153543361</v>
       </c>
       <c r="D313" t="n">
-        <v>348.2425231933594</v>
+        <v>360.8060302734375</v>
       </c>
       <c r="E313" t="n">
-        <v>2.380615234375</v>
+        <v>-10.18289184570312</v>
       </c>
     </row>
     <row r="314">
@@ -5775,10 +5775,10 @@
         <v>351.72216236334</v>
       </c>
       <c r="D314" t="n">
-        <v>348.1845092773438</v>
+        <v>361.7064208984375</v>
       </c>
       <c r="E314" t="n">
-        <v>3.53765869140625</v>
+        <v>-9.9842529296875</v>
       </c>
     </row>
     <row r="315">
@@ -5792,10 +5792,10 @@
         <v>353.050699922034</v>
       </c>
       <c r="D315" t="n">
-        <v>348.09765625</v>
+        <v>362.5286560058594</v>
       </c>
       <c r="E315" t="n">
-        <v>4.953033447265625</v>
+        <v>-9.47796630859375</v>
       </c>
     </row>
     <row r="316">
@@ -5809,10 +5809,10 @@
         <v>354.925702251693</v>
       </c>
       <c r="D316" t="n">
-        <v>347.9822692871094</v>
+        <v>364.1082763671875</v>
       </c>
       <c r="E316" t="n">
-        <v>6.94342041015625</v>
+        <v>-9.182586669921875</v>
       </c>
     </row>
     <row r="317">
@@ -5826,10 +5826,10 @@
         <v>357.314769014477</v>
       </c>
       <c r="D317" t="n">
-        <v>347.8056640625</v>
+        <v>365.6864318847656</v>
       </c>
       <c r="E317" t="n">
-        <v>9.50909423828125</v>
+        <v>-8.371673583984375</v>
       </c>
     </row>
     <row r="318">
@@ -5843,10 +5843,10 @@
         <v>360.24357637819</v>
       </c>
       <c r="D318" t="n">
-        <v>347.5325927734375</v>
+        <v>367.3423156738281</v>
       </c>
       <c r="E318" t="n">
-        <v>12.71099853515625</v>
+        <v>-7.098724365234375</v>
       </c>
     </row>
     <row r="319">
@@ -5860,10 +5860,10 @@
         <v>363.750634890023</v>
       </c>
       <c r="D319" t="n">
-        <v>347.22216796875</v>
+        <v>369.1438903808594</v>
       </c>
       <c r="E319" t="n">
-        <v>16.52847290039062</v>
+        <v>-5.39324951171875</v>
       </c>
     </row>
     <row r="320">
@@ -5877,10 +5877,10 @@
         <v>367.670011298574</v>
       </c>
       <c r="D320" t="n">
-        <v>346.8462524414062</v>
+        <v>371.9852905273438</v>
       </c>
       <c r="E320" t="n">
-        <v>20.82376098632812</v>
+        <v>-4.315277099609375</v>
       </c>
     </row>
     <row r="321">
@@ -5894,10 +5894,10 @@
         <v>371.723540462416</v>
       </c>
       <c r="D321" t="n">
-        <v>346.4087524414062</v>
+        <v>375.0359191894531</v>
       </c>
       <c r="E321" t="n">
-        <v>25.31478881835938</v>
+        <v>-3.3123779296875</v>
       </c>
     </row>
     <row r="322">
@@ -5911,10 +5911,10 @@
         <v>375.828570259432</v>
       </c>
       <c r="D322" t="n">
-        <v>345.9302368164062</v>
+        <v>378.1990661621094</v>
       </c>
       <c r="E322" t="n">
-        <v>29.89834594726562</v>
+        <v>-2.3704833984375</v>
       </c>
     </row>
     <row r="323">
@@ -5928,10 +5928,10 @@
         <v>380.027046825786</v>
       </c>
       <c r="D323" t="n">
-        <v>345.5185241699219</v>
+        <v>381.0343017578125</v>
       </c>
       <c r="E323" t="n">
-        <v>34.50851440429688</v>
+        <v>-1.00726318359375</v>
       </c>
     </row>
     <row r="324">
@@ -5945,10 +5945,10 @@
         <v>384.289481143984</v>
       </c>
       <c r="D324" t="n">
-        <v>345.0455322265625</v>
+        <v>384.431640625</v>
       </c>
       <c r="E324" t="n">
-        <v>39.24395751953125</v>
+        <v>-0.14215087890625</v>
       </c>
     </row>
     <row r="325">
@@ -5962,10 +5962,10 @@
         <v>388.666525362425</v>
       </c>
       <c r="D325" t="n">
-        <v>344.5082702636719</v>
+        <v>388.4111328125</v>
       </c>
       <c r="E325" t="n">
-        <v>44.15826416015625</v>
+        <v>0.255401611328125</v>
       </c>
     </row>
     <row r="326">
@@ -5979,10 +5979,10 @@
         <v>393.058846161206</v>
       </c>
       <c r="D326" t="n">
-        <v>344.0679016113281</v>
+        <v>393.2163696289062</v>
       </c>
       <c r="E326" t="n">
-        <v>48.99093627929688</v>
+        <v>-0.15753173828125</v>
       </c>
     </row>
     <row r="327">
@@ -5996,10 +5996,10 @@
         <v>397.230082996873</v>
       </c>
       <c r="D327" t="n">
-        <v>343.7112731933594</v>
+        <v>397.5029602050781</v>
       </c>
       <c r="E327" t="n">
-        <v>53.518798828125</v>
+        <v>-0.27288818359375</v>
       </c>
     </row>
     <row r="328">
@@ -6013,10 +6013,10 @@
         <v>400.9321721983069</v>
       </c>
       <c r="D328" t="n">
-        <v>343.4120788574219</v>
+        <v>400.3143310546875</v>
       </c>
       <c r="E328" t="n">
-        <v>57.52008056640625</v>
+        <v>0.617828369140625</v>
       </c>
     </row>
     <row r="329">
@@ -6030,10 +6030,10 @@
         <v>404.173861373206</v>
       </c>
       <c r="D329" t="n">
-        <v>343.1893920898438</v>
+        <v>404.0476989746094</v>
       </c>
       <c r="E329" t="n">
-        <v>60.98446655273438</v>
+        <v>0.12615966796875</v>
       </c>
     </row>
     <row r="330">
@@ -6047,10 +6047,10 @@
         <v>407.137933580303</v>
       </c>
       <c r="D330" t="n">
-        <v>342.9130859375</v>
+        <v>406.4904479980469</v>
       </c>
       <c r="E330" t="n">
-        <v>64.224853515625</v>
+        <v>0.647491455078125</v>
       </c>
     </row>
     <row r="331">
@@ -6064,10 +6064,10 @@
         <v>410.143853937496</v>
       </c>
       <c r="D331" t="n">
-        <v>342.5590209960938</v>
+        <v>408.8590698242188</v>
       </c>
       <c r="E331" t="n">
-        <v>67.5848388671875</v>
+        <v>1.2847900390625</v>
       </c>
     </row>
     <row r="332">
@@ -6081,10 +6081,10 @@
         <v>413.356727583078</v>
       </c>
       <c r="D332" t="n">
-        <v>342.0177612304688</v>
+        <v>410.5057678222656</v>
       </c>
       <c r="E332" t="n">
-        <v>71.33895874023438</v>
+        <v>2.8509521484375</v>
       </c>
     </row>
     <row r="333">
@@ -6098,10 +6098,10 @@
         <v>416.4861719071259</v>
       </c>
       <c r="D333" t="n">
-        <v>341.4637756347656</v>
+        <v>411.4279174804688</v>
       </c>
       <c r="E333" t="n">
-        <v>75.02239990234375</v>
+        <v>5.058258056640625</v>
       </c>
     </row>
     <row r="334">
@@ -6115,10 +6115,10 @@
         <v>419.208536681578</v>
       </c>
       <c r="D334" t="n">
-        <v>340.5365905761719</v>
+        <v>412.6051025390625</v>
       </c>
       <c r="E334" t="n">
-        <v>78.67193603515625</v>
+        <v>6.603424072265625</v>
       </c>
     </row>
     <row r="335">
@@ -6132,10 +6132,10 @@
         <v>422.083256987245</v>
       </c>
       <c r="D335" t="n">
-        <v>339.197998046875</v>
+        <v>417.9388732910156</v>
       </c>
       <c r="E335" t="n">
-        <v>82.88525390625</v>
+        <v>4.144378662109375</v>
       </c>
     </row>
     <row r="336">
@@ -6149,10 +6149,10 @@
         <v>425.5864835257109</v>
       </c>
       <c r="D336" t="n">
-        <v>336.9575500488281</v>
+        <v>424.7413940429688</v>
       </c>
       <c r="E336" t="n">
-        <v>88.62893676757812</v>
+        <v>0.8450927734375</v>
       </c>
     </row>
     <row r="337">
@@ -6166,10 +6166,10 @@
         <v>429.787280922256</v>
       </c>
       <c r="D337" t="n">
-        <v>335.8255310058594</v>
+        <v>430.91796875</v>
       </c>
       <c r="E337" t="n">
-        <v>93.96176147460938</v>
+        <v>-1.13067626953125</v>
       </c>
     </row>
     <row r="338">
@@ -6183,10 +6183,10 @@
         <v>434.722597592498</v>
       </c>
       <c r="D338" t="n">
-        <v>335.9928588867188</v>
+        <v>436.1242065429688</v>
       </c>
       <c r="E338" t="n">
-        <v>98.729736328125</v>
+        <v>-1.401611328125</v>
       </c>
     </row>
     <row r="339">
@@ -6200,10 +6200,10 @@
         <v>440.292863791475</v>
       </c>
       <c r="D339" t="n">
-        <v>337.7223510742188</v>
+        <v>436.5552978515625</v>
       </c>
       <c r="E339" t="n">
-        <v>102.5705261230469</v>
+        <v>3.737579345703125</v>
       </c>
     </row>
     <row r="340">
@@ -6217,10 +6217,10 @@
         <v>446.006814169471</v>
       </c>
       <c r="D340" t="n">
-        <v>342.4318237304688</v>
+        <v>425.1473999023438</v>
       </c>
       <c r="E340" t="n">
-        <v>103.5749816894531</v>
+        <v>20.85940551757812</v>
       </c>
     </row>
     <row r="341">
@@ -6234,10 +6234,10 @@
         <v>451.709905357426</v>
       </c>
       <c r="D341" t="n">
-        <v>347.1425476074219</v>
+        <v>430.7340698242188</v>
       </c>
       <c r="E341" t="n">
-        <v>104.5673522949219</v>
+        <v>20.975830078125</v>
       </c>
     </row>
     <row r="342">
@@ -6251,10 +6251,10 @@
         <v>457.525865607838</v>
       </c>
       <c r="D342" t="n">
-        <v>355.0495910644531</v>
+        <v>431.9137268066406</v>
       </c>
       <c r="E342" t="n">
-        <v>102.4762878417969</v>
+        <v>25.61215209960938</v>
       </c>
     </row>
     <row r="343">
@@ -6268,10 +6268,10 @@
         <v>108.375572266184</v>
       </c>
       <c r="D343" t="n">
-        <v>345.823974609375</v>
+        <v>120.4387664794922</v>
       </c>
       <c r="E343" t="n">
-        <v>-237.4483947753906</v>
+        <v>-12.06319427490234</v>
       </c>
     </row>
     <row r="344">
@@ -6285,10 +6285,10 @@
         <v>119.65618088523</v>
       </c>
       <c r="D344" t="n">
-        <v>344.1629333496094</v>
+        <v>125.9076538085938</v>
       </c>
       <c r="E344" t="n">
-        <v>-224.5067443847656</v>
+        <v>-6.251472473144531</v>
       </c>
     </row>
     <row r="345">
@@ -6302,10 +6302,10 @@
         <v>127.481530358801</v>
       </c>
       <c r="D345" t="n">
-        <v>344.1876220703125</v>
+        <v>130.0067596435547</v>
       </c>
       <c r="E345" t="n">
-        <v>-216.7060852050781</v>
+        <v>-2.525230407714844</v>
       </c>
     </row>
     <row r="346">
@@ -6319,10 +6319,10 @@
         <v>133.098792746531</v>
       </c>
       <c r="D346" t="n">
-        <v>343.913818359375</v>
+        <v>134.7563629150391</v>
       </c>
       <c r="E346" t="n">
-        <v>-210.8150329589844</v>
+        <v>-1.657577514648438</v>
       </c>
     </row>
     <row r="347">
@@ -6336,10 +6336,10 @@
         <v>137.275361727573</v>
       </c>
       <c r="D347" t="n">
-        <v>343.6292724609375</v>
+        <v>140.3934936523438</v>
       </c>
       <c r="E347" t="n">
-        <v>-206.3539123535156</v>
+        <v>-3.118133544921875</v>
       </c>
     </row>
     <row r="348">
@@ -6353,10 +6353,10 @@
         <v>140.603955700861</v>
       </c>
       <c r="D348" t="n">
-        <v>343.5620727539062</v>
+        <v>145.0685272216797</v>
       </c>
       <c r="E348" t="n">
-        <v>-202.9581146240234</v>
+        <v>-4.464569091796875</v>
       </c>
     </row>
     <row r="349">
@@ -6370,10 +6370,10 @@
         <v>143.450429274047</v>
       </c>
       <c r="D349" t="n">
-        <v>344.0022277832031</v>
+        <v>148.4454345703125</v>
       </c>
       <c r="E349" t="n">
-        <v>-200.5518035888672</v>
+        <v>-4.995010375976562</v>
       </c>
     </row>
     <row r="350">
@@ -6387,10 +6387,10 @@
         <v>146.001816392336</v>
       </c>
       <c r="D350" t="n">
-        <v>343.4295654296875</v>
+        <v>152.7359924316406</v>
       </c>
       <c r="E350" t="n">
-        <v>-197.4277496337891</v>
+        <v>-6.734176635742188</v>
       </c>
     </row>
     <row r="351">
@@ -6404,10 +6404,10 @@
         <v>148.455202556295</v>
       </c>
       <c r="D351" t="n">
-        <v>343.21533203125</v>
+        <v>156.9724273681641</v>
       </c>
       <c r="E351" t="n">
-        <v>-194.7601318359375</v>
+        <v>-8.517227172851562</v>
       </c>
     </row>
     <row r="352">
@@ -6421,10 +6421,10 @@
         <v>150.787051222172</v>
       </c>
       <c r="D352" t="n">
-        <v>343.2378845214844</v>
+        <v>159.2078247070312</v>
       </c>
       <c r="E352" t="n">
-        <v>-192.4508361816406</v>
+        <v>-8.4207763671875</v>
       </c>
     </row>
     <row r="353">
@@ -6438,10 +6438,10 @@
         <v>152.891481299606</v>
       </c>
       <c r="D353" t="n">
-        <v>342.992919921875</v>
+        <v>163.2086029052734</v>
       </c>
       <c r="E353" t="n">
-        <v>-190.1014404296875</v>
+        <v>-10.31712341308594</v>
       </c>
     </row>
     <row r="354">
@@ -6455,10 +6455,10 @@
         <v>154.831071218794</v>
       </c>
       <c r="D354" t="n">
-        <v>343.0167541503906</v>
+        <v>166.048095703125</v>
       </c>
       <c r="E354" t="n">
-        <v>-188.1856842041016</v>
+        <v>-11.21702575683594</v>
       </c>
     </row>
     <row r="355">
@@ -6472,10 +6472,10 @@
         <v>156.709487478947</v>
       </c>
       <c r="D355" t="n">
-        <v>342.7825622558594</v>
+        <v>169.1433410644531</v>
       </c>
       <c r="E355" t="n">
-        <v>-186.0730743408203</v>
+        <v>-12.43385314941406</v>
       </c>
     </row>
     <row r="356">
@@ -6489,10 +6489,10 @@
         <v>158.548685036231</v>
       </c>
       <c r="D356" t="n">
-        <v>342.8184814453125</v>
+        <v>172.061279296875</v>
       </c>
       <c r="E356" t="n">
-        <v>-184.2697906494141</v>
+        <v>-13.51258850097656</v>
       </c>
     </row>
     <row r="357">
@@ -6506,10 +6506,10 @@
         <v>160.237070230666</v>
       </c>
       <c r="D357" t="n">
-        <v>342.6580810546875</v>
+        <v>174.9256896972656</v>
       </c>
       <c r="E357" t="n">
-        <v>-182.4210052490234</v>
+        <v>-14.68861389160156</v>
       </c>
     </row>
     <row r="358">
@@ -6523,10 +6523,10 @@
         <v>161.811591750422</v>
       </c>
       <c r="D358" t="n">
-        <v>342.6712646484375</v>
+        <v>177.9562225341797</v>
       </c>
       <c r="E358" t="n">
-        <v>-180.8596801757812</v>
+        <v>-16.14463806152344</v>
       </c>
     </row>
     <row r="359">
@@ -6540,10 +6540,10 @@
         <v>163.338650573511</v>
       </c>
       <c r="D359" t="n">
-        <v>342.50244140625</v>
+        <v>179.2867736816406</v>
       </c>
       <c r="E359" t="n">
-        <v>-179.1637878417969</v>
+        <v>-15.9481201171875</v>
       </c>
     </row>
     <row r="360">
@@ -6557,10 +6557,10 @@
         <v>164.849590048401</v>
       </c>
       <c r="D360" t="n">
-        <v>342.4588012695312</v>
+        <v>180.1480560302734</v>
       </c>
       <c r="E360" t="n">
-        <v>-177.6092071533203</v>
+        <v>-15.2984619140625</v>
       </c>
     </row>
     <row r="361">
@@ -6574,10 +6574,10 @@
         <v>166.427052700397</v>
       </c>
       <c r="D361" t="n">
-        <v>342.3274841308594</v>
+        <v>180.3495788574219</v>
       </c>
       <c r="E361" t="n">
-        <v>-175.9004364013672</v>
+        <v>-13.92253112792969</v>
       </c>
     </row>
     <row r="362">
@@ -6591,10 +6591,10 @@
         <v>168.19170580456</v>
       </c>
       <c r="D362" t="n">
-        <v>342.1976623535156</v>
+        <v>181.3370666503906</v>
       </c>
       <c r="E362" t="n">
-        <v>-174.0059509277344</v>
+        <v>-13.14535522460938</v>
       </c>
     </row>
     <row r="363">
@@ -6608,10 +6608,10 @@
         <v>170.246559597033</v>
       </c>
       <c r="D363" t="n">
-        <v>342.1045532226562</v>
+        <v>182.4096527099609</v>
       </c>
       <c r="E363" t="n">
-        <v>-171.8579864501953</v>
+        <v>-12.1630859375</v>
       </c>
     </row>
     <row r="364">
@@ -6625,10 +6625,10 @@
         <v>172.576103450926</v>
       </c>
       <c r="D364" t="n">
-        <v>341.9031982421875</v>
+        <v>182.86328125</v>
       </c>
       <c r="E364" t="n">
-        <v>-169.3270874023438</v>
+        <v>-10.28717041015625</v>
       </c>
     </row>
     <row r="365">
@@ -6642,10 +6642,10 @@
         <v>174.971178487314</v>
       </c>
       <c r="D365" t="n">
-        <v>341.8128051757812</v>
+        <v>184.9009704589844</v>
       </c>
       <c r="E365" t="n">
-        <v>-166.8416290283203</v>
+        <v>-9.929794311523438</v>
       </c>
     </row>
     <row r="366">
@@ -6659,10 +6659,10 @@
         <v>177.375146433468</v>
       </c>
       <c r="D366" t="n">
-        <v>341.6932983398438</v>
+        <v>186.0772705078125</v>
       </c>
       <c r="E366" t="n">
-        <v>-164.3181457519531</v>
+        <v>-8.702117919921875</v>
       </c>
     </row>
     <row r="367">
@@ -6676,10 +6676,10 @@
         <v>179.858881263736</v>
       </c>
       <c r="D367" t="n">
-        <v>341.6686706542969</v>
+        <v>188.8369140625</v>
       </c>
       <c r="E367" t="n">
-        <v>-161.8097839355469</v>
+        <v>-8.97802734375</v>
       </c>
     </row>
     <row r="368">
@@ -6693,10 +6693,10 @@
         <v>182.464506294039</v>
       </c>
       <c r="D368" t="n">
-        <v>341.4911499023438</v>
+        <v>190.3536682128906</v>
       </c>
       <c r="E368" t="n">
-        <v>-159.0266418457031</v>
+        <v>-7.88916015625</v>
       </c>
     </row>
     <row r="369">
@@ -6710,10 +6710,10 @@
         <v>185.147280514462</v>
       </c>
       <c r="D369" t="n">
-        <v>341.4344482421875</v>
+        <v>193.1426849365234</v>
       </c>
       <c r="E369" t="n">
-        <v>-156.2871704101562</v>
+        <v>-7.995407104492188</v>
       </c>
     </row>
     <row r="370">
@@ -6727,10 +6727,10 @@
         <v>187.867710881684</v>
       </c>
       <c r="D370" t="n">
-        <v>341.2610473632812</v>
+        <v>195.9358978271484</v>
       </c>
       <c r="E370" t="n">
-        <v>-153.3933410644531</v>
+        <v>-8.068191528320312</v>
       </c>
     </row>
     <row r="371">
@@ -6744,10 +6744,10 @@
         <v>190.529453689742</v>
       </c>
       <c r="D371" t="n">
-        <v>341.1857604980469</v>
+        <v>197.6015319824219</v>
       </c>
       <c r="E371" t="n">
-        <v>-150.6563110351562</v>
+        <v>-7.07208251953125</v>
       </c>
     </row>
     <row r="372">
@@ -6761,10 +6761,10 @@
         <v>192.97133606788</v>
       </c>
       <c r="D372" t="n">
-        <v>341.1560668945312</v>
+        <v>200.5149841308594</v>
       </c>
       <c r="E372" t="n">
-        <v>-148.1847381591797</v>
+        <v>-7.543655395507812</v>
       </c>
     </row>
     <row r="373">
@@ -6778,10 +6778,10 @@
         <v>195.209334210565</v>
       </c>
       <c r="D373" t="n">
-        <v>341.2692260742188</v>
+        <v>202.1541595458984</v>
       </c>
       <c r="E373" t="n">
-        <v>-146.0598907470703</v>
+        <v>-6.94482421875</v>
       </c>
     </row>
     <row r="374">
@@ -6795,10 +6795,10 @@
         <v>197.444883026885</v>
       </c>
       <c r="D374" t="n">
-        <v>341.5950012207031</v>
+        <v>205.3246765136719</v>
       </c>
       <c r="E374" t="n">
-        <v>-144.1501159667969</v>
+        <v>-7.879791259765625</v>
       </c>
     </row>
     <row r="375">
@@ -6812,10 +6812,10 @@
         <v>199.775071481034</v>
       </c>
       <c r="D375" t="n">
-        <v>342.0785827636719</v>
+        <v>208.3259887695312</v>
       </c>
       <c r="E375" t="n">
-        <v>-142.3035125732422</v>
+        <v>-8.550918579101562</v>
       </c>
     </row>
     <row r="376">
@@ -6829,10 +6829,10 @@
         <v>202.332528344675</v>
       </c>
       <c r="D376" t="n">
-        <v>342.4709167480469</v>
+        <v>210.3789978027344</v>
       </c>
       <c r="E376" t="n">
-        <v>-140.1383819580078</v>
+        <v>-8.046463012695312</v>
       </c>
     </row>
     <row r="377">
@@ -6846,10 +6846,10 @@
         <v>205.23764690517</v>
       </c>
       <c r="D377" t="n">
-        <v>342.8268432617188</v>
+        <v>213.9614562988281</v>
       </c>
       <c r="E377" t="n">
-        <v>-137.5892028808594</v>
+        <v>-8.72381591796875</v>
       </c>
     </row>
     <row r="378">
@@ -6863,10 +6863,10 @@
         <v>208.200976952977</v>
       </c>
       <c r="D378" t="n">
-        <v>343.2237854003906</v>
+        <v>216.0778961181641</v>
       </c>
       <c r="E378" t="n">
-        <v>-135.0228118896484</v>
+        <v>-7.876922607421875</v>
       </c>
     </row>
     <row r="379">
@@ -6880,10 +6880,10 @@
         <v>211.052748902003</v>
       </c>
       <c r="D379" t="n">
-        <v>343.7398071289062</v>
+        <v>219.2346038818359</v>
       </c>
       <c r="E379" t="n">
-        <v>-132.6870574951172</v>
+        <v>-8.181854248046875</v>
       </c>
     </row>
     <row r="380">
@@ -6897,10 +6897,10 @@
         <v>214.055167841515</v>
       </c>
       <c r="D380" t="n">
-        <v>344.06591796875</v>
+        <v>222.9992065429688</v>
       </c>
       <c r="E380" t="n">
-        <v>-130.0107574462891</v>
+        <v>-8.944046020507812</v>
       </c>
     </row>
     <row r="381">
@@ -6914,10 +6914,10 @@
         <v>217.250777318866</v>
       </c>
       <c r="D381" t="n">
-        <v>344.3755187988281</v>
+        <v>226.7309875488281</v>
       </c>
       <c r="E381" t="n">
-        <v>-127.1247406005859</v>
+        <v>-9.480209350585938</v>
       </c>
     </row>
     <row r="382">
@@ -6931,10 +6931,10 @@
         <v>220.518750744196</v>
       </c>
       <c r="D382" t="n">
-        <v>344.8701477050781</v>
+        <v>228.7285461425781</v>
       </c>
       <c r="E382" t="n">
-        <v>-124.3513946533203</v>
+        <v>-8.209793090820312</v>
       </c>
     </row>
     <row r="383">
@@ -6948,10 +6948,10 @@
         <v>223.63276890565</v>
       </c>
       <c r="D383" t="n">
-        <v>345.3085021972656</v>
+        <v>232.2948608398438</v>
       </c>
       <c r="E383" t="n">
-        <v>-121.6757354736328</v>
+        <v>-8.662094116210938</v>
       </c>
     </row>
     <row r="384">
@@ -6965,10 +6965,10 @@
         <v>226.670972013567</v>
       </c>
       <c r="D384" t="n">
-        <v>345.7178955078125</v>
+        <v>235.9184265136719</v>
       </c>
       <c r="E384" t="n">
-        <v>-119.0469207763672</v>
+        <v>-9.247451782226562</v>
       </c>
     </row>
     <row r="385">
@@ -6982,10 +6982,10 @@
         <v>229.875627194916</v>
       </c>
       <c r="D385" t="n">
-        <v>346.1336059570312</v>
+        <v>239.1479797363281</v>
       </c>
       <c r="E385" t="n">
-        <v>-116.2579803466797</v>
+        <v>-9.272354125976562</v>
       </c>
     </row>
     <row r="386">
@@ -6999,10 +6999,10 @@
         <v>233.373616234044</v>
       </c>
       <c r="D386" t="n">
-        <v>346.4204406738281</v>
+        <v>241.3506164550781</v>
       </c>
       <c r="E386" t="n">
-        <v>-113.0468292236328</v>
+        <v>-7.977005004882812</v>
       </c>
     </row>
     <row r="387">
@@ -7016,10 +7016,10 @@
         <v>236.901421973349</v>
       </c>
       <c r="D387" t="n">
-        <v>346.6565246582031</v>
+        <v>245.0140075683594</v>
       </c>
       <c r="E387" t="n">
-        <v>-109.7550964355469</v>
+        <v>-8.112579345703125</v>
       </c>
     </row>
     <row r="388">
@@ -7033,10 +7033,10 @@
         <v>240.161412640479</v>
       </c>
       <c r="D388" t="n">
-        <v>346.5934753417969</v>
+        <v>247.8403625488281</v>
       </c>
       <c r="E388" t="n">
-        <v>-106.4320678710938</v>
+        <v>-7.678955078125</v>
       </c>
     </row>
     <row r="389">
@@ -7050,10 +7050,10 @@
         <v>243.401683736821</v>
       </c>
       <c r="D389" t="n">
-        <v>346.428466796875</v>
+        <v>249.1168823242188</v>
       </c>
       <c r="E389" t="n">
-        <v>-103.0267791748047</v>
+        <v>-5.715194702148438</v>
       </c>
     </row>
     <row r="390">
@@ -7067,10 +7067,10 @@
         <v>246.938277682144</v>
       </c>
       <c r="D390" t="n">
-        <v>346.3644104003906</v>
+        <v>251.6720886230469</v>
       </c>
       <c r="E390" t="n">
-        <v>-99.42613220214844</v>
+        <v>-4.733810424804688</v>
       </c>
     </row>
     <row r="391">
@@ -7084,10 +7084,10 @@
         <v>250.525819756845</v>
       </c>
       <c r="D391" t="n">
-        <v>346.3232727050781</v>
+        <v>254.3667602539062</v>
       </c>
       <c r="E391" t="n">
-        <v>-95.79745483398438</v>
+        <v>-3.8409423828125</v>
       </c>
     </row>
     <row r="392">
@@ -7101,10 +7101,10 @@
         <v>253.984006687524</v>
       </c>
       <c r="D392" t="n">
-        <v>346.299072265625</v>
+        <v>256.8827514648438</v>
       </c>
       <c r="E392" t="n">
-        <v>-92.3150634765625</v>
+        <v>-2.89874267578125</v>
       </c>
     </row>
     <row r="393">
@@ -7118,10 +7118,10 @@
         <v>257.359809696787</v>
       </c>
       <c r="D393" t="n">
-        <v>346.1810913085938</v>
+        <v>258.3316650390625</v>
       </c>
       <c r="E393" t="n">
-        <v>-88.8212890625</v>
+        <v>-0.97186279296875</v>
       </c>
     </row>
     <row r="394">
@@ -7135,10 +7135,10 @@
         <v>261.037438353797</v>
       </c>
       <c r="D394" t="n">
-        <v>345.9553527832031</v>
+        <v>260.9660949707031</v>
       </c>
       <c r="E394" t="n">
-        <v>-84.91790771484375</v>
+        <v>0.07135009765625</v>
       </c>
     </row>
     <row r="395">
@@ -7152,10 +7152,10 @@
         <v>265.206865607514</v>
       </c>
       <c r="D395" t="n">
-        <v>345.7417602539062</v>
+        <v>263.5543212890625</v>
       </c>
       <c r="E395" t="n">
-        <v>-80.53488159179688</v>
+        <v>1.652557373046875</v>
       </c>
     </row>
     <row r="396">
@@ -7169,10 +7169,10 @@
         <v>269.642912311836</v>
       </c>
       <c r="D396" t="n">
-        <v>345.3360900878906</v>
+        <v>265.9950866699219</v>
       </c>
       <c r="E396" t="n">
-        <v>-75.69317626953125</v>
+        <v>3.6478271484375</v>
       </c>
     </row>
     <row r="397">
@@ -7186,10 +7186,10 @@
         <v>273.983317806087</v>
       </c>
       <c r="D397" t="n">
-        <v>345.2512512207031</v>
+        <v>268.5779724121094</v>
       </c>
       <c r="E397" t="n">
-        <v>-71.2679443359375</v>
+        <v>5.40533447265625</v>
       </c>
     </row>
     <row r="398">
@@ -7203,10 +7203,10 @@
         <v>278.072404935537</v>
       </c>
       <c r="D398" t="n">
-        <v>344.938232421875</v>
+        <v>271.0491943359375</v>
       </c>
       <c r="E398" t="n">
-        <v>-66.86581420898438</v>
+        <v>7.023223876953125</v>
       </c>
     </row>
     <row r="399">
@@ -7220,10 +7220,10 @@
         <v>281.993144500693</v>
       </c>
       <c r="D399" t="n">
-        <v>344.6563110351562</v>
+        <v>273.6488342285156</v>
       </c>
       <c r="E399" t="n">
-        <v>-62.66317749023438</v>
+        <v>8.34429931640625</v>
       </c>
     </row>
     <row r="400">
@@ -7237,10 +7237,10 @@
         <v>285.740001021874</v>
       </c>
       <c r="D400" t="n">
-        <v>344.2784729003906</v>
+        <v>276.1241149902344</v>
       </c>
       <c r="E400" t="n">
-        <v>-58.53848266601562</v>
+        <v>9.615875244140625</v>
       </c>
     </row>
     <row r="401">
@@ -7254,10 +7254,10 @@
         <v>289.555799094195</v>
       </c>
       <c r="D401" t="n">
-        <v>344.15869140625</v>
+        <v>277.8577880859375</v>
       </c>
       <c r="E401" t="n">
-        <v>-54.6029052734375</v>
+        <v>11.697998046875</v>
       </c>
     </row>
     <row r="402">
@@ -7271,10 +7271,10 @@
         <v>293.476749097268</v>
       </c>
       <c r="D402" t="n">
-        <v>343.7911376953125</v>
+        <v>280.3014526367188</v>
       </c>
       <c r="E402" t="n">
-        <v>-50.31439208984375</v>
+        <v>13.17529296875</v>
       </c>
     </row>
     <row r="403">
@@ -7288,10 +7288,10 @@
         <v>298.042958782342</v>
       </c>
       <c r="D403" t="n">
-        <v>343.5860900878906</v>
+        <v>283.0110168457031</v>
       </c>
       <c r="E403" t="n">
-        <v>-45.54312133789062</v>
+        <v>15.03195190429688</v>
       </c>
     </row>
     <row r="404">
@@ -7305,10 +7305,10 @@
         <v>302.969164957931</v>
       </c>
       <c r="D404" t="n">
-        <v>343.3922424316406</v>
+        <v>286.8538208007812</v>
       </c>
       <c r="E404" t="n">
-        <v>-40.42306518554688</v>
+        <v>16.1153564453125</v>
       </c>
     </row>
     <row r="405">
@@ -7322,10 +7322,10 @@
         <v>45.47141312754299</v>
       </c>
       <c r="D405" t="n">
-        <v>339.8889465332031</v>
+        <v>30.24407958984375</v>
       </c>
       <c r="E405" t="n">
-        <v>-294.4175415039062</v>
+        <v>15.22733306884766</v>
       </c>
     </row>
     <row r="406">
@@ -7339,10 +7339,10 @@
         <v>47.2757564894583</v>
       </c>
       <c r="D406" t="n">
-        <v>339.7351684570312</v>
+        <v>29.5745849609375</v>
       </c>
       <c r="E406" t="n">
-        <v>-292.4594116210938</v>
+        <v>17.701171875</v>
       </c>
     </row>
     <row r="407">
@@ -7356,10 +7356,10 @@
         <v>48.9381237530572</v>
       </c>
       <c r="D407" t="n">
-        <v>339.7175903320312</v>
+        <v>30.87533569335938</v>
       </c>
       <c r="E407" t="n">
-        <v>-290.7794799804688</v>
+        <v>18.06278991699219</v>
       </c>
     </row>
     <row r="408">
@@ -7373,10 +7373,10 @@
         <v>50.4663419775198</v>
       </c>
       <c r="D408" t="n">
-        <v>339.7120971679688</v>
+        <v>32.99655151367188</v>
       </c>
       <c r="E408" t="n">
-        <v>-289.2457580566406</v>
+        <v>17.46979141235352</v>
       </c>
     </row>
     <row r="409">
@@ -7390,10 +7390,10 @@
         <v>51.8671681207707</v>
       </c>
       <c r="D409" t="n">
-        <v>339.7561340332031</v>
+        <v>36.22384643554688</v>
       </c>
       <c r="E409" t="n">
-        <v>-287.8889770507812</v>
+        <v>15.6433219909668</v>
       </c>
     </row>
     <row r="410">
@@ -7407,10 +7407,10 @@
         <v>53.14567869490369</v>
       </c>
       <c r="D410" t="n">
-        <v>339.7322692871094</v>
+        <v>38.52896118164062</v>
       </c>
       <c r="E410" t="n">
-        <v>-286.5865783691406</v>
+        <v>14.61671829223633</v>
       </c>
     </row>
     <row r="411">
@@ -7424,10 +7424,10 @@
         <v>54.3044923307604</v>
       </c>
       <c r="D411" t="n">
-        <v>339.7653503417969</v>
+        <v>41.67965698242188</v>
       </c>
       <c r="E411" t="n">
-        <v>-285.4608459472656</v>
+        <v>12.62483596801758</v>
       </c>
     </row>
     <row r="412">
@@ -7441,10 +7441,10 @@
         <v>55.3429805742123</v>
       </c>
       <c r="D412" t="n">
-        <v>339.7822570800781</v>
+        <v>44.93328857421875</v>
       </c>
       <c r="E412" t="n">
-        <v>-284.4392700195312</v>
+        <v>10.40969085693359</v>
       </c>
     </row>
     <row r="413">
@@ -7458,10 +7458,10 @@
         <v>56.25621193736519</v>
       </c>
       <c r="D413" t="n">
-        <v>339.8448791503906</v>
+        <v>48.04489135742188</v>
       </c>
       <c r="E413" t="n">
-        <v>-283.5886840820312</v>
+        <v>8.211318969726562</v>
       </c>
     </row>
     <row r="414">
@@ -7475,10 +7475,10 @@
         <v>57.0340080837309</v>
       </c>
       <c r="D414" t="n">
-        <v>339.8716430664062</v>
+        <v>49.939453125</v>
       </c>
       <c r="E414" t="n">
-        <v>-282.837646484375</v>
+        <v>7.094554901123047</v>
       </c>
     </row>
     <row r="415">
@@ -7492,10 +7492,10 @@
         <v>57.6585651402109</v>
       </c>
       <c r="D415" t="n">
-        <v>339.9629211425781</v>
+        <v>52.8939208984375</v>
       </c>
       <c r="E415" t="n">
-        <v>-282.3043518066406</v>
+        <v>4.764644622802734</v>
       </c>
     </row>
     <row r="416">
@@ -7509,10 +7509,10 @@
         <v>58.10219884868179</v>
       </c>
       <c r="D416" t="n">
-        <v>339.9766235351562</v>
+        <v>54.91500854492188</v>
       </c>
       <c r="E416" t="n">
-        <v>-281.8744201660156</v>
+        <v>3.187191009521484</v>
       </c>
     </row>
     <row r="417">
@@ -7526,10 +7526,10 @@
         <v>58.34863514554451</v>
       </c>
       <c r="D417" t="n">
-        <v>340.0240783691406</v>
+        <v>57.95584106445312</v>
       </c>
       <c r="E417" t="n">
-        <v>-281.6754455566406</v>
+        <v>0.3927955627441406</v>
       </c>
     </row>
     <row r="418">
@@ -7543,10 +7543,10 @@
         <v>58.54915787945701</v>
       </c>
       <c r="D418" t="n">
-        <v>340.0184631347656</v>
+        <v>60.0987548828125</v>
       </c>
       <c r="E418" t="n">
-        <v>-281.4692993164062</v>
+        <v>-1.549598693847656</v>
       </c>
     </row>
     <row r="419">
@@ -7560,10 +7560,10 @@
         <v>59.0931575032202</v>
       </c>
       <c r="D419" t="n">
-        <v>340.05419921875</v>
+        <v>63.01736450195312</v>
       </c>
       <c r="E419" t="n">
-        <v>-280.9610290527344</v>
+        <v>-3.924205780029297</v>
       </c>
     </row>
     <row r="420">
@@ -7577,10 +7577,10 @@
         <v>59.7652291418029</v>
       </c>
       <c r="D420" t="n">
-        <v>340.0390930175781</v>
+        <v>65.03042602539062</v>
       </c>
       <c r="E420" t="n">
-        <v>-280.2738647460938</v>
+        <v>-5.26519775390625</v>
       </c>
     </row>
     <row r="421">
@@ -7594,10 +7594,10 @@
         <v>60.5382173049993</v>
       </c>
       <c r="D421" t="n">
-        <v>340.0455322265625</v>
+        <v>66.90472412109375</v>
       </c>
       <c r="E421" t="n">
-        <v>-279.50732421875</v>
+        <v>-6.366508483886719</v>
       </c>
     </row>
     <row r="422">
@@ -7611,10 +7611,10 @@
         <v>61.39270729554161</v>
       </c>
       <c r="D422" t="n">
-        <v>340.0391540527344</v>
+        <v>68.9229736328125</v>
       </c>
       <c r="E422" t="n">
-        <v>-278.6464538574219</v>
+        <v>-7.530265808105469</v>
       </c>
     </row>
     <row r="423">
@@ -7628,10 +7628,10 @@
         <v>62.3183859029073</v>
       </c>
       <c r="D423" t="n">
-        <v>340.0260620117188</v>
+        <v>71.05770874023438</v>
       </c>
       <c r="E423" t="n">
-        <v>-277.7076721191406</v>
+        <v>-8.739322662353516</v>
       </c>
     </row>
     <row r="424">
@@ -7645,10 +7645,10 @@
         <v>63.3217893221117</v>
       </c>
       <c r="D424" t="n">
-        <v>339.9796447753906</v>
+        <v>71.62124633789062</v>
       </c>
       <c r="E424" t="n">
-        <v>-276.6578674316406</v>
+        <v>-8.299457550048828</v>
       </c>
     </row>
     <row r="425">
@@ -7662,10 +7662,10 @@
         <v>64.42003431961611</v>
       </c>
       <c r="D425" t="n">
-        <v>339.9813232421875</v>
+        <v>72.73223876953125</v>
       </c>
       <c r="E425" t="n">
-        <v>-275.561279296875</v>
+        <v>-8.312202453613281</v>
       </c>
     </row>
     <row r="426">
@@ -7679,10 +7679,10 @@
         <v>65.60470672600461</v>
       </c>
       <c r="D426" t="n">
-        <v>339.9506530761719</v>
+        <v>72.87814331054688</v>
       </c>
       <c r="E426" t="n">
-        <v>-274.345947265625</v>
+        <v>-7.2734375</v>
       </c>
     </row>
     <row r="427">
@@ -7696,10 +7696,10 @@
         <v>66.830061505426</v>
       </c>
       <c r="D427" t="n">
-        <v>340.0456237792969</v>
+        <v>73.93963623046875</v>
       </c>
       <c r="E427" t="n">
-        <v>-273.215576171875</v>
+        <v>-7.109573364257812</v>
       </c>
     </row>
     <row r="428">
@@ -7713,10 +7713,10 @@
         <v>68.0331607182851</v>
       </c>
       <c r="D428" t="n">
-        <v>340.15771484375</v>
+        <v>74.984375</v>
       </c>
       <c r="E428" t="n">
-        <v>-272.1245727539062</v>
+        <v>-6.951217651367188</v>
       </c>
     </row>
     <row r="429">
@@ -7730,10 +7730,10 @@
         <v>69.1681923281255</v>
       </c>
       <c r="D429" t="n">
-        <v>340.2818908691406</v>
+        <v>75.04641723632812</v>
       </c>
       <c r="E429" t="n">
-        <v>-271.1137084960938</v>
+        <v>-5.878227233886719</v>
       </c>
     </row>
     <row r="430">
@@ -7747,10 +7747,10 @@
         <v>70.2265695377437</v>
       </c>
       <c r="D430" t="n">
-        <v>340.353759765625</v>
+        <v>76.11923217773438</v>
       </c>
       <c r="E430" t="n">
-        <v>-270.127197265625</v>
+        <v>-5.892662048339844</v>
       </c>
     </row>
     <row r="431">
@@ -7764,10 +7764,10 @@
         <v>71.2204876775977</v>
       </c>
       <c r="D431" t="n">
-        <v>340.3953247070312</v>
+        <v>77.27133178710938</v>
       </c>
       <c r="E431" t="n">
-        <v>-269.1748352050781</v>
+        <v>-6.05084228515625</v>
       </c>
     </row>
     <row r="432">
@@ -7781,10 +7781,10 @@
         <v>72.19928398213349</v>
       </c>
       <c r="D432" t="n">
-        <v>340.3163452148438</v>
+        <v>77.72647094726562</v>
       </c>
       <c r="E432" t="n">
-        <v>-268.1170654296875</v>
+        <v>-5.527183532714844</v>
       </c>
     </row>
     <row r="433">
@@ -7798,10 +7798,10 @@
         <v>73.2080034278067</v>
       </c>
       <c r="D433" t="n">
-        <v>340.2429809570312</v>
+        <v>77.97235107421875</v>
       </c>
       <c r="E433" t="n">
-        <v>-267.0349731445312</v>
+        <v>-4.764350891113281</v>
       </c>
     </row>
     <row r="434">
@@ -7815,10 +7815,10 @@
         <v>74.25251173110971</v>
       </c>
       <c r="D434" t="n">
-        <v>340.2177124023438</v>
+        <v>78.16452026367188</v>
       </c>
       <c r="E434" t="n">
-        <v>-265.9652099609375</v>
+        <v>-3.912010192871094</v>
       </c>
     </row>
     <row r="435">
@@ -7832,10 +7832,10 @@
         <v>75.33334606563081</v>
       </c>
       <c r="D435" t="n">
-        <v>340.474365234375</v>
+        <v>77.93292236328125</v>
       </c>
       <c r="E435" t="n">
-        <v>-265.1410217285156</v>
+        <v>-2.599578857421875</v>
       </c>
     </row>
     <row r="436">
@@ -7849,10 +7849,10 @@
         <v>76.46166200894339</v>
       </c>
       <c r="D436" t="n">
-        <v>340.768310546875</v>
+        <v>78.04156494140625</v>
       </c>
       <c r="E436" t="n">
-        <v>-264.306640625</v>
+        <v>-1.579902648925781</v>
       </c>
     </row>
     <row r="437">
@@ -7866,10 +7866,10 @@
         <v>77.6425083740052</v>
       </c>
       <c r="D437" t="n">
-        <v>341.2367553710938</v>
+        <v>78.15066528320312</v>
       </c>
       <c r="E437" t="n">
-        <v>-263.59423828125</v>
+        <v>-0.5081558227539062</v>
       </c>
     </row>
     <row r="438">
@@ -7883,10 +7883,10 @@
         <v>78.86260087967671</v>
       </c>
       <c r="D438" t="n">
-        <v>341.6277160644531</v>
+        <v>77.443603515625</v>
       </c>
       <c r="E438" t="n">
-        <v>-262.7651062011719</v>
+        <v>1.418998718261719</v>
       </c>
     </row>
     <row r="439">
@@ -7900,10 +7900,10 @@
         <v>80.0662435476918</v>
       </c>
       <c r="D439" t="n">
-        <v>342.0403137207031</v>
+        <v>77.38616943359375</v>
       </c>
       <c r="E439" t="n">
-        <v>-261.9740600585938</v>
+        <v>2.680076599121094</v>
       </c>
     </row>
     <row r="440">
@@ -7917,10 +7917,10 @@
         <v>81.2096965077735</v>
       </c>
       <c r="D440" t="n">
-        <v>342.3955688476562</v>
+        <v>77.50653076171875</v>
       </c>
       <c r="E440" t="n">
-        <v>-261.1858825683594</v>
+        <v>3.703163146972656</v>
       </c>
     </row>
     <row r="441">
@@ -7934,10 +7934,10 @@
         <v>82.27958203919809</v>
       </c>
       <c r="D441" t="n">
-        <v>342.8316650390625</v>
+        <v>77.65963745117188</v>
       </c>
       <c r="E441" t="n">
-        <v>-260.5520935058594</v>
+        <v>4.619941711425781</v>
       </c>
     </row>
     <row r="442">
@@ -7951,10 +7951,10 @@
         <v>83.29050188618669</v>
       </c>
       <c r="D442" t="n">
-        <v>343.2626342773438</v>
+        <v>77.44256591796875</v>
       </c>
       <c r="E442" t="n">
-        <v>-259.9721374511719</v>
+        <v>5.847938537597656</v>
       </c>
     </row>
     <row r="443">
@@ -7968,10 +7968,10 @@
         <v>84.2813121483907</v>
       </c>
       <c r="D443" t="n">
-        <v>343.7438354492188</v>
+        <v>77.4503173828125</v>
       </c>
       <c r="E443" t="n">
-        <v>-259.4625244140625</v>
+        <v>6.83099365234375</v>
       </c>
     </row>
     <row r="444">
@@ -7985,10 +7985,10 @@
         <v>85.3030762402106</v>
       </c>
       <c r="D444" t="n">
-        <v>343.9873046875</v>
+        <v>77.59274291992188</v>
       </c>
       <c r="E444" t="n">
-        <v>-258.6842346191406</v>
+        <v>7.710334777832031</v>
       </c>
     </row>
     <row r="445">
@@ -8002,10 +8002,10 @@
         <v>86.3875496121448</v>
       </c>
       <c r="D445" t="n">
-        <v>344.0823364257812</v>
+        <v>77.70831298828125</v>
       </c>
       <c r="E445" t="n">
-        <v>-257.6947937011719</v>
+        <v>8.679237365722656</v>
       </c>
     </row>
     <row r="446">
@@ -8019,10 +8019,10 @@
         <v>87.53201901701449</v>
       </c>
       <c r="D446" t="n">
-        <v>344.1376342773438</v>
+        <v>77.86083984375</v>
       </c>
       <c r="E446" t="n">
-        <v>-256.6056213378906</v>
+        <v>9.671180725097656</v>
       </c>
     </row>
     <row r="447">
@@ -8036,10 +8036,10 @@
         <v>88.72459856271981</v>
       </c>
       <c r="D447" t="n">
-        <v>344.2849426269531</v>
+        <v>79.2293701171875</v>
       </c>
       <c r="E447" t="n">
-        <v>-255.5603332519531</v>
+        <v>9.495231628417969</v>
       </c>
     </row>
     <row r="448">
@@ -8053,10 +8053,10 @@
         <v>89.9350183243147</v>
       </c>
       <c r="D448" t="n">
-        <v>344.3880920410156</v>
+        <v>80.81289672851562</v>
       </c>
       <c r="E448" t="n">
-        <v>-254.4530639648438</v>
+        <v>9.122123718261719</v>
       </c>
     </row>
     <row r="449">
@@ -8070,10 +8070,10 @@
         <v>91.17148570577081</v>
       </c>
       <c r="D449" t="n">
-        <v>344.4877319335938</v>
+        <v>81.67312622070312</v>
       </c>
       <c r="E449" t="n">
-        <v>-253.3162536621094</v>
+        <v>9.498359680175781</v>
       </c>
     </row>
     <row r="450">
@@ -8087,10 +8087,10 @@
         <v>92.40370506791639</v>
       </c>
       <c r="D450" t="n">
-        <v>344.6080017089844</v>
+        <v>83.42037963867188</v>
       </c>
       <c r="E450" t="n">
-        <v>-252.2042999267578</v>
+        <v>8.983322143554688</v>
       </c>
     </row>
     <row r="451">
@@ -8104,10 +8104,10 @@
         <v>93.5831221633926</v>
       </c>
       <c r="D451" t="n">
-        <v>344.6792907714844</v>
+        <v>84.07501220703125</v>
       </c>
       <c r="E451" t="n">
-        <v>-251.0961608886719</v>
+        <v>9.508110046386719</v>
       </c>
     </row>
     <row r="452">
@@ -8121,10 +8121,10 @@
         <v>94.69783036963079</v>
       </c>
       <c r="D452" t="n">
-        <v>344.7676696777344</v>
+        <v>85.56497192382812</v>
       </c>
       <c r="E452" t="n">
-        <v>-250.0698394775391</v>
+        <v>9.132858276367188</v>
       </c>
     </row>
     <row r="453">
@@ -8138,10 +8138,10 @@
         <v>95.773090355503</v>
       </c>
       <c r="D453" t="n">
-        <v>344.9509887695312</v>
+        <v>88.48898315429688</v>
       </c>
       <c r="E453" t="n">
-        <v>-249.1779022216797</v>
+        <v>7.284103393554688</v>
       </c>
     </row>
     <row r="454">
@@ -8155,10 +8155,10 @@
         <v>96.84132102908059</v>
       </c>
       <c r="D454" t="n">
-        <v>345.0112915039062</v>
+        <v>89.01138305664062</v>
       </c>
       <c r="E454" t="n">
-        <v>-248.1699676513672</v>
+        <v>7.829940795898438</v>
       </c>
     </row>
     <row r="455">
@@ -8172,10 +8172,10 @@
         <v>97.9501686382833</v>
       </c>
       <c r="D455" t="n">
-        <v>345.1957092285156</v>
+        <v>91.16360473632812</v>
       </c>
       <c r="E455" t="n">
-        <v>-247.2455444335938</v>
+        <v>6.786567687988281</v>
       </c>
     </row>
     <row r="456">
@@ -8189,10 +8189,10 @@
         <v>99.11614037361251</v>
       </c>
       <c r="D456" t="n">
-        <v>345.3162536621094</v>
+        <v>92.1585693359375</v>
       </c>
       <c r="E456" t="n">
-        <v>-246.2001037597656</v>
+        <v>6.957572937011719</v>
       </c>
     </row>
     <row r="457">
@@ -8206,10 +8206,10 @@
         <v>100.338427885202</v>
       </c>
       <c r="D457" t="n">
-        <v>345.453125</v>
+        <v>94.33470153808594</v>
       </c>
       <c r="E457" t="n">
-        <v>-245.1147003173828</v>
+        <v>6.00372314453125</v>
       </c>
     </row>
     <row r="458">
@@ -8223,10 +8223,10 @@
         <v>101.618469716582</v>
       </c>
       <c r="D458" t="n">
-        <v>345.4666748046875</v>
+        <v>96.10565185546875</v>
       </c>
       <c r="E458" t="n">
-        <v>-243.8482055664062</v>
+        <v>5.5128173828125</v>
       </c>
     </row>
     <row r="459">
@@ -8240,10 +8240,10 @@
         <v>102.950829996277</v>
       </c>
       <c r="D459" t="n">
-        <v>345.4290161132812</v>
+        <v>97.49130249023438</v>
       </c>
       <c r="E459" t="n">
-        <v>-242.4781799316406</v>
+        <v>5.459526062011719</v>
       </c>
     </row>
     <row r="460">
@@ -8257,10 +8257,10 @@
         <v>104.292987580663</v>
       </c>
       <c r="D460" t="n">
-        <v>345.3274536132812</v>
+        <v>97.76837158203125</v>
       </c>
       <c r="E460" t="n">
-        <v>-241.0344696044922</v>
+        <v>6.524612426757812</v>
       </c>
     </row>
     <row r="461">
@@ -8274,10 +8274,10 @@
         <v>105.618037137215</v>
       </c>
       <c r="D461" t="n">
-        <v>345.1286926269531</v>
+        <v>99.2178955078125</v>
       </c>
       <c r="E461" t="n">
-        <v>-239.5106506347656</v>
+        <v>6.400138854980469</v>
       </c>
     </row>
     <row r="462">
@@ -8291,10 +8291,10 @@
         <v>106.927228675612</v>
       </c>
       <c r="D462" t="n">
-        <v>344.9794006347656</v>
+        <v>100.8267822265625</v>
       </c>
       <c r="E462" t="n">
-        <v>-238.0521697998047</v>
+        <v>6.100448608398438</v>
       </c>
     </row>
     <row r="463">
@@ -8308,10 +8308,10 @@
         <v>108.23064173082</v>
       </c>
       <c r="D463" t="n">
-        <v>344.8771667480469</v>
+        <v>102.7471313476562</v>
       </c>
       <c r="E463" t="n">
-        <v>-236.6465148925781</v>
+        <v>5.483512878417969</v>
       </c>
     </row>
     <row r="464">
@@ -8325,10 +8325,10 @@
         <v>109.559054324185</v>
       </c>
       <c r="D464" t="n">
-        <v>344.8005676269531</v>
+        <v>104.9253540039062</v>
       </c>
       <c r="E464" t="n">
-        <v>-235.2415161132812</v>
+        <v>4.633697509765625</v>
       </c>
     </row>
     <row r="465">
@@ -8342,10 +8342,10 @@
         <v>110.950571576039</v>
       </c>
       <c r="D465" t="n">
-        <v>344.7264099121094</v>
+        <v>107.0468597412109</v>
       </c>
       <c r="E465" t="n">
-        <v>-233.7758483886719</v>
+        <v>3.903709411621094</v>
       </c>
     </row>
     <row r="466">
@@ -8359,10 +8359,10 @@
         <v>112.457434780862</v>
       </c>
       <c r="D466" t="n">
-        <v>344.6588439941406</v>
+        <v>109.5113220214844</v>
       </c>
       <c r="E466" t="n">
-        <v>-232.201416015625</v>
+        <v>2.946113586425781</v>
       </c>
     </row>
     <row r="467">
@@ -8376,10 +8376,10 @@
         <v>114.058617507951</v>
       </c>
       <c r="D467" t="n">
-        <v>344.6585998535156</v>
+        <v>112.0174102783203</v>
       </c>
       <c r="E467" t="n">
-        <v>-230.5999755859375</v>
+        <v>2.041206359863281</v>
       </c>
     </row>
     <row r="468">
@@ -8393,10 +8393,10 @@
         <v>115.705064738273</v>
       </c>
       <c r="D468" t="n">
-        <v>344.6145935058594</v>
+        <v>114.3161773681641</v>
       </c>
       <c r="E468" t="n">
-        <v>-228.9095306396484</v>
+        <v>1.388885498046875</v>
       </c>
     </row>
     <row r="469">
@@ -8410,10 +8410,10 @@
         <v>117.36333203</v>
       </c>
       <c r="D469" t="n">
-        <v>344.5195922851562</v>
+        <v>116.4810638427734</v>
       </c>
       <c r="E469" t="n">
-        <v>-227.15625</v>
+        <v>0.8822708129882812</v>
       </c>
     </row>
     <row r="470">
@@ -8427,10 +8427,10 @@
         <v>119.037871021201</v>
       </c>
       <c r="D470" t="n">
-        <v>344.3870849609375</v>
+        <v>118.2300109863281</v>
       </c>
       <c r="E470" t="n">
-        <v>-225.3492126464844</v>
+        <v>0.807861328125</v>
       </c>
     </row>
     <row r="471">
@@ -8444,10 +8444,10 @@
         <v>120.729323233116</v>
       </c>
       <c r="D471" t="n">
-        <v>344.2241821289062</v>
+        <v>119.8861083984375</v>
       </c>
       <c r="E471" t="n">
-        <v>-223.4948577880859</v>
+        <v>0.8432159423828125</v>
       </c>
     </row>
     <row r="472">
@@ -8461,10 +8461,10 @@
         <v>122.425141425812</v>
       </c>
       <c r="D472" t="n">
-        <v>344.088134765625</v>
+        <v>121.7650146484375</v>
       </c>
       <c r="E472" t="n">
-        <v>-221.6629943847656</v>
+        <v>0.660125732421875</v>
       </c>
     </row>
     <row r="473">
@@ -8478,10 +8478,10 @@
         <v>124.127474832464</v>
       </c>
       <c r="D473" t="n">
-        <v>343.9869384765625</v>
+        <v>123.9416046142578</v>
       </c>
       <c r="E473" t="n">
-        <v>-219.8594665527344</v>
+        <v>0.1858673095703125</v>
       </c>
     </row>
     <row r="474">
@@ -8495,10 +8495,10 @@
         <v>125.854142465012</v>
       </c>
       <c r="D474" t="n">
-        <v>344.0105895996094</v>
+        <v>126.3653869628906</v>
       </c>
       <c r="E474" t="n">
-        <v>-218.1564483642578</v>
+        <v>-0.5112457275390625</v>
       </c>
     </row>
     <row r="475">
@@ -8512,10 +8512,10 @@
         <v>127.662025712345</v>
       </c>
       <c r="D475" t="n">
-        <v>343.978271484375</v>
+        <v>128.6834564208984</v>
       </c>
       <c r="E475" t="n">
-        <v>-216.3162536621094</v>
+        <v>-1.021430969238281</v>
       </c>
     </row>
     <row r="476">
@@ -8529,10 +8529,10 @@
         <v>129.611451962231</v>
       </c>
       <c r="D476" t="n">
-        <v>343.9702453613281</v>
+        <v>132.0937194824219</v>
       </c>
       <c r="E476" t="n">
-        <v>-214.3587951660156</v>
+        <v>-2.482269287109375</v>
       </c>
     </row>
     <row r="477">
@@ -8546,10 +8546,10 @@
         <v>131.703048421255</v>
       </c>
       <c r="D477" t="n">
-        <v>343.8370361328125</v>
+        <v>134.5269165039062</v>
       </c>
       <c r="E477" t="n">
-        <v>-212.1339874267578</v>
+        <v>-2.823867797851562</v>
       </c>
     </row>
     <row r="478">
@@ -8563,10 +8563,10 @@
         <v>133.879029404038</v>
       </c>
       <c r="D478" t="n">
-        <v>343.58251953125</v>
+        <v>135.0197448730469</v>
       </c>
       <c r="E478" t="n">
-        <v>-209.7034912109375</v>
+        <v>-1.140716552734375</v>
       </c>
     </row>
     <row r="479">
@@ -8580,10 +8580,10 @@
         <v>136.058790154797</v>
       </c>
       <c r="D479" t="n">
-        <v>343.359130859375</v>
+        <v>137.063720703125</v>
       </c>
       <c r="E479" t="n">
-        <v>-207.3003387451172</v>
+        <v>-1.004928588867188</v>
       </c>
     </row>
     <row r="480">
@@ -8597,10 +8597,10 @@
         <v>138.220970681154</v>
       </c>
       <c r="D480" t="n">
-        <v>343.1729736328125</v>
+        <v>138.6151733398438</v>
       </c>
       <c r="E480" t="n">
-        <v>-204.9519958496094</v>
+        <v>-0.394195556640625</v>
       </c>
     </row>
     <row r="481">
@@ -8614,10 +8614,10 @@
         <v>140.379938162677</v>
       </c>
       <c r="D481" t="n">
-        <v>343.0438537597656</v>
+        <v>140.3346710205078</v>
       </c>
       <c r="E481" t="n">
-        <v>-202.6639099121094</v>
+        <v>0.0452728271484375</v>
       </c>
     </row>
     <row r="482">
@@ -8631,10 +8631,10 @@
         <v>142.508323511621</v>
       </c>
       <c r="D482" t="n">
-        <v>343.0423583984375</v>
+        <v>143.5134582519531</v>
       </c>
       <c r="E482" t="n">
-        <v>-200.5340423583984</v>
+        <v>-1.005142211914062</v>
       </c>
     </row>
     <row r="483">
@@ -8648,10 +8648,10 @@
         <v>144.526566787916</v>
       </c>
       <c r="D483" t="n">
-        <v>343.0423889160156</v>
+        <v>146.7591552734375</v>
       </c>
       <c r="E483" t="n">
-        <v>-198.5158233642578</v>
+        <v>-2.232589721679688</v>
       </c>
     </row>
     <row r="484">
@@ -8665,10 +8665,10 @@
         <v>146.363766354088</v>
       </c>
       <c r="D484" t="n">
-        <v>343.0500183105469</v>
+        <v>150.4284515380859</v>
       </c>
       <c r="E484" t="n">
-        <v>-196.6862487792969</v>
+        <v>-4.064682006835938</v>
       </c>
     </row>
     <row r="485">
@@ -8682,10 +8682,10 @@
         <v>148.04810308747</v>
       </c>
       <c r="D485" t="n">
-        <v>343.0615844726562</v>
+        <v>153.6202545166016</v>
       </c>
       <c r="E485" t="n">
-        <v>-195.0134887695312</v>
+        <v>-5.572158813476562</v>
       </c>
     </row>
     <row r="486">
@@ -8699,10 +8699,10 @@
         <v>149.636500024526</v>
       </c>
       <c r="D486" t="n">
-        <v>343.0478820800781</v>
+        <v>157.1228790283203</v>
       </c>
       <c r="E486" t="n">
-        <v>-193.411376953125</v>
+        <v>-7.486373901367188</v>
       </c>
     </row>
     <row r="487">
@@ -8716,10 +8716,10 @@
         <v>151.193118974174</v>
       </c>
       <c r="D487" t="n">
-        <v>342.9997253417969</v>
+        <v>159.0234985351562</v>
       </c>
       <c r="E487" t="n">
-        <v>-191.8066101074219</v>
+        <v>-7.83038330078125</v>
       </c>
     </row>
     <row r="488">
@@ -8733,10 +8733,10 @@
         <v>152.769928971357</v>
       </c>
       <c r="D488" t="n">
-        <v>343.0162963867188</v>
+        <v>161.0505828857422</v>
       </c>
       <c r="E488" t="n">
-        <v>-190.2463684082031</v>
+        <v>-8.280654907226562</v>
       </c>
     </row>
     <row r="489">
@@ -8750,10 +8750,10 @@
         <v>154.406649606657</v>
       </c>
       <c r="D489" t="n">
-        <v>343.1241455078125</v>
+        <v>160.9447174072266</v>
       </c>
       <c r="E489" t="n">
-        <v>-188.7174987792969</v>
+        <v>-6.538070678710938</v>
       </c>
     </row>
     <row r="490">
@@ -8767,10 +8767,10 @@
         <v>156.106761670804</v>
       </c>
       <c r="D490" t="n">
-        <v>343.7358093261719</v>
+        <v>161.2463226318359</v>
       </c>
       <c r="E490" t="n">
-        <v>-187.6290435791016</v>
+        <v>-5.139556884765625</v>
       </c>
     </row>
     <row r="491">
@@ -8784,10 +8784,10 @@
         <v>157.863985411716</v>
       </c>
       <c r="D491" t="n">
-        <v>344.0361938476562</v>
+        <v>161.4486846923828</v>
       </c>
       <c r="E491" t="n">
-        <v>-186.1722106933594</v>
+        <v>-3.584701538085938</v>
       </c>
     </row>
     <row r="492">
@@ -8801,10 +8801,10 @@
         <v>159.722269667763</v>
       </c>
       <c r="D492" t="n">
-        <v>344.2379150390625</v>
+        <v>162.2955932617188</v>
       </c>
       <c r="E492" t="n">
-        <v>-184.5156402587891</v>
+        <v>-2.573318481445312</v>
       </c>
     </row>
     <row r="493">
@@ -8818,10 +8818,10 @@
         <v>161.767623419939</v>
       </c>
       <c r="D493" t="n">
-        <v>344.2609558105469</v>
+        <v>162.5141754150391</v>
       </c>
       <c r="E493" t="n">
-        <v>-182.4933319091797</v>
+        <v>-0.746551513671875</v>
       </c>
     </row>
     <row r="494">
@@ -8835,10 +8835,10 @@
         <v>164.016827955843</v>
       </c>
       <c r="D494" t="n">
-        <v>344.3704528808594</v>
+        <v>162.3558197021484</v>
       </c>
       <c r="E494" t="n">
-        <v>-180.3536224365234</v>
+        <v>1.6610107421875</v>
       </c>
     </row>
     <row r="495">
@@ -8852,10 +8852,10 @@
         <v>166.387513968761</v>
       </c>
       <c r="D495" t="n">
-        <v>344.4773559570312</v>
+        <v>162.2396392822266</v>
       </c>
       <c r="E495" t="n">
-        <v>-178.08984375</v>
+        <v>4.147872924804688</v>
       </c>
     </row>
     <row r="496">
@@ -8869,10 +8869,10 @@
         <v>168.807264444714</v>
       </c>
       <c r="D496" t="n">
-        <v>344.7518310546875</v>
+        <v>163.3793792724609</v>
       </c>
       <c r="E496" t="n">
-        <v>-175.9445648193359</v>
+        <v>5.427886962890625</v>
       </c>
     </row>
     <row r="497">
@@ -8886,10 +8886,10 @@
         <v>171.242556810676</v>
       </c>
       <c r="D497" t="n">
-        <v>345.1406555175781</v>
+        <v>166.3788909912109</v>
       </c>
       <c r="E497" t="n">
-        <v>-173.8981018066406</v>
+        <v>4.863662719726562</v>
       </c>
     </row>
     <row r="498">
@@ -8903,10 +8903,10 @@
         <v>173.709108388715</v>
       </c>
       <c r="D498" t="n">
-        <v>345.5558776855469</v>
+        <v>168.5020446777344</v>
       </c>
       <c r="E498" t="n">
-        <v>-171.8467712402344</v>
+        <v>5.207061767578125</v>
       </c>
     </row>
     <row r="499">
@@ -8920,10 +8920,10 @@
         <v>176.22479882031</v>
       </c>
       <c r="D499" t="n">
-        <v>345.8613586425781</v>
+        <v>170.7629241943359</v>
       </c>
       <c r="E499" t="n">
-        <v>-169.6365661621094</v>
+        <v>5.461868286132812</v>
       </c>
     </row>
     <row r="500">
@@ -8937,10 +8937,10 @@
         <v>178.838571731788</v>
       </c>
       <c r="D500" t="n">
-        <v>346.034912109375</v>
+        <v>172.8113861083984</v>
       </c>
       <c r="E500" t="n">
-        <v>-167.1963348388672</v>
+        <v>6.027191162109375</v>
       </c>
     </row>
     <row r="501">
@@ -8954,10 +8954,10 @@
         <v>181.582842380231</v>
       </c>
       <c r="D501" t="n">
-        <v>346.3715209960938</v>
+        <v>176.0371704101562</v>
       </c>
       <c r="E501" t="n">
-        <v>-164.7886810302734</v>
+        <v>5.545669555664062</v>
       </c>
     </row>
     <row r="502">
@@ -8971,10 +8971,10 @@
         <v>184.365159273187</v>
       </c>
       <c r="D502" t="n">
-        <v>346.857177734375</v>
+        <v>178.4723663330078</v>
       </c>
       <c r="E502" t="n">
-        <v>-162.4920196533203</v>
+        <v>5.892791748046875</v>
       </c>
     </row>
     <row r="503">
@@ -8988,10 +8988,10 @@
         <v>187.104079113293</v>
       </c>
       <c r="D503" t="n">
-        <v>347.263427734375</v>
+        <v>181.6237640380859</v>
       </c>
       <c r="E503" t="n">
-        <v>-160.1593475341797</v>
+        <v>5.480316162109375</v>
       </c>
     </row>
     <row r="504">
@@ -9005,10 +9005,10 @@
         <v>189.78946151721</v>
       </c>
       <c r="D504" t="n">
-        <v>347.1311645507812</v>
+        <v>183.7250518798828</v>
       </c>
       <c r="E504" t="n">
-        <v>-157.3417053222656</v>
+        <v>6.064407348632812</v>
       </c>
     </row>
     <row r="505">
@@ -9022,10 +9022,10 @@
         <v>192.358001129075</v>
       </c>
       <c r="D505" t="n">
-        <v>346.8152770996094</v>
+        <v>185.3846588134766</v>
       </c>
       <c r="E505" t="n">
-        <v>-154.457275390625</v>
+        <v>6.973342895507812</v>
       </c>
     </row>
     <row r="506">
@@ -9039,10 +9039,10 @@
         <v>194.773081982769</v>
       </c>
       <c r="D506" t="n">
-        <v>346.3771667480469</v>
+        <v>186.548828125</v>
       </c>
       <c r="E506" t="n">
-        <v>-151.6040802001953</v>
+        <v>8.224258422851562</v>
       </c>
     </row>
     <row r="507">
@@ -9056,10 +9056,10 @@
         <v>197.060393328079</v>
       </c>
       <c r="D507" t="n">
-        <v>346.1166381835938</v>
+        <v>188.9393920898438</v>
       </c>
       <c r="E507" t="n">
-        <v>-149.0562438964844</v>
+        <v>8.121002197265625</v>
       </c>
     </row>
     <row r="508">
@@ -9073,10 +9073,10 @@
         <v>199.28399025126</v>
       </c>
       <c r="D508" t="n">
-        <v>345.975830078125</v>
+        <v>190.9482727050781</v>
       </c>
       <c r="E508" t="n">
-        <v>-146.6918334960938</v>
+        <v>8.335723876953125</v>
       </c>
     </row>
     <row r="509">
@@ -9090,10 +9090,10 @@
         <v>201.457976347494</v>
       </c>
       <c r="D509" t="n">
-        <v>346.204833984375</v>
+        <v>195.240478515625</v>
       </c>
       <c r="E509" t="n">
-        <v>-144.7468566894531</v>
+        <v>6.217498779296875</v>
       </c>
     </row>
     <row r="510">
@@ -9107,10 +9107,10 @@
         <v>203.552499145023</v>
       </c>
       <c r="D510" t="n">
-        <v>346.4826354980469</v>
+        <v>196.8237457275391</v>
       </c>
       <c r="E510" t="n">
-        <v>-142.9301300048828</v>
+        <v>6.728759765625</v>
       </c>
     </row>
     <row r="511">
@@ -9124,10 +9124,10 @@
         <v>205.580562096555</v>
       </c>
       <c r="D511" t="n">
-        <v>346.9942932128906</v>
+        <v>200.0208740234375</v>
       </c>
       <c r="E511" t="n">
-        <v>-141.4137268066406</v>
+        <v>5.5596923828125</v>
       </c>
     </row>
     <row r="512">
@@ -9141,10 +9141,10 @@
         <v>207.62409735083</v>
       </c>
       <c r="D512" t="n">
-        <v>347.2344665527344</v>
+        <v>203.8592071533203</v>
       </c>
       <c r="E512" t="n">
-        <v>-139.6103668212891</v>
+        <v>3.764892578125</v>
       </c>
     </row>
     <row r="513">
@@ -9158,10 +9158,10 @@
         <v>209.716258190205</v>
       </c>
       <c r="D513" t="n">
-        <v>346.9624938964844</v>
+        <v>205.8534393310547</v>
       </c>
       <c r="E513" t="n">
-        <v>-137.2462310791016</v>
+        <v>3.862823486328125</v>
       </c>
     </row>
     <row r="514">
@@ -9175,10 +9175,10 @@
         <v>211.856662754547</v>
       </c>
       <c r="D514" t="n">
-        <v>346.5103149414062</v>
+        <v>208.0988311767578</v>
       </c>
       <c r="E514" t="n">
-        <v>-134.6536560058594</v>
+        <v>3.757827758789062</v>
       </c>
     </row>
     <row r="515">
@@ -9192,10 +9192,10 @@
         <v>214.079161903279</v>
       </c>
       <c r="D515" t="n">
-        <v>346.19091796875</v>
+        <v>210.3617248535156</v>
       </c>
       <c r="E515" t="n">
-        <v>-132.1117553710938</v>
+        <v>3.717437744140625</v>
       </c>
     </row>
     <row r="516">
@@ -9209,10 +9209,10 @@
         <v>216.417301578074</v>
       </c>
       <c r="D516" t="n">
-        <v>346.101318359375</v>
+        <v>212.3227081298828</v>
       </c>
       <c r="E516" t="n">
-        <v>-129.6840209960938</v>
+        <v>4.094589233398438</v>
       </c>
     </row>
     <row r="517">
@@ -9226,10 +9226,10 @@
         <v>218.842105452637</v>
       </c>
       <c r="D517" t="n">
-        <v>345.8437805175781</v>
+        <v>215.1784057617188</v>
       </c>
       <c r="E517" t="n">
-        <v>-127.0016784667969</v>
+        <v>3.6636962890625</v>
       </c>
     </row>
     <row r="518">
@@ -9243,10 +9243,10 @@
         <v>221.347335111067</v>
       </c>
       <c r="D518" t="n">
-        <v>345.7669372558594</v>
+        <v>217.5913696289062</v>
       </c>
       <c r="E518" t="n">
-        <v>-124.4196014404297</v>
+        <v>3.755966186523438</v>
       </c>
     </row>
     <row r="519">
@@ -9260,10 +9260,10 @@
         <v>223.994589242993</v>
       </c>
       <c r="D519" t="n">
-        <v>345.9635314941406</v>
+        <v>221.3000335693359</v>
       </c>
       <c r="E519" t="n">
-        <v>-121.9689483642578</v>
+        <v>2.694549560546875</v>
       </c>
     </row>
     <row r="520">
@@ -9277,10 +9277,10 @@
         <v>226.848207550975</v>
       </c>
       <c r="D520" t="n">
-        <v>346.0166320800781</v>
+        <v>224.4490966796875</v>
       </c>
       <c r="E520" t="n">
-        <v>-119.1684265136719</v>
+        <v>2.39910888671875</v>
       </c>
     </row>
     <row r="521">
@@ -9294,10 +9294,10 @@
         <v>229.926082484057</v>
       </c>
       <c r="D521" t="n">
-        <v>345.8945922851562</v>
+        <v>228.5961608886719</v>
       </c>
       <c r="E521" t="n">
-        <v>-115.968505859375</v>
+        <v>1.329925537109375</v>
       </c>
     </row>
     <row r="522">
@@ -9311,10 +9311,10 @@
         <v>233.128897298419</v>
       </c>
       <c r="D522" t="n">
-        <v>345.771240234375</v>
+        <v>231.5650329589844</v>
       </c>
       <c r="E522" t="n">
-        <v>-112.6423492431641</v>
+        <v>1.563858032226562</v>
       </c>
     </row>
     <row r="523">
@@ -9328,10 +9328,10 @@
         <v>236.321600056166</v>
       </c>
       <c r="D523" t="n">
-        <v>345.8027038574219</v>
+        <v>234.2576751708984</v>
       </c>
       <c r="E523" t="n">
-        <v>-109.4811096191406</v>
+        <v>2.063919067382812</v>
       </c>
     </row>
     <row r="524">
@@ -9345,10 +9345,10 @@
         <v>239.367254532422</v>
       </c>
       <c r="D524" t="n">
-        <v>345.7517395019531</v>
+        <v>237.2679901123047</v>
       </c>
       <c r="E524" t="n">
-        <v>-106.3844909667969</v>
+        <v>2.099258422851562</v>
       </c>
     </row>
     <row r="525">
@@ -9362,10 +9362,10 @@
         <v>242.216434064194</v>
       </c>
       <c r="D525" t="n">
-        <v>345.6007690429688</v>
+        <v>240.6664123535156</v>
       </c>
       <c r="E525" t="n">
-        <v>-103.3843383789062</v>
+        <v>1.550018310546875</v>
       </c>
     </row>
     <row r="526">
@@ -9379,10 +9379,10 @@
         <v>244.923360079367</v>
       </c>
       <c r="D526" t="n">
-        <v>345.5282897949219</v>
+        <v>244.1537170410156</v>
       </c>
       <c r="E526" t="n">
-        <v>-100.6049346923828</v>
+        <v>0.7696380615234375</v>
       </c>
     </row>
     <row r="527">
@@ -9396,10 +9396,10 @@
         <v>247.486572001166</v>
       </c>
       <c r="D527" t="n">
-        <v>345.5244445800781</v>
+        <v>248.7815856933594</v>
       </c>
       <c r="E527" t="n">
-        <v>-98.03787231445312</v>
+        <v>-1.295013427734375</v>
       </c>
     </row>
     <row r="528">
@@ -9413,10 +9413,10 @@
         <v>249.852230087918</v>
       </c>
       <c r="D528" t="n">
-        <v>345.5660705566406</v>
+        <v>252.1640625</v>
       </c>
       <c r="E528" t="n">
-        <v>-95.71383666992188</v>
+        <v>-2.31182861328125</v>
       </c>
     </row>
     <row r="529">
@@ -9430,10 +9430,10 @@
         <v>252.010694206577</v>
       </c>
       <c r="D529" t="n">
-        <v>345.5881958007812</v>
+        <v>256.7393493652344</v>
       </c>
       <c r="E529" t="n">
-        <v>-93.57749938964844</v>
+        <v>-4.728652954101562</v>
       </c>
     </row>
     <row r="530">
@@ -9447,10 +9447,10 @@
         <v>253.946358505305</v>
       </c>
       <c r="D530" t="n">
-        <v>345.6362609863281</v>
+        <v>260.795654296875</v>
       </c>
       <c r="E530" t="n">
-        <v>-91.68989562988281</v>
+        <v>-6.849288940429688</v>
       </c>
     </row>
     <row r="531">
@@ -9464,10 +9464,10 @@
         <v>255.703734271075</v>
       </c>
       <c r="D531" t="n">
-        <v>345.6781005859375</v>
+        <v>266.2335510253906</v>
       </c>
       <c r="E531" t="n">
-        <v>-89.974365234375</v>
+        <v>-10.52981567382812</v>
       </c>
     </row>
     <row r="532">
@@ -9481,10 +9481,10 @@
         <v>257.30655271874</v>
       </c>
       <c r="D532" t="n">
-        <v>345.6955871582031</v>
+        <v>272.6558837890625</v>
       </c>
       <c r="E532" t="n">
-        <v>-88.3890380859375</v>
+        <v>-15.34933471679688</v>
       </c>
     </row>
   </sheetData>

--- a/data/stainless_steel_304_with_predictions.xlsx
+++ b/data/stainless_steel_304_with_predictions.xlsx
@@ -471,10 +471,10 @@
         <v>395.603300876209</v>
       </c>
       <c r="D2" t="n">
-        <v>447.7631530761719</v>
+        <v>449.7876281738281</v>
       </c>
       <c r="E2" t="n">
-        <v>-52.15985107421875</v>
+        <v>-54.184326171875</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>399.477725504481</v>
       </c>
       <c r="D3" t="n">
-        <v>448.198486328125</v>
+        <v>449.9225769042969</v>
       </c>
       <c r="E3" t="n">
-        <v>-48.72076416015625</v>
+        <v>-50.44485473632812</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>403.129622067849</v>
       </c>
       <c r="D4" t="n">
-        <v>448.65576171875</v>
+        <v>450.0809326171875</v>
       </c>
       <c r="E4" t="n">
-        <v>-45.52615356445312</v>
+        <v>-46.95132446289062</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>406.555897479841</v>
       </c>
       <c r="D5" t="n">
-        <v>449.133056640625</v>
+        <v>450.2661743164062</v>
       </c>
       <c r="E5" t="n">
-        <v>-42.5771484375</v>
+        <v>-43.71026611328125</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>409.757028790634</v>
       </c>
       <c r="D6" t="n">
-        <v>449.6283264160156</v>
+        <v>450.4808959960938</v>
       </c>
       <c r="E6" t="n">
-        <v>-39.87130737304688</v>
+        <v>-40.723876953125</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>412.737171626757</v>
       </c>
       <c r="D7" t="n">
-        <v>450.1401672363281</v>
+        <v>450.7255249023438</v>
       </c>
       <c r="E7" t="n">
-        <v>-37.40298461914062</v>
+        <v>-37.98834228515625</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>415.510401390927</v>
       </c>
       <c r="D8" t="n">
-        <v>450.6670837402344</v>
+        <v>451.0000305175781</v>
       </c>
       <c r="E8" t="n">
-        <v>-35.15667724609375</v>
+        <v>-35.4896240234375</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>418.090374171948</v>
       </c>
       <c r="D9" t="n">
-        <v>451.2068786621094</v>
+        <v>451.3058471679688</v>
       </c>
       <c r="E9" t="n">
-        <v>-33.11651611328125</v>
+        <v>-33.21548461914062</v>
       </c>
     </row>
     <row r="10">
@@ -607,10 +607,10 @@
         <v>420.491343142817</v>
       </c>
       <c r="D10" t="n">
-        <v>451.757568359375</v>
+        <v>451.6429443359375</v>
       </c>
       <c r="E10" t="n">
-        <v>-31.2662353515625</v>
+        <v>-31.151611328125</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v>422.72583850844</v>
       </c>
       <c r="D11" t="n">
-        <v>452.3180541992188</v>
+        <v>452.0090942382812</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.59222412109375</v>
+        <v>-29.28326416015625</v>
       </c>
     </row>
     <row r="12">
@@ -641,10 +641,10 @@
         <v>424.807830694658</v>
       </c>
       <c r="D12" t="n">
-        <v>452.887451171875</v>
+        <v>452.4020385742188</v>
       </c>
       <c r="E12" t="n">
-        <v>-28.07962036132812</v>
+        <v>-27.59420776367188</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>426.7522086401821</v>
       </c>
       <c r="D13" t="n">
-        <v>453.46484375</v>
+        <v>452.8199157714844</v>
       </c>
       <c r="E13" t="n">
-        <v>-26.712646484375</v>
+        <v>-26.06771850585938</v>
       </c>
     </row>
     <row r="14">
@@ -675,10 +675,10 @@
         <v>428.5692326158421</v>
       </c>
       <c r="D14" t="n">
-        <v>454.0493469238281</v>
+        <v>453.2608032226562</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.4801025390625</v>
+        <v>-24.69155883789062</v>
       </c>
     </row>
     <row r="15">
@@ -692,10 +692,10 @@
         <v>430.2810408094271</v>
       </c>
       <c r="D15" t="n">
-        <v>454.640380859375</v>
+        <v>453.7227172851562</v>
       </c>
       <c r="E15" t="n">
-        <v>-24.35934448242188</v>
+        <v>-23.44168090820312</v>
       </c>
     </row>
     <row r="16">
@@ -709,10 +709,10 @@
         <v>431.913928949627</v>
       </c>
       <c r="D16" t="n">
-        <v>455.2370910644531</v>
+        <v>454.2038879394531</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.32315063476562</v>
+        <v>-22.28994750976562</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         <v>433.489415394423</v>
       </c>
       <c r="D17" t="n">
-        <v>455.8385620117188</v>
+        <v>454.7037353515625</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.34915161132812</v>
+        <v>-21.21432495117188</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         <v>435.0243126933601</v>
       </c>
       <c r="D18" t="n">
-        <v>456.4442749023438</v>
+        <v>455.2200927734375</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.41995239257812</v>
+        <v>-20.19577026367188</v>
       </c>
     </row>
     <row r="19">
@@ -760,10 +760,10 @@
         <v>436.527803060661</v>
       </c>
       <c r="D19" t="n">
-        <v>457.0536193847656</v>
+        <v>455.7515563964844</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.52581787109375</v>
+        <v>-19.2237548828125</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         <v>438.001682240205</v>
       </c>
       <c r="D20" t="n">
-        <v>457.6658935546875</v>
+        <v>456.2972412109375</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.66421508789062</v>
+        <v>-18.29556274414062</v>
       </c>
     </row>
     <row r="21">
@@ -794,10 +794,10 @@
         <v>439.443744523748</v>
       </c>
       <c r="D21" t="n">
-        <v>458.2809143066406</v>
+        <v>456.8551025390625</v>
       </c>
       <c r="E21" t="n">
-        <v>-18.837158203125</v>
+        <v>-17.41134643554688</v>
       </c>
     </row>
     <row r="22">
@@ -811,10 +811,10 @@
         <v>440.848074323229</v>
       </c>
       <c r="D22" t="n">
-        <v>458.8984375</v>
+        <v>457.4236450195312</v>
       </c>
       <c r="E22" t="n">
-        <v>-18.05035400390625</v>
+        <v>-16.5755615234375</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         <v>442.208071069627</v>
       </c>
       <c r="D23" t="n">
-        <v>459.517822265625</v>
+        <v>458.0023498535156</v>
       </c>
       <c r="E23" t="n">
-        <v>-17.30975341796875</v>
+        <v>-15.79428100585938</v>
       </c>
     </row>
     <row r="24">
@@ -845,10 +845,10 @@
         <v>443.519542436043</v>
       </c>
       <c r="D24" t="n">
-        <v>460.1387634277344</v>
+        <v>458.590087890625</v>
       </c>
       <c r="E24" t="n">
-        <v>-16.61923217773438</v>
+        <v>-15.070556640625</v>
       </c>
     </row>
     <row r="25">
@@ -862,10 +862,10 @@
         <v>444.7838075429399</v>
       </c>
       <c r="D25" t="n">
-        <v>460.7608032226562</v>
+        <v>459.1861572265625</v>
       </c>
       <c r="E25" t="n">
-        <v>-15.97698974609375</v>
+        <v>-14.40234375</v>
       </c>
     </row>
     <row r="26">
@@ -879,10 +879,10 @@
         <v>446.004589943748</v>
       </c>
       <c r="D26" t="n">
-        <v>461.3844299316406</v>
+        <v>459.7880554199219</v>
       </c>
       <c r="E26" t="n">
-        <v>-15.37985229492188</v>
+        <v>-13.78347778320312</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>447.185365792356</v>
       </c>
       <c r="D27" t="n">
-        <v>462.0094604492188</v>
+        <v>460.3954772949219</v>
       </c>
       <c r="E27" t="n">
-        <v>-14.8240966796875</v>
+        <v>-13.21011352539062</v>
       </c>
     </row>
     <row r="28">
@@ -913,10 +913,10 @@
         <v>448.33179646193</v>
       </c>
       <c r="D28" t="n">
-        <v>462.6358947753906</v>
+        <v>461.0074768066406</v>
       </c>
       <c r="E28" t="n">
-        <v>-14.30410766601562</v>
+        <v>-12.67568969726562</v>
       </c>
     </row>
     <row r="29">
@@ -930,10 +930,10 @@
         <v>449.4430736196809</v>
       </c>
       <c r="D29" t="n">
-        <v>463.2637329101562</v>
+        <v>461.6232299804688</v>
       </c>
       <c r="E29" t="n">
-        <v>-13.82064819335938</v>
+        <v>-12.18014526367188</v>
       </c>
     </row>
     <row r="30">
@@ -947,10 +947,10 @@
         <v>450.516546689884</v>
       </c>
       <c r="D30" t="n">
-        <v>463.8934936523438</v>
+        <v>462.2415161132812</v>
       </c>
       <c r="E30" t="n">
-        <v>-13.376953125</v>
+        <v>-11.7249755859375</v>
       </c>
     </row>
     <row r="31">
@@ -964,10 +964,10 @@
         <v>451.551415719795</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5249938964844</v>
+        <v>462.8622741699219</v>
       </c>
       <c r="E31" t="n">
-        <v>-12.97357177734375</v>
+        <v>-11.31085205078125</v>
       </c>
     </row>
     <row r="32">
@@ -981,10 +981,10 @@
         <v>452.551730855008</v>
       </c>
       <c r="D32" t="n">
-        <v>465.1585083007812</v>
+        <v>463.4851379394531</v>
       </c>
       <c r="E32" t="n">
-        <v>-12.60678100585938</v>
+        <v>-10.93341064453125</v>
       </c>
     </row>
     <row r="33">
@@ -998,10 +998,10 @@
         <v>453.5281279871621</v>
       </c>
       <c r="D33" t="n">
-        <v>465.7939147949219</v>
+        <v>464.110107421875</v>
       </c>
       <c r="E33" t="n">
-        <v>-12.26577758789062</v>
+        <v>-10.58197021484375</v>
       </c>
     </row>
     <row r="34">
@@ -1015,10 +1015,10 @@
         <v>454.494356195184</v>
       </c>
       <c r="D34" t="n">
-        <v>466.4305725097656</v>
+        <v>464.7384948730469</v>
       </c>
       <c r="E34" t="n">
-        <v>-11.93621826171875</v>
+        <v>-10.244140625</v>
       </c>
     </row>
     <row r="35">
@@ -1032,10 +1032,10 @@
         <v>455.456910103284</v>
       </c>
       <c r="D35" t="n">
-        <v>467.0682373046875</v>
+        <v>465.3703002929688</v>
       </c>
       <c r="E35" t="n">
-        <v>-11.611328125</v>
+        <v>-9.91339111328125</v>
       </c>
     </row>
     <row r="36">
@@ -1049,10 +1049,10 @@
         <v>456.419549877027</v>
       </c>
       <c r="D36" t="n">
-        <v>467.7073059082031</v>
+        <v>466.004150390625</v>
       </c>
       <c r="E36" t="n">
-        <v>-11.28775024414062</v>
+        <v>-9.5845947265625</v>
       </c>
     </row>
     <row r="37">
@@ -1066,10 +1066,10 @@
         <v>457.383368841973</v>
       </c>
       <c r="D37" t="n">
-        <v>468.3480834960938</v>
+        <v>466.6395874023438</v>
       </c>
       <c r="E37" t="n">
-        <v>-10.9647216796875</v>
+        <v>-9.2562255859375</v>
       </c>
     </row>
     <row r="38">
@@ -1083,10 +1083,10 @@
         <v>458.346881056813</v>
       </c>
       <c r="D38" t="n">
-        <v>468.9901733398438</v>
+        <v>467.2771911621094</v>
       </c>
       <c r="E38" t="n">
-        <v>-10.64328002929688</v>
+        <v>-8.9302978515625</v>
       </c>
     </row>
     <row r="39">
@@ -1100,10 +1100,10 @@
         <v>459.3056902717281</v>
       </c>
       <c r="D39" t="n">
-        <v>469.6332702636719</v>
+        <v>467.9174194335938</v>
       </c>
       <c r="E39" t="n">
-        <v>-10.32757568359375</v>
+        <v>-8.611724853515625</v>
       </c>
     </row>
     <row r="40">
@@ -1117,10 +1117,10 @@
         <v>460.257071814311</v>
       </c>
       <c r="D40" t="n">
-        <v>470.2774658203125</v>
+        <v>468.5598449707031</v>
       </c>
       <c r="E40" t="n">
-        <v>-10.0203857421875</v>
+        <v>-8.302764892578125</v>
       </c>
     </row>
     <row r="41">
@@ -1134,10 +1134,10 @@
         <v>461.211656546065</v>
       </c>
       <c r="D41" t="n">
-        <v>470.9225158691406</v>
+        <v>469.2045288085938</v>
       </c>
       <c r="E41" t="n">
-        <v>-9.710845947265625</v>
+        <v>-7.99285888671875</v>
       </c>
     </row>
     <row r="42">
@@ -1151,10 +1151,10 @@
         <v>462.176666239077</v>
       </c>
       <c r="D42" t="n">
-        <v>471.5684814453125</v>
+        <v>469.8511962890625</v>
       </c>
       <c r="E42" t="n">
-        <v>-9.391815185546875</v>
+        <v>-7.674530029296875</v>
       </c>
     </row>
     <row r="43">
@@ -1168,10 +1168,10 @@
         <v>463.150431838265</v>
       </c>
       <c r="D43" t="n">
-        <v>472.2154235839844</v>
+        <v>470.4995727539062</v>
       </c>
       <c r="E43" t="n">
-        <v>-9.06500244140625</v>
+        <v>-7.349151611328125</v>
       </c>
     </row>
     <row r="44">
@@ -1185,10 +1185,10 @@
         <v>464.13087981713</v>
       </c>
       <c r="D44" t="n">
-        <v>472.8633117675781</v>
+        <v>471.1494750976562</v>
       </c>
       <c r="E44" t="n">
-        <v>-8.732421875</v>
+        <v>-7.018585205078125</v>
       </c>
     </row>
     <row r="45">
@@ -1202,10 +1202,10 @@
         <v>465.11381737751</v>
       </c>
       <c r="D45" t="n">
-        <v>473.5120239257812</v>
+        <v>471.8010864257812</v>
       </c>
       <c r="E45" t="n">
-        <v>-8.398193359375</v>
+        <v>-6.687255859375</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>466.093449295937</v>
       </c>
       <c r="D46" t="n">
-        <v>474.1617431640625</v>
+        <v>472.4537963867188</v>
       </c>
       <c r="E46" t="n">
-        <v>-8.06829833984375</v>
+        <v>-6.3603515625</v>
       </c>
     </row>
     <row r="47">
@@ -1236,10 +1236,10 @@
         <v>467.065282627381</v>
       </c>
       <c r="D47" t="n">
-        <v>474.8127136230469</v>
+        <v>473.1070861816406</v>
       </c>
       <c r="E47" t="n">
-        <v>-7.7474365234375</v>
+        <v>-6.04180908203125</v>
       </c>
     </row>
     <row r="48">
@@ -1253,10 +1253,10 @@
         <v>468.028365014842</v>
       </c>
       <c r="D48" t="n">
-        <v>475.46484375</v>
+        <v>473.7615356445312</v>
       </c>
       <c r="E48" t="n">
-        <v>-7.436492919921875</v>
+        <v>-5.733184814453125</v>
       </c>
     </row>
     <row r="49">
@@ -1270,10 +1270,10 @@
         <v>468.980682897926</v>
       </c>
       <c r="D49" t="n">
-        <v>476.1181030273438</v>
+        <v>474.4169311523438</v>
       </c>
       <c r="E49" t="n">
-        <v>-7.137420654296875</v>
+        <v>-5.436248779296875</v>
       </c>
     </row>
     <row r="50">
@@ -1287,10 +1287,10 @@
         <v>469.9191282195241</v>
       </c>
       <c r="D50" t="n">
-        <v>476.7728271484375</v>
+        <v>475.0726928710938</v>
       </c>
       <c r="E50" t="n">
-        <v>-6.85369873046875</v>
+        <v>-5.153564453125</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>470.842777793803</v>
       </c>
       <c r="D51" t="n">
-        <v>477.4289245605469</v>
+        <v>475.7293090820312</v>
       </c>
       <c r="E51" t="n">
-        <v>-6.586151123046875</v>
+        <v>-4.88653564453125</v>
       </c>
     </row>
     <row r="52">
@@ -1321,10 +1321,10 @@
         <v>471.7556512590941</v>
       </c>
       <c r="D52" t="n">
-        <v>478.0867309570312</v>
+        <v>476.3863220214844</v>
       </c>
       <c r="E52" t="n">
-        <v>-6.331085205078125</v>
+        <v>-4.63067626953125</v>
       </c>
     </row>
     <row r="53">
@@ -1338,10 +1338,10 @@
         <v>472.657554171301</v>
       </c>
       <c r="D53" t="n">
-        <v>478.745361328125</v>
+        <v>477.045654296875</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.087799072265625</v>
+        <v>-4.388092041015625</v>
       </c>
     </row>
     <row r="54">
@@ -1355,10 +1355,10 @@
         <v>473.543736147793</v>
       </c>
       <c r="D54" t="n">
-        <v>479.4046020507812</v>
+        <v>477.7073364257812</v>
       </c>
       <c r="E54" t="n">
-        <v>-5.860870361328125</v>
+        <v>-4.163604736328125</v>
       </c>
     </row>
     <row r="55">
@@ -1372,10 +1372,10 @@
         <v>474.410940570323</v>
       </c>
       <c r="D55" t="n">
-        <v>480.064208984375</v>
+        <v>478.3715515136719</v>
       </c>
       <c r="E55" t="n">
-        <v>-5.65325927734375</v>
+        <v>-3.960601806640625</v>
       </c>
     </row>
     <row r="56">
@@ -1389,10 +1389,10 @@
         <v>475.262352803119</v>
       </c>
       <c r="D56" t="n">
-        <v>480.7239990234375</v>
+        <v>479.0382690429688</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.461639404296875</v>
+        <v>-3.775909423828125</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>476.1052025488499</v>
       </c>
       <c r="D57" t="n">
-        <v>481.3836669921875</v>
+        <v>479.7073364257812</v>
       </c>
       <c r="E57" t="n">
-        <v>-5.278472900390625</v>
+        <v>-3.602142333984375</v>
       </c>
     </row>
     <row r="58">
@@ -1423,10 +1423,10 @@
         <v>476.948782171043</v>
       </c>
       <c r="D58" t="n">
-        <v>482.0434265136719</v>
+        <v>480.3780822753906</v>
       </c>
       <c r="E58" t="n">
-        <v>-5.094635009765625</v>
+        <v>-3.429290771484375</v>
       </c>
     </row>
     <row r="59">
@@ -1440,10 +1440,10 @@
         <v>477.802196933531</v>
       </c>
       <c r="D59" t="n">
-        <v>482.7024230957031</v>
+        <v>481.0516662597656</v>
       </c>
       <c r="E59" t="n">
-        <v>-4.900238037109375</v>
+        <v>-3.249481201171875</v>
       </c>
     </row>
     <row r="60">
@@ -1457,10 +1457,10 @@
         <v>478.667774289469</v>
       </c>
       <c r="D60" t="n">
-        <v>483.3602905273438</v>
+        <v>481.7282104492188</v>
       </c>
       <c r="E60" t="n">
-        <v>-4.6925048828125</v>
+        <v>-3.0604248046875</v>
       </c>
     </row>
     <row r="61">
@@ -1474,10 +1474,10 @@
         <v>479.542533797816</v>
       </c>
       <c r="D61" t="n">
-        <v>484.0164794921875</v>
+        <v>482.4075927734375</v>
       </c>
       <c r="E61" t="n">
-        <v>-4.47393798828125</v>
+        <v>-2.86505126953125</v>
       </c>
     </row>
     <row r="62">
@@ -1491,10 +1491,10 @@
         <v>480.420709306088</v>
       </c>
       <c r="D62" t="n">
-        <v>484.671630859375</v>
+        <v>483.0879211425781</v>
       </c>
       <c r="E62" t="n">
-        <v>-4.25091552734375</v>
+        <v>-2.667205810546875</v>
       </c>
     </row>
     <row r="63">
@@ -1508,10 +1508,10 @@
         <v>481.298531072099</v>
       </c>
       <c r="D63" t="n">
-        <v>485.3267822265625</v>
+        <v>483.7666625976562</v>
       </c>
       <c r="E63" t="n">
-        <v>-4.02825927734375</v>
+        <v>-2.4681396484375</v>
       </c>
     </row>
     <row r="64">
@@ -1525,10 +1525,10 @@
         <v>482.177826573142</v>
       </c>
       <c r="D64" t="n">
-        <v>485.9818725585938</v>
+        <v>484.4442138671875</v>
       </c>
       <c r="E64" t="n">
-        <v>-3.804046630859375</v>
+        <v>-2.266387939453125</v>
       </c>
     </row>
     <row r="65">
@@ -1542,10 +1542,10 @@
         <v>483.060910808503</v>
       </c>
       <c r="D65" t="n">
-        <v>486.6368713378906</v>
+        <v>485.1209716796875</v>
       </c>
       <c r="E65" t="n">
-        <v>-3.575958251953125</v>
+        <v>-2.06005859375</v>
       </c>
     </row>
     <row r="66">
@@ -1559,10 +1559,10 @@
         <v>483.949912896613</v>
       </c>
       <c r="D66" t="n">
-        <v>487.2921752929688</v>
+        <v>485.7962646484375</v>
       </c>
       <c r="E66" t="n">
-        <v>-3.342254638671875</v>
+        <v>-1.846343994140625</v>
       </c>
     </row>
     <row r="67">
@@ -1576,10 +1576,10 @@
         <v>484.844975749093</v>
       </c>
       <c r="D67" t="n">
-        <v>487.9482727050781</v>
+        <v>486.4696655273438</v>
       </c>
       <c r="E67" t="n">
-        <v>-3.103302001953125</v>
+        <v>-1.62469482421875</v>
       </c>
     </row>
     <row r="68">
@@ -1593,10 +1593,10 @@
         <v>485.744020357855</v>
       </c>
       <c r="D68" t="n">
-        <v>488.60546875</v>
+        <v>487.1410217285156</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.8614501953125</v>
+        <v>-1.397003173828125</v>
       </c>
     </row>
     <row r="69">
@@ -1610,10 +1610,10 @@
         <v>486.642665222879</v>
       </c>
       <c r="D69" t="n">
-        <v>489.2639770507812</v>
+        <v>487.8106079101562</v>
       </c>
       <c r="E69" t="n">
-        <v>-2.621307373046875</v>
+        <v>-1.167938232421875</v>
       </c>
     </row>
     <row r="70">
@@ -1627,10 +1627,10 @@
         <v>487.537224992439</v>
       </c>
       <c r="D70" t="n">
-        <v>489.9236755371094</v>
+        <v>488.4791870117188</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.386444091796875</v>
+        <v>-0.94195556640625</v>
       </c>
     </row>
     <row r="71">
@@ -1644,10 +1644,10 @@
         <v>488.420856269206</v>
       </c>
       <c r="D71" t="n">
-        <v>490.5845947265625</v>
+        <v>489.1474609375</v>
       </c>
       <c r="E71" t="n">
-        <v>-2.163726806640625</v>
+        <v>-0.726593017578125</v>
       </c>
     </row>
     <row r="72">
@@ -1661,10 +1661,10 @@
         <v>489.2896929436931</v>
       </c>
       <c r="D72" t="n">
-        <v>491.2461853027344</v>
+        <v>489.8165893554688</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.95648193359375</v>
+        <v>-0.526885986328125</v>
       </c>
     </row>
     <row r="73">
@@ -1678,10 +1678,10 @@
         <v>490.1427074516311</v>
       </c>
       <c r="D73" t="n">
-        <v>491.9078979492188</v>
+        <v>490.4877014160156</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.76519775390625</v>
+        <v>-0.345001220703125</v>
       </c>
     </row>
     <row r="74">
@@ -1695,10 +1695,10 @@
         <v>490.983261379538</v>
       </c>
       <c r="D74" t="n">
-        <v>492.5701293945312</v>
+        <v>491.1596069335938</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.58685302734375</v>
+        <v>-0.17633056640625</v>
       </c>
     </row>
     <row r="75">
@@ -1712,10 +1712,10 @@
         <v>491.813853618332</v>
       </c>
       <c r="D75" t="n">
-        <v>493.2330322265625</v>
+        <v>491.8318176269531</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.419189453125</v>
+        <v>-0.017974853515625</v>
       </c>
     </row>
     <row r="76">
@@ -1729,10 +1729,10 @@
         <v>492.634286527768</v>
       </c>
       <c r="D76" t="n">
-        <v>493.8964233398438</v>
+        <v>492.5049438476562</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.26214599609375</v>
+        <v>0.12933349609375</v>
       </c>
     </row>
     <row r="77">
@@ -1746,10 +1746,10 @@
         <v>493.447403437293</v>
       </c>
       <c r="D77" t="n">
-        <v>494.5599365234375</v>
+        <v>493.1795349121094</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.112518310546875</v>
+        <v>0.26788330078125</v>
       </c>
     </row>
     <row r="78">
@@ -1763,10 +1763,10 @@
         <v>494.2590632122991</v>
       </c>
       <c r="D78" t="n">
-        <v>495.223388671875</v>
+        <v>493.8556823730469</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.964324951171875</v>
+        <v>0.40338134765625</v>
       </c>
     </row>
     <row r="79">
@@ -1780,10 +1780,10 @@
         <v>495.069036974399</v>
       </c>
       <c r="D79" t="n">
-        <v>495.8865966796875</v>
+        <v>494.533447265625</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.81756591796875</v>
+        <v>0.53558349609375</v>
       </c>
     </row>
     <row r="80">
@@ -1797,10 +1797,10 @@
         <v>495.8777053753091</v>
       </c>
       <c r="D80" t="n">
-        <v>496.5494995117188</v>
+        <v>495.2124633789062</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.671783447265625</v>
+        <v>0.665252685546875</v>
       </c>
     </row>
     <row r="81">
@@ -1814,10 +1814,10 @@
         <v>496.69020134807</v>
       </c>
       <c r="D81" t="n">
-        <v>497.2123413085938</v>
+        <v>495.8919067382812</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.522125244140625</v>
+        <v>0.798309326171875</v>
       </c>
     </row>
     <row r="82">
@@ -1831,10 +1831,10 @@
         <v>497.5100296993839</v>
       </c>
       <c r="D82" t="n">
-        <v>497.8756713867188</v>
+        <v>496.5707092285156</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.365631103515625</v>
+        <v>0.9393310546875</v>
       </c>
     </row>
     <row r="83">
@@ -1848,10 +1848,10 @@
         <v>498.341642030644</v>
       </c>
       <c r="D83" t="n">
-        <v>498.5396728515625</v>
+        <v>497.2488403320312</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.198028564453125</v>
+        <v>1.092803955078125</v>
       </c>
     </row>
     <row r="84">
@@ -1865,10 +1865,10 @@
         <v>499.184959764205</v>
       </c>
       <c r="D84" t="n">
-        <v>499.2044067382812</v>
+        <v>497.9261474609375</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.019439697265625</v>
+        <v>1.258819580078125</v>
       </c>
     </row>
     <row r="85">
@@ -1882,10 +1882,10 @@
         <v>500.036474759567</v>
       </c>
       <c r="D85" t="n">
-        <v>499.8697509765625</v>
+        <v>498.6036071777344</v>
       </c>
       <c r="E85" t="n">
-        <v>0.166717529296875</v>
+        <v>1.432861328125</v>
       </c>
     </row>
     <row r="86">
@@ -1899,10 +1899,10 @@
         <v>500.893958518343</v>
       </c>
       <c r="D86" t="n">
-        <v>500.535888671875</v>
+        <v>499.2807312011719</v>
       </c>
       <c r="E86" t="n">
-        <v>0.358062744140625</v>
+        <v>1.61322021484375</v>
       </c>
     </row>
     <row r="87">
@@ -1916,10 +1916,10 @@
         <v>501.75496063733</v>
       </c>
       <c r="D87" t="n">
-        <v>501.2025756835938</v>
+        <v>499.9581909179688</v>
       </c>
       <c r="E87" t="n">
-        <v>0.552398681640625</v>
+        <v>1.796783447265625</v>
       </c>
     </row>
     <row r="88">
@@ -1933,10 +1933,10 @@
         <v>502.615028776655</v>
       </c>
       <c r="D88" t="n">
-        <v>501.8693542480469</v>
+        <v>500.6371459960938</v>
       </c>
       <c r="E88" t="n">
-        <v>0.74566650390625</v>
+        <v>1.977874755859375</v>
       </c>
     </row>
     <row r="89">
@@ -1950,10 +1950,10 @@
         <v>503.4725272339761</v>
       </c>
       <c r="D89" t="n">
-        <v>502.5357055664062</v>
+        <v>501.3179931640625</v>
       </c>
       <c r="E89" t="n">
-        <v>0.93682861328125</v>
+        <v>2.154541015625</v>
       </c>
     </row>
     <row r="90">
@@ -1967,10 +1967,10 @@
         <v>504.329045479308</v>
       </c>
       <c r="D90" t="n">
-        <v>503.201171875</v>
+        <v>502.0012817382812</v>
       </c>
       <c r="E90" t="n">
-        <v>1.12786865234375</v>
+        <v>2.3277587890625</v>
       </c>
     </row>
     <row r="91">
@@ -1984,10 +1984,10 @@
         <v>505.187877626213</v>
       </c>
       <c r="D91" t="n">
-        <v>503.8657836914062</v>
+        <v>502.6862487792969</v>
       </c>
       <c r="E91" t="n">
-        <v>1.32208251953125</v>
+        <v>2.501617431640625</v>
       </c>
     </row>
     <row r="92">
@@ -2001,10 +2001,10 @@
         <v>506.045120564935</v>
       </c>
       <c r="D92" t="n">
-        <v>504.5303955078125</v>
+        <v>503.3707275390625</v>
       </c>
       <c r="E92" t="n">
-        <v>1.514739990234375</v>
+        <v>2.674407958984375</v>
       </c>
     </row>
     <row r="93">
@@ -2018,10 +2018,10 @@
         <v>506.894402650837</v>
       </c>
       <c r="D93" t="n">
-        <v>505.195068359375</v>
+        <v>504.0545654296875</v>
       </c>
       <c r="E93" t="n">
-        <v>1.6993408203125</v>
+        <v>2.83984375</v>
       </c>
     </row>
     <row r="94">
@@ -2035,10 +2035,10 @@
         <v>507.729759959008</v>
       </c>
       <c r="D94" t="n">
-        <v>505.8591918945312</v>
+        <v>504.7394409179688</v>
       </c>
       <c r="E94" t="n">
-        <v>1.870574951171875</v>
+        <v>2.990325927734375</v>
       </c>
     </row>
     <row r="95">
@@ -2052,10 +2052,10 @@
         <v>508.548500683855</v>
       </c>
       <c r="D95" t="n">
-        <v>506.522705078125</v>
+        <v>505.4248046875</v>
       </c>
       <c r="E95" t="n">
-        <v>2.025787353515625</v>
+        <v>3.123687744140625</v>
       </c>
     </row>
     <row r="96">
@@ -2069,10 +2069,10 @@
         <v>509.35051551836</v>
       </c>
       <c r="D96" t="n">
-        <v>507.1864624023438</v>
+        <v>506.108642578125</v>
       </c>
       <c r="E96" t="n">
-        <v>2.1640625</v>
+        <v>3.24188232421875</v>
       </c>
     </row>
     <row r="97">
@@ -2086,10 +2086,10 @@
         <v>510.1390004948551</v>
       </c>
       <c r="D97" t="n">
-        <v>507.8512268066406</v>
+        <v>506.7903442382812</v>
       </c>
       <c r="E97" t="n">
-        <v>2.28778076171875</v>
+        <v>3.348663330078125</v>
       </c>
     </row>
     <row r="98">
@@ -2103,10 +2103,10 @@
         <v>510.916598314415</v>
       </c>
       <c r="D98" t="n">
-        <v>508.5167846679688</v>
+        <v>507.470703125</v>
       </c>
       <c r="E98" t="n">
-        <v>2.399810791015625</v>
+        <v>3.445892333984375</v>
       </c>
     </row>
     <row r="99">
@@ -2120,10 +2120,10 @@
         <v>511.689313919243</v>
       </c>
       <c r="D99" t="n">
-        <v>509.1829833984375</v>
+        <v>508.150390625</v>
       </c>
       <c r="E99" t="n">
-        <v>2.506317138671875</v>
+        <v>3.538909912109375</v>
       </c>
     </row>
     <row r="100">
@@ -2137,10 +2137,10 @@
         <v>512.462492884584</v>
       </c>
       <c r="D100" t="n">
-        <v>509.8498840332031</v>
+        <v>508.8297729492188</v>
       </c>
       <c r="E100" t="n">
-        <v>2.612579345703125</v>
+        <v>3.6326904296875</v>
       </c>
     </row>
     <row r="101">
@@ -2154,10 +2154,10 @@
         <v>513.237101541007</v>
       </c>
       <c r="D101" t="n">
-        <v>510.5171508789062</v>
+        <v>509.5096435546875</v>
       </c>
       <c r="E101" t="n">
-        <v>2.719970703125</v>
+        <v>3.72747802734375</v>
       </c>
     </row>
     <row r="102">
@@ -2171,10 +2171,10 @@
         <v>514.012907844708</v>
       </c>
       <c r="D102" t="n">
-        <v>511.1846313476562</v>
+        <v>510.1901245117188</v>
       </c>
       <c r="E102" t="n">
-        <v>2.8282470703125</v>
+        <v>3.82275390625</v>
       </c>
     </row>
     <row r="103">
@@ -2188,10 +2188,10 @@
         <v>514.794184775429</v>
       </c>
       <c r="D103" t="n">
-        <v>511.8527221679688</v>
+        <v>510.8705444335938</v>
       </c>
       <c r="E103" t="n">
-        <v>2.94146728515625</v>
+        <v>3.92364501953125</v>
       </c>
     </row>
     <row r="104">
@@ -2205,10 +2205,10 @@
         <v>515.585042287075</v>
       </c>
       <c r="D104" t="n">
-        <v>512.52099609375</v>
+        <v>511.5517578125</v>
       </c>
       <c r="E104" t="n">
-        <v>3.06402587890625</v>
+        <v>4.03326416015625</v>
       </c>
     </row>
     <row r="105">
@@ -2222,10 +2222,10 @@
         <v>516.382043385204</v>
       </c>
       <c r="D105" t="n">
-        <v>513.188720703125</v>
+        <v>512.235107421875</v>
       </c>
       <c r="E105" t="n">
-        <v>3.19329833984375</v>
+        <v>4.14691162109375</v>
       </c>
     </row>
     <row r="106">
@@ -2239,10 +2239,10 @@
         <v>517.1815427831759</v>
       </c>
       <c r="D106" t="n">
-        <v>513.8558349609375</v>
+        <v>512.9202880859375</v>
       </c>
       <c r="E106" t="n">
-        <v>3.32568359375</v>
+        <v>4.26123046875</v>
       </c>
     </row>
     <row r="107">
@@ -2256,10 +2256,10 @@
         <v>517.9794213237441</v>
       </c>
       <c r="D107" t="n">
-        <v>514.5224609375</v>
+        <v>513.6061401367188</v>
       </c>
       <c r="E107" t="n">
-        <v>3.45697021484375</v>
+        <v>4.373291015625</v>
       </c>
     </row>
     <row r="108">
@@ -2273,10 +2273,10 @@
         <v>518.775930697411</v>
       </c>
       <c r="D108" t="n">
-        <v>515.1890869140625</v>
+        <v>514.2920532226562</v>
       </c>
       <c r="E108" t="n">
-        <v>3.58685302734375</v>
+        <v>4.48388671875</v>
       </c>
     </row>
     <row r="109">
@@ -2290,10 +2290,10 @@
         <v>519.573257265865</v>
       </c>
       <c r="D109" t="n">
-        <v>515.8549194335938</v>
+        <v>514.9788818359375</v>
       </c>
       <c r="E109" t="n">
-        <v>3.71832275390625</v>
+        <v>4.5943603515625</v>
       </c>
     </row>
     <row r="110">
@@ -2307,10 +2307,10 @@
         <v>520.369388681492</v>
       </c>
       <c r="D110" t="n">
-        <v>516.520263671875</v>
+        <v>515.6661987304688</v>
       </c>
       <c r="E110" t="n">
-        <v>3.84912109375</v>
+        <v>4.70318603515625</v>
       </c>
     </row>
     <row r="111">
@@ -2324,10 +2324,10 @@
         <v>521.1644328619909</v>
       </c>
       <c r="D111" t="n">
-        <v>517.1854248046875</v>
+        <v>516.35302734375</v>
       </c>
       <c r="E111" t="n">
-        <v>3.97900390625</v>
+        <v>4.8114013671875</v>
       </c>
     </row>
     <row r="112">
@@ -2341,10 +2341,10 @@
         <v>521.961533450585</v>
       </c>
       <c r="D112" t="n">
-        <v>517.8507080078125</v>
+        <v>517.0387573242188</v>
       </c>
       <c r="E112" t="n">
-        <v>4.11083984375</v>
+        <v>4.92279052734375</v>
       </c>
     </row>
     <row r="113">
@@ -2358,10 +2358,10 @@
         <v>522.760464163294</v>
       </c>
       <c r="D113" t="n">
-        <v>518.5158081054688</v>
+        <v>517.7242431640625</v>
       </c>
       <c r="E113" t="n">
-        <v>4.24462890625</v>
+        <v>5.03619384765625</v>
       </c>
     </row>
     <row r="114">
@@ -2375,10 +2375,10 @@
         <v>523.557609596411</v>
       </c>
       <c r="D114" t="n">
-        <v>519.18017578125</v>
+        <v>518.41064453125</v>
       </c>
       <c r="E114" t="n">
-        <v>4.37744140625</v>
+        <v>5.14697265625</v>
       </c>
     </row>
     <row r="115">
@@ -2392,10 +2392,10 @@
         <v>524.3508763392609</v>
       </c>
       <c r="D115" t="n">
-        <v>519.8444213867188</v>
+        <v>519.0965576171875</v>
       </c>
       <c r="E115" t="n">
-        <v>4.5064697265625</v>
+        <v>5.25433349609375</v>
       </c>
     </row>
     <row r="116">
@@ -2409,10 +2409,10 @@
         <v>525.13905408516</v>
       </c>
       <c r="D116" t="n">
-        <v>520.5093383789062</v>
+        <v>519.7803955078125</v>
       </c>
       <c r="E116" t="n">
-        <v>4.62969970703125</v>
+        <v>5.358642578125</v>
       </c>
     </row>
     <row r="117">
@@ -2426,10 +2426,10 @@
         <v>525.92923097068</v>
       </c>
       <c r="D117" t="n">
-        <v>521.175048828125</v>
+        <v>520.4622802734375</v>
       </c>
       <c r="E117" t="n">
-        <v>4.75421142578125</v>
+        <v>5.46697998046875</v>
       </c>
     </row>
     <row r="118">
@@ -2443,10 +2443,10 @@
         <v>526.7266300602059</v>
       </c>
       <c r="D118" t="n">
-        <v>521.8423461914062</v>
+        <v>521.1417236328125</v>
       </c>
       <c r="E118" t="n">
-        <v>4.88427734375</v>
+        <v>5.58489990234375</v>
       </c>
     </row>
     <row r="119">
@@ -2460,10 +2460,10 @@
         <v>527.531264074822</v>
       </c>
       <c r="D119" t="n">
-        <v>522.5108642578125</v>
+        <v>521.8201904296875</v>
       </c>
       <c r="E119" t="n">
-        <v>5.0203857421875</v>
+        <v>5.7110595703125</v>
       </c>
     </row>
     <row r="120">
@@ -2477,10 +2477,10 @@
         <v>528.337681948824</v>
       </c>
       <c r="D120" t="n">
-        <v>523.1793823242188</v>
+        <v>522.5</v>
       </c>
       <c r="E120" t="n">
-        <v>5.1583251953125</v>
+        <v>5.83770751953125</v>
       </c>
     </row>
     <row r="121">
@@ -2494,10 +2494,10 @@
         <v>529.141108687154</v>
       </c>
       <c r="D121" t="n">
-        <v>523.8482055664062</v>
+        <v>523.1808471679688</v>
       </c>
       <c r="E121" t="n">
-        <v>5.29290771484375</v>
+        <v>5.96026611328125</v>
       </c>
     </row>
     <row r="122">
@@ -2511,10 +2511,10 @@
         <v>529.938784510251</v>
       </c>
       <c r="D122" t="n">
-        <v>524.517822265625</v>
+        <v>523.8615112304688</v>
       </c>
       <c r="E122" t="n">
-        <v>5.42095947265625</v>
+        <v>6.0772705078125</v>
       </c>
     </row>
     <row r="123">
@@ -2528,10 +2528,10 @@
         <v>530.730932788171</v>
       </c>
       <c r="D123" t="n">
-        <v>525.1883544921875</v>
+        <v>524.5416870117188</v>
       </c>
       <c r="E123" t="n">
-        <v>5.5426025390625</v>
+        <v>6.18927001953125</v>
       </c>
     </row>
     <row r="124">
@@ -2545,10 +2545,10 @@
         <v>531.520061451296</v>
       </c>
       <c r="D124" t="n">
-        <v>525.8598022460938</v>
+        <v>525.221923828125</v>
       </c>
       <c r="E124" t="n">
-        <v>5.6602783203125</v>
+        <v>6.29815673828125</v>
       </c>
     </row>
     <row r="125">
@@ -2562,10 +2562,10 @@
         <v>532.30970074917</v>
       </c>
       <c r="D125" t="n">
-        <v>526.5321655273438</v>
+        <v>525.9024658203125</v>
       </c>
       <c r="E125" t="n">
-        <v>5.77752685546875</v>
+        <v>6.4072265625</v>
       </c>
     </row>
     <row r="126">
@@ -2579,10 +2579,10 @@
         <v>533.09975937603</v>
       </c>
       <c r="D126" t="n">
-        <v>527.2054443359375</v>
+        <v>526.5833129882812</v>
       </c>
       <c r="E126" t="n">
-        <v>5.894287109375</v>
+        <v>6.51641845703125</v>
       </c>
     </row>
     <row r="127">
@@ -2596,10 +2596,10 @@
         <v>533.890796334353</v>
       </c>
       <c r="D127" t="n">
-        <v>527.8797607421875</v>
+        <v>527.264404296875</v>
       </c>
       <c r="E127" t="n">
-        <v>6.01104736328125</v>
+        <v>6.62640380859375</v>
       </c>
     </row>
     <row r="128">
@@ -2613,10 +2613,10 @@
         <v>534.685509182465</v>
       </c>
       <c r="D128" t="n">
-        <v>528.5554809570312</v>
+        <v>527.9451904296875</v>
       </c>
       <c r="E128" t="n">
-        <v>6.1300048828125</v>
+        <v>6.74029541015625</v>
       </c>
     </row>
     <row r="129">
@@ -2630,10 +2630,10 @@
         <v>535.488739001942</v>
       </c>
       <c r="D129" t="n">
-        <v>529.2322387695312</v>
+        <v>528.6267700195312</v>
       </c>
       <c r="E129" t="n">
-        <v>6.2564697265625</v>
+        <v>6.8619384765625</v>
       </c>
     </row>
     <row r="130">
@@ -2647,10 +2647,10 @@
         <v>536.300083591088</v>
       </c>
       <c r="D130" t="n">
-        <v>529.9091796875</v>
+        <v>529.3107299804688</v>
       </c>
       <c r="E130" t="n">
-        <v>6.39093017578125</v>
+        <v>6.9893798828125</v>
       </c>
     </row>
     <row r="131">
@@ -2664,10 +2664,10 @@
         <v>537.1117940385531</v>
       </c>
       <c r="D131" t="n">
-        <v>530.5857543945312</v>
+        <v>529.997802734375</v>
       </c>
       <c r="E131" t="n">
-        <v>6.52606201171875</v>
+        <v>7.114013671875</v>
       </c>
     </row>
     <row r="132">
@@ -2681,10 +2681,10 @@
         <v>537.9202601223781</v>
       </c>
       <c r="D132" t="n">
-        <v>531.26171875</v>
+        <v>530.6876831054688</v>
       </c>
       <c r="E132" t="n">
-        <v>6.6585693359375</v>
+        <v>7.23260498046875</v>
       </c>
     </row>
     <row r="133">
@@ -2698,10 +2698,10 @@
         <v>538.722572709315</v>
       </c>
       <c r="D133" t="n">
-        <v>531.9368896484375</v>
+        <v>531.3799438476562</v>
       </c>
       <c r="E133" t="n">
-        <v>6.78570556640625</v>
+        <v>7.3426513671875</v>
       </c>
     </row>
     <row r="134">
@@ -2715,10 +2715,10 @@
         <v>539.517546450646</v>
       </c>
       <c r="D134" t="n">
-        <v>532.6114501953125</v>
+        <v>532.07373046875</v>
       </c>
       <c r="E134" t="n">
-        <v>6.90606689453125</v>
+        <v>7.44378662109375</v>
       </c>
     </row>
     <row r="135">
@@ -2732,10 +2732,10 @@
         <v>540.303542877867</v>
       </c>
       <c r="D135" t="n">
-        <v>533.28564453125</v>
+        <v>532.767822265625</v>
       </c>
       <c r="E135" t="n">
-        <v>7.01788330078125</v>
+        <v>7.53570556640625</v>
       </c>
     </row>
     <row r="136">
@@ -2749,10 +2749,10 @@
         <v>541.077054873213</v>
       </c>
       <c r="D136" t="n">
-        <v>533.9605102539062</v>
+        <v>533.46044921875</v>
       </c>
       <c r="E136" t="n">
-        <v>7.11651611328125</v>
+        <v>7.6165771484375</v>
       </c>
     </row>
     <row r="137">
@@ -2766,10 +2766,10 @@
         <v>541.834585991448</v>
       </c>
       <c r="D137" t="n">
-        <v>534.6357421875</v>
+        <v>534.1522216796875</v>
       </c>
       <c r="E137" t="n">
-        <v>7.1988525390625</v>
+        <v>7.682373046875</v>
       </c>
     </row>
     <row r="138">
@@ -2783,10 +2783,10 @@
         <v>542.584876679496</v>
       </c>
       <c r="D138" t="n">
-        <v>535.3109741210938</v>
+        <v>534.844482421875</v>
       </c>
       <c r="E138" t="n">
-        <v>7.27392578125</v>
+        <v>7.74041748046875</v>
       </c>
     </row>
     <row r="139">
@@ -2800,10 +2800,10 @@
         <v>543.335969225772</v>
       </c>
       <c r="D139" t="n">
-        <v>535.9859008789062</v>
+        <v>535.53759765625</v>
       </c>
       <c r="E139" t="n">
-        <v>7.35009765625</v>
+        <v>7.79840087890625</v>
       </c>
     </row>
     <row r="140">
@@ -2817,10 +2817,10 @@
         <v>544.089736943475</v>
       </c>
       <c r="D140" t="n">
-        <v>536.6603393554688</v>
+        <v>536.2316284179688</v>
       </c>
       <c r="E140" t="n">
-        <v>7.42938232421875</v>
+        <v>7.85809326171875</v>
       </c>
     </row>
     <row r="141">
@@ -2834,10 +2834,10 @@
         <v>544.851398144488</v>
       </c>
       <c r="D141" t="n">
-        <v>537.334716796875</v>
+        <v>536.925537109375</v>
       </c>
       <c r="E141" t="n">
-        <v>7.51666259765625</v>
+        <v>7.92584228515625</v>
       </c>
     </row>
     <row r="142">
@@ -2851,10 +2851,10 @@
         <v>545.6258687875741</v>
       </c>
       <c r="D142" t="n">
-        <v>538.0089111328125</v>
+        <v>537.6195068359375</v>
       </c>
       <c r="E142" t="n">
-        <v>7.616943359375</v>
+        <v>8.00634765625</v>
       </c>
     </row>
     <row r="143">
@@ -2868,10 +2868,10 @@
         <v>546.418037271244</v>
       </c>
       <c r="D143" t="n">
-        <v>538.6829833984375</v>
+        <v>538.3133544921875</v>
       </c>
       <c r="E143" t="n">
-        <v>7.73504638671875</v>
+        <v>8.10467529296875</v>
       </c>
     </row>
     <row r="144">
@@ -2885,10 +2885,10 @@
         <v>547.226733806461</v>
       </c>
       <c r="D144" t="n">
-        <v>539.3575439453125</v>
+        <v>539.0059204101562</v>
       </c>
       <c r="E144" t="n">
-        <v>7.86920166015625</v>
+        <v>8.2208251953125</v>
       </c>
     </row>
     <row r="145">
@@ -2902,10 +2902,10 @@
         <v>548.043876050138</v>
       </c>
       <c r="D145" t="n">
-        <v>540.0321044921875</v>
+        <v>539.698486328125</v>
       </c>
       <c r="E145" t="n">
-        <v>8.01177978515625</v>
+        <v>8.34539794921875</v>
       </c>
     </row>
     <row r="146">
@@ -2919,10 +2919,10 @@
         <v>548.860162671794</v>
       </c>
       <c r="D146" t="n">
-        <v>540.7066650390625</v>
+        <v>540.3911743164062</v>
       </c>
       <c r="E146" t="n">
-        <v>8.15350341796875</v>
+        <v>8.468994140625</v>
       </c>
     </row>
     <row r="147">
@@ -2936,10 +2936,10 @@
         <v>549.669826655524</v>
       </c>
       <c r="D147" t="n">
-        <v>541.3814697265625</v>
+        <v>541.0833740234375</v>
       </c>
       <c r="E147" t="n">
-        <v>8.288330078125</v>
+        <v>8.58642578125</v>
       </c>
     </row>
     <row r="148">
@@ -2953,10 +2953,10 @@
         <v>550.4697453914939</v>
       </c>
       <c r="D148" t="n">
-        <v>542.056640625</v>
+        <v>541.775146484375</v>
       </c>
       <c r="E148" t="n">
-        <v>8.4130859375</v>
+        <v>8.694580078125</v>
       </c>
     </row>
     <row r="149">
@@ -2970,10 +2970,10 @@
         <v>551.2578901511171</v>
       </c>
       <c r="D149" t="n">
-        <v>542.7317504882812</v>
+        <v>542.4671630859375</v>
       </c>
       <c r="E149" t="n">
-        <v>8.526123046875</v>
+        <v>8.79071044921875</v>
       </c>
     </row>
     <row r="150">
@@ -2987,10 +2987,10 @@
         <v>552.033748229647</v>
       </c>
       <c r="D150" t="n">
-        <v>543.4066772460938</v>
+        <v>543.159912109375</v>
       </c>
       <c r="E150" t="n">
-        <v>8.6270751953125</v>
+        <v>8.87384033203125</v>
       </c>
     </row>
     <row r="151">
@@ -3004,10 +3004,10 @@
         <v>552.798343373407</v>
       </c>
       <c r="D151" t="n">
-        <v>544.081787109375</v>
+        <v>543.8523559570312</v>
       </c>
       <c r="E151" t="n">
-        <v>8.716552734375</v>
+        <v>8.94598388671875</v>
       </c>
     </row>
     <row r="152">
@@ -3021,10 +3021,10 @@
         <v>553.5542391086431</v>
       </c>
       <c r="D152" t="n">
-        <v>544.7572631835938</v>
+        <v>544.5443725585938</v>
       </c>
       <c r="E152" t="n">
-        <v>8.7969970703125</v>
+        <v>9.0098876953125</v>
       </c>
     </row>
     <row r="153">
@@ -3038,10 +3038,10 @@
         <v>554.30511703942</v>
       </c>
       <c r="D153" t="n">
-        <v>545.4334106445312</v>
+        <v>545.2354736328125</v>
       </c>
       <c r="E153" t="n">
-        <v>8.8717041015625</v>
+        <v>9.06964111328125</v>
       </c>
     </row>
     <row r="154">
@@ -3055,10 +3055,10 @@
         <v>555.0512731800339</v>
       </c>
       <c r="D154" t="n">
-        <v>546.1099853515625</v>
+        <v>545.9263916015625</v>
       </c>
       <c r="E154" t="n">
-        <v>8.9412841796875</v>
+        <v>9.1248779296875</v>
       </c>
     </row>
     <row r="155">
@@ -3072,10 +3072,10 @@
         <v>555.7934720108041</v>
       </c>
       <c r="D155" t="n">
-        <v>546.7859497070312</v>
+        <v>546.619140625</v>
       </c>
       <c r="E155" t="n">
-        <v>9.00750732421875</v>
+        <v>9.17431640625</v>
       </c>
     </row>
     <row r="156">
@@ -3089,10 +3089,10 @@
         <v>556.529665678295</v>
       </c>
       <c r="D156" t="n">
-        <v>547.4613037109375</v>
+        <v>547.3135986328125</v>
       </c>
       <c r="E156" t="n">
-        <v>9.068359375</v>
+        <v>9.216064453125</v>
       </c>
     </row>
     <row r="157">
@@ -3106,10 +3106,10 @@
         <v>557.261705510237</v>
       </c>
       <c r="D157" t="n">
-        <v>548.1360473632812</v>
+        <v>548.009033203125</v>
       </c>
       <c r="E157" t="n">
-        <v>9.12567138671875</v>
+        <v>9.252685546875</v>
       </c>
     </row>
     <row r="158">
@@ -3123,10 +3123,10 @@
         <v>557.994565095105</v>
       </c>
       <c r="D158" t="n">
-        <v>548.8103637695312</v>
+        <v>548.70458984375</v>
       </c>
       <c r="E158" t="n">
-        <v>9.1842041015625</v>
+        <v>9.28997802734375</v>
       </c>
     </row>
     <row r="159">
@@ -3140,10 +3140,10 @@
         <v>558.73443819181</v>
       </c>
       <c r="D159" t="n">
-        <v>549.4847412109375</v>
+        <v>549.3994750976562</v>
       </c>
       <c r="E159" t="n">
-        <v>9.24969482421875</v>
+        <v>9.3349609375</v>
       </c>
     </row>
     <row r="160">
@@ -3157,10 +3157,10 @@
         <v>559.4860486916471</v>
       </c>
       <c r="D160" t="n">
-        <v>550.1595458984375</v>
+        <v>550.0931396484375</v>
       </c>
       <c r="E160" t="n">
-        <v>9.32647705078125</v>
+        <v>9.39288330078125</v>
       </c>
     </row>
     <row r="161">
@@ -3174,10 +3174,10 @@
         <v>560.2470921282111</v>
       </c>
       <c r="D161" t="n">
-        <v>550.8349609375</v>
+        <v>550.785400390625</v>
       </c>
       <c r="E161" t="n">
-        <v>9.412109375</v>
+        <v>9.461669921875</v>
       </c>
     </row>
     <row r="162">
@@ -3191,10 +3191,10 @@
         <v>561.012226911323</v>
       </c>
       <c r="D162" t="n">
-        <v>551.510986328125</v>
+        <v>551.4768676757812</v>
       </c>
       <c r="E162" t="n">
-        <v>9.501220703125</v>
+        <v>9.53533935546875</v>
       </c>
     </row>
     <row r="163">
@@ -3208,10 +3208,10 @@
         <v>561.77619213815</v>
       </c>
       <c r="D163" t="n">
-        <v>552.1871948242188</v>
+        <v>552.1685180664062</v>
       </c>
       <c r="E163" t="n">
-        <v>9.5889892578125</v>
+        <v>9.607666015625</v>
       </c>
     </row>
     <row r="164">
@@ -3225,10 +3225,10 @@
         <v>562.5425275875859</v>
       </c>
       <c r="D164" t="n">
-        <v>552.8637084960938</v>
+        <v>552.860107421875</v>
       </c>
       <c r="E164" t="n">
-        <v>9.6788330078125</v>
+        <v>9.68243408203125</v>
       </c>
     </row>
     <row r="165">
@@ -3242,10 +3242,10 @@
         <v>563.310378650635</v>
       </c>
       <c r="D165" t="n">
-        <v>553.5410766601562</v>
+        <v>553.5509033203125</v>
       </c>
       <c r="E165" t="n">
-        <v>9.769287109375</v>
+        <v>9.75946044921875</v>
       </c>
     </row>
     <row r="166">
@@ -3259,10 +3259,10 @@
         <v>564.076790434184</v>
       </c>
       <c r="D166" t="n">
-        <v>554.2190551757812</v>
+        <v>554.241455078125</v>
       </c>
       <c r="E166" t="n">
-        <v>9.85772705078125</v>
+        <v>9.8353271484375</v>
       </c>
     </row>
     <row r="167">
@@ -3276,10 +3276,10 @@
         <v>564.846380122058</v>
       </c>
       <c r="D167" t="n">
-        <v>554.89794921875</v>
+        <v>554.931396484375</v>
       </c>
       <c r="E167" t="n">
-        <v>9.94842529296875</v>
+        <v>9.91497802734375</v>
       </c>
     </row>
     <row r="168">
@@ -3293,10 +3293,10 @@
         <v>565.6177463081809</v>
       </c>
       <c r="D168" t="n">
-        <v>555.5775146484375</v>
+        <v>555.6217041015625</v>
       </c>
       <c r="E168" t="n">
-        <v>10.04022216796875</v>
+        <v>9.99603271484375</v>
       </c>
     </row>
     <row r="169">
@@ -3310,10 +3310,10 @@
         <v>566.3837947847439</v>
       </c>
       <c r="D169" t="n">
-        <v>556.2581787109375</v>
+        <v>556.3114013671875</v>
       </c>
       <c r="E169" t="n">
-        <v>10.1256103515625</v>
+        <v>10.0723876953125</v>
       </c>
     </row>
     <row r="170">
@@ -3327,10 +3327,10 @@
         <v>567.147078184546</v>
       </c>
       <c r="D170" t="n">
-        <v>556.9404296875</v>
+        <v>557</v>
       </c>
       <c r="E170" t="n">
-        <v>10.2066650390625</v>
+        <v>10.1470947265625</v>
       </c>
     </row>
     <row r="171">
@@ -3344,10 +3344,10 @@
         <v>567.913653135667</v>
       </c>
       <c r="D171" t="n">
-        <v>557.6239013671875</v>
+        <v>557.6888427734375</v>
       </c>
       <c r="E171" t="n">
-        <v>10.28973388671875</v>
+        <v>10.22479248046875</v>
       </c>
     </row>
     <row r="172">
@@ -3361,10 +3361,10 @@
         <v>568.685604495657</v>
       </c>
       <c r="D172" t="n">
-        <v>558.3084716796875</v>
+        <v>558.3783569335938</v>
       </c>
       <c r="E172" t="n">
-        <v>10.37713623046875</v>
+        <v>10.3072509765625</v>
       </c>
     </row>
     <row r="173">
@@ -3378,10 +3378,10 @@
         <v>569.462648934653</v>
       </c>
       <c r="D173" t="n">
-        <v>558.9932861328125</v>
+        <v>559.0701904296875</v>
       </c>
       <c r="E173" t="n">
-        <v>10.4693603515625</v>
+        <v>10.3924560546875</v>
       </c>
     </row>
     <row r="174">
@@ -3395,10 +3395,10 @@
         <v>570.240508587697</v>
       </c>
       <c r="D174" t="n">
-        <v>559.6778564453125</v>
+        <v>559.764892578125</v>
       </c>
       <c r="E174" t="n">
-        <v>10.5626220703125</v>
+        <v>10.4755859375</v>
       </c>
     </row>
     <row r="175">
@@ -3412,10 +3412,10 @@
         <v>571.016013120167</v>
       </c>
       <c r="D175" t="n">
-        <v>560.3615112304688</v>
+        <v>560.4630126953125</v>
       </c>
       <c r="E175" t="n">
-        <v>10.65447998046875</v>
+        <v>10.552978515625</v>
       </c>
     </row>
     <row r="176">
@@ -3429,10 +3429,10 @@
         <v>571.789637823436</v>
       </c>
       <c r="D176" t="n">
-        <v>561.04443359375</v>
+        <v>561.16357421875</v>
       </c>
       <c r="E176" t="n">
-        <v>10.74517822265625</v>
+        <v>10.62603759765625</v>
       </c>
     </row>
     <row r="177">
@@ -3446,10 +3446,10 @@
         <v>572.565149511662</v>
       </c>
       <c r="D177" t="n">
-        <v>561.7272338867188</v>
+        <v>561.8643798828125</v>
       </c>
       <c r="E177" t="n">
-        <v>10.837890625</v>
+        <v>10.70074462890625</v>
       </c>
     </row>
     <row r="178">
@@ -3463,10 +3463,10 @@
         <v>573.343602866576</v>
       </c>
       <c r="D178" t="n">
-        <v>562.410400390625</v>
+        <v>562.5645751953125</v>
       </c>
       <c r="E178" t="n">
-        <v>10.9332275390625</v>
+        <v>10.779052734375</v>
       </c>
     </row>
     <row r="179">
@@ -3480,10 +3480,10 @@
         <v>574.126523624147</v>
       </c>
       <c r="D179" t="n">
-        <v>563.0941162109375</v>
+        <v>563.2640380859375</v>
       </c>
       <c r="E179" t="n">
-        <v>11.03240966796875</v>
+        <v>10.86248779296875</v>
       </c>
     </row>
     <row r="180">
@@ -3497,10 +3497,10 @@
         <v>574.909902208724</v>
       </c>
       <c r="D180" t="n">
-        <v>563.7780151367188</v>
+        <v>563.9637451171875</v>
       </c>
       <c r="E180" t="n">
-        <v>11.13189697265625</v>
+        <v>10.9461669921875</v>
       </c>
     </row>
     <row r="181">
@@ -3514,10 +3514,10 @@
         <v>575.68657857253</v>
       </c>
       <c r="D181" t="n">
-        <v>564.46142578125</v>
+        <v>564.6648559570312</v>
       </c>
       <c r="E181" t="n">
-        <v>11.22515869140625</v>
+        <v>11.021728515625</v>
       </c>
     </row>
     <row r="182">
@@ -3531,10 +3531,10 @@
         <v>576.449995797848</v>
       </c>
       <c r="D182" t="n">
-        <v>565.1443481445312</v>
+        <v>565.3671264648438</v>
       </c>
       <c r="E182" t="n">
-        <v>11.3056640625</v>
+        <v>11.0828857421875</v>
       </c>
     </row>
     <row r="183">
@@ -3548,10 +3548,10 @@
         <v>577.199722184597</v>
       </c>
       <c r="D183" t="n">
-        <v>565.82666015625</v>
+        <v>566.0703735351562</v>
       </c>
       <c r="E183" t="n">
-        <v>11.373046875</v>
+        <v>11.12933349609375</v>
       </c>
     </row>
     <row r="184">
@@ -3565,10 +3565,10 @@
         <v>577.935739099875</v>
       </c>
       <c r="D184" t="n">
-        <v>566.50830078125</v>
+        <v>566.7742919921875</v>
       </c>
       <c r="E184" t="n">
-        <v>11.42742919921875</v>
+        <v>11.16143798828125</v>
       </c>
     </row>
     <row r="185">
@@ -3582,10 +3582,10 @@
         <v>578.658247057946</v>
       </c>
       <c r="D185" t="n">
-        <v>567.1895751953125</v>
+        <v>567.4782104492188</v>
       </c>
       <c r="E185" t="n">
-        <v>11.46868896484375</v>
+        <v>11.1800537109375</v>
       </c>
     </row>
     <row r="186">
@@ -3599,10 +3599,10 @@
         <v>579.363985294252</v>
       </c>
       <c r="D186" t="n">
-        <v>567.8707275390625</v>
+        <v>568.1813354492188</v>
       </c>
       <c r="E186" t="n">
-        <v>11.4932861328125</v>
+        <v>11.18267822265625</v>
       </c>
     </row>
     <row r="187">
@@ -3616,10 +3616,10 @@
         <v>580.04698545442</v>
       </c>
       <c r="D187" t="n">
-        <v>568.5520629882812</v>
+        <v>568.8834838867188</v>
       </c>
       <c r="E187" t="n">
-        <v>11.49493408203125</v>
+        <v>11.16351318359375</v>
       </c>
     </row>
     <row r="188">
@@ -3633,10 +3633,10 @@
         <v>580.721074972618</v>
       </c>
       <c r="D188" t="n">
-        <v>569.233642578125</v>
+        <v>569.5847778320312</v>
       </c>
       <c r="E188" t="n">
-        <v>11.4874267578125</v>
+        <v>11.13629150390625</v>
       </c>
     </row>
     <row r="189">
@@ -3650,10 +3650,10 @@
         <v>581.405491470642</v>
       </c>
       <c r="D189" t="n">
-        <v>569.9151611328125</v>
+        <v>570.2857666015625</v>
       </c>
       <c r="E189" t="n">
-        <v>11.4903564453125</v>
+        <v>11.1197509765625</v>
       </c>
     </row>
     <row r="190">
@@ -3667,10 +3667,10 @@
         <v>582.124395497207</v>
       </c>
       <c r="D190" t="n">
-        <v>570.5964965820312</v>
+        <v>570.9867553710938</v>
       </c>
       <c r="E190" t="n">
-        <v>11.52789306640625</v>
+        <v>11.13763427734375</v>
       </c>
     </row>
     <row r="191">
@@ -3684,10 +3684,10 @@
         <v>582.876182388795</v>
       </c>
       <c r="D191" t="n">
-        <v>571.2762451171875</v>
+        <v>571.6906127929688</v>
       </c>
       <c r="E191" t="n">
-        <v>11.59991455078125</v>
+        <v>11.185546875</v>
       </c>
     </row>
     <row r="192">
@@ -3701,10 +3701,10 @@
         <v>583.670106799146</v>
       </c>
       <c r="D192" t="n">
-        <v>571.9560546875</v>
+        <v>572.3931884765625</v>
       </c>
       <c r="E192" t="n">
-        <v>11.71405029296875</v>
+        <v>11.27691650390625</v>
       </c>
     </row>
     <row r="193">
@@ -3718,10 +3718,10 @@
         <v>584.414259534326</v>
       </c>
       <c r="D193" t="n">
-        <v>572.63720703125</v>
+        <v>573.0921630859375</v>
       </c>
       <c r="E193" t="n">
-        <v>11.77703857421875</v>
+        <v>11.32208251953125</v>
       </c>
     </row>
     <row r="194">
@@ -3735,10 +3735,10 @@
         <v>585.1355745735659</v>
       </c>
       <c r="D194" t="n">
-        <v>573.318603515625</v>
+        <v>573.7908935546875</v>
       </c>
       <c r="E194" t="n">
-        <v>11.81695556640625</v>
+        <v>11.34466552734375</v>
       </c>
     </row>
     <row r="195">
@@ -3752,10 +3752,10 @@
         <v>585.8493721784751</v>
       </c>
       <c r="D195" t="n">
-        <v>573.93505859375</v>
+        <v>574.4898681640625</v>
       </c>
       <c r="E195" t="n">
-        <v>11.914306640625</v>
+        <v>11.3594970703125</v>
       </c>
     </row>
     <row r="196">
@@ -3769,10 +3769,10 @@
         <v>586.561215476556</v>
       </c>
       <c r="D196" t="n">
-        <v>574.5072631835938</v>
+        <v>575.1891479492188</v>
       </c>
       <c r="E196" t="n">
-        <v>12.053955078125</v>
+        <v>11.3720703125</v>
       </c>
     </row>
     <row r="197">
@@ -3786,10 +3786,10 @@
         <v>587.2730302167849</v>
       </c>
       <c r="D197" t="n">
-        <v>575.079345703125</v>
+        <v>575.8885498046875</v>
       </c>
       <c r="E197" t="n">
-        <v>12.19366455078125</v>
+        <v>11.38446044921875</v>
       </c>
     </row>
     <row r="198">
@@ -3803,10 +3803,10 @@
         <v>587.9851294139361</v>
       </c>
       <c r="D198" t="n">
-        <v>575.6513671875</v>
+        <v>576.588134765625</v>
       </c>
       <c r="E198" t="n">
-        <v>12.333740234375</v>
+        <v>11.39697265625</v>
       </c>
     </row>
     <row r="199">
@@ -3820,10 +3820,10 @@
         <v>588.696958039101</v>
       </c>
       <c r="D199" t="n">
-        <v>576.2233276367188</v>
+        <v>577.2877197265625</v>
       </c>
       <c r="E199" t="n">
-        <v>12.4736328125</v>
+        <v>11.40924072265625</v>
       </c>
     </row>
     <row r="200">
@@ -3837,10 +3837,10 @@
         <v>589.4074008957271</v>
       </c>
       <c r="D200" t="n">
-        <v>576.7953491210938</v>
+        <v>577.9873657226562</v>
       </c>
       <c r="E200" t="n">
-        <v>12.612060546875</v>
+        <v>11.4200439453125</v>
       </c>
     </row>
     <row r="201">
@@ -3854,10 +3854,10 @@
         <v>590.114891995119</v>
       </c>
       <c r="D201" t="n">
-        <v>577.3425903320312</v>
+        <v>578.68701171875</v>
       </c>
       <c r="E201" t="n">
-        <v>12.77227783203125</v>
+        <v>11.4278564453125</v>
       </c>
     </row>
     <row r="202">
@@ -3871,10 +3871,10 @@
         <v>590.818051071176</v>
       </c>
       <c r="D202" t="n">
-        <v>577.7386474609375</v>
+        <v>579.2650146484375</v>
       </c>
       <c r="E202" t="n">
-        <v>13.07940673828125</v>
+        <v>11.55303955078125</v>
       </c>
     </row>
     <row r="203">
@@ -3888,10 +3888,10 @@
         <v>591.515826724007</v>
       </c>
       <c r="D203" t="n">
-        <v>578.0670166015625</v>
+        <v>579.724609375</v>
       </c>
       <c r="E203" t="n">
-        <v>13.44879150390625</v>
+        <v>11.79119873046875</v>
       </c>
     </row>
     <row r="204">
@@ -3905,10 +3905,10 @@
         <v>592.208001982814</v>
       </c>
       <c r="D204" t="n">
-        <v>578.3953247070312</v>
+        <v>580.18408203125</v>
       </c>
       <c r="E204" t="n">
-        <v>13.81268310546875</v>
+        <v>12.02392578125</v>
       </c>
     </row>
     <row r="205">
@@ -3922,10 +3922,10 @@
         <v>251.671021855103</v>
       </c>
       <c r="D205" t="n">
-        <v>283.2811279296875</v>
+        <v>316.5531616210938</v>
       </c>
       <c r="E205" t="n">
-        <v>-31.610107421875</v>
+        <v>-64.88214111328125</v>
       </c>
     </row>
     <row r="206">
@@ -3939,10 +3939,10 @@
         <v>264.21622891732</v>
       </c>
       <c r="D206" t="n">
-        <v>287.1099548339844</v>
+        <v>318.2509765625</v>
       </c>
       <c r="E206" t="n">
-        <v>-22.89373779296875</v>
+        <v>-54.03475952148438</v>
       </c>
     </row>
     <row r="207">
@@ -3956,10 +3956,10 @@
         <v>273.78575888259</v>
       </c>
       <c r="D207" t="n">
-        <v>291.0157775878906</v>
+        <v>321.1685791015625</v>
       </c>
       <c r="E207" t="n">
-        <v>-17.23001098632812</v>
+        <v>-47.3828125</v>
       </c>
     </row>
     <row r="208">
@@ -3973,10 +3973,10 @@
         <v>281.271311585657</v>
       </c>
       <c r="D208" t="n">
-        <v>294.2549133300781</v>
+        <v>323.4920654296875</v>
       </c>
       <c r="E208" t="n">
-        <v>-12.98361206054688</v>
+        <v>-42.22076416015625</v>
       </c>
     </row>
     <row r="209">
@@ -3990,10 +3990,10 @@
         <v>287.530316916377</v>
       </c>
       <c r="D209" t="n">
-        <v>297.8497009277344</v>
+        <v>326.1964111328125</v>
       </c>
       <c r="E209" t="n">
-        <v>-10.31939697265625</v>
+        <v>-38.66610717773438</v>
       </c>
     </row>
     <row r="210">
@@ -4007,10 +4007,10 @@
         <v>293.135799212507</v>
       </c>
       <c r="D210" t="n">
-        <v>301.27294921875</v>
+        <v>328.7667236328125</v>
       </c>
       <c r="E210" t="n">
-        <v>-8.13714599609375</v>
+        <v>-35.63092041015625</v>
       </c>
     </row>
     <row r="211">
@@ -4024,10 +4024,10 @@
         <v>297.872315429841</v>
       </c>
       <c r="D211" t="n">
-        <v>304.46337890625</v>
+        <v>331.0305786132812</v>
       </c>
       <c r="E211" t="n">
-        <v>-6.591064453125</v>
+        <v>-33.15826416015625</v>
       </c>
     </row>
     <row r="212">
@@ -4041,10 +4041,10 @@
         <v>302.182437460197</v>
       </c>
       <c r="D212" t="n">
-        <v>307.7889709472656</v>
+        <v>333.4149169921875</v>
       </c>
       <c r="E212" t="n">
-        <v>-5.606536865234375</v>
+        <v>-31.23248291015625</v>
       </c>
     </row>
     <row r="213">
@@ -4058,10 +4058,10 @@
         <v>306.855290595792</v>
       </c>
       <c r="D213" t="n">
-        <v>310.9556274414062</v>
+        <v>335.6428833007812</v>
       </c>
       <c r="E213" t="n">
-        <v>-4.100341796875</v>
+        <v>-28.78759765625</v>
       </c>
     </row>
     <row r="214">
@@ -4075,10 +4075,10 @@
         <v>311.5812611667</v>
       </c>
       <c r="D214" t="n">
-        <v>314.159423828125</v>
+        <v>337.9066467285156</v>
       </c>
       <c r="E214" t="n">
-        <v>-2.578155517578125</v>
+        <v>-26.32537841796875</v>
       </c>
     </row>
     <row r="215">
@@ -4092,10 +4092,10 @@
         <v>316.151980459623</v>
       </c>
       <c r="D215" t="n">
-        <v>317.3008728027344</v>
+        <v>340.1140441894531</v>
       </c>
       <c r="E215" t="n">
-        <v>-1.148895263671875</v>
+        <v>-23.96206665039062</v>
       </c>
     </row>
     <row r="216">
@@ -4109,10 +4109,10 @@
         <v>321.024230909476</v>
       </c>
       <c r="D216" t="n">
-        <v>320.4236450195312</v>
+        <v>342.3152465820312</v>
       </c>
       <c r="E216" t="n">
-        <v>0.6005859375</v>
+        <v>-21.291015625</v>
       </c>
     </row>
     <row r="217">
@@ -4126,10 +4126,10 @@
         <v>325.720452469642</v>
       </c>
       <c r="D217" t="n">
-        <v>323.5999450683594</v>
+        <v>344.5681457519531</v>
       </c>
       <c r="E217" t="n">
-        <v>2.120513916015625</v>
+        <v>-18.84768676757812</v>
       </c>
     </row>
     <row r="218">
@@ -4143,10 +4143,10 @@
         <v>329.938070675481</v>
       </c>
       <c r="D218" t="n">
-        <v>326.6217651367188</v>
+        <v>346.6393127441406</v>
       </c>
       <c r="E218" t="n">
-        <v>3.316314697265625</v>
+        <v>-16.70123291015625</v>
       </c>
     </row>
     <row r="219">
@@ -4160,10 +4160,10 @@
         <v>334.215214491751</v>
       </c>
       <c r="D219" t="n">
-        <v>329.7733459472656</v>
+        <v>348.8315734863281</v>
       </c>
       <c r="E219" t="n">
-        <v>4.441864013671875</v>
+        <v>-14.61636352539062</v>
       </c>
     </row>
     <row r="220">
@@ -4177,10 +4177,10 @@
         <v>337.884943190913</v>
       </c>
       <c r="D220" t="n">
-        <v>332.9883117675781</v>
+        <v>351.0884704589844</v>
       </c>
       <c r="E220" t="n">
-        <v>4.896636962890625</v>
+        <v>-13.20352172851562</v>
       </c>
     </row>
     <row r="221">
@@ -4194,10 +4194,10 @@
         <v>340.494973180004</v>
       </c>
       <c r="D221" t="n">
-        <v>336.1042785644531</v>
+        <v>353.2335205078125</v>
       </c>
       <c r="E221" t="n">
-        <v>4.39068603515625</v>
+        <v>-12.73855590820312</v>
       </c>
     </row>
     <row r="222">
@@ -4211,10 +4211,10 @@
         <v>343.401474260756</v>
       </c>
       <c r="D222" t="n">
-        <v>339.34130859375</v>
+        <v>355.4998779296875</v>
       </c>
       <c r="E222" t="n">
-        <v>4.0601806640625</v>
+        <v>-12.098388671875</v>
       </c>
     </row>
     <row r="223">
@@ -4228,10 +4228,10 @@
         <v>347.066950140101</v>
       </c>
       <c r="D223" t="n">
-        <v>342.5020141601562</v>
+        <v>357.6943054199219</v>
       </c>
       <c r="E223" t="n">
-        <v>4.56494140625</v>
+        <v>-10.62734985351562</v>
       </c>
     </row>
     <row r="224">
@@ -4245,10 +4245,10 @@
         <v>350.64108801961</v>
       </c>
       <c r="D224" t="n">
-        <v>345.6200561523438</v>
+        <v>359.8244934082031</v>
       </c>
       <c r="E224" t="n">
-        <v>5.021026611328125</v>
+        <v>-9.18341064453125</v>
       </c>
     </row>
     <row r="225">
@@ -4262,10 +4262,10 @@
         <v>354.109238630759</v>
       </c>
       <c r="D225" t="n">
-        <v>348.9546203613281</v>
+        <v>362.1529235839844</v>
       </c>
       <c r="E225" t="n">
-        <v>5.154632568359375</v>
+        <v>-8.043670654296875</v>
       </c>
     </row>
     <row r="226">
@@ -4279,10 +4279,10 @@
         <v>357.621819120563</v>
       </c>
       <c r="D226" t="n">
-        <v>352.1337585449219</v>
+        <v>364.3215637207031</v>
       </c>
       <c r="E226" t="n">
-        <v>5.488067626953125</v>
+        <v>-6.699737548828125</v>
       </c>
     </row>
     <row r="227">
@@ -4296,10 +4296,10 @@
         <v>360.763218221998</v>
       </c>
       <c r="D227" t="n">
-        <v>355.5705261230469</v>
+        <v>366.7500305175781</v>
       </c>
       <c r="E227" t="n">
-        <v>5.19268798828125</v>
+        <v>-5.98681640625</v>
       </c>
     </row>
     <row r="228">
@@ -4313,10 +4313,10 @@
         <v>364.206888941698</v>
       </c>
       <c r="D228" t="n">
-        <v>358.7986755371094</v>
+        <v>368.946044921875</v>
       </c>
       <c r="E228" t="n">
-        <v>5.408203125</v>
+        <v>-4.739166259765625</v>
       </c>
     </row>
     <row r="229">
@@ -4330,10 +4330,10 @@
         <v>368.431991902877</v>
       </c>
       <c r="D229" t="n">
-        <v>362.0917053222656</v>
+        <v>371.2127990722656</v>
       </c>
       <c r="E229" t="n">
-        <v>6.340301513671875</v>
+        <v>-2.780792236328125</v>
       </c>
     </row>
     <row r="230">
@@ -4347,10 +4347,10 @@
         <v>372.602133626715</v>
       </c>
       <c r="D230" t="n">
-        <v>365.5628967285156</v>
+        <v>373.6649169921875</v>
       </c>
       <c r="E230" t="n">
-        <v>7.03924560546875</v>
+        <v>-1.062774658203125</v>
       </c>
     </row>
     <row r="231">
@@ -4364,10 +4364,10 @@
         <v>376.112602258517</v>
       </c>
       <c r="D231" t="n">
-        <v>368.8740539550781</v>
+        <v>375.9347534179688</v>
       </c>
       <c r="E231" t="n">
-        <v>7.238555908203125</v>
+        <v>0.1778564453125</v>
       </c>
     </row>
     <row r="232">
@@ -4381,10 +4381,10 @@
         <v>378.8712623499</v>
       </c>
       <c r="D232" t="n">
-        <v>372.3947143554688</v>
+        <v>378.4120788574219</v>
       </c>
       <c r="E232" t="n">
-        <v>6.4765625</v>
+        <v>0.459197998046875</v>
       </c>
     </row>
     <row r="233">
@@ -4398,10 +4398,10 @@
         <v>380.968581440183</v>
       </c>
       <c r="D233" t="n">
-        <v>375.7089538574219</v>
+        <v>380.6753845214844</v>
       </c>
       <c r="E233" t="n">
-        <v>5.259613037109375</v>
+        <v>0.293182373046875</v>
       </c>
     </row>
     <row r="234">
@@ -4415,10 +4415,10 @@
         <v>382.878105269777</v>
       </c>
       <c r="D234" t="n">
-        <v>379.2820739746094</v>
+        <v>383.1932373046875</v>
       </c>
       <c r="E234" t="n">
-        <v>3.596038818359375</v>
+        <v>-0.31512451171875</v>
       </c>
     </row>
     <row r="235">
@@ -4432,10 +4432,10 @@
         <v>385.12847359556</v>
       </c>
       <c r="D235" t="n">
-        <v>382.6524047851562</v>
+        <v>385.48583984375</v>
       </c>
       <c r="E235" t="n">
-        <v>2.47607421875</v>
+        <v>-0.35736083984375</v>
       </c>
     </row>
     <row r="236">
@@ -4449,10 +4449,10 @@
         <v>387.971702780591</v>
       </c>
       <c r="D236" t="n">
-        <v>386.0419311523438</v>
+        <v>387.7420654296875</v>
       </c>
       <c r="E236" t="n">
-        <v>1.929779052734375</v>
+        <v>0.229644775390625</v>
       </c>
     </row>
     <row r="237">
@@ -4466,10 +4466,10 @@
         <v>391.452552277676</v>
       </c>
       <c r="D237" t="n">
-        <v>390.1434326171875</v>
+        <v>390.4332580566406</v>
       </c>
       <c r="E237" t="n">
-        <v>1.309112548828125</v>
+        <v>1.019287109375</v>
       </c>
     </row>
     <row r="238">
@@ -4483,10 +4483,10 @@
         <v>395.032971553912</v>
       </c>
       <c r="D238" t="n">
-        <v>394.0470886230469</v>
+        <v>392.834228515625</v>
       </c>
       <c r="E238" t="n">
-        <v>0.985870361328125</v>
+        <v>2.19873046875</v>
       </c>
     </row>
     <row r="239">
@@ -4500,10 +4500,10 @@
         <v>398.280777627916</v>
       </c>
       <c r="D239" t="n">
-        <v>398.2713317871094</v>
+        <v>395.5068664550781</v>
       </c>
       <c r="E239" t="n">
-        <v>0.00946044921875</v>
+        <v>2.77392578125</v>
       </c>
     </row>
     <row r="240">
@@ -4517,10 +4517,10 @@
         <v>401.319887746144</v>
       </c>
       <c r="D240" t="n">
-        <v>402.0889282226562</v>
+        <v>397.8273010253906</v>
       </c>
       <c r="E240" t="n">
-        <v>-0.76904296875</v>
+        <v>3.492584228515625</v>
       </c>
     </row>
     <row r="241">
@@ -4534,10 +4534,10 @@
         <v>404.181049259923</v>
       </c>
       <c r="D241" t="n">
-        <v>406.24560546875</v>
+        <v>400.5152282714844</v>
       </c>
       <c r="E241" t="n">
-        <v>-2.064544677734375</v>
+        <v>3.66583251953125</v>
       </c>
     </row>
     <row r="242">
@@ -4551,10 +4551,10 @@
         <v>406.987507775872</v>
       </c>
       <c r="D242" t="n">
-        <v>410.1901245117188</v>
+        <v>403.158447265625</v>
       </c>
       <c r="E242" t="n">
-        <v>-3.202606201171875</v>
+        <v>3.829071044921875</v>
       </c>
     </row>
     <row r="243">
@@ -4568,10 +4568,10 @@
         <v>409.908858985516</v>
       </c>
       <c r="D243" t="n">
-        <v>413.4481201171875</v>
+        <v>405.5907897949219</v>
       </c>
       <c r="E243" t="n">
-        <v>-3.539276123046875</v>
+        <v>4.31805419921875</v>
       </c>
     </row>
     <row r="244">
@@ -4585,10 +4585,10 @@
         <v>412.755444712887</v>
       </c>
       <c r="D244" t="n">
-        <v>417.0021057128906</v>
+        <v>408.2958068847656</v>
       </c>
       <c r="E244" t="n">
-        <v>-4.246673583984375</v>
+        <v>4.459625244140625</v>
       </c>
     </row>
     <row r="245">
@@ -4602,10 +4602,10 @@
         <v>415.668896967125</v>
       </c>
       <c r="D245" t="n">
-        <v>420.35400390625</v>
+        <v>410.7897338867188</v>
       </c>
       <c r="E245" t="n">
-        <v>-4.68511962890625</v>
+        <v>4.879150390625</v>
       </c>
     </row>
     <row r="246">
@@ -4619,10 +4619,10 @@
         <v>418.832170261699</v>
       </c>
       <c r="D246" t="n">
-        <v>423.8072204589844</v>
+        <v>413.3799743652344</v>
       </c>
       <c r="E246" t="n">
-        <v>-4.97503662109375</v>
+        <v>5.45220947265625</v>
       </c>
     </row>
     <row r="247">
@@ -4636,10 +4636,10 @@
         <v>422.010877906935</v>
       </c>
       <c r="D247" t="n">
-        <v>427.2137145996094</v>
+        <v>415.9305114746094</v>
       </c>
       <c r="E247" t="n">
-        <v>-5.202850341796875</v>
+        <v>6.080352783203125</v>
       </c>
     </row>
     <row r="248">
@@ -4653,10 +4653,10 @@
         <v>425.037382089327</v>
       </c>
       <c r="D248" t="n">
-        <v>431.0098571777344</v>
+        <v>418.8553161621094</v>
       </c>
       <c r="E248" t="n">
-        <v>-5.97247314453125</v>
+        <v>6.18206787109375</v>
       </c>
     </row>
     <row r="249">
@@ -4670,10 +4670,10 @@
         <v>427.868814223569</v>
       </c>
       <c r="D249" t="n">
-        <v>434.6019592285156</v>
+        <v>421.5504150390625</v>
       </c>
       <c r="E249" t="n">
-        <v>-6.733154296875</v>
+        <v>6.318389892578125</v>
       </c>
     </row>
     <row r="250">
@@ -4687,10 +4687,10 @@
         <v>430.578997579081</v>
       </c>
       <c r="D250" t="n">
-        <v>438.1136169433594</v>
+        <v>424.1455993652344</v>
       </c>
       <c r="E250" t="n">
-        <v>-7.53460693359375</v>
+        <v>6.43341064453125</v>
       </c>
     </row>
     <row r="251">
@@ -4704,10 +4704,10 @@
         <v>433.637530085374</v>
       </c>
       <c r="D251" t="n">
-        <v>441.791015625</v>
+        <v>426.8984375</v>
       </c>
       <c r="E251" t="n">
-        <v>-8.153472900390625</v>
+        <v>6.739105224609375</v>
       </c>
     </row>
     <row r="252">
@@ -4721,10 +4721,10 @@
         <v>437.125932179922</v>
       </c>
       <c r="D252" t="n">
-        <v>445.5613403320312</v>
+        <v>429.7463684082031</v>
       </c>
       <c r="E252" t="n">
-        <v>-8.435394287109375</v>
+        <v>7.37957763671875</v>
       </c>
     </row>
     <row r="253">
@@ -4738,10 +4738,10 @@
         <v>440.4055118365101</v>
       </c>
       <c r="D253" t="n">
-        <v>449.28125</v>
+        <v>432.5538024902344</v>
       </c>
       <c r="E253" t="n">
-        <v>-8.875732421875</v>
+        <v>7.851715087890625</v>
       </c>
     </row>
     <row r="254">
@@ -4755,10 +4755,10 @@
         <v>443.030677527441</v>
       </c>
       <c r="D254" t="n">
-        <v>452.2207336425781</v>
+        <v>435.3232421875</v>
       </c>
       <c r="E254" t="n">
-        <v>-9.1900634765625</v>
+        <v>7.707427978515625</v>
       </c>
     </row>
     <row r="255">
@@ -4772,10 +4772,10 @@
         <v>445.101870792375</v>
       </c>
       <c r="D255" t="n">
-        <v>455.0933227539062</v>
+        <v>438.0528564453125</v>
       </c>
       <c r="E255" t="n">
-        <v>-9.991455078125</v>
+        <v>7.04901123046875</v>
       </c>
     </row>
     <row r="256">
@@ -4789,10 +4789,10 @@
         <v>447.220367875882</v>
       </c>
       <c r="D256" t="n">
-        <v>458.2120971679688</v>
+        <v>441.1192321777344</v>
       </c>
       <c r="E256" t="n">
-        <v>-10.99172973632812</v>
+        <v>6.10113525390625</v>
       </c>
     </row>
     <row r="257">
@@ -4806,10 +4806,10 @@
         <v>449.90041684165</v>
       </c>
       <c r="D257" t="n">
-        <v>461.2605590820312</v>
+        <v>444.1127319335938</v>
       </c>
       <c r="E257" t="n">
-        <v>-11.36013793945312</v>
+        <v>5.787689208984375</v>
       </c>
     </row>
     <row r="258">
@@ -4823,10 +4823,10 @@
         <v>453.08609835363</v>
       </c>
       <c r="D258" t="n">
-        <v>464.2130126953125</v>
+        <v>447.0179748535156</v>
       </c>
       <c r="E258" t="n">
-        <v>-11.12692260742188</v>
+        <v>6.068115234375</v>
       </c>
     </row>
     <row r="259">
@@ -4840,10 +4840,10 @@
         <v>456.288903224159</v>
       </c>
       <c r="D259" t="n">
-        <v>467.1689758300781</v>
+        <v>449.9974365234375</v>
       </c>
       <c r="E259" t="n">
-        <v>-10.88006591796875</v>
+        <v>6.291473388671875</v>
       </c>
     </row>
     <row r="260">
@@ -4857,10 +4857,10 @@
         <v>459.272590377322</v>
       </c>
       <c r="D260" t="n">
-        <v>470.0733032226562</v>
+        <v>452.8652954101562</v>
       </c>
       <c r="E260" t="n">
-        <v>-10.80072021484375</v>
+        <v>6.40728759765625</v>
       </c>
     </row>
     <row r="261">
@@ -4874,10 +4874,10 @@
         <v>461.846979094997</v>
       </c>
       <c r="D261" t="n">
-        <v>473.2360229492188</v>
+        <v>456.0472412109375</v>
       </c>
       <c r="E261" t="n">
-        <v>-11.3890380859375</v>
+        <v>5.79974365234375</v>
       </c>
     </row>
     <row r="262">
@@ -4891,10 +4891,10 @@
         <v>464.240694187358</v>
       </c>
       <c r="D262" t="n">
-        <v>476.2646484375</v>
+        <v>458.90234375</v>
       </c>
       <c r="E262" t="n">
-        <v>-12.02395629882812</v>
+        <v>5.338348388671875</v>
       </c>
     </row>
     <row r="263">
@@ -4908,10 +4908,10 @@
         <v>466.983677783346</v>
       </c>
       <c r="D263" t="n">
-        <v>479.5443115234375</v>
+        <v>462.1832580566406</v>
       </c>
       <c r="E263" t="n">
-        <v>-12.56063842773438</v>
+        <v>4.8004150390625</v>
       </c>
     </row>
     <row r="264">
@@ -4925,10 +4925,10 @@
         <v>469.973982253232</v>
       </c>
       <c r="D264" t="n">
-        <v>482.7952270507812</v>
+        <v>465.3390502929688</v>
       </c>
       <c r="E264" t="n">
-        <v>-12.82125854492188</v>
+        <v>4.634918212890625</v>
       </c>
     </row>
     <row r="265">
@@ -4942,10 +4942,10 @@
         <v>473.183710603448</v>
       </c>
       <c r="D265" t="n">
-        <v>486.2669982910156</v>
+        <v>468.5108032226562</v>
       </c>
       <c r="E265" t="n">
-        <v>-13.08328247070312</v>
+        <v>4.67291259765625</v>
       </c>
     </row>
     <row r="266">
@@ -4959,10 +4959,10 @@
         <v>476.273930801176</v>
       </c>
       <c r="D266" t="n">
-        <v>489.8461303710938</v>
+        <v>471.8181457519531</v>
       </c>
       <c r="E266" t="n">
-        <v>-13.57220458984375</v>
+        <v>4.455780029296875</v>
       </c>
     </row>
     <row r="267">
@@ -4976,10 +4976,10 @@
         <v>478.9648680035809</v>
       </c>
       <c r="D267" t="n">
-        <v>492.3838500976562</v>
+        <v>474.8262634277344</v>
       </c>
       <c r="E267" t="n">
-        <v>-13.41897583007812</v>
+        <v>4.13861083984375</v>
       </c>
     </row>
     <row r="268">
@@ -4993,10 +4993,10 @@
         <v>481.301869594563</v>
       </c>
       <c r="D268" t="n">
-        <v>495.0460815429688</v>
+        <v>478.0910034179688</v>
       </c>
       <c r="E268" t="n">
-        <v>-13.74420166015625</v>
+        <v>3.21087646484375</v>
       </c>
     </row>
     <row r="269">
@@ -5010,10 +5010,10 @@
         <v>483.404662241365</v>
       </c>
       <c r="D269" t="n">
-        <v>497.9774780273438</v>
+        <v>481.5662841796875</v>
       </c>
       <c r="E269" t="n">
-        <v>-14.57281494140625</v>
+        <v>1.83837890625</v>
       </c>
     </row>
     <row r="270">
@@ -5027,10 +5027,10 @@
         <v>485.908303383375</v>
       </c>
       <c r="D270" t="n">
-        <v>500.7338256835938</v>
+        <v>484.8644409179688</v>
       </c>
       <c r="E270" t="n">
-        <v>-14.82553100585938</v>
+        <v>1.043853759765625</v>
       </c>
     </row>
     <row r="271">
@@ -5044,10 +5044,10 @@
         <v>489.179033892991</v>
       </c>
       <c r="D271" t="n">
-        <v>502.4407348632812</v>
+        <v>488.5882873535156</v>
       </c>
       <c r="E271" t="n">
-        <v>-13.26168823242188</v>
+        <v>0.59075927734375</v>
       </c>
     </row>
     <row r="272">
@@ -5061,10 +5061,10 @@
         <v>492.769763847007</v>
       </c>
       <c r="D272" t="n">
-        <v>503.9286193847656</v>
+        <v>492.1208190917969</v>
       </c>
       <c r="E272" t="n">
-        <v>-11.15884399414062</v>
+        <v>0.648956298828125</v>
       </c>
     </row>
     <row r="273">
@@ -5078,10 +5078,10 @@
         <v>496.2343376394909</v>
       </c>
       <c r="D273" t="n">
-        <v>505.26904296875</v>
+        <v>496.0354309082031</v>
       </c>
       <c r="E273" t="n">
-        <v>-9.034698486328125</v>
+        <v>0.19891357421875</v>
       </c>
     </row>
     <row r="274">
@@ -5095,10 +5095,10 @@
         <v>499.506164512729</v>
       </c>
       <c r="D274" t="n">
-        <v>506.3177490234375</v>
+        <v>499.7498168945312</v>
       </c>
       <c r="E274" t="n">
-        <v>-6.81158447265625</v>
+        <v>-0.24365234375</v>
       </c>
     </row>
     <row r="275">
@@ -5112,10 +5112,10 @@
         <v>502.12503366448</v>
       </c>
       <c r="D275" t="n">
-        <v>507.302001953125</v>
+        <v>503.4525146484375</v>
       </c>
       <c r="E275" t="n">
-        <v>-5.176971435546875</v>
+        <v>-1.327484130859375</v>
       </c>
     </row>
     <row r="276">
@@ -5129,10 +5129,10 @@
         <v>504.570658586534</v>
       </c>
       <c r="D276" t="n">
-        <v>508.3624267578125</v>
+        <v>507.34619140625</v>
       </c>
       <c r="E276" t="n">
-        <v>-3.791778564453125</v>
+        <v>-2.775543212890625</v>
       </c>
     </row>
     <row r="277">
@@ -5146,10 +5146,10 @@
         <v>507.426541289789</v>
       </c>
       <c r="D277" t="n">
-        <v>509.4078369140625</v>
+        <v>511.2271118164062</v>
       </c>
       <c r="E277" t="n">
-        <v>-1.981292724609375</v>
+        <v>-3.800567626953125</v>
       </c>
     </row>
     <row r="278">
@@ -5163,10 +5163,10 @@
         <v>510.206821492631</v>
       </c>
       <c r="D278" t="n">
-        <v>510.6117553710938</v>
+        <v>515.539306640625</v>
       </c>
       <c r="E278" t="n">
-        <v>-0.404937744140625</v>
+        <v>-5.332489013671875</v>
       </c>
     </row>
     <row r="279">
@@ -5180,10 +5180,10 @@
         <v>513.133422872093</v>
       </c>
       <c r="D279" t="n">
-        <v>511.8052368164062</v>
+        <v>518.6535034179688</v>
       </c>
       <c r="E279" t="n">
-        <v>1.32818603515625</v>
+        <v>-5.52008056640625</v>
       </c>
     </row>
     <row r="280">
@@ -5197,10 +5197,10 @@
         <v>516.392326152721</v>
       </c>
       <c r="D280" t="n">
-        <v>512.9564208984375</v>
+        <v>521.4534301757812</v>
       </c>
       <c r="E280" t="n">
-        <v>3.4359130859375</v>
+        <v>-5.06109619140625</v>
       </c>
     </row>
     <row r="281">
@@ -5214,10 +5214,10 @@
         <v>519.867730694367</v>
       </c>
       <c r="D281" t="n">
-        <v>514.32666015625</v>
+        <v>524.0205078125</v>
       </c>
       <c r="E281" t="n">
-        <v>5.54107666015625</v>
+        <v>-4.15277099609375</v>
       </c>
     </row>
     <row r="282">
@@ -5231,10 +5231,10 @@
         <v>523.585325081704</v>
       </c>
       <c r="D282" t="n">
-        <v>516.0530395507812</v>
+        <v>526.4618530273438</v>
       </c>
       <c r="E282" t="n">
-        <v>7.53228759765625</v>
+        <v>-2.87652587890625</v>
       </c>
     </row>
     <row r="283">
@@ -5248,10 +5248,10 @@
         <v>527.5624824212999</v>
       </c>
       <c r="D283" t="n">
-        <v>518.5826416015625</v>
+        <v>529.2391357421875</v>
       </c>
       <c r="E283" t="n">
-        <v>8.9798583984375</v>
+        <v>-1.6766357421875</v>
       </c>
     </row>
     <row r="284">
@@ -5265,10 +5265,10 @@
         <v>209.011927927369</v>
       </c>
       <c r="D284" t="n">
-        <v>212.0518951416016</v>
+        <v>232.9077453613281</v>
       </c>
       <c r="E284" t="n">
-        <v>-3.039962768554688</v>
+        <v>-23.89581298828125</v>
       </c>
     </row>
     <row r="285">
@@ -5282,10 +5282,10 @@
         <v>221.793120754345</v>
       </c>
       <c r="D285" t="n">
-        <v>216.0042877197266</v>
+        <v>233.5164184570312</v>
       </c>
       <c r="E285" t="n">
-        <v>5.788833618164062</v>
+        <v>-11.72329711914062</v>
       </c>
     </row>
     <row r="286">
@@ -5299,10 +5299,10 @@
         <v>232.08539600163</v>
       </c>
       <c r="D286" t="n">
-        <v>220.8787994384766</v>
+        <v>235.4528656005859</v>
       </c>
       <c r="E286" t="n">
-        <v>11.20660400390625</v>
+        <v>-3.367462158203125</v>
       </c>
     </row>
     <row r="287">
@@ -5316,10 +5316,10 @@
         <v>240.627714197648</v>
       </c>
       <c r="D287" t="n">
-        <v>226.0780792236328</v>
+        <v>237.7075500488281</v>
       </c>
       <c r="E287" t="n">
-        <v>14.54963684082031</v>
+        <v>2.920166015625</v>
       </c>
     </row>
     <row r="288">
@@ -5333,10 +5333,10 @@
         <v>247.673377492787</v>
       </c>
       <c r="D288" t="n">
-        <v>231.7264251708984</v>
+        <v>241.6208190917969</v>
       </c>
       <c r="E288" t="n">
-        <v>15.94694519042969</v>
+        <v>6.05255126953125</v>
       </c>
     </row>
     <row r="289">
@@ -5350,10 +5350,10 @@
         <v>253.62721707432</v>
       </c>
       <c r="D289" t="n">
-        <v>236.8611450195312</v>
+        <v>245.4746704101562</v>
       </c>
       <c r="E289" t="n">
-        <v>16.76606750488281</v>
+        <v>8.152542114257812</v>
       </c>
     </row>
     <row r="290">
@@ -5367,10 +5367,10 @@
         <v>258.910505498735</v>
       </c>
       <c r="D290" t="n">
-        <v>241.9124450683594</v>
+        <v>249.4275207519531</v>
       </c>
       <c r="E290" t="n">
-        <v>16.998046875</v>
+        <v>9.48297119140625</v>
       </c>
     </row>
     <row r="291">
@@ -5384,10 +5384,10 @@
         <v>263.769089088647</v>
       </c>
       <c r="D291" t="n">
-        <v>246.4188537597656</v>
+        <v>253.0633392333984</v>
       </c>
       <c r="E291" t="n">
-        <v>17.35025024414062</v>
+        <v>10.70576477050781</v>
       </c>
     </row>
     <row r="292">
@@ -5401,10 +5401,10 @@
         <v>268.326278819998</v>
       </c>
       <c r="D292" t="n">
-        <v>250.0384063720703</v>
+        <v>256.046630859375</v>
       </c>
       <c r="E292" t="n">
-        <v>18.28788757324219</v>
+        <v>12.2796630859375</v>
       </c>
     </row>
     <row r="293">
@@ -5418,10 +5418,10 @@
         <v>272.764100113871</v>
       </c>
       <c r="D293" t="n">
-        <v>253.1501007080078</v>
+        <v>258.7187194824219</v>
       </c>
       <c r="E293" t="n">
-        <v>19.61399841308594</v>
+        <v>14.04537963867188</v>
       </c>
     </row>
     <row r="294">
@@ -5435,10 +5435,10 @@
         <v>277.179396142188</v>
       </c>
       <c r="D294" t="n">
-        <v>256.4600830078125</v>
+        <v>261.7155456542969</v>
       </c>
       <c r="E294" t="n">
-        <v>20.71929931640625</v>
+        <v>15.46383666992188</v>
       </c>
     </row>
     <row r="295">
@@ -5452,10 +5452,10 @@
         <v>281.596883976502</v>
       </c>
       <c r="D295" t="n">
-        <v>259.06591796875</v>
+        <v>264.0666809082031</v>
       </c>
       <c r="E295" t="n">
-        <v>22.53097534179688</v>
+        <v>17.53021240234375</v>
       </c>
     </row>
     <row r="296">
@@ -5469,10 +5469,10 @@
         <v>285.936384261871</v>
       </c>
       <c r="D296" t="n">
-        <v>262.2008056640625</v>
+        <v>267.9639282226562</v>
       </c>
       <c r="E296" t="n">
-        <v>23.73556518554688</v>
+        <v>17.97244262695312</v>
       </c>
     </row>
     <row r="297">
@@ -5486,10 +5486,10 @@
         <v>289.997027688002</v>
       </c>
       <c r="D297" t="n">
-        <v>265.554931640625</v>
+        <v>272.6511840820312</v>
       </c>
       <c r="E297" t="n">
-        <v>24.44210815429688</v>
+        <v>17.34585571289062</v>
       </c>
     </row>
     <row r="298">
@@ -5503,10 +5503,10 @@
         <v>293.644256271626</v>
       </c>
       <c r="D298" t="n">
-        <v>269.2702941894531</v>
+        <v>276.6563110351562</v>
       </c>
       <c r="E298" t="n">
-        <v>24.37396240234375</v>
+        <v>16.98794555664062</v>
       </c>
     </row>
     <row r="299">
@@ -5520,10 +5520,10 @@
         <v>297.09172180026</v>
       </c>
       <c r="D299" t="n">
-        <v>274.098876953125</v>
+        <v>280.25537109375</v>
       </c>
       <c r="E299" t="n">
-        <v>22.99285888671875</v>
+        <v>16.83636474609375</v>
       </c>
     </row>
     <row r="300">
@@ -5537,10 +5537,10 @@
         <v>300.675120438056</v>
       </c>
       <c r="D300" t="n">
-        <v>279.1927795410156</v>
+        <v>282.7050170898438</v>
       </c>
       <c r="E300" t="n">
-        <v>21.48233032226562</v>
+        <v>17.9700927734375</v>
       </c>
     </row>
     <row r="301">
@@ -5554,10 +5554,10 @@
         <v>304.535182081305</v>
       </c>
       <c r="D301" t="n">
-        <v>285.0505981445312</v>
+        <v>284.7366638183594</v>
       </c>
       <c r="E301" t="n">
-        <v>19.48458862304688</v>
+        <v>19.79852294921875</v>
       </c>
     </row>
     <row r="302">
@@ -5571,10 +5571,10 @@
         <v>308.817816097269</v>
       </c>
       <c r="D302" t="n">
-        <v>292.4899291992188</v>
+        <v>290.1931457519531</v>
       </c>
       <c r="E302" t="n">
-        <v>16.327880859375</v>
+        <v>18.62466430664062</v>
       </c>
     </row>
     <row r="303">
@@ -5588,10 +5588,10 @@
         <v>313.470210775533</v>
       </c>
       <c r="D303" t="n">
-        <v>300.1398620605469</v>
+        <v>295.5314331054688</v>
       </c>
       <c r="E303" t="n">
-        <v>13.33035278320312</v>
+        <v>17.93878173828125</v>
       </c>
     </row>
     <row r="304">
@@ -5605,10 +5605,10 @@
         <v>318.288355032208</v>
       </c>
       <c r="D304" t="n">
-        <v>309.3542175292969</v>
+        <v>301.6922302246094</v>
       </c>
       <c r="E304" t="n">
-        <v>8.93414306640625</v>
+        <v>16.59613037109375</v>
       </c>
     </row>
     <row r="305">
@@ -5622,10 +5622,10 @@
         <v>323.194075039336</v>
       </c>
       <c r="D305" t="n">
-        <v>318.9407043457031</v>
+        <v>307.1012268066406</v>
       </c>
       <c r="E305" t="n">
-        <v>4.25335693359375</v>
+        <v>16.09283447265625</v>
       </c>
     </row>
     <row r="306">
@@ -5639,10 +5639,10 @@
         <v>328.042963331813</v>
       </c>
       <c r="D306" t="n">
-        <v>328.3736877441406</v>
+        <v>312.0619201660156</v>
       </c>
       <c r="E306" t="n">
-        <v>-0.330718994140625</v>
+        <v>15.98104858398438</v>
       </c>
     </row>
     <row r="307">
@@ -5656,10 +5656,10 @@
         <v>332.718792742664</v>
       </c>
       <c r="D307" t="n">
-        <v>337.9499816894531</v>
+        <v>317.7471313476562</v>
       </c>
       <c r="E307" t="n">
-        <v>-5.231201171875</v>
+        <v>14.97164916992188</v>
       </c>
     </row>
     <row r="308">
@@ -5673,10 +5673,10 @@
         <v>337.13789681928</v>
       </c>
       <c r="D308" t="n">
-        <v>344.5338439941406</v>
+        <v>322.0925598144531</v>
       </c>
       <c r="E308" t="n">
-        <v>-7.39593505859375</v>
+        <v>15.04534912109375</v>
       </c>
     </row>
     <row r="309">
@@ -5690,10 +5690,10 @@
         <v>341.168194159613</v>
       </c>
       <c r="D309" t="n">
-        <v>349.9145812988281</v>
+        <v>325.6152038574219</v>
       </c>
       <c r="E309" t="n">
-        <v>-8.74639892578125</v>
+        <v>15.552978515625</v>
       </c>
     </row>
     <row r="310">
@@ -5707,10 +5707,10 @@
         <v>344.610402220772</v>
       </c>
       <c r="D310" t="n">
-        <v>354.5540466308594</v>
+        <v>329.2401733398438</v>
       </c>
       <c r="E310" t="n">
-        <v>-9.943634033203125</v>
+        <v>15.3702392578125</v>
       </c>
     </row>
     <row r="311">
@@ -5724,10 +5724,10 @@
         <v>347.323034102117</v>
       </c>
       <c r="D311" t="n">
-        <v>357.8323669433594</v>
+        <v>331.8011474609375</v>
       </c>
       <c r="E311" t="n">
-        <v>-10.50933837890625</v>
+        <v>15.52188110351562</v>
       </c>
     </row>
     <row r="312">
@@ -5741,10 +5741,10 @@
         <v>349.262051131422</v>
       </c>
       <c r="D312" t="n">
-        <v>359.4515380859375</v>
+        <v>332.8869018554688</v>
       </c>
       <c r="E312" t="n">
-        <v>-10.18948364257812</v>
+        <v>16.37515258789062</v>
       </c>
     </row>
     <row r="313">
@@ -5758,10 +5758,10 @@
         <v>350.623153543361</v>
       </c>
       <c r="D313" t="n">
-        <v>360.8060302734375</v>
+        <v>334.4183959960938</v>
       </c>
       <c r="E313" t="n">
-        <v>-10.18289184570312</v>
+        <v>16.20474243164062</v>
       </c>
     </row>
     <row r="314">
@@ -5775,10 +5775,10 @@
         <v>351.72216236334</v>
       </c>
       <c r="D314" t="n">
-        <v>361.7064208984375</v>
+        <v>335.4813232421875</v>
       </c>
       <c r="E314" t="n">
-        <v>-9.9842529296875</v>
+        <v>16.2408447265625</v>
       </c>
     </row>
     <row r="315">
@@ -5792,10 +5792,10 @@
         <v>353.050699922034</v>
       </c>
       <c r="D315" t="n">
-        <v>362.5286560058594</v>
+        <v>336.0334777832031</v>
       </c>
       <c r="E315" t="n">
-        <v>-9.47796630859375</v>
+        <v>17.0172119140625</v>
       </c>
     </row>
     <row r="316">
@@ -5809,10 +5809,10 @@
         <v>354.925702251693</v>
       </c>
       <c r="D316" t="n">
-        <v>364.1082763671875</v>
+        <v>338.0829467773438</v>
       </c>
       <c r="E316" t="n">
-        <v>-9.182586669921875</v>
+        <v>16.84274291992188</v>
       </c>
     </row>
     <row r="317">
@@ -5826,10 +5826,10 @@
         <v>357.314769014477</v>
       </c>
       <c r="D317" t="n">
-        <v>365.6864318847656</v>
+        <v>341.11767578125</v>
       </c>
       <c r="E317" t="n">
-        <v>-8.371673583984375</v>
+        <v>16.19708251953125</v>
       </c>
     </row>
     <row r="318">
@@ -5843,10 +5843,10 @@
         <v>360.24357637819</v>
       </c>
       <c r="D318" t="n">
-        <v>367.3423156738281</v>
+        <v>344.3894958496094</v>
       </c>
       <c r="E318" t="n">
-        <v>-7.098724365234375</v>
+        <v>15.85409545898438</v>
       </c>
     </row>
     <row r="319">
@@ -5860,10 +5860,10 @@
         <v>363.750634890023</v>
       </c>
       <c r="D319" t="n">
-        <v>369.1438903808594</v>
+        <v>347.97607421875</v>
       </c>
       <c r="E319" t="n">
-        <v>-5.39324951171875</v>
+        <v>15.77456665039062</v>
       </c>
     </row>
     <row r="320">
@@ -5877,10 +5877,10 @@
         <v>367.670011298574</v>
       </c>
       <c r="D320" t="n">
-        <v>371.9852905273438</v>
+        <v>353.3353271484375</v>
       </c>
       <c r="E320" t="n">
-        <v>-4.315277099609375</v>
+        <v>14.33468627929688</v>
       </c>
     </row>
     <row r="321">
@@ -5894,10 +5894,10 @@
         <v>371.723540462416</v>
       </c>
       <c r="D321" t="n">
-        <v>375.0359191894531</v>
+        <v>362.1535034179688</v>
       </c>
       <c r="E321" t="n">
-        <v>-3.3123779296875</v>
+        <v>9.570037841796875</v>
       </c>
     </row>
     <row r="322">
@@ -5911,10 +5911,10 @@
         <v>375.828570259432</v>
       </c>
       <c r="D322" t="n">
-        <v>378.1990661621094</v>
+        <v>376.2516479492188</v>
       </c>
       <c r="E322" t="n">
-        <v>-2.3704833984375</v>
+        <v>-0.423065185546875</v>
       </c>
     </row>
     <row r="323">
@@ -5928,10 +5928,10 @@
         <v>380.027046825786</v>
       </c>
       <c r="D323" t="n">
-        <v>381.0343017578125</v>
+        <v>390.1054077148438</v>
       </c>
       <c r="E323" t="n">
-        <v>-1.00726318359375</v>
+        <v>-10.078369140625</v>
       </c>
     </row>
     <row r="324">
@@ -5945,10 +5945,10 @@
         <v>384.289481143984</v>
       </c>
       <c r="D324" t="n">
-        <v>384.431640625</v>
+        <v>398.6514892578125</v>
       </c>
       <c r="E324" t="n">
-        <v>-0.14215087890625</v>
+        <v>-14.36199951171875</v>
       </c>
     </row>
     <row r="325">
@@ -5962,10 +5962,10 @@
         <v>388.666525362425</v>
       </c>
       <c r="D325" t="n">
-        <v>388.4111328125</v>
+        <v>401.4381103515625</v>
       </c>
       <c r="E325" t="n">
-        <v>0.255401611328125</v>
+        <v>-12.77157592773438</v>
       </c>
     </row>
     <row r="326">
@@ -5979,10 +5979,10 @@
         <v>393.058846161206</v>
       </c>
       <c r="D326" t="n">
-        <v>393.2163696289062</v>
+        <v>404.6435852050781</v>
       </c>
       <c r="E326" t="n">
-        <v>-0.15753173828125</v>
+        <v>-11.58474731445312</v>
       </c>
     </row>
     <row r="327">
@@ -5996,10 +5996,10 @@
         <v>397.230082996873</v>
       </c>
       <c r="D327" t="n">
-        <v>397.5029602050781</v>
+        <v>407.4486083984375</v>
       </c>
       <c r="E327" t="n">
-        <v>-0.27288818359375</v>
+        <v>-10.21853637695312</v>
       </c>
     </row>
     <row r="328">
@@ -6013,10 +6013,10 @@
         <v>400.9321721983069</v>
       </c>
       <c r="D328" t="n">
-        <v>400.3143310546875</v>
+        <v>409.3928527832031</v>
       </c>
       <c r="E328" t="n">
-        <v>0.617828369140625</v>
+        <v>-8.460693359375</v>
       </c>
     </row>
     <row r="329">
@@ -6030,10 +6030,10 @@
         <v>404.173861373206</v>
       </c>
       <c r="D329" t="n">
-        <v>404.0476989746094</v>
+        <v>412.4435119628906</v>
       </c>
       <c r="E329" t="n">
-        <v>0.12615966796875</v>
+        <v>-8.2696533203125</v>
       </c>
     </row>
     <row r="330">
@@ -6047,10 +6047,10 @@
         <v>407.137933580303</v>
       </c>
       <c r="D330" t="n">
-        <v>406.4904479980469</v>
+        <v>414.2068481445312</v>
       </c>
       <c r="E330" t="n">
-        <v>0.647491455078125</v>
+        <v>-7.06890869140625</v>
       </c>
     </row>
     <row r="331">
@@ -6064,10 +6064,10 @@
         <v>410.143853937496</v>
       </c>
       <c r="D331" t="n">
-        <v>408.8590698242188</v>
+        <v>416.7938537597656</v>
       </c>
       <c r="E331" t="n">
-        <v>1.2847900390625</v>
+        <v>-6.649993896484375</v>
       </c>
     </row>
     <row r="332">
@@ -6081,10 +6081,10 @@
         <v>413.356727583078</v>
       </c>
       <c r="D332" t="n">
-        <v>410.5057678222656</v>
+        <v>419.9559936523438</v>
       </c>
       <c r="E332" t="n">
-        <v>2.8509521484375</v>
+        <v>-6.599273681640625</v>
       </c>
     </row>
     <row r="333">
@@ -6098,10 +6098,10 @@
         <v>416.4861719071259</v>
       </c>
       <c r="D333" t="n">
-        <v>411.4279174804688</v>
+        <v>424.2147827148438</v>
       </c>
       <c r="E333" t="n">
-        <v>5.058258056640625</v>
+        <v>-7.728607177734375</v>
       </c>
     </row>
     <row r="334">
@@ -6115,10 +6115,10 @@
         <v>419.208536681578</v>
       </c>
       <c r="D334" t="n">
-        <v>412.6051025390625</v>
+        <v>429.6877136230469</v>
       </c>
       <c r="E334" t="n">
-        <v>6.603424072265625</v>
+        <v>-10.47918701171875</v>
       </c>
     </row>
     <row r="335">
@@ -6132,10 +6132,10 @@
         <v>422.083256987245</v>
       </c>
       <c r="D335" t="n">
-        <v>417.9388732910156</v>
+        <v>436.5483703613281</v>
       </c>
       <c r="E335" t="n">
-        <v>4.144378662109375</v>
+        <v>-14.46511840820312</v>
       </c>
     </row>
     <row r="336">
@@ -6149,10 +6149,10 @@
         <v>425.5864835257109</v>
       </c>
       <c r="D336" t="n">
-        <v>424.7413940429688</v>
+        <v>445.775146484375</v>
       </c>
       <c r="E336" t="n">
-        <v>0.8450927734375</v>
+        <v>-20.18865966796875</v>
       </c>
     </row>
     <row r="337">
@@ -6166,10 +6166,10 @@
         <v>429.787280922256</v>
       </c>
       <c r="D337" t="n">
-        <v>430.91796875</v>
+        <v>451.5586547851562</v>
       </c>
       <c r="E337" t="n">
-        <v>-1.13067626953125</v>
+        <v>-21.7713623046875</v>
       </c>
     </row>
     <row r="338">
@@ -6183,10 +6183,10 @@
         <v>434.722597592498</v>
       </c>
       <c r="D338" t="n">
-        <v>436.1242065429688</v>
+        <v>453.091552734375</v>
       </c>
       <c r="E338" t="n">
-        <v>-1.401611328125</v>
+        <v>-18.36895751953125</v>
       </c>
     </row>
     <row r="339">
@@ -6200,10 +6200,10 @@
         <v>440.292863791475</v>
       </c>
       <c r="D339" t="n">
-        <v>436.5552978515625</v>
+        <v>449.3796997070312</v>
       </c>
       <c r="E339" t="n">
-        <v>3.737579345703125</v>
+        <v>-9.086822509765625</v>
       </c>
     </row>
     <row r="340">
@@ -6217,10 +6217,10 @@
         <v>446.006814169471</v>
       </c>
       <c r="D340" t="n">
-        <v>425.1473999023438</v>
+        <v>436.3692626953125</v>
       </c>
       <c r="E340" t="n">
-        <v>20.85940551757812</v>
+        <v>9.637542724609375</v>
       </c>
     </row>
     <row r="341">
@@ -6234,10 +6234,10 @@
         <v>451.709905357426</v>
       </c>
       <c r="D341" t="n">
-        <v>430.7340698242188</v>
+        <v>411.6360473632812</v>
       </c>
       <c r="E341" t="n">
-        <v>20.975830078125</v>
+        <v>40.0738525390625</v>
       </c>
     </row>
     <row r="342">
@@ -6251,10 +6251,10 @@
         <v>457.525865607838</v>
       </c>
       <c r="D342" t="n">
-        <v>431.9137268066406</v>
+        <v>433.934326171875</v>
       </c>
       <c r="E342" t="n">
-        <v>25.61215209960938</v>
+        <v>23.591552734375</v>
       </c>
     </row>
     <row r="343">
@@ -6268,10 +6268,10 @@
         <v>108.375572266184</v>
       </c>
       <c r="D343" t="n">
-        <v>120.4387664794922</v>
+        <v>127.6921081542969</v>
       </c>
       <c r="E343" t="n">
-        <v>-12.06319427490234</v>
+        <v>-19.31653594970703</v>
       </c>
     </row>
     <row r="344">
@@ -6285,10 +6285,10 @@
         <v>119.65618088523</v>
       </c>
       <c r="D344" t="n">
-        <v>125.9076538085938</v>
+        <v>122.9099884033203</v>
       </c>
       <c r="E344" t="n">
-        <v>-6.251472473144531</v>
+        <v>-3.253807067871094</v>
       </c>
     </row>
     <row r="345">
@@ -6302,10 +6302,10 @@
         <v>127.481530358801</v>
       </c>
       <c r="D345" t="n">
-        <v>130.0067596435547</v>
+        <v>124.0994873046875</v>
       </c>
       <c r="E345" t="n">
-        <v>-2.525230407714844</v>
+        <v>3.382041931152344</v>
       </c>
     </row>
     <row r="346">
@@ -6319,10 +6319,10 @@
         <v>133.098792746531</v>
       </c>
       <c r="D346" t="n">
-        <v>134.7563629150391</v>
+        <v>124.6678924560547</v>
       </c>
       <c r="E346" t="n">
-        <v>-1.657577514648438</v>
+        <v>8.430892944335938</v>
       </c>
     </row>
     <row r="347">
@@ -6336,10 +6336,10 @@
         <v>137.275361727573</v>
       </c>
       <c r="D347" t="n">
-        <v>140.3934936523438</v>
+        <v>125.2807464599609</v>
       </c>
       <c r="E347" t="n">
-        <v>-3.118133544921875</v>
+        <v>11.99461364746094</v>
       </c>
     </row>
     <row r="348">
@@ -6353,10 +6353,10 @@
         <v>140.603955700861</v>
       </c>
       <c r="D348" t="n">
-        <v>145.0685272216797</v>
+        <v>126.5075073242188</v>
       </c>
       <c r="E348" t="n">
-        <v>-4.464569091796875</v>
+        <v>14.09645080566406</v>
       </c>
     </row>
     <row r="349">
@@ -6370,10 +6370,10 @@
         <v>143.450429274047</v>
       </c>
       <c r="D349" t="n">
-        <v>148.4454345703125</v>
+        <v>129.6298065185547</v>
       </c>
       <c r="E349" t="n">
-        <v>-4.995010375976562</v>
+        <v>13.82061767578125</v>
       </c>
     </row>
     <row r="350">
@@ -6387,10 +6387,10 @@
         <v>146.001816392336</v>
       </c>
       <c r="D350" t="n">
-        <v>152.7359924316406</v>
+        <v>129.7617340087891</v>
       </c>
       <c r="E350" t="n">
-        <v>-6.734176635742188</v>
+        <v>16.24008178710938</v>
       </c>
     </row>
     <row r="351">
@@ -6404,10 +6404,10 @@
         <v>148.455202556295</v>
       </c>
       <c r="D351" t="n">
-        <v>156.9724273681641</v>
+        <v>133.2108306884766</v>
       </c>
       <c r="E351" t="n">
-        <v>-8.517227172851562</v>
+        <v>15.24436950683594</v>
       </c>
     </row>
     <row r="352">
@@ -6421,10 +6421,10 @@
         <v>150.787051222172</v>
       </c>
       <c r="D352" t="n">
-        <v>159.2078247070312</v>
+        <v>134.5304718017578</v>
       </c>
       <c r="E352" t="n">
-        <v>-8.4207763671875</v>
+        <v>16.25657653808594</v>
       </c>
     </row>
     <row r="353">
@@ -6438,10 +6438,10 @@
         <v>152.891481299606</v>
       </c>
       <c r="D353" t="n">
-        <v>163.2086029052734</v>
+        <v>140.0966491699219</v>
       </c>
       <c r="E353" t="n">
-        <v>-10.31712341308594</v>
+        <v>12.79483032226562</v>
       </c>
     </row>
     <row r="354">
@@ -6455,10 +6455,10 @@
         <v>154.831071218794</v>
       </c>
       <c r="D354" t="n">
-        <v>166.048095703125</v>
+        <v>142.5154876708984</v>
       </c>
       <c r="E354" t="n">
-        <v>-11.21702575683594</v>
+        <v>12.31558227539062</v>
       </c>
     </row>
     <row r="355">
@@ -6472,10 +6472,10 @@
         <v>156.709487478947</v>
       </c>
       <c r="D355" t="n">
-        <v>169.1433410644531</v>
+        <v>146.7762451171875</v>
       </c>
       <c r="E355" t="n">
-        <v>-12.43385314941406</v>
+        <v>9.933242797851562</v>
       </c>
     </row>
     <row r="356">
@@ -6489,10 +6489,10 @@
         <v>158.548685036231</v>
       </c>
       <c r="D356" t="n">
-        <v>172.061279296875</v>
+        <v>149.1501007080078</v>
       </c>
       <c r="E356" t="n">
-        <v>-13.51258850097656</v>
+        <v>9.398590087890625</v>
       </c>
     </row>
     <row r="357">
@@ -6506,10 +6506,10 @@
         <v>160.237070230666</v>
       </c>
       <c r="D357" t="n">
-        <v>174.9256896972656</v>
+        <v>152.6147155761719</v>
       </c>
       <c r="E357" t="n">
-        <v>-14.68861389160156</v>
+        <v>7.622360229492188</v>
       </c>
     </row>
     <row r="358">
@@ -6523,10 +6523,10 @@
         <v>161.811591750422</v>
       </c>
       <c r="D358" t="n">
-        <v>177.9562225341797</v>
+        <v>155.2642669677734</v>
       </c>
       <c r="E358" t="n">
-        <v>-16.14463806152344</v>
+        <v>6.547317504882812</v>
       </c>
     </row>
     <row r="359">
@@ -6540,10 +6540,10 @@
         <v>163.338650573511</v>
       </c>
       <c r="D359" t="n">
-        <v>179.2867736816406</v>
+        <v>158.8176422119141</v>
       </c>
       <c r="E359" t="n">
-        <v>-15.9481201171875</v>
+        <v>4.521011352539062</v>
       </c>
     </row>
     <row r="360">
@@ -6557,10 +6557,10 @@
         <v>164.849590048401</v>
       </c>
       <c r="D360" t="n">
-        <v>180.1480560302734</v>
+        <v>162.0464630126953</v>
       </c>
       <c r="E360" t="n">
-        <v>-15.2984619140625</v>
+        <v>2.803131103515625</v>
       </c>
     </row>
     <row r="361">
@@ -6574,10 +6574,10 @@
         <v>166.427052700397</v>
       </c>
       <c r="D361" t="n">
-        <v>180.3495788574219</v>
+        <v>165.0541076660156</v>
       </c>
       <c r="E361" t="n">
-        <v>-13.92253112792969</v>
+        <v>1.372940063476562</v>
       </c>
     </row>
     <row r="362">
@@ -6591,10 +6591,10 @@
         <v>168.19170580456</v>
       </c>
       <c r="D362" t="n">
-        <v>181.3370666503906</v>
+        <v>169.3146057128906</v>
       </c>
       <c r="E362" t="n">
-        <v>-13.14535522460938</v>
+        <v>-1.122894287109375</v>
       </c>
     </row>
     <row r="363">
@@ -6608,10 +6608,10 @@
         <v>170.246559597033</v>
       </c>
       <c r="D363" t="n">
-        <v>182.4096527099609</v>
+        <v>173.2189636230469</v>
       </c>
       <c r="E363" t="n">
-        <v>-12.1630859375</v>
+        <v>-2.972396850585938</v>
       </c>
     </row>
     <row r="364">
@@ -6625,10 +6625,10 @@
         <v>172.576103450926</v>
       </c>
       <c r="D364" t="n">
-        <v>182.86328125</v>
+        <v>177.3432922363281</v>
       </c>
       <c r="E364" t="n">
-        <v>-10.28717041015625</v>
+        <v>-4.767181396484375</v>
       </c>
     </row>
     <row r="365">
@@ -6642,10 +6642,10 @@
         <v>174.971178487314</v>
       </c>
       <c r="D365" t="n">
-        <v>184.9009704589844</v>
+        <v>181.3521118164062</v>
       </c>
       <c r="E365" t="n">
-        <v>-9.929794311523438</v>
+        <v>-6.380935668945312</v>
       </c>
     </row>
     <row r="366">
@@ -6659,10 +6659,10 @@
         <v>177.375146433468</v>
       </c>
       <c r="D366" t="n">
-        <v>186.0772705078125</v>
+        <v>184.6373901367188</v>
       </c>
       <c r="E366" t="n">
-        <v>-8.702117919921875</v>
+        <v>-7.262237548828125</v>
       </c>
     </row>
     <row r="367">
@@ -6676,10 +6676,10 @@
         <v>179.858881263736</v>
       </c>
       <c r="D367" t="n">
-        <v>188.8369140625</v>
+        <v>187.9220886230469</v>
       </c>
       <c r="E367" t="n">
-        <v>-8.97802734375</v>
+        <v>-8.063201904296875</v>
       </c>
     </row>
     <row r="368">
@@ -6693,10 +6693,10 @@
         <v>182.464506294039</v>
       </c>
       <c r="D368" t="n">
-        <v>190.3536682128906</v>
+        <v>192.2241821289062</v>
       </c>
       <c r="E368" t="n">
-        <v>-7.88916015625</v>
+        <v>-9.759674072265625</v>
       </c>
     </row>
     <row r="369">
@@ -6710,10 +6710,10 @@
         <v>185.147280514462</v>
       </c>
       <c r="D369" t="n">
-        <v>193.1426849365234</v>
+        <v>195.9365386962891</v>
       </c>
       <c r="E369" t="n">
-        <v>-7.995407104492188</v>
+        <v>-10.78926086425781</v>
       </c>
     </row>
     <row r="370">
@@ -6727,10 +6727,10 @@
         <v>187.867710881684</v>
       </c>
       <c r="D370" t="n">
-        <v>195.9358978271484</v>
+        <v>201.3726959228516</v>
       </c>
       <c r="E370" t="n">
-        <v>-8.068191528320312</v>
+        <v>-13.50498962402344</v>
       </c>
     </row>
     <row r="371">
@@ -6744,10 +6744,10 @@
         <v>190.529453689742</v>
       </c>
       <c r="D371" t="n">
-        <v>197.6015319824219</v>
+        <v>204.1328430175781</v>
       </c>
       <c r="E371" t="n">
-        <v>-7.07208251953125</v>
+        <v>-13.6033935546875</v>
       </c>
     </row>
     <row r="372">
@@ -6761,10 +6761,10 @@
         <v>192.97133606788</v>
       </c>
       <c r="D372" t="n">
-        <v>200.5149841308594</v>
+        <v>206.3538970947266</v>
       </c>
       <c r="E372" t="n">
-        <v>-7.543655395507812</v>
+        <v>-13.382568359375</v>
       </c>
     </row>
     <row r="373">
@@ -6778,10 +6778,10 @@
         <v>195.209334210565</v>
       </c>
       <c r="D373" t="n">
-        <v>202.1541595458984</v>
+        <v>207.4044189453125</v>
       </c>
       <c r="E373" t="n">
-        <v>-6.94482421875</v>
+        <v>-12.19508361816406</v>
       </c>
     </row>
     <row r="374">
@@ -6795,10 +6795,10 @@
         <v>197.444883026885</v>
       </c>
       <c r="D374" t="n">
-        <v>205.3246765136719</v>
+        <v>210.0997924804688</v>
       </c>
       <c r="E374" t="n">
-        <v>-7.879791259765625</v>
+        <v>-12.6549072265625</v>
       </c>
     </row>
     <row r="375">
@@ -6812,10 +6812,10 @@
         <v>199.775071481034</v>
       </c>
       <c r="D375" t="n">
-        <v>208.3259887695312</v>
+        <v>211.2552642822266</v>
       </c>
       <c r="E375" t="n">
-        <v>-8.550918579101562</v>
+        <v>-11.48019409179688</v>
       </c>
     </row>
     <row r="376">
@@ -6829,10 +6829,10 @@
         <v>202.332528344675</v>
       </c>
       <c r="D376" t="n">
-        <v>210.3789978027344</v>
+        <v>212.4123992919922</v>
       </c>
       <c r="E376" t="n">
-        <v>-8.046463012695312</v>
+        <v>-10.07986450195312</v>
       </c>
     </row>
     <row r="377">
@@ -6846,10 +6846,10 @@
         <v>205.23764690517</v>
       </c>
       <c r="D377" t="n">
-        <v>213.9614562988281</v>
+        <v>216.2115325927734</v>
       </c>
       <c r="E377" t="n">
-        <v>-8.72381591796875</v>
+        <v>-10.97389221191406</v>
       </c>
     </row>
     <row r="378">
@@ -6863,10 +6863,10 @@
         <v>208.200976952977</v>
       </c>
       <c r="D378" t="n">
-        <v>216.0778961181641</v>
+        <v>217.9723663330078</v>
       </c>
       <c r="E378" t="n">
-        <v>-7.876922607421875</v>
+        <v>-9.771392822265625</v>
       </c>
     </row>
     <row r="379">
@@ -6880,10 +6880,10 @@
         <v>211.052748902003</v>
       </c>
       <c r="D379" t="n">
-        <v>219.2346038818359</v>
+        <v>219.1843872070312</v>
       </c>
       <c r="E379" t="n">
-        <v>-8.181854248046875</v>
+        <v>-8.131637573242188</v>
       </c>
     </row>
     <row r="380">
@@ -6897,10 +6897,10 @@
         <v>214.055167841515</v>
       </c>
       <c r="D380" t="n">
-        <v>222.9992065429688</v>
+        <v>223.7415466308594</v>
       </c>
       <c r="E380" t="n">
-        <v>-8.944046020507812</v>
+        <v>-9.686386108398438</v>
       </c>
     </row>
     <row r="381">
@@ -6914,10 +6914,10 @@
         <v>217.250777318866</v>
       </c>
       <c r="D381" t="n">
-        <v>226.7309875488281</v>
+        <v>228.5197143554688</v>
       </c>
       <c r="E381" t="n">
-        <v>-9.480209350585938</v>
+        <v>-11.26893615722656</v>
       </c>
     </row>
     <row r="382">
@@ -6931,10 +6931,10 @@
         <v>220.518750744196</v>
       </c>
       <c r="D382" t="n">
-        <v>228.7285461425781</v>
+        <v>229.0609436035156</v>
       </c>
       <c r="E382" t="n">
-        <v>-8.209793090820312</v>
+        <v>-8.542190551757812</v>
       </c>
     </row>
     <row r="383">
@@ -6948,10 +6948,10 @@
         <v>223.63276890565</v>
       </c>
       <c r="D383" t="n">
-        <v>232.2948608398438</v>
+        <v>232.0569763183594</v>
       </c>
       <c r="E383" t="n">
-        <v>-8.662094116210938</v>
+        <v>-8.424209594726562</v>
       </c>
     </row>
     <row r="384">
@@ -6965,10 +6965,10 @@
         <v>226.670972013567</v>
       </c>
       <c r="D384" t="n">
-        <v>235.9184265136719</v>
+        <v>235.4717102050781</v>
       </c>
       <c r="E384" t="n">
-        <v>-9.247451782226562</v>
+        <v>-8.800735473632812</v>
       </c>
     </row>
     <row r="385">
@@ -6982,10 +6982,10 @@
         <v>229.875627194916</v>
       </c>
       <c r="D385" t="n">
-        <v>239.1479797363281</v>
+        <v>236.3622589111328</v>
       </c>
       <c r="E385" t="n">
-        <v>-9.272354125976562</v>
+        <v>-6.48663330078125</v>
       </c>
     </row>
     <row r="386">
@@ -6999,10 +6999,10 @@
         <v>233.373616234044</v>
       </c>
       <c r="D386" t="n">
-        <v>241.3506164550781</v>
+        <v>237.513671875</v>
       </c>
       <c r="E386" t="n">
-        <v>-7.977005004882812</v>
+        <v>-4.140060424804688</v>
       </c>
     </row>
     <row r="387">
@@ -7016,10 +7016,10 @@
         <v>236.901421973349</v>
       </c>
       <c r="D387" t="n">
-        <v>245.0140075683594</v>
+        <v>240.6584625244141</v>
       </c>
       <c r="E387" t="n">
-        <v>-8.112579345703125</v>
+        <v>-3.757034301757812</v>
       </c>
     </row>
     <row r="388">
@@ -7033,10 +7033,10 @@
         <v>240.161412640479</v>
       </c>
       <c r="D388" t="n">
-        <v>247.8403625488281</v>
+        <v>243.7402496337891</v>
       </c>
       <c r="E388" t="n">
-        <v>-7.678955078125</v>
+        <v>-3.578842163085938</v>
       </c>
     </row>
     <row r="389">
@@ -7050,10 +7050,10 @@
         <v>243.401683736821</v>
       </c>
       <c r="D389" t="n">
-        <v>249.1168823242188</v>
+        <v>246.0656127929688</v>
       </c>
       <c r="E389" t="n">
-        <v>-5.715194702148438</v>
+        <v>-2.663925170898438</v>
       </c>
     </row>
     <row r="390">
@@ -7067,10 +7067,10 @@
         <v>246.938277682144</v>
       </c>
       <c r="D390" t="n">
-        <v>251.6720886230469</v>
+        <v>248.1934204101562</v>
       </c>
       <c r="E390" t="n">
-        <v>-4.733810424804688</v>
+        <v>-1.255142211914062</v>
       </c>
     </row>
     <row r="391">
@@ -7084,10 +7084,10 @@
         <v>250.525819756845</v>
       </c>
       <c r="D391" t="n">
-        <v>254.3667602539062</v>
+        <v>250.6262817382812</v>
       </c>
       <c r="E391" t="n">
-        <v>-3.8409423828125</v>
+        <v>-0.1004638671875</v>
       </c>
     </row>
     <row r="392">
@@ -7101,10 +7101,10 @@
         <v>253.984006687524</v>
       </c>
       <c r="D392" t="n">
-        <v>256.8827514648438</v>
+        <v>253.1466979980469</v>
       </c>
       <c r="E392" t="n">
-        <v>-2.89874267578125</v>
+        <v>0.837310791015625</v>
       </c>
     </row>
     <row r="393">
@@ -7118,10 +7118,10 @@
         <v>257.359809696787</v>
       </c>
       <c r="D393" t="n">
-        <v>258.3316650390625</v>
+        <v>252.0310516357422</v>
       </c>
       <c r="E393" t="n">
-        <v>-0.97186279296875</v>
+        <v>5.328750610351562</v>
       </c>
     </row>
     <row r="394">
@@ -7135,10 +7135,10 @@
         <v>261.037438353797</v>
       </c>
       <c r="D394" t="n">
-        <v>260.9660949707031</v>
+        <v>255.1051940917969</v>
       </c>
       <c r="E394" t="n">
-        <v>0.07135009765625</v>
+        <v>5.9322509765625</v>
       </c>
     </row>
     <row r="395">
@@ -7152,10 +7152,10 @@
         <v>265.206865607514</v>
       </c>
       <c r="D395" t="n">
-        <v>263.5543212890625</v>
+        <v>258.0287780761719</v>
       </c>
       <c r="E395" t="n">
-        <v>1.652557373046875</v>
+        <v>7.1781005859375</v>
       </c>
     </row>
     <row r="396">
@@ -7169,10 +7169,10 @@
         <v>269.642912311836</v>
       </c>
       <c r="D396" t="n">
-        <v>265.9950866699219</v>
+        <v>265.7047119140625</v>
       </c>
       <c r="E396" t="n">
-        <v>3.6478271484375</v>
+        <v>3.938201904296875</v>
       </c>
     </row>
     <row r="397">
@@ -7186,10 +7186,10 @@
         <v>273.983317806087</v>
       </c>
       <c r="D397" t="n">
-        <v>268.5779724121094</v>
+        <v>264.6421813964844</v>
       </c>
       <c r="E397" t="n">
-        <v>5.40533447265625</v>
+        <v>9.34112548828125</v>
       </c>
     </row>
     <row r="398">
@@ -7203,10 +7203,10 @@
         <v>278.072404935537</v>
       </c>
       <c r="D398" t="n">
-        <v>271.0491943359375</v>
+        <v>269.9502868652344</v>
       </c>
       <c r="E398" t="n">
-        <v>7.023223876953125</v>
+        <v>8.12213134765625</v>
       </c>
     </row>
     <row r="399">
@@ -7220,10 +7220,10 @@
         <v>281.993144500693</v>
       </c>
       <c r="D399" t="n">
-        <v>273.6488342285156</v>
+        <v>274.0877685546875</v>
       </c>
       <c r="E399" t="n">
-        <v>8.34429931640625</v>
+        <v>7.905364990234375</v>
       </c>
     </row>
     <row r="400">
@@ -7237,10 +7237,10 @@
         <v>285.740001021874</v>
       </c>
       <c r="D400" t="n">
-        <v>276.1241149902344</v>
+        <v>280.9712219238281</v>
       </c>
       <c r="E400" t="n">
-        <v>9.615875244140625</v>
+        <v>4.768768310546875</v>
       </c>
     </row>
     <row r="401">
@@ -7254,10 +7254,10 @@
         <v>289.555799094195</v>
       </c>
       <c r="D401" t="n">
-        <v>277.8577880859375</v>
+        <v>278.3825378417969</v>
       </c>
       <c r="E401" t="n">
-        <v>11.697998046875</v>
+        <v>11.17324829101562</v>
       </c>
     </row>
     <row r="402">
@@ -7271,10 +7271,10 @@
         <v>293.476749097268</v>
       </c>
       <c r="D402" t="n">
-        <v>280.3014526367188</v>
+        <v>285.1154174804688</v>
       </c>
       <c r="E402" t="n">
-        <v>13.17529296875</v>
+        <v>8.361328125</v>
       </c>
     </row>
     <row r="403">
@@ -7288,10 +7288,10 @@
         <v>298.042958782342</v>
       </c>
       <c r="D403" t="n">
-        <v>283.0110168457031</v>
+        <v>287.0190734863281</v>
       </c>
       <c r="E403" t="n">
-        <v>15.03195190429688</v>
+        <v>11.02389526367188</v>
       </c>
     </row>
     <row r="404">
@@ -7305,10 +7305,10 @@
         <v>302.969164957931</v>
       </c>
       <c r="D404" t="n">
-        <v>286.8538208007812</v>
+        <v>290.1250610351562</v>
       </c>
       <c r="E404" t="n">
-        <v>16.1153564453125</v>
+        <v>12.8441162109375</v>
       </c>
     </row>
     <row r="405">
@@ -7322,10 +7322,10 @@
         <v>45.47141312754299</v>
       </c>
       <c r="D405" t="n">
-        <v>30.24407958984375</v>
+        <v>51.07260131835938</v>
       </c>
       <c r="E405" t="n">
-        <v>15.22733306884766</v>
+        <v>-5.601188659667969</v>
       </c>
     </row>
     <row r="406">
@@ -7339,10 +7339,10 @@
         <v>47.2757564894583</v>
       </c>
       <c r="D406" t="n">
-        <v>29.5745849609375</v>
+        <v>49.52615356445312</v>
       </c>
       <c r="E406" t="n">
-        <v>17.701171875</v>
+        <v>-2.250396728515625</v>
       </c>
     </row>
     <row r="407">
@@ -7356,10 +7356,10 @@
         <v>48.9381237530572</v>
       </c>
       <c r="D407" t="n">
-        <v>30.87533569335938</v>
+        <v>49.60440063476562</v>
       </c>
       <c r="E407" t="n">
-        <v>18.06278991699219</v>
+        <v>-0.6662750244140625</v>
       </c>
     </row>
     <row r="408">
@@ -7373,10 +7373,10 @@
         <v>50.4663419775198</v>
       </c>
       <c r="D408" t="n">
-        <v>32.99655151367188</v>
+        <v>50.19772338867188</v>
       </c>
       <c r="E408" t="n">
-        <v>17.46979141235352</v>
+        <v>0.2686195373535156</v>
       </c>
     </row>
     <row r="409">
@@ -7390,10 +7390,10 @@
         <v>51.8671681207707</v>
       </c>
       <c r="D409" t="n">
-        <v>36.22384643554688</v>
+        <v>51.54876708984375</v>
       </c>
       <c r="E409" t="n">
-        <v>15.6433219909668</v>
+        <v>0.3184013366699219</v>
       </c>
     </row>
     <row r="410">
@@ -7407,10 +7407,10 @@
         <v>53.14567869490369</v>
       </c>
       <c r="D410" t="n">
-        <v>38.52896118164062</v>
+        <v>52.15103149414062</v>
       </c>
       <c r="E410" t="n">
-        <v>14.61671829223633</v>
+        <v>0.9946479797363281</v>
       </c>
     </row>
     <row r="411">
@@ -7424,10 +7424,10 @@
         <v>54.3044923307604</v>
       </c>
       <c r="D411" t="n">
-        <v>41.67965698242188</v>
+        <v>53.45407104492188</v>
       </c>
       <c r="E411" t="n">
-        <v>12.62483596801758</v>
+        <v>0.8504219055175781</v>
       </c>
     </row>
     <row r="412">
@@ -7441,10 +7441,10 @@
         <v>55.3429805742123</v>
       </c>
       <c r="D412" t="n">
-        <v>44.93328857421875</v>
+        <v>54.74826049804688</v>
       </c>
       <c r="E412" t="n">
-        <v>10.40969085693359</v>
+        <v>0.5947189331054688</v>
       </c>
     </row>
     <row r="413">
@@ -7458,10 +7458,10 @@
         <v>56.25621193736519</v>
       </c>
       <c r="D413" t="n">
-        <v>48.04489135742188</v>
+        <v>56.147705078125</v>
       </c>
       <c r="E413" t="n">
-        <v>8.211318969726562</v>
+        <v>0.1085052490234375</v>
       </c>
     </row>
     <row r="414">
@@ -7475,10 +7475,10 @@
         <v>57.0340080837309</v>
       </c>
       <c r="D414" t="n">
-        <v>49.939453125</v>
+        <v>56.79052734375</v>
       </c>
       <c r="E414" t="n">
-        <v>7.094554901123047</v>
+        <v>0.2434806823730469</v>
       </c>
     </row>
     <row r="415">
@@ -7492,10 +7492,10 @@
         <v>57.6585651402109</v>
       </c>
       <c r="D415" t="n">
-        <v>52.8939208984375</v>
+        <v>58.22616577148438</v>
       </c>
       <c r="E415" t="n">
-        <v>4.764644622802734</v>
+        <v>-0.5676002502441406</v>
       </c>
     </row>
     <row r="416">
@@ -7509,10 +7509,10 @@
         <v>58.10219884868179</v>
       </c>
       <c r="D416" t="n">
-        <v>54.91500854492188</v>
+        <v>58.87875366210938</v>
       </c>
       <c r="E416" t="n">
-        <v>3.187191009521484</v>
+        <v>-0.7765541076660156</v>
       </c>
     </row>
     <row r="417">
@@ -7526,10 +7526,10 @@
         <v>58.34863514554451</v>
       </c>
       <c r="D417" t="n">
-        <v>57.95584106445312</v>
+        <v>60.22616577148438</v>
       </c>
       <c r="E417" t="n">
-        <v>0.3927955627441406</v>
+        <v>-1.877529144287109</v>
       </c>
     </row>
     <row r="418">
@@ -7543,10 +7543,10 @@
         <v>58.54915787945701</v>
       </c>
       <c r="D418" t="n">
-        <v>60.0987548828125</v>
+        <v>60.87298583984375</v>
       </c>
       <c r="E418" t="n">
-        <v>-1.549598693847656</v>
+        <v>-2.323829650878906</v>
       </c>
     </row>
     <row r="419">
@@ -7560,10 +7560,10 @@
         <v>59.0931575032202</v>
       </c>
       <c r="D419" t="n">
-        <v>63.01736450195312</v>
+        <v>62.08877563476562</v>
       </c>
       <c r="E419" t="n">
-        <v>-3.924205780029297</v>
+        <v>-2.995616912841797</v>
       </c>
     </row>
     <row r="420">
@@ -7577,10 +7577,10 @@
         <v>59.7652291418029</v>
       </c>
       <c r="D420" t="n">
-        <v>65.03042602539062</v>
+        <v>62.64047241210938</v>
       </c>
       <c r="E420" t="n">
-        <v>-5.26519775390625</v>
+        <v>-2.875244140625</v>
       </c>
     </row>
     <row r="421">
@@ -7594,10 +7594,10 @@
         <v>60.5382173049993</v>
       </c>
       <c r="D421" t="n">
-        <v>66.90472412109375</v>
+        <v>63.14602661132812</v>
       </c>
       <c r="E421" t="n">
-        <v>-6.366508483886719</v>
+        <v>-2.607810974121094</v>
       </c>
     </row>
     <row r="422">
@@ -7611,10 +7611,10 @@
         <v>61.39270729554161</v>
       </c>
       <c r="D422" t="n">
-        <v>68.9229736328125</v>
+        <v>63.73388671875</v>
       </c>
       <c r="E422" t="n">
-        <v>-7.530265808105469</v>
+        <v>-2.341178894042969</v>
       </c>
     </row>
     <row r="423">
@@ -7628,10 +7628,10 @@
         <v>62.3183859029073</v>
       </c>
       <c r="D423" t="n">
-        <v>71.05770874023438</v>
+        <v>64.34243774414062</v>
       </c>
       <c r="E423" t="n">
-        <v>-8.739322662353516</v>
+        <v>-2.024051666259766</v>
       </c>
     </row>
     <row r="424">
@@ -7645,10 +7645,10 @@
         <v>63.3217893221117</v>
       </c>
       <c r="D424" t="n">
-        <v>71.62124633789062</v>
+        <v>65.1236572265625</v>
       </c>
       <c r="E424" t="n">
-        <v>-8.299457550048828</v>
+        <v>-1.801868438720703</v>
       </c>
     </row>
     <row r="425">
@@ -7662,10 +7662,10 @@
         <v>64.42003431961611</v>
       </c>
       <c r="D425" t="n">
-        <v>72.73223876953125</v>
+        <v>66.44174194335938</v>
       </c>
       <c r="E425" t="n">
-        <v>-8.312202453613281</v>
+        <v>-2.021705627441406</v>
       </c>
     </row>
     <row r="426">
@@ -7679,10 +7679,10 @@
         <v>65.60470672600461</v>
       </c>
       <c r="D426" t="n">
-        <v>72.87814331054688</v>
+        <v>67.0443115234375</v>
       </c>
       <c r="E426" t="n">
-        <v>-7.2734375</v>
+        <v>-1.439605712890625</v>
       </c>
     </row>
     <row r="427">
@@ -7696,10 +7696,10 @@
         <v>66.830061505426</v>
       </c>
       <c r="D427" t="n">
-        <v>73.93963623046875</v>
+        <v>68.4876708984375</v>
       </c>
       <c r="E427" t="n">
-        <v>-7.109573364257812</v>
+        <v>-1.657608032226562</v>
       </c>
     </row>
     <row r="428">
@@ -7713,10 +7713,10 @@
         <v>68.0331607182851</v>
       </c>
       <c r="D428" t="n">
-        <v>74.984375</v>
+        <v>69.91552734375</v>
       </c>
       <c r="E428" t="n">
-        <v>-6.951217651367188</v>
+        <v>-1.882369995117188</v>
       </c>
     </row>
     <row r="429">
@@ -7730,10 +7730,10 @@
         <v>69.1681923281255</v>
       </c>
       <c r="D429" t="n">
-        <v>75.04641723632812</v>
+        <v>70.71768188476562</v>
       </c>
       <c r="E429" t="n">
-        <v>-5.878227233886719</v>
+        <v>-1.549491882324219</v>
       </c>
     </row>
     <row r="430">
@@ -7747,10 +7747,10 @@
         <v>70.2265695377437</v>
       </c>
       <c r="D430" t="n">
-        <v>76.11923217773438</v>
+        <v>72.1248779296875</v>
       </c>
       <c r="E430" t="n">
-        <v>-5.892662048339844</v>
+        <v>-1.898307800292969</v>
       </c>
     </row>
     <row r="431">
@@ -7764,10 +7764,10 @@
         <v>71.2204876775977</v>
       </c>
       <c r="D431" t="n">
-        <v>77.27133178710938</v>
+        <v>73.57229614257812</v>
       </c>
       <c r="E431" t="n">
-        <v>-6.05084228515625</v>
+        <v>-2.351806640625</v>
       </c>
     </row>
     <row r="432">
@@ -7781,10 +7781,10 @@
         <v>72.19928398213349</v>
       </c>
       <c r="D432" t="n">
-        <v>77.72647094726562</v>
+        <v>74.35009765625</v>
       </c>
       <c r="E432" t="n">
-        <v>-5.527183532714844</v>
+        <v>-2.150810241699219</v>
       </c>
     </row>
     <row r="433">
@@ -7798,10 +7798,10 @@
         <v>73.2080034278067</v>
       </c>
       <c r="D433" t="n">
-        <v>77.97235107421875</v>
+        <v>75.04595947265625</v>
       </c>
       <c r="E433" t="n">
-        <v>-4.764350891113281</v>
+        <v>-1.837959289550781</v>
       </c>
     </row>
     <row r="434">
@@ -7815,10 +7815,10 @@
         <v>74.25251173110971</v>
       </c>
       <c r="D434" t="n">
-        <v>78.16452026367188</v>
+        <v>75.6527099609375</v>
       </c>
       <c r="E434" t="n">
-        <v>-3.912010192871094</v>
+        <v>-1.400199890136719</v>
       </c>
     </row>
     <row r="435">
@@ -7832,10 +7832,10 @@
         <v>75.33334606563081</v>
       </c>
       <c r="D435" t="n">
-        <v>77.93292236328125</v>
+        <v>76.09243774414062</v>
       </c>
       <c r="E435" t="n">
-        <v>-2.599578857421875</v>
+        <v>-0.75909423828125</v>
       </c>
     </row>
     <row r="436">
@@ -7849,10 +7849,10 @@
         <v>76.46166200894339</v>
       </c>
       <c r="D436" t="n">
-        <v>78.04156494140625</v>
+        <v>76.7518310546875</v>
       </c>
       <c r="E436" t="n">
-        <v>-1.579902648925781</v>
+        <v>-0.2901687622070312</v>
       </c>
     </row>
     <row r="437">
@@ -7866,10 +7866,10 @@
         <v>77.6425083740052</v>
       </c>
       <c r="D437" t="n">
-        <v>78.15066528320312</v>
+        <v>77.55099487304688</v>
       </c>
       <c r="E437" t="n">
-        <v>-0.5081558227539062</v>
+        <v>0.09151458740234375</v>
       </c>
     </row>
     <row r="438">
@@ -7883,10 +7883,10 @@
         <v>78.86260087967671</v>
       </c>
       <c r="D438" t="n">
-        <v>77.443603515625</v>
+        <v>77.67681884765625</v>
       </c>
       <c r="E438" t="n">
-        <v>1.418998718261719</v>
+        <v>1.185783386230469</v>
       </c>
     </row>
     <row r="439">
@@ -7900,10 +7900,10 @@
         <v>80.0662435476918</v>
       </c>
       <c r="D439" t="n">
-        <v>77.38616943359375</v>
+        <v>78.27105712890625</v>
       </c>
       <c r="E439" t="n">
-        <v>2.680076599121094</v>
+        <v>1.795188903808594</v>
       </c>
     </row>
     <row r="440">
@@ -7917,10 +7917,10 @@
         <v>81.2096965077735</v>
       </c>
       <c r="D440" t="n">
-        <v>77.50653076171875</v>
+        <v>78.89190673828125</v>
       </c>
       <c r="E440" t="n">
-        <v>3.703163146972656</v>
+        <v>2.317787170410156</v>
       </c>
     </row>
     <row r="441">
@@ -7934,10 +7934,10 @@
         <v>82.27958203919809</v>
       </c>
       <c r="D441" t="n">
-        <v>77.65963745117188</v>
+        <v>79.6192626953125</v>
       </c>
       <c r="E441" t="n">
-        <v>4.619941711425781</v>
+        <v>2.660316467285156</v>
       </c>
     </row>
     <row r="442">
@@ -7951,10 +7951,10 @@
         <v>83.29050188618669</v>
       </c>
       <c r="D442" t="n">
-        <v>77.44256591796875</v>
+        <v>80.075927734375</v>
       </c>
       <c r="E442" t="n">
-        <v>5.847938537597656</v>
+        <v>3.214576721191406</v>
       </c>
     </row>
     <row r="443">
@@ -7968,10 +7968,10 @@
         <v>84.2813121483907</v>
       </c>
       <c r="D443" t="n">
-        <v>77.4503173828125</v>
+        <v>80.75164794921875</v>
       </c>
       <c r="E443" t="n">
-        <v>6.83099365234375</v>
+        <v>3.5296630859375</v>
       </c>
     </row>
     <row r="444">
@@ -7985,10 +7985,10 @@
         <v>85.3030762402106</v>
       </c>
       <c r="D444" t="n">
-        <v>77.59274291992188</v>
+        <v>81.50555419921875</v>
       </c>
       <c r="E444" t="n">
-        <v>7.710334777832031</v>
+        <v>3.797523498535156</v>
       </c>
     </row>
     <row r="445">
@@ -8002,10 +8002,10 @@
         <v>86.3875496121448</v>
       </c>
       <c r="D445" t="n">
-        <v>77.70831298828125</v>
+        <v>82.31875610351562</v>
       </c>
       <c r="E445" t="n">
-        <v>8.679237365722656</v>
+        <v>4.068794250488281</v>
       </c>
     </row>
     <row r="446">
@@ -8019,10 +8019,10 @@
         <v>87.53201901701449</v>
       </c>
       <c r="D446" t="n">
-        <v>77.86083984375</v>
+        <v>83.02645874023438</v>
       </c>
       <c r="E446" t="n">
-        <v>9.671180725097656</v>
+        <v>4.505561828613281</v>
       </c>
     </row>
     <row r="447">
@@ -8036,10 +8036,10 @@
         <v>88.72459856271981</v>
       </c>
       <c r="D447" t="n">
-        <v>79.2293701171875</v>
+        <v>84.72128295898438</v>
       </c>
       <c r="E447" t="n">
-        <v>9.495231628417969</v>
+        <v>4.003318786621094</v>
       </c>
     </row>
     <row r="448">
@@ -8053,10 +8053,10 @@
         <v>89.9350183243147</v>
       </c>
       <c r="D448" t="n">
-        <v>80.81289672851562</v>
+        <v>85.85064697265625</v>
       </c>
       <c r="E448" t="n">
-        <v>9.122123718261719</v>
+        <v>4.084373474121094</v>
       </c>
     </row>
     <row r="449">
@@ -8070,10 +8070,10 @@
         <v>91.17148570577081</v>
       </c>
       <c r="D449" t="n">
-        <v>81.67312622070312</v>
+        <v>86.759033203125</v>
       </c>
       <c r="E449" t="n">
-        <v>9.498359680175781</v>
+        <v>4.412452697753906</v>
       </c>
     </row>
     <row r="450">
@@ -8087,10 +8087,10 @@
         <v>92.40370506791639</v>
       </c>
       <c r="D450" t="n">
-        <v>83.42037963867188</v>
+        <v>88.05142211914062</v>
       </c>
       <c r="E450" t="n">
-        <v>8.983322143554688</v>
+        <v>4.352279663085938</v>
       </c>
     </row>
     <row r="451">
@@ -8104,10 +8104,10 @@
         <v>93.5831221633926</v>
       </c>
       <c r="D451" t="n">
-        <v>84.07501220703125</v>
+        <v>88.70730590820312</v>
       </c>
       <c r="E451" t="n">
-        <v>9.508110046386719</v>
+        <v>4.875816345214844</v>
       </c>
     </row>
     <row r="452">
@@ -8121,10 +8121,10 @@
         <v>94.69783036963079</v>
       </c>
       <c r="D452" t="n">
-        <v>85.56497192382812</v>
+        <v>89.70703125</v>
       </c>
       <c r="E452" t="n">
-        <v>9.132858276367188</v>
+        <v>4.990798950195312</v>
       </c>
     </row>
     <row r="453">
@@ -8138,10 +8138,10 @@
         <v>95.773090355503</v>
       </c>
       <c r="D453" t="n">
-        <v>88.48898315429688</v>
+        <v>91.7540283203125</v>
       </c>
       <c r="E453" t="n">
-        <v>7.284103393554688</v>
+        <v>4.019058227539062</v>
       </c>
     </row>
     <row r="454">
@@ -8155,10 +8155,10 @@
         <v>96.84132102908059</v>
       </c>
       <c r="D454" t="n">
-        <v>89.01138305664062</v>
+        <v>92.29940795898438</v>
       </c>
       <c r="E454" t="n">
-        <v>7.829940795898438</v>
+        <v>4.541915893554688</v>
       </c>
     </row>
     <row r="455">
@@ -8172,10 +8172,10 @@
         <v>97.9501686382833</v>
       </c>
       <c r="D455" t="n">
-        <v>91.16360473632812</v>
+        <v>94.14486694335938</v>
       </c>
       <c r="E455" t="n">
-        <v>6.786567687988281</v>
+        <v>3.805305480957031</v>
       </c>
     </row>
     <row r="456">
@@ -8189,10 +8189,10 @@
         <v>99.11614037361251</v>
       </c>
       <c r="D456" t="n">
-        <v>92.1585693359375</v>
+        <v>95.23695373535156</v>
       </c>
       <c r="E456" t="n">
-        <v>6.957572937011719</v>
+        <v>3.879188537597656</v>
       </c>
     </row>
     <row r="457">
@@ -8206,10 +8206,10 @@
         <v>100.338427885202</v>
       </c>
       <c r="D457" t="n">
-        <v>94.33470153808594</v>
+        <v>97.01986694335938</v>
       </c>
       <c r="E457" t="n">
-        <v>6.00372314453125</v>
+        <v>3.318557739257812</v>
       </c>
     </row>
     <row r="458">
@@ -8223,10 +8223,10 @@
         <v>101.618469716582</v>
       </c>
       <c r="D458" t="n">
-        <v>96.10565185546875</v>
+        <v>98.36225891113281</v>
       </c>
       <c r="E458" t="n">
-        <v>5.5128173828125</v>
+        <v>3.256210327148438</v>
       </c>
     </row>
     <row r="459">
@@ -8240,10 +8240,10 @@
         <v>102.950829996277</v>
       </c>
       <c r="D459" t="n">
-        <v>97.49130249023438</v>
+        <v>99.2579345703125</v>
       </c>
       <c r="E459" t="n">
-        <v>5.459526062011719</v>
+        <v>3.692893981933594</v>
       </c>
     </row>
     <row r="460">
@@ -8257,10 +8257,10 @@
         <v>104.292987580663</v>
       </c>
       <c r="D460" t="n">
-        <v>97.76837158203125</v>
+        <v>99.39918518066406</v>
       </c>
       <c r="E460" t="n">
-        <v>6.524612426757812</v>
+        <v>4.893798828125</v>
       </c>
     </row>
     <row r="461">
@@ -8274,10 +8274,10 @@
         <v>105.618037137215</v>
       </c>
       <c r="D461" t="n">
-        <v>99.2178955078125</v>
+        <v>100.3039398193359</v>
       </c>
       <c r="E461" t="n">
-        <v>6.400138854980469</v>
+        <v>5.314094543457031</v>
       </c>
     </row>
     <row r="462">
@@ -8291,10 +8291,10 @@
         <v>106.927228675612</v>
       </c>
       <c r="D462" t="n">
-        <v>100.8267822265625</v>
+        <v>101.4577026367188</v>
       </c>
       <c r="E462" t="n">
-        <v>6.100448608398438</v>
+        <v>5.469528198242188</v>
       </c>
     </row>
     <row r="463">
@@ -8308,10 +8308,10 @@
         <v>108.23064173082</v>
       </c>
       <c r="D463" t="n">
-        <v>102.7471313476562</v>
+        <v>102.9940795898438</v>
       </c>
       <c r="E463" t="n">
-        <v>5.483512878417969</v>
+        <v>5.236564636230469</v>
       </c>
     </row>
     <row r="464">
@@ -8325,10 +8325,10 @@
         <v>109.559054324185</v>
       </c>
       <c r="D464" t="n">
-        <v>104.9253540039062</v>
+        <v>104.7715301513672</v>
       </c>
       <c r="E464" t="n">
-        <v>4.633697509765625</v>
+        <v>4.787521362304688</v>
       </c>
     </row>
     <row r="465">
@@ -8342,10 +8342,10 @@
         <v>110.950571576039</v>
       </c>
       <c r="D465" t="n">
-        <v>107.0468597412109</v>
+        <v>106.5537567138672</v>
       </c>
       <c r="E465" t="n">
-        <v>3.903709411621094</v>
+        <v>4.396812438964844</v>
       </c>
     </row>
     <row r="466">
@@ -8359,10 +8359,10 @@
         <v>112.457434780862</v>
       </c>
       <c r="D466" t="n">
-        <v>109.5113220214844</v>
+        <v>108.6649627685547</v>
       </c>
       <c r="E466" t="n">
-        <v>2.946113586425781</v>
+        <v>3.792472839355469</v>
       </c>
     </row>
     <row r="467">
@@ -8376,10 +8376,10 @@
         <v>114.058617507951</v>
       </c>
       <c r="D467" t="n">
-        <v>112.0174102783203</v>
+        <v>110.8589782714844</v>
       </c>
       <c r="E467" t="n">
-        <v>2.041206359863281</v>
+        <v>3.199638366699219</v>
       </c>
     </row>
     <row r="468">
@@ -8393,10 +8393,10 @@
         <v>115.705064738273</v>
       </c>
       <c r="D468" t="n">
-        <v>114.3161773681641</v>
+        <v>112.8606262207031</v>
       </c>
       <c r="E468" t="n">
-        <v>1.388885498046875</v>
+        <v>2.844436645507812</v>
       </c>
     </row>
     <row r="469">
@@ -8410,10 +8410,10 @@
         <v>117.36333203</v>
       </c>
       <c r="D469" t="n">
-        <v>116.4810638427734</v>
+        <v>114.6819915771484</v>
       </c>
       <c r="E469" t="n">
-        <v>0.8822708129882812</v>
+        <v>2.681343078613281</v>
       </c>
     </row>
     <row r="470">
@@ -8427,10 +8427,10 @@
         <v>119.037871021201</v>
       </c>
       <c r="D470" t="n">
-        <v>118.2300109863281</v>
+        <v>116.0399322509766</v>
       </c>
       <c r="E470" t="n">
-        <v>0.807861328125</v>
+        <v>2.997940063476562</v>
       </c>
     </row>
     <row r="471">
@@ -8444,10 +8444,10 @@
         <v>120.729323233116</v>
       </c>
       <c r="D471" t="n">
-        <v>119.8861083984375</v>
+        <v>118.0677490234375</v>
       </c>
       <c r="E471" t="n">
-        <v>0.8432159423828125</v>
+        <v>2.661575317382812</v>
       </c>
     </row>
     <row r="472">
@@ -8461,10 +8461,10 @@
         <v>122.425141425812</v>
       </c>
       <c r="D472" t="n">
-        <v>121.7650146484375</v>
+        <v>120.2567901611328</v>
       </c>
       <c r="E472" t="n">
-        <v>0.660125732421875</v>
+        <v>2.168350219726562</v>
       </c>
     </row>
     <row r="473">
@@ -8478,10 +8478,10 @@
         <v>124.127474832464</v>
       </c>
       <c r="D473" t="n">
-        <v>123.9416046142578</v>
+        <v>122.5623931884766</v>
       </c>
       <c r="E473" t="n">
-        <v>0.1858673095703125</v>
+        <v>1.565078735351562</v>
       </c>
     </row>
     <row r="474">
@@ -8495,10 +8495,10 @@
         <v>125.854142465012</v>
       </c>
       <c r="D474" t="n">
-        <v>126.3653869628906</v>
+        <v>124.6863098144531</v>
       </c>
       <c r="E474" t="n">
-        <v>-0.5112457275390625</v>
+        <v>1.167831420898438</v>
       </c>
     </row>
     <row r="475">
@@ -8512,10 +8512,10 @@
         <v>127.662025712345</v>
       </c>
       <c r="D475" t="n">
-        <v>128.6834564208984</v>
+        <v>126.8828430175781</v>
       </c>
       <c r="E475" t="n">
-        <v>-1.021430969238281</v>
+        <v>0.7791824340820312</v>
       </c>
     </row>
     <row r="476">
@@ -8529,10 +8529,10 @@
         <v>129.611451962231</v>
       </c>
       <c r="D476" t="n">
-        <v>132.0937194824219</v>
+        <v>130.2457275390625</v>
       </c>
       <c r="E476" t="n">
-        <v>-2.482269287109375</v>
+        <v>-0.63427734375</v>
       </c>
     </row>
     <row r="477">
@@ -8546,10 +8546,10 @@
         <v>131.703048421255</v>
       </c>
       <c r="D477" t="n">
-        <v>134.5269165039062</v>
+        <v>133.1719665527344</v>
       </c>
       <c r="E477" t="n">
-        <v>-2.823867797851562</v>
+        <v>-1.468917846679688</v>
       </c>
     </row>
     <row r="478">
@@ -8563,10 +8563,10 @@
         <v>133.879029404038</v>
       </c>
       <c r="D478" t="n">
-        <v>135.0197448730469</v>
+        <v>134.1809234619141</v>
       </c>
       <c r="E478" t="n">
-        <v>-1.140716552734375</v>
+        <v>-0.3018951416015625</v>
       </c>
     </row>
     <row r="479">
@@ -8580,10 +8580,10 @@
         <v>136.058790154797</v>
       </c>
       <c r="D479" t="n">
-        <v>137.063720703125</v>
+        <v>137.0990295410156</v>
       </c>
       <c r="E479" t="n">
-        <v>-1.004928588867188</v>
+        <v>-1.040237426757812</v>
       </c>
     </row>
     <row r="480">
@@ -8597,10 +8597,10 @@
         <v>138.220970681154</v>
       </c>
       <c r="D480" t="n">
-        <v>138.6151733398438</v>
+        <v>139.1356353759766</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.394195556640625</v>
+        <v>-0.9146575927734375</v>
       </c>
     </row>
     <row r="481">
@@ -8614,10 +8614,10 @@
         <v>140.379938162677</v>
       </c>
       <c r="D481" t="n">
-        <v>140.3346710205078</v>
+        <v>141.228515625</v>
       </c>
       <c r="E481" t="n">
-        <v>0.0452728271484375</v>
+        <v>-0.84857177734375</v>
       </c>
     </row>
     <row r="482">
@@ -8631,10 +8631,10 @@
         <v>142.508323511621</v>
       </c>
       <c r="D482" t="n">
-        <v>143.5134582519531</v>
+        <v>143.4638671875</v>
       </c>
       <c r="E482" t="n">
-        <v>-1.005142211914062</v>
+        <v>-0.9555511474609375</v>
       </c>
     </row>
     <row r="483">
@@ -8648,10 +8648,10 @@
         <v>144.526566787916</v>
       </c>
       <c r="D483" t="n">
-        <v>146.7591552734375</v>
+        <v>145.6678009033203</v>
       </c>
       <c r="E483" t="n">
-        <v>-2.232589721679688</v>
+        <v>-1.1412353515625</v>
       </c>
     </row>
     <row r="484">
@@ -8665,10 +8665,10 @@
         <v>146.363766354088</v>
       </c>
       <c r="D484" t="n">
-        <v>150.4284515380859</v>
+        <v>148.0182800292969</v>
       </c>
       <c r="E484" t="n">
-        <v>-4.064682006835938</v>
+        <v>-1.654510498046875</v>
       </c>
     </row>
     <row r="485">
@@ -8682,10 +8682,10 @@
         <v>148.04810308747</v>
       </c>
       <c r="D485" t="n">
-        <v>153.6202545166016</v>
+        <v>150.1830596923828</v>
       </c>
       <c r="E485" t="n">
-        <v>-5.572158813476562</v>
+        <v>-2.134963989257812</v>
       </c>
     </row>
     <row r="486">
@@ -8699,10 +8699,10 @@
         <v>149.636500024526</v>
       </c>
       <c r="D486" t="n">
-        <v>157.1228790283203</v>
+        <v>152.4461669921875</v>
       </c>
       <c r="E486" t="n">
-        <v>-7.486373901367188</v>
+        <v>-2.809661865234375</v>
       </c>
     </row>
     <row r="487">
@@ -8716,10 +8716,10 @@
         <v>151.193118974174</v>
       </c>
       <c r="D487" t="n">
-        <v>159.0234985351562</v>
+        <v>154.6159057617188</v>
       </c>
       <c r="E487" t="n">
-        <v>-7.83038330078125</v>
+        <v>-3.42279052734375</v>
       </c>
     </row>
     <row r="488">
@@ -8733,10 +8733,10 @@
         <v>152.769928971357</v>
       </c>
       <c r="D488" t="n">
-        <v>161.0505828857422</v>
+        <v>156.8761596679688</v>
       </c>
       <c r="E488" t="n">
-        <v>-8.280654907226562</v>
+        <v>-4.106231689453125</v>
       </c>
     </row>
     <row r="489">
@@ -8750,10 +8750,10 @@
         <v>154.406649606657</v>
       </c>
       <c r="D489" t="n">
-        <v>160.9447174072266</v>
+        <v>159.2374267578125</v>
       </c>
       <c r="E489" t="n">
-        <v>-6.538070678710938</v>
+        <v>-4.830780029296875</v>
       </c>
     </row>
     <row r="490">
@@ -8767,10 +8767,10 @@
         <v>156.106761670804</v>
       </c>
       <c r="D490" t="n">
-        <v>161.2463226318359</v>
+        <v>161.6570434570312</v>
       </c>
       <c r="E490" t="n">
-        <v>-5.139556884765625</v>
+        <v>-5.550277709960938</v>
       </c>
     </row>
     <row r="491">
@@ -8784,10 +8784,10 @@
         <v>157.863985411716</v>
       </c>
       <c r="D491" t="n">
-        <v>161.4486846923828</v>
+        <v>163.9189300537109</v>
       </c>
       <c r="E491" t="n">
-        <v>-3.584701538085938</v>
+        <v>-6.054946899414062</v>
       </c>
     </row>
     <row r="492">
@@ -8801,10 +8801,10 @@
         <v>159.722269667763</v>
       </c>
       <c r="D492" t="n">
-        <v>162.2955932617188</v>
+        <v>167.1201477050781</v>
       </c>
       <c r="E492" t="n">
-        <v>-2.573318481445312</v>
+        <v>-7.397872924804688</v>
       </c>
     </row>
     <row r="493">
@@ -8818,10 +8818,10 @@
         <v>161.767623419939</v>
       </c>
       <c r="D493" t="n">
-        <v>162.5141754150391</v>
+        <v>169.4664764404297</v>
       </c>
       <c r="E493" t="n">
-        <v>-0.746551513671875</v>
+        <v>-7.6988525390625</v>
       </c>
     </row>
     <row r="494">
@@ -8835,10 +8835,10 @@
         <v>164.016827955843</v>
       </c>
       <c r="D494" t="n">
-        <v>162.3558197021484</v>
+        <v>171.5775299072266</v>
       </c>
       <c r="E494" t="n">
-        <v>1.6610107421875</v>
+        <v>-7.560699462890625</v>
       </c>
     </row>
     <row r="495">
@@ -8852,10 +8852,10 @@
         <v>166.387513968761</v>
       </c>
       <c r="D495" t="n">
-        <v>162.2396392822266</v>
+        <v>173.66845703125</v>
       </c>
       <c r="E495" t="n">
-        <v>4.147872924804688</v>
+        <v>-7.28094482421875</v>
       </c>
     </row>
     <row r="496">
@@ -8869,10 +8869,10 @@
         <v>168.807264444714</v>
       </c>
       <c r="D496" t="n">
-        <v>163.3793792724609</v>
+        <v>175.8856201171875</v>
       </c>
       <c r="E496" t="n">
-        <v>5.427886962890625</v>
+        <v>-7.078353881835938</v>
       </c>
     </row>
     <row r="497">
@@ -8886,10 +8886,10 @@
         <v>171.242556810676</v>
       </c>
       <c r="D497" t="n">
-        <v>166.3788909912109</v>
+        <v>178.8878936767578</v>
       </c>
       <c r="E497" t="n">
-        <v>4.863662719726562</v>
+        <v>-7.645339965820312</v>
       </c>
     </row>
     <row r="498">
@@ -8903,10 +8903,10 @@
         <v>173.709108388715</v>
       </c>
       <c r="D498" t="n">
-        <v>168.5020446777344</v>
+        <v>181.0660552978516</v>
       </c>
       <c r="E498" t="n">
-        <v>5.207061767578125</v>
+        <v>-7.356948852539062</v>
       </c>
     </row>
     <row r="499">
@@ -8920,10 +8920,10 @@
         <v>176.22479882031</v>
       </c>
       <c r="D499" t="n">
-        <v>170.7629241943359</v>
+        <v>184.0401153564453</v>
       </c>
       <c r="E499" t="n">
-        <v>5.461868286132812</v>
+        <v>-7.815322875976562</v>
       </c>
     </row>
     <row r="500">
@@ -8937,10 +8937,10 @@
         <v>178.838571731788</v>
       </c>
       <c r="D500" t="n">
-        <v>172.8113861083984</v>
+        <v>185.4854431152344</v>
       </c>
       <c r="E500" t="n">
-        <v>6.027191162109375</v>
+        <v>-6.646865844726562</v>
       </c>
     </row>
     <row r="501">
@@ -8954,10 +8954,10 @@
         <v>181.582842380231</v>
       </c>
       <c r="D501" t="n">
-        <v>176.0371704101562</v>
+        <v>188.4779357910156</v>
       </c>
       <c r="E501" t="n">
-        <v>5.545669555664062</v>
+        <v>-6.895095825195312</v>
       </c>
     </row>
     <row r="502">
@@ -8971,10 +8971,10 @@
         <v>184.365159273187</v>
       </c>
       <c r="D502" t="n">
-        <v>178.4723663330078</v>
+        <v>191.0806274414062</v>
       </c>
       <c r="E502" t="n">
-        <v>5.892791748046875</v>
+        <v>-6.715469360351562</v>
       </c>
     </row>
     <row r="503">
@@ -8988,10 +8988,10 @@
         <v>187.104079113293</v>
       </c>
       <c r="D503" t="n">
-        <v>181.6237640380859</v>
+        <v>194.3670654296875</v>
       </c>
       <c r="E503" t="n">
-        <v>5.480316162109375</v>
+        <v>-7.262985229492188</v>
       </c>
     </row>
     <row r="504">
@@ -9005,10 +9005,10 @@
         <v>189.78946151721</v>
       </c>
       <c r="D504" t="n">
-        <v>183.7250518798828</v>
+        <v>195.8886871337891</v>
       </c>
       <c r="E504" t="n">
-        <v>6.064407348632812</v>
+        <v>-6.099227905273438</v>
       </c>
     </row>
     <row r="505">
@@ -9022,10 +9022,10 @@
         <v>192.358001129075</v>
       </c>
       <c r="D505" t="n">
-        <v>185.3846588134766</v>
+        <v>196.4410552978516</v>
       </c>
       <c r="E505" t="n">
-        <v>6.973342895507812</v>
+        <v>-4.083053588867188</v>
       </c>
     </row>
     <row r="506">
@@ -9039,10 +9039,10 @@
         <v>194.773081982769</v>
       </c>
       <c r="D506" t="n">
-        <v>186.548828125</v>
+        <v>196.1648712158203</v>
       </c>
       <c r="E506" t="n">
-        <v>8.224258422851562</v>
+        <v>-1.39178466796875</v>
       </c>
     </row>
     <row r="507">
@@ -9056,10 +9056,10 @@
         <v>197.060393328079</v>
       </c>
       <c r="D507" t="n">
-        <v>188.9393920898438</v>
+        <v>197.5288696289062</v>
       </c>
       <c r="E507" t="n">
-        <v>8.121002197265625</v>
+        <v>-0.468475341796875</v>
       </c>
     </row>
     <row r="508">
@@ -9073,10 +9073,10 @@
         <v>199.28399025126</v>
       </c>
       <c r="D508" t="n">
-        <v>190.9482727050781</v>
+        <v>198.9315795898438</v>
       </c>
       <c r="E508" t="n">
-        <v>8.335723876953125</v>
+        <v>0.3524169921875</v>
       </c>
     </row>
     <row r="509">
@@ -9090,10 +9090,10 @@
         <v>201.457976347494</v>
       </c>
       <c r="D509" t="n">
-        <v>195.240478515625</v>
+        <v>203.4572601318359</v>
       </c>
       <c r="E509" t="n">
-        <v>6.217498779296875</v>
+        <v>-1.999282836914062</v>
       </c>
     </row>
     <row r="510">
@@ -9107,10 +9107,10 @@
         <v>203.552499145023</v>
       </c>
       <c r="D510" t="n">
-        <v>196.8237457275391</v>
+        <v>205.7836608886719</v>
       </c>
       <c r="E510" t="n">
-        <v>6.728759765625</v>
+        <v>-2.231155395507812</v>
       </c>
     </row>
     <row r="511">
@@ -9124,10 +9124,10 @@
         <v>205.580562096555</v>
       </c>
       <c r="D511" t="n">
-        <v>200.0208740234375</v>
+        <v>210.2474975585938</v>
       </c>
       <c r="E511" t="n">
-        <v>5.5596923828125</v>
+        <v>-4.66693115234375</v>
       </c>
     </row>
     <row r="512">
@@ -9141,10 +9141,10 @@
         <v>207.62409735083</v>
       </c>
       <c r="D512" t="n">
-        <v>203.8592071533203</v>
+        <v>214.4334106445312</v>
       </c>
       <c r="E512" t="n">
-        <v>3.764892578125</v>
+        <v>-6.809310913085938</v>
       </c>
     </row>
     <row r="513">
@@ -9158,10 +9158,10 @@
         <v>209.716258190205</v>
       </c>
       <c r="D513" t="n">
-        <v>205.8534393310547</v>
+        <v>215.4513092041016</v>
       </c>
       <c r="E513" t="n">
-        <v>3.862823486328125</v>
+        <v>-5.73504638671875</v>
       </c>
     </row>
     <row r="514">
@@ -9175,10 +9175,10 @@
         <v>211.856662754547</v>
       </c>
       <c r="D514" t="n">
-        <v>208.0988311767578</v>
+        <v>215.905517578125</v>
       </c>
       <c r="E514" t="n">
-        <v>3.757827758789062</v>
+        <v>-4.048858642578125</v>
       </c>
     </row>
     <row r="515">
@@ -9192,10 +9192,10 @@
         <v>214.079161903279</v>
       </c>
       <c r="D515" t="n">
-        <v>210.3617248535156</v>
+        <v>216.2196197509766</v>
       </c>
       <c r="E515" t="n">
-        <v>3.717437744140625</v>
+        <v>-2.140457153320312</v>
       </c>
     </row>
     <row r="516">
@@ -9209,10 +9209,10 @@
         <v>216.417301578074</v>
       </c>
       <c r="D516" t="n">
-        <v>212.3227081298828</v>
+        <v>217.2459716796875</v>
       </c>
       <c r="E516" t="n">
-        <v>4.094589233398438</v>
+        <v>-0.82867431640625</v>
       </c>
     </row>
     <row r="517">
@@ -9226,10 +9226,10 @@
         <v>218.842105452637</v>
       </c>
       <c r="D517" t="n">
-        <v>215.1784057617188</v>
+        <v>218.2299041748047</v>
       </c>
       <c r="E517" t="n">
-        <v>3.6636962890625</v>
+        <v>0.6121978759765625</v>
       </c>
     </row>
     <row r="518">
@@ -9243,10 +9243,10 @@
         <v>221.347335111067</v>
       </c>
       <c r="D518" t="n">
-        <v>217.5913696289062</v>
+        <v>219.7973785400391</v>
       </c>
       <c r="E518" t="n">
-        <v>3.755966186523438</v>
+        <v>1.549957275390625</v>
       </c>
     </row>
     <row r="519">
@@ -9260,10 +9260,10 @@
         <v>223.994589242993</v>
       </c>
       <c r="D519" t="n">
-        <v>221.3000335693359</v>
+        <v>223.0032958984375</v>
       </c>
       <c r="E519" t="n">
-        <v>2.694549560546875</v>
+        <v>0.9912872314453125</v>
       </c>
     </row>
     <row r="520">
@@ -9277,10 +9277,10 @@
         <v>226.848207550975</v>
       </c>
       <c r="D520" t="n">
-        <v>224.4490966796875</v>
+        <v>225.4014587402344</v>
       </c>
       <c r="E520" t="n">
-        <v>2.39910888671875</v>
+        <v>1.446746826171875</v>
       </c>
     </row>
     <row r="521">
@@ -9294,10 +9294,10 @@
         <v>229.926082484057</v>
       </c>
       <c r="D521" t="n">
-        <v>228.5961608886719</v>
+        <v>227.9402923583984</v>
       </c>
       <c r="E521" t="n">
-        <v>1.329925537109375</v>
+        <v>1.985794067382812</v>
       </c>
     </row>
     <row r="522">
@@ -9311,10 +9311,10 @@
         <v>233.128897298419</v>
       </c>
       <c r="D522" t="n">
-        <v>231.5650329589844</v>
+        <v>229.4933166503906</v>
       </c>
       <c r="E522" t="n">
-        <v>1.563858032226562</v>
+        <v>3.635574340820312</v>
       </c>
     </row>
     <row r="523">
@@ -9328,10 +9328,10 @@
         <v>236.321600056166</v>
       </c>
       <c r="D523" t="n">
-        <v>234.2576751708984</v>
+        <v>231.5018310546875</v>
       </c>
       <c r="E523" t="n">
-        <v>2.063919067382812</v>
+        <v>4.81976318359375</v>
       </c>
     </row>
     <row r="524">
@@ -9345,10 +9345,10 @@
         <v>239.367254532422</v>
       </c>
       <c r="D524" t="n">
-        <v>237.2679901123047</v>
+        <v>234.0258178710938</v>
       </c>
       <c r="E524" t="n">
-        <v>2.099258422851562</v>
+        <v>5.3414306640625</v>
       </c>
     </row>
     <row r="525">
@@ -9362,10 +9362,10 @@
         <v>242.216434064194</v>
       </c>
       <c r="D525" t="n">
-        <v>240.6664123535156</v>
+        <v>236.5800170898438</v>
       </c>
       <c r="E525" t="n">
-        <v>1.550018310546875</v>
+        <v>5.63641357421875</v>
       </c>
     </row>
     <row r="526">
@@ -9379,10 +9379,10 @@
         <v>244.923360079367</v>
       </c>
       <c r="D526" t="n">
-        <v>244.1537170410156</v>
+        <v>239.5102233886719</v>
       </c>
       <c r="E526" t="n">
-        <v>0.7696380615234375</v>
+        <v>5.413131713867188</v>
       </c>
     </row>
     <row r="527">
@@ -9396,10 +9396,10 @@
         <v>247.486572001166</v>
       </c>
       <c r="D527" t="n">
-        <v>248.7815856933594</v>
+        <v>243.6919860839844</v>
       </c>
       <c r="E527" t="n">
-        <v>-1.295013427734375</v>
+        <v>3.794586181640625</v>
       </c>
     </row>
     <row r="528">
@@ -9413,10 +9413,10 @@
         <v>249.852230087918</v>
       </c>
       <c r="D528" t="n">
-        <v>252.1640625</v>
+        <v>247.4245910644531</v>
       </c>
       <c r="E528" t="n">
-        <v>-2.31182861328125</v>
+        <v>2.427642822265625</v>
       </c>
     </row>
     <row r="529">
@@ -9430,10 +9430,10 @@
         <v>252.010694206577</v>
       </c>
       <c r="D529" t="n">
-        <v>256.7393493652344</v>
+        <v>251.7351989746094</v>
       </c>
       <c r="E529" t="n">
-        <v>-4.728652954101562</v>
+        <v>0.2754974365234375</v>
       </c>
     </row>
     <row r="530">
@@ -9447,10 +9447,10 @@
         <v>253.946358505305</v>
       </c>
       <c r="D530" t="n">
-        <v>260.795654296875</v>
+        <v>255.7606048583984</v>
       </c>
       <c r="E530" t="n">
-        <v>-6.849288940429688</v>
+        <v>-1.814239501953125</v>
       </c>
     </row>
     <row r="531">
@@ -9464,10 +9464,10 @@
         <v>255.703734271075</v>
       </c>
       <c r="D531" t="n">
-        <v>266.2335510253906</v>
+        <v>260.5377197265625</v>
       </c>
       <c r="E531" t="n">
-        <v>-10.52981567382812</v>
+        <v>-4.833984375</v>
       </c>
     </row>
     <row r="532">
@@ -9481,10 +9481,10 @@
         <v>257.30655271874</v>
       </c>
       <c r="D532" t="n">
-        <v>272.6558837890625</v>
+        <v>265.42138671875</v>
       </c>
       <c r="E532" t="n">
-        <v>-15.34933471679688</v>
+        <v>-8.114837646484375</v>
       </c>
     </row>
   </sheetData>

--- a/data/stainless_steel_304_with_predictions.xlsx
+++ b/data/stainless_steel_304_with_predictions.xlsx
@@ -471,10 +471,10 @@
         <v>395.603300876209</v>
       </c>
       <c r="D2" t="n">
-        <v>449.7876281738281</v>
+        <v>419.7503662109375</v>
       </c>
       <c r="E2" t="n">
-        <v>-54.184326171875</v>
+        <v>-24.14706420898438</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>399.477725504481</v>
       </c>
       <c r="D3" t="n">
-        <v>449.9225769042969</v>
+        <v>420.1571044921875</v>
       </c>
       <c r="E3" t="n">
-        <v>-50.44485473632812</v>
+        <v>-20.67938232421875</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>403.129622067849</v>
       </c>
       <c r="D4" t="n">
-        <v>450.0809326171875</v>
+        <v>420.6107177734375</v>
       </c>
       <c r="E4" t="n">
-        <v>-46.95132446289062</v>
+        <v>-17.48110961914062</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>406.555897479841</v>
       </c>
       <c r="D5" t="n">
-        <v>450.2661743164062</v>
+        <v>421.1159362792969</v>
       </c>
       <c r="E5" t="n">
-        <v>-43.71026611328125</v>
+        <v>-14.56002807617188</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>409.757028790634</v>
       </c>
       <c r="D6" t="n">
-        <v>450.4808959960938</v>
+        <v>421.6759338378906</v>
       </c>
       <c r="E6" t="n">
-        <v>-40.723876953125</v>
+        <v>-11.91891479492188</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>412.737171626757</v>
       </c>
       <c r="D7" t="n">
-        <v>450.7255249023438</v>
+        <v>422.2909545898438</v>
       </c>
       <c r="E7" t="n">
-        <v>-37.98834228515625</v>
+        <v>-9.55377197265625</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>415.510401390927</v>
       </c>
       <c r="D8" t="n">
-        <v>451.0000305175781</v>
+        <v>422.9600830078125</v>
       </c>
       <c r="E8" t="n">
-        <v>-35.4896240234375</v>
+        <v>-7.449676513671875</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>418.090374171948</v>
       </c>
       <c r="D9" t="n">
-        <v>451.3058471679688</v>
+        <v>423.6846618652344</v>
       </c>
       <c r="E9" t="n">
-        <v>-33.21548461914062</v>
+        <v>-5.59429931640625</v>
       </c>
     </row>
     <row r="10">
@@ -607,10 +607,10 @@
         <v>420.491343142817</v>
       </c>
       <c r="D10" t="n">
-        <v>451.6429443359375</v>
+        <v>424.4638671875</v>
       </c>
       <c r="E10" t="n">
-        <v>-31.151611328125</v>
+        <v>-3.9725341796875</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v>422.72583850844</v>
       </c>
       <c r="D11" t="n">
-        <v>452.0090942382812</v>
+        <v>425.2935791015625</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.28326416015625</v>
+        <v>-2.5677490234375</v>
       </c>
     </row>
     <row r="12">
@@ -641,10 +641,10 @@
         <v>424.807830694658</v>
       </c>
       <c r="D12" t="n">
-        <v>452.4020385742188</v>
+        <v>426.1699829101562</v>
       </c>
       <c r="E12" t="n">
-        <v>-27.59420776367188</v>
+        <v>-1.362152099609375</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>426.7522086401821</v>
       </c>
       <c r="D13" t="n">
-        <v>452.8199157714844</v>
+        <v>427.0894775390625</v>
       </c>
       <c r="E13" t="n">
-        <v>-26.06771850585938</v>
+        <v>-0.3372802734375</v>
       </c>
     </row>
     <row r="14">
@@ -675,10 +675,10 @@
         <v>428.5692326158421</v>
       </c>
       <c r="D14" t="n">
-        <v>453.2608032226562</v>
+        <v>428.0487365722656</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.69155883789062</v>
+        <v>0.5205078125</v>
       </c>
     </row>
     <row r="15">
@@ -692,10 +692,10 @@
         <v>430.2810408094271</v>
       </c>
       <c r="D15" t="n">
-        <v>453.7227172851562</v>
+        <v>429.0443115234375</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.44168090820312</v>
+        <v>1.236724853515625</v>
       </c>
     </row>
     <row r="16">
@@ -709,10 +709,10 @@
         <v>431.913928949627</v>
       </c>
       <c r="D16" t="n">
-        <v>454.2038879394531</v>
+        <v>430.0730895996094</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.28994750976562</v>
+        <v>1.840850830078125</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         <v>433.489415394423</v>
       </c>
       <c r="D17" t="n">
-        <v>454.7037353515625</v>
+        <v>431.1336059570312</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.21432495117188</v>
+        <v>2.355804443359375</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         <v>435.0243126933601</v>
       </c>
       <c r="D18" t="n">
-        <v>455.2200927734375</v>
+        <v>432.2222595214844</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.19577026367188</v>
+        <v>2.80206298828125</v>
       </c>
     </row>
     <row r="19">
@@ -760,10 +760,10 @@
         <v>436.527803060661</v>
       </c>
       <c r="D19" t="n">
-        <v>455.7515563964844</v>
+        <v>433.3366394042969</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.2237548828125</v>
+        <v>3.191162109375</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         <v>438.001682240205</v>
       </c>
       <c r="D20" t="n">
-        <v>456.2972412109375</v>
+        <v>434.4749145507812</v>
       </c>
       <c r="E20" t="n">
-        <v>-18.29556274414062</v>
+        <v>3.526763916015625</v>
       </c>
     </row>
     <row r="21">
@@ -794,10 +794,10 @@
         <v>439.443744523748</v>
       </c>
       <c r="D21" t="n">
-        <v>456.8551025390625</v>
+        <v>435.6337280273438</v>
       </c>
       <c r="E21" t="n">
-        <v>-17.41134643554688</v>
+        <v>3.810028076171875</v>
       </c>
     </row>
     <row r="22">
@@ -811,10 +811,10 @@
         <v>440.848074323229</v>
       </c>
       <c r="D22" t="n">
-        <v>457.4236450195312</v>
+        <v>436.8106384277344</v>
       </c>
       <c r="E22" t="n">
-        <v>-16.5755615234375</v>
+        <v>4.037445068359375</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         <v>442.208071069627</v>
       </c>
       <c r="D23" t="n">
-        <v>458.0023498535156</v>
+        <v>438.004638671875</v>
       </c>
       <c r="E23" t="n">
-        <v>-15.79428100585938</v>
+        <v>4.20343017578125</v>
       </c>
     </row>
     <row r="24">
@@ -845,10 +845,10 @@
         <v>443.519542436043</v>
       </c>
       <c r="D24" t="n">
-        <v>458.590087890625</v>
+        <v>439.2135314941406</v>
       </c>
       <c r="E24" t="n">
-        <v>-15.070556640625</v>
+        <v>4.305999755859375</v>
       </c>
     </row>
     <row r="25">
@@ -862,10 +862,10 @@
         <v>444.7838075429399</v>
       </c>
       <c r="D25" t="n">
-        <v>459.1861572265625</v>
+        <v>440.436279296875</v>
       </c>
       <c r="E25" t="n">
-        <v>-14.40234375</v>
+        <v>4.3475341796875</v>
       </c>
     </row>
     <row r="26">
@@ -879,10 +879,10 @@
         <v>446.004589943748</v>
       </c>
       <c r="D26" t="n">
-        <v>459.7880554199219</v>
+        <v>441.6689758300781</v>
       </c>
       <c r="E26" t="n">
-        <v>-13.78347778320312</v>
+        <v>4.335601806640625</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>447.185365792356</v>
       </c>
       <c r="D27" t="n">
-        <v>460.3954772949219</v>
+        <v>442.9111022949219</v>
       </c>
       <c r="E27" t="n">
-        <v>-13.21011352539062</v>
+        <v>4.274261474609375</v>
       </c>
     </row>
     <row r="28">
@@ -913,10 +913,10 @@
         <v>448.33179646193</v>
       </c>
       <c r="D28" t="n">
-        <v>461.0074768066406</v>
+        <v>444.1610717773438</v>
       </c>
       <c r="E28" t="n">
-        <v>-12.67568969726562</v>
+        <v>4.17071533203125</v>
       </c>
     </row>
     <row r="29">
@@ -930,10 +930,10 @@
         <v>449.4430736196809</v>
       </c>
       <c r="D29" t="n">
-        <v>461.6232299804688</v>
+        <v>445.417724609375</v>
       </c>
       <c r="E29" t="n">
-        <v>-12.18014526367188</v>
+        <v>4.025360107421875</v>
       </c>
     </row>
     <row r="30">
@@ -947,10 +947,10 @@
         <v>450.516546689884</v>
       </c>
       <c r="D30" t="n">
-        <v>462.2415161132812</v>
+        <v>446.6791381835938</v>
       </c>
       <c r="E30" t="n">
-        <v>-11.7249755859375</v>
+        <v>3.83740234375</v>
       </c>
     </row>
     <row r="31">
@@ -964,10 +964,10 @@
         <v>451.551415719795</v>
       </c>
       <c r="D31" t="n">
-        <v>462.8622741699219</v>
+        <v>447.9454040527344</v>
       </c>
       <c r="E31" t="n">
-        <v>-11.31085205078125</v>
+        <v>3.60601806640625</v>
       </c>
     </row>
     <row r="32">
@@ -981,10 +981,10 @@
         <v>452.551730855008</v>
       </c>
       <c r="D32" t="n">
-        <v>463.4851379394531</v>
+        <v>449.2158203125</v>
       </c>
       <c r="E32" t="n">
-        <v>-10.93341064453125</v>
+        <v>3.335906982421875</v>
       </c>
     </row>
     <row r="33">
@@ -998,10 +998,10 @@
         <v>453.5281279871621</v>
       </c>
       <c r="D33" t="n">
-        <v>464.110107421875</v>
+        <v>450.4903564453125</v>
       </c>
       <c r="E33" t="n">
-        <v>-10.58197021484375</v>
+        <v>3.03778076171875</v>
       </c>
     </row>
     <row r="34">
@@ -1015,10 +1015,10 @@
         <v>454.494356195184</v>
       </c>
       <c r="D34" t="n">
-        <v>464.7384948730469</v>
+        <v>451.7710266113281</v>
       </c>
       <c r="E34" t="n">
-        <v>-10.244140625</v>
+        <v>2.72332763671875</v>
       </c>
     </row>
     <row r="35">
@@ -1032,10 +1032,10 @@
         <v>455.456910103284</v>
       </c>
       <c r="D35" t="n">
-        <v>465.3703002929688</v>
+        <v>453.0574645996094</v>
       </c>
       <c r="E35" t="n">
-        <v>-9.91339111328125</v>
+        <v>2.399444580078125</v>
       </c>
     </row>
     <row r="36">
@@ -1049,10 +1049,10 @@
         <v>456.419549877027</v>
       </c>
       <c r="D36" t="n">
-        <v>466.004150390625</v>
+        <v>454.3478393554688</v>
       </c>
       <c r="E36" t="n">
-        <v>-9.5845947265625</v>
+        <v>2.07171630859375</v>
       </c>
     </row>
     <row r="37">
@@ -1066,10 +1066,10 @@
         <v>457.383368841973</v>
       </c>
       <c r="D37" t="n">
-        <v>466.6395874023438</v>
+        <v>455.6414184570312</v>
       </c>
       <c r="E37" t="n">
-        <v>-9.2562255859375</v>
+        <v>1.741943359375</v>
       </c>
     </row>
     <row r="38">
@@ -1083,10 +1083,10 @@
         <v>458.346881056813</v>
       </c>
       <c r="D38" t="n">
-        <v>467.2771911621094</v>
+        <v>456.9390563964844</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.9302978515625</v>
+        <v>1.4078369140625</v>
       </c>
     </row>
     <row r="39">
@@ -1100,10 +1100,10 @@
         <v>459.3056902717281</v>
       </c>
       <c r="D39" t="n">
-        <v>467.9174194335938</v>
+        <v>458.2413330078125</v>
       </c>
       <c r="E39" t="n">
-        <v>-8.611724853515625</v>
+        <v>1.064361572265625</v>
       </c>
     </row>
     <row r="40">
@@ -1117,10 +1117,10 @@
         <v>460.257071814311</v>
       </c>
       <c r="D40" t="n">
-        <v>468.5598449707031</v>
+        <v>459.547607421875</v>
       </c>
       <c r="E40" t="n">
-        <v>-8.302764892578125</v>
+        <v>0.70947265625</v>
       </c>
     </row>
     <row r="41">
@@ -1134,10 +1134,10 @@
         <v>461.211656546065</v>
       </c>
       <c r="D41" t="n">
-        <v>469.2045288085938</v>
+        <v>460.8578491210938</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.99285888671875</v>
+        <v>0.35382080078125</v>
       </c>
     </row>
     <row r="42">
@@ -1151,10 +1151,10 @@
         <v>462.176666239077</v>
       </c>
       <c r="D42" t="n">
-        <v>469.8511962890625</v>
+        <v>462.1716613769531</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.674530029296875</v>
+        <v>0.0050048828125</v>
       </c>
     </row>
     <row r="43">
@@ -1168,10 +1168,10 @@
         <v>463.150431838265</v>
       </c>
       <c r="D43" t="n">
-        <v>470.4995727539062</v>
+        <v>463.4885864257812</v>
       </c>
       <c r="E43" t="n">
-        <v>-7.349151611328125</v>
+        <v>-0.338165283203125</v>
       </c>
     </row>
     <row r="44">
@@ -1185,10 +1185,10 @@
         <v>464.13087981713</v>
       </c>
       <c r="D44" t="n">
-        <v>471.1494750976562</v>
+        <v>464.8082885742188</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.018585205078125</v>
+        <v>-0.677398681640625</v>
       </c>
     </row>
     <row r="45">
@@ -1202,10 +1202,10 @@
         <v>465.11381737751</v>
       </c>
       <c r="D45" t="n">
-        <v>471.8010864257812</v>
+        <v>466.1312255859375</v>
       </c>
       <c r="E45" t="n">
-        <v>-6.687255859375</v>
+        <v>-1.01739501953125</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>466.093449295937</v>
       </c>
       <c r="D46" t="n">
-        <v>472.4537963867188</v>
+        <v>467.4562377929688</v>
       </c>
       <c r="E46" t="n">
-        <v>-6.3603515625</v>
+        <v>-1.36279296875</v>
       </c>
     </row>
     <row r="47">
@@ -1236,10 +1236,10 @@
         <v>467.065282627381</v>
       </c>
       <c r="D47" t="n">
-        <v>473.1070861816406</v>
+        <v>468.7828369140625</v>
       </c>
       <c r="E47" t="n">
-        <v>-6.04180908203125</v>
+        <v>-1.717559814453125</v>
       </c>
     </row>
     <row r="48">
@@ -1253,10 +1253,10 @@
         <v>468.028365014842</v>
       </c>
       <c r="D48" t="n">
-        <v>473.7615356445312</v>
+        <v>470.1116027832031</v>
       </c>
       <c r="E48" t="n">
-        <v>-5.733184814453125</v>
+        <v>-2.083251953125</v>
       </c>
     </row>
     <row r="49">
@@ -1270,10 +1270,10 @@
         <v>468.980682897926</v>
       </c>
       <c r="D49" t="n">
-        <v>474.4169311523438</v>
+        <v>471.4425048828125</v>
       </c>
       <c r="E49" t="n">
-        <v>-5.436248779296875</v>
+        <v>-2.461822509765625</v>
       </c>
     </row>
     <row r="50">
@@ -1287,10 +1287,10 @@
         <v>469.9191282195241</v>
       </c>
       <c r="D50" t="n">
-        <v>475.0726928710938</v>
+        <v>472.7745971679688</v>
       </c>
       <c r="E50" t="n">
-        <v>-5.153564453125</v>
+        <v>-2.85546875</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>470.842777793803</v>
       </c>
       <c r="D51" t="n">
-        <v>475.7293090820312</v>
+        <v>474.09326171875</v>
       </c>
       <c r="E51" t="n">
-        <v>-4.88653564453125</v>
+        <v>-3.25048828125</v>
       </c>
     </row>
     <row r="52">
@@ -1321,10 +1321,10 @@
         <v>471.7556512590941</v>
       </c>
       <c r="D52" t="n">
-        <v>476.3863220214844</v>
+        <v>474.8892822265625</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.63067626953125</v>
+        <v>-3.133636474609375</v>
       </c>
     </row>
     <row r="53">
@@ -1338,10 +1338,10 @@
         <v>472.657554171301</v>
       </c>
       <c r="D53" t="n">
-        <v>477.045654296875</v>
+        <v>475.6848754882812</v>
       </c>
       <c r="E53" t="n">
-        <v>-4.388092041015625</v>
+        <v>-3.027313232421875</v>
       </c>
     </row>
     <row r="54">
@@ -1355,10 +1355,10 @@
         <v>473.543736147793</v>
       </c>
       <c r="D54" t="n">
-        <v>477.7073364257812</v>
+        <v>476.4795227050781</v>
       </c>
       <c r="E54" t="n">
-        <v>-4.163604736328125</v>
+        <v>-2.935791015625</v>
       </c>
     </row>
     <row r="55">
@@ -1372,10 +1372,10 @@
         <v>474.410940570323</v>
       </c>
       <c r="D55" t="n">
-        <v>478.3715515136719</v>
+        <v>477.2725830078125</v>
       </c>
       <c r="E55" t="n">
-        <v>-3.960601806640625</v>
+        <v>-2.86163330078125</v>
       </c>
     </row>
     <row r="56">
@@ -1389,10 +1389,10 @@
         <v>475.262352803119</v>
       </c>
       <c r="D56" t="n">
-        <v>479.0382690429688</v>
+        <v>478.0634155273438</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.775909423828125</v>
+        <v>-2.801055908203125</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>476.1052025488499</v>
       </c>
       <c r="D57" t="n">
-        <v>479.7073364257812</v>
+        <v>478.8517456054688</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.602142333984375</v>
+        <v>-2.746551513671875</v>
       </c>
     </row>
     <row r="58">
@@ -1423,10 +1423,10 @@
         <v>476.948782171043</v>
       </c>
       <c r="D58" t="n">
-        <v>480.3780822753906</v>
+        <v>479.638671875</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.429290771484375</v>
+        <v>-2.68988037109375</v>
       </c>
     </row>
     <row r="59">
@@ -1440,10 +1440,10 @@
         <v>477.802196933531</v>
       </c>
       <c r="D59" t="n">
-        <v>481.0516662597656</v>
+        <v>480.4211730957031</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.249481201171875</v>
+        <v>-2.618988037109375</v>
       </c>
     </row>
     <row r="60">
@@ -1457,10 +1457,10 @@
         <v>478.667774289469</v>
       </c>
       <c r="D60" t="n">
-        <v>481.7282104492188</v>
+        <v>481.1981811523438</v>
       </c>
       <c r="E60" t="n">
-        <v>-3.0604248046875</v>
+        <v>-2.5303955078125</v>
       </c>
     </row>
     <row r="61">
@@ -1474,10 +1474,10 @@
         <v>479.542533797816</v>
       </c>
       <c r="D61" t="n">
-        <v>482.4075927734375</v>
+        <v>481.9688110351562</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.86505126953125</v>
+        <v>-2.42626953125</v>
       </c>
     </row>
     <row r="62">
@@ -1491,10 +1491,10 @@
         <v>480.420709306088</v>
       </c>
       <c r="D62" t="n">
-        <v>483.0879211425781</v>
+        <v>482.7361450195312</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.667205810546875</v>
+        <v>-2.3154296875</v>
       </c>
     </row>
     <row r="63">
@@ -1508,10 +1508,10 @@
         <v>481.298531072099</v>
       </c>
       <c r="D63" t="n">
-        <v>483.7666625976562</v>
+        <v>483.505126953125</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.4681396484375</v>
+        <v>-2.20660400390625</v>
       </c>
     </row>
     <row r="64">
@@ -1525,10 +1525,10 @@
         <v>482.177826573142</v>
       </c>
       <c r="D64" t="n">
-        <v>484.4442138671875</v>
+        <v>484.2752075195312</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.266387939453125</v>
+        <v>-2.097381591796875</v>
       </c>
     </row>
     <row r="65">
@@ -1542,10 +1542,10 @@
         <v>483.060910808503</v>
       </c>
       <c r="D65" t="n">
-        <v>485.1209716796875</v>
+        <v>485.0458374023438</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.06005859375</v>
+        <v>-1.98492431640625</v>
       </c>
     </row>
     <row r="66">
@@ -1559,10 +1559,10 @@
         <v>483.949912896613</v>
       </c>
       <c r="D66" t="n">
-        <v>485.7962646484375</v>
+        <v>485.8185729980469</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.846343994140625</v>
+        <v>-1.86865234375</v>
       </c>
     </row>
     <row r="67">
@@ -1576,10 +1576,10 @@
         <v>484.844975749093</v>
       </c>
       <c r="D67" t="n">
-        <v>486.4696655273438</v>
+        <v>486.5947875976562</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.62469482421875</v>
+        <v>-1.74981689453125</v>
       </c>
     </row>
     <row r="68">
@@ -1593,10 +1593,10 @@
         <v>485.744020357855</v>
       </c>
       <c r="D68" t="n">
-        <v>487.1410217285156</v>
+        <v>487.37548828125</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.397003173828125</v>
+        <v>-1.6314697265625</v>
       </c>
     </row>
     <row r="69">
@@ -1610,10 +1610,10 @@
         <v>486.642665222879</v>
       </c>
       <c r="D69" t="n">
-        <v>487.8106079101562</v>
+        <v>488.1607666015625</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.167938232421875</v>
+        <v>-1.518096923828125</v>
       </c>
     </row>
     <row r="70">
@@ -1627,10 +1627,10 @@
         <v>487.537224992439</v>
       </c>
       <c r="D70" t="n">
-        <v>488.4791870117188</v>
+        <v>488.94970703125</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.94195556640625</v>
+        <v>-1.4124755859375</v>
       </c>
     </row>
     <row r="71">
@@ -1644,10 +1644,10 @@
         <v>488.420856269206</v>
       </c>
       <c r="D71" t="n">
-        <v>489.1474609375</v>
+        <v>489.7415161132812</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.726593017578125</v>
+        <v>-1.320648193359375</v>
       </c>
     </row>
     <row r="72">
@@ -1661,10 +1661,10 @@
         <v>489.2896929436931</v>
       </c>
       <c r="D72" t="n">
-        <v>489.8165893554688</v>
+        <v>490.5339965820312</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.526885986328125</v>
+        <v>-1.244293212890625</v>
       </c>
     </row>
     <row r="73">
@@ -1678,10 +1678,10 @@
         <v>490.1427074516311</v>
       </c>
       <c r="D73" t="n">
-        <v>490.4877014160156</v>
+        <v>491.3247680664062</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.345001220703125</v>
+        <v>-1.18206787109375</v>
       </c>
     </row>
     <row r="74">
@@ -1695,10 +1695,10 @@
         <v>490.983261379538</v>
       </c>
       <c r="D74" t="n">
-        <v>491.1596069335938</v>
+        <v>492.1159057617188</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.17633056640625</v>
+        <v>-1.13262939453125</v>
       </c>
     </row>
     <row r="75">
@@ -1712,10 +1712,10 @@
         <v>491.813853618332</v>
       </c>
       <c r="D75" t="n">
-        <v>491.8318176269531</v>
+        <v>492.9083251953125</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.017974853515625</v>
+        <v>-1.094482421875</v>
       </c>
     </row>
     <row r="76">
@@ -1729,10 +1729,10 @@
         <v>492.634286527768</v>
       </c>
       <c r="D76" t="n">
-        <v>492.5049438476562</v>
+        <v>493.7008666992188</v>
       </c>
       <c r="E76" t="n">
-        <v>0.12933349609375</v>
+        <v>-1.06658935546875</v>
       </c>
     </row>
     <row r="77">
@@ -1746,10 +1746,10 @@
         <v>493.447403437293</v>
       </c>
       <c r="D77" t="n">
-        <v>493.1795349121094</v>
+        <v>494.4921264648438</v>
       </c>
       <c r="E77" t="n">
-        <v>0.26788330078125</v>
+        <v>-1.044708251953125</v>
       </c>
     </row>
     <row r="78">
@@ -1763,10 +1763,10 @@
         <v>494.2590632122991</v>
       </c>
       <c r="D78" t="n">
-        <v>493.8556823730469</v>
+        <v>495.2819213867188</v>
       </c>
       <c r="E78" t="n">
-        <v>0.40338134765625</v>
+        <v>-1.022857666015625</v>
       </c>
     </row>
     <row r="79">
@@ -1780,10 +1780,10 @@
         <v>495.069036974399</v>
       </c>
       <c r="D79" t="n">
-        <v>494.533447265625</v>
+        <v>496.0694274902344</v>
       </c>
       <c r="E79" t="n">
-        <v>0.53558349609375</v>
+        <v>-1.000396728515625</v>
       </c>
     </row>
     <row r="80">
@@ -1797,10 +1797,10 @@
         <v>495.8777053753091</v>
       </c>
       <c r="D80" t="n">
-        <v>495.2124633789062</v>
+        <v>496.8550415039062</v>
       </c>
       <c r="E80" t="n">
-        <v>0.665252685546875</v>
+        <v>-0.977325439453125</v>
       </c>
     </row>
     <row r="81">
@@ -1814,10 +1814,10 @@
         <v>496.69020134807</v>
       </c>
       <c r="D81" t="n">
-        <v>495.8919067382812</v>
+        <v>497.6401977539062</v>
       </c>
       <c r="E81" t="n">
-        <v>0.798309326171875</v>
+        <v>-0.949981689453125</v>
       </c>
     </row>
     <row r="82">
@@ -1831,10 +1831,10 @@
         <v>497.5100296993839</v>
       </c>
       <c r="D82" t="n">
-        <v>496.5707092285156</v>
+        <v>498.4270629882812</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9393310546875</v>
+        <v>-0.917022705078125</v>
       </c>
     </row>
     <row r="83">
@@ -1848,10 +1848,10 @@
         <v>498.341642030644</v>
       </c>
       <c r="D83" t="n">
-        <v>497.2488403320312</v>
+        <v>499.2159423828125</v>
       </c>
       <c r="E83" t="n">
-        <v>1.092803955078125</v>
+        <v>-0.874298095703125</v>
       </c>
     </row>
     <row r="84">
@@ -1865,10 +1865,10 @@
         <v>499.184959764205</v>
       </c>
       <c r="D84" t="n">
-        <v>497.9261474609375</v>
+        <v>500.0073852539062</v>
       </c>
       <c r="E84" t="n">
-        <v>1.258819580078125</v>
+        <v>-0.822418212890625</v>
       </c>
     </row>
     <row r="85">
@@ -1882,10 +1882,10 @@
         <v>500.036474759567</v>
       </c>
       <c r="D85" t="n">
-        <v>498.6036071777344</v>
+        <v>500.7999267578125</v>
       </c>
       <c r="E85" t="n">
-        <v>1.432861328125</v>
+        <v>-0.763458251953125</v>
       </c>
     </row>
     <row r="86">
@@ -1899,10 +1899,10 @@
         <v>500.893958518343</v>
       </c>
       <c r="D86" t="n">
-        <v>499.2807312011719</v>
+        <v>501.594482421875</v>
       </c>
       <c r="E86" t="n">
-        <v>1.61322021484375</v>
+        <v>-0.700531005859375</v>
       </c>
     </row>
     <row r="87">
@@ -1916,10 +1916,10 @@
         <v>501.75496063733</v>
       </c>
       <c r="D87" t="n">
-        <v>499.9581909179688</v>
+        <v>502.3900451660156</v>
       </c>
       <c r="E87" t="n">
-        <v>1.796783447265625</v>
+        <v>-0.63507080078125</v>
       </c>
     </row>
     <row r="88">
@@ -1933,10 +1933,10 @@
         <v>502.615028776655</v>
       </c>
       <c r="D88" t="n">
-        <v>500.6371459960938</v>
+        <v>503.1841430664062</v>
       </c>
       <c r="E88" t="n">
-        <v>1.977874755859375</v>
+        <v>-0.569122314453125</v>
       </c>
     </row>
     <row r="89">
@@ -1950,10 +1950,10 @@
         <v>503.4725272339761</v>
       </c>
       <c r="D89" t="n">
-        <v>501.3179931640625</v>
+        <v>503.9755859375</v>
       </c>
       <c r="E89" t="n">
-        <v>2.154541015625</v>
+        <v>-0.5030517578125</v>
       </c>
     </row>
     <row r="90">
@@ -1967,10 +1967,10 @@
         <v>504.329045479308</v>
       </c>
       <c r="D90" t="n">
-        <v>502.0012817382812</v>
+        <v>504.7626647949219</v>
       </c>
       <c r="E90" t="n">
-        <v>2.3277587890625</v>
+        <v>-0.433624267578125</v>
       </c>
     </row>
     <row r="91">
@@ -1984,10 +1984,10 @@
         <v>505.187877626213</v>
       </c>
       <c r="D91" t="n">
-        <v>502.6862487792969</v>
+        <v>505.5462036132812</v>
       </c>
       <c r="E91" t="n">
-        <v>2.501617431640625</v>
+        <v>-0.35833740234375</v>
       </c>
     </row>
     <row r="92">
@@ -2001,10 +2001,10 @@
         <v>506.045120564935</v>
       </c>
       <c r="D92" t="n">
-        <v>503.3707275390625</v>
+        <v>506.330322265625</v>
       </c>
       <c r="E92" t="n">
-        <v>2.674407958984375</v>
+        <v>-0.285186767578125</v>
       </c>
     </row>
     <row r="93">
@@ -2018,10 +2018,10 @@
         <v>506.894402650837</v>
       </c>
       <c r="D93" t="n">
-        <v>504.0545654296875</v>
+        <v>507.1152648925781</v>
       </c>
       <c r="E93" t="n">
-        <v>2.83984375</v>
+        <v>-0.220855712890625</v>
       </c>
     </row>
     <row r="94">
@@ -2035,10 +2035,10 @@
         <v>507.729759959008</v>
       </c>
       <c r="D94" t="n">
-        <v>504.7394409179688</v>
+        <v>507.8977661132812</v>
       </c>
       <c r="E94" t="n">
-        <v>2.990325927734375</v>
+        <v>-0.167999267578125</v>
       </c>
     </row>
     <row r="95">
@@ -2052,10 +2052,10 @@
         <v>508.548500683855</v>
       </c>
       <c r="D95" t="n">
-        <v>505.4248046875</v>
+        <v>508.6785888671875</v>
       </c>
       <c r="E95" t="n">
-        <v>3.123687744140625</v>
+        <v>-0.130096435546875</v>
       </c>
     </row>
     <row r="96">
@@ -2069,10 +2069,10 @@
         <v>509.35051551836</v>
       </c>
       <c r="D96" t="n">
-        <v>506.108642578125</v>
+        <v>509.4613952636719</v>
       </c>
       <c r="E96" t="n">
-        <v>3.24188232421875</v>
+        <v>-0.110870361328125</v>
       </c>
     </row>
     <row r="97">
@@ -2086,10 +2086,10 @@
         <v>510.1390004948551</v>
       </c>
       <c r="D97" t="n">
-        <v>506.7903442382812</v>
+        <v>510.2484130859375</v>
       </c>
       <c r="E97" t="n">
-        <v>3.348663330078125</v>
+        <v>-0.109405517578125</v>
       </c>
     </row>
     <row r="98">
@@ -2103,10 +2103,10 @@
         <v>510.916598314415</v>
       </c>
       <c r="D98" t="n">
-        <v>507.470703125</v>
+        <v>511.0386962890625</v>
       </c>
       <c r="E98" t="n">
-        <v>3.445892333984375</v>
+        <v>-0.122100830078125</v>
       </c>
     </row>
     <row r="99">
@@ -2120,10 +2120,10 @@
         <v>511.689313919243</v>
       </c>
       <c r="D99" t="n">
-        <v>508.150390625</v>
+        <v>511.8309631347656</v>
       </c>
       <c r="E99" t="n">
-        <v>3.538909912109375</v>
+        <v>-0.14166259765625</v>
       </c>
     </row>
     <row r="100">
@@ -2137,10 +2137,10 @@
         <v>512.462492884584</v>
       </c>
       <c r="D100" t="n">
-        <v>508.8297729492188</v>
+        <v>512.625</v>
       </c>
       <c r="E100" t="n">
-        <v>3.6326904296875</v>
+        <v>-0.16253662109375</v>
       </c>
     </row>
     <row r="101">
@@ -2154,10 +2154,10 @@
         <v>513.237101541007</v>
       </c>
       <c r="D101" t="n">
-        <v>509.5096435546875</v>
+        <v>513.4193115234375</v>
       </c>
       <c r="E101" t="n">
-        <v>3.72747802734375</v>
+        <v>-0.18218994140625</v>
       </c>
     </row>
     <row r="102">
@@ -2171,10 +2171,10 @@
         <v>514.012907844708</v>
       </c>
       <c r="D102" t="n">
-        <v>510.1901245117188</v>
+        <v>514.213623046875</v>
       </c>
       <c r="E102" t="n">
-        <v>3.82275390625</v>
+        <v>-0.20074462890625</v>
       </c>
     </row>
     <row r="103">
@@ -2188,10 +2188,10 @@
         <v>514.794184775429</v>
       </c>
       <c r="D103" t="n">
-        <v>510.8705444335938</v>
+        <v>515.00927734375</v>
       </c>
       <c r="E103" t="n">
-        <v>3.92364501953125</v>
+        <v>-0.215087890625</v>
       </c>
     </row>
     <row r="104">
@@ -2205,10 +2205,10 @@
         <v>515.585042287075</v>
       </c>
       <c r="D104" t="n">
-        <v>511.5517578125</v>
+        <v>515.8045654296875</v>
       </c>
       <c r="E104" t="n">
-        <v>4.03326416015625</v>
+        <v>-0.21954345703125</v>
       </c>
     </row>
     <row r="105">
@@ -2222,10 +2222,10 @@
         <v>516.382043385204</v>
       </c>
       <c r="D105" t="n">
-        <v>512.235107421875</v>
+        <v>516.5965576171875</v>
       </c>
       <c r="E105" t="n">
-        <v>4.14691162109375</v>
+        <v>-0.21453857421875</v>
       </c>
     </row>
     <row r="106">
@@ -2239,10 +2239,10 @@
         <v>517.1815427831759</v>
       </c>
       <c r="D106" t="n">
-        <v>512.9202880859375</v>
+        <v>517.3853759765625</v>
       </c>
       <c r="E106" t="n">
-        <v>4.26123046875</v>
+        <v>-0.203857421875</v>
       </c>
     </row>
     <row r="107">
@@ -2256,10 +2256,10 @@
         <v>517.9794213237441</v>
       </c>
       <c r="D107" t="n">
-        <v>513.6061401367188</v>
+        <v>518.172607421875</v>
       </c>
       <c r="E107" t="n">
-        <v>4.373291015625</v>
+        <v>-0.19317626953125</v>
       </c>
     </row>
     <row r="108">
@@ -2273,10 +2273,10 @@
         <v>518.775930697411</v>
       </c>
       <c r="D108" t="n">
-        <v>514.2920532226562</v>
+        <v>518.95947265625</v>
       </c>
       <c r="E108" t="n">
-        <v>4.48388671875</v>
+        <v>-0.18353271484375</v>
       </c>
     </row>
     <row r="109">
@@ -2290,10 +2290,10 @@
         <v>519.573257265865</v>
       </c>
       <c r="D109" t="n">
-        <v>514.9788818359375</v>
+        <v>519.7440185546875</v>
       </c>
       <c r="E109" t="n">
-        <v>4.5943603515625</v>
+        <v>-0.1707763671875</v>
       </c>
     </row>
     <row r="110">
@@ -2307,10 +2307,10 @@
         <v>520.369388681492</v>
       </c>
       <c r="D110" t="n">
-        <v>515.6661987304688</v>
+        <v>520.52685546875</v>
       </c>
       <c r="E110" t="n">
-        <v>4.70318603515625</v>
+        <v>-0.157470703125</v>
       </c>
     </row>
     <row r="111">
@@ -2324,10 +2324,10 @@
         <v>521.1644328619909</v>
       </c>
       <c r="D111" t="n">
-        <v>516.35302734375</v>
+        <v>521.3096923828125</v>
       </c>
       <c r="E111" t="n">
-        <v>4.8114013671875</v>
+        <v>-0.145263671875</v>
       </c>
     </row>
     <row r="112">
@@ -2341,10 +2341,10 @@
         <v>521.961533450585</v>
       </c>
       <c r="D112" t="n">
-        <v>517.0387573242188</v>
+        <v>522.093994140625</v>
       </c>
       <c r="E112" t="n">
-        <v>4.92279052734375</v>
+        <v>-0.1324462890625</v>
       </c>
     </row>
     <row r="113">
@@ -2358,10 +2358,10 @@
         <v>522.760464163294</v>
       </c>
       <c r="D113" t="n">
-        <v>517.7242431640625</v>
+        <v>522.8782958984375</v>
       </c>
       <c r="E113" t="n">
-        <v>5.03619384765625</v>
+        <v>-0.11785888671875</v>
       </c>
     </row>
     <row r="114">
@@ -2375,10 +2375,10 @@
         <v>523.557609596411</v>
       </c>
       <c r="D114" t="n">
-        <v>518.41064453125</v>
+        <v>523.6599731445312</v>
       </c>
       <c r="E114" t="n">
-        <v>5.14697265625</v>
+        <v>-0.10235595703125</v>
       </c>
     </row>
     <row r="115">
@@ -2392,10 +2392,10 @@
         <v>524.3508763392609</v>
       </c>
       <c r="D115" t="n">
-        <v>519.0965576171875</v>
+        <v>524.4417114257812</v>
       </c>
       <c r="E115" t="n">
-        <v>5.25433349609375</v>
+        <v>-0.0908203125</v>
       </c>
     </row>
     <row r="116">
@@ -2409,10 +2409,10 @@
         <v>525.13905408516</v>
       </c>
       <c r="D116" t="n">
-        <v>519.7803955078125</v>
+        <v>525.2271118164062</v>
       </c>
       <c r="E116" t="n">
-        <v>5.358642578125</v>
+        <v>-0.08807373046875</v>
       </c>
     </row>
     <row r="117">
@@ -2426,10 +2426,10 @@
         <v>525.92923097068</v>
       </c>
       <c r="D117" t="n">
-        <v>520.4622802734375</v>
+        <v>526.0162353515625</v>
       </c>
       <c r="E117" t="n">
-        <v>5.46697998046875</v>
+        <v>-0.08697509765625</v>
       </c>
     </row>
     <row r="118">
@@ -2443,10 +2443,10 @@
         <v>526.7266300602059</v>
       </c>
       <c r="D118" t="n">
-        <v>521.1417236328125</v>
+        <v>526.81103515625</v>
       </c>
       <c r="E118" t="n">
-        <v>5.58489990234375</v>
+        <v>-0.08441162109375</v>
       </c>
     </row>
     <row r="119">
@@ -2460,10 +2460,10 @@
         <v>527.531264074822</v>
       </c>
       <c r="D119" t="n">
-        <v>521.8201904296875</v>
+        <v>527.6094360351562</v>
       </c>
       <c r="E119" t="n">
-        <v>5.7110595703125</v>
+        <v>-0.07818603515625</v>
       </c>
     </row>
     <row r="120">
@@ -2477,10 +2477,10 @@
         <v>528.337681948824</v>
       </c>
       <c r="D120" t="n">
-        <v>522.5</v>
+        <v>528.40673828125</v>
       </c>
       <c r="E120" t="n">
-        <v>5.83770751953125</v>
+        <v>-0.06903076171875</v>
       </c>
     </row>
     <row r="121">
@@ -2494,10 +2494,10 @@
         <v>529.141108687154</v>
       </c>
       <c r="D121" t="n">
-        <v>523.1808471679688</v>
+        <v>529.2034912109375</v>
       </c>
       <c r="E121" t="n">
-        <v>5.96026611328125</v>
+        <v>-0.0623779296875</v>
       </c>
     </row>
     <row r="122">
@@ -2511,10 +2511,10 @@
         <v>529.938784510251</v>
       </c>
       <c r="D122" t="n">
-        <v>523.8615112304688</v>
+        <v>530.002197265625</v>
       </c>
       <c r="E122" t="n">
-        <v>6.0772705078125</v>
+        <v>-0.06341552734375</v>
       </c>
     </row>
     <row r="123">
@@ -2528,10 +2528,10 @@
         <v>530.730932788171</v>
       </c>
       <c r="D123" t="n">
-        <v>524.5416870117188</v>
+        <v>530.8035278320312</v>
       </c>
       <c r="E123" t="n">
-        <v>6.18927001953125</v>
+        <v>-0.07257080078125</v>
       </c>
     </row>
     <row r="124">
@@ -2545,10 +2545,10 @@
         <v>531.520061451296</v>
       </c>
       <c r="D124" t="n">
-        <v>525.221923828125</v>
+        <v>531.606689453125</v>
       </c>
       <c r="E124" t="n">
-        <v>6.29815673828125</v>
+        <v>-0.08660888671875</v>
       </c>
     </row>
     <row r="125">
@@ -2562,10 +2562,10 @@
         <v>532.30970074917</v>
       </c>
       <c r="D125" t="n">
-        <v>525.9024658203125</v>
+        <v>532.4116821289062</v>
       </c>
       <c r="E125" t="n">
-        <v>6.4072265625</v>
+        <v>-0.10198974609375</v>
       </c>
     </row>
     <row r="126">
@@ -2579,10 +2579,10 @@
         <v>533.09975937603</v>
       </c>
       <c r="D126" t="n">
-        <v>526.5833129882812</v>
+        <v>533.2182006835938</v>
       </c>
       <c r="E126" t="n">
-        <v>6.51641845703125</v>
+        <v>-0.11846923828125</v>
       </c>
     </row>
     <row r="127">
@@ -2596,10 +2596,10 @@
         <v>533.890796334353</v>
       </c>
       <c r="D127" t="n">
-        <v>527.264404296875</v>
+        <v>534.0267944335938</v>
       </c>
       <c r="E127" t="n">
-        <v>6.62640380859375</v>
+        <v>-0.135986328125</v>
       </c>
     </row>
     <row r="128">
@@ -2613,10 +2613,10 @@
         <v>534.685509182465</v>
       </c>
       <c r="D128" t="n">
-        <v>527.9451904296875</v>
+        <v>534.8388061523438</v>
       </c>
       <c r="E128" t="n">
-        <v>6.74029541015625</v>
+        <v>-0.1533203125</v>
       </c>
     </row>
     <row r="129">
@@ -2630,10 +2630,10 @@
         <v>535.488739001942</v>
       </c>
       <c r="D129" t="n">
-        <v>528.6267700195312</v>
+        <v>535.6522216796875</v>
       </c>
       <c r="E129" t="n">
-        <v>6.8619384765625</v>
+        <v>-0.16351318359375</v>
       </c>
     </row>
     <row r="130">
@@ -2647,10 +2647,10 @@
         <v>536.300083591088</v>
       </c>
       <c r="D130" t="n">
-        <v>529.3107299804688</v>
+        <v>536.4639282226562</v>
       </c>
       <c r="E130" t="n">
-        <v>6.9893798828125</v>
+        <v>-0.163818359375</v>
       </c>
     </row>
     <row r="131">
@@ -2664,10 +2664,10 @@
         <v>537.1117940385531</v>
       </c>
       <c r="D131" t="n">
-        <v>529.997802734375</v>
+        <v>537.2715454101562</v>
       </c>
       <c r="E131" t="n">
-        <v>7.114013671875</v>
+        <v>-0.15972900390625</v>
       </c>
     </row>
     <row r="132">
@@ -2681,10 +2681,10 @@
         <v>537.9202601223781</v>
       </c>
       <c r="D132" t="n">
-        <v>530.6876831054688</v>
+        <v>538.0750732421875</v>
       </c>
       <c r="E132" t="n">
-        <v>7.23260498046875</v>
+        <v>-0.15478515625</v>
       </c>
     </row>
     <row r="133">
@@ -2698,10 +2698,10 @@
         <v>538.722572709315</v>
       </c>
       <c r="D133" t="n">
-        <v>531.3799438476562</v>
+        <v>538.8746948242188</v>
       </c>
       <c r="E133" t="n">
-        <v>7.3426513671875</v>
+        <v>-0.152099609375</v>
       </c>
     </row>
     <row r="134">
@@ -2715,10 +2715,10 @@
         <v>539.517546450646</v>
       </c>
       <c r="D134" t="n">
-        <v>532.07373046875</v>
+        <v>539.67138671875</v>
       </c>
       <c r="E134" t="n">
-        <v>7.44378662109375</v>
+        <v>-0.15386962890625</v>
       </c>
     </row>
     <row r="135">
@@ -2732,10 +2732,10 @@
         <v>540.303542877867</v>
       </c>
       <c r="D135" t="n">
-        <v>532.767822265625</v>
+        <v>540.467041015625</v>
       </c>
       <c r="E135" t="n">
-        <v>7.53570556640625</v>
+        <v>-0.16351318359375</v>
       </c>
     </row>
     <row r="136">
@@ -2749,10 +2749,10 @@
         <v>541.077054873213</v>
       </c>
       <c r="D136" t="n">
-        <v>533.46044921875</v>
+        <v>541.2655029296875</v>
       </c>
       <c r="E136" t="n">
-        <v>7.6165771484375</v>
+        <v>-0.1884765625</v>
       </c>
     </row>
     <row r="137">
@@ -2766,10 +2766,10 @@
         <v>541.834585991448</v>
       </c>
       <c r="D137" t="n">
-        <v>534.1522216796875</v>
+        <v>542.065673828125</v>
       </c>
       <c r="E137" t="n">
-        <v>7.682373046875</v>
+        <v>-0.2310791015625</v>
       </c>
     </row>
     <row r="138">
@@ -2783,10 +2783,10 @@
         <v>542.584876679496</v>
       </c>
       <c r="D138" t="n">
-        <v>534.844482421875</v>
+        <v>542.8654174804688</v>
       </c>
       <c r="E138" t="n">
-        <v>7.74041748046875</v>
+        <v>-0.280517578125</v>
       </c>
     </row>
     <row r="139">
@@ -2800,10 +2800,10 @@
         <v>543.335969225772</v>
       </c>
       <c r="D139" t="n">
-        <v>535.53759765625</v>
+        <v>543.66357421875</v>
       </c>
       <c r="E139" t="n">
-        <v>7.79840087890625</v>
+        <v>-0.32757568359375</v>
       </c>
     </row>
     <row r="140">
@@ -2817,10 +2817,10 @@
         <v>544.089736943475</v>
       </c>
       <c r="D140" t="n">
-        <v>536.2316284179688</v>
+        <v>544.4597778320312</v>
       </c>
       <c r="E140" t="n">
-        <v>7.85809326171875</v>
+        <v>-0.37005615234375</v>
       </c>
     </row>
     <row r="141">
@@ -2834,10 +2834,10 @@
         <v>544.851398144488</v>
       </c>
       <c r="D141" t="n">
-        <v>536.925537109375</v>
+        <v>545.2560424804688</v>
       </c>
       <c r="E141" t="n">
-        <v>7.92584228515625</v>
+        <v>-0.4046630859375</v>
       </c>
     </row>
     <row r="142">
@@ -2851,10 +2851,10 @@
         <v>545.6258687875741</v>
       </c>
       <c r="D142" t="n">
-        <v>537.6195068359375</v>
+        <v>546.0516357421875</v>
       </c>
       <c r="E142" t="n">
-        <v>8.00634765625</v>
+        <v>-0.42578125</v>
       </c>
     </row>
     <row r="143">
@@ -2868,10 +2868,10 @@
         <v>546.418037271244</v>
       </c>
       <c r="D143" t="n">
-        <v>538.3133544921875</v>
+        <v>546.8472900390625</v>
       </c>
       <c r="E143" t="n">
-        <v>8.10467529296875</v>
+        <v>-0.42926025390625</v>
       </c>
     </row>
     <row r="144">
@@ -2885,10 +2885,10 @@
         <v>547.226733806461</v>
       </c>
       <c r="D144" t="n">
-        <v>539.0059204101562</v>
+        <v>547.6451416015625</v>
       </c>
       <c r="E144" t="n">
-        <v>8.2208251953125</v>
+        <v>-0.41839599609375</v>
       </c>
     </row>
     <row r="145">
@@ -2902,10 +2902,10 @@
         <v>548.043876050138</v>
       </c>
       <c r="D145" t="n">
-        <v>539.698486328125</v>
+        <v>548.443115234375</v>
       </c>
       <c r="E145" t="n">
-        <v>8.34539794921875</v>
+        <v>-0.39923095703125</v>
       </c>
     </row>
     <row r="146">
@@ -2919,10 +2919,10 @@
         <v>548.860162671794</v>
       </c>
       <c r="D146" t="n">
-        <v>540.3911743164062</v>
+        <v>549.2408447265625</v>
       </c>
       <c r="E146" t="n">
-        <v>8.468994140625</v>
+        <v>-0.38067626953125</v>
       </c>
     </row>
     <row r="147">
@@ -2936,10 +2936,10 @@
         <v>549.669826655524</v>
       </c>
       <c r="D147" t="n">
-        <v>541.0833740234375</v>
+        <v>550.0396118164062</v>
       </c>
       <c r="E147" t="n">
-        <v>8.58642578125</v>
+        <v>-0.36981201171875</v>
       </c>
     </row>
     <row r="148">
@@ -2953,10 +2953,10 @@
         <v>550.4697453914939</v>
       </c>
       <c r="D148" t="n">
-        <v>541.775146484375</v>
+        <v>550.8397216796875</v>
       </c>
       <c r="E148" t="n">
-        <v>8.694580078125</v>
+        <v>-0.3699951171875</v>
       </c>
     </row>
     <row r="149">
@@ -2970,10 +2970,10 @@
         <v>551.2578901511171</v>
       </c>
       <c r="D149" t="n">
-        <v>542.4671630859375</v>
+        <v>551.6393432617188</v>
       </c>
       <c r="E149" t="n">
-        <v>8.79071044921875</v>
+        <v>-0.3814697265625</v>
       </c>
     </row>
     <row r="150">
@@ -2987,10 +2987,10 @@
         <v>552.033748229647</v>
       </c>
       <c r="D150" t="n">
-        <v>543.159912109375</v>
+        <v>552.43798828125</v>
       </c>
       <c r="E150" t="n">
-        <v>8.87384033203125</v>
+        <v>-0.40423583984375</v>
       </c>
     </row>
     <row r="151">
@@ -3004,10 +3004,10 @@
         <v>552.798343373407</v>
       </c>
       <c r="D151" t="n">
-        <v>543.8523559570312</v>
+        <v>553.2371826171875</v>
       </c>
       <c r="E151" t="n">
-        <v>8.94598388671875</v>
+        <v>-0.4388427734375</v>
       </c>
     </row>
     <row r="152">
@@ -3021,10 +3021,10 @@
         <v>553.5542391086431</v>
       </c>
       <c r="D152" t="n">
-        <v>544.5443725585938</v>
+        <v>554.03759765625</v>
       </c>
       <c r="E152" t="n">
-        <v>9.0098876953125</v>
+        <v>-0.48333740234375</v>
       </c>
     </row>
     <row r="153">
@@ -3038,10 +3038,10 @@
         <v>554.30511703942</v>
       </c>
       <c r="D153" t="n">
-        <v>545.2354736328125</v>
+        <v>554.84033203125</v>
       </c>
       <c r="E153" t="n">
-        <v>9.06964111328125</v>
+        <v>-0.53521728515625</v>
       </c>
     </row>
     <row r="154">
@@ -3055,10 +3055,10 @@
         <v>555.0512731800339</v>
       </c>
       <c r="D154" t="n">
-        <v>545.9263916015625</v>
+        <v>555.6444091796875</v>
       </c>
       <c r="E154" t="n">
-        <v>9.1248779296875</v>
+        <v>-0.5931396484375</v>
       </c>
     </row>
     <row r="155">
@@ -3072,10 +3072,10 @@
         <v>555.7934720108041</v>
       </c>
       <c r="D155" t="n">
-        <v>546.619140625</v>
+        <v>556.4451904296875</v>
       </c>
       <c r="E155" t="n">
-        <v>9.17431640625</v>
+        <v>-0.6517333984375</v>
       </c>
     </row>
     <row r="156">
@@ -3089,10 +3089,10 @@
         <v>556.529665678295</v>
       </c>
       <c r="D156" t="n">
-        <v>547.3135986328125</v>
+        <v>557.2430419921875</v>
       </c>
       <c r="E156" t="n">
-        <v>9.216064453125</v>
+        <v>-0.71337890625</v>
       </c>
     </row>
     <row r="157">
@@ -3106,10 +3106,10 @@
         <v>557.261705510237</v>
       </c>
       <c r="D157" t="n">
-        <v>548.009033203125</v>
+        <v>558.0384521484375</v>
       </c>
       <c r="E157" t="n">
-        <v>9.252685546875</v>
+        <v>-0.7767333984375</v>
       </c>
     </row>
     <row r="158">
@@ -3123,10 +3123,10 @@
         <v>557.994565095105</v>
       </c>
       <c r="D158" t="n">
-        <v>548.70458984375</v>
+        <v>558.8329467773438</v>
       </c>
       <c r="E158" t="n">
-        <v>9.28997802734375</v>
+        <v>-0.83837890625</v>
       </c>
     </row>
     <row r="159">
@@ -3140,10 +3140,10 @@
         <v>558.73443819181</v>
       </c>
       <c r="D159" t="n">
-        <v>549.3994750976562</v>
+        <v>559.6282348632812</v>
       </c>
       <c r="E159" t="n">
-        <v>9.3349609375</v>
+        <v>-0.893798828125</v>
       </c>
     </row>
     <row r="160">
@@ -3157,10 +3157,10 @@
         <v>559.4860486916471</v>
       </c>
       <c r="D160" t="n">
-        <v>550.0931396484375</v>
+        <v>560.4256591796875</v>
       </c>
       <c r="E160" t="n">
-        <v>9.39288330078125</v>
+        <v>-0.93963623046875</v>
       </c>
     </row>
     <row r="161">
@@ -3174,10 +3174,10 @@
         <v>560.2470921282111</v>
       </c>
       <c r="D161" t="n">
-        <v>550.785400390625</v>
+        <v>561.2256469726562</v>
       </c>
       <c r="E161" t="n">
-        <v>9.461669921875</v>
+        <v>-0.97857666015625</v>
       </c>
     </row>
     <row r="162">
@@ -3191,10 +3191,10 @@
         <v>561.012226911323</v>
       </c>
       <c r="D162" t="n">
-        <v>551.4768676757812</v>
+        <v>562.02783203125</v>
       </c>
       <c r="E162" t="n">
-        <v>9.53533935546875</v>
+        <v>-1.015625</v>
       </c>
     </row>
     <row r="163">
@@ -3208,10 +3208,10 @@
         <v>561.77619213815</v>
       </c>
       <c r="D163" t="n">
-        <v>552.1685180664062</v>
+        <v>562.8302612304688</v>
       </c>
       <c r="E163" t="n">
-        <v>9.607666015625</v>
+        <v>-1.0540771484375</v>
       </c>
     </row>
     <row r="164">
@@ -3225,10 +3225,10 @@
         <v>562.5425275875859</v>
       </c>
       <c r="D164" t="n">
-        <v>552.860107421875</v>
+        <v>563.6334228515625</v>
       </c>
       <c r="E164" t="n">
-        <v>9.68243408203125</v>
+        <v>-1.09088134765625</v>
       </c>
     </row>
     <row r="165">
@@ -3242,10 +3242,10 @@
         <v>563.310378650635</v>
       </c>
       <c r="D165" t="n">
-        <v>553.5509033203125</v>
+        <v>564.4391479492188</v>
       </c>
       <c r="E165" t="n">
-        <v>9.75946044921875</v>
+        <v>-1.1287841796875</v>
       </c>
     </row>
     <row r="166">
@@ -3259,10 +3259,10 @@
         <v>564.076790434184</v>
       </c>
       <c r="D166" t="n">
-        <v>554.241455078125</v>
+        <v>565.24658203125</v>
       </c>
       <c r="E166" t="n">
-        <v>9.8353271484375</v>
+        <v>-1.1697998046875</v>
       </c>
     </row>
     <row r="167">
@@ -3276,10 +3276,10 @@
         <v>564.846380122058</v>
       </c>
       <c r="D167" t="n">
-        <v>554.931396484375</v>
+        <v>566.0565795898438</v>
       </c>
       <c r="E167" t="n">
-        <v>9.91497802734375</v>
+        <v>-1.210205078125</v>
       </c>
     </row>
     <row r="168">
@@ -3293,10 +3293,10 @@
         <v>565.6177463081809</v>
       </c>
       <c r="D168" t="n">
-        <v>555.6217041015625</v>
+        <v>566.8676147460938</v>
       </c>
       <c r="E168" t="n">
-        <v>9.99603271484375</v>
+        <v>-1.2498779296875</v>
       </c>
     </row>
     <row r="169">
@@ -3310,10 +3310,10 @@
         <v>566.3837947847439</v>
       </c>
       <c r="D169" t="n">
-        <v>556.3114013671875</v>
+        <v>567.6817016601562</v>
       </c>
       <c r="E169" t="n">
-        <v>10.0723876953125</v>
+        <v>-1.29791259765625</v>
       </c>
     </row>
     <row r="170">
@@ -3327,10 +3327,10 @@
         <v>567.147078184546</v>
       </c>
       <c r="D170" t="n">
-        <v>557</v>
+        <v>568.5003662109375</v>
       </c>
       <c r="E170" t="n">
-        <v>10.1470947265625</v>
+        <v>-1.353271484375</v>
       </c>
     </row>
     <row r="171">
@@ -3344,10 +3344,10 @@
         <v>567.913653135667</v>
       </c>
       <c r="D171" t="n">
-        <v>557.6888427734375</v>
+        <v>569.3214721679688</v>
       </c>
       <c r="E171" t="n">
-        <v>10.22479248046875</v>
+        <v>-1.4078369140625</v>
       </c>
     </row>
     <row r="172">
@@ -3361,10 +3361,10 @@
         <v>568.685604495657</v>
       </c>
       <c r="D172" t="n">
-        <v>558.3783569335938</v>
+        <v>570.1442260742188</v>
       </c>
       <c r="E172" t="n">
-        <v>10.3072509765625</v>
+        <v>-1.4586181640625</v>
       </c>
     </row>
     <row r="173">
@@ -3378,10 +3378,10 @@
         <v>569.462648934653</v>
       </c>
       <c r="D173" t="n">
-        <v>559.0701904296875</v>
+        <v>570.96533203125</v>
       </c>
       <c r="E173" t="n">
-        <v>10.3924560546875</v>
+        <v>-1.502685546875</v>
       </c>
     </row>
     <row r="174">
@@ -3395,10 +3395,10 @@
         <v>570.240508587697</v>
       </c>
       <c r="D174" t="n">
-        <v>559.764892578125</v>
+        <v>571.7830810546875</v>
       </c>
       <c r="E174" t="n">
-        <v>10.4755859375</v>
+        <v>-1.5426025390625</v>
       </c>
     </row>
     <row r="175">
@@ -3412,10 +3412,10 @@
         <v>571.016013120167</v>
       </c>
       <c r="D175" t="n">
-        <v>560.4630126953125</v>
+        <v>572.5953369140625</v>
       </c>
       <c r="E175" t="n">
-        <v>10.552978515625</v>
+        <v>-1.579345703125</v>
       </c>
     </row>
     <row r="176">
@@ -3429,10 +3429,10 @@
         <v>571.789637823436</v>
       </c>
       <c r="D176" t="n">
-        <v>561.16357421875</v>
+        <v>573.40380859375</v>
       </c>
       <c r="E176" t="n">
-        <v>10.62603759765625</v>
+        <v>-1.61419677734375</v>
       </c>
     </row>
     <row r="177">
@@ -3446,10 +3446,10 @@
         <v>572.565149511662</v>
       </c>
       <c r="D177" t="n">
-        <v>561.8643798828125</v>
+        <v>574.211669921875</v>
       </c>
       <c r="E177" t="n">
-        <v>10.70074462890625</v>
+        <v>-1.64654541015625</v>
       </c>
     </row>
     <row r="178">
@@ -3463,10 +3463,10 @@
         <v>573.343602866576</v>
       </c>
       <c r="D178" t="n">
-        <v>562.5645751953125</v>
+        <v>575.02099609375</v>
       </c>
       <c r="E178" t="n">
-        <v>10.779052734375</v>
+        <v>-1.6773681640625</v>
       </c>
     </row>
     <row r="179">
@@ -3480,10 +3480,10 @@
         <v>574.126523624147</v>
       </c>
       <c r="D179" t="n">
-        <v>563.2640380859375</v>
+        <v>575.8321533203125</v>
       </c>
       <c r="E179" t="n">
-        <v>10.86248779296875</v>
+        <v>-1.70562744140625</v>
       </c>
     </row>
     <row r="180">
@@ -3497,10 +3497,10 @@
         <v>574.909902208724</v>
       </c>
       <c r="D180" t="n">
-        <v>563.9637451171875</v>
+        <v>576.6434936523438</v>
       </c>
       <c r="E180" t="n">
-        <v>10.9461669921875</v>
+        <v>-1.73358154296875</v>
       </c>
     </row>
     <row r="181">
@@ -3514,10 +3514,10 @@
         <v>575.68657857253</v>
       </c>
       <c r="D181" t="n">
-        <v>564.6648559570312</v>
+        <v>577.4525146484375</v>
       </c>
       <c r="E181" t="n">
-        <v>11.021728515625</v>
+        <v>-1.76593017578125</v>
       </c>
     </row>
     <row r="182">
@@ -3531,10 +3531,10 @@
         <v>576.449995797848</v>
       </c>
       <c r="D182" t="n">
-        <v>565.3671264648438</v>
+        <v>578.2592163085938</v>
       </c>
       <c r="E182" t="n">
-        <v>11.0828857421875</v>
+        <v>-1.8092041015625</v>
       </c>
     </row>
     <row r="183">
@@ -3548,10 +3548,10 @@
         <v>577.199722184597</v>
       </c>
       <c r="D183" t="n">
-        <v>566.0703735351562</v>
+        <v>579.0634765625</v>
       </c>
       <c r="E183" t="n">
-        <v>11.12933349609375</v>
+        <v>-1.86376953125</v>
       </c>
     </row>
     <row r="184">
@@ -3565,10 +3565,10 @@
         <v>577.935739099875</v>
       </c>
       <c r="D184" t="n">
-        <v>566.7742919921875</v>
+        <v>579.8658447265625</v>
       </c>
       <c r="E184" t="n">
-        <v>11.16143798828125</v>
+        <v>-1.93011474609375</v>
       </c>
     </row>
     <row r="185">
@@ -3582,10 +3582,10 @@
         <v>578.658247057946</v>
       </c>
       <c r="D185" t="n">
-        <v>567.4782104492188</v>
+        <v>580.6672973632812</v>
       </c>
       <c r="E185" t="n">
-        <v>11.1800537109375</v>
+        <v>-2.009033203125</v>
       </c>
     </row>
     <row r="186">
@@ -3599,10 +3599,10 @@
         <v>579.363985294252</v>
       </c>
       <c r="D186" t="n">
-        <v>568.1813354492188</v>
+        <v>581.4693603515625</v>
       </c>
       <c r="E186" t="n">
-        <v>11.18267822265625</v>
+        <v>-2.1053466796875</v>
       </c>
     </row>
     <row r="187">
@@ -3616,10 +3616,10 @@
         <v>580.04698545442</v>
       </c>
       <c r="D187" t="n">
-        <v>568.8834838867188</v>
+        <v>582.2726440429688</v>
       </c>
       <c r="E187" t="n">
-        <v>11.16351318359375</v>
+        <v>-2.22564697265625</v>
       </c>
     </row>
     <row r="188">
@@ -3633,10 +3633,10 @@
         <v>580.721074972618</v>
       </c>
       <c r="D188" t="n">
-        <v>569.5847778320312</v>
+        <v>583.0772094726562</v>
       </c>
       <c r="E188" t="n">
-        <v>11.13629150390625</v>
+        <v>-2.35614013671875</v>
       </c>
     </row>
     <row r="189">
@@ -3650,10 +3650,10 @@
         <v>581.405491470642</v>
       </c>
       <c r="D189" t="n">
-        <v>570.2857666015625</v>
+        <v>583.8822021484375</v>
       </c>
       <c r="E189" t="n">
-        <v>11.1197509765625</v>
+        <v>-2.4766845703125</v>
       </c>
     </row>
     <row r="190">
@@ -3667,10 +3667,10 @@
         <v>582.124395497207</v>
       </c>
       <c r="D190" t="n">
-        <v>570.9867553710938</v>
+        <v>584.6867065429688</v>
       </c>
       <c r="E190" t="n">
-        <v>11.13763427734375</v>
+        <v>-2.56231689453125</v>
       </c>
     </row>
     <row r="191">
@@ -3684,10 +3684,10 @@
         <v>582.876182388795</v>
       </c>
       <c r="D191" t="n">
-        <v>571.6906127929688</v>
+        <v>585.4849243164062</v>
       </c>
       <c r="E191" t="n">
-        <v>11.185546875</v>
+        <v>-2.6087646484375</v>
       </c>
     </row>
     <row r="192">
@@ -3701,10 +3701,10 @@
         <v>583.670106799146</v>
       </c>
       <c r="D192" t="n">
-        <v>572.3931884765625</v>
+        <v>586.284423828125</v>
       </c>
       <c r="E192" t="n">
-        <v>11.27691650390625</v>
+        <v>-2.61431884765625</v>
       </c>
     </row>
     <row r="193">
@@ -3718,10 +3718,10 @@
         <v>584.414259534326</v>
       </c>
       <c r="D193" t="n">
-        <v>573.0921630859375</v>
+        <v>587.0906372070312</v>
       </c>
       <c r="E193" t="n">
-        <v>11.32208251953125</v>
+        <v>-2.6763916015625</v>
       </c>
     </row>
     <row r="194">
@@ -3735,10 +3735,10 @@
         <v>585.1355745735659</v>
       </c>
       <c r="D194" t="n">
-        <v>573.7908935546875</v>
+        <v>587.8974609375</v>
       </c>
       <c r="E194" t="n">
-        <v>11.34466552734375</v>
+        <v>-2.76190185546875</v>
       </c>
     </row>
     <row r="195">
@@ -3752,10 +3752,10 @@
         <v>585.8493721784751</v>
       </c>
       <c r="D195" t="n">
-        <v>574.4898681640625</v>
+        <v>588.6400146484375</v>
       </c>
       <c r="E195" t="n">
-        <v>11.3594970703125</v>
+        <v>-2.7906494140625</v>
       </c>
     </row>
     <row r="196">
@@ -3769,10 +3769,10 @@
         <v>586.561215476556</v>
       </c>
       <c r="D196" t="n">
-        <v>575.1891479492188</v>
+        <v>589.0247192382812</v>
       </c>
       <c r="E196" t="n">
-        <v>11.3720703125</v>
+        <v>-2.4635009765625</v>
       </c>
     </row>
     <row r="197">
@@ -3786,10 +3786,10 @@
         <v>587.2730302167849</v>
       </c>
       <c r="D197" t="n">
-        <v>575.8885498046875</v>
+        <v>589.4091796875</v>
       </c>
       <c r="E197" t="n">
-        <v>11.38446044921875</v>
+        <v>-2.13616943359375</v>
       </c>
     </row>
     <row r="198">
@@ -3803,10 +3803,10 @@
         <v>587.9851294139361</v>
       </c>
       <c r="D198" t="n">
-        <v>576.588134765625</v>
+        <v>589.7935791015625</v>
       </c>
       <c r="E198" t="n">
-        <v>11.39697265625</v>
+        <v>-1.8084716796875</v>
       </c>
     </row>
     <row r="199">
@@ -3820,10 +3820,10 @@
         <v>588.696958039101</v>
       </c>
       <c r="D199" t="n">
-        <v>577.2877197265625</v>
+        <v>590.177734375</v>
       </c>
       <c r="E199" t="n">
-        <v>11.40924072265625</v>
+        <v>-1.48077392578125</v>
       </c>
     </row>
     <row r="200">
@@ -3837,10 +3837,10 @@
         <v>589.4074008957271</v>
       </c>
       <c r="D200" t="n">
-        <v>577.9873657226562</v>
+        <v>590.5619506835938</v>
       </c>
       <c r="E200" t="n">
-        <v>11.4200439453125</v>
+        <v>-1.154541015625</v>
       </c>
     </row>
     <row r="201">
@@ -3854,10 +3854,10 @@
         <v>590.114891995119</v>
       </c>
       <c r="D201" t="n">
-        <v>578.68701171875</v>
+        <v>590.9461669921875</v>
       </c>
       <c r="E201" t="n">
-        <v>11.4278564453125</v>
+        <v>-0.831298828125</v>
       </c>
     </row>
     <row r="202">
@@ -3871,10 +3871,10 @@
         <v>590.818051071176</v>
       </c>
       <c r="D202" t="n">
-        <v>579.2650146484375</v>
+        <v>591.33056640625</v>
       </c>
       <c r="E202" t="n">
-        <v>11.55303955078125</v>
+        <v>-0.51251220703125</v>
       </c>
     </row>
     <row r="203">
@@ -3888,10 +3888,10 @@
         <v>591.515826724007</v>
       </c>
       <c r="D203" t="n">
-        <v>579.724609375</v>
+        <v>591.715087890625</v>
       </c>
       <c r="E203" t="n">
-        <v>11.79119873046875</v>
+        <v>-0.19927978515625</v>
       </c>
     </row>
     <row r="204">
@@ -3905,10 +3905,10 @@
         <v>592.208001982814</v>
       </c>
       <c r="D204" t="n">
-        <v>580.18408203125</v>
+        <v>592.099853515625</v>
       </c>
       <c r="E204" t="n">
-        <v>12.02392578125</v>
+        <v>0.108154296875</v>
       </c>
     </row>
     <row r="205">
@@ -3922,10 +3922,10 @@
         <v>251.671021855103</v>
       </c>
       <c r="D205" t="n">
-        <v>316.5531616210938</v>
+        <v>268.6521606445312</v>
       </c>
       <c r="E205" t="n">
-        <v>-64.88214111328125</v>
+        <v>-16.98114013671875</v>
       </c>
     </row>
     <row r="206">
@@ -3939,10 +3939,10 @@
         <v>264.21622891732</v>
       </c>
       <c r="D206" t="n">
-        <v>318.2509765625</v>
+        <v>274.5516052246094</v>
       </c>
       <c r="E206" t="n">
-        <v>-54.03475952148438</v>
+        <v>-10.33538818359375</v>
       </c>
     </row>
     <row r="207">
@@ -3956,10 +3956,10 @@
         <v>273.78575888259</v>
       </c>
       <c r="D207" t="n">
-        <v>321.1685791015625</v>
+        <v>279.6341552734375</v>
       </c>
       <c r="E207" t="n">
-        <v>-47.3828125</v>
+        <v>-5.848388671875</v>
       </c>
     </row>
     <row r="208">
@@ -3973,10 +3973,10 @@
         <v>281.271311585657</v>
       </c>
       <c r="D208" t="n">
-        <v>323.4920654296875</v>
+        <v>283.5550231933594</v>
       </c>
       <c r="E208" t="n">
-        <v>-42.22076416015625</v>
+        <v>-2.283721923828125</v>
       </c>
     </row>
     <row r="209">
@@ -3990,10 +3990,10 @@
         <v>287.530316916377</v>
       </c>
       <c r="D209" t="n">
-        <v>326.1964111328125</v>
+        <v>287.6891174316406</v>
       </c>
       <c r="E209" t="n">
-        <v>-38.66610717773438</v>
+        <v>-0.1588134765625</v>
       </c>
     </row>
     <row r="210">
@@ -4007,10 +4007,10 @@
         <v>293.135799212507</v>
       </c>
       <c r="D210" t="n">
-        <v>328.7667236328125</v>
+        <v>291.7980651855469</v>
       </c>
       <c r="E210" t="n">
-        <v>-35.63092041015625</v>
+        <v>1.337738037109375</v>
       </c>
     </row>
     <row r="211">
@@ -4024,10 +4024,10 @@
         <v>297.872315429841</v>
       </c>
       <c r="D211" t="n">
-        <v>331.0305786132812</v>
+        <v>295.8760375976562</v>
       </c>
       <c r="E211" t="n">
-        <v>-33.15826416015625</v>
+        <v>1.99627685546875</v>
       </c>
     </row>
     <row r="212">
@@ -4041,10 +4041,10 @@
         <v>302.182437460197</v>
       </c>
       <c r="D212" t="n">
-        <v>333.4149169921875</v>
+        <v>300.3418579101562</v>
       </c>
       <c r="E212" t="n">
-        <v>-31.23248291015625</v>
+        <v>1.840576171875</v>
       </c>
     </row>
     <row r="213">
@@ -4058,10 +4058,10 @@
         <v>306.855290595792</v>
       </c>
       <c r="D213" t="n">
-        <v>335.6428833007812</v>
+        <v>304.9145202636719</v>
       </c>
       <c r="E213" t="n">
-        <v>-28.78759765625</v>
+        <v>1.940765380859375</v>
       </c>
     </row>
     <row r="214">
@@ -4075,10 +4075,10 @@
         <v>311.5812611667</v>
       </c>
       <c r="D214" t="n">
-        <v>337.9066467285156</v>
+        <v>309.6083068847656</v>
       </c>
       <c r="E214" t="n">
-        <v>-26.32537841796875</v>
+        <v>1.97296142578125</v>
       </c>
     </row>
     <row r="215">
@@ -4092,10 +4092,10 @@
         <v>316.151980459623</v>
       </c>
       <c r="D215" t="n">
-        <v>340.1140441894531</v>
+        <v>314.1738586425781</v>
       </c>
       <c r="E215" t="n">
-        <v>-23.96206665039062</v>
+        <v>1.978118896484375</v>
       </c>
     </row>
     <row r="216">
@@ -4109,10 +4109,10 @@
         <v>321.024230909476</v>
       </c>
       <c r="D216" t="n">
-        <v>342.3152465820312</v>
+        <v>318.6488647460938</v>
       </c>
       <c r="E216" t="n">
-        <v>-21.291015625</v>
+        <v>2.3753662109375</v>
       </c>
     </row>
     <row r="217">
@@ -4126,10 +4126,10 @@
         <v>325.720452469642</v>
       </c>
       <c r="D217" t="n">
-        <v>344.5681457519531</v>
+        <v>323.2249755859375</v>
       </c>
       <c r="E217" t="n">
-        <v>-18.84768676757812</v>
+        <v>2.4954833984375</v>
       </c>
     </row>
     <row r="218">
@@ -4143,10 +4143,10 @@
         <v>329.938070675481</v>
       </c>
       <c r="D218" t="n">
-        <v>346.6393127441406</v>
+        <v>327.7994689941406</v>
       </c>
       <c r="E218" t="n">
-        <v>-16.70123291015625</v>
+        <v>2.13861083984375</v>
       </c>
     </row>
     <row r="219">
@@ -4160,10 +4160,10 @@
         <v>334.215214491751</v>
       </c>
       <c r="D219" t="n">
-        <v>348.8315734863281</v>
+        <v>332.5906677246094</v>
       </c>
       <c r="E219" t="n">
-        <v>-14.61636352539062</v>
+        <v>1.624542236328125</v>
       </c>
     </row>
     <row r="220">
@@ -4177,10 +4177,10 @@
         <v>337.884943190913</v>
       </c>
       <c r="D220" t="n">
-        <v>351.0884704589844</v>
+        <v>337.4391479492188</v>
       </c>
       <c r="E220" t="n">
-        <v>-13.20352172851562</v>
+        <v>0.44580078125</v>
       </c>
     </row>
     <row r="221">
@@ -4194,10 +4194,10 @@
         <v>340.494973180004</v>
       </c>
       <c r="D221" t="n">
-        <v>353.2335205078125</v>
+        <v>340.5613403320312</v>
       </c>
       <c r="E221" t="n">
-        <v>-12.73855590820312</v>
+        <v>-0.066375732421875</v>
       </c>
     </row>
     <row r="222">
@@ -4211,10 +4211,10 @@
         <v>343.401474260756</v>
       </c>
       <c r="D222" t="n">
-        <v>355.4998779296875</v>
+        <v>343.5760498046875</v>
       </c>
       <c r="E222" t="n">
-        <v>-12.098388671875</v>
+        <v>-0.174560546875</v>
       </c>
     </row>
     <row r="223">
@@ -4228,10 +4228,10 @@
         <v>347.066950140101</v>
       </c>
       <c r="D223" t="n">
-        <v>357.6943054199219</v>
+        <v>346.5075378417969</v>
       </c>
       <c r="E223" t="n">
-        <v>-10.62734985351562</v>
+        <v>0.559417724609375</v>
       </c>
     </row>
     <row r="224">
@@ -4245,10 +4245,10 @@
         <v>350.64108801961</v>
       </c>
       <c r="D224" t="n">
-        <v>359.8244934082031</v>
+        <v>349.5245056152344</v>
       </c>
       <c r="E224" t="n">
-        <v>-9.18341064453125</v>
+        <v>1.1165771484375</v>
       </c>
     </row>
     <row r="225">
@@ -4262,10 +4262,10 @@
         <v>354.109238630759</v>
       </c>
       <c r="D225" t="n">
-        <v>362.1529235839844</v>
+        <v>352.8623657226562</v>
       </c>
       <c r="E225" t="n">
-        <v>-8.043670654296875</v>
+        <v>1.24688720703125</v>
       </c>
     </row>
     <row r="226">
@@ -4279,10 +4279,10 @@
         <v>357.621819120563</v>
       </c>
       <c r="D226" t="n">
-        <v>364.3215637207031</v>
+        <v>355.9640808105469</v>
       </c>
       <c r="E226" t="n">
-        <v>-6.699737548828125</v>
+        <v>1.657745361328125</v>
       </c>
     </row>
     <row r="227">
@@ -4296,10 +4296,10 @@
         <v>360.763218221998</v>
       </c>
       <c r="D227" t="n">
-        <v>366.7500305175781</v>
+        <v>359.3147888183594</v>
       </c>
       <c r="E227" t="n">
-        <v>-5.98681640625</v>
+        <v>1.44842529296875</v>
       </c>
     </row>
     <row r="228">
@@ -4313,10 +4313,10 @@
         <v>364.206888941698</v>
       </c>
       <c r="D228" t="n">
-        <v>368.946044921875</v>
+        <v>362.5162353515625</v>
       </c>
       <c r="E228" t="n">
-        <v>-4.739166259765625</v>
+        <v>1.690643310546875</v>
       </c>
     </row>
     <row r="229">
@@ -4330,10 +4330,10 @@
         <v>368.431991902877</v>
       </c>
       <c r="D229" t="n">
-        <v>371.2127990722656</v>
+        <v>365.7308654785156</v>
       </c>
       <c r="E229" t="n">
-        <v>-2.780792236328125</v>
+        <v>2.701141357421875</v>
       </c>
     </row>
     <row r="230">
@@ -4347,10 +4347,10 @@
         <v>372.602133626715</v>
       </c>
       <c r="D230" t="n">
-        <v>373.6649169921875</v>
+        <v>369.1113586425781</v>
       </c>
       <c r="E230" t="n">
-        <v>-1.062774658203125</v>
+        <v>3.49078369140625</v>
       </c>
     </row>
     <row r="231">
@@ -4364,10 +4364,10 @@
         <v>376.112602258517</v>
       </c>
       <c r="D231" t="n">
-        <v>375.9347534179688</v>
+        <v>372.4269409179688</v>
       </c>
       <c r="E231" t="n">
-        <v>0.1778564453125</v>
+        <v>3.6856689453125</v>
       </c>
     </row>
     <row r="232">
@@ -4381,10 +4381,10 @@
         <v>378.8712623499</v>
       </c>
       <c r="D232" t="n">
-        <v>378.4120788574219</v>
+        <v>375.9299621582031</v>
       </c>
       <c r="E232" t="n">
-        <v>0.459197998046875</v>
+        <v>2.941314697265625</v>
       </c>
     </row>
     <row r="233">
@@ -4398,10 +4398,10 @@
         <v>380.968581440183</v>
       </c>
       <c r="D233" t="n">
-        <v>380.6753845214844</v>
+        <v>379.1325988769531</v>
       </c>
       <c r="E233" t="n">
-        <v>0.293182373046875</v>
+        <v>1.835968017578125</v>
       </c>
     </row>
     <row r="234">
@@ -4415,10 +4415,10 @@
         <v>382.878105269777</v>
       </c>
       <c r="D234" t="n">
-        <v>383.1932373046875</v>
+        <v>382.6409912109375</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.31512451171875</v>
+        <v>0.23712158203125</v>
       </c>
     </row>
     <row r="235">
@@ -4432,10 +4432,10 @@
         <v>385.12847359556</v>
       </c>
       <c r="D235" t="n">
-        <v>385.48583984375</v>
+        <v>385.9759521484375</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.35736083984375</v>
+        <v>-0.84747314453125</v>
       </c>
     </row>
     <row r="236">
@@ -4449,10 +4449,10 @@
         <v>387.971702780591</v>
       </c>
       <c r="D236" t="n">
-        <v>387.7420654296875</v>
+        <v>389.2532653808594</v>
       </c>
       <c r="E236" t="n">
-        <v>0.229644775390625</v>
+        <v>-1.28155517578125</v>
       </c>
     </row>
     <row r="237">
@@ -4466,10 +4466,10 @@
         <v>391.452552277676</v>
       </c>
       <c r="D237" t="n">
-        <v>390.4332580566406</v>
+        <v>393.0707397460938</v>
       </c>
       <c r="E237" t="n">
-        <v>1.019287109375</v>
+        <v>-1.618194580078125</v>
       </c>
     </row>
     <row r="238">
@@ -4483,10 +4483,10 @@
         <v>395.032971553912</v>
       </c>
       <c r="D238" t="n">
-        <v>392.834228515625</v>
+        <v>396.7418823242188</v>
       </c>
       <c r="E238" t="n">
-        <v>2.19873046875</v>
+        <v>-1.70892333984375</v>
       </c>
     </row>
     <row r="239">
@@ -4500,10 +4500,10 @@
         <v>398.280777627916</v>
       </c>
       <c r="D239" t="n">
-        <v>395.5068664550781</v>
+        <v>400.7232360839844</v>
       </c>
       <c r="E239" t="n">
-        <v>2.77392578125</v>
+        <v>-2.44244384765625</v>
       </c>
     </row>
     <row r="240">
@@ -4517,10 +4517,10 @@
         <v>401.319887746144</v>
       </c>
       <c r="D240" t="n">
-        <v>397.8273010253906</v>
+        <v>404.3019104003906</v>
       </c>
       <c r="E240" t="n">
-        <v>3.492584228515625</v>
+        <v>-2.982025146484375</v>
       </c>
     </row>
     <row r="241">
@@ -4534,10 +4534,10 @@
         <v>404.181049259923</v>
       </c>
       <c r="D241" t="n">
-        <v>400.5152282714844</v>
+        <v>408.1808471679688</v>
       </c>
       <c r="E241" t="n">
-        <v>3.66583251953125</v>
+        <v>-3.999786376953125</v>
       </c>
     </row>
     <row r="242">
@@ -4551,10 +4551,10 @@
         <v>406.987507775872</v>
       </c>
       <c r="D242" t="n">
-        <v>403.158447265625</v>
+        <v>411.9771423339844</v>
       </c>
       <c r="E242" t="n">
-        <v>3.829071044921875</v>
+        <v>-4.9896240234375</v>
       </c>
     </row>
     <row r="243">
@@ -4568,10 +4568,10 @@
         <v>409.908858985516</v>
       </c>
       <c r="D243" t="n">
-        <v>405.5907897949219</v>
+        <v>415.3474426269531</v>
       </c>
       <c r="E243" t="n">
-        <v>4.31805419921875</v>
+        <v>-5.4385986328125</v>
       </c>
     </row>
     <row r="244">
@@ -4585,10 +4585,10 @@
         <v>412.755444712887</v>
       </c>
       <c r="D244" t="n">
-        <v>408.2958068847656</v>
+        <v>417.3451843261719</v>
       </c>
       <c r="E244" t="n">
-        <v>4.459625244140625</v>
+        <v>-4.589752197265625</v>
       </c>
     </row>
     <row r="245">
@@ -4602,10 +4602,10 @@
         <v>415.668896967125</v>
       </c>
       <c r="D245" t="n">
-        <v>410.7897338867188</v>
+        <v>419.2901306152344</v>
       </c>
       <c r="E245" t="n">
-        <v>4.879150390625</v>
+        <v>-3.621246337890625</v>
       </c>
     </row>
     <row r="246">
@@ -4619,10 +4619,10 @@
         <v>418.832170261699</v>
       </c>
       <c r="D246" t="n">
-        <v>413.3799743652344</v>
+        <v>421.8016357421875</v>
       </c>
       <c r="E246" t="n">
-        <v>5.45220947265625</v>
+        <v>-2.969451904296875</v>
       </c>
     </row>
     <row r="247">
@@ -4636,10 +4636,10 @@
         <v>422.010877906935</v>
       </c>
       <c r="D247" t="n">
-        <v>415.9305114746094</v>
+        <v>424.3890380859375</v>
       </c>
       <c r="E247" t="n">
-        <v>6.080352783203125</v>
+        <v>-2.378173828125</v>
       </c>
     </row>
     <row r="248">
@@ -4653,10 +4653,10 @@
         <v>425.037382089327</v>
       </c>
       <c r="D248" t="n">
-        <v>418.8553161621094</v>
+        <v>427.4053039550781</v>
       </c>
       <c r="E248" t="n">
-        <v>6.18206787109375</v>
+        <v>-2.367919921875</v>
       </c>
     </row>
     <row r="249">
@@ -4670,10 +4670,10 @@
         <v>427.868814223569</v>
       </c>
       <c r="D249" t="n">
-        <v>421.5504150390625</v>
+        <v>429.8577270507812</v>
       </c>
       <c r="E249" t="n">
-        <v>6.318389892578125</v>
+        <v>-1.988922119140625</v>
       </c>
     </row>
     <row r="250">
@@ -4687,10 +4687,10 @@
         <v>430.578997579081</v>
       </c>
       <c r="D250" t="n">
-        <v>424.1455993652344</v>
+        <v>432.0287170410156</v>
       </c>
       <c r="E250" t="n">
-        <v>6.43341064453125</v>
+        <v>-1.44970703125</v>
       </c>
     </row>
     <row r="251">
@@ -4704,10 +4704,10 @@
         <v>433.637530085374</v>
       </c>
       <c r="D251" t="n">
-        <v>426.8984375</v>
+        <v>434.4608459472656</v>
       </c>
       <c r="E251" t="n">
-        <v>6.739105224609375</v>
+        <v>-0.82330322265625</v>
       </c>
     </row>
     <row r="252">
@@ -4721,10 +4721,10 @@
         <v>437.125932179922</v>
       </c>
       <c r="D252" t="n">
-        <v>429.7463684082031</v>
+        <v>437.1600646972656</v>
       </c>
       <c r="E252" t="n">
-        <v>7.37957763671875</v>
+        <v>-0.03411865234375</v>
       </c>
     </row>
     <row r="253">
@@ -4738,10 +4738,10 @@
         <v>440.4055118365101</v>
       </c>
       <c r="D253" t="n">
-        <v>432.5538024902344</v>
+        <v>439.9618530273438</v>
       </c>
       <c r="E253" t="n">
-        <v>7.851715087890625</v>
+        <v>0.44366455078125</v>
       </c>
     </row>
     <row r="254">
@@ -4755,10 +4755,10 @@
         <v>443.030677527441</v>
       </c>
       <c r="D254" t="n">
-        <v>435.3232421875</v>
+        <v>442.6934204101562</v>
       </c>
       <c r="E254" t="n">
-        <v>7.707427978515625</v>
+        <v>0.337249755859375</v>
       </c>
     </row>
     <row r="255">
@@ -4772,10 +4772,10 @@
         <v>445.101870792375</v>
       </c>
       <c r="D255" t="n">
-        <v>438.0528564453125</v>
+        <v>445.1247253417969</v>
       </c>
       <c r="E255" t="n">
-        <v>7.04901123046875</v>
+        <v>-0.022857666015625</v>
       </c>
     </row>
     <row r="256">
@@ -4789,10 +4789,10 @@
         <v>447.220367875882</v>
       </c>
       <c r="D256" t="n">
-        <v>441.1192321777344</v>
+        <v>447.9054260253906</v>
       </c>
       <c r="E256" t="n">
-        <v>6.10113525390625</v>
+        <v>-0.68505859375</v>
       </c>
     </row>
     <row r="257">
@@ -4806,10 +4806,10 @@
         <v>449.90041684165</v>
       </c>
       <c r="D257" t="n">
-        <v>444.1127319335938</v>
+        <v>450.7033081054688</v>
       </c>
       <c r="E257" t="n">
-        <v>5.787689208984375</v>
+        <v>-0.802886962890625</v>
       </c>
     </row>
     <row r="258">
@@ -4823,10 +4823,10 @@
         <v>453.08609835363</v>
       </c>
       <c r="D258" t="n">
-        <v>447.0179748535156</v>
+        <v>453.5302734375</v>
       </c>
       <c r="E258" t="n">
-        <v>6.068115234375</v>
+        <v>-0.444183349609375</v>
       </c>
     </row>
     <row r="259">
@@ -4840,10 +4840,10 @@
         <v>456.288903224159</v>
       </c>
       <c r="D259" t="n">
-        <v>449.9974365234375</v>
+        <v>456.577880859375</v>
       </c>
       <c r="E259" t="n">
-        <v>6.291473388671875</v>
+        <v>-0.288970947265625</v>
       </c>
     </row>
     <row r="260">
@@ -4857,10 +4857,10 @@
         <v>459.272590377322</v>
       </c>
       <c r="D260" t="n">
-        <v>452.8652954101562</v>
+        <v>459.4453125</v>
       </c>
       <c r="E260" t="n">
-        <v>6.40728759765625</v>
+        <v>-0.1727294921875</v>
       </c>
     </row>
     <row r="261">
@@ -4874,10 +4874,10 @@
         <v>461.846979094997</v>
       </c>
       <c r="D261" t="n">
-        <v>456.0472412109375</v>
+        <v>462.5430603027344</v>
       </c>
       <c r="E261" t="n">
-        <v>5.79974365234375</v>
+        <v>-0.696075439453125</v>
       </c>
     </row>
     <row r="262">
@@ -4891,10 +4891,10 @@
         <v>464.240694187358</v>
       </c>
       <c r="D262" t="n">
-        <v>458.90234375</v>
+        <v>465.0732727050781</v>
       </c>
       <c r="E262" t="n">
-        <v>5.338348388671875</v>
+        <v>-0.83258056640625</v>
       </c>
     </row>
     <row r="263">
@@ -4908,10 +4908,10 @@
         <v>466.983677783346</v>
       </c>
       <c r="D263" t="n">
-        <v>462.1832580566406</v>
+        <v>468.226318359375</v>
       </c>
       <c r="E263" t="n">
-        <v>4.8004150390625</v>
+        <v>-1.242645263671875</v>
       </c>
     </row>
     <row r="264">
@@ -4925,10 +4925,10 @@
         <v>469.973982253232</v>
       </c>
       <c r="D264" t="n">
-        <v>465.3390502929688</v>
+        <v>471.1356201171875</v>
       </c>
       <c r="E264" t="n">
-        <v>4.634918212890625</v>
+        <v>-1.161651611328125</v>
       </c>
     </row>
     <row r="265">
@@ -4942,10 +4942,10 @@
         <v>473.183710603448</v>
       </c>
       <c r="D265" t="n">
-        <v>468.5108032226562</v>
+        <v>473.5530395507812</v>
       </c>
       <c r="E265" t="n">
-        <v>4.67291259765625</v>
+        <v>-0.36932373046875</v>
       </c>
     </row>
     <row r="266">
@@ -4959,10 +4959,10 @@
         <v>476.273930801176</v>
       </c>
       <c r="D266" t="n">
-        <v>471.8181457519531</v>
+        <v>476.0643615722656</v>
       </c>
       <c r="E266" t="n">
-        <v>4.455780029296875</v>
+        <v>0.209564208984375</v>
       </c>
     </row>
     <row r="267">
@@ -4976,10 +4976,10 @@
         <v>478.9648680035809</v>
       </c>
       <c r="D267" t="n">
-        <v>474.8262634277344</v>
+        <v>478.6385803222656</v>
       </c>
       <c r="E267" t="n">
-        <v>4.13861083984375</v>
+        <v>0.3262939453125</v>
       </c>
     </row>
     <row r="268">
@@ -4993,10 +4993,10 @@
         <v>481.301869594563</v>
       </c>
       <c r="D268" t="n">
-        <v>478.0910034179688</v>
+        <v>481.58056640625</v>
       </c>
       <c r="E268" t="n">
-        <v>3.21087646484375</v>
+        <v>-0.2786865234375</v>
       </c>
     </row>
     <row r="269">
@@ -5010,10 +5010,10 @@
         <v>483.404662241365</v>
       </c>
       <c r="D269" t="n">
-        <v>481.5662841796875</v>
+        <v>484.3588256835938</v>
       </c>
       <c r="E269" t="n">
-        <v>1.83837890625</v>
+        <v>-0.95416259765625</v>
       </c>
     </row>
     <row r="270">
@@ -5027,10 +5027,10 @@
         <v>485.908303383375</v>
       </c>
       <c r="D270" t="n">
-        <v>484.8644409179688</v>
+        <v>486.2308654785156</v>
       </c>
       <c r="E270" t="n">
-        <v>1.043853759765625</v>
+        <v>-0.32257080078125</v>
       </c>
     </row>
     <row r="271">
@@ -5044,10 +5044,10 @@
         <v>489.179033892991</v>
       </c>
       <c r="D271" t="n">
-        <v>488.5882873535156</v>
+        <v>487.9439086914062</v>
       </c>
       <c r="E271" t="n">
-        <v>0.59075927734375</v>
+        <v>1.235137939453125</v>
       </c>
     </row>
     <row r="272">
@@ -5061,10 +5061,10 @@
         <v>492.769763847007</v>
       </c>
       <c r="D272" t="n">
-        <v>492.1208190917969</v>
+        <v>489.5712890625</v>
       </c>
       <c r="E272" t="n">
-        <v>0.648956298828125</v>
+        <v>3.198486328125</v>
       </c>
     </row>
     <row r="273">
@@ -5078,10 +5078,10 @@
         <v>496.2343376394909</v>
       </c>
       <c r="D273" t="n">
-        <v>496.0354309082031</v>
+        <v>492.0114135742188</v>
       </c>
       <c r="E273" t="n">
-        <v>0.19891357421875</v>
+        <v>4.222930908203125</v>
       </c>
     </row>
     <row r="274">
@@ -5095,10 +5095,10 @@
         <v>499.506164512729</v>
       </c>
       <c r="D274" t="n">
-        <v>499.7498168945312</v>
+        <v>494.0439453125</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.24365234375</v>
+        <v>5.46221923828125</v>
       </c>
     </row>
     <row r="275">
@@ -5112,10 +5112,10 @@
         <v>502.12503366448</v>
       </c>
       <c r="D275" t="n">
-        <v>503.4525146484375</v>
+        <v>495.7022094726562</v>
       </c>
       <c r="E275" t="n">
-        <v>-1.327484130859375</v>
+        <v>6.422821044921875</v>
       </c>
     </row>
     <row r="276">
@@ -5129,10 +5129,10 @@
         <v>504.570658586534</v>
       </c>
       <c r="D276" t="n">
-        <v>507.34619140625</v>
+        <v>500.4719543457031</v>
       </c>
       <c r="E276" t="n">
-        <v>-2.775543212890625</v>
+        <v>4.09869384765625</v>
       </c>
     </row>
     <row r="277">
@@ -5146,10 +5146,10 @@
         <v>507.426541289789</v>
       </c>
       <c r="D277" t="n">
-        <v>511.2271118164062</v>
+        <v>505.09716796875</v>
       </c>
       <c r="E277" t="n">
-        <v>-3.800567626953125</v>
+        <v>2.329376220703125</v>
       </c>
     </row>
     <row r="278">
@@ -5163,10 +5163,10 @@
         <v>510.206821492631</v>
       </c>
       <c r="D278" t="n">
-        <v>515.539306640625</v>
+        <v>510.0452880859375</v>
       </c>
       <c r="E278" t="n">
-        <v>-5.332489013671875</v>
+        <v>0.161529541015625</v>
       </c>
     </row>
     <row r="279">
@@ -5180,10 +5180,10 @@
         <v>513.133422872093</v>
       </c>
       <c r="D279" t="n">
-        <v>518.6535034179688</v>
+        <v>514.8126831054688</v>
       </c>
       <c r="E279" t="n">
-        <v>-5.52008056640625</v>
+        <v>-1.67926025390625</v>
       </c>
     </row>
     <row r="280">
@@ -5197,10 +5197,10 @@
         <v>516.392326152721</v>
       </c>
       <c r="D280" t="n">
-        <v>521.4534301757812</v>
+        <v>519.4435424804688</v>
       </c>
       <c r="E280" t="n">
-        <v>-5.06109619140625</v>
+        <v>-3.05120849609375</v>
       </c>
     </row>
     <row r="281">
@@ -5214,10 +5214,10 @@
         <v>519.867730694367</v>
       </c>
       <c r="D281" t="n">
-        <v>524.0205078125</v>
+        <v>524.6141357421875</v>
       </c>
       <c r="E281" t="n">
-        <v>-4.15277099609375</v>
+        <v>-4.74639892578125</v>
       </c>
     </row>
     <row r="282">
@@ -5231,10 +5231,10 @@
         <v>523.585325081704</v>
       </c>
       <c r="D282" t="n">
-        <v>526.4618530273438</v>
+        <v>529.3800048828125</v>
       </c>
       <c r="E282" t="n">
-        <v>-2.87652587890625</v>
+        <v>-5.794677734375</v>
       </c>
     </row>
     <row r="283">
@@ -5248,10 +5248,10 @@
         <v>527.5624824212999</v>
       </c>
       <c r="D283" t="n">
-        <v>529.2391357421875</v>
+        <v>534.8195190429688</v>
       </c>
       <c r="E283" t="n">
-        <v>-1.6766357421875</v>
+        <v>-7.25701904296875</v>
       </c>
     </row>
     <row r="284">
@@ -5265,10 +5265,10 @@
         <v>209.011927927369</v>
       </c>
       <c r="D284" t="n">
-        <v>232.9077453613281</v>
+        <v>214.0933380126953</v>
       </c>
       <c r="E284" t="n">
-        <v>-23.89581298828125</v>
+        <v>-5.081405639648438</v>
       </c>
     </row>
     <row r="285">
@@ -5282,10 +5282,10 @@
         <v>221.793120754345</v>
       </c>
       <c r="D285" t="n">
-        <v>233.5164184570312</v>
+        <v>219.7768249511719</v>
       </c>
       <c r="E285" t="n">
-        <v>-11.72329711914062</v>
+        <v>2.01629638671875</v>
       </c>
     </row>
     <row r="286">
@@ -5299,10 +5299,10 @@
         <v>232.08539600163</v>
       </c>
       <c r="D286" t="n">
-        <v>235.4528656005859</v>
+        <v>227.0587005615234</v>
       </c>
       <c r="E286" t="n">
-        <v>-3.367462158203125</v>
+        <v>5.026702880859375</v>
       </c>
     </row>
     <row r="287">
@@ -5316,10 +5316,10 @@
         <v>240.627714197648</v>
       </c>
       <c r="D287" t="n">
-        <v>237.7075500488281</v>
+        <v>235.0378570556641</v>
       </c>
       <c r="E287" t="n">
-        <v>2.920166015625</v>
+        <v>5.589859008789062</v>
       </c>
     </row>
     <row r="288">
@@ -5333,10 +5333,10 @@
         <v>247.673377492787</v>
       </c>
       <c r="D288" t="n">
-        <v>241.6208190917969</v>
+        <v>244.0061340332031</v>
       </c>
       <c r="E288" t="n">
-        <v>6.05255126953125</v>
+        <v>3.667236328125</v>
       </c>
     </row>
     <row r="289">
@@ -5350,10 +5350,10 @@
         <v>253.62721707432</v>
       </c>
       <c r="D289" t="n">
-        <v>245.4746704101562</v>
+        <v>252.4448089599609</v>
       </c>
       <c r="E289" t="n">
-        <v>8.152542114257812</v>
+        <v>1.182403564453125</v>
       </c>
     </row>
     <row r="290">
@@ -5367,10 +5367,10 @@
         <v>258.910505498735</v>
       </c>
       <c r="D290" t="n">
-        <v>249.4275207519531</v>
+        <v>261.1123046875</v>
       </c>
       <c r="E290" t="n">
-        <v>9.48297119140625</v>
+        <v>-2.201812744140625</v>
       </c>
     </row>
     <row r="291">
@@ -5384,10 +5384,10 @@
         <v>263.769089088647</v>
       </c>
       <c r="D291" t="n">
-        <v>253.0633392333984</v>
+        <v>269.2590942382812</v>
       </c>
       <c r="E291" t="n">
-        <v>10.70576477050781</v>
+        <v>-5.489990234375</v>
       </c>
     </row>
     <row r="292">
@@ -5401,10 +5401,10 @@
         <v>268.326278819998</v>
       </c>
       <c r="D292" t="n">
-        <v>256.046630859375</v>
+        <v>274.0992126464844</v>
       </c>
       <c r="E292" t="n">
-        <v>12.2796630859375</v>
+        <v>-5.772918701171875</v>
       </c>
     </row>
     <row r="293">
@@ -5418,10 +5418,10 @@
         <v>272.764100113871</v>
       </c>
       <c r="D293" t="n">
-        <v>258.7187194824219</v>
+        <v>276.8752136230469</v>
       </c>
       <c r="E293" t="n">
-        <v>14.04537963867188</v>
+        <v>-4.111114501953125</v>
       </c>
     </row>
     <row r="294">
@@ -5435,10 +5435,10 @@
         <v>277.179396142188</v>
       </c>
       <c r="D294" t="n">
-        <v>261.7155456542969</v>
+        <v>280.071533203125</v>
       </c>
       <c r="E294" t="n">
-        <v>15.46383666992188</v>
+        <v>-2.89215087890625</v>
       </c>
     </row>
     <row r="295">
@@ -5452,10 +5452,10 @@
         <v>281.596883976502</v>
       </c>
       <c r="D295" t="n">
-        <v>264.0666809082031</v>
+        <v>282.3093872070312</v>
       </c>
       <c r="E295" t="n">
-        <v>17.53021240234375</v>
+        <v>-0.712493896484375</v>
       </c>
     </row>
     <row r="296">
@@ -5469,10 +5469,10 @@
         <v>285.936384261871</v>
       </c>
       <c r="D296" t="n">
-        <v>267.9639282226562</v>
+        <v>285.2840576171875</v>
       </c>
       <c r="E296" t="n">
-        <v>17.97244262695312</v>
+        <v>0.652313232421875</v>
       </c>
     </row>
     <row r="297">
@@ -5486,10 +5486,10 @@
         <v>289.997027688002</v>
       </c>
       <c r="D297" t="n">
-        <v>272.6511840820312</v>
+        <v>288.4597778320312</v>
       </c>
       <c r="E297" t="n">
-        <v>17.34585571289062</v>
+        <v>1.537261962890625</v>
       </c>
     </row>
     <row r="298">
@@ -5503,10 +5503,10 @@
         <v>293.644256271626</v>
       </c>
       <c r="D298" t="n">
-        <v>276.6563110351562</v>
+        <v>291.9710693359375</v>
       </c>
       <c r="E298" t="n">
-        <v>16.98794555664062</v>
+        <v>1.673187255859375</v>
       </c>
     </row>
     <row r="299">
@@ -5520,10 +5520,10 @@
         <v>297.09172180026</v>
       </c>
       <c r="D299" t="n">
-        <v>280.25537109375</v>
+        <v>296.8611755371094</v>
       </c>
       <c r="E299" t="n">
-        <v>16.83636474609375</v>
+        <v>0.230560302734375</v>
       </c>
     </row>
     <row r="300">
@@ -5537,10 +5537,10 @@
         <v>300.675120438056</v>
       </c>
       <c r="D300" t="n">
-        <v>282.7050170898438</v>
+        <v>301.8783569335938</v>
       </c>
       <c r="E300" t="n">
-        <v>17.9700927734375</v>
+        <v>-1.2032470703125</v>
       </c>
     </row>
     <row r="301">
@@ -5554,10 +5554,10 @@
         <v>304.535182081305</v>
       </c>
       <c r="D301" t="n">
-        <v>284.7366638183594</v>
+        <v>307.7141418457031</v>
       </c>
       <c r="E301" t="n">
-        <v>19.79852294921875</v>
+        <v>-3.178955078125</v>
       </c>
     </row>
     <row r="302">
@@ -5571,10 +5571,10 @@
         <v>308.817816097269</v>
       </c>
       <c r="D302" t="n">
-        <v>290.1931457519531</v>
+        <v>313.760498046875</v>
       </c>
       <c r="E302" t="n">
-        <v>18.62466430664062</v>
+        <v>-4.94268798828125</v>
       </c>
     </row>
     <row r="303">
@@ -5588,10 +5588,10 @@
         <v>313.470210775533</v>
       </c>
       <c r="D303" t="n">
-        <v>295.5314331054688</v>
+        <v>316.8317260742188</v>
       </c>
       <c r="E303" t="n">
-        <v>17.93878173828125</v>
+        <v>-3.36151123046875</v>
       </c>
     </row>
     <row r="304">
@@ -5605,10 +5605,10 @@
         <v>318.288355032208</v>
       </c>
       <c r="D304" t="n">
-        <v>301.6922302246094</v>
+        <v>321.4200439453125</v>
       </c>
       <c r="E304" t="n">
-        <v>16.59613037109375</v>
+        <v>-3.131683349609375</v>
       </c>
     </row>
     <row r="305">
@@ -5622,10 +5622,10 @@
         <v>323.194075039336</v>
       </c>
       <c r="D305" t="n">
-        <v>307.1012268066406</v>
+        <v>325.8671875</v>
       </c>
       <c r="E305" t="n">
-        <v>16.09283447265625</v>
+        <v>-2.673126220703125</v>
       </c>
     </row>
     <row r="306">
@@ -5639,10 +5639,10 @@
         <v>328.042963331813</v>
       </c>
       <c r="D306" t="n">
-        <v>312.0619201660156</v>
+        <v>329.8598022460938</v>
       </c>
       <c r="E306" t="n">
-        <v>15.98104858398438</v>
+        <v>-1.81683349609375</v>
       </c>
     </row>
     <row r="307">
@@ -5656,10 +5656,10 @@
         <v>332.718792742664</v>
       </c>
       <c r="D307" t="n">
-        <v>317.7471313476562</v>
+        <v>334.5684204101562</v>
       </c>
       <c r="E307" t="n">
-        <v>14.97164916992188</v>
+        <v>-1.849639892578125</v>
       </c>
     </row>
     <row r="308">
@@ -5673,10 +5673,10 @@
         <v>337.13789681928</v>
       </c>
       <c r="D308" t="n">
-        <v>322.0925598144531</v>
+        <v>338.0591430664062</v>
       </c>
       <c r="E308" t="n">
-        <v>15.04534912109375</v>
+        <v>-0.921234130859375</v>
       </c>
     </row>
     <row r="309">
@@ -5690,10 +5690,10 @@
         <v>341.168194159613</v>
       </c>
       <c r="D309" t="n">
-        <v>325.6152038574219</v>
+        <v>340.8717346191406</v>
       </c>
       <c r="E309" t="n">
-        <v>15.552978515625</v>
+        <v>0.29644775390625</v>
       </c>
     </row>
     <row r="310">
@@ -5707,10 +5707,10 @@
         <v>344.610402220772</v>
       </c>
       <c r="D310" t="n">
-        <v>329.2401733398438</v>
+        <v>343.9242553710938</v>
       </c>
       <c r="E310" t="n">
-        <v>15.3702392578125</v>
+        <v>0.6861572265625</v>
       </c>
     </row>
     <row r="311">
@@ -5724,10 +5724,10 @@
         <v>347.323034102117</v>
       </c>
       <c r="D311" t="n">
-        <v>331.8011474609375</v>
+        <v>346.1065673828125</v>
       </c>
       <c r="E311" t="n">
-        <v>15.52188110351562</v>
+        <v>1.216461181640625</v>
       </c>
     </row>
     <row r="312">
@@ -5741,10 +5741,10 @@
         <v>349.262051131422</v>
       </c>
       <c r="D312" t="n">
-        <v>332.8869018554688</v>
+        <v>347.0095825195312</v>
       </c>
       <c r="E312" t="n">
-        <v>16.37515258789062</v>
+        <v>2.252471923828125</v>
       </c>
     </row>
     <row r="313">
@@ -5758,10 +5758,10 @@
         <v>350.623153543361</v>
       </c>
       <c r="D313" t="n">
-        <v>334.4183959960938</v>
+        <v>348.4372863769531</v>
       </c>
       <c r="E313" t="n">
-        <v>16.20474243164062</v>
+        <v>2.18585205078125</v>
       </c>
     </row>
     <row r="314">
@@ -5775,10 +5775,10 @@
         <v>351.72216236334</v>
       </c>
       <c r="D314" t="n">
-        <v>335.4813232421875</v>
+        <v>349.4470520019531</v>
       </c>
       <c r="E314" t="n">
-        <v>16.2408447265625</v>
+        <v>2.275115966796875</v>
       </c>
     </row>
     <row r="315">
@@ -5792,10 +5792,10 @@
         <v>353.050699922034</v>
       </c>
       <c r="D315" t="n">
-        <v>336.0334777832031</v>
+        <v>349.9273071289062</v>
       </c>
       <c r="E315" t="n">
-        <v>17.0172119140625</v>
+        <v>3.123382568359375</v>
       </c>
     </row>
     <row r="316">
@@ -5809,10 +5809,10 @@
         <v>354.925702251693</v>
       </c>
       <c r="D316" t="n">
-        <v>338.0829467773438</v>
+        <v>351.7482604980469</v>
       </c>
       <c r="E316" t="n">
-        <v>16.84274291992188</v>
+        <v>3.17742919921875</v>
       </c>
     </row>
     <row r="317">
@@ -5826,10 +5826,10 @@
         <v>357.314769014477</v>
       </c>
       <c r="D317" t="n">
-        <v>341.11767578125</v>
+        <v>354.3836669921875</v>
       </c>
       <c r="E317" t="n">
-        <v>16.19708251953125</v>
+        <v>2.93109130859375</v>
       </c>
     </row>
     <row r="318">
@@ -5843,10 +5843,10 @@
         <v>360.24357637819</v>
       </c>
       <c r="D318" t="n">
-        <v>344.3894958496094</v>
+        <v>357.1083068847656</v>
       </c>
       <c r="E318" t="n">
-        <v>15.85409545898438</v>
+        <v>3.135284423828125</v>
       </c>
     </row>
     <row r="319">
@@ -5860,10 +5860,10 @@
         <v>363.750634890023</v>
       </c>
       <c r="D319" t="n">
-        <v>347.97607421875</v>
+        <v>360.0119018554688</v>
       </c>
       <c r="E319" t="n">
-        <v>15.77456665039062</v>
+        <v>3.738739013671875</v>
       </c>
     </row>
     <row r="320">
@@ -5877,10 +5877,10 @@
         <v>367.670011298574</v>
       </c>
       <c r="D320" t="n">
-        <v>353.3353271484375</v>
+        <v>364.5223693847656</v>
       </c>
       <c r="E320" t="n">
-        <v>14.33468627929688</v>
+        <v>3.14764404296875</v>
       </c>
     </row>
     <row r="321">
@@ -5894,10 +5894,10 @@
         <v>371.723540462416</v>
       </c>
       <c r="D321" t="n">
-        <v>362.1535034179688</v>
+        <v>369.4946594238281</v>
       </c>
       <c r="E321" t="n">
-        <v>9.570037841796875</v>
+        <v>2.2288818359375</v>
       </c>
     </row>
     <row r="322">
@@ -5911,10 +5911,10 @@
         <v>375.828570259432</v>
       </c>
       <c r="D322" t="n">
-        <v>376.2516479492188</v>
+        <v>374.7564086914062</v>
       </c>
       <c r="E322" t="n">
-        <v>-0.423065185546875</v>
+        <v>1.072174072265625</v>
       </c>
     </row>
     <row r="323">
@@ -5928,10 +5928,10 @@
         <v>380.027046825786</v>
       </c>
       <c r="D323" t="n">
-        <v>390.1054077148438</v>
+        <v>379.5181884765625</v>
       </c>
       <c r="E323" t="n">
-        <v>-10.078369140625</v>
+        <v>0.50885009765625</v>
       </c>
     </row>
     <row r="324">
@@ -5945,10 +5945,10 @@
         <v>384.289481143984</v>
       </c>
       <c r="D324" t="n">
-        <v>398.6514892578125</v>
+        <v>384.7154235839844</v>
       </c>
       <c r="E324" t="n">
-        <v>-14.36199951171875</v>
+        <v>-0.425933837890625</v>
       </c>
     </row>
     <row r="325">
@@ -5962,10 +5962,10 @@
         <v>388.666525362425</v>
       </c>
       <c r="D325" t="n">
-        <v>401.4381103515625</v>
+        <v>388.8008422851562</v>
       </c>
       <c r="E325" t="n">
-        <v>-12.77157592773438</v>
+        <v>-0.134307861328125</v>
       </c>
     </row>
     <row r="326">
@@ -5979,10 +5979,10 @@
         <v>393.058846161206</v>
       </c>
       <c r="D326" t="n">
-        <v>404.6435852050781</v>
+        <v>393.6055297851562</v>
       </c>
       <c r="E326" t="n">
-        <v>-11.58474731445312</v>
+        <v>-0.54669189453125</v>
       </c>
     </row>
     <row r="327">
@@ -5996,10 +5996,10 @@
         <v>397.230082996873</v>
       </c>
       <c r="D327" t="n">
-        <v>407.4486083984375</v>
+        <v>397.995361328125</v>
       </c>
       <c r="E327" t="n">
-        <v>-10.21853637695312</v>
+        <v>-0.765289306640625</v>
       </c>
     </row>
     <row r="328">
@@ -6013,10 +6013,10 @@
         <v>400.9321721983069</v>
       </c>
       <c r="D328" t="n">
-        <v>409.3928527832031</v>
+        <v>401.2911376953125</v>
       </c>
       <c r="E328" t="n">
-        <v>-8.460693359375</v>
+        <v>-0.358978271484375</v>
       </c>
     </row>
     <row r="329">
@@ -6030,10 +6030,10 @@
         <v>404.173861373206</v>
       </c>
       <c r="D329" t="n">
-        <v>412.4435119628906</v>
+        <v>406.1740112304688</v>
       </c>
       <c r="E329" t="n">
-        <v>-8.2696533203125</v>
+        <v>-2.000152587890625</v>
       </c>
     </row>
     <row r="330">
@@ -6047,10 +6047,10 @@
         <v>407.137933580303</v>
       </c>
       <c r="D330" t="n">
-        <v>414.2068481445312</v>
+        <v>409.1146240234375</v>
       </c>
       <c r="E330" t="n">
-        <v>-7.06890869140625</v>
+        <v>-1.9766845703125</v>
       </c>
     </row>
     <row r="331">
@@ -6064,10 +6064,10 @@
         <v>410.143853937496</v>
       </c>
       <c r="D331" t="n">
-        <v>416.7938537597656</v>
+        <v>412.8881225585938</v>
       </c>
       <c r="E331" t="n">
-        <v>-6.649993896484375</v>
+        <v>-2.7442626953125</v>
       </c>
     </row>
     <row r="332">
@@ -6081,10 +6081,10 @@
         <v>413.356727583078</v>
       </c>
       <c r="D332" t="n">
-        <v>419.9559936523438</v>
+        <v>416.9314270019531</v>
       </c>
       <c r="E332" t="n">
-        <v>-6.599273681640625</v>
+        <v>-3.57470703125</v>
       </c>
     </row>
     <row r="333">
@@ -6098,10 +6098,10 @@
         <v>416.4861719071259</v>
       </c>
       <c r="D333" t="n">
-        <v>424.2147827148438</v>
+        <v>421.4346923828125</v>
       </c>
       <c r="E333" t="n">
-        <v>-7.728607177734375</v>
+        <v>-4.948516845703125</v>
       </c>
     </row>
     <row r="334">
@@ -6115,10 +6115,10 @@
         <v>419.208536681578</v>
       </c>
       <c r="D334" t="n">
-        <v>429.6877136230469</v>
+        <v>423.1778869628906</v>
       </c>
       <c r="E334" t="n">
-        <v>-10.47918701171875</v>
+        <v>-3.9693603515625</v>
       </c>
     </row>
     <row r="335">
@@ -6132,10 +6132,10 @@
         <v>422.083256987245</v>
       </c>
       <c r="D335" t="n">
-        <v>436.5483703613281</v>
+        <v>424.1165771484375</v>
       </c>
       <c r="E335" t="n">
-        <v>-14.46511840820312</v>
+        <v>-2.0333251953125</v>
       </c>
     </row>
     <row r="336">
@@ -6149,10 +6149,10 @@
         <v>425.5864835257109</v>
       </c>
       <c r="D336" t="n">
-        <v>445.775146484375</v>
+        <v>425.4242553710938</v>
       </c>
       <c r="E336" t="n">
-        <v>-20.18865966796875</v>
+        <v>0.1622314453125</v>
       </c>
     </row>
     <row r="337">
@@ -6166,10 +6166,10 @@
         <v>429.787280922256</v>
       </c>
       <c r="D337" t="n">
-        <v>451.5586547851562</v>
+        <v>428.5347290039062</v>
       </c>
       <c r="E337" t="n">
-        <v>-21.7713623046875</v>
+        <v>1.2525634765625</v>
       </c>
     </row>
     <row r="338">
@@ -6183,10 +6183,10 @@
         <v>434.722597592498</v>
       </c>
       <c r="D338" t="n">
-        <v>453.091552734375</v>
+        <v>433.3776550292969</v>
       </c>
       <c r="E338" t="n">
-        <v>-18.36895751953125</v>
+        <v>1.344940185546875</v>
       </c>
     </row>
     <row r="339">
@@ -6200,10 +6200,10 @@
         <v>440.292863791475</v>
       </c>
       <c r="D339" t="n">
-        <v>449.3796997070312</v>
+        <v>440.0314331054688</v>
       </c>
       <c r="E339" t="n">
-        <v>-9.086822509765625</v>
+        <v>0.261444091796875</v>
       </c>
     </row>
     <row r="340">
@@ -6217,10 +6217,10 @@
         <v>446.006814169471</v>
       </c>
       <c r="D340" t="n">
-        <v>436.3692626953125</v>
+        <v>448.2574462890625</v>
       </c>
       <c r="E340" t="n">
-        <v>9.637542724609375</v>
+        <v>-2.250640869140625</v>
       </c>
     </row>
     <row r="341">
@@ -6234,10 +6234,10 @@
         <v>451.709905357426</v>
       </c>
       <c r="D341" t="n">
-        <v>411.6360473632812</v>
+        <v>443.30615234375</v>
       </c>
       <c r="E341" t="n">
-        <v>40.0738525390625</v>
+        <v>8.40374755859375</v>
       </c>
     </row>
     <row r="342">
@@ -6251,10 +6251,10 @@
         <v>457.525865607838</v>
       </c>
       <c r="D342" t="n">
-        <v>433.934326171875</v>
+        <v>457.3971557617188</v>
       </c>
       <c r="E342" t="n">
-        <v>23.591552734375</v>
+        <v>0.12872314453125</v>
       </c>
     </row>
     <row r="343">
@@ -6268,10 +6268,10 @@
         <v>108.375572266184</v>
       </c>
       <c r="D343" t="n">
-        <v>127.6921081542969</v>
+        <v>116.4372253417969</v>
       </c>
       <c r="E343" t="n">
-        <v>-19.31653594970703</v>
+        <v>-8.061653137207031</v>
       </c>
     </row>
     <row r="344">
@@ -6285,10 +6285,10 @@
         <v>119.65618088523</v>
       </c>
       <c r="D344" t="n">
-        <v>122.9099884033203</v>
+        <v>117.1148223876953</v>
       </c>
       <c r="E344" t="n">
-        <v>-3.253807067871094</v>
+        <v>2.541358947753906</v>
       </c>
     </row>
     <row r="345">
@@ -6302,10 +6302,10 @@
         <v>127.481530358801</v>
       </c>
       <c r="D345" t="n">
-        <v>124.0994873046875</v>
+        <v>123.2476043701172</v>
       </c>
       <c r="E345" t="n">
-        <v>3.382041931152344</v>
+        <v>4.233924865722656</v>
       </c>
     </row>
     <row r="346">
@@ -6319,10 +6319,10 @@
         <v>133.098792746531</v>
       </c>
       <c r="D346" t="n">
-        <v>124.6678924560547</v>
+        <v>130.1120300292969</v>
       </c>
       <c r="E346" t="n">
-        <v>8.430892944335938</v>
+        <v>2.98675537109375</v>
       </c>
     </row>
     <row r="347">
@@ -6336,10 +6336,10 @@
         <v>137.275361727573</v>
       </c>
       <c r="D347" t="n">
-        <v>125.2807464599609</v>
+        <v>137.5450439453125</v>
       </c>
       <c r="E347" t="n">
-        <v>11.99461364746094</v>
+        <v>-0.269683837890625</v>
       </c>
     </row>
     <row r="348">
@@ -6353,10 +6353,10 @@
         <v>140.603955700861</v>
       </c>
       <c r="D348" t="n">
-        <v>126.5075073242188</v>
+        <v>145.5478363037109</v>
       </c>
       <c r="E348" t="n">
-        <v>14.09645080566406</v>
+        <v>-4.943878173828125</v>
       </c>
     </row>
     <row r="349">
@@ -6370,10 +6370,10 @@
         <v>143.450429274047</v>
       </c>
       <c r="D349" t="n">
-        <v>129.6298065185547</v>
+        <v>151.6336822509766</v>
       </c>
       <c r="E349" t="n">
-        <v>13.82061767578125</v>
+        <v>-8.183258056640625</v>
       </c>
     </row>
     <row r="350">
@@ -6387,10 +6387,10 @@
         <v>146.001816392336</v>
       </c>
       <c r="D350" t="n">
-        <v>129.7617340087891</v>
+        <v>150.1628723144531</v>
       </c>
       <c r="E350" t="n">
-        <v>16.24008178710938</v>
+        <v>-4.161056518554688</v>
       </c>
     </row>
     <row r="351">
@@ -6404,10 +6404,10 @@
         <v>148.455202556295</v>
       </c>
       <c r="D351" t="n">
-        <v>133.2108306884766</v>
+        <v>150.6085815429688</v>
       </c>
       <c r="E351" t="n">
-        <v>15.24436950683594</v>
+        <v>-2.15338134765625</v>
       </c>
     </row>
     <row r="352">
@@ -6421,10 +6421,10 @@
         <v>150.787051222172</v>
       </c>
       <c r="D352" t="n">
-        <v>134.5304718017578</v>
+        <v>151.4556884765625</v>
       </c>
       <c r="E352" t="n">
-        <v>16.25657653808594</v>
+        <v>-0.66864013671875</v>
       </c>
     </row>
     <row r="353">
@@ -6438,10 +6438,10 @@
         <v>152.891481299606</v>
       </c>
       <c r="D353" t="n">
-        <v>140.0966491699219</v>
+        <v>151.9214782714844</v>
       </c>
       <c r="E353" t="n">
-        <v>12.79483032226562</v>
+        <v>0.970001220703125</v>
       </c>
     </row>
     <row r="354">
@@ -6455,10 +6455,10 @@
         <v>154.831071218794</v>
       </c>
       <c r="D354" t="n">
-        <v>142.5154876708984</v>
+        <v>153.2978210449219</v>
       </c>
       <c r="E354" t="n">
-        <v>12.31558227539062</v>
+        <v>1.533248901367188</v>
       </c>
     </row>
     <row r="355">
@@ -6472,10 +6472,10 @@
         <v>156.709487478947</v>
       </c>
       <c r="D355" t="n">
-        <v>146.7762451171875</v>
+        <v>153.2447662353516</v>
       </c>
       <c r="E355" t="n">
-        <v>9.933242797851562</v>
+        <v>3.4647216796875</v>
       </c>
     </row>
     <row r="356">
@@ -6489,10 +6489,10 @@
         <v>158.548685036231</v>
       </c>
       <c r="D356" t="n">
-        <v>149.1501007080078</v>
+        <v>154.7088775634766</v>
       </c>
       <c r="E356" t="n">
-        <v>9.398590087890625</v>
+        <v>3.839813232421875</v>
       </c>
     </row>
     <row r="357">
@@ -6506,10 +6506,10 @@
         <v>160.237070230666</v>
       </c>
       <c r="D357" t="n">
-        <v>152.6147155761719</v>
+        <v>156.2279510498047</v>
       </c>
       <c r="E357" t="n">
-        <v>7.622360229492188</v>
+        <v>4.009124755859375</v>
       </c>
     </row>
     <row r="358">
@@ -6523,10 +6523,10 @@
         <v>161.811591750422</v>
       </c>
       <c r="D358" t="n">
-        <v>155.2642669677734</v>
+        <v>158.7991790771484</v>
       </c>
       <c r="E358" t="n">
-        <v>6.547317504882812</v>
+        <v>3.012405395507812</v>
       </c>
     </row>
     <row r="359">
@@ -6540,10 +6540,10 @@
         <v>163.338650573511</v>
       </c>
       <c r="D359" t="n">
-        <v>158.8176422119141</v>
+        <v>160.5853576660156</v>
       </c>
       <c r="E359" t="n">
-        <v>4.521011352539062</v>
+        <v>2.7532958984375</v>
       </c>
     </row>
     <row r="360">
@@ -6557,10 +6557,10 @@
         <v>164.849590048401</v>
       </c>
       <c r="D360" t="n">
-        <v>162.0464630126953</v>
+        <v>163.2684478759766</v>
       </c>
       <c r="E360" t="n">
-        <v>2.803131103515625</v>
+        <v>1.581146240234375</v>
       </c>
     </row>
     <row r="361">
@@ -6574,10 +6574,10 @@
         <v>166.427052700397</v>
       </c>
       <c r="D361" t="n">
-        <v>165.0541076660156</v>
+        <v>165.0358123779297</v>
       </c>
       <c r="E361" t="n">
-        <v>1.372940063476562</v>
+        <v>1.3912353515625</v>
       </c>
     </row>
     <row r="362">
@@ -6591,10 +6591,10 @@
         <v>168.19170580456</v>
       </c>
       <c r="D362" t="n">
-        <v>169.3146057128906</v>
+        <v>167.9695587158203</v>
       </c>
       <c r="E362" t="n">
-        <v>-1.122894287109375</v>
+        <v>0.2221527099609375</v>
       </c>
     </row>
     <row r="363">
@@ -6608,10 +6608,10 @@
         <v>170.246559597033</v>
       </c>
       <c r="D363" t="n">
-        <v>173.2189636230469</v>
+        <v>170.7685394287109</v>
       </c>
       <c r="E363" t="n">
-        <v>-2.972396850585938</v>
+        <v>-0.52197265625</v>
       </c>
     </row>
     <row r="364">
@@ -6625,10 +6625,10 @@
         <v>172.576103450926</v>
       </c>
       <c r="D364" t="n">
-        <v>177.3432922363281</v>
+        <v>172.7408752441406</v>
       </c>
       <c r="E364" t="n">
-        <v>-4.767181396484375</v>
+        <v>-0.164764404296875</v>
       </c>
     </row>
     <row r="365">
@@ -6642,10 +6642,10 @@
         <v>174.971178487314</v>
       </c>
       <c r="D365" t="n">
-        <v>181.3521118164062</v>
+        <v>175.663818359375</v>
       </c>
       <c r="E365" t="n">
-        <v>-6.380935668945312</v>
+        <v>-0.6926422119140625</v>
       </c>
     </row>
     <row r="366">
@@ -6659,10 +6659,10 @@
         <v>177.375146433468</v>
       </c>
       <c r="D366" t="n">
-        <v>184.6373901367188</v>
+        <v>177.5463409423828</v>
       </c>
       <c r="E366" t="n">
-        <v>-7.262237548828125</v>
+        <v>-0.1711883544921875</v>
       </c>
     </row>
     <row r="367">
@@ -6676,10 +6676,10 @@
         <v>179.858881263736</v>
       </c>
       <c r="D367" t="n">
-        <v>187.9220886230469</v>
+        <v>180.340087890625</v>
       </c>
       <c r="E367" t="n">
-        <v>-8.063201904296875</v>
+        <v>-0.481201171875</v>
       </c>
     </row>
     <row r="368">
@@ -6693,10 +6693,10 @@
         <v>182.464506294039</v>
       </c>
       <c r="D368" t="n">
-        <v>192.2241821289062</v>
+        <v>182.4078063964844</v>
       </c>
       <c r="E368" t="n">
-        <v>-9.759674072265625</v>
+        <v>0.05670166015625</v>
       </c>
     </row>
     <row r="369">
@@ -6710,10 +6710,10 @@
         <v>185.147280514462</v>
       </c>
       <c r="D369" t="n">
-        <v>195.9365386962891</v>
+        <v>185.2952270507812</v>
       </c>
       <c r="E369" t="n">
-        <v>-10.78926086425781</v>
+        <v>-0.14794921875</v>
       </c>
     </row>
     <row r="370">
@@ -6727,10 +6727,10 @@
         <v>187.867710881684</v>
       </c>
       <c r="D370" t="n">
-        <v>201.3726959228516</v>
+        <v>188.4548645019531</v>
       </c>
       <c r="E370" t="n">
-        <v>-13.50498962402344</v>
+        <v>-0.587158203125</v>
       </c>
     </row>
     <row r="371">
@@ -6744,10 +6744,10 @@
         <v>190.529453689742</v>
       </c>
       <c r="D371" t="n">
-        <v>204.1328430175781</v>
+        <v>190.4410095214844</v>
       </c>
       <c r="E371" t="n">
-        <v>-13.6033935546875</v>
+        <v>0.08843994140625</v>
       </c>
     </row>
     <row r="372">
@@ -6761,10 +6761,10 @@
         <v>192.97133606788</v>
       </c>
       <c r="D372" t="n">
-        <v>206.3538970947266</v>
+        <v>193.6127319335938</v>
       </c>
       <c r="E372" t="n">
-        <v>-13.382568359375</v>
+        <v>-0.6414031982421875</v>
       </c>
     </row>
     <row r="373">
@@ -6778,10 +6778,10 @@
         <v>195.209334210565</v>
       </c>
       <c r="D373" t="n">
-        <v>207.4044189453125</v>
+        <v>195.6670532226562</v>
       </c>
       <c r="E373" t="n">
-        <v>-12.19508361816406</v>
+        <v>-0.4577178955078125</v>
       </c>
     </row>
     <row r="374">
@@ -6795,10 +6795,10 @@
         <v>197.444883026885</v>
       </c>
       <c r="D374" t="n">
-        <v>210.0997924804688</v>
+        <v>199.0252227783203</v>
       </c>
       <c r="E374" t="n">
-        <v>-12.6549072265625</v>
+        <v>-1.580337524414062</v>
       </c>
     </row>
     <row r="375">
@@ -6812,10 +6812,10 @@
         <v>199.775071481034</v>
       </c>
       <c r="D375" t="n">
-        <v>211.2552642822266</v>
+        <v>201.9444122314453</v>
       </c>
       <c r="E375" t="n">
-        <v>-11.48019409179688</v>
+        <v>-2.169342041015625</v>
       </c>
     </row>
     <row r="376">
@@ -6829,10 +6829,10 @@
         <v>202.332528344675</v>
       </c>
       <c r="D376" t="n">
-        <v>212.4123992919922</v>
+        <v>204.0934143066406</v>
       </c>
       <c r="E376" t="n">
-        <v>-10.07986450195312</v>
+        <v>-1.760879516601562</v>
       </c>
     </row>
     <row r="377">
@@ -6846,10 +6846,10 @@
         <v>205.23764690517</v>
       </c>
       <c r="D377" t="n">
-        <v>216.2115325927734</v>
+        <v>207.5008239746094</v>
       </c>
       <c r="E377" t="n">
-        <v>-10.97389221191406</v>
+        <v>-2.26318359375</v>
       </c>
     </row>
     <row r="378">
@@ -6863,10 +6863,10 @@
         <v>208.200976952977</v>
       </c>
       <c r="D378" t="n">
-        <v>217.9723663330078</v>
+        <v>209.7290954589844</v>
       </c>
       <c r="E378" t="n">
-        <v>-9.771392822265625</v>
+        <v>-1.528121948242188</v>
       </c>
     </row>
     <row r="379">
@@ -6880,10 +6880,10 @@
         <v>211.052748902003</v>
       </c>
       <c r="D379" t="n">
-        <v>219.1843872070312</v>
+        <v>212.797607421875</v>
       </c>
       <c r="E379" t="n">
-        <v>-8.131637573242188</v>
+        <v>-1.744857788085938</v>
       </c>
     </row>
     <row r="380">
@@ -6897,10 +6897,10 @@
         <v>214.055167841515</v>
       </c>
       <c r="D380" t="n">
-        <v>223.7415466308594</v>
+        <v>216.3675994873047</v>
       </c>
       <c r="E380" t="n">
-        <v>-9.686386108398438</v>
+        <v>-2.31243896484375</v>
       </c>
     </row>
     <row r="381">
@@ -6914,10 +6914,10 @@
         <v>217.250777318866</v>
       </c>
       <c r="D381" t="n">
-        <v>228.5197143554688</v>
+        <v>219.9140625</v>
       </c>
       <c r="E381" t="n">
-        <v>-11.26893615722656</v>
+        <v>-2.663284301757812</v>
       </c>
     </row>
     <row r="382">
@@ -6931,10 +6931,10 @@
         <v>220.518750744196</v>
       </c>
       <c r="D382" t="n">
-        <v>229.0609436035156</v>
+        <v>222.0718383789062</v>
       </c>
       <c r="E382" t="n">
-        <v>-8.542190551757812</v>
+        <v>-1.553085327148438</v>
       </c>
     </row>
     <row r="383">
@@ -6948,10 +6948,10 @@
         <v>223.63276890565</v>
       </c>
       <c r="D383" t="n">
-        <v>232.0569763183594</v>
+        <v>225.5011596679688</v>
       </c>
       <c r="E383" t="n">
-        <v>-8.424209594726562</v>
+        <v>-1.868392944335938</v>
       </c>
     </row>
     <row r="384">
@@ -6965,10 +6965,10 @@
         <v>226.670972013567</v>
       </c>
       <c r="D384" t="n">
-        <v>235.4717102050781</v>
+        <v>228.9726867675781</v>
       </c>
       <c r="E384" t="n">
-        <v>-8.800735473632812</v>
+        <v>-2.301712036132812</v>
       </c>
     </row>
     <row r="385">
@@ -6982,10 +6982,10 @@
         <v>229.875627194916</v>
       </c>
       <c r="D385" t="n">
-        <v>236.3622589111328</v>
+        <v>232.1365509033203</v>
       </c>
       <c r="E385" t="n">
-        <v>-6.48663330078125</v>
+        <v>-2.26092529296875</v>
       </c>
     </row>
     <row r="386">
@@ -6999,10 +6999,10 @@
         <v>233.373616234044</v>
       </c>
       <c r="D386" t="n">
-        <v>237.513671875</v>
+        <v>234.4887847900391</v>
       </c>
       <c r="E386" t="n">
-        <v>-4.140060424804688</v>
+        <v>-1.11517333984375</v>
       </c>
     </row>
     <row r="387">
@@ -7016,10 +7016,10 @@
         <v>236.901421973349</v>
       </c>
       <c r="D387" t="n">
-        <v>240.6584625244141</v>
+        <v>238.0169982910156</v>
       </c>
       <c r="E387" t="n">
-        <v>-3.757034301757812</v>
+        <v>-1.115570068359375</v>
       </c>
     </row>
     <row r="388">
@@ -7033,10 +7033,10 @@
         <v>240.161412640479</v>
       </c>
       <c r="D388" t="n">
-        <v>243.7402496337891</v>
+        <v>241.5875244140625</v>
       </c>
       <c r="E388" t="n">
-        <v>-3.578842163085938</v>
+        <v>-1.426116943359375</v>
       </c>
     </row>
     <row r="389">
@@ -7050,10 +7050,10 @@
         <v>243.401683736821</v>
       </c>
       <c r="D389" t="n">
-        <v>246.0656127929688</v>
+        <v>244.1534576416016</v>
       </c>
       <c r="E389" t="n">
-        <v>-2.663925170898438</v>
+        <v>-0.75177001953125</v>
       </c>
     </row>
     <row r="390">
@@ -7067,10 +7067,10 @@
         <v>246.938277682144</v>
       </c>
       <c r="D390" t="n">
-        <v>248.1934204101562</v>
+        <v>247.5474548339844</v>
       </c>
       <c r="E390" t="n">
-        <v>-1.255142211914062</v>
+        <v>-0.6091766357421875</v>
       </c>
     </row>
     <row r="391">
@@ -7084,10 +7084,10 @@
         <v>250.525819756845</v>
       </c>
       <c r="D391" t="n">
-        <v>250.6262817382812</v>
+        <v>251.1451110839844</v>
       </c>
       <c r="E391" t="n">
-        <v>-0.1004638671875</v>
+        <v>-0.619293212890625</v>
       </c>
     </row>
     <row r="392">
@@ -7101,10 +7101,10 @@
         <v>253.984006687524</v>
       </c>
       <c r="D392" t="n">
-        <v>253.1466979980469</v>
+        <v>254.643310546875</v>
       </c>
       <c r="E392" t="n">
-        <v>0.837310791015625</v>
+        <v>-0.6593017578125</v>
       </c>
     </row>
     <row r="393">
@@ -7118,10 +7118,10 @@
         <v>257.359809696787</v>
       </c>
       <c r="D393" t="n">
-        <v>252.0310516357422</v>
+        <v>256.7798461914062</v>
       </c>
       <c r="E393" t="n">
-        <v>5.328750610351562</v>
+        <v>0.5799560546875</v>
       </c>
     </row>
     <row r="394">
@@ -7135,10 +7135,10 @@
         <v>261.037438353797</v>
       </c>
       <c r="D394" t="n">
-        <v>255.1051940917969</v>
+        <v>260.4986877441406</v>
       </c>
       <c r="E394" t="n">
-        <v>5.9322509765625</v>
+        <v>0.53875732421875</v>
       </c>
     </row>
     <row r="395">
@@ -7152,10 +7152,10 @@
         <v>265.206865607514</v>
       </c>
       <c r="D395" t="n">
-        <v>258.0287780761719</v>
+        <v>264.1110534667969</v>
       </c>
       <c r="E395" t="n">
-        <v>7.1781005859375</v>
+        <v>1.0958251953125</v>
       </c>
     </row>
     <row r="396">
@@ -7169,10 +7169,10 @@
         <v>269.642912311836</v>
       </c>
       <c r="D396" t="n">
-        <v>265.7047119140625</v>
+        <v>268.5517578125</v>
       </c>
       <c r="E396" t="n">
-        <v>3.938201904296875</v>
+        <v>1.091156005859375</v>
       </c>
     </row>
     <row r="397">
@@ -7186,10 +7186,10 @@
         <v>273.983317806087</v>
       </c>
       <c r="D397" t="n">
-        <v>264.6421813964844</v>
+        <v>271.5059814453125</v>
       </c>
       <c r="E397" t="n">
-        <v>9.34112548828125</v>
+        <v>2.477325439453125</v>
       </c>
     </row>
     <row r="398">
@@ -7203,10 +7203,10 @@
         <v>278.072404935537</v>
       </c>
       <c r="D398" t="n">
-        <v>269.9502868652344</v>
+        <v>275.5071411132812</v>
       </c>
       <c r="E398" t="n">
-        <v>8.12213134765625</v>
+        <v>2.565277099609375</v>
       </c>
     </row>
     <row r="399">
@@ -7220,10 +7220,10 @@
         <v>281.993144500693</v>
       </c>
       <c r="D399" t="n">
-        <v>274.0877685546875</v>
+        <v>279.4761352539062</v>
       </c>
       <c r="E399" t="n">
-        <v>7.905364990234375</v>
+        <v>2.516998291015625</v>
       </c>
     </row>
     <row r="400">
@@ -7237,10 +7237,10 @@
         <v>285.740001021874</v>
       </c>
       <c r="D400" t="n">
-        <v>280.9712219238281</v>
+        <v>283.8095092773438</v>
       </c>
       <c r="E400" t="n">
-        <v>4.768768310546875</v>
+        <v>1.93048095703125</v>
       </c>
     </row>
     <row r="401">
@@ -7254,10 +7254,10 @@
         <v>289.555799094195</v>
       </c>
       <c r="D401" t="n">
-        <v>278.3825378417969</v>
+        <v>287.3829040527344</v>
       </c>
       <c r="E401" t="n">
-        <v>11.17324829101562</v>
+        <v>2.172882080078125</v>
       </c>
     </row>
     <row r="402">
@@ -7271,10 +7271,10 @@
         <v>293.476749097268</v>
       </c>
       <c r="D402" t="n">
-        <v>285.1154174804688</v>
+        <v>292.8364562988281</v>
       </c>
       <c r="E402" t="n">
-        <v>8.361328125</v>
+        <v>0.640289306640625</v>
       </c>
     </row>
     <row r="403">
@@ -7288,10 +7288,10 @@
         <v>298.042958782342</v>
       </c>
       <c r="D403" t="n">
-        <v>287.0190734863281</v>
+        <v>299.163818359375</v>
       </c>
       <c r="E403" t="n">
-        <v>11.02389526367188</v>
+        <v>-1.120849609375</v>
       </c>
     </row>
     <row r="404">
@@ -7305,10 +7305,10 @@
         <v>302.969164957931</v>
       </c>
       <c r="D404" t="n">
-        <v>290.1250610351562</v>
+        <v>307.1771850585938</v>
       </c>
       <c r="E404" t="n">
-        <v>12.8441162109375</v>
+        <v>-4.2080078125</v>
       </c>
     </row>
     <row r="405">
@@ -7322,10 +7322,10 @@
         <v>45.47141312754299</v>
       </c>
       <c r="D405" t="n">
-        <v>51.07260131835938</v>
+        <v>50.54110717773438</v>
       </c>
       <c r="E405" t="n">
-        <v>-5.601188659667969</v>
+        <v>-5.069694519042969</v>
       </c>
     </row>
     <row r="406">
@@ -7339,10 +7339,10 @@
         <v>47.2757564894583</v>
       </c>
       <c r="D406" t="n">
-        <v>49.52615356445312</v>
+        <v>48.24984741210938</v>
       </c>
       <c r="E406" t="n">
-        <v>-2.250396728515625</v>
+        <v>-0.974090576171875</v>
       </c>
     </row>
     <row r="407">
@@ -7356,10 +7356,10 @@
         <v>48.9381237530572</v>
       </c>
       <c r="D407" t="n">
-        <v>49.60440063476562</v>
+        <v>48.17483520507812</v>
       </c>
       <c r="E407" t="n">
-        <v>-0.6662750244140625</v>
+        <v>0.7632904052734375</v>
       </c>
     </row>
     <row r="408">
@@ -7373,10 +7373,10 @@
         <v>50.4663419775198</v>
       </c>
       <c r="D408" t="n">
-        <v>50.19772338867188</v>
+        <v>48.73529052734375</v>
       </c>
       <c r="E408" t="n">
-        <v>0.2686195373535156</v>
+        <v>1.731052398681641</v>
       </c>
     </row>
     <row r="409">
@@ -7390,10 +7390,10 @@
         <v>51.8671681207707</v>
       </c>
       <c r="D409" t="n">
-        <v>51.54876708984375</v>
+        <v>50.28701782226562</v>
       </c>
       <c r="E409" t="n">
-        <v>0.3184013366699219</v>
+        <v>1.580150604248047</v>
       </c>
     </row>
     <row r="410">
@@ -7407,10 +7407,10 @@
         <v>53.14567869490369</v>
       </c>
       <c r="D410" t="n">
-        <v>52.15103149414062</v>
+        <v>50.81182861328125</v>
       </c>
       <c r="E410" t="n">
-        <v>0.9946479797363281</v>
+        <v>2.333850860595703</v>
       </c>
     </row>
     <row r="411">
@@ -7424,10 +7424,10 @@
         <v>54.3044923307604</v>
       </c>
       <c r="D411" t="n">
-        <v>53.45407104492188</v>
+        <v>52.29055786132812</v>
       </c>
       <c r="E411" t="n">
-        <v>0.8504219055175781</v>
+        <v>2.013935089111328</v>
       </c>
     </row>
     <row r="412">
@@ -7441,10 +7441,10 @@
         <v>55.3429805742123</v>
       </c>
       <c r="D412" t="n">
-        <v>54.74826049804688</v>
+        <v>53.72189331054688</v>
       </c>
       <c r="E412" t="n">
-        <v>0.5947189331054688</v>
+        <v>1.621086120605469</v>
       </c>
     </row>
     <row r="413">
@@ -7458,10 +7458,10 @@
         <v>56.25621193736519</v>
       </c>
       <c r="D413" t="n">
-        <v>56.147705078125</v>
+        <v>55.37283325195312</v>
       </c>
       <c r="E413" t="n">
-        <v>0.1085052490234375</v>
+        <v>0.8833770751953125</v>
       </c>
     </row>
     <row r="414">
@@ -7475,10 +7475,10 @@
         <v>57.0340080837309</v>
       </c>
       <c r="D414" t="n">
-        <v>56.79052734375</v>
+        <v>56.05892944335938</v>
       </c>
       <c r="E414" t="n">
-        <v>0.2434806823730469</v>
+        <v>0.9750785827636719</v>
       </c>
     </row>
     <row r="415">
@@ -7492,10 +7492,10 @@
         <v>57.6585651402109</v>
       </c>
       <c r="D415" t="n">
-        <v>58.22616577148438</v>
+        <v>57.81405639648438</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.5676002502441406</v>
+        <v>-0.1554908752441406</v>
       </c>
     </row>
     <row r="416">
@@ -7509,10 +7509,10 @@
         <v>58.10219884868179</v>
       </c>
       <c r="D416" t="n">
-        <v>58.87875366210938</v>
+        <v>58.47817993164062</v>
       </c>
       <c r="E416" t="n">
-        <v>-0.7765541076660156</v>
+        <v>-0.3759803771972656</v>
       </c>
     </row>
     <row r="417">
@@ -7526,10 +7526,10 @@
         <v>58.34863514554451</v>
       </c>
       <c r="D417" t="n">
-        <v>60.22616577148438</v>
+        <v>60.03457641601562</v>
       </c>
       <c r="E417" t="n">
-        <v>-1.877529144287109</v>
+        <v>-1.685939788818359</v>
       </c>
     </row>
     <row r="418">
@@ -7543,10 +7543,10 @@
         <v>58.54915787945701</v>
       </c>
       <c r="D418" t="n">
-        <v>60.87298583984375</v>
+        <v>60.64639282226562</v>
       </c>
       <c r="E418" t="n">
-        <v>-2.323829650878906</v>
+        <v>-2.097236633300781</v>
       </c>
     </row>
     <row r="419">
@@ -7560,10 +7560,10 @@
         <v>59.0931575032202</v>
       </c>
       <c r="D419" t="n">
-        <v>62.08877563476562</v>
+        <v>62.01629638671875</v>
       </c>
       <c r="E419" t="n">
-        <v>-2.995616912841797</v>
+        <v>-2.923137664794922</v>
       </c>
     </row>
     <row r="420">
@@ -7577,10 +7577,10 @@
         <v>59.7652291418029</v>
       </c>
       <c r="D420" t="n">
-        <v>62.64047241210938</v>
+        <v>62.49789428710938</v>
       </c>
       <c r="E420" t="n">
-        <v>-2.875244140625</v>
+        <v>-2.732666015625</v>
       </c>
     </row>
     <row r="421">
@@ -7594,10 +7594,10 @@
         <v>60.5382173049993</v>
       </c>
       <c r="D421" t="n">
-        <v>63.14602661132812</v>
+        <v>62.96359252929688</v>
       </c>
       <c r="E421" t="n">
-        <v>-2.607810974121094</v>
+        <v>-2.425376892089844</v>
       </c>
     </row>
     <row r="422">
@@ -7611,10 +7611,10 @@
         <v>61.39270729554161</v>
       </c>
       <c r="D422" t="n">
-        <v>63.73388671875</v>
+        <v>63.50885009765625</v>
       </c>
       <c r="E422" t="n">
-        <v>-2.341178894042969</v>
+        <v>-2.116142272949219</v>
       </c>
     </row>
     <row r="423">
@@ -7628,10 +7628,10 @@
         <v>62.3183859029073</v>
       </c>
       <c r="D423" t="n">
-        <v>64.34243774414062</v>
+        <v>64.05795288085938</v>
       </c>
       <c r="E423" t="n">
-        <v>-2.024051666259766</v>
+        <v>-1.739566802978516</v>
       </c>
     </row>
     <row r="424">
@@ -7645,10 +7645,10 @@
         <v>63.3217893221117</v>
       </c>
       <c r="D424" t="n">
-        <v>65.1236572265625</v>
+        <v>64.72451782226562</v>
       </c>
       <c r="E424" t="n">
-        <v>-1.801868438720703</v>
+        <v>-1.402729034423828</v>
       </c>
     </row>
     <row r="425">
@@ -7662,10 +7662,10 @@
         <v>64.42003431961611</v>
       </c>
       <c r="D425" t="n">
-        <v>66.44174194335938</v>
+        <v>66.14218139648438</v>
       </c>
       <c r="E425" t="n">
-        <v>-2.021705627441406</v>
+        <v>-1.722145080566406</v>
       </c>
     </row>
     <row r="426">
@@ -7679,10 +7679,10 @@
         <v>65.60470672600461</v>
       </c>
       <c r="D426" t="n">
-        <v>67.0443115234375</v>
+        <v>66.65078735351562</v>
       </c>
       <c r="E426" t="n">
-        <v>-1.439605712890625</v>
+        <v>-1.04608154296875</v>
       </c>
     </row>
     <row r="427">
@@ -7696,10 +7696,10 @@
         <v>66.830061505426</v>
       </c>
       <c r="D427" t="n">
-        <v>68.4876708984375</v>
+        <v>68.41458129882812</v>
       </c>
       <c r="E427" t="n">
-        <v>-1.657608032226562</v>
+        <v>-1.584518432617188</v>
       </c>
     </row>
     <row r="428">
@@ -7713,10 +7713,10 @@
         <v>68.0331607182851</v>
       </c>
       <c r="D428" t="n">
-        <v>69.91552734375</v>
+        <v>70.20462036132812</v>
       </c>
       <c r="E428" t="n">
-        <v>-1.882369995117188</v>
+        <v>-2.171463012695312</v>
       </c>
     </row>
     <row r="429">
@@ -7730,10 +7730,10 @@
         <v>69.1681923281255</v>
       </c>
       <c r="D429" t="n">
-        <v>70.71768188476562</v>
+        <v>71.27975463867188</v>
       </c>
       <c r="E429" t="n">
-        <v>-1.549491882324219</v>
+        <v>-2.111564636230469</v>
       </c>
     </row>
     <row r="430">
@@ -7747,10 +7747,10 @@
         <v>70.2265695377437</v>
       </c>
       <c r="D430" t="n">
-        <v>72.1248779296875</v>
+        <v>72.95281982421875</v>
       </c>
       <c r="E430" t="n">
-        <v>-1.898307800292969</v>
+        <v>-2.726249694824219</v>
       </c>
     </row>
     <row r="431">
@@ -7764,10 +7764,10 @@
         <v>71.2204876775977</v>
       </c>
       <c r="D431" t="n">
-        <v>73.57229614257812</v>
+        <v>74.59939575195312</v>
       </c>
       <c r="E431" t="n">
-        <v>-2.351806640625</v>
+        <v>-3.37890625</v>
       </c>
     </row>
     <row r="432">
@@ -7781,10 +7781,10 @@
         <v>72.19928398213349</v>
       </c>
       <c r="D432" t="n">
-        <v>74.35009765625</v>
+        <v>75.19961547851562</v>
       </c>
       <c r="E432" t="n">
-        <v>-2.150810241699219</v>
+        <v>-3.000328063964844</v>
       </c>
     </row>
     <row r="433">
@@ -7798,10 +7798,10 @@
         <v>73.2080034278067</v>
       </c>
       <c r="D433" t="n">
-        <v>75.04595947265625</v>
+        <v>75.70333862304688</v>
       </c>
       <c r="E433" t="n">
-        <v>-1.837959289550781</v>
+        <v>-2.495338439941406</v>
       </c>
     </row>
     <row r="434">
@@ -7815,10 +7815,10 @@
         <v>74.25251173110971</v>
       </c>
       <c r="D434" t="n">
-        <v>75.6527099609375</v>
+        <v>76.07916259765625</v>
       </c>
       <c r="E434" t="n">
-        <v>-1.400199890136719</v>
+        <v>-1.826652526855469</v>
       </c>
     </row>
     <row r="435">
@@ -7832,10 +7832,10 @@
         <v>75.33334606563081</v>
       </c>
       <c r="D435" t="n">
-        <v>76.09243774414062</v>
+        <v>76.42251586914062</v>
       </c>
       <c r="E435" t="n">
-        <v>-0.75909423828125</v>
+        <v>-1.08917236328125</v>
       </c>
     </row>
     <row r="436">
@@ -7849,10 +7849,10 @@
         <v>76.46166200894339</v>
       </c>
       <c r="D436" t="n">
-        <v>76.7518310546875</v>
+        <v>77.13265991210938</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.2901687622070312</v>
+        <v>-0.6709976196289062</v>
       </c>
     </row>
     <row r="437">
@@ -7866,10 +7866,10 @@
         <v>77.6425083740052</v>
       </c>
       <c r="D437" t="n">
-        <v>77.55099487304688</v>
+        <v>78.06161499023438</v>
       </c>
       <c r="E437" t="n">
-        <v>0.09151458740234375</v>
+        <v>-0.4191055297851562</v>
       </c>
     </row>
     <row r="438">
@@ -7883,10 +7883,10 @@
         <v>78.86260087967671</v>
       </c>
       <c r="D438" t="n">
-        <v>77.67681884765625</v>
+        <v>77.997802734375</v>
       </c>
       <c r="E438" t="n">
-        <v>1.185783386230469</v>
+        <v>0.8647994995117188</v>
       </c>
     </row>
     <row r="439">
@@ -7900,10 +7900,10 @@
         <v>80.0662435476918</v>
       </c>
       <c r="D439" t="n">
-        <v>78.27105712890625</v>
+        <v>78.50796508789062</v>
       </c>
       <c r="E439" t="n">
-        <v>1.795188903808594</v>
+        <v>1.558280944824219</v>
       </c>
     </row>
     <row r="440">
@@ -7917,10 +7917,10 @@
         <v>81.2096965077735</v>
       </c>
       <c r="D440" t="n">
-        <v>78.89190673828125</v>
+        <v>78.972900390625</v>
       </c>
       <c r="E440" t="n">
-        <v>2.317787170410156</v>
+        <v>2.236793518066406</v>
       </c>
     </row>
     <row r="441">
@@ -7934,10 +7934,10 @@
         <v>82.27958203919809</v>
       </c>
       <c r="D441" t="n">
-        <v>79.6192626953125</v>
+        <v>79.65603637695312</v>
       </c>
       <c r="E441" t="n">
-        <v>2.660316467285156</v>
+        <v>2.623542785644531</v>
       </c>
     </row>
     <row r="442">
@@ -7951,10 +7951,10 @@
         <v>83.29050188618669</v>
       </c>
       <c r="D442" t="n">
-        <v>80.075927734375</v>
+        <v>79.98223876953125</v>
       </c>
       <c r="E442" t="n">
-        <v>3.214576721191406</v>
+        <v>3.308265686035156</v>
       </c>
     </row>
     <row r="443">
@@ -7968,10 +7968,10 @@
         <v>84.2813121483907</v>
       </c>
       <c r="D443" t="n">
-        <v>80.75164794921875</v>
+        <v>80.7232666015625</v>
       </c>
       <c r="E443" t="n">
-        <v>3.5296630859375</v>
+        <v>3.55804443359375</v>
       </c>
     </row>
     <row r="444">
@@ -7985,10 +7985,10 @@
         <v>85.3030762402106</v>
       </c>
       <c r="D444" t="n">
-        <v>81.50555419921875</v>
+        <v>81.48040771484375</v>
       </c>
       <c r="E444" t="n">
-        <v>3.797523498535156</v>
+        <v>3.822669982910156</v>
       </c>
     </row>
     <row r="445">
@@ -8002,10 +8002,10 @@
         <v>86.3875496121448</v>
       </c>
       <c r="D445" t="n">
-        <v>82.31875610351562</v>
+        <v>82.41165161132812</v>
       </c>
       <c r="E445" t="n">
-        <v>4.068794250488281</v>
+        <v>3.975898742675781</v>
       </c>
     </row>
     <row r="446">
@@ -8019,10 +8019,10 @@
         <v>87.53201901701449</v>
       </c>
       <c r="D446" t="n">
-        <v>83.02645874023438</v>
+        <v>83.06591796875</v>
       </c>
       <c r="E446" t="n">
-        <v>4.505561828613281</v>
+        <v>4.466102600097656</v>
       </c>
     </row>
     <row r="447">
@@ -8036,10 +8036,10 @@
         <v>88.72459856271981</v>
       </c>
       <c r="D447" t="n">
-        <v>84.72128295898438</v>
+        <v>84.89840698242188</v>
       </c>
       <c r="E447" t="n">
-        <v>4.003318786621094</v>
+        <v>3.826194763183594</v>
       </c>
     </row>
     <row r="448">
@@ -8053,10 +8053,10 @@
         <v>89.9350183243147</v>
       </c>
       <c r="D448" t="n">
-        <v>85.85064697265625</v>
+        <v>86.3726806640625</v>
       </c>
       <c r="E448" t="n">
-        <v>4.084373474121094</v>
+        <v>3.562339782714844</v>
       </c>
     </row>
     <row r="449">
@@ -8070,10 +8070,10 @@
         <v>91.17148570577081</v>
       </c>
       <c r="D449" t="n">
-        <v>86.759033203125</v>
+        <v>87.34854125976562</v>
       </c>
       <c r="E449" t="n">
-        <v>4.412452697753906</v>
+        <v>3.822944641113281</v>
       </c>
     </row>
     <row r="450">
@@ -8087,10 +8087,10 @@
         <v>92.40370506791639</v>
       </c>
       <c r="D450" t="n">
-        <v>88.05142211914062</v>
+        <v>88.96932983398438</v>
       </c>
       <c r="E450" t="n">
-        <v>4.352279663085938</v>
+        <v>3.434371948242188</v>
       </c>
     </row>
     <row r="451">
@@ -8104,10 +8104,10 @@
         <v>93.5831221633926</v>
       </c>
       <c r="D451" t="n">
-        <v>88.70730590820312</v>
+        <v>89.74923706054688</v>
       </c>
       <c r="E451" t="n">
-        <v>4.875816345214844</v>
+        <v>3.833885192871094</v>
       </c>
     </row>
     <row r="452">
@@ -8121,10 +8121,10 @@
         <v>94.69783036963079</v>
       </c>
       <c r="D452" t="n">
-        <v>89.70703125</v>
+        <v>91.15011596679688</v>
       </c>
       <c r="E452" t="n">
-        <v>4.990798950195312</v>
+        <v>3.547714233398438</v>
       </c>
     </row>
     <row r="453">
@@ -8138,10 +8138,10 @@
         <v>95.773090355503</v>
       </c>
       <c r="D453" t="n">
-        <v>91.7540283203125</v>
+        <v>93.7255859375</v>
       </c>
       <c r="E453" t="n">
-        <v>4.019058227539062</v>
+        <v>2.047500610351562</v>
       </c>
     </row>
     <row r="454">
@@ -8155,10 +8155,10 @@
         <v>96.84132102908059</v>
       </c>
       <c r="D454" t="n">
-        <v>92.29940795898438</v>
+        <v>94.37466430664062</v>
       </c>
       <c r="E454" t="n">
-        <v>4.541915893554688</v>
+        <v>2.466659545898438</v>
       </c>
     </row>
     <row r="455">
@@ -8172,10 +8172,10 @@
         <v>97.9501686382833</v>
       </c>
       <c r="D455" t="n">
-        <v>94.14486694335938</v>
+        <v>96.42149353027344</v>
       </c>
       <c r="E455" t="n">
-        <v>3.805305480957031</v>
+        <v>1.528678894042969</v>
       </c>
     </row>
     <row r="456">
@@ -8189,10 +8189,10 @@
         <v>99.11614037361251</v>
       </c>
       <c r="D456" t="n">
-        <v>95.23695373535156</v>
+        <v>97.50631713867188</v>
       </c>
       <c r="E456" t="n">
-        <v>3.879188537597656</v>
+        <v>1.609825134277344</v>
       </c>
     </row>
     <row r="457">
@@ -8206,10 +8206,10 @@
         <v>100.338427885202</v>
       </c>
       <c r="D457" t="n">
-        <v>97.01986694335938</v>
+        <v>99.52383422851562</v>
       </c>
       <c r="E457" t="n">
-        <v>3.318557739257812</v>
+        <v>0.8145904541015625</v>
       </c>
     </row>
     <row r="458">
@@ -8223,10 +8223,10 @@
         <v>101.618469716582</v>
       </c>
       <c r="D458" t="n">
-        <v>98.36225891113281</v>
+        <v>101.1947021484375</v>
       </c>
       <c r="E458" t="n">
-        <v>3.256210327148438</v>
+        <v>0.42376708984375</v>
       </c>
     </row>
     <row r="459">
@@ -8240,10 +8240,10 @@
         <v>102.950829996277</v>
       </c>
       <c r="D459" t="n">
-        <v>99.2579345703125</v>
+        <v>102.5206451416016</v>
       </c>
       <c r="E459" t="n">
-        <v>3.692893981933594</v>
+        <v>0.4301834106445312</v>
       </c>
     </row>
     <row r="460">
@@ -8257,10 +8257,10 @@
         <v>104.292987580663</v>
       </c>
       <c r="D460" t="n">
-        <v>99.39918518066406</v>
+        <v>102.9452819824219</v>
       </c>
       <c r="E460" t="n">
-        <v>4.893798828125</v>
+        <v>1.347702026367188</v>
       </c>
     </row>
     <row r="461">
@@ -8274,10 +8274,10 @@
         <v>105.618037137215</v>
       </c>
       <c r="D461" t="n">
-        <v>100.3039398193359</v>
+        <v>104.3058776855469</v>
       </c>
       <c r="E461" t="n">
-        <v>5.314094543457031</v>
+        <v>1.312156677246094</v>
       </c>
     </row>
     <row r="462">
@@ -8291,10 +8291,10 @@
         <v>106.927228675612</v>
       </c>
       <c r="D462" t="n">
-        <v>101.4577026367188</v>
+        <v>105.8114471435547</v>
       </c>
       <c r="E462" t="n">
-        <v>5.469528198242188</v>
+        <v>1.11578369140625</v>
       </c>
     </row>
     <row r="463">
@@ -8308,10 +8308,10 @@
         <v>108.23064173082</v>
       </c>
       <c r="D463" t="n">
-        <v>102.9940795898438</v>
+        <v>107.6134948730469</v>
       </c>
       <c r="E463" t="n">
-        <v>5.236564636230469</v>
+        <v>0.6171493530273438</v>
       </c>
     </row>
     <row r="464">
@@ -8325,10 +8325,10 @@
         <v>109.559054324185</v>
       </c>
       <c r="D464" t="n">
-        <v>104.7715301513672</v>
+        <v>109.6415405273438</v>
       </c>
       <c r="E464" t="n">
-        <v>4.787521362304688</v>
+        <v>-0.082489013671875</v>
       </c>
     </row>
     <row r="465">
@@ -8342,10 +8342,10 @@
         <v>110.950571576039</v>
       </c>
       <c r="D465" t="n">
-        <v>106.5537567138672</v>
+        <v>111.6363830566406</v>
       </c>
       <c r="E465" t="n">
-        <v>4.396812438964844</v>
+        <v>-0.6858139038085938</v>
       </c>
     </row>
     <row r="466">
@@ -8359,10 +8359,10 @@
         <v>112.457434780862</v>
       </c>
       <c r="D466" t="n">
-        <v>108.6649627685547</v>
+        <v>113.9557037353516</v>
       </c>
       <c r="E466" t="n">
-        <v>3.792472839355469</v>
+        <v>-1.498268127441406</v>
       </c>
     </row>
     <row r="467">
@@ -8376,10 +8376,10 @@
         <v>114.058617507951</v>
       </c>
       <c r="D467" t="n">
-        <v>110.8589782714844</v>
+        <v>116.2811279296875</v>
       </c>
       <c r="E467" t="n">
-        <v>3.199638366699219</v>
+        <v>-2.222511291503906</v>
       </c>
     </row>
     <row r="468">
@@ -8393,10 +8393,10 @@
         <v>115.705064738273</v>
       </c>
       <c r="D468" t="n">
-        <v>112.8606262207031</v>
+        <v>118.4428253173828</v>
       </c>
       <c r="E468" t="n">
-        <v>2.844436645507812</v>
+        <v>-2.737762451171875</v>
       </c>
     </row>
     <row r="469">
@@ -8410,10 +8410,10 @@
         <v>117.36333203</v>
       </c>
       <c r="D469" t="n">
-        <v>114.6819915771484</v>
+        <v>120.4939880371094</v>
       </c>
       <c r="E469" t="n">
-        <v>2.681343078613281</v>
+        <v>-3.130653381347656</v>
       </c>
     </row>
     <row r="470">
@@ -8427,10 +8427,10 @@
         <v>119.037871021201</v>
       </c>
       <c r="D470" t="n">
-        <v>116.0399322509766</v>
+        <v>122.1487121582031</v>
       </c>
       <c r="E470" t="n">
-        <v>2.997940063476562</v>
+        <v>-3.11083984375</v>
       </c>
     </row>
     <row r="471">
@@ -8444,10 +8444,10 @@
         <v>120.729323233116</v>
       </c>
       <c r="D471" t="n">
-        <v>118.0677490234375</v>
+        <v>123.7239990234375</v>
       </c>
       <c r="E471" t="n">
-        <v>2.661575317382812</v>
+        <v>-2.994674682617188</v>
       </c>
     </row>
     <row r="472">
@@ -8461,10 +8461,10 @@
         <v>122.425141425812</v>
       </c>
       <c r="D472" t="n">
-        <v>120.2567901611328</v>
+        <v>125.4883117675781</v>
       </c>
       <c r="E472" t="n">
-        <v>2.168350219726562</v>
+        <v>-3.06317138671875</v>
       </c>
     </row>
     <row r="473">
@@ -8478,10 +8478,10 @@
         <v>124.127474832464</v>
       </c>
       <c r="D473" t="n">
-        <v>122.5623931884766</v>
+        <v>127.5416107177734</v>
       </c>
       <c r="E473" t="n">
-        <v>1.565078735351562</v>
+        <v>-3.414138793945312</v>
       </c>
     </row>
     <row r="474">
@@ -8495,10 +8495,10 @@
         <v>125.854142465012</v>
       </c>
       <c r="D474" t="n">
-        <v>124.6863098144531</v>
+        <v>129.7955627441406</v>
       </c>
       <c r="E474" t="n">
-        <v>1.167831420898438</v>
+        <v>-3.941421508789062</v>
       </c>
     </row>
     <row r="475">
@@ -8512,10 +8512,10 @@
         <v>127.662025712345</v>
       </c>
       <c r="D475" t="n">
-        <v>126.8828430175781</v>
+        <v>131.9707794189453</v>
       </c>
       <c r="E475" t="n">
-        <v>0.7791824340820312</v>
+        <v>-4.308753967285156</v>
       </c>
     </row>
     <row r="476">
@@ -8529,10 +8529,10 @@
         <v>129.611451962231</v>
       </c>
       <c r="D476" t="n">
-        <v>130.2457275390625</v>
+        <v>137.4637145996094</v>
       </c>
       <c r="E476" t="n">
-        <v>-0.63427734375</v>
+        <v>-7.852264404296875</v>
       </c>
     </row>
     <row r="477">
@@ -8546,10 +8546,10 @@
         <v>131.703048421255</v>
       </c>
       <c r="D477" t="n">
-        <v>133.1719665527344</v>
+        <v>138.5782012939453</v>
       </c>
       <c r="E477" t="n">
-        <v>-1.468917846679688</v>
+        <v>-6.875152587890625</v>
       </c>
     </row>
     <row r="478">
@@ -8563,10 +8563,10 @@
         <v>133.879029404038</v>
       </c>
       <c r="D478" t="n">
-        <v>134.1809234619141</v>
+        <v>137.9249114990234</v>
       </c>
       <c r="E478" t="n">
-        <v>-0.3018951416015625</v>
+        <v>-4.045883178710938</v>
       </c>
     </row>
     <row r="479">
@@ -8580,10 +8580,10 @@
         <v>136.058790154797</v>
       </c>
       <c r="D479" t="n">
-        <v>137.0990295410156</v>
+        <v>138.7673797607422</v>
       </c>
       <c r="E479" t="n">
-        <v>-1.040237426757812</v>
+        <v>-2.708587646484375</v>
       </c>
     </row>
     <row r="480">
@@ -8597,10 +8597,10 @@
         <v>138.220970681154</v>
       </c>
       <c r="D480" t="n">
-        <v>139.1356353759766</v>
+        <v>139.3868408203125</v>
       </c>
       <c r="E480" t="n">
-        <v>-0.9146575927734375</v>
+        <v>-1.165863037109375</v>
       </c>
     </row>
     <row r="481">
@@ -8614,10 +8614,10 @@
         <v>140.379938162677</v>
       </c>
       <c r="D481" t="n">
-        <v>141.228515625</v>
+        <v>140.3484191894531</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.84857177734375</v>
+        <v>0.031524658203125</v>
       </c>
     </row>
     <row r="482">
@@ -8631,10 +8631,10 @@
         <v>142.508323511621</v>
       </c>
       <c r="D482" t="n">
-        <v>143.4638671875</v>
+        <v>141.9715423583984</v>
       </c>
       <c r="E482" t="n">
-        <v>-0.9555511474609375</v>
+        <v>0.536773681640625</v>
       </c>
     </row>
     <row r="483">
@@ -8648,10 +8648,10 @@
         <v>144.526566787916</v>
       </c>
       <c r="D483" t="n">
-        <v>145.6678009033203</v>
+        <v>143.5433044433594</v>
       </c>
       <c r="E483" t="n">
-        <v>-1.1412353515625</v>
+        <v>0.9832611083984375</v>
       </c>
     </row>
     <row r="484">
@@ -8665,10 +8665,10 @@
         <v>146.363766354088</v>
       </c>
       <c r="D484" t="n">
-        <v>148.0182800292969</v>
+        <v>145.3669281005859</v>
       </c>
       <c r="E484" t="n">
-        <v>-1.654510498046875</v>
+        <v>0.9968414306640625</v>
       </c>
     </row>
     <row r="485">
@@ -8682,10 +8682,10 @@
         <v>148.04810308747</v>
       </c>
       <c r="D485" t="n">
-        <v>150.1830596923828</v>
+        <v>147.0068817138672</v>
       </c>
       <c r="E485" t="n">
-        <v>-2.134963989257812</v>
+        <v>1.041213989257812</v>
       </c>
     </row>
     <row r="486">
@@ -8699,10 +8699,10 @@
         <v>149.636500024526</v>
       </c>
       <c r="D486" t="n">
-        <v>152.4461669921875</v>
+        <v>148.5783233642578</v>
       </c>
       <c r="E486" t="n">
-        <v>-2.809661865234375</v>
+        <v>1.058181762695312</v>
       </c>
     </row>
     <row r="487">
@@ -8716,10 +8716,10 @@
         <v>151.193118974174</v>
       </c>
       <c r="D487" t="n">
-        <v>154.6159057617188</v>
+        <v>150.209228515625</v>
       </c>
       <c r="E487" t="n">
-        <v>-3.42279052734375</v>
+        <v>0.98388671875</v>
       </c>
     </row>
     <row r="488">
@@ -8733,10 +8733,10 @@
         <v>152.769928971357</v>
       </c>
       <c r="D488" t="n">
-        <v>156.8761596679688</v>
+        <v>152.4446716308594</v>
       </c>
       <c r="E488" t="n">
-        <v>-4.106231689453125</v>
+        <v>0.32525634765625</v>
       </c>
     </row>
     <row r="489">
@@ -8750,10 +8750,10 @@
         <v>154.406649606657</v>
       </c>
       <c r="D489" t="n">
-        <v>159.2374267578125</v>
+        <v>155.1735687255859</v>
       </c>
       <c r="E489" t="n">
-        <v>-4.830780029296875</v>
+        <v>-0.7669219970703125</v>
       </c>
     </row>
     <row r="490">
@@ -8767,10 +8767,10 @@
         <v>156.106761670804</v>
       </c>
       <c r="D490" t="n">
-        <v>161.6570434570312</v>
+        <v>158.2380218505859</v>
       </c>
       <c r="E490" t="n">
-        <v>-5.550277709960938</v>
+        <v>-2.131256103515625</v>
       </c>
     </row>
     <row r="491">
@@ -8784,10 +8784,10 @@
         <v>157.863985411716</v>
       </c>
       <c r="D491" t="n">
-        <v>163.9189300537109</v>
+        <v>160.3101043701172</v>
       </c>
       <c r="E491" t="n">
-        <v>-6.054946899414062</v>
+        <v>-2.446121215820312</v>
       </c>
     </row>
     <row r="492">
@@ -8801,10 +8801,10 @@
         <v>159.722269667763</v>
       </c>
       <c r="D492" t="n">
-        <v>167.1201477050781</v>
+        <v>162.5549926757812</v>
       </c>
       <c r="E492" t="n">
-        <v>-7.397872924804688</v>
+        <v>-2.832717895507812</v>
       </c>
     </row>
     <row r="493">
@@ -8818,10 +8818,10 @@
         <v>161.767623419939</v>
       </c>
       <c r="D493" t="n">
-        <v>169.4664764404297</v>
+        <v>163.3959197998047</v>
       </c>
       <c r="E493" t="n">
-        <v>-7.6988525390625</v>
+        <v>-1.6282958984375</v>
       </c>
     </row>
     <row r="494">
@@ -8835,10 +8835,10 @@
         <v>164.016827955843</v>
       </c>
       <c r="D494" t="n">
-        <v>171.5775299072266</v>
+        <v>164.5054626464844</v>
       </c>
       <c r="E494" t="n">
-        <v>-7.560699462890625</v>
+        <v>-0.4886322021484375</v>
       </c>
     </row>
     <row r="495">
@@ -8852,10 +8852,10 @@
         <v>166.387513968761</v>
       </c>
       <c r="D495" t="n">
-        <v>173.66845703125</v>
+        <v>165.6885833740234</v>
       </c>
       <c r="E495" t="n">
-        <v>-7.28094482421875</v>
+        <v>0.6989288330078125</v>
       </c>
     </row>
     <row r="496">
@@ -8869,10 +8869,10 @@
         <v>168.807264444714</v>
       </c>
       <c r="D496" t="n">
-        <v>175.8856201171875</v>
+        <v>167.5497283935547</v>
       </c>
       <c r="E496" t="n">
-        <v>-7.078353881835938</v>
+        <v>1.257537841796875</v>
       </c>
     </row>
     <row r="497">
@@ -8886,10 +8886,10 @@
         <v>171.242556810676</v>
       </c>
       <c r="D497" t="n">
-        <v>178.8878936767578</v>
+        <v>170.4755706787109</v>
       </c>
       <c r="E497" t="n">
-        <v>-7.645339965820312</v>
+        <v>0.7669830322265625</v>
       </c>
     </row>
     <row r="498">
@@ -8903,10 +8903,10 @@
         <v>173.709108388715</v>
       </c>
       <c r="D498" t="n">
-        <v>181.0660552978516</v>
+        <v>172.87939453125</v>
       </c>
       <c r="E498" t="n">
-        <v>-7.356948852539062</v>
+        <v>0.8297119140625</v>
       </c>
     </row>
     <row r="499">
@@ -8920,10 +8920,10 @@
         <v>176.22479882031</v>
       </c>
       <c r="D499" t="n">
-        <v>184.0401153564453</v>
+        <v>174.8807983398438</v>
       </c>
       <c r="E499" t="n">
-        <v>-7.815322875976562</v>
+        <v>1.343994140625</v>
       </c>
     </row>
     <row r="500">
@@ -8937,10 +8937,10 @@
         <v>178.838571731788</v>
       </c>
       <c r="D500" t="n">
-        <v>185.4854431152344</v>
+        <v>176.8153228759766</v>
       </c>
       <c r="E500" t="n">
-        <v>-6.646865844726562</v>
+        <v>2.02325439453125</v>
       </c>
     </row>
     <row r="501">
@@ -8954,10 +8954,10 @@
         <v>181.582842380231</v>
       </c>
       <c r="D501" t="n">
-        <v>188.4779357910156</v>
+        <v>180.3795013427734</v>
       </c>
       <c r="E501" t="n">
-        <v>-6.895095825195312</v>
+        <v>1.203338623046875</v>
       </c>
     </row>
     <row r="502">
@@ -8971,10 +8971,10 @@
         <v>184.365159273187</v>
       </c>
       <c r="D502" t="n">
-        <v>191.0806274414062</v>
+        <v>184.0466918945312</v>
       </c>
       <c r="E502" t="n">
-        <v>-6.715469360351562</v>
+        <v>0.3184661865234375</v>
       </c>
     </row>
     <row r="503">
@@ -8988,10 +8988,10 @@
         <v>187.104079113293</v>
       </c>
       <c r="D503" t="n">
-        <v>194.3670654296875</v>
+        <v>188.2830352783203</v>
       </c>
       <c r="E503" t="n">
-        <v>-7.262985229492188</v>
+        <v>-1.178955078125</v>
       </c>
     </row>
     <row r="504">
@@ -9005,10 +9005,10 @@
         <v>189.78946151721</v>
       </c>
       <c r="D504" t="n">
-        <v>195.8886871337891</v>
+        <v>190.3419189453125</v>
       </c>
       <c r="E504" t="n">
-        <v>-6.099227905273438</v>
+        <v>-0.552459716796875</v>
       </c>
     </row>
     <row r="505">
@@ -9022,10 +9022,10 @@
         <v>192.358001129075</v>
       </c>
       <c r="D505" t="n">
-        <v>196.4410552978516</v>
+        <v>190.8817596435547</v>
       </c>
       <c r="E505" t="n">
-        <v>-4.083053588867188</v>
+        <v>1.476242065429688</v>
       </c>
     </row>
     <row r="506">
@@ -9039,10 +9039,10 @@
         <v>194.773081982769</v>
       </c>
       <c r="D506" t="n">
-        <v>196.1648712158203</v>
+        <v>190.1673431396484</v>
       </c>
       <c r="E506" t="n">
-        <v>-1.39178466796875</v>
+        <v>4.605743408203125</v>
       </c>
     </row>
     <row r="507">
@@ -9056,10 +9056,10 @@
         <v>197.060393328079</v>
       </c>
       <c r="D507" t="n">
-        <v>197.5288696289062</v>
+        <v>191.6142578125</v>
       </c>
       <c r="E507" t="n">
-        <v>-0.468475341796875</v>
+        <v>5.446136474609375</v>
       </c>
     </row>
     <row r="508">
@@ -9073,10 +9073,10 @@
         <v>199.28399025126</v>
       </c>
       <c r="D508" t="n">
-        <v>198.9315795898438</v>
+        <v>193.4189453125</v>
       </c>
       <c r="E508" t="n">
-        <v>0.3524169921875</v>
+        <v>5.86505126953125</v>
       </c>
     </row>
     <row r="509">
@@ -9090,10 +9090,10 @@
         <v>201.457976347494</v>
       </c>
       <c r="D509" t="n">
-        <v>203.4572601318359</v>
+        <v>198.8720703125</v>
       </c>
       <c r="E509" t="n">
-        <v>-1.999282836914062</v>
+        <v>2.585906982421875</v>
       </c>
     </row>
     <row r="510">
@@ -9107,10 +9107,10 @@
         <v>203.552499145023</v>
       </c>
       <c r="D510" t="n">
-        <v>205.7836608886719</v>
+        <v>202.5905303955078</v>
       </c>
       <c r="E510" t="n">
-        <v>-2.231155395507812</v>
+        <v>0.96197509765625</v>
       </c>
     </row>
     <row r="511">
@@ -9124,10 +9124,10 @@
         <v>205.580562096555</v>
       </c>
       <c r="D511" t="n">
-        <v>210.2474975585938</v>
+        <v>208.9136199951172</v>
       </c>
       <c r="E511" t="n">
-        <v>-4.66693115234375</v>
+        <v>-3.333053588867188</v>
       </c>
     </row>
     <row r="512">
@@ -9141,10 +9141,10 @@
         <v>207.62409735083</v>
       </c>
       <c r="D512" t="n">
-        <v>214.4334106445312</v>
+        <v>214.2585906982422</v>
       </c>
       <c r="E512" t="n">
-        <v>-6.809310913085938</v>
+        <v>-6.634490966796875</v>
       </c>
     </row>
     <row r="513">
@@ -9158,10 +9158,10 @@
         <v>209.716258190205</v>
       </c>
       <c r="D513" t="n">
-        <v>215.4513092041016</v>
+        <v>215.6180114746094</v>
       </c>
       <c r="E513" t="n">
-        <v>-5.73504638671875</v>
+        <v>-5.901748657226562</v>
       </c>
     </row>
     <row r="514">
@@ -9175,10 +9175,10 @@
         <v>211.856662754547</v>
       </c>
       <c r="D514" t="n">
-        <v>215.905517578125</v>
+        <v>215.5113677978516</v>
       </c>
       <c r="E514" t="n">
-        <v>-4.048858642578125</v>
+        <v>-3.654708862304688</v>
       </c>
     </row>
     <row r="515">
@@ -9192,10 +9192,10 @@
         <v>214.079161903279</v>
       </c>
       <c r="D515" t="n">
-        <v>216.2196197509766</v>
+        <v>215.6788787841797</v>
       </c>
       <c r="E515" t="n">
-        <v>-2.140457153320312</v>
+        <v>-1.599716186523438</v>
       </c>
     </row>
     <row r="516">
@@ -9209,10 +9209,10 @@
         <v>216.417301578074</v>
       </c>
       <c r="D516" t="n">
-        <v>217.2459716796875</v>
+        <v>216.826904296875</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.82867431640625</v>
+        <v>-0.40960693359375</v>
       </c>
     </row>
     <row r="517">
@@ -9226,10 +9226,10 @@
         <v>218.842105452637</v>
       </c>
       <c r="D517" t="n">
-        <v>218.2299041748047</v>
+        <v>218.1552734375</v>
       </c>
       <c r="E517" t="n">
-        <v>0.6121978759765625</v>
+        <v>0.68682861328125</v>
       </c>
     </row>
     <row r="518">
@@ -9243,10 +9243,10 @@
         <v>221.347335111067</v>
       </c>
       <c r="D518" t="n">
-        <v>219.7973785400391</v>
+        <v>220.1519165039062</v>
       </c>
       <c r="E518" t="n">
-        <v>1.549957275390625</v>
+        <v>1.195419311523438</v>
       </c>
     </row>
     <row r="519">
@@ -9260,10 +9260,10 @@
         <v>223.994589242993</v>
       </c>
       <c r="D519" t="n">
-        <v>223.0032958984375</v>
+        <v>223.8934631347656</v>
       </c>
       <c r="E519" t="n">
-        <v>0.9912872314453125</v>
+        <v>0.1011199951171875</v>
       </c>
     </row>
     <row r="520">
@@ -9277,10 +9277,10 @@
         <v>226.848207550975</v>
       </c>
       <c r="D520" t="n">
-        <v>225.4014587402344</v>
+        <v>227.1838684082031</v>
       </c>
       <c r="E520" t="n">
-        <v>1.446746826171875</v>
+        <v>-0.335662841796875</v>
       </c>
     </row>
     <row r="521">
@@ -9294,10 +9294,10 @@
         <v>229.926082484057</v>
       </c>
       <c r="D521" t="n">
-        <v>227.9402923583984</v>
+        <v>230.1618041992188</v>
       </c>
       <c r="E521" t="n">
-        <v>1.985794067382812</v>
+        <v>-0.2357177734375</v>
       </c>
     </row>
     <row r="522">
@@ -9311,10 +9311,10 @@
         <v>233.128897298419</v>
       </c>
       <c r="D522" t="n">
-        <v>229.4933166503906</v>
+        <v>232.1514892578125</v>
       </c>
       <c r="E522" t="n">
-        <v>3.635574340820312</v>
+        <v>0.9774017333984375</v>
       </c>
     </row>
     <row r="523">
@@ -9328,10 +9328,10 @@
         <v>236.321600056166</v>
       </c>
       <c r="D523" t="n">
-        <v>231.5018310546875</v>
+        <v>234.7481536865234</v>
       </c>
       <c r="E523" t="n">
-        <v>4.81976318359375</v>
+        <v>1.573440551757812</v>
       </c>
     </row>
     <row r="524">
@@ -9345,10 +9345,10 @@
         <v>239.367254532422</v>
       </c>
       <c r="D524" t="n">
-        <v>234.0258178710938</v>
+        <v>238.1392822265625</v>
       </c>
       <c r="E524" t="n">
-        <v>5.3414306640625</v>
+        <v>1.22796630859375</v>
       </c>
     </row>
     <row r="525">
@@ -9362,10 +9362,10 @@
         <v>242.216434064194</v>
       </c>
       <c r="D525" t="n">
-        <v>236.5800170898438</v>
+        <v>241.6703796386719</v>
       </c>
       <c r="E525" t="n">
-        <v>5.63641357421875</v>
+        <v>0.546051025390625</v>
       </c>
     </row>
     <row r="526">
@@ -9379,10 +9379,10 @@
         <v>244.923360079367</v>
       </c>
       <c r="D526" t="n">
-        <v>239.5102233886719</v>
+        <v>245.7837524414062</v>
       </c>
       <c r="E526" t="n">
-        <v>5.413131713867188</v>
+        <v>-0.8603973388671875</v>
       </c>
     </row>
     <row r="527">
@@ -9396,10 +9396,10 @@
         <v>247.486572001166</v>
       </c>
       <c r="D527" t="n">
-        <v>243.6919860839844</v>
+        <v>248.3459777832031</v>
       </c>
       <c r="E527" t="n">
-        <v>3.794586181640625</v>
+        <v>-0.859405517578125</v>
       </c>
     </row>
     <row r="528">
@@ -9413,10 +9413,10 @@
         <v>249.852230087918</v>
       </c>
       <c r="D528" t="n">
-        <v>247.4245910644531</v>
+        <v>250.0297546386719</v>
       </c>
       <c r="E528" t="n">
-        <v>2.427642822265625</v>
+        <v>-0.177520751953125</v>
       </c>
     </row>
     <row r="529">
@@ -9430,10 +9430,10 @@
         <v>252.010694206577</v>
       </c>
       <c r="D529" t="n">
-        <v>251.7351989746094</v>
+        <v>252.0490112304688</v>
       </c>
       <c r="E529" t="n">
-        <v>0.2754974365234375</v>
+        <v>-0.0383148193359375</v>
       </c>
     </row>
     <row r="530">
@@ -9447,10 +9447,10 @@
         <v>253.946358505305</v>
       </c>
       <c r="D530" t="n">
-        <v>255.7606048583984</v>
+        <v>253.8490447998047</v>
       </c>
       <c r="E530" t="n">
-        <v>-1.814239501953125</v>
+        <v>0.097320556640625</v>
       </c>
     </row>
     <row r="531">
@@ -9464,10 +9464,10 @@
         <v>255.703734271075</v>
       </c>
       <c r="D531" t="n">
-        <v>260.5377197265625</v>
+        <v>256.1656799316406</v>
       </c>
       <c r="E531" t="n">
-        <v>-4.833984375</v>
+        <v>-0.461944580078125</v>
       </c>
     </row>
     <row r="532">
@@ -9481,10 +9481,10 @@
         <v>257.30655271874</v>
       </c>
       <c r="D532" t="n">
-        <v>265.42138671875</v>
+        <v>258.1964111328125</v>
       </c>
       <c r="E532" t="n">
-        <v>-8.114837646484375</v>
+        <v>-0.889862060546875</v>
       </c>
     </row>
   </sheetData>

--- a/data/stainless_steel_304_with_predictions.xlsx
+++ b/data/stainless_steel_304_with_predictions.xlsx
@@ -471,10 +471,10 @@
         <v>395.603300876209</v>
       </c>
       <c r="D2" t="n">
-        <v>419.7503662109375</v>
+        <v>418.48779296875</v>
       </c>
       <c r="E2" t="n">
-        <v>-24.14706420898438</v>
+        <v>-22.88449096679688</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>399.477725504481</v>
       </c>
       <c r="D3" t="n">
-        <v>420.1571044921875</v>
+        <v>418.9270935058594</v>
       </c>
       <c r="E3" t="n">
-        <v>-20.67938232421875</v>
+        <v>-19.44937133789062</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>403.129622067849</v>
       </c>
       <c r="D4" t="n">
-        <v>420.6107177734375</v>
+        <v>419.4153442382812</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.48110961914062</v>
+        <v>-16.28573608398438</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>406.555897479841</v>
       </c>
       <c r="D5" t="n">
-        <v>421.1159362792969</v>
+        <v>419.957275390625</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.56002807617188</v>
+        <v>-13.4013671875</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>409.757028790634</v>
       </c>
       <c r="D6" t="n">
-        <v>421.6759338378906</v>
+        <v>420.5559387207031</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.91891479492188</v>
+        <v>-10.79891967773438</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>412.737171626757</v>
       </c>
       <c r="D7" t="n">
-        <v>422.2909545898438</v>
+        <v>421.2115478515625</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.55377197265625</v>
+        <v>-8.474365234375</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>415.510401390927</v>
       </c>
       <c r="D8" t="n">
-        <v>422.9600830078125</v>
+        <v>421.923095703125</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.449676513671875</v>
+        <v>-6.412689208984375</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>418.090374171948</v>
       </c>
       <c r="D9" t="n">
-        <v>423.6846618652344</v>
+        <v>422.6917724609375</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.59429931640625</v>
+        <v>-4.601409912109375</v>
       </c>
     </row>
     <row r="10">
@@ -607,10 +607,10 @@
         <v>420.491343142817</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4638671875</v>
+        <v>423.5166015625</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.9725341796875</v>
+        <v>-3.0252685546875</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v>422.72583850844</v>
       </c>
       <c r="D11" t="n">
-        <v>425.2935791015625</v>
+        <v>424.3934631347656</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.5677490234375</v>
+        <v>-1.667633056640625</v>
       </c>
     </row>
     <row r="12">
@@ -641,10 +641,10 @@
         <v>424.807830694658</v>
       </c>
       <c r="D12" t="n">
-        <v>426.1699829101562</v>
+        <v>425.3181762695312</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.362152099609375</v>
+        <v>-0.510345458984375</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>426.7522086401821</v>
       </c>
       <c r="D13" t="n">
-        <v>427.0894775390625</v>
+        <v>426.2873229980469</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3372802734375</v>
+        <v>0.464874267578125</v>
       </c>
     </row>
     <row r="14">
@@ -675,10 +675,10 @@
         <v>428.5692326158421</v>
       </c>
       <c r="D14" t="n">
-        <v>428.0487365722656</v>
+        <v>427.2972412109375</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5205078125</v>
+        <v>1.272003173828125</v>
       </c>
     </row>
     <row r="15">
@@ -692,10 +692,10 @@
         <v>430.2810408094271</v>
       </c>
       <c r="D15" t="n">
-        <v>429.0443115234375</v>
+        <v>428.344482421875</v>
       </c>
       <c r="E15" t="n">
-        <v>1.236724853515625</v>
+        <v>1.936553955078125</v>
       </c>
     </row>
     <row r="16">
@@ -709,10 +709,10 @@
         <v>431.913928949627</v>
       </c>
       <c r="D16" t="n">
-        <v>430.0730895996094</v>
+        <v>429.4258728027344</v>
       </c>
       <c r="E16" t="n">
-        <v>1.840850830078125</v>
+        <v>2.488067626953125</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         <v>433.489415394423</v>
       </c>
       <c r="D17" t="n">
-        <v>431.1336059570312</v>
+        <v>430.539794921875</v>
       </c>
       <c r="E17" t="n">
-        <v>2.355804443359375</v>
+        <v>2.949615478515625</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         <v>435.0243126933601</v>
       </c>
       <c r="D18" t="n">
-        <v>432.2222595214844</v>
+        <v>431.6826171875</v>
       </c>
       <c r="E18" t="n">
-        <v>2.80206298828125</v>
+        <v>3.341705322265625</v>
       </c>
     </row>
     <row r="19">
@@ -760,10 +760,10 @@
         <v>436.527803060661</v>
       </c>
       <c r="D19" t="n">
-        <v>433.3366394042969</v>
+        <v>432.8517150878906</v>
       </c>
       <c r="E19" t="n">
-        <v>3.191162109375</v>
+        <v>3.67608642578125</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         <v>438.001682240205</v>
       </c>
       <c r="D20" t="n">
-        <v>434.4749145507812</v>
+        <v>434.0453491210938</v>
       </c>
       <c r="E20" t="n">
-        <v>3.526763916015625</v>
+        <v>3.956329345703125</v>
       </c>
     </row>
     <row r="21">
@@ -794,10 +794,10 @@
         <v>439.443744523748</v>
       </c>
       <c r="D21" t="n">
-        <v>435.6337280273438</v>
+        <v>435.2600402832031</v>
       </c>
       <c r="E21" t="n">
-        <v>3.810028076171875</v>
+        <v>4.1837158203125</v>
       </c>
     </row>
     <row r="22">
@@ -811,10 +811,10 @@
         <v>440.848074323229</v>
       </c>
       <c r="D22" t="n">
-        <v>436.8106384277344</v>
+        <v>436.4932250976562</v>
       </c>
       <c r="E22" t="n">
-        <v>4.037445068359375</v>
+        <v>4.3548583984375</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         <v>442.208071069627</v>
       </c>
       <c r="D23" t="n">
-        <v>438.004638671875</v>
+        <v>437.7439575195312</v>
       </c>
       <c r="E23" t="n">
-        <v>4.20343017578125</v>
+        <v>4.464111328125</v>
       </c>
     </row>
     <row r="24">
@@ -845,10 +845,10 @@
         <v>443.519542436043</v>
       </c>
       <c r="D24" t="n">
-        <v>439.2135314941406</v>
+        <v>439.0098876953125</v>
       </c>
       <c r="E24" t="n">
-        <v>4.305999755859375</v>
+        <v>4.5096435546875</v>
       </c>
     </row>
     <row r="25">
@@ -862,10 +862,10 @@
         <v>444.7838075429399</v>
       </c>
       <c r="D25" t="n">
-        <v>440.436279296875</v>
+        <v>440.2900085449219</v>
       </c>
       <c r="E25" t="n">
-        <v>4.3475341796875</v>
+        <v>4.493804931640625</v>
       </c>
     </row>
     <row r="26">
@@ -879,10 +879,10 @@
         <v>446.004589943748</v>
       </c>
       <c r="D26" t="n">
-        <v>441.6689758300781</v>
+        <v>441.580322265625</v>
       </c>
       <c r="E26" t="n">
-        <v>4.335601806640625</v>
+        <v>4.42425537109375</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>447.185365792356</v>
       </c>
       <c r="D27" t="n">
-        <v>442.9111022949219</v>
+        <v>442.8803100585938</v>
       </c>
       <c r="E27" t="n">
-        <v>4.274261474609375</v>
+        <v>4.3050537109375</v>
       </c>
     </row>
     <row r="28">
@@ -913,10 +913,10 @@
         <v>448.33179646193</v>
       </c>
       <c r="D28" t="n">
-        <v>444.1610717773438</v>
+        <v>444.1883544921875</v>
       </c>
       <c r="E28" t="n">
-        <v>4.17071533203125</v>
+        <v>4.1434326171875</v>
       </c>
     </row>
     <row r="29">
@@ -930,10 +930,10 @@
         <v>449.4430736196809</v>
       </c>
       <c r="D29" t="n">
-        <v>445.417724609375</v>
+        <v>445.503173828125</v>
       </c>
       <c r="E29" t="n">
-        <v>4.025360107421875</v>
+        <v>3.939910888671875</v>
       </c>
     </row>
     <row r="30">
@@ -947,10 +947,10 @@
         <v>450.516546689884</v>
       </c>
       <c r="D30" t="n">
-        <v>446.6791381835938</v>
+        <v>446.8231506347656</v>
       </c>
       <c r="E30" t="n">
-        <v>3.83740234375</v>
+        <v>3.693389892578125</v>
       </c>
     </row>
     <row r="31">
@@ -964,10 +964,10 @@
         <v>451.551415719795</v>
       </c>
       <c r="D31" t="n">
-        <v>447.9454040527344</v>
+        <v>448.1480102539062</v>
       </c>
       <c r="E31" t="n">
-        <v>3.60601806640625</v>
+        <v>3.403411865234375</v>
       </c>
     </row>
     <row r="32">
@@ -981,10 +981,10 @@
         <v>452.551730855008</v>
       </c>
       <c r="D32" t="n">
-        <v>449.2158203125</v>
+        <v>449.4772338867188</v>
       </c>
       <c r="E32" t="n">
-        <v>3.335906982421875</v>
+        <v>3.074493408203125</v>
       </c>
     </row>
     <row r="33">
@@ -998,10 +998,10 @@
         <v>453.5281279871621</v>
       </c>
       <c r="D33" t="n">
-        <v>450.4903564453125</v>
+        <v>450.8108520507812</v>
       </c>
       <c r="E33" t="n">
-        <v>3.03778076171875</v>
+        <v>2.71728515625</v>
       </c>
     </row>
     <row r="34">
@@ -1015,10 +1015,10 @@
         <v>454.494356195184</v>
       </c>
       <c r="D34" t="n">
-        <v>451.7710266113281</v>
+        <v>452.150634765625</v>
       </c>
       <c r="E34" t="n">
-        <v>2.72332763671875</v>
+        <v>2.343719482421875</v>
       </c>
     </row>
     <row r="35">
@@ -1032,10 +1032,10 @@
         <v>455.456910103284</v>
       </c>
       <c r="D35" t="n">
-        <v>453.0574645996094</v>
+        <v>453.4964599609375</v>
       </c>
       <c r="E35" t="n">
-        <v>2.399444580078125</v>
+        <v>1.96044921875</v>
       </c>
     </row>
     <row r="36">
@@ -1049,10 +1049,10 @@
         <v>456.419549877027</v>
       </c>
       <c r="D36" t="n">
-        <v>454.3478393554688</v>
+        <v>454.8463134765625</v>
       </c>
       <c r="E36" t="n">
-        <v>2.07171630859375</v>
+        <v>1.5732421875</v>
       </c>
     </row>
     <row r="37">
@@ -1066,10 +1066,10 @@
         <v>457.383368841973</v>
       </c>
       <c r="D37" t="n">
-        <v>455.6414184570312</v>
+        <v>456.1995544433594</v>
       </c>
       <c r="E37" t="n">
-        <v>1.741943359375</v>
+        <v>1.183807373046875</v>
       </c>
     </row>
     <row r="38">
@@ -1083,10 +1083,10 @@
         <v>458.346881056813</v>
       </c>
       <c r="D38" t="n">
-        <v>456.9390563964844</v>
+        <v>457.5570373535156</v>
       </c>
       <c r="E38" t="n">
-        <v>1.4078369140625</v>
+        <v>0.78985595703125</v>
       </c>
     </row>
     <row r="39">
@@ -1100,10 +1100,10 @@
         <v>459.3056902717281</v>
       </c>
       <c r="D39" t="n">
-        <v>458.2413330078125</v>
+        <v>458.919189453125</v>
       </c>
       <c r="E39" t="n">
-        <v>1.064361572265625</v>
+        <v>0.386505126953125</v>
       </c>
     </row>
     <row r="40">
@@ -1117,10 +1117,10 @@
         <v>460.257071814311</v>
       </c>
       <c r="D40" t="n">
-        <v>459.547607421875</v>
+        <v>460.2855529785156</v>
       </c>
       <c r="E40" t="n">
-        <v>0.70947265625</v>
+        <v>-0.028472900390625</v>
       </c>
     </row>
     <row r="41">
@@ -1134,10 +1134,10 @@
         <v>461.211656546065</v>
       </c>
       <c r="D41" t="n">
-        <v>460.8578491210938</v>
+        <v>461.656005859375</v>
       </c>
       <c r="E41" t="n">
-        <v>0.35382080078125</v>
+        <v>-0.4443359375</v>
       </c>
     </row>
     <row r="42">
@@ -1151,10 +1151,10 @@
         <v>462.176666239077</v>
       </c>
       <c r="D42" t="n">
-        <v>462.1716613769531</v>
+        <v>463.0300903320312</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0050048828125</v>
+        <v>-0.853424072265625</v>
       </c>
     </row>
     <row r="43">
@@ -1168,10 +1168,10 @@
         <v>463.150431838265</v>
       </c>
       <c r="D43" t="n">
-        <v>463.4885864257812</v>
+        <v>464.4074401855469</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.338165283203125</v>
+        <v>-1.25701904296875</v>
       </c>
     </row>
     <row r="44">
@@ -1185,10 +1185,10 @@
         <v>464.13087981713</v>
       </c>
       <c r="D44" t="n">
-        <v>464.8082885742188</v>
+        <v>465.7876586914062</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.677398681640625</v>
+        <v>-1.656768798828125</v>
       </c>
     </row>
     <row r="45">
@@ -1202,10 +1202,10 @@
         <v>465.11381737751</v>
       </c>
       <c r="D45" t="n">
-        <v>466.1312255859375</v>
+        <v>467.1712036132812</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.01739501953125</v>
+        <v>-2.057373046875</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>466.093449295937</v>
       </c>
       <c r="D46" t="n">
-        <v>467.4562377929688</v>
+        <v>468.3474731445312</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.36279296875</v>
+        <v>-2.2540283203125</v>
       </c>
     </row>
     <row r="47">
@@ -1236,10 +1236,10 @@
         <v>467.065282627381</v>
       </c>
       <c r="D47" t="n">
-        <v>468.7828369140625</v>
+        <v>469.0957641601562</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.717559814453125</v>
+        <v>-2.030487060546875</v>
       </c>
     </row>
     <row r="48">
@@ -1253,10 +1253,10 @@
         <v>468.028365014842</v>
       </c>
       <c r="D48" t="n">
-        <v>470.1116027832031</v>
+        <v>469.8453369140625</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.083251953125</v>
+        <v>-1.816986083984375</v>
       </c>
     </row>
     <row r="49">
@@ -1270,10 +1270,10 @@
         <v>468.980682897926</v>
       </c>
       <c r="D49" t="n">
-        <v>471.4425048828125</v>
+        <v>470.5960083007812</v>
       </c>
       <c r="E49" t="n">
-        <v>-2.461822509765625</v>
+        <v>-1.615325927734375</v>
       </c>
     </row>
     <row r="50">
@@ -1287,10 +1287,10 @@
         <v>469.9191282195241</v>
       </c>
       <c r="D50" t="n">
-        <v>472.7745971679688</v>
+        <v>471.346923828125</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.85546875</v>
+        <v>-1.42779541015625</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>470.842777793803</v>
       </c>
       <c r="D51" t="n">
-        <v>474.09326171875</v>
+        <v>472.0988159179688</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.25048828125</v>
+        <v>-1.25604248046875</v>
       </c>
     </row>
     <row r="52">
@@ -1321,10 +1321,10 @@
         <v>471.7556512590941</v>
       </c>
       <c r="D52" t="n">
-        <v>474.8892822265625</v>
+        <v>472.8510131835938</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.133636474609375</v>
+        <v>-1.095367431640625</v>
       </c>
     </row>
     <row r="53">
@@ -1338,10 +1338,10 @@
         <v>472.657554171301</v>
       </c>
       <c r="D53" t="n">
-        <v>475.6848754882812</v>
+        <v>473.6059875488281</v>
       </c>
       <c r="E53" t="n">
-        <v>-3.027313232421875</v>
+        <v>-0.94842529296875</v>
       </c>
     </row>
     <row r="54">
@@ -1355,10 +1355,10 @@
         <v>473.543736147793</v>
       </c>
       <c r="D54" t="n">
-        <v>476.4795227050781</v>
+        <v>474.3638610839844</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.935791015625</v>
+        <v>-0.82012939453125</v>
       </c>
     </row>
     <row r="55">
@@ -1372,10 +1372,10 @@
         <v>474.410940570323</v>
       </c>
       <c r="D55" t="n">
-        <v>477.2725830078125</v>
+        <v>475.1248779296875</v>
       </c>
       <c r="E55" t="n">
-        <v>-2.86163330078125</v>
+        <v>-0.71392822265625</v>
       </c>
     </row>
     <row r="56">
@@ -1389,10 +1389,10 @@
         <v>475.262352803119</v>
       </c>
       <c r="D56" t="n">
-        <v>478.0634155273438</v>
+        <v>475.8889770507812</v>
       </c>
       <c r="E56" t="n">
-        <v>-2.801055908203125</v>
+        <v>-0.626617431640625</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>476.1052025488499</v>
       </c>
       <c r="D57" t="n">
-        <v>478.8517456054688</v>
+        <v>476.6561889648438</v>
       </c>
       <c r="E57" t="n">
-        <v>-2.746551513671875</v>
+        <v>-0.550994873046875</v>
       </c>
     </row>
     <row r="58">
@@ -1423,10 +1423,10 @@
         <v>476.948782171043</v>
       </c>
       <c r="D58" t="n">
-        <v>479.638671875</v>
+        <v>477.4253540039062</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.68988037109375</v>
+        <v>-0.4765625</v>
       </c>
     </row>
     <row r="59">
@@ -1440,10 +1440,10 @@
         <v>477.802196933531</v>
       </c>
       <c r="D59" t="n">
-        <v>480.4211730957031</v>
+        <v>478.1982727050781</v>
       </c>
       <c r="E59" t="n">
-        <v>-2.618988037109375</v>
+        <v>-0.396087646484375</v>
       </c>
     </row>
     <row r="60">
@@ -1457,10 +1457,10 @@
         <v>478.667774289469</v>
       </c>
       <c r="D60" t="n">
-        <v>481.1981811523438</v>
+        <v>478.9749755859375</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.5303955078125</v>
+        <v>-0.30718994140625</v>
       </c>
     </row>
     <row r="61">
@@ -1474,10 +1474,10 @@
         <v>479.542533797816</v>
       </c>
       <c r="D61" t="n">
-        <v>481.9688110351562</v>
+        <v>479.7554931640625</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.42626953125</v>
+        <v>-0.21295166015625</v>
       </c>
     </row>
     <row r="62">
@@ -1491,10 +1491,10 @@
         <v>480.420709306088</v>
       </c>
       <c r="D62" t="n">
-        <v>482.7361450195312</v>
+        <v>480.5372924804688</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.3154296875</v>
+        <v>-0.1165771484375</v>
       </c>
     </row>
     <row r="63">
@@ -1508,10 +1508,10 @@
         <v>481.298531072099</v>
       </c>
       <c r="D63" t="n">
-        <v>483.505126953125</v>
+        <v>481.3170776367188</v>
       </c>
       <c r="E63" t="n">
-        <v>-2.20660400390625</v>
+        <v>-0.0185546875</v>
       </c>
     </row>
     <row r="64">
@@ -1525,10 +1525,10 @@
         <v>482.177826573142</v>
       </c>
       <c r="D64" t="n">
-        <v>484.2752075195312</v>
+        <v>482.0953979492188</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.097381591796875</v>
+        <v>0.082427978515625</v>
       </c>
     </row>
     <row r="65">
@@ -1542,10 +1542,10 @@
         <v>483.060910808503</v>
       </c>
       <c r="D65" t="n">
-        <v>485.0458374023438</v>
+        <v>482.8726806640625</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.98492431640625</v>
+        <v>0.188232421875</v>
       </c>
     </row>
     <row r="66">
@@ -1559,10 +1559,10 @@
         <v>483.949912896613</v>
       </c>
       <c r="D66" t="n">
-        <v>485.8185729980469</v>
+        <v>483.6481323242188</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.86865234375</v>
+        <v>0.301788330078125</v>
       </c>
     </row>
     <row r="67">
@@ -1576,10 +1576,10 @@
         <v>484.844975749093</v>
       </c>
       <c r="D67" t="n">
-        <v>486.5947875976562</v>
+        <v>484.4210815429688</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.74981689453125</v>
+        <v>0.42388916015625</v>
       </c>
     </row>
     <row r="68">
@@ -1593,10 +1593,10 @@
         <v>485.744020357855</v>
       </c>
       <c r="D68" t="n">
-        <v>487.37548828125</v>
+        <v>485.1913452148438</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.6314697265625</v>
+        <v>0.55267333984375</v>
       </c>
     </row>
     <row r="69">
@@ -1610,10 +1610,10 @@
         <v>486.642665222879</v>
       </c>
       <c r="D69" t="n">
-        <v>488.1607666015625</v>
+        <v>485.9592895507812</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.518096923828125</v>
+        <v>0.683380126953125</v>
       </c>
     </row>
     <row r="70">
@@ -1627,10 +1627,10 @@
         <v>487.537224992439</v>
       </c>
       <c r="D70" t="n">
-        <v>488.94970703125</v>
+        <v>486.7257690429688</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.4124755859375</v>
+        <v>0.81146240234375</v>
       </c>
     </row>
     <row r="71">
@@ -1644,10 +1644,10 @@
         <v>488.420856269206</v>
       </c>
       <c r="D71" t="n">
-        <v>489.7415161132812</v>
+        <v>487.4917907714844</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.320648193359375</v>
+        <v>0.9290771484375</v>
       </c>
     </row>
     <row r="72">
@@ -1661,10 +1661,10 @@
         <v>489.2896929436931</v>
       </c>
       <c r="D72" t="n">
-        <v>490.5339965820312</v>
+        <v>488.2587890625</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.244293212890625</v>
+        <v>1.030914306640625</v>
       </c>
     </row>
     <row r="73">
@@ -1678,10 +1678,10 @@
         <v>490.1427074516311</v>
       </c>
       <c r="D73" t="n">
-        <v>491.3247680664062</v>
+        <v>489.0282287597656</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.18206787109375</v>
+        <v>1.114471435546875</v>
       </c>
     </row>
     <row r="74">
@@ -1695,10 +1695,10 @@
         <v>490.983261379538</v>
       </c>
       <c r="D74" t="n">
-        <v>492.1159057617188</v>
+        <v>489.7986145019531</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.13262939453125</v>
+        <v>1.184661865234375</v>
       </c>
     </row>
     <row r="75">
@@ -1712,10 +1712,10 @@
         <v>491.813853618332</v>
       </c>
       <c r="D75" t="n">
-        <v>492.9083251953125</v>
+        <v>490.5693969726562</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.094482421875</v>
+        <v>1.24444580078125</v>
       </c>
     </row>
     <row r="76">
@@ -1729,10 +1729,10 @@
         <v>492.634286527768</v>
       </c>
       <c r="D76" t="n">
-        <v>493.7008666992188</v>
+        <v>491.3410949707031</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.06658935546875</v>
+        <v>1.293182373046875</v>
       </c>
     </row>
     <row r="77">
@@ -1746,10 +1746,10 @@
         <v>493.447403437293</v>
       </c>
       <c r="D77" t="n">
-        <v>494.4921264648438</v>
+        <v>492.1147766113281</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.044708251953125</v>
+        <v>1.3326416015625</v>
       </c>
     </row>
     <row r="78">
@@ -1763,10 +1763,10 @@
         <v>494.2590632122991</v>
       </c>
       <c r="D78" t="n">
-        <v>495.2819213867188</v>
+        <v>492.890380859375</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.022857666015625</v>
+        <v>1.368682861328125</v>
       </c>
     </row>
     <row r="79">
@@ -1780,10 +1780,10 @@
         <v>495.069036974399</v>
       </c>
       <c r="D79" t="n">
-        <v>496.0694274902344</v>
+        <v>493.6680603027344</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.000396728515625</v>
+        <v>1.400970458984375</v>
       </c>
     </row>
     <row r="80">
@@ -1797,10 +1797,10 @@
         <v>495.8777053753091</v>
       </c>
       <c r="D80" t="n">
-        <v>496.8550415039062</v>
+        <v>494.4472961425781</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.977325439453125</v>
+        <v>1.430419921875</v>
       </c>
     </row>
     <row r="81">
@@ -1814,10 +1814,10 @@
         <v>496.69020134807</v>
       </c>
       <c r="D81" t="n">
-        <v>497.6401977539062</v>
+        <v>495.2271118164062</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.949981689453125</v>
+        <v>1.463104248046875</v>
       </c>
     </row>
     <row r="82">
@@ -1831,10 +1831,10 @@
         <v>497.5100296993839</v>
       </c>
       <c r="D82" t="n">
-        <v>498.4270629882812</v>
+        <v>496.0060424804688</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.917022705078125</v>
+        <v>1.503997802734375</v>
       </c>
     </row>
     <row r="83">
@@ -1848,10 +1848,10 @@
         <v>498.341642030644</v>
       </c>
       <c r="D83" t="n">
-        <v>499.2159423828125</v>
+        <v>496.7841186523438</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.874298095703125</v>
+        <v>1.557525634765625</v>
       </c>
     </row>
     <row r="84">
@@ -1865,10 +1865,10 @@
         <v>499.184959764205</v>
       </c>
       <c r="D84" t="n">
-        <v>500.0073852539062</v>
+        <v>497.56103515625</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.822418212890625</v>
+        <v>1.623931884765625</v>
       </c>
     </row>
     <row r="85">
@@ -1882,10 +1882,10 @@
         <v>500.036474759567</v>
       </c>
       <c r="D85" t="n">
-        <v>500.7999267578125</v>
+        <v>498.3380126953125</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.763458251953125</v>
+        <v>1.698455810546875</v>
       </c>
     </row>
     <row r="86">
@@ -1899,10 +1899,10 @@
         <v>500.893958518343</v>
       </c>
       <c r="D86" t="n">
-        <v>501.594482421875</v>
+        <v>499.1146240234375</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.700531005859375</v>
+        <v>1.779327392578125</v>
       </c>
     </row>
     <row r="87">
@@ -1916,10 +1916,10 @@
         <v>501.75496063733</v>
       </c>
       <c r="D87" t="n">
-        <v>502.3900451660156</v>
+        <v>499.8914489746094</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.63507080078125</v>
+        <v>1.863525390625</v>
       </c>
     </row>
     <row r="88">
@@ -1933,10 +1933,10 @@
         <v>502.615028776655</v>
       </c>
       <c r="D88" t="n">
-        <v>503.1841430664062</v>
+        <v>500.6702270507812</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.569122314453125</v>
+        <v>1.944793701171875</v>
       </c>
     </row>
     <row r="89">
@@ -1950,10 +1950,10 @@
         <v>503.4725272339761</v>
       </c>
       <c r="D89" t="n">
-        <v>503.9755859375</v>
+        <v>501.451416015625</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.5030517578125</v>
+        <v>2.0211181640625</v>
       </c>
     </row>
     <row r="90">
@@ -1967,10 +1967,10 @@
         <v>504.329045479308</v>
       </c>
       <c r="D90" t="n">
-        <v>504.7626647949219</v>
+        <v>502.2357788085938</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.433624267578125</v>
+        <v>2.09326171875</v>
       </c>
     </row>
     <row r="91">
@@ -1984,10 +1984,10 @@
         <v>505.187877626213</v>
       </c>
       <c r="D91" t="n">
-        <v>505.5462036132812</v>
+        <v>503.0223693847656</v>
       </c>
       <c r="E91" t="n">
-        <v>-0.35833740234375</v>
+        <v>2.165496826171875</v>
       </c>
     </row>
     <row r="92">
@@ -2001,10 +2001,10 @@
         <v>506.045120564935</v>
       </c>
       <c r="D92" t="n">
-        <v>506.330322265625</v>
+        <v>503.8082885742188</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.285186767578125</v>
+        <v>2.236846923828125</v>
       </c>
     </row>
     <row r="93">
@@ -2018,10 +2018,10 @@
         <v>506.894402650837</v>
       </c>
       <c r="D93" t="n">
-        <v>507.1152648925781</v>
+        <v>504.5933837890625</v>
       </c>
       <c r="E93" t="n">
-        <v>-0.220855712890625</v>
+        <v>2.301025390625</v>
       </c>
     </row>
     <row r="94">
@@ -2035,10 +2035,10 @@
         <v>507.729759959008</v>
       </c>
       <c r="D94" t="n">
-        <v>507.8977661132812</v>
+        <v>505.3799438476562</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.167999267578125</v>
+        <v>2.349822998046875</v>
       </c>
     </row>
     <row r="95">
@@ -2052,10 +2052,10 @@
         <v>508.548500683855</v>
       </c>
       <c r="D95" t="n">
-        <v>508.6785888671875</v>
+        <v>506.1670532226562</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.130096435546875</v>
+        <v>2.381439208984375</v>
       </c>
     </row>
     <row r="96">
@@ -2069,10 +2069,10 @@
         <v>509.35051551836</v>
       </c>
       <c r="D96" t="n">
-        <v>509.4613952636719</v>
+        <v>506.9523315429688</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.110870361328125</v>
+        <v>2.398193359375</v>
       </c>
     </row>
     <row r="97">
@@ -2086,10 +2086,10 @@
         <v>510.1390004948551</v>
       </c>
       <c r="D97" t="n">
-        <v>510.2484130859375</v>
+        <v>507.7348022460938</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.109405517578125</v>
+        <v>2.404205322265625</v>
       </c>
     </row>
     <row r="98">
@@ -2103,10 +2103,10 @@
         <v>510.916598314415</v>
       </c>
       <c r="D98" t="n">
-        <v>511.0386962890625</v>
+        <v>508.5154113769531</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.122100830078125</v>
+        <v>2.40118408203125</v>
       </c>
     </row>
     <row r="99">
@@ -2120,10 +2120,10 @@
         <v>511.689313919243</v>
       </c>
       <c r="D99" t="n">
-        <v>511.8309631347656</v>
+        <v>509.2951354980469</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.14166259765625</v>
+        <v>2.3941650390625</v>
       </c>
     </row>
     <row r="100">
@@ -2137,10 +2137,10 @@
         <v>512.462492884584</v>
       </c>
       <c r="D100" t="n">
-        <v>512.625</v>
+        <v>510.074462890625</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.16253662109375</v>
+        <v>2.38800048828125</v>
       </c>
     </row>
     <row r="101">
@@ -2154,10 +2154,10 @@
         <v>513.237101541007</v>
       </c>
       <c r="D101" t="n">
-        <v>513.4193115234375</v>
+        <v>510.8543090820312</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.18218994140625</v>
+        <v>2.3828125</v>
       </c>
     </row>
     <row r="102">
@@ -2171,10 +2171,10 @@
         <v>514.012907844708</v>
       </c>
       <c r="D102" t="n">
-        <v>514.213623046875</v>
+        <v>511.6348876953125</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.20074462890625</v>
+        <v>2.37799072265625</v>
       </c>
     </row>
     <row r="103">
@@ -2188,10 +2188,10 @@
         <v>514.794184775429</v>
       </c>
       <c r="D103" t="n">
-        <v>515.00927734375</v>
+        <v>512.415283203125</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.215087890625</v>
+        <v>2.37890625</v>
       </c>
     </row>
     <row r="104">
@@ -2205,10 +2205,10 @@
         <v>515.585042287075</v>
       </c>
       <c r="D104" t="n">
-        <v>515.8045654296875</v>
+        <v>513.19677734375</v>
       </c>
       <c r="E104" t="n">
-        <v>-0.21954345703125</v>
+        <v>2.38824462890625</v>
       </c>
     </row>
     <row r="105">
@@ -2222,10 +2222,10 @@
         <v>516.382043385204</v>
       </c>
       <c r="D105" t="n">
-        <v>516.5965576171875</v>
+        <v>513.98095703125</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.21453857421875</v>
+        <v>2.40106201171875</v>
       </c>
     </row>
     <row r="106">
@@ -2239,10 +2239,10 @@
         <v>517.1815427831759</v>
       </c>
       <c r="D106" t="n">
-        <v>517.3853759765625</v>
+        <v>514.7674560546875</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.203857421875</v>
+        <v>2.4140625</v>
       </c>
     </row>
     <row r="107">
@@ -2256,10 +2256,10 @@
         <v>517.9794213237441</v>
       </c>
       <c r="D107" t="n">
-        <v>518.172607421875</v>
+        <v>515.554931640625</v>
       </c>
       <c r="E107" t="n">
-        <v>-0.19317626953125</v>
+        <v>2.42449951171875</v>
       </c>
     </row>
     <row r="108">
@@ -2273,10 +2273,10 @@
         <v>518.775930697411</v>
       </c>
       <c r="D108" t="n">
-        <v>518.95947265625</v>
+        <v>516.3424682617188</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.18353271484375</v>
+        <v>2.4334716796875</v>
       </c>
     </row>
     <row r="109">
@@ -2290,10 +2290,10 @@
         <v>519.573257265865</v>
       </c>
       <c r="D109" t="n">
-        <v>519.7440185546875</v>
+        <v>517.1311645507812</v>
       </c>
       <c r="E109" t="n">
-        <v>-0.1707763671875</v>
+        <v>2.44207763671875</v>
       </c>
     </row>
     <row r="110">
@@ -2307,10 +2307,10 @@
         <v>520.369388681492</v>
       </c>
       <c r="D110" t="n">
-        <v>520.52685546875</v>
+        <v>517.920654296875</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.157470703125</v>
+        <v>2.44873046875</v>
       </c>
     </row>
     <row r="111">
@@ -2324,10 +2324,10 @@
         <v>521.1644328619909</v>
       </c>
       <c r="D111" t="n">
-        <v>521.3096923828125</v>
+        <v>518.70947265625</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.145263671875</v>
+        <v>2.4549560546875</v>
       </c>
     </row>
     <row r="112">
@@ -2341,10 +2341,10 @@
         <v>521.961533450585</v>
       </c>
       <c r="D112" t="n">
-        <v>522.093994140625</v>
+        <v>519.4969482421875</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1324462890625</v>
+        <v>2.464599609375</v>
       </c>
     </row>
     <row r="113">
@@ -2358,10 +2358,10 @@
         <v>522.760464163294</v>
       </c>
       <c r="D113" t="n">
-        <v>522.8782958984375</v>
+        <v>520.2840576171875</v>
       </c>
       <c r="E113" t="n">
-        <v>-0.11785888671875</v>
+        <v>2.47637939453125</v>
       </c>
     </row>
     <row r="114">
@@ -2375,10 +2375,10 @@
         <v>523.557609596411</v>
       </c>
       <c r="D114" t="n">
-        <v>523.6599731445312</v>
+        <v>521.072509765625</v>
       </c>
       <c r="E114" t="n">
-        <v>-0.10235595703125</v>
+        <v>2.485107421875</v>
       </c>
     </row>
     <row r="115">
@@ -2392,10 +2392,10 @@
         <v>524.3508763392609</v>
       </c>
       <c r="D115" t="n">
-        <v>524.4417114257812</v>
+        <v>521.8602905273438</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.0908203125</v>
+        <v>2.4906005859375</v>
       </c>
     </row>
     <row r="116">
@@ -2409,10 +2409,10 @@
         <v>525.13905408516</v>
       </c>
       <c r="D116" t="n">
-        <v>525.2271118164062</v>
+        <v>522.6453857421875</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.08807373046875</v>
+        <v>2.49365234375</v>
       </c>
     </row>
     <row r="117">
@@ -2426,10 +2426,10 @@
         <v>525.92923097068</v>
       </c>
       <c r="D117" t="n">
-        <v>526.0162353515625</v>
+        <v>523.427978515625</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.08697509765625</v>
+        <v>2.50128173828125</v>
       </c>
     </row>
     <row r="118">
@@ -2443,10 +2443,10 @@
         <v>526.7266300602059</v>
       </c>
       <c r="D118" t="n">
-        <v>526.81103515625</v>
+        <v>524.207275390625</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.08441162109375</v>
+        <v>2.51934814453125</v>
       </c>
     </row>
     <row r="119">
@@ -2460,10 +2460,10 @@
         <v>527.531264074822</v>
       </c>
       <c r="D119" t="n">
-        <v>527.6094360351562</v>
+        <v>524.9852294921875</v>
       </c>
       <c r="E119" t="n">
-        <v>-0.07818603515625</v>
+        <v>2.5460205078125</v>
       </c>
     </row>
     <row r="120">
@@ -2477,10 +2477,10 @@
         <v>528.337681948824</v>
       </c>
       <c r="D120" t="n">
-        <v>528.40673828125</v>
+        <v>525.764892578125</v>
       </c>
       <c r="E120" t="n">
-        <v>-0.06903076171875</v>
+        <v>2.57281494140625</v>
       </c>
     </row>
     <row r="121">
@@ -2494,10 +2494,10 @@
         <v>529.141108687154</v>
       </c>
       <c r="D121" t="n">
-        <v>529.2034912109375</v>
+        <v>526.5457763671875</v>
       </c>
       <c r="E121" t="n">
-        <v>-0.0623779296875</v>
+        <v>2.5953369140625</v>
       </c>
     </row>
     <row r="122">
@@ -2511,10 +2511,10 @@
         <v>529.938784510251</v>
       </c>
       <c r="D122" t="n">
-        <v>530.002197265625</v>
+        <v>527.3262939453125</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.06341552734375</v>
+        <v>2.61248779296875</v>
       </c>
     </row>
     <row r="123">
@@ -2528,10 +2528,10 @@
         <v>530.730932788171</v>
       </c>
       <c r="D123" t="n">
-        <v>530.8035278320312</v>
+        <v>528.106201171875</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.07257080078125</v>
+        <v>2.624755859375</v>
       </c>
     </row>
     <row r="124">
@@ -2545,10 +2545,10 @@
         <v>531.520061451296</v>
       </c>
       <c r="D124" t="n">
-        <v>531.606689453125</v>
+        <v>528.8860473632812</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.08660888671875</v>
+        <v>2.634033203125</v>
       </c>
     </row>
     <row r="125">
@@ -2562,10 +2562,10 @@
         <v>532.30970074917</v>
       </c>
       <c r="D125" t="n">
-        <v>532.4116821289062</v>
+        <v>529.6661376953125</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.10198974609375</v>
+        <v>2.6435546875</v>
       </c>
     </row>
     <row r="126">
@@ -2579,10 +2579,10 @@
         <v>533.09975937603</v>
       </c>
       <c r="D126" t="n">
-        <v>533.2182006835938</v>
+        <v>530.4465942382812</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.11846923828125</v>
+        <v>2.65313720703125</v>
       </c>
     </row>
     <row r="127">
@@ -2596,10 +2596,10 @@
         <v>533.890796334353</v>
       </c>
       <c r="D127" t="n">
-        <v>534.0267944335938</v>
+        <v>531.2271728515625</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.135986328125</v>
+        <v>2.66363525390625</v>
       </c>
     </row>
     <row r="128">
@@ -2613,10 +2613,10 @@
         <v>534.685509182465</v>
       </c>
       <c r="D128" t="n">
-        <v>534.8388061523438</v>
+        <v>532.0072631835938</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.1533203125</v>
+        <v>2.67822265625</v>
       </c>
     </row>
     <row r="129">
@@ -2630,10 +2630,10 @@
         <v>535.488739001942</v>
       </c>
       <c r="D129" t="n">
-        <v>535.6522216796875</v>
+        <v>532.7880859375</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.16351318359375</v>
+        <v>2.70062255859375</v>
       </c>
     </row>
     <row r="130">
@@ -2647,10 +2647,10 @@
         <v>536.300083591088</v>
       </c>
       <c r="D130" t="n">
-        <v>536.4639282226562</v>
+        <v>533.572021484375</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.163818359375</v>
+        <v>2.72808837890625</v>
       </c>
     </row>
     <row r="131">
@@ -2664,10 +2664,10 @@
         <v>537.1117940385531</v>
       </c>
       <c r="D131" t="n">
-        <v>537.2715454101562</v>
+        <v>534.35986328125</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.15972900390625</v>
+        <v>2.751953125</v>
       </c>
     </row>
     <row r="132">
@@ -2681,10 +2681,10 @@
         <v>537.9202601223781</v>
       </c>
       <c r="D132" t="n">
-        <v>538.0750732421875</v>
+        <v>535.1514282226562</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.15478515625</v>
+        <v>2.76885986328125</v>
       </c>
     </row>
     <row r="133">
@@ -2698,10 +2698,10 @@
         <v>538.722572709315</v>
       </c>
       <c r="D133" t="n">
-        <v>538.8746948242188</v>
+        <v>535.9459228515625</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.152099609375</v>
+        <v>2.77667236328125</v>
       </c>
     </row>
     <row r="134">
@@ -2715,10 +2715,10 @@
         <v>539.517546450646</v>
       </c>
       <c r="D134" t="n">
-        <v>539.67138671875</v>
+        <v>536.742431640625</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.15386962890625</v>
+        <v>2.77508544921875</v>
       </c>
     </row>
     <row r="135">
@@ -2732,10 +2732,10 @@
         <v>540.303542877867</v>
       </c>
       <c r="D135" t="n">
-        <v>540.467041015625</v>
+        <v>537.5394287109375</v>
       </c>
       <c r="E135" t="n">
-        <v>-0.16351318359375</v>
+        <v>2.76409912109375</v>
       </c>
     </row>
     <row r="136">
@@ -2749,10 +2749,10 @@
         <v>541.077054873213</v>
       </c>
       <c r="D136" t="n">
-        <v>541.2655029296875</v>
+        <v>538.33447265625</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.1884765625</v>
+        <v>2.7425537109375</v>
       </c>
     </row>
     <row r="137">
@@ -2766,10 +2766,10 @@
         <v>541.834585991448</v>
       </c>
       <c r="D137" t="n">
-        <v>542.065673828125</v>
+        <v>539.12841796875</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.2310791015625</v>
+        <v>2.7061767578125</v>
       </c>
     </row>
     <row r="138">
@@ -2783,10 +2783,10 @@
         <v>542.584876679496</v>
       </c>
       <c r="D138" t="n">
-        <v>542.8654174804688</v>
+        <v>539.9229125976562</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.280517578125</v>
+        <v>2.6619873046875</v>
       </c>
     </row>
     <row r="139">
@@ -2800,10 +2800,10 @@
         <v>543.335969225772</v>
       </c>
       <c r="D139" t="n">
-        <v>543.66357421875</v>
+        <v>540.7185668945312</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.32757568359375</v>
+        <v>2.617431640625</v>
       </c>
     </row>
     <row r="140">
@@ -2817,10 +2817,10 @@
         <v>544.089736943475</v>
       </c>
       <c r="D140" t="n">
-        <v>544.4597778320312</v>
+        <v>541.5154418945312</v>
       </c>
       <c r="E140" t="n">
-        <v>-0.37005615234375</v>
+        <v>2.57427978515625</v>
       </c>
     </row>
     <row r="141">
@@ -2834,10 +2834,10 @@
         <v>544.851398144488</v>
       </c>
       <c r="D141" t="n">
-        <v>545.2560424804688</v>
+        <v>542.31201171875</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.4046630859375</v>
+        <v>2.53936767578125</v>
       </c>
     </row>
     <row r="142">
@@ -2851,10 +2851,10 @@
         <v>545.6258687875741</v>
       </c>
       <c r="D142" t="n">
-        <v>546.0516357421875</v>
+        <v>543.1089477539062</v>
       </c>
       <c r="E142" t="n">
-        <v>-0.42578125</v>
+        <v>2.51690673828125</v>
       </c>
     </row>
     <row r="143">
@@ -2868,10 +2868,10 @@
         <v>546.418037271244</v>
       </c>
       <c r="D143" t="n">
-        <v>546.8472900390625</v>
+        <v>543.9055786132812</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.42926025390625</v>
+        <v>2.512451171875</v>
       </c>
     </row>
     <row r="144">
@@ -2885,10 +2885,10 @@
         <v>547.226733806461</v>
       </c>
       <c r="D144" t="n">
-        <v>547.6451416015625</v>
+        <v>544.7005615234375</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.41839599609375</v>
+        <v>2.52618408203125</v>
       </c>
     </row>
     <row r="145">
@@ -2902,10 +2902,10 @@
         <v>548.043876050138</v>
       </c>
       <c r="D145" t="n">
-        <v>548.443115234375</v>
+        <v>545.49560546875</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.39923095703125</v>
+        <v>2.54827880859375</v>
       </c>
     </row>
     <row r="146">
@@ -2919,10 +2919,10 @@
         <v>548.860162671794</v>
       </c>
       <c r="D146" t="n">
-        <v>549.2408447265625</v>
+        <v>546.290771484375</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.38067626953125</v>
+        <v>2.56939697265625</v>
       </c>
     </row>
     <row r="147">
@@ -2936,10 +2936,10 @@
         <v>549.669826655524</v>
       </c>
       <c r="D147" t="n">
-        <v>550.0396118164062</v>
+        <v>547.0852661132812</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.36981201171875</v>
+        <v>2.58453369140625</v>
       </c>
     </row>
     <row r="148">
@@ -2953,10 +2953,10 @@
         <v>550.4697453914939</v>
       </c>
       <c r="D148" t="n">
-        <v>550.8397216796875</v>
+        <v>547.879150390625</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.3699951171875</v>
+        <v>2.590576171875</v>
       </c>
     </row>
     <row r="149">
@@ -2970,10 +2970,10 @@
         <v>551.2578901511171</v>
       </c>
       <c r="D149" t="n">
-        <v>551.6393432617188</v>
+        <v>548.6734619140625</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.3814697265625</v>
+        <v>2.58441162109375</v>
       </c>
     </row>
     <row r="150">
@@ -2987,10 +2987,10 @@
         <v>552.033748229647</v>
       </c>
       <c r="D150" t="n">
-        <v>552.43798828125</v>
+        <v>549.4685668945312</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.40423583984375</v>
+        <v>2.565185546875</v>
       </c>
     </row>
     <row r="151">
@@ -3004,10 +3004,10 @@
         <v>552.798343373407</v>
       </c>
       <c r="D151" t="n">
-        <v>553.2371826171875</v>
+        <v>550.263427734375</v>
       </c>
       <c r="E151" t="n">
-        <v>-0.4388427734375</v>
+        <v>2.534912109375</v>
       </c>
     </row>
     <row r="152">
@@ -3021,10 +3021,10 @@
         <v>553.5542391086431</v>
       </c>
       <c r="D152" t="n">
-        <v>554.03759765625</v>
+        <v>551.0576171875</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.48333740234375</v>
+        <v>2.49664306640625</v>
       </c>
     </row>
     <row r="153">
@@ -3038,10 +3038,10 @@
         <v>554.30511703942</v>
       </c>
       <c r="D153" t="n">
-        <v>554.84033203125</v>
+        <v>551.8505859375</v>
       </c>
       <c r="E153" t="n">
-        <v>-0.53521728515625</v>
+        <v>2.45452880859375</v>
       </c>
     </row>
     <row r="154">
@@ -3055,10 +3055,10 @@
         <v>555.0512731800339</v>
       </c>
       <c r="D154" t="n">
-        <v>555.6444091796875</v>
+        <v>552.6432495117188</v>
       </c>
       <c r="E154" t="n">
-        <v>-0.5931396484375</v>
+        <v>2.40802001953125</v>
       </c>
     </row>
     <row r="155">
@@ -3072,10 +3072,10 @@
         <v>555.7934720108041</v>
       </c>
       <c r="D155" t="n">
-        <v>556.4451904296875</v>
+        <v>553.4384155273438</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.6517333984375</v>
+        <v>2.35504150390625</v>
       </c>
     </row>
     <row r="156">
@@ -3089,10 +3089,10 @@
         <v>556.529665678295</v>
       </c>
       <c r="D156" t="n">
-        <v>557.2430419921875</v>
+        <v>554.235595703125</v>
       </c>
       <c r="E156" t="n">
-        <v>-0.71337890625</v>
+        <v>2.2940673828125</v>
       </c>
     </row>
     <row r="157">
@@ -3106,10 +3106,10 @@
         <v>557.261705510237</v>
       </c>
       <c r="D157" t="n">
-        <v>558.0384521484375</v>
+        <v>555.0341796875</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.7767333984375</v>
+        <v>2.2275390625</v>
       </c>
     </row>
     <row r="158">
@@ -3123,10 +3123,10 @@
         <v>557.994565095105</v>
       </c>
       <c r="D158" t="n">
-        <v>558.8329467773438</v>
+        <v>555.8330078125</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.83837890625</v>
+        <v>2.16156005859375</v>
       </c>
     </row>
     <row r="159">
@@ -3140,10 +3140,10 @@
         <v>558.73443819181</v>
       </c>
       <c r="D159" t="n">
-        <v>559.6282348632812</v>
+        <v>556.6309204101562</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.893798828125</v>
+        <v>2.103515625</v>
       </c>
     </row>
     <row r="160">
@@ -3157,10 +3157,10 @@
         <v>559.4860486916471</v>
       </c>
       <c r="D160" t="n">
-        <v>560.4256591796875</v>
+        <v>557.42724609375</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.93963623046875</v>
+        <v>2.05877685546875</v>
       </c>
     </row>
     <row r="161">
@@ -3174,10 +3174,10 @@
         <v>560.2470921282111</v>
       </c>
       <c r="D161" t="n">
-        <v>561.2256469726562</v>
+        <v>558.2218017578125</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.97857666015625</v>
+        <v>2.0252685546875</v>
       </c>
     </row>
     <row r="162">
@@ -3191,10 +3191,10 @@
         <v>561.012226911323</v>
       </c>
       <c r="D162" t="n">
-        <v>562.02783203125</v>
+        <v>559.0151977539062</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.015625</v>
+        <v>1.99700927734375</v>
       </c>
     </row>
     <row r="163">
@@ -3208,10 +3208,10 @@
         <v>561.77619213815</v>
       </c>
       <c r="D163" t="n">
-        <v>562.8302612304688</v>
+        <v>559.8088989257812</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.0540771484375</v>
+        <v>1.96728515625</v>
       </c>
     </row>
     <row r="164">
@@ -3225,10 +3225,10 @@
         <v>562.5425275875859</v>
       </c>
       <c r="D164" t="n">
-        <v>563.6334228515625</v>
+        <v>560.6024780273438</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.09088134765625</v>
+        <v>1.9400634765625</v>
       </c>
     </row>
     <row r="165">
@@ -3242,10 +3242,10 @@
         <v>563.310378650635</v>
       </c>
       <c r="D165" t="n">
-        <v>564.4391479492188</v>
+        <v>561.3948974609375</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.1287841796875</v>
+        <v>1.91546630859375</v>
       </c>
     </row>
     <row r="166">
@@ -3259,10 +3259,10 @@
         <v>564.076790434184</v>
       </c>
       <c r="D166" t="n">
-        <v>565.24658203125</v>
+        <v>562.1868896484375</v>
       </c>
       <c r="E166" t="n">
-        <v>-1.1697998046875</v>
+        <v>1.889892578125</v>
       </c>
     </row>
     <row r="167">
@@ -3276,10 +3276,10 @@
         <v>564.846380122058</v>
       </c>
       <c r="D167" t="n">
-        <v>566.0565795898438</v>
+        <v>562.9781494140625</v>
       </c>
       <c r="E167" t="n">
-        <v>-1.210205078125</v>
+        <v>1.86822509765625</v>
       </c>
     </row>
     <row r="168">
@@ -3293,10 +3293,10 @@
         <v>565.6177463081809</v>
       </c>
       <c r="D168" t="n">
-        <v>566.8676147460938</v>
+        <v>563.7697143554688</v>
       </c>
       <c r="E168" t="n">
-        <v>-1.2498779296875</v>
+        <v>1.8480224609375</v>
       </c>
     </row>
     <row r="169">
@@ -3310,10 +3310,10 @@
         <v>566.3837947847439</v>
       </c>
       <c r="D169" t="n">
-        <v>567.6817016601562</v>
+        <v>564.5604858398438</v>
       </c>
       <c r="E169" t="n">
-        <v>-1.29791259765625</v>
+        <v>1.82330322265625</v>
       </c>
     </row>
     <row r="170">
@@ -3327,10 +3327,10 @@
         <v>567.147078184546</v>
       </c>
       <c r="D170" t="n">
-        <v>568.5003662109375</v>
+        <v>565.3495483398438</v>
       </c>
       <c r="E170" t="n">
-        <v>-1.353271484375</v>
+        <v>1.79754638671875</v>
       </c>
     </row>
     <row r="171">
@@ -3344,10 +3344,10 @@
         <v>567.913653135667</v>
       </c>
       <c r="D171" t="n">
-        <v>569.3214721679688</v>
+        <v>566.138916015625</v>
       </c>
       <c r="E171" t="n">
-        <v>-1.4078369140625</v>
+        <v>1.77471923828125</v>
       </c>
     </row>
     <row r="172">
@@ -3361,10 +3361,10 @@
         <v>568.685604495657</v>
       </c>
       <c r="D172" t="n">
-        <v>570.1442260742188</v>
+        <v>566.928955078125</v>
       </c>
       <c r="E172" t="n">
-        <v>-1.4586181640625</v>
+        <v>1.75665283203125</v>
       </c>
     </row>
     <row r="173">
@@ -3378,10 +3378,10 @@
         <v>569.462648934653</v>
       </c>
       <c r="D173" t="n">
-        <v>570.96533203125</v>
+        <v>567.721923828125</v>
       </c>
       <c r="E173" t="n">
-        <v>-1.502685546875</v>
+        <v>1.74072265625</v>
       </c>
     </row>
     <row r="174">
@@ -3395,10 +3395,10 @@
         <v>570.240508587697</v>
       </c>
       <c r="D174" t="n">
-        <v>571.7830810546875</v>
+        <v>568.5183715820312</v>
       </c>
       <c r="E174" t="n">
-        <v>-1.5426025390625</v>
+        <v>1.72210693359375</v>
       </c>
     </row>
     <row r="175">
@@ -3412,10 +3412,10 @@
         <v>571.016013120167</v>
       </c>
       <c r="D175" t="n">
-        <v>572.5953369140625</v>
+        <v>569.3194580078125</v>
       </c>
       <c r="E175" t="n">
-        <v>-1.579345703125</v>
+        <v>1.696533203125</v>
       </c>
     </row>
     <row r="176">
@@ -3429,10 +3429,10 @@
         <v>571.789637823436</v>
       </c>
       <c r="D176" t="n">
-        <v>573.40380859375</v>
+        <v>570.1234130859375</v>
       </c>
       <c r="E176" t="n">
-        <v>-1.61419677734375</v>
+        <v>1.66619873046875</v>
       </c>
     </row>
     <row r="177">
@@ -3446,10 +3446,10 @@
         <v>572.565149511662</v>
       </c>
       <c r="D177" t="n">
-        <v>574.211669921875</v>
+        <v>570.9278564453125</v>
       </c>
       <c r="E177" t="n">
-        <v>-1.64654541015625</v>
+        <v>1.63726806640625</v>
       </c>
     </row>
     <row r="178">
@@ -3463,10 +3463,10 @@
         <v>573.343602866576</v>
       </c>
       <c r="D178" t="n">
-        <v>575.02099609375</v>
+        <v>571.7315063476562</v>
       </c>
       <c r="E178" t="n">
-        <v>-1.6773681640625</v>
+        <v>1.61212158203125</v>
       </c>
     </row>
     <row r="179">
@@ -3480,10 +3480,10 @@
         <v>574.126523624147</v>
       </c>
       <c r="D179" t="n">
-        <v>575.8321533203125</v>
+        <v>572.5341796875</v>
       </c>
       <c r="E179" t="n">
-        <v>-1.70562744140625</v>
+        <v>1.59234619140625</v>
       </c>
     </row>
     <row r="180">
@@ -3497,10 +3497,10 @@
         <v>574.909902208724</v>
       </c>
       <c r="D180" t="n">
-        <v>576.6434936523438</v>
+        <v>573.3370971679688</v>
       </c>
       <c r="E180" t="n">
-        <v>-1.73358154296875</v>
+        <v>1.57281494140625</v>
       </c>
     </row>
     <row r="181">
@@ -3514,10 +3514,10 @@
         <v>575.68657857253</v>
       </c>
       <c r="D181" t="n">
-        <v>577.4525146484375</v>
+        <v>574.1417846679688</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.76593017578125</v>
+        <v>1.5447998046875</v>
       </c>
     </row>
     <row r="182">
@@ -3531,10 +3531,10 @@
         <v>576.449995797848</v>
       </c>
       <c r="D182" t="n">
-        <v>578.2592163085938</v>
+        <v>574.9481201171875</v>
       </c>
       <c r="E182" t="n">
-        <v>-1.8092041015625</v>
+        <v>1.50189208984375</v>
       </c>
     </row>
     <row r="183">
@@ -3548,10 +3548,10 @@
         <v>577.199722184597</v>
       </c>
       <c r="D183" t="n">
-        <v>579.0634765625</v>
+        <v>575.7556762695312</v>
       </c>
       <c r="E183" t="n">
-        <v>-1.86376953125</v>
+        <v>1.44403076171875</v>
       </c>
     </row>
     <row r="184">
@@ -3565,10 +3565,10 @@
         <v>577.935739099875</v>
       </c>
       <c r="D184" t="n">
-        <v>579.8658447265625</v>
+        <v>576.5641479492188</v>
       </c>
       <c r="E184" t="n">
-        <v>-1.93011474609375</v>
+        <v>1.37158203125</v>
       </c>
     </row>
     <row r="185">
@@ -3582,10 +3582,10 @@
         <v>578.658247057946</v>
       </c>
       <c r="D185" t="n">
-        <v>580.6672973632812</v>
+        <v>577.3726806640625</v>
       </c>
       <c r="E185" t="n">
-        <v>-2.009033203125</v>
+        <v>1.28558349609375</v>
       </c>
     </row>
     <row r="186">
@@ -3599,10 +3599,10 @@
         <v>579.363985294252</v>
       </c>
       <c r="D186" t="n">
-        <v>581.4693603515625</v>
+        <v>578.18017578125</v>
       </c>
       <c r="E186" t="n">
-        <v>-2.1053466796875</v>
+        <v>1.183837890625</v>
       </c>
     </row>
     <row r="187">
@@ -3616,10 +3616,10 @@
         <v>580.04698545442</v>
       </c>
       <c r="D187" t="n">
-        <v>582.2726440429688</v>
+        <v>578.9865112304688</v>
       </c>
       <c r="E187" t="n">
-        <v>-2.22564697265625</v>
+        <v>1.06048583984375</v>
       </c>
     </row>
     <row r="188">
@@ -3633,10 +3633,10 @@
         <v>580.721074972618</v>
       </c>
       <c r="D188" t="n">
-        <v>583.0772094726562</v>
+        <v>579.7916870117188</v>
       </c>
       <c r="E188" t="n">
-        <v>-2.35614013671875</v>
+        <v>0.92938232421875</v>
       </c>
     </row>
     <row r="189">
@@ -3650,10 +3650,10 @@
         <v>581.405491470642</v>
       </c>
       <c r="D189" t="n">
-        <v>583.8822021484375</v>
+        <v>580.596435546875</v>
       </c>
       <c r="E189" t="n">
-        <v>-2.4766845703125</v>
+        <v>0.80908203125</v>
       </c>
     </row>
     <row r="190">
@@ -3667,10 +3667,10 @@
         <v>582.124395497207</v>
       </c>
       <c r="D190" t="n">
-        <v>584.6867065429688</v>
+        <v>581.4012451171875</v>
       </c>
       <c r="E190" t="n">
-        <v>-2.56231689453125</v>
+        <v>0.72314453125</v>
       </c>
     </row>
     <row r="191">
@@ -3684,10 +3684,10 @@
         <v>582.876182388795</v>
       </c>
       <c r="D191" t="n">
-        <v>585.4849243164062</v>
+        <v>582.2098999023438</v>
       </c>
       <c r="E191" t="n">
-        <v>-2.6087646484375</v>
+        <v>0.666259765625</v>
       </c>
     </row>
     <row r="192">
@@ -3701,10 +3701,10 @@
         <v>583.670106799146</v>
       </c>
       <c r="D192" t="n">
-        <v>586.284423828125</v>
+        <v>583.0169677734375</v>
       </c>
       <c r="E192" t="n">
-        <v>-2.61431884765625</v>
+        <v>0.65313720703125</v>
       </c>
     </row>
     <row r="193">
@@ -3718,10 +3718,10 @@
         <v>584.414259534326</v>
       </c>
       <c r="D193" t="n">
-        <v>587.0906372070312</v>
+        <v>583.8192138671875</v>
       </c>
       <c r="E193" t="n">
-        <v>-2.6763916015625</v>
+        <v>0.59503173828125</v>
       </c>
     </row>
     <row r="194">
@@ -3735,10 +3735,10 @@
         <v>585.1355745735659</v>
       </c>
       <c r="D194" t="n">
-        <v>587.8974609375</v>
+        <v>584.6212158203125</v>
       </c>
       <c r="E194" t="n">
-        <v>-2.76190185546875</v>
+        <v>0.51434326171875</v>
       </c>
     </row>
     <row r="195">
@@ -3752,10 +3752,10 @@
         <v>585.8493721784751</v>
       </c>
       <c r="D195" t="n">
-        <v>588.6400146484375</v>
+        <v>585.4234619140625</v>
       </c>
       <c r="E195" t="n">
-        <v>-2.7906494140625</v>
+        <v>0.4259033203125</v>
       </c>
     </row>
     <row r="196">
@@ -3769,10 +3769,10 @@
         <v>586.561215476556</v>
       </c>
       <c r="D196" t="n">
-        <v>589.0247192382812</v>
+        <v>586.2261962890625</v>
       </c>
       <c r="E196" t="n">
-        <v>-2.4635009765625</v>
+        <v>0.33502197265625</v>
       </c>
     </row>
     <row r="197">
@@ -3786,10 +3786,10 @@
         <v>587.2730302167849</v>
       </c>
       <c r="D197" t="n">
-        <v>589.4091796875</v>
+        <v>587.029052734375</v>
       </c>
       <c r="E197" t="n">
-        <v>-2.13616943359375</v>
+        <v>0.24395751953125</v>
       </c>
     </row>
     <row r="198">
@@ -3803,10 +3803,10 @@
         <v>587.9851294139361</v>
       </c>
       <c r="D198" t="n">
-        <v>589.7935791015625</v>
+        <v>587.83203125</v>
       </c>
       <c r="E198" t="n">
-        <v>-1.8084716796875</v>
+        <v>0.153076171875</v>
       </c>
     </row>
     <row r="199">
@@ -3820,10 +3820,10 @@
         <v>588.696958039101</v>
       </c>
       <c r="D199" t="n">
-        <v>590.177734375</v>
+        <v>588.6351928710938</v>
       </c>
       <c r="E199" t="n">
-        <v>-1.48077392578125</v>
+        <v>0.061767578125</v>
       </c>
     </row>
     <row r="200">
@@ -3837,10 +3837,10 @@
         <v>589.4074008957271</v>
       </c>
       <c r="D200" t="n">
-        <v>590.5619506835938</v>
+        <v>589.4383544921875</v>
       </c>
       <c r="E200" t="n">
-        <v>-1.154541015625</v>
+        <v>-0.03094482421875</v>
       </c>
     </row>
     <row r="201">
@@ -3854,10 +3854,10 @@
         <v>590.114891995119</v>
       </c>
       <c r="D201" t="n">
-        <v>590.9461669921875</v>
+        <v>590.2415161132812</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.831298828125</v>
+        <v>-0.12664794921875</v>
       </c>
     </row>
     <row r="202">
@@ -3871,10 +3871,10 @@
         <v>590.818051071176</v>
       </c>
       <c r="D202" t="n">
-        <v>591.33056640625</v>
+        <v>591.04443359375</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.51251220703125</v>
+        <v>-0.22637939453125</v>
       </c>
     </row>
     <row r="203">
@@ -3888,10 +3888,10 @@
         <v>591.515826724007</v>
       </c>
       <c r="D203" t="n">
-        <v>591.715087890625</v>
+        <v>591.8472900390625</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.19927978515625</v>
+        <v>-0.33148193359375</v>
       </c>
     </row>
     <row r="204">
@@ -3905,10 +3905,10 @@
         <v>592.208001982814</v>
       </c>
       <c r="D204" t="n">
-        <v>592.099853515625</v>
+        <v>592.6499633789062</v>
       </c>
       <c r="E204" t="n">
-        <v>0.108154296875</v>
+        <v>-0.44195556640625</v>
       </c>
     </row>
     <row r="205">
@@ -3922,10 +3922,10 @@
         <v>251.671021855103</v>
       </c>
       <c r="D205" t="n">
-        <v>268.6521606445312</v>
+        <v>260.3711547851562</v>
       </c>
       <c r="E205" t="n">
-        <v>-16.98114013671875</v>
+        <v>-8.70013427734375</v>
       </c>
     </row>
     <row r="206">
@@ -3939,10 +3939,10 @@
         <v>264.21622891732</v>
       </c>
       <c r="D206" t="n">
-        <v>274.5516052246094</v>
+        <v>262.1935424804688</v>
       </c>
       <c r="E206" t="n">
-        <v>-10.33538818359375</v>
+        <v>2.022674560546875</v>
       </c>
     </row>
     <row r="207">
@@ -3956,10 +3956,10 @@
         <v>273.78575888259</v>
       </c>
       <c r="D207" t="n">
-        <v>279.6341552734375</v>
+        <v>267.5477905273438</v>
       </c>
       <c r="E207" t="n">
-        <v>-5.848388671875</v>
+        <v>6.23797607421875</v>
       </c>
     </row>
     <row r="208">
@@ -3973,10 +3973,10 @@
         <v>281.271311585657</v>
       </c>
       <c r="D208" t="n">
-        <v>283.5550231933594</v>
+        <v>275.3547973632812</v>
       </c>
       <c r="E208" t="n">
-        <v>-2.283721923828125</v>
+        <v>5.91650390625</v>
       </c>
     </row>
     <row r="209">
@@ -3990,10 +3990,10 @@
         <v>287.530316916377</v>
       </c>
       <c r="D209" t="n">
-        <v>287.6891174316406</v>
+        <v>284.7079162597656</v>
       </c>
       <c r="E209" t="n">
-        <v>-0.1588134765625</v>
+        <v>2.8223876953125</v>
       </c>
     </row>
     <row r="210">
@@ -4007,10 +4007,10 @@
         <v>293.135799212507</v>
       </c>
       <c r="D210" t="n">
-        <v>291.7980651855469</v>
+        <v>292.8067016601562</v>
       </c>
       <c r="E210" t="n">
-        <v>1.337738037109375</v>
+        <v>0.3291015625</v>
       </c>
     </row>
     <row r="211">
@@ -4024,10 +4024,10 @@
         <v>297.872315429841</v>
       </c>
       <c r="D211" t="n">
-        <v>295.8760375976562</v>
+        <v>299.2101745605469</v>
       </c>
       <c r="E211" t="n">
-        <v>1.99627685546875</v>
+        <v>-1.337860107421875</v>
       </c>
     </row>
     <row r="212">
@@ -4041,10 +4041,10 @@
         <v>302.182437460197</v>
       </c>
       <c r="D212" t="n">
-        <v>300.3418579101562</v>
+        <v>304.6875</v>
       </c>
       <c r="E212" t="n">
-        <v>1.840576171875</v>
+        <v>-2.50506591796875</v>
       </c>
     </row>
     <row r="213">
@@ -4058,10 +4058,10 @@
         <v>306.855290595792</v>
       </c>
       <c r="D213" t="n">
-        <v>304.9145202636719</v>
+        <v>308.6394348144531</v>
       </c>
       <c r="E213" t="n">
-        <v>1.940765380859375</v>
+        <v>-1.784149169921875</v>
       </c>
     </row>
     <row r="214">
@@ -4075,10 +4075,10 @@
         <v>311.5812611667</v>
       </c>
       <c r="D214" t="n">
-        <v>309.6083068847656</v>
+        <v>312.1492614746094</v>
       </c>
       <c r="E214" t="n">
-        <v>1.97296142578125</v>
+        <v>-0.5679931640625</v>
       </c>
     </row>
     <row r="215">
@@ -4092,10 +4092,10 @@
         <v>316.151980459623</v>
       </c>
       <c r="D215" t="n">
-        <v>314.1738586425781</v>
+        <v>315.9136962890625</v>
       </c>
       <c r="E215" t="n">
-        <v>1.978118896484375</v>
+        <v>0.23828125</v>
       </c>
     </row>
     <row r="216">
@@ -4109,10 +4109,10 @@
         <v>321.024230909476</v>
       </c>
       <c r="D216" t="n">
-        <v>318.6488647460938</v>
+        <v>319.9871215820312</v>
       </c>
       <c r="E216" t="n">
-        <v>2.3753662109375</v>
+        <v>1.037109375</v>
       </c>
     </row>
     <row r="217">
@@ -4126,10 +4126,10 @@
         <v>325.720452469642</v>
       </c>
       <c r="D217" t="n">
-        <v>323.2249755859375</v>
+        <v>323.869140625</v>
       </c>
       <c r="E217" t="n">
-        <v>2.4954833984375</v>
+        <v>1.851318359375</v>
       </c>
     </row>
     <row r="218">
@@ -4143,10 +4143,10 @@
         <v>329.938070675481</v>
       </c>
       <c r="D218" t="n">
-        <v>327.7994689941406</v>
+        <v>326.7734375</v>
       </c>
       <c r="E218" t="n">
-        <v>2.13861083984375</v>
+        <v>3.164642333984375</v>
       </c>
     </row>
     <row r="219">
@@ -4160,10 +4160,10 @@
         <v>334.215214491751</v>
       </c>
       <c r="D219" t="n">
-        <v>332.5906677246094</v>
+        <v>330.3382568359375</v>
       </c>
       <c r="E219" t="n">
-        <v>1.624542236328125</v>
+        <v>3.876953125</v>
       </c>
     </row>
     <row r="220">
@@ -4177,10 +4177,10 @@
         <v>337.884943190913</v>
       </c>
       <c r="D220" t="n">
-        <v>337.4391479492188</v>
+        <v>334.9405212402344</v>
       </c>
       <c r="E220" t="n">
-        <v>0.44580078125</v>
+        <v>2.944427490234375</v>
       </c>
     </row>
     <row r="221">
@@ -4194,10 +4194,10 @@
         <v>340.494973180004</v>
       </c>
       <c r="D221" t="n">
-        <v>340.5613403320312</v>
+        <v>339.186279296875</v>
       </c>
       <c r="E221" t="n">
-        <v>-0.066375732421875</v>
+        <v>1.308685302734375</v>
       </c>
     </row>
     <row r="222">
@@ -4211,10 +4211,10 @@
         <v>343.401474260756</v>
       </c>
       <c r="D222" t="n">
-        <v>343.5760498046875</v>
+        <v>343.4693603515625</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.174560546875</v>
+        <v>-0.06787109375</v>
       </c>
     </row>
     <row r="223">
@@ -4228,10 +4228,10 @@
         <v>347.066950140101</v>
       </c>
       <c r="D223" t="n">
-        <v>346.5075378417969</v>
+        <v>347.6789855957031</v>
       </c>
       <c r="E223" t="n">
-        <v>0.559417724609375</v>
+        <v>-0.612030029296875</v>
       </c>
     </row>
     <row r="224">
@@ -4245,10 +4245,10 @@
         <v>350.64108801961</v>
       </c>
       <c r="D224" t="n">
-        <v>349.5245056152344</v>
+        <v>350.9049987792969</v>
       </c>
       <c r="E224" t="n">
-        <v>1.1165771484375</v>
+        <v>-0.263916015625</v>
       </c>
     </row>
     <row r="225">
@@ -4262,10 +4262,10 @@
         <v>354.109238630759</v>
       </c>
       <c r="D225" t="n">
-        <v>352.8623657226562</v>
+        <v>353.7635803222656</v>
       </c>
       <c r="E225" t="n">
-        <v>1.24688720703125</v>
+        <v>0.345672607421875</v>
       </c>
     </row>
     <row r="226">
@@ -4279,10 +4279,10 @@
         <v>357.621819120563</v>
       </c>
       <c r="D226" t="n">
-        <v>355.9640808105469</v>
+        <v>356.8741455078125</v>
       </c>
       <c r="E226" t="n">
-        <v>1.657745361328125</v>
+        <v>0.7476806640625</v>
       </c>
     </row>
     <row r="227">
@@ -4296,10 +4296,10 @@
         <v>360.763218221998</v>
       </c>
       <c r="D227" t="n">
-        <v>359.3147888183594</v>
+        <v>360.4945068359375</v>
       </c>
       <c r="E227" t="n">
-        <v>1.44842529296875</v>
+        <v>0.268707275390625</v>
       </c>
     </row>
     <row r="228">
@@ -4313,10 +4313,10 @@
         <v>364.206888941698</v>
       </c>
       <c r="D228" t="n">
-        <v>362.5162353515625</v>
+        <v>363.2923278808594</v>
       </c>
       <c r="E228" t="n">
-        <v>1.690643310546875</v>
+        <v>0.91455078125</v>
       </c>
     </row>
     <row r="229">
@@ -4330,10 +4330,10 @@
         <v>368.431991902877</v>
       </c>
       <c r="D229" t="n">
-        <v>365.7308654785156</v>
+        <v>366.5613098144531</v>
       </c>
       <c r="E229" t="n">
-        <v>2.701141357421875</v>
+        <v>1.870697021484375</v>
       </c>
     </row>
     <row r="230">
@@ -4347,10 +4347,10 @@
         <v>372.602133626715</v>
       </c>
       <c r="D230" t="n">
-        <v>369.1113586425781</v>
+        <v>370.2408142089844</v>
       </c>
       <c r="E230" t="n">
-        <v>3.49078369140625</v>
+        <v>2.361328125</v>
       </c>
     </row>
     <row r="231">
@@ -4364,10 +4364,10 @@
         <v>376.112602258517</v>
       </c>
       <c r="D231" t="n">
-        <v>372.4269409179688</v>
+        <v>372.9504089355469</v>
       </c>
       <c r="E231" t="n">
-        <v>3.6856689453125</v>
+        <v>3.162200927734375</v>
       </c>
     </row>
     <row r="232">
@@ -4381,10 +4381,10 @@
         <v>378.8712623499</v>
       </c>
       <c r="D232" t="n">
-        <v>375.9299621582031</v>
+        <v>376.1628112792969</v>
       </c>
       <c r="E232" t="n">
-        <v>2.941314697265625</v>
+        <v>2.708465576171875</v>
       </c>
     </row>
     <row r="233">
@@ -4398,10 +4398,10 @@
         <v>380.968581440183</v>
       </c>
       <c r="D233" t="n">
-        <v>379.1325988769531</v>
+        <v>379.6171569824219</v>
       </c>
       <c r="E233" t="n">
-        <v>1.835968017578125</v>
+        <v>1.351409912109375</v>
       </c>
     </row>
     <row r="234">
@@ -4415,10 +4415,10 @@
         <v>382.878105269777</v>
       </c>
       <c r="D234" t="n">
-        <v>382.6409912109375</v>
+        <v>383.1971740722656</v>
       </c>
       <c r="E234" t="n">
-        <v>0.23712158203125</v>
+        <v>-0.319061279296875</v>
       </c>
     </row>
     <row r="235">
@@ -4432,10 +4432,10 @@
         <v>385.12847359556</v>
       </c>
       <c r="D235" t="n">
-        <v>385.9759521484375</v>
+        <v>386.16748046875</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.84747314453125</v>
+        <v>-1.03900146484375</v>
       </c>
     </row>
     <row r="236">
@@ -4449,10 +4449,10 @@
         <v>387.971702780591</v>
       </c>
       <c r="D236" t="n">
-        <v>389.2532653808594</v>
+        <v>389.2646484375</v>
       </c>
       <c r="E236" t="n">
-        <v>-1.28155517578125</v>
+        <v>-1.292938232421875</v>
       </c>
     </row>
     <row r="237">
@@ -4466,10 +4466,10 @@
         <v>391.452552277676</v>
       </c>
       <c r="D237" t="n">
-        <v>393.0707397460938</v>
+        <v>392.4504089355469</v>
       </c>
       <c r="E237" t="n">
-        <v>-1.618194580078125</v>
+        <v>-0.99786376953125</v>
       </c>
     </row>
     <row r="238">
@@ -4483,10 +4483,10 @@
         <v>395.032971553912</v>
       </c>
       <c r="D238" t="n">
-        <v>396.7418823242188</v>
+        <v>393.6382446289062</v>
       </c>
       <c r="E238" t="n">
-        <v>-1.70892333984375</v>
+        <v>1.39471435546875</v>
       </c>
     </row>
     <row r="239">
@@ -4500,10 +4500,10 @@
         <v>398.280777627916</v>
       </c>
       <c r="D239" t="n">
-        <v>400.7232360839844</v>
+        <v>394.0919189453125</v>
       </c>
       <c r="E239" t="n">
-        <v>-2.44244384765625</v>
+        <v>4.188873291015625</v>
       </c>
     </row>
     <row r="240">
@@ -4517,10 +4517,10 @@
         <v>401.319887746144</v>
       </c>
       <c r="D240" t="n">
-        <v>404.3019104003906</v>
+        <v>396.149169921875</v>
       </c>
       <c r="E240" t="n">
-        <v>-2.982025146484375</v>
+        <v>5.17071533203125</v>
       </c>
     </row>
     <row r="241">
@@ -4534,10 +4534,10 @@
         <v>404.181049259923</v>
       </c>
       <c r="D241" t="n">
-        <v>408.1808471679688</v>
+        <v>399.6541748046875</v>
       </c>
       <c r="E241" t="n">
-        <v>-3.999786376953125</v>
+        <v>4.526885986328125</v>
       </c>
     </row>
     <row r="242">
@@ -4551,10 +4551,10 @@
         <v>406.987507775872</v>
       </c>
       <c r="D242" t="n">
-        <v>411.9771423339844</v>
+        <v>403.3746032714844</v>
       </c>
       <c r="E242" t="n">
-        <v>-4.9896240234375</v>
+        <v>3.6129150390625</v>
       </c>
     </row>
     <row r="243">
@@ -4568,10 +4568,10 @@
         <v>409.908858985516</v>
       </c>
       <c r="D243" t="n">
-        <v>415.3474426269531</v>
+        <v>407.0564880371094</v>
       </c>
       <c r="E243" t="n">
-        <v>-5.4385986328125</v>
+        <v>2.85235595703125</v>
       </c>
     </row>
     <row r="244">
@@ -4585,10 +4585,10 @@
         <v>412.755444712887</v>
       </c>
       <c r="D244" t="n">
-        <v>417.3451843261719</v>
+        <v>410.7958068847656</v>
       </c>
       <c r="E244" t="n">
-        <v>-4.589752197265625</v>
+        <v>1.959625244140625</v>
       </c>
     </row>
     <row r="245">
@@ -4602,10 +4602,10 @@
         <v>415.668896967125</v>
       </c>
       <c r="D245" t="n">
-        <v>419.2901306152344</v>
+        <v>414.4721069335938</v>
       </c>
       <c r="E245" t="n">
-        <v>-3.621246337890625</v>
+        <v>1.19677734375</v>
       </c>
     </row>
     <row r="246">
@@ -4619,10 +4619,10 @@
         <v>418.832170261699</v>
       </c>
       <c r="D246" t="n">
-        <v>421.8016357421875</v>
+        <v>418.30419921875</v>
       </c>
       <c r="E246" t="n">
-        <v>-2.969451904296875</v>
+        <v>0.527984619140625</v>
       </c>
     </row>
     <row r="247">
@@ -4636,10 +4636,10 @@
         <v>422.010877906935</v>
       </c>
       <c r="D247" t="n">
-        <v>424.3890380859375</v>
+        <v>422.2672424316406</v>
       </c>
       <c r="E247" t="n">
-        <v>-2.378173828125</v>
+        <v>-0.256378173828125</v>
       </c>
     </row>
     <row r="248">
@@ -4653,10 +4653,10 @@
         <v>425.037382089327</v>
       </c>
       <c r="D248" t="n">
-        <v>427.4053039550781</v>
+        <v>426.3320617675781</v>
       </c>
       <c r="E248" t="n">
-        <v>-2.367919921875</v>
+        <v>-1.294677734375</v>
       </c>
     </row>
     <row r="249">
@@ -4670,10 +4670,10 @@
         <v>427.868814223569</v>
       </c>
       <c r="D249" t="n">
-        <v>429.8577270507812</v>
+        <v>430.0924682617188</v>
       </c>
       <c r="E249" t="n">
-        <v>-1.988922119140625</v>
+        <v>-2.223663330078125</v>
       </c>
     </row>
     <row r="250">
@@ -4687,10 +4687,10 @@
         <v>430.578997579081</v>
       </c>
       <c r="D250" t="n">
-        <v>432.0287170410156</v>
+        <v>433.7113647460938</v>
       </c>
       <c r="E250" t="n">
-        <v>-1.44970703125</v>
+        <v>-3.132354736328125</v>
       </c>
     </row>
     <row r="251">
@@ -4704,10 +4704,10 @@
         <v>433.637530085374</v>
       </c>
       <c r="D251" t="n">
-        <v>434.4608459472656</v>
+        <v>437.4926147460938</v>
       </c>
       <c r="E251" t="n">
-        <v>-0.82330322265625</v>
+        <v>-3.855072021484375</v>
       </c>
     </row>
     <row r="252">
@@ -4721,10 +4721,10 @@
         <v>437.125932179922</v>
       </c>
       <c r="D252" t="n">
-        <v>437.1600646972656</v>
+        <v>440.4153747558594</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.03411865234375</v>
+        <v>-3.2894287109375</v>
       </c>
     </row>
     <row r="253">
@@ -4738,10 +4738,10 @@
         <v>440.4055118365101</v>
       </c>
       <c r="D253" t="n">
-        <v>439.9618530273438</v>
+        <v>442.498046875</v>
       </c>
       <c r="E253" t="n">
-        <v>0.44366455078125</v>
+        <v>-2.092529296875</v>
       </c>
     </row>
     <row r="254">
@@ -4755,10 +4755,10 @@
         <v>443.030677527441</v>
       </c>
       <c r="D254" t="n">
-        <v>442.6934204101562</v>
+        <v>444.6200866699219</v>
       </c>
       <c r="E254" t="n">
-        <v>0.337249755859375</v>
+        <v>-1.58941650390625</v>
       </c>
     </row>
     <row r="255">
@@ -4772,10 +4772,10 @@
         <v>445.101870792375</v>
       </c>
       <c r="D255" t="n">
-        <v>445.1247253417969</v>
+        <v>446.6497192382812</v>
       </c>
       <c r="E255" t="n">
-        <v>-0.022857666015625</v>
+        <v>-1.5478515625</v>
       </c>
     </row>
     <row r="256">
@@ -4789,10 +4789,10 @@
         <v>447.220367875882</v>
       </c>
       <c r="D256" t="n">
-        <v>447.9054260253906</v>
+        <v>448.5208129882812</v>
       </c>
       <c r="E256" t="n">
-        <v>-0.68505859375</v>
+        <v>-1.300445556640625</v>
       </c>
     </row>
     <row r="257">
@@ -4806,10 +4806,10 @@
         <v>449.90041684165</v>
       </c>
       <c r="D257" t="n">
-        <v>450.7033081054688</v>
+        <v>450.5614624023438</v>
       </c>
       <c r="E257" t="n">
-        <v>-0.802886962890625</v>
+        <v>-0.661041259765625</v>
       </c>
     </row>
     <row r="258">
@@ -4823,10 +4823,10 @@
         <v>453.08609835363</v>
       </c>
       <c r="D258" t="n">
-        <v>453.5302734375</v>
+        <v>452.7743835449219</v>
       </c>
       <c r="E258" t="n">
-        <v>-0.444183349609375</v>
+        <v>0.31170654296875</v>
       </c>
     </row>
     <row r="259">
@@ -4840,10 +4840,10 @@
         <v>456.288903224159</v>
       </c>
       <c r="D259" t="n">
-        <v>456.577880859375</v>
+        <v>455.04345703125</v>
       </c>
       <c r="E259" t="n">
-        <v>-0.288970947265625</v>
+        <v>1.245452880859375</v>
       </c>
     </row>
     <row r="260">
@@ -4857,10 +4857,10 @@
         <v>459.272590377322</v>
       </c>
       <c r="D260" t="n">
-        <v>459.4453125</v>
+        <v>457.3591003417969</v>
       </c>
       <c r="E260" t="n">
-        <v>-0.1727294921875</v>
+        <v>1.913482666015625</v>
       </c>
     </row>
     <row r="261">
@@ -4874,10 +4874,10 @@
         <v>461.846979094997</v>
       </c>
       <c r="D261" t="n">
-        <v>462.5430603027344</v>
+        <v>459.442138671875</v>
       </c>
       <c r="E261" t="n">
-        <v>-0.696075439453125</v>
+        <v>2.40484619140625</v>
       </c>
     </row>
     <row r="262">
@@ -4891,10 +4891,10 @@
         <v>464.240694187358</v>
       </c>
       <c r="D262" t="n">
-        <v>465.0732727050781</v>
+        <v>461.6515197753906</v>
       </c>
       <c r="E262" t="n">
-        <v>-0.83258056640625</v>
+        <v>2.58917236328125</v>
       </c>
     </row>
     <row r="263">
@@ -4908,10 +4908,10 @@
         <v>466.983677783346</v>
       </c>
       <c r="D263" t="n">
-        <v>468.226318359375</v>
+        <v>463.7926025390625</v>
       </c>
       <c r="E263" t="n">
-        <v>-1.242645263671875</v>
+        <v>3.191070556640625</v>
       </c>
     </row>
     <row r="264">
@@ -4925,10 +4925,10 @@
         <v>469.973982253232</v>
       </c>
       <c r="D264" t="n">
-        <v>471.1356201171875</v>
+        <v>466.0299987792969</v>
       </c>
       <c r="E264" t="n">
-        <v>-1.161651611328125</v>
+        <v>3.9439697265625</v>
       </c>
     </row>
     <row r="265">
@@ -4942,10 +4942,10 @@
         <v>473.183710603448</v>
       </c>
       <c r="D265" t="n">
-        <v>473.5530395507812</v>
+        <v>468.08056640625</v>
       </c>
       <c r="E265" t="n">
-        <v>-0.36932373046875</v>
+        <v>5.1031494140625</v>
       </c>
     </row>
     <row r="266">
@@ -4959,10 +4959,10 @@
         <v>476.273930801176</v>
       </c>
       <c r="D266" t="n">
-        <v>476.0643615722656</v>
+        <v>470.041748046875</v>
       </c>
       <c r="E266" t="n">
-        <v>0.209564208984375</v>
+        <v>6.232177734375</v>
       </c>
     </row>
     <row r="267">
@@ -4976,10 +4976,10 @@
         <v>478.9648680035809</v>
       </c>
       <c r="D267" t="n">
-        <v>478.6385803222656</v>
+        <v>472.3172302246094</v>
       </c>
       <c r="E267" t="n">
-        <v>0.3262939453125</v>
+        <v>6.64764404296875</v>
       </c>
     </row>
     <row r="268">
@@ -4993,10 +4993,10 @@
         <v>481.301869594563</v>
       </c>
       <c r="D268" t="n">
-        <v>481.58056640625</v>
+        <v>474.5128173828125</v>
       </c>
       <c r="E268" t="n">
-        <v>-0.2786865234375</v>
+        <v>6.7890625</v>
       </c>
     </row>
     <row r="269">
@@ -5010,10 +5010,10 @@
         <v>483.404662241365</v>
       </c>
       <c r="D269" t="n">
-        <v>484.3588256835938</v>
+        <v>478.3568115234375</v>
       </c>
       <c r="E269" t="n">
-        <v>-0.95416259765625</v>
+        <v>5.0478515625</v>
       </c>
     </row>
     <row r="270">
@@ -5027,10 +5027,10 @@
         <v>485.908303383375</v>
       </c>
       <c r="D270" t="n">
-        <v>486.2308654785156</v>
+        <v>483.0059204101562</v>
       </c>
       <c r="E270" t="n">
-        <v>-0.32257080078125</v>
+        <v>2.902374267578125</v>
       </c>
     </row>
     <row r="271">
@@ -5044,10 +5044,10 @@
         <v>489.179033892991</v>
       </c>
       <c r="D271" t="n">
-        <v>487.9439086914062</v>
+        <v>487.4470825195312</v>
       </c>
       <c r="E271" t="n">
-        <v>1.235137939453125</v>
+        <v>1.731964111328125</v>
       </c>
     </row>
     <row r="272">
@@ -5061,10 +5061,10 @@
         <v>492.769763847007</v>
       </c>
       <c r="D272" t="n">
-        <v>489.5712890625</v>
+        <v>492.010986328125</v>
       </c>
       <c r="E272" t="n">
-        <v>3.198486328125</v>
+        <v>0.7587890625</v>
       </c>
     </row>
     <row r="273">
@@ -5078,10 +5078,10 @@
         <v>496.2343376394909</v>
       </c>
       <c r="D273" t="n">
-        <v>492.0114135742188</v>
+        <v>497.2636108398438</v>
       </c>
       <c r="E273" t="n">
-        <v>4.222930908203125</v>
+        <v>-1.029266357421875</v>
       </c>
     </row>
     <row r="274">
@@ -5095,10 +5095,10 @@
         <v>499.506164512729</v>
       </c>
       <c r="D274" t="n">
-        <v>494.0439453125</v>
+        <v>500.3978881835938</v>
       </c>
       <c r="E274" t="n">
-        <v>5.46221923828125</v>
+        <v>-0.8917236328125</v>
       </c>
     </row>
     <row r="275">
@@ -5112,10 +5112,10 @@
         <v>502.12503366448</v>
       </c>
       <c r="D275" t="n">
-        <v>495.7022094726562</v>
+        <v>502.208740234375</v>
       </c>
       <c r="E275" t="n">
-        <v>6.422821044921875</v>
+        <v>-0.083709716796875</v>
       </c>
     </row>
     <row r="276">
@@ -5129,10 +5129,10 @@
         <v>504.570658586534</v>
       </c>
       <c r="D276" t="n">
-        <v>500.4719543457031</v>
+        <v>504.1790466308594</v>
       </c>
       <c r="E276" t="n">
-        <v>4.09869384765625</v>
+        <v>0.3916015625</v>
       </c>
     </row>
     <row r="277">
@@ -5146,10 +5146,10 @@
         <v>507.426541289789</v>
       </c>
       <c r="D277" t="n">
-        <v>505.09716796875</v>
+        <v>506.18310546875</v>
       </c>
       <c r="E277" t="n">
-        <v>2.329376220703125</v>
+        <v>1.243438720703125</v>
       </c>
     </row>
     <row r="278">
@@ -5163,10 +5163,10 @@
         <v>510.206821492631</v>
       </c>
       <c r="D278" t="n">
-        <v>510.0452880859375</v>
+        <v>508.60693359375</v>
       </c>
       <c r="E278" t="n">
-        <v>0.161529541015625</v>
+        <v>1.599884033203125</v>
       </c>
     </row>
     <row r="279">
@@ -5180,10 +5180,10 @@
         <v>513.133422872093</v>
       </c>
       <c r="D279" t="n">
-        <v>514.8126831054688</v>
+        <v>511.1062622070312</v>
       </c>
       <c r="E279" t="n">
-        <v>-1.67926025390625</v>
+        <v>2.02716064453125</v>
       </c>
     </row>
     <row r="280">
@@ -5197,10 +5197,10 @@
         <v>516.392326152721</v>
       </c>
       <c r="D280" t="n">
-        <v>519.4435424804688</v>
+        <v>513.5258178710938</v>
       </c>
       <c r="E280" t="n">
-        <v>-3.05120849609375</v>
+        <v>2.86651611328125</v>
       </c>
     </row>
     <row r="281">
@@ -5214,10 +5214,10 @@
         <v>519.867730694367</v>
       </c>
       <c r="D281" t="n">
-        <v>524.6141357421875</v>
+        <v>516.3817138671875</v>
       </c>
       <c r="E281" t="n">
-        <v>-4.74639892578125</v>
+        <v>3.48602294921875</v>
       </c>
     </row>
     <row r="282">
@@ -5231,10 +5231,10 @@
         <v>523.585325081704</v>
       </c>
       <c r="D282" t="n">
-        <v>529.3800048828125</v>
+        <v>519.0108032226562</v>
       </c>
       <c r="E282" t="n">
-        <v>-5.794677734375</v>
+        <v>4.57452392578125</v>
       </c>
     </row>
     <row r="283">
@@ -5248,10 +5248,10 @@
         <v>527.5624824212999</v>
       </c>
       <c r="D283" t="n">
-        <v>534.8195190429688</v>
+        <v>522.1494140625</v>
       </c>
       <c r="E283" t="n">
-        <v>-7.25701904296875</v>
+        <v>5.4130859375</v>
       </c>
     </row>
     <row r="284">
@@ -5265,10 +5265,10 @@
         <v>209.011927927369</v>
       </c>
       <c r="D284" t="n">
-        <v>214.0933380126953</v>
+        <v>225.4522399902344</v>
       </c>
       <c r="E284" t="n">
-        <v>-5.081405639648438</v>
+        <v>-16.4403076171875</v>
       </c>
     </row>
     <row r="285">
@@ -5282,10 +5282,10 @@
         <v>221.793120754345</v>
       </c>
       <c r="D285" t="n">
-        <v>219.7768249511719</v>
+        <v>229.0976867675781</v>
       </c>
       <c r="E285" t="n">
-        <v>2.01629638671875</v>
+        <v>-7.3045654296875</v>
       </c>
     </row>
     <row r="286">
@@ -5299,10 +5299,10 @@
         <v>232.08539600163</v>
       </c>
       <c r="D286" t="n">
-        <v>227.0587005615234</v>
+        <v>233.5123901367188</v>
       </c>
       <c r="E286" t="n">
-        <v>5.026702880859375</v>
+        <v>-1.426986694335938</v>
       </c>
     </row>
     <row r="287">
@@ -5316,10 +5316,10 @@
         <v>240.627714197648</v>
       </c>
       <c r="D287" t="n">
-        <v>235.0378570556641</v>
+        <v>238.4453125</v>
       </c>
       <c r="E287" t="n">
-        <v>5.589859008789062</v>
+        <v>2.182403564453125</v>
       </c>
     </row>
     <row r="288">
@@ -5333,10 +5333,10 @@
         <v>247.673377492787</v>
       </c>
       <c r="D288" t="n">
-        <v>244.0061340332031</v>
+        <v>243.6491394042969</v>
       </c>
       <c r="E288" t="n">
-        <v>3.667236328125</v>
+        <v>4.02423095703125</v>
       </c>
     </row>
     <row r="289">
@@ -5350,10 +5350,10 @@
         <v>253.62721707432</v>
       </c>
       <c r="D289" t="n">
-        <v>252.4448089599609</v>
+        <v>247.8821411132812</v>
       </c>
       <c r="E289" t="n">
-        <v>1.182403564453125</v>
+        <v>5.745071411132812</v>
       </c>
     </row>
     <row r="290">
@@ -5367,10 +5367,10 @@
         <v>258.910505498735</v>
       </c>
       <c r="D290" t="n">
-        <v>261.1123046875</v>
+        <v>252.6731414794922</v>
       </c>
       <c r="E290" t="n">
-        <v>-2.201812744140625</v>
+        <v>6.237350463867188</v>
       </c>
     </row>
     <row r="291">
@@ -5384,10 +5384,10 @@
         <v>263.769089088647</v>
       </c>
       <c r="D291" t="n">
-        <v>269.2590942382812</v>
+        <v>257.6070251464844</v>
       </c>
       <c r="E291" t="n">
-        <v>-5.489990234375</v>
+        <v>6.162078857421875</v>
       </c>
     </row>
     <row r="292">
@@ -5401,10 +5401,10 @@
         <v>268.326278819998</v>
       </c>
       <c r="D292" t="n">
-        <v>274.0992126464844</v>
+        <v>262.30810546875</v>
       </c>
       <c r="E292" t="n">
-        <v>-5.772918701171875</v>
+        <v>6.0181884765625</v>
       </c>
     </row>
     <row r="293">
@@ -5418,10 +5418,10 @@
         <v>272.764100113871</v>
       </c>
       <c r="D293" t="n">
-        <v>276.8752136230469</v>
+        <v>267.0409545898438</v>
       </c>
       <c r="E293" t="n">
-        <v>-4.111114501953125</v>
+        <v>5.72314453125</v>
       </c>
     </row>
     <row r="294">
@@ -5435,10 +5435,10 @@
         <v>277.179396142188</v>
       </c>
       <c r="D294" t="n">
-        <v>280.071533203125</v>
+        <v>272.3254089355469</v>
       </c>
       <c r="E294" t="n">
-        <v>-2.89215087890625</v>
+        <v>4.853973388671875</v>
       </c>
     </row>
     <row r="295">
@@ -5452,10 +5452,10 @@
         <v>281.596883976502</v>
       </c>
       <c r="D295" t="n">
-        <v>282.3093872070312</v>
+        <v>277.0194091796875</v>
       </c>
       <c r="E295" t="n">
-        <v>-0.712493896484375</v>
+        <v>4.577484130859375</v>
       </c>
     </row>
     <row r="296">
@@ -5469,10 +5469,10 @@
         <v>285.936384261871</v>
       </c>
       <c r="D296" t="n">
-        <v>285.2840576171875</v>
+        <v>281.371826171875</v>
       </c>
       <c r="E296" t="n">
-        <v>0.652313232421875</v>
+        <v>4.564544677734375</v>
       </c>
     </row>
     <row r="297">
@@ -5486,10 +5486,10 @@
         <v>289.997027688002</v>
       </c>
       <c r="D297" t="n">
-        <v>288.4597778320312</v>
+        <v>285.7132873535156</v>
       </c>
       <c r="E297" t="n">
-        <v>1.537261962890625</v>
+        <v>4.28375244140625</v>
       </c>
     </row>
     <row r="298">
@@ -5503,10 +5503,10 @@
         <v>293.644256271626</v>
       </c>
       <c r="D298" t="n">
-        <v>291.9710693359375</v>
+        <v>290.2544250488281</v>
       </c>
       <c r="E298" t="n">
-        <v>1.673187255859375</v>
+        <v>3.38983154296875</v>
       </c>
     </row>
     <row r="299">
@@ -5520,10 +5520,10 @@
         <v>297.09172180026</v>
       </c>
       <c r="D299" t="n">
-        <v>296.8611755371094</v>
+        <v>295.2632446289062</v>
       </c>
       <c r="E299" t="n">
-        <v>0.230560302734375</v>
+        <v>1.8284912109375</v>
       </c>
     </row>
     <row r="300">
@@ -5537,10 +5537,10 @@
         <v>300.675120438056</v>
       </c>
       <c r="D300" t="n">
-        <v>301.8783569335938</v>
+        <v>300.1901550292969</v>
       </c>
       <c r="E300" t="n">
-        <v>-1.2032470703125</v>
+        <v>0.484954833984375</v>
       </c>
     </row>
     <row r="301">
@@ -5554,10 +5554,10 @@
         <v>304.535182081305</v>
       </c>
       <c r="D301" t="n">
-        <v>307.7141418457031</v>
+        <v>303.9707336425781</v>
       </c>
       <c r="E301" t="n">
-        <v>-3.178955078125</v>
+        <v>0.564453125</v>
       </c>
     </row>
     <row r="302">
@@ -5571,10 +5571,10 @@
         <v>308.817816097269</v>
       </c>
       <c r="D302" t="n">
-        <v>313.760498046875</v>
+        <v>308.3745727539062</v>
       </c>
       <c r="E302" t="n">
-        <v>-4.94268798828125</v>
+        <v>0.4432373046875</v>
       </c>
     </row>
     <row r="303">
@@ -5588,10 +5588,10 @@
         <v>313.470210775533</v>
       </c>
       <c r="D303" t="n">
-        <v>316.8317260742188</v>
+        <v>312.1659851074219</v>
       </c>
       <c r="E303" t="n">
-        <v>-3.36151123046875</v>
+        <v>1.304229736328125</v>
       </c>
     </row>
     <row r="304">
@@ -5605,10 +5605,10 @@
         <v>318.288355032208</v>
       </c>
       <c r="D304" t="n">
-        <v>321.4200439453125</v>
+        <v>316.9058227539062</v>
       </c>
       <c r="E304" t="n">
-        <v>-3.131683349609375</v>
+        <v>1.382537841796875</v>
       </c>
     </row>
     <row r="305">
@@ -5622,10 +5622,10 @@
         <v>323.194075039336</v>
       </c>
       <c r="D305" t="n">
-        <v>325.8671875</v>
+        <v>321.6812438964844</v>
       </c>
       <c r="E305" t="n">
-        <v>-2.673126220703125</v>
+        <v>1.5128173828125</v>
       </c>
     </row>
     <row r="306">
@@ -5639,10 +5639,10 @@
         <v>328.042963331813</v>
       </c>
       <c r="D306" t="n">
-        <v>329.8598022460938</v>
+        <v>326.2820739746094</v>
       </c>
       <c r="E306" t="n">
-        <v>-1.81683349609375</v>
+        <v>1.760894775390625</v>
       </c>
     </row>
     <row r="307">
@@ -5656,10 +5656,10 @@
         <v>332.718792742664</v>
       </c>
       <c r="D307" t="n">
-        <v>334.5684204101562</v>
+        <v>331.3123779296875</v>
       </c>
       <c r="E307" t="n">
-        <v>-1.849639892578125</v>
+        <v>1.406402587890625</v>
       </c>
     </row>
     <row r="308">
@@ -5673,10 +5673,10 @@
         <v>337.13789681928</v>
       </c>
       <c r="D308" t="n">
-        <v>338.0591430664062</v>
+        <v>335.4370727539062</v>
       </c>
       <c r="E308" t="n">
-        <v>-0.921234130859375</v>
+        <v>1.700836181640625</v>
       </c>
     </row>
     <row r="309">
@@ -5690,10 +5690,10 @@
         <v>341.168194159613</v>
       </c>
       <c r="D309" t="n">
-        <v>340.8717346191406</v>
+        <v>338.8395690917969</v>
       </c>
       <c r="E309" t="n">
-        <v>0.29644775390625</v>
+        <v>2.32861328125</v>
       </c>
     </row>
     <row r="310">
@@ -5707,10 +5707,10 @@
         <v>344.610402220772</v>
       </c>
       <c r="D310" t="n">
-        <v>343.9242553710938</v>
+        <v>341.9697265625</v>
       </c>
       <c r="E310" t="n">
-        <v>0.6861572265625</v>
+        <v>2.64068603515625</v>
       </c>
     </row>
     <row r="311">
@@ -5724,10 +5724,10 @@
         <v>347.323034102117</v>
       </c>
       <c r="D311" t="n">
-        <v>346.1065673828125</v>
+        <v>344.0932006835938</v>
       </c>
       <c r="E311" t="n">
-        <v>1.216461181640625</v>
+        <v>3.229827880859375</v>
       </c>
     </row>
     <row r="312">
@@ -5741,10 +5741,10 @@
         <v>349.262051131422</v>
       </c>
       <c r="D312" t="n">
-        <v>347.0095825195312</v>
+        <v>344.986083984375</v>
       </c>
       <c r="E312" t="n">
-        <v>2.252471923828125</v>
+        <v>4.275970458984375</v>
       </c>
     </row>
     <row r="313">
@@ -5758,10 +5758,10 @@
         <v>350.623153543361</v>
       </c>
       <c r="D313" t="n">
-        <v>348.4372863769531</v>
+        <v>345.87744140625</v>
       </c>
       <c r="E313" t="n">
-        <v>2.18585205078125</v>
+        <v>4.745697021484375</v>
       </c>
     </row>
     <row r="314">
@@ -5775,10 +5775,10 @@
         <v>351.72216236334</v>
       </c>
       <c r="D314" t="n">
-        <v>349.4470520019531</v>
+        <v>346.39892578125</v>
       </c>
       <c r="E314" t="n">
-        <v>2.275115966796875</v>
+        <v>5.3232421875</v>
       </c>
     </row>
     <row r="315">
@@ -5792,10 +5792,10 @@
         <v>353.050699922034</v>
       </c>
       <c r="D315" t="n">
-        <v>349.9273071289062</v>
+        <v>346.7144470214844</v>
       </c>
       <c r="E315" t="n">
-        <v>3.123382568359375</v>
+        <v>6.33624267578125</v>
       </c>
     </row>
     <row r="316">
@@ -5809,10 +5809,10 @@
         <v>354.925702251693</v>
       </c>
       <c r="D316" t="n">
-        <v>351.7482604980469</v>
+        <v>348.1537170410156</v>
       </c>
       <c r="E316" t="n">
-        <v>3.17742919921875</v>
+        <v>6.77197265625</v>
       </c>
     </row>
     <row r="317">
@@ -5826,10 +5826,10 @@
         <v>357.314769014477</v>
       </c>
       <c r="D317" t="n">
-        <v>354.3836669921875</v>
+        <v>350.4870300292969</v>
       </c>
       <c r="E317" t="n">
-        <v>2.93109130859375</v>
+        <v>6.827728271484375</v>
       </c>
     </row>
     <row r="318">
@@ -5843,10 +5843,10 @@
         <v>360.24357637819</v>
       </c>
       <c r="D318" t="n">
-        <v>357.1083068847656</v>
+        <v>353.2635803222656</v>
       </c>
       <c r="E318" t="n">
-        <v>3.135284423828125</v>
+        <v>6.980010986328125</v>
       </c>
     </row>
     <row r="319">
@@ -5860,10 +5860,10 @@
         <v>363.750634890023</v>
       </c>
       <c r="D319" t="n">
-        <v>360.0119018554688</v>
+        <v>356.4617614746094</v>
       </c>
       <c r="E319" t="n">
-        <v>3.738739013671875</v>
+        <v>7.28887939453125</v>
       </c>
     </row>
     <row r="320">
@@ -5877,10 +5877,10 @@
         <v>367.670011298574</v>
       </c>
       <c r="D320" t="n">
-        <v>364.5223693847656</v>
+        <v>360.8521118164062</v>
       </c>
       <c r="E320" t="n">
-        <v>3.14764404296875</v>
+        <v>6.817901611328125</v>
       </c>
     </row>
     <row r="321">
@@ -5894,10 +5894,10 @@
         <v>371.723540462416</v>
       </c>
       <c r="D321" t="n">
-        <v>369.4946594238281</v>
+        <v>365.6392822265625</v>
       </c>
       <c r="E321" t="n">
-        <v>2.2288818359375</v>
+        <v>6.084259033203125</v>
       </c>
     </row>
     <row r="322">
@@ -5911,10 +5911,10 @@
         <v>375.828570259432</v>
       </c>
       <c r="D322" t="n">
-        <v>374.7564086914062</v>
+        <v>370.65234375</v>
       </c>
       <c r="E322" t="n">
-        <v>1.072174072265625</v>
+        <v>5.176239013671875</v>
       </c>
     </row>
     <row r="323">
@@ -5928,10 +5928,10 @@
         <v>380.027046825786</v>
       </c>
       <c r="D323" t="n">
-        <v>379.5181884765625</v>
+        <v>375.3864440917969</v>
       </c>
       <c r="E323" t="n">
-        <v>0.50885009765625</v>
+        <v>4.640594482421875</v>
       </c>
     </row>
     <row r="324">
@@ -5945,10 +5945,10 @@
         <v>384.289481143984</v>
       </c>
       <c r="D324" t="n">
-        <v>384.7154235839844</v>
+        <v>380.4378662109375</v>
       </c>
       <c r="E324" t="n">
-        <v>-0.425933837890625</v>
+        <v>3.85162353515625</v>
       </c>
     </row>
     <row r="325">
@@ -5962,10 +5962,10 @@
         <v>388.666525362425</v>
       </c>
       <c r="D325" t="n">
-        <v>388.8008422851562</v>
+        <v>384.91845703125</v>
       </c>
       <c r="E325" t="n">
-        <v>-0.134307861328125</v>
+        <v>3.748077392578125</v>
       </c>
     </row>
     <row r="326">
@@ -5979,10 +5979,10 @@
         <v>393.058846161206</v>
       </c>
       <c r="D326" t="n">
-        <v>393.6055297851562</v>
+        <v>390.0168762207031</v>
       </c>
       <c r="E326" t="n">
-        <v>-0.54669189453125</v>
+        <v>3.041961669921875</v>
       </c>
     </row>
     <row r="327">
@@ -5996,10 +5996,10 @@
         <v>397.230082996873</v>
       </c>
       <c r="D327" t="n">
-        <v>397.995361328125</v>
+        <v>395.076171875</v>
       </c>
       <c r="E327" t="n">
-        <v>-0.765289306640625</v>
+        <v>2.153900146484375</v>
       </c>
     </row>
     <row r="328">
@@ -6013,10 +6013,10 @@
         <v>400.9321721983069</v>
       </c>
       <c r="D328" t="n">
-        <v>401.2911376953125</v>
+        <v>399.6228637695312</v>
       </c>
       <c r="E328" t="n">
-        <v>-0.358978271484375</v>
+        <v>1.309295654296875</v>
       </c>
     </row>
     <row r="329">
@@ -6030,10 +6030,10 @@
         <v>404.173861373206</v>
       </c>
       <c r="D329" t="n">
-        <v>406.1740112304688</v>
+        <v>405.1124572753906</v>
       </c>
       <c r="E329" t="n">
-        <v>-2.000152587890625</v>
+        <v>-0.9385986328125</v>
       </c>
     </row>
     <row r="330">
@@ -6047,10 +6047,10 @@
         <v>407.137933580303</v>
       </c>
       <c r="D330" t="n">
-        <v>409.1146240234375</v>
+        <v>409.072998046875</v>
       </c>
       <c r="E330" t="n">
-        <v>-1.9766845703125</v>
+        <v>-1.93505859375</v>
       </c>
     </row>
     <row r="331">
@@ -6064,10 +6064,10 @@
         <v>410.143853937496</v>
       </c>
       <c r="D331" t="n">
-        <v>412.8881225585938</v>
+        <v>412.8089904785156</v>
       </c>
       <c r="E331" t="n">
-        <v>-2.7442626953125</v>
+        <v>-2.665130615234375</v>
       </c>
     </row>
     <row r="332">
@@ -6081,10 +6081,10 @@
         <v>413.356727583078</v>
       </c>
       <c r="D332" t="n">
-        <v>416.9314270019531</v>
+        <v>415.5892639160156</v>
       </c>
       <c r="E332" t="n">
-        <v>-3.57470703125</v>
+        <v>-2.2325439453125</v>
       </c>
     </row>
     <row r="333">
@@ -6098,10 +6098,10 @@
         <v>416.4861719071259</v>
       </c>
       <c r="D333" t="n">
-        <v>421.4346923828125</v>
+        <v>417.4444580078125</v>
       </c>
       <c r="E333" t="n">
-        <v>-4.948516845703125</v>
+        <v>-0.958282470703125</v>
       </c>
     </row>
     <row r="334">
@@ -6115,10 +6115,10 @@
         <v>419.208536681578</v>
       </c>
       <c r="D334" t="n">
-        <v>423.1778869628906</v>
+        <v>418.1759643554688</v>
       </c>
       <c r="E334" t="n">
-        <v>-3.9693603515625</v>
+        <v>1.032562255859375</v>
       </c>
     </row>
     <row r="335">
@@ -6132,10 +6132,10 @@
         <v>422.083256987245</v>
       </c>
       <c r="D335" t="n">
-        <v>424.1165771484375</v>
+        <v>417.6924438476562</v>
       </c>
       <c r="E335" t="n">
-        <v>-2.0333251953125</v>
+        <v>4.39080810546875</v>
       </c>
     </row>
     <row r="336">
@@ -6149,10 +6149,10 @@
         <v>425.5864835257109</v>
       </c>
       <c r="D336" t="n">
-        <v>425.4242553710938</v>
+        <v>416.5755615234375</v>
       </c>
       <c r="E336" t="n">
-        <v>0.1622314453125</v>
+        <v>9.01092529296875</v>
       </c>
     </row>
     <row r="337">
@@ -6166,10 +6166,10 @@
         <v>429.787280922256</v>
       </c>
       <c r="D337" t="n">
-        <v>428.5347290039062</v>
+        <v>420.2939453125</v>
       </c>
       <c r="E337" t="n">
-        <v>1.2525634765625</v>
+        <v>9.49334716796875</v>
       </c>
     </row>
     <row r="338">
@@ -6183,10 +6183,10 @@
         <v>434.722597592498</v>
       </c>
       <c r="D338" t="n">
-        <v>433.3776550292969</v>
+        <v>429.3371276855469</v>
       </c>
       <c r="E338" t="n">
-        <v>1.344940185546875</v>
+        <v>5.385467529296875</v>
       </c>
     </row>
     <row r="339">
@@ -6200,10 +6200,10 @@
         <v>440.292863791475</v>
       </c>
       <c r="D339" t="n">
-        <v>440.0314331054688</v>
+        <v>444.3835754394531</v>
       </c>
       <c r="E339" t="n">
-        <v>0.261444091796875</v>
+        <v>-4.0906982421875</v>
       </c>
     </row>
     <row r="340">
@@ -6217,10 +6217,10 @@
         <v>446.006814169471</v>
       </c>
       <c r="D340" t="n">
-        <v>448.2574462890625</v>
+        <v>445.4737854003906</v>
       </c>
       <c r="E340" t="n">
-        <v>-2.250640869140625</v>
+        <v>0.53302001953125</v>
       </c>
     </row>
     <row r="341">
@@ -6234,10 +6234,10 @@
         <v>451.709905357426</v>
       </c>
       <c r="D341" t="n">
-        <v>443.30615234375</v>
+        <v>446.0475463867188</v>
       </c>
       <c r="E341" t="n">
-        <v>8.40374755859375</v>
+        <v>5.662353515625</v>
       </c>
     </row>
     <row r="342">
@@ -6251,10 +6251,10 @@
         <v>457.525865607838</v>
       </c>
       <c r="D342" t="n">
-        <v>457.3971557617188</v>
+        <v>443.1803588867188</v>
       </c>
       <c r="E342" t="n">
-        <v>0.12872314453125</v>
+        <v>14.34552001953125</v>
       </c>
     </row>
     <row r="343">
@@ -6268,10 +6268,10 @@
         <v>108.375572266184</v>
       </c>
       <c r="D343" t="n">
-        <v>116.4372253417969</v>
+        <v>128.1800079345703</v>
       </c>
       <c r="E343" t="n">
-        <v>-8.061653137207031</v>
+        <v>-19.80443572998047</v>
       </c>
     </row>
     <row r="344">
@@ -6285,10 +6285,10 @@
         <v>119.65618088523</v>
       </c>
       <c r="D344" t="n">
-        <v>117.1148223876953</v>
+        <v>125.9435882568359</v>
       </c>
       <c r="E344" t="n">
-        <v>2.541358947753906</v>
+        <v>-6.287406921386719</v>
       </c>
     </row>
     <row r="345">
@@ -6302,10 +6302,10 @@
         <v>127.481530358801</v>
       </c>
       <c r="D345" t="n">
-        <v>123.2476043701172</v>
+        <v>128.1161804199219</v>
       </c>
       <c r="E345" t="n">
-        <v>4.233924865722656</v>
+        <v>-0.6346511840820312</v>
       </c>
     </row>
     <row r="346">
@@ -6319,10 +6319,10 @@
         <v>133.098792746531</v>
       </c>
       <c r="D346" t="n">
-        <v>130.1120300292969</v>
+        <v>130.3376770019531</v>
       </c>
       <c r="E346" t="n">
-        <v>2.98675537109375</v>
+        <v>2.7611083984375</v>
       </c>
     </row>
     <row r="347">
@@ -6336,10 +6336,10 @@
         <v>137.275361727573</v>
       </c>
       <c r="D347" t="n">
-        <v>137.5450439453125</v>
+        <v>132.7183227539062</v>
       </c>
       <c r="E347" t="n">
-        <v>-0.269683837890625</v>
+        <v>4.557037353515625</v>
       </c>
     </row>
     <row r="348">
@@ -6353,10 +6353,10 @@
         <v>140.603955700861</v>
       </c>
       <c r="D348" t="n">
-        <v>145.5478363037109</v>
+        <v>135.4092102050781</v>
       </c>
       <c r="E348" t="n">
-        <v>-4.943878173828125</v>
+        <v>5.194747924804688</v>
       </c>
     </row>
     <row r="349">
@@ -6370,10 +6370,10 @@
         <v>143.450429274047</v>
       </c>
       <c r="D349" t="n">
-        <v>151.6336822509766</v>
+        <v>140.6640319824219</v>
       </c>
       <c r="E349" t="n">
-        <v>-8.183258056640625</v>
+        <v>2.786392211914062</v>
       </c>
     </row>
     <row r="350">
@@ -6387,10 +6387,10 @@
         <v>146.001816392336</v>
       </c>
       <c r="D350" t="n">
-        <v>150.1628723144531</v>
+        <v>141.8224639892578</v>
       </c>
       <c r="E350" t="n">
-        <v>-4.161056518554688</v>
+        <v>4.179351806640625</v>
       </c>
     </row>
     <row r="351">
@@ -6404,10 +6404,10 @@
         <v>148.455202556295</v>
       </c>
       <c r="D351" t="n">
-        <v>150.6085815429688</v>
+        <v>144.7824401855469</v>
       </c>
       <c r="E351" t="n">
-        <v>-2.15338134765625</v>
+        <v>3.672760009765625</v>
       </c>
     </row>
     <row r="352">
@@ -6421,10 +6421,10 @@
         <v>150.787051222172</v>
       </c>
       <c r="D352" t="n">
-        <v>151.4556884765625</v>
+        <v>148.0869445800781</v>
       </c>
       <c r="E352" t="n">
-        <v>-0.66864013671875</v>
+        <v>2.700103759765625</v>
       </c>
     </row>
     <row r="353">
@@ -6438,10 +6438,10 @@
         <v>152.891481299606</v>
       </c>
       <c r="D353" t="n">
-        <v>151.9214782714844</v>
+        <v>151.0805206298828</v>
       </c>
       <c r="E353" t="n">
-        <v>0.970001220703125</v>
+        <v>1.810958862304688</v>
       </c>
     </row>
     <row r="354">
@@ -6455,10 +6455,10 @@
         <v>154.831071218794</v>
       </c>
       <c r="D354" t="n">
-        <v>153.2978210449219</v>
+        <v>154.7073822021484</v>
       </c>
       <c r="E354" t="n">
-        <v>1.533248901367188</v>
+        <v>0.123687744140625</v>
       </c>
     </row>
     <row r="355">
@@ -6472,10 +6472,10 @@
         <v>156.709487478947</v>
       </c>
       <c r="D355" t="n">
-        <v>153.2447662353516</v>
+        <v>157.4178924560547</v>
       </c>
       <c r="E355" t="n">
-        <v>3.4647216796875</v>
+        <v>-0.708404541015625</v>
       </c>
     </row>
     <row r="356">
@@ -6489,10 +6489,10 @@
         <v>158.548685036231</v>
       </c>
       <c r="D356" t="n">
-        <v>154.7088775634766</v>
+        <v>159.3592681884766</v>
       </c>
       <c r="E356" t="n">
-        <v>3.839813232421875</v>
+        <v>-0.810577392578125</v>
       </c>
     </row>
     <row r="357">
@@ -6506,10 +6506,10 @@
         <v>160.237070230666</v>
       </c>
       <c r="D357" t="n">
-        <v>156.2279510498047</v>
+        <v>160.2930450439453</v>
       </c>
       <c r="E357" t="n">
-        <v>4.009124755859375</v>
+        <v>-0.05596923828125</v>
       </c>
     </row>
     <row r="358">
@@ -6523,10 +6523,10 @@
         <v>161.811591750422</v>
       </c>
       <c r="D358" t="n">
-        <v>158.7991790771484</v>
+        <v>161.9408416748047</v>
       </c>
       <c r="E358" t="n">
-        <v>3.012405395507812</v>
+        <v>-0.1292572021484375</v>
       </c>
     </row>
     <row r="359">
@@ -6540,10 +6540,10 @@
         <v>163.338650573511</v>
       </c>
       <c r="D359" t="n">
-        <v>160.5853576660156</v>
+        <v>162.86865234375</v>
       </c>
       <c r="E359" t="n">
-        <v>2.7532958984375</v>
+        <v>0.470001220703125</v>
       </c>
     </row>
     <row r="360">
@@ -6557,10 +6557,10 @@
         <v>164.849590048401</v>
       </c>
       <c r="D360" t="n">
-        <v>163.2684478759766</v>
+        <v>164.5300750732422</v>
       </c>
       <c r="E360" t="n">
-        <v>1.581146240234375</v>
+        <v>0.31951904296875</v>
       </c>
     </row>
     <row r="361">
@@ -6574,10 +6574,10 @@
         <v>166.427052700397</v>
       </c>
       <c r="D361" t="n">
-        <v>165.0358123779297</v>
+        <v>165.5114288330078</v>
       </c>
       <c r="E361" t="n">
-        <v>1.3912353515625</v>
+        <v>0.915618896484375</v>
       </c>
     </row>
     <row r="362">
@@ -6591,10 +6591,10 @@
         <v>168.19170580456</v>
       </c>
       <c r="D362" t="n">
-        <v>167.9695587158203</v>
+        <v>167.9093322753906</v>
       </c>
       <c r="E362" t="n">
-        <v>0.2221527099609375</v>
+        <v>0.282379150390625</v>
       </c>
     </row>
     <row r="363">
@@ -6608,10 +6608,10 @@
         <v>170.246559597033</v>
       </c>
       <c r="D363" t="n">
-        <v>170.7685394287109</v>
+        <v>170.32373046875</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.52197265625</v>
+        <v>-0.0771636962890625</v>
       </c>
     </row>
     <row r="364">
@@ -6625,10 +6625,10 @@
         <v>172.576103450926</v>
       </c>
       <c r="D364" t="n">
-        <v>172.7408752441406</v>
+        <v>171.7529754638672</v>
       </c>
       <c r="E364" t="n">
-        <v>-0.164764404296875</v>
+        <v>0.8231353759765625</v>
       </c>
     </row>
     <row r="365">
@@ -6642,10 +6642,10 @@
         <v>174.971178487314</v>
       </c>
       <c r="D365" t="n">
-        <v>175.663818359375</v>
+        <v>174.2874145507812</v>
       </c>
       <c r="E365" t="n">
-        <v>-0.6926422119140625</v>
+        <v>0.6837615966796875</v>
       </c>
     </row>
     <row r="366">
@@ -6659,10 +6659,10 @@
         <v>177.375146433468</v>
       </c>
       <c r="D366" t="n">
-        <v>177.5463409423828</v>
+        <v>175.7285766601562</v>
       </c>
       <c r="E366" t="n">
-        <v>-0.1711883544921875</v>
+        <v>1.646575927734375</v>
       </c>
     </row>
     <row r="367">
@@ -6676,10 +6676,10 @@
         <v>179.858881263736</v>
       </c>
       <c r="D367" t="n">
-        <v>180.340087890625</v>
+        <v>178.2111663818359</v>
       </c>
       <c r="E367" t="n">
-        <v>-0.481201171875</v>
+        <v>1.647720336914062</v>
       </c>
     </row>
     <row r="368">
@@ -6693,10 +6693,10 @@
         <v>182.464506294039</v>
       </c>
       <c r="D368" t="n">
-        <v>182.4078063964844</v>
+        <v>179.7119903564453</v>
       </c>
       <c r="E368" t="n">
-        <v>0.05670166015625</v>
+        <v>2.752517700195312</v>
       </c>
     </row>
     <row r="369">
@@ -6710,10 +6710,10 @@
         <v>185.147280514462</v>
       </c>
       <c r="D369" t="n">
-        <v>185.2952270507812</v>
+        <v>182.2350158691406</v>
       </c>
       <c r="E369" t="n">
-        <v>-0.14794921875</v>
+        <v>2.912261962890625</v>
       </c>
     </row>
     <row r="370">
@@ -6727,10 +6727,10 @@
         <v>187.867710881684</v>
       </c>
       <c r="D370" t="n">
-        <v>188.4548645019531</v>
+        <v>184.8188171386719</v>
       </c>
       <c r="E370" t="n">
-        <v>-0.587158203125</v>
+        <v>3.04888916015625</v>
       </c>
     </row>
     <row r="371">
@@ -6744,10 +6744,10 @@
         <v>190.529453689742</v>
       </c>
       <c r="D371" t="n">
-        <v>190.4410095214844</v>
+        <v>186.4032897949219</v>
       </c>
       <c r="E371" t="n">
-        <v>0.08843994140625</v>
+        <v>4.12615966796875</v>
       </c>
     </row>
     <row r="372">
@@ -6761,10 +6761,10 @@
         <v>192.97133606788</v>
       </c>
       <c r="D372" t="n">
-        <v>193.6127319335938</v>
+        <v>189.0705718994141</v>
       </c>
       <c r="E372" t="n">
-        <v>-0.6414031982421875</v>
+        <v>3.9007568359375</v>
       </c>
     </row>
     <row r="373">
@@ -6778,10 +6778,10 @@
         <v>195.209334210565</v>
       </c>
       <c r="D373" t="n">
-        <v>195.6670532226562</v>
+        <v>190.654296875</v>
       </c>
       <c r="E373" t="n">
-        <v>-0.4577178955078125</v>
+        <v>4.555038452148438</v>
       </c>
     </row>
     <row r="374">
@@ -6795,10 +6795,10 @@
         <v>197.444883026885</v>
       </c>
       <c r="D374" t="n">
-        <v>199.0252227783203</v>
+        <v>193.3957061767578</v>
       </c>
       <c r="E374" t="n">
-        <v>-1.580337524414062</v>
+        <v>4.049179077148438</v>
       </c>
     </row>
     <row r="375">
@@ -6812,10 +6812,10 @@
         <v>199.775071481034</v>
       </c>
       <c r="D375" t="n">
-        <v>201.9444122314453</v>
+        <v>196.0163726806641</v>
       </c>
       <c r="E375" t="n">
-        <v>-2.169342041015625</v>
+        <v>3.758697509765625</v>
       </c>
     </row>
     <row r="376">
@@ -6829,10 +6829,10 @@
         <v>202.332528344675</v>
       </c>
       <c r="D376" t="n">
-        <v>204.0934143066406</v>
+        <v>197.6861572265625</v>
       </c>
       <c r="E376" t="n">
-        <v>-1.760879516601562</v>
+        <v>4.646377563476562</v>
       </c>
     </row>
     <row r="377">
@@ -6846,10 +6846,10 @@
         <v>205.23764690517</v>
       </c>
       <c r="D377" t="n">
-        <v>207.5008239746094</v>
+        <v>200.4870758056641</v>
       </c>
       <c r="E377" t="n">
-        <v>-2.26318359375</v>
+        <v>4.750564575195312</v>
       </c>
     </row>
     <row r="378">
@@ -6863,10 +6863,10 @@
         <v>208.200976952977</v>
       </c>
       <c r="D378" t="n">
-        <v>209.7290954589844</v>
+        <v>202.1721649169922</v>
       </c>
       <c r="E378" t="n">
-        <v>-1.528121948242188</v>
+        <v>6.02880859375</v>
       </c>
     </row>
     <row r="379">
@@ -6880,10 +6880,10 @@
         <v>211.052748902003</v>
       </c>
       <c r="D379" t="n">
-        <v>212.797607421875</v>
+        <v>204.946533203125</v>
       </c>
       <c r="E379" t="n">
-        <v>-1.744857788085938</v>
+        <v>6.106216430664062</v>
       </c>
     </row>
     <row r="380">
@@ -6897,10 +6897,10 @@
         <v>214.055167841515</v>
       </c>
       <c r="D380" t="n">
-        <v>216.3675994873047</v>
+        <v>207.8092193603516</v>
       </c>
       <c r="E380" t="n">
-        <v>-2.31243896484375</v>
+        <v>6.245941162109375</v>
       </c>
     </row>
     <row r="381">
@@ -6914,10 +6914,10 @@
         <v>217.250777318866</v>
       </c>
       <c r="D381" t="n">
-        <v>219.9140625</v>
+        <v>210.6065521240234</v>
       </c>
       <c r="E381" t="n">
-        <v>-2.663284301757812</v>
+        <v>6.64422607421875</v>
       </c>
     </row>
     <row r="382">
@@ -6931,10 +6931,10 @@
         <v>220.518750744196</v>
       </c>
       <c r="D382" t="n">
-        <v>222.0718383789062</v>
+        <v>212.3531646728516</v>
       </c>
       <c r="E382" t="n">
-        <v>-1.553085327148438</v>
+        <v>8.16558837890625</v>
       </c>
     </row>
     <row r="383">
@@ -6948,10 +6948,10 @@
         <v>223.63276890565</v>
       </c>
       <c r="D383" t="n">
-        <v>225.5011596679688</v>
+        <v>215.2525024414062</v>
       </c>
       <c r="E383" t="n">
-        <v>-1.868392944335938</v>
+        <v>8.380264282226562</v>
       </c>
     </row>
     <row r="384">
@@ -6965,10 +6965,10 @@
         <v>226.670972013567</v>
       </c>
       <c r="D384" t="n">
-        <v>228.9726867675781</v>
+        <v>218.1457672119141</v>
       </c>
       <c r="E384" t="n">
-        <v>-2.301712036132812</v>
+        <v>8.52520751953125</v>
       </c>
     </row>
     <row r="385">
@@ -6982,10 +6982,10 @@
         <v>229.875627194916</v>
       </c>
       <c r="D385" t="n">
-        <v>232.1365509033203</v>
+        <v>222.5296936035156</v>
       </c>
       <c r="E385" t="n">
-        <v>-2.26092529296875</v>
+        <v>7.345932006835938</v>
       </c>
     </row>
     <row r="386">
@@ -6999,10 +6999,10 @@
         <v>233.373616234044</v>
       </c>
       <c r="D386" t="n">
-        <v>234.4887847900391</v>
+        <v>225.8943176269531</v>
       </c>
       <c r="E386" t="n">
-        <v>-1.11517333984375</v>
+        <v>7.479293823242188</v>
       </c>
     </row>
     <row r="387">
@@ -7016,10 +7016,10 @@
         <v>236.901421973349</v>
       </c>
       <c r="D387" t="n">
-        <v>238.0169982910156</v>
+        <v>230.1880340576172</v>
       </c>
       <c r="E387" t="n">
-        <v>-1.115570068359375</v>
+        <v>6.713394165039062</v>
       </c>
     </row>
     <row r="388">
@@ -7033,10 +7033,10 @@
         <v>240.161412640479</v>
       </c>
       <c r="D388" t="n">
-        <v>241.5875244140625</v>
+        <v>234.5854644775391</v>
       </c>
       <c r="E388" t="n">
-        <v>-1.426116943359375</v>
+        <v>5.575942993164062</v>
       </c>
     </row>
     <row r="389">
@@ -7050,10 +7050,10 @@
         <v>243.401683736821</v>
       </c>
       <c r="D389" t="n">
-        <v>244.1534576416016</v>
+        <v>237.7047424316406</v>
       </c>
       <c r="E389" t="n">
-        <v>-0.75177001953125</v>
+        <v>5.696945190429688</v>
       </c>
     </row>
     <row r="390">
@@ -7067,10 +7067,10 @@
         <v>246.938277682144</v>
       </c>
       <c r="D390" t="n">
-        <v>247.5474548339844</v>
+        <v>242.2966003417969</v>
       </c>
       <c r="E390" t="n">
-        <v>-0.6091766357421875</v>
+        <v>4.641677856445312</v>
       </c>
     </row>
     <row r="391">
@@ -7084,10 +7084,10 @@
         <v>250.525819756845</v>
       </c>
       <c r="D391" t="n">
-        <v>251.1451110839844</v>
+        <v>247.0724029541016</v>
       </c>
       <c r="E391" t="n">
-        <v>-0.619293212890625</v>
+        <v>3.453414916992188</v>
       </c>
     </row>
     <row r="392">
@@ -7101,10 +7101,10 @@
         <v>253.984006687524</v>
       </c>
       <c r="D392" t="n">
-        <v>254.643310546875</v>
+        <v>251.6389007568359</v>
       </c>
       <c r="E392" t="n">
-        <v>-0.6593017578125</v>
+        <v>2.345108032226562</v>
       </c>
     </row>
     <row r="393">
@@ -7118,10 +7118,10 @@
         <v>257.359809696787</v>
       </c>
       <c r="D393" t="n">
-        <v>256.7798461914062</v>
+        <v>255.80859375</v>
       </c>
       <c r="E393" t="n">
-        <v>0.5799560546875</v>
+        <v>1.55120849609375</v>
       </c>
     </row>
     <row r="394">
@@ -7135,10 +7135,10 @@
         <v>261.037438353797</v>
       </c>
       <c r="D394" t="n">
-        <v>260.4986877441406</v>
+        <v>257.1102905273438</v>
       </c>
       <c r="E394" t="n">
-        <v>0.53875732421875</v>
+        <v>3.927154541015625</v>
       </c>
     </row>
     <row r="395">
@@ -7152,10 +7152,10 @@
         <v>265.206865607514</v>
       </c>
       <c r="D395" t="n">
-        <v>264.1110534667969</v>
+        <v>259.2509765625</v>
       </c>
       <c r="E395" t="n">
-        <v>1.0958251953125</v>
+        <v>5.955902099609375</v>
       </c>
     </row>
     <row r="396">
@@ -7169,10 +7169,10 @@
         <v>269.642912311836</v>
       </c>
       <c r="D396" t="n">
-        <v>268.5517578125</v>
+        <v>260.6565856933594</v>
       </c>
       <c r="E396" t="n">
-        <v>1.091156005859375</v>
+        <v>8.986328125</v>
       </c>
     </row>
     <row r="397">
@@ -7186,10 +7186,10 @@
         <v>273.983317806087</v>
       </c>
       <c r="D397" t="n">
-        <v>271.5059814453125</v>
+        <v>264.7442016601562</v>
       </c>
       <c r="E397" t="n">
-        <v>2.477325439453125</v>
+        <v>9.239105224609375</v>
       </c>
     </row>
     <row r="398">
@@ -7203,10 +7203,10 @@
         <v>278.072404935537</v>
       </c>
       <c r="D398" t="n">
-        <v>275.5071411132812</v>
+        <v>265.3828125</v>
       </c>
       <c r="E398" t="n">
-        <v>2.565277099609375</v>
+        <v>12.68960571289062</v>
       </c>
     </row>
     <row r="399">
@@ -7220,10 +7220,10 @@
         <v>281.993144500693</v>
       </c>
       <c r="D399" t="n">
-        <v>279.4761352539062</v>
+        <v>270.6253356933594</v>
       </c>
       <c r="E399" t="n">
-        <v>2.516998291015625</v>
+        <v>11.3677978515625</v>
       </c>
     </row>
     <row r="400">
@@ -7237,10 +7237,10 @@
         <v>285.740001021874</v>
       </c>
       <c r="D400" t="n">
-        <v>283.8095092773438</v>
+        <v>275.0251159667969</v>
       </c>
       <c r="E400" t="n">
-        <v>1.93048095703125</v>
+        <v>10.71487426757812</v>
       </c>
     </row>
     <row r="401">
@@ -7254,10 +7254,10 @@
         <v>289.555799094195</v>
       </c>
       <c r="D401" t="n">
-        <v>287.3829040527344</v>
+        <v>280.5401000976562</v>
       </c>
       <c r="E401" t="n">
-        <v>2.172882080078125</v>
+        <v>9.01568603515625</v>
       </c>
     </row>
     <row r="402">
@@ -7271,10 +7271,10 @@
         <v>293.476749097268</v>
       </c>
       <c r="D402" t="n">
-        <v>292.8364562988281</v>
+        <v>284.8739013671875</v>
       </c>
       <c r="E402" t="n">
-        <v>0.640289306640625</v>
+        <v>8.60284423828125</v>
       </c>
     </row>
     <row r="403">
@@ -7288,10 +7288,10 @@
         <v>298.042958782342</v>
       </c>
       <c r="D403" t="n">
-        <v>299.163818359375</v>
+        <v>290.8275451660156</v>
       </c>
       <c r="E403" t="n">
-        <v>-1.120849609375</v>
+        <v>7.215423583984375</v>
       </c>
     </row>
     <row r="404">
@@ -7305,10 +7305,10 @@
         <v>302.969164957931</v>
       </c>
       <c r="D404" t="n">
-        <v>307.1771850585938</v>
+        <v>286.7405700683594</v>
       </c>
       <c r="E404" t="n">
-        <v>-4.2080078125</v>
+        <v>16.22860717773438</v>
       </c>
     </row>
     <row r="405">
@@ -7322,10 +7322,10 @@
         <v>45.47141312754299</v>
       </c>
       <c r="D405" t="n">
-        <v>50.54110717773438</v>
+        <v>42.86874389648438</v>
       </c>
       <c r="E405" t="n">
-        <v>-5.069694519042969</v>
+        <v>2.602668762207031</v>
       </c>
     </row>
     <row r="406">
@@ -7339,10 +7339,10 @@
         <v>47.2757564894583</v>
       </c>
       <c r="D406" t="n">
-        <v>48.24984741210938</v>
+        <v>40.79629516601562</v>
       </c>
       <c r="E406" t="n">
-        <v>-0.974090576171875</v>
+        <v>6.479461669921875</v>
       </c>
     </row>
     <row r="407">
@@ -7356,10 +7356,10 @@
         <v>48.9381237530572</v>
       </c>
       <c r="D407" t="n">
-        <v>48.17483520507812</v>
+        <v>40.86941528320312</v>
       </c>
       <c r="E407" t="n">
-        <v>0.7632904052734375</v>
+        <v>8.068710327148438</v>
       </c>
     </row>
     <row r="408">
@@ -7373,10 +7373,10 @@
         <v>50.4663419775198</v>
       </c>
       <c r="D408" t="n">
-        <v>48.73529052734375</v>
+        <v>41.66567993164062</v>
       </c>
       <c r="E408" t="n">
-        <v>1.731052398681641</v>
+        <v>8.800662994384766</v>
       </c>
     </row>
     <row r="409">
@@ -7390,10 +7390,10 @@
         <v>51.8671681207707</v>
       </c>
       <c r="D409" t="n">
-        <v>50.28701782226562</v>
+        <v>43.47589111328125</v>
       </c>
       <c r="E409" t="n">
-        <v>1.580150604248047</v>
+        <v>8.391277313232422</v>
       </c>
     </row>
     <row r="410">
@@ -7407,10 +7407,10 @@
         <v>53.14567869490369</v>
       </c>
       <c r="D410" t="n">
-        <v>50.81182861328125</v>
+        <v>44.30703735351562</v>
       </c>
       <c r="E410" t="n">
-        <v>2.333850860595703</v>
+        <v>8.838642120361328</v>
       </c>
     </row>
     <row r="411">
@@ -7424,10 +7424,10 @@
         <v>54.3044923307604</v>
       </c>
       <c r="D411" t="n">
-        <v>52.29055786132812</v>
+        <v>46.06716918945312</v>
       </c>
       <c r="E411" t="n">
-        <v>2.013935089111328</v>
+        <v>8.237323760986328</v>
       </c>
     </row>
     <row r="412">
@@ -7441,10 +7441,10 @@
         <v>55.3429805742123</v>
       </c>
       <c r="D412" t="n">
-        <v>53.72189331054688</v>
+        <v>47.83572387695312</v>
       </c>
       <c r="E412" t="n">
-        <v>1.621086120605469</v>
+        <v>7.507255554199219</v>
       </c>
     </row>
     <row r="413">
@@ -7458,10 +7458,10 @@
         <v>56.25621193736519</v>
       </c>
       <c r="D413" t="n">
-        <v>55.37283325195312</v>
+        <v>49.69076538085938</v>
       </c>
       <c r="E413" t="n">
-        <v>0.8833770751953125</v>
+        <v>6.565444946289062</v>
       </c>
     </row>
     <row r="414">
@@ -7475,10 +7475,10 @@
         <v>57.0340080837309</v>
       </c>
       <c r="D414" t="n">
-        <v>56.05892944335938</v>
+        <v>50.512451171875</v>
       </c>
       <c r="E414" t="n">
-        <v>0.9750785827636719</v>
+        <v>6.521556854248047</v>
       </c>
     </row>
     <row r="415">
@@ -7492,10 +7492,10 @@
         <v>57.6585651402109</v>
       </c>
       <c r="D415" t="n">
-        <v>57.81405639648438</v>
+        <v>52.37985229492188</v>
       </c>
       <c r="E415" t="n">
-        <v>-0.1554908752441406</v>
+        <v>5.278713226318359</v>
       </c>
     </row>
     <row r="416">
@@ -7509,10 +7509,10 @@
         <v>58.10219884868179</v>
       </c>
       <c r="D416" t="n">
-        <v>58.47817993164062</v>
+        <v>53.2308349609375</v>
       </c>
       <c r="E416" t="n">
-        <v>-0.3759803771972656</v>
+        <v>4.871364593505859</v>
       </c>
     </row>
     <row r="417">
@@ -7526,10 +7526,10 @@
         <v>58.34863514554451</v>
       </c>
       <c r="D417" t="n">
-        <v>60.03457641601562</v>
+        <v>55.03189086914062</v>
       </c>
       <c r="E417" t="n">
-        <v>-1.685939788818359</v>
+        <v>3.316745758056641</v>
       </c>
     </row>
     <row r="418">
@@ -7543,10 +7543,10 @@
         <v>58.54915787945701</v>
       </c>
       <c r="D418" t="n">
-        <v>60.64639282226562</v>
+        <v>55.89947509765625</v>
       </c>
       <c r="E418" t="n">
-        <v>-2.097236633300781</v>
+        <v>2.649681091308594</v>
       </c>
     </row>
     <row r="419">
@@ -7560,10 +7560,10 @@
         <v>59.0931575032202</v>
       </c>
       <c r="D419" t="n">
-        <v>62.01629638671875</v>
+        <v>57.52496337890625</v>
       </c>
       <c r="E419" t="n">
-        <v>-2.923137664794922</v>
+        <v>1.568195343017578</v>
       </c>
     </row>
     <row r="420">
@@ -7577,10 +7577,10 @@
         <v>59.7652291418029</v>
       </c>
       <c r="D420" t="n">
-        <v>62.49789428710938</v>
+        <v>58.2703857421875</v>
       </c>
       <c r="E420" t="n">
-        <v>-2.732666015625</v>
+        <v>1.494842529296875</v>
       </c>
     </row>
     <row r="421">
@@ -7594,10 +7594,10 @@
         <v>60.5382173049993</v>
       </c>
       <c r="D421" t="n">
-        <v>62.96359252929688</v>
+        <v>58.91595458984375</v>
       </c>
       <c r="E421" t="n">
-        <v>-2.425376892089844</v>
+        <v>1.622261047363281</v>
       </c>
     </row>
     <row r="422">
@@ -7611,10 +7611,10 @@
         <v>61.39270729554161</v>
       </c>
       <c r="D422" t="n">
-        <v>63.50885009765625</v>
+        <v>59.7022705078125</v>
       </c>
       <c r="E422" t="n">
-        <v>-2.116142272949219</v>
+        <v>1.690437316894531</v>
       </c>
     </row>
     <row r="423">
@@ -7628,10 +7628,10 @@
         <v>62.3183859029073</v>
       </c>
       <c r="D423" t="n">
-        <v>64.05795288085938</v>
+        <v>60.52444458007812</v>
       </c>
       <c r="E423" t="n">
-        <v>-1.739566802978516</v>
+        <v>1.793941497802734</v>
       </c>
     </row>
     <row r="424">
@@ -7645,10 +7645,10 @@
         <v>63.3217893221117</v>
       </c>
       <c r="D424" t="n">
-        <v>64.72451782226562</v>
+        <v>61.63327026367188</v>
       </c>
       <c r="E424" t="n">
-        <v>-1.402729034423828</v>
+        <v>1.688518524169922</v>
       </c>
     </row>
     <row r="425">
@@ -7662,10 +7662,10 @@
         <v>64.42003431961611</v>
       </c>
       <c r="D425" t="n">
-        <v>66.14218139648438</v>
+        <v>63.45269775390625</v>
       </c>
       <c r="E425" t="n">
-        <v>-1.722145080566406</v>
+        <v>0.9673385620117188</v>
       </c>
     </row>
     <row r="426">
@@ -7679,10 +7679,10 @@
         <v>65.60470672600461</v>
       </c>
       <c r="D426" t="n">
-        <v>66.65078735351562</v>
+        <v>64.29275512695312</v>
       </c>
       <c r="E426" t="n">
-        <v>-1.04608154296875</v>
+        <v>1.31195068359375</v>
       </c>
     </row>
     <row r="427">
@@ -7696,10 +7696,10 @@
         <v>66.830061505426</v>
       </c>
       <c r="D427" t="n">
-        <v>68.41458129882812</v>
+        <v>66.16189575195312</v>
       </c>
       <c r="E427" t="n">
-        <v>-1.584518432617188</v>
+        <v>0.6681671142578125</v>
       </c>
     </row>
     <row r="428">
@@ -7713,10 +7713,10 @@
         <v>68.0331607182851</v>
       </c>
       <c r="D428" t="n">
-        <v>70.20462036132812</v>
+        <v>67.9891357421875</v>
       </c>
       <c r="E428" t="n">
-        <v>-2.171463012695312</v>
+        <v>0.0440216064453125</v>
       </c>
     </row>
     <row r="429">
@@ -7730,10 +7730,10 @@
         <v>69.1681923281255</v>
       </c>
       <c r="D429" t="n">
-        <v>71.27975463867188</v>
+        <v>68.9007568359375</v>
       </c>
       <c r="E429" t="n">
-        <v>-2.111564636230469</v>
+        <v>0.2674331665039062</v>
       </c>
     </row>
     <row r="430">
@@ -7747,10 +7747,10 @@
         <v>70.2265695377437</v>
       </c>
       <c r="D430" t="n">
-        <v>72.95281982421875</v>
+        <v>70.75079345703125</v>
       </c>
       <c r="E430" t="n">
-        <v>-2.726249694824219</v>
+        <v>-0.5242233276367188</v>
       </c>
     </row>
     <row r="431">
@@ -7764,10 +7764,10 @@
         <v>71.2204876775977</v>
       </c>
       <c r="D431" t="n">
-        <v>74.59939575195312</v>
+        <v>72.69601440429688</v>
       </c>
       <c r="E431" t="n">
-        <v>-3.37890625</v>
+        <v>-1.47552490234375</v>
       </c>
     </row>
     <row r="432">
@@ -7781,10 +7781,10 @@
         <v>72.19928398213349</v>
       </c>
       <c r="D432" t="n">
-        <v>75.19961547851562</v>
+        <v>73.84866333007812</v>
       </c>
       <c r="E432" t="n">
-        <v>-3.000328063964844</v>
+        <v>-1.649375915527344</v>
       </c>
     </row>
     <row r="433">
@@ -7798,10 +7798,10 @@
         <v>73.2080034278067</v>
       </c>
       <c r="D433" t="n">
-        <v>75.70333862304688</v>
+        <v>74.87008666992188</v>
       </c>
       <c r="E433" t="n">
-        <v>-2.495338439941406</v>
+        <v>-1.662086486816406</v>
       </c>
     </row>
     <row r="434">
@@ -7815,10 +7815,10 @@
         <v>74.25251173110971</v>
       </c>
       <c r="D434" t="n">
-        <v>76.07916259765625</v>
+        <v>75.78677368164062</v>
       </c>
       <c r="E434" t="n">
-        <v>-1.826652526855469</v>
+        <v>-1.534263610839844</v>
       </c>
     </row>
     <row r="435">
@@ -7832,10 +7832,10 @@
         <v>75.33334606563081</v>
       </c>
       <c r="D435" t="n">
-        <v>76.42251586914062</v>
+        <v>76.3597412109375</v>
       </c>
       <c r="E435" t="n">
-        <v>-1.08917236328125</v>
+        <v>-1.026397705078125</v>
       </c>
     </row>
     <row r="436">
@@ -7849,10 +7849,10 @@
         <v>76.46166200894339</v>
       </c>
       <c r="D436" t="n">
-        <v>77.13265991210938</v>
+        <v>77.19921875</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.6709976196289062</v>
+        <v>-0.7375564575195312</v>
       </c>
     </row>
     <row r="437">
@@ -7866,10 +7866,10 @@
         <v>77.6425083740052</v>
       </c>
       <c r="D437" t="n">
-        <v>78.06161499023438</v>
+        <v>78.1812744140625</v>
       </c>
       <c r="E437" t="n">
-        <v>-0.4191055297851562</v>
+        <v>-0.5387649536132812</v>
       </c>
     </row>
     <row r="438">
@@ -7883,10 +7883,10 @@
         <v>78.86260087967671</v>
       </c>
       <c r="D438" t="n">
-        <v>77.997802734375</v>
+        <v>78.3203125</v>
       </c>
       <c r="E438" t="n">
-        <v>0.8647994995117188</v>
+        <v>0.5422897338867188</v>
       </c>
     </row>
     <row r="439">
@@ -7900,10 +7900,10 @@
         <v>80.0662435476918</v>
       </c>
       <c r="D439" t="n">
-        <v>78.50796508789062</v>
+        <v>79.11306762695312</v>
       </c>
       <c r="E439" t="n">
-        <v>1.558280944824219</v>
+        <v>0.9531784057617188</v>
       </c>
     </row>
     <row r="440">
@@ -7917,10 +7917,10 @@
         <v>81.2096965077735</v>
       </c>
       <c r="D440" t="n">
-        <v>78.972900390625</v>
+        <v>80.00155639648438</v>
       </c>
       <c r="E440" t="n">
-        <v>2.236793518066406</v>
+        <v>1.208137512207031</v>
       </c>
     </row>
     <row r="441">
@@ -7934,10 +7934,10 @@
         <v>82.27958203919809</v>
       </c>
       <c r="D441" t="n">
-        <v>79.65603637695312</v>
+        <v>80.97967529296875</v>
       </c>
       <c r="E441" t="n">
-        <v>2.623542785644531</v>
+        <v>1.299903869628906</v>
       </c>
     </row>
     <row r="442">
@@ -7951,10 +7951,10 @@
         <v>83.29050188618669</v>
       </c>
       <c r="D442" t="n">
-        <v>79.98223876953125</v>
+        <v>81.59259033203125</v>
       </c>
       <c r="E442" t="n">
-        <v>3.308265686035156</v>
+        <v>1.697914123535156</v>
       </c>
     </row>
     <row r="443">
@@ -7968,10 +7968,10 @@
         <v>84.2813121483907</v>
       </c>
       <c r="D443" t="n">
-        <v>80.7232666015625</v>
+        <v>82.43045043945312</v>
       </c>
       <c r="E443" t="n">
-        <v>3.55804443359375</v>
+        <v>1.850860595703125</v>
       </c>
     </row>
     <row r="444">
@@ -7985,10 +7985,10 @@
         <v>85.3030762402106</v>
       </c>
       <c r="D444" t="n">
-        <v>81.48040771484375</v>
+        <v>83.41876220703125</v>
       </c>
       <c r="E444" t="n">
-        <v>3.822669982910156</v>
+        <v>1.884315490722656</v>
       </c>
     </row>
     <row r="445">
@@ -8002,10 +8002,10 @@
         <v>86.3875496121448</v>
       </c>
       <c r="D445" t="n">
-        <v>82.41165161132812</v>
+        <v>84.42532348632812</v>
       </c>
       <c r="E445" t="n">
-        <v>3.975898742675781</v>
+        <v>1.962226867675781</v>
       </c>
     </row>
     <row r="446">
@@ -8019,10 +8019,10 @@
         <v>87.53201901701449</v>
       </c>
       <c r="D446" t="n">
-        <v>83.06591796875</v>
+        <v>84.96896362304688</v>
       </c>
       <c r="E446" t="n">
-        <v>4.466102600097656</v>
+        <v>2.563056945800781</v>
       </c>
     </row>
     <row r="447">
@@ -8036,10 +8036,10 @@
         <v>88.72459856271981</v>
       </c>
       <c r="D447" t="n">
-        <v>84.89840698242188</v>
+        <v>86.30825805664062</v>
       </c>
       <c r="E447" t="n">
-        <v>3.826194763183594</v>
+        <v>2.416343688964844</v>
       </c>
     </row>
     <row r="448">
@@ -8053,10 +8053,10 @@
         <v>89.9350183243147</v>
       </c>
       <c r="D448" t="n">
-        <v>86.3726806640625</v>
+        <v>87.63375854492188</v>
       </c>
       <c r="E448" t="n">
-        <v>3.562339782714844</v>
+        <v>2.301261901855469</v>
       </c>
     </row>
     <row r="449">
@@ -8070,10 +8070,10 @@
         <v>91.17148570577081</v>
       </c>
       <c r="D449" t="n">
-        <v>87.34854125976562</v>
+        <v>87.98013305664062</v>
       </c>
       <c r="E449" t="n">
-        <v>3.822944641113281</v>
+        <v>3.191352844238281</v>
       </c>
     </row>
     <row r="450">
@@ -8087,10 +8087,10 @@
         <v>92.40370506791639</v>
       </c>
       <c r="D450" t="n">
-        <v>88.96932983398438</v>
+        <v>89.32821655273438</v>
       </c>
       <c r="E450" t="n">
-        <v>3.434371948242188</v>
+        <v>3.075485229492188</v>
       </c>
     </row>
     <row r="451">
@@ -8104,10 +8104,10 @@
         <v>93.5831221633926</v>
       </c>
       <c r="D451" t="n">
-        <v>89.74923706054688</v>
+        <v>89.734130859375</v>
       </c>
       <c r="E451" t="n">
-        <v>3.833885192871094</v>
+        <v>3.848991394042969</v>
       </c>
     </row>
     <row r="452">
@@ -8121,10 +8121,10 @@
         <v>94.69783036963079</v>
       </c>
       <c r="D452" t="n">
-        <v>91.15011596679688</v>
+        <v>91.14651489257812</v>
       </c>
       <c r="E452" t="n">
-        <v>3.547714233398438</v>
+        <v>3.551315307617188</v>
       </c>
     </row>
     <row r="453">
@@ -8138,10 +8138,10 @@
         <v>95.773090355503</v>
       </c>
       <c r="D453" t="n">
-        <v>93.7255859375</v>
+        <v>93.43524169921875</v>
       </c>
       <c r="E453" t="n">
-        <v>2.047500610351562</v>
+        <v>2.337844848632812</v>
       </c>
     </row>
     <row r="454">
@@ -8155,10 +8155,10 @@
         <v>96.84132102908059</v>
       </c>
       <c r="D454" t="n">
-        <v>94.37466430664062</v>
+        <v>93.7542724609375</v>
       </c>
       <c r="E454" t="n">
-        <v>2.466659545898438</v>
+        <v>3.087051391601562</v>
       </c>
     </row>
     <row r="455">
@@ -8172,10 +8172,10 @@
         <v>97.9501686382833</v>
       </c>
       <c r="D455" t="n">
-        <v>96.42149353027344</v>
+        <v>94.92584228515625</v>
       </c>
       <c r="E455" t="n">
-        <v>1.528678894042969</v>
+        <v>3.024330139160156</v>
       </c>
     </row>
     <row r="456">
@@ -8189,10 +8189,10 @@
         <v>99.11614037361251</v>
       </c>
       <c r="D456" t="n">
-        <v>97.50631713867188</v>
+        <v>95.15937805175781</v>
       </c>
       <c r="E456" t="n">
-        <v>1.609825134277344</v>
+        <v>3.956764221191406</v>
       </c>
     </row>
     <row r="457">
@@ -8206,10 +8206,10 @@
         <v>100.338427885202</v>
       </c>
       <c r="D457" t="n">
-        <v>99.52383422851562</v>
+        <v>96.44479370117188</v>
       </c>
       <c r="E457" t="n">
-        <v>0.8145904541015625</v>
+        <v>3.893630981445312</v>
       </c>
     </row>
     <row r="458">
@@ -8223,10 +8223,10 @@
         <v>101.618469716582</v>
       </c>
       <c r="D458" t="n">
-        <v>101.1947021484375</v>
+        <v>97.78485107421875</v>
       </c>
       <c r="E458" t="n">
-        <v>0.42376708984375</v>
+        <v>3.8336181640625</v>
       </c>
     </row>
     <row r="459">
@@ -8240,10 +8240,10 @@
         <v>102.950829996277</v>
       </c>
       <c r="D459" t="n">
-        <v>102.5206451416016</v>
+        <v>99.21403503417969</v>
       </c>
       <c r="E459" t="n">
-        <v>0.4301834106445312</v>
+        <v>3.736793518066406</v>
       </c>
     </row>
     <row r="460">
@@ -8257,10 +8257,10 @@
         <v>104.292987580663</v>
       </c>
       <c r="D460" t="n">
-        <v>102.9452819824219</v>
+        <v>99.85232543945312</v>
       </c>
       <c r="E460" t="n">
-        <v>1.347702026367188</v>
+        <v>4.440658569335938</v>
       </c>
     </row>
     <row r="461">
@@ -8274,10 +8274,10 @@
         <v>105.618037137215</v>
       </c>
       <c r="D461" t="n">
-        <v>104.3058776855469</v>
+        <v>101.3759460449219</v>
       </c>
       <c r="E461" t="n">
-        <v>1.312156677246094</v>
+        <v>4.242088317871094</v>
       </c>
     </row>
     <row r="462">
@@ -8291,10 +8291,10 @@
         <v>106.927228675612</v>
       </c>
       <c r="D462" t="n">
-        <v>105.8114471435547</v>
+        <v>102.7212982177734</v>
       </c>
       <c r="E462" t="n">
-        <v>1.11578369140625</v>
+        <v>4.2059326171875</v>
       </c>
     </row>
     <row r="463">
@@ -8308,10 +8308,10 @@
         <v>108.23064173082</v>
       </c>
       <c r="D463" t="n">
-        <v>107.6134948730469</v>
+        <v>101.9177551269531</v>
       </c>
       <c r="E463" t="n">
-        <v>0.6171493530273438</v>
+        <v>6.312889099121094</v>
       </c>
     </row>
     <row r="464">
@@ -8325,10 +8325,10 @@
         <v>109.559054324185</v>
       </c>
       <c r="D464" t="n">
-        <v>109.6415405273438</v>
+        <v>103.5565032958984</v>
       </c>
       <c r="E464" t="n">
-        <v>-0.082489013671875</v>
+        <v>6.002548217773438</v>
       </c>
     </row>
     <row r="465">
@@ -8342,10 +8342,10 @@
         <v>110.950571576039</v>
       </c>
       <c r="D465" t="n">
-        <v>111.6363830566406</v>
+        <v>105.0426177978516</v>
       </c>
       <c r="E465" t="n">
-        <v>-0.6858139038085938</v>
+        <v>5.907951354980469</v>
       </c>
     </row>
     <row r="466">
@@ -8359,10 +8359,10 @@
         <v>112.457434780862</v>
       </c>
       <c r="D466" t="n">
-        <v>113.9557037353516</v>
+        <v>106.6908264160156</v>
       </c>
       <c r="E466" t="n">
-        <v>-1.498268127441406</v>
+        <v>5.766609191894531</v>
       </c>
     </row>
     <row r="467">
@@ -8376,10 +8376,10 @@
         <v>114.058617507951</v>
       </c>
       <c r="D467" t="n">
-        <v>116.2811279296875</v>
+        <v>108.3025665283203</v>
       </c>
       <c r="E467" t="n">
-        <v>-2.222511291503906</v>
+        <v>5.756050109863281</v>
       </c>
     </row>
     <row r="468">
@@ -8393,10 +8393,10 @@
         <v>115.705064738273</v>
       </c>
       <c r="D468" t="n">
-        <v>118.4428253173828</v>
+        <v>109.7804565429688</v>
       </c>
       <c r="E468" t="n">
-        <v>-2.737762451171875</v>
+        <v>5.924606323242188</v>
       </c>
     </row>
     <row r="469">
@@ -8410,10 +8410,10 @@
         <v>117.36333203</v>
       </c>
       <c r="D469" t="n">
-        <v>120.4939880371094</v>
+        <v>111.2807159423828</v>
       </c>
       <c r="E469" t="n">
-        <v>-3.130653381347656</v>
+        <v>6.082618713378906</v>
       </c>
     </row>
     <row r="470">
@@ -8427,10 +8427,10 @@
         <v>119.037871021201</v>
       </c>
       <c r="D470" t="n">
-        <v>122.1487121582031</v>
+        <v>112.7070159912109</v>
       </c>
       <c r="E470" t="n">
-        <v>-3.11083984375</v>
+        <v>6.330856323242188</v>
       </c>
     </row>
     <row r="471">
@@ -8444,10 +8444,10 @@
         <v>120.729323233116</v>
       </c>
       <c r="D471" t="n">
-        <v>123.7239990234375</v>
+        <v>114.1460113525391</v>
       </c>
       <c r="E471" t="n">
-        <v>-2.994674682617188</v>
+        <v>6.58331298828125</v>
       </c>
     </row>
     <row r="472">
@@ -8461,10 +8461,10 @@
         <v>122.425141425812</v>
       </c>
       <c r="D472" t="n">
-        <v>125.4883117675781</v>
+        <v>115.7293395996094</v>
       </c>
       <c r="E472" t="n">
-        <v>-3.06317138671875</v>
+        <v>6.69580078125</v>
       </c>
     </row>
     <row r="473">
@@ -8478,10 +8478,10 @@
         <v>124.127474832464</v>
       </c>
       <c r="D473" t="n">
-        <v>127.5416107177734</v>
+        <v>117.3079071044922</v>
       </c>
       <c r="E473" t="n">
-        <v>-3.414138793945312</v>
+        <v>6.819564819335938</v>
       </c>
     </row>
     <row r="474">
@@ -8495,10 +8495,10 @@
         <v>125.854142465012</v>
       </c>
       <c r="D474" t="n">
-        <v>129.7955627441406</v>
+        <v>118.7534637451172</v>
       </c>
       <c r="E474" t="n">
-        <v>-3.941421508789062</v>
+        <v>7.100677490234375</v>
       </c>
     </row>
     <row r="475">
@@ -8512,10 +8512,10 @@
         <v>127.662025712345</v>
       </c>
       <c r="D475" t="n">
-        <v>131.9707794189453</v>
+        <v>120.2256469726562</v>
       </c>
       <c r="E475" t="n">
-        <v>-4.308753967285156</v>
+        <v>7.436378479003906</v>
       </c>
     </row>
     <row r="476">
@@ -8529,10 +8529,10 @@
         <v>129.611451962231</v>
       </c>
       <c r="D476" t="n">
-        <v>137.4637145996094</v>
+        <v>123.0006408691406</v>
       </c>
       <c r="E476" t="n">
-        <v>-7.852264404296875</v>
+        <v>6.610809326171875</v>
       </c>
     </row>
     <row r="477">
@@ -8546,10 +8546,10 @@
         <v>131.703048421255</v>
       </c>
       <c r="D477" t="n">
-        <v>138.5782012939453</v>
+        <v>126.5163269042969</v>
       </c>
       <c r="E477" t="n">
-        <v>-6.875152587890625</v>
+        <v>5.186721801757812</v>
       </c>
     </row>
     <row r="478">
@@ -8563,10 +8563,10 @@
         <v>133.879029404038</v>
       </c>
       <c r="D478" t="n">
-        <v>137.9249114990234</v>
+        <v>129.0879516601562</v>
       </c>
       <c r="E478" t="n">
-        <v>-4.045883178710938</v>
+        <v>4.79107666015625</v>
       </c>
     </row>
     <row r="479">
@@ -8580,10 +8580,10 @@
         <v>136.058790154797</v>
       </c>
       <c r="D479" t="n">
-        <v>138.7673797607422</v>
+        <v>133.2911071777344</v>
       </c>
       <c r="E479" t="n">
-        <v>-2.708587646484375</v>
+        <v>2.767684936523438</v>
       </c>
     </row>
     <row r="480">
@@ -8597,10 +8597,10 @@
         <v>138.220970681154</v>
       </c>
       <c r="D480" t="n">
-        <v>139.3868408203125</v>
+        <v>137.2900543212891</v>
       </c>
       <c r="E480" t="n">
-        <v>-1.165863037109375</v>
+        <v>0.9309234619140625</v>
       </c>
     </row>
     <row r="481">
@@ -8614,10 +8614,10 @@
         <v>140.379938162677</v>
       </c>
       <c r="D481" t="n">
-        <v>140.3484191894531</v>
+        <v>141.1703948974609</v>
       </c>
       <c r="E481" t="n">
-        <v>0.031524658203125</v>
+        <v>-0.7904510498046875</v>
       </c>
     </row>
     <row r="482">
@@ -8631,10 +8631,10 @@
         <v>142.508323511621</v>
       </c>
       <c r="D482" t="n">
-        <v>141.9715423583984</v>
+        <v>146.1062316894531</v>
       </c>
       <c r="E482" t="n">
-        <v>0.536773681640625</v>
+        <v>-3.597915649414062</v>
       </c>
     </row>
     <row r="483">
@@ -8648,10 +8648,10 @@
         <v>144.526566787916</v>
       </c>
       <c r="D483" t="n">
-        <v>143.5433044433594</v>
+        <v>145.6506195068359</v>
       </c>
       <c r="E483" t="n">
-        <v>0.9832611083984375</v>
+        <v>-1.124053955078125</v>
       </c>
     </row>
     <row r="484">
@@ -8665,10 +8665,10 @@
         <v>146.363766354088</v>
       </c>
       <c r="D484" t="n">
-        <v>145.3669281005859</v>
+        <v>144.82421875</v>
       </c>
       <c r="E484" t="n">
-        <v>0.9968414306640625</v>
+        <v>1.53955078125</v>
       </c>
     </row>
     <row r="485">
@@ -8682,10 +8682,10 @@
         <v>148.04810308747</v>
       </c>
       <c r="D485" t="n">
-        <v>147.0068817138672</v>
+        <v>144.4034729003906</v>
       </c>
       <c r="E485" t="n">
-        <v>1.041213989257812</v>
+        <v>3.644622802734375</v>
       </c>
     </row>
     <row r="486">
@@ -8699,10 +8699,10 @@
         <v>149.636500024526</v>
       </c>
       <c r="D486" t="n">
-        <v>148.5783233642578</v>
+        <v>143.5999298095703</v>
       </c>
       <c r="E486" t="n">
-        <v>1.058181762695312</v>
+        <v>6.036575317382812</v>
       </c>
     </row>
     <row r="487">
@@ -8716,10 +8716,10 @@
         <v>151.193118974174</v>
       </c>
       <c r="D487" t="n">
-        <v>150.209228515625</v>
+        <v>142.9005279541016</v>
       </c>
       <c r="E487" t="n">
-        <v>0.98388671875</v>
+        <v>8.292587280273438</v>
       </c>
     </row>
     <row r="488">
@@ -8733,10 +8733,10 @@
         <v>152.769928971357</v>
       </c>
       <c r="D488" t="n">
-        <v>152.4446716308594</v>
+        <v>144.0588989257812</v>
       </c>
       <c r="E488" t="n">
-        <v>0.32525634765625</v>
+        <v>8.711029052734375</v>
       </c>
     </row>
     <row r="489">
@@ -8750,10 +8750,10 @@
         <v>154.406649606657</v>
       </c>
       <c r="D489" t="n">
-        <v>155.1735687255859</v>
+        <v>146.2647552490234</v>
       </c>
       <c r="E489" t="n">
-        <v>-0.7669219970703125</v>
+        <v>8.141891479492188</v>
       </c>
     </row>
     <row r="490">
@@ -8767,10 +8767,10 @@
         <v>156.106761670804</v>
       </c>
       <c r="D490" t="n">
-        <v>158.2380218505859</v>
+        <v>148.5572357177734</v>
       </c>
       <c r="E490" t="n">
-        <v>-2.131256103515625</v>
+        <v>7.549530029296875</v>
       </c>
     </row>
     <row r="491">
@@ -8784,10 +8784,10 @@
         <v>157.863985411716</v>
       </c>
       <c r="D491" t="n">
-        <v>160.3101043701172</v>
+        <v>150.5675506591797</v>
       </c>
       <c r="E491" t="n">
-        <v>-2.446121215820312</v>
+        <v>7.296432495117188</v>
       </c>
     </row>
     <row r="492">
@@ -8801,10 +8801,10 @@
         <v>159.722269667763</v>
       </c>
       <c r="D492" t="n">
-        <v>162.5549926757812</v>
+        <v>153.8173065185547</v>
       </c>
       <c r="E492" t="n">
-        <v>-2.832717895507812</v>
+        <v>5.90496826171875</v>
       </c>
     </row>
     <row r="493">
@@ -8818,10 +8818,10 @@
         <v>161.767623419939</v>
       </c>
       <c r="D493" t="n">
-        <v>163.3959197998047</v>
+        <v>155.8054351806641</v>
       </c>
       <c r="E493" t="n">
-        <v>-1.6282958984375</v>
+        <v>5.962188720703125</v>
       </c>
     </row>
     <row r="494">
@@ -8835,10 +8835,10 @@
         <v>164.016827955843</v>
       </c>
       <c r="D494" t="n">
-        <v>164.5054626464844</v>
+        <v>157.5509948730469</v>
       </c>
       <c r="E494" t="n">
-        <v>-0.4886322021484375</v>
+        <v>6.465835571289062</v>
       </c>
     </row>
     <row r="495">
@@ -8852,10 +8852,10 @@
         <v>166.387513968761</v>
       </c>
       <c r="D495" t="n">
-        <v>165.6885833740234</v>
+        <v>159.3507232666016</v>
       </c>
       <c r="E495" t="n">
-        <v>0.6989288330078125</v>
+        <v>7.036788940429688</v>
       </c>
     </row>
     <row r="496">
@@ -8869,10 +8869,10 @@
         <v>168.807264444714</v>
       </c>
       <c r="D496" t="n">
-        <v>167.5497283935547</v>
+        <v>161.3189544677734</v>
       </c>
       <c r="E496" t="n">
-        <v>1.257537841796875</v>
+        <v>7.488311767578125</v>
       </c>
     </row>
     <row r="497">
@@ -8886,10 +8886,10 @@
         <v>171.242556810676</v>
       </c>
       <c r="D497" t="n">
-        <v>170.4755706787109</v>
+        <v>164.5173492431641</v>
       </c>
       <c r="E497" t="n">
-        <v>0.7669830322265625</v>
+        <v>6.725204467773438</v>
       </c>
     </row>
     <row r="498">
@@ -8903,10 +8903,10 @@
         <v>173.709108388715</v>
       </c>
       <c r="D498" t="n">
-        <v>172.87939453125</v>
+        <v>166.5051574707031</v>
       </c>
       <c r="E498" t="n">
-        <v>0.8297119140625</v>
+        <v>7.203948974609375</v>
       </c>
     </row>
     <row r="499">
@@ -8920,10 +8920,10 @@
         <v>176.22479882031</v>
       </c>
       <c r="D499" t="n">
-        <v>174.8807983398438</v>
+        <v>168.6745758056641</v>
       </c>
       <c r="E499" t="n">
-        <v>1.343994140625</v>
+        <v>7.550216674804688</v>
       </c>
     </row>
     <row r="500">
@@ -8937,10 +8937,10 @@
         <v>178.838571731788</v>
       </c>
       <c r="D500" t="n">
-        <v>176.8153228759766</v>
+        <v>170.5955200195312</v>
       </c>
       <c r="E500" t="n">
-        <v>2.02325439453125</v>
+        <v>8.243057250976562</v>
       </c>
     </row>
     <row r="501">
@@ -8954,10 +8954,10 @@
         <v>181.582842380231</v>
       </c>
       <c r="D501" t="n">
-        <v>180.3795013427734</v>
+        <v>173.9925384521484</v>
       </c>
       <c r="E501" t="n">
-        <v>1.203338623046875</v>
+        <v>7.590301513671875</v>
       </c>
     </row>
     <row r="502">
@@ -8971,10 +8971,10 @@
         <v>184.365159273187</v>
       </c>
       <c r="D502" t="n">
-        <v>184.0466918945312</v>
+        <v>176.1675872802734</v>
       </c>
       <c r="E502" t="n">
-        <v>0.3184661865234375</v>
+        <v>8.19757080078125</v>
       </c>
     </row>
     <row r="503">
@@ -8988,10 +8988,10 @@
         <v>187.104079113293</v>
       </c>
       <c r="D503" t="n">
-        <v>188.2830352783203</v>
+        <v>179.2908172607422</v>
       </c>
       <c r="E503" t="n">
-        <v>-1.178955078125</v>
+        <v>7.813262939453125</v>
       </c>
     </row>
     <row r="504">
@@ -9005,10 +9005,10 @@
         <v>189.78946151721</v>
       </c>
       <c r="D504" t="n">
-        <v>190.3419189453125</v>
+        <v>181.2456665039062</v>
       </c>
       <c r="E504" t="n">
-        <v>-0.552459716796875</v>
+        <v>8.543792724609375</v>
       </c>
     </row>
     <row r="505">
@@ -9022,10 +9022,10 @@
         <v>192.358001129075</v>
       </c>
       <c r="D505" t="n">
-        <v>190.8817596435547</v>
+        <v>182.9333801269531</v>
       </c>
       <c r="E505" t="n">
-        <v>1.476242065429688</v>
+        <v>9.42462158203125</v>
       </c>
     </row>
     <row r="506">
@@ -9039,10 +9039,10 @@
         <v>194.773081982769</v>
       </c>
       <c r="D506" t="n">
-        <v>190.1673431396484</v>
+        <v>184.251220703125</v>
       </c>
       <c r="E506" t="n">
-        <v>4.605743408203125</v>
+        <v>10.52186584472656</v>
       </c>
     </row>
     <row r="507">
@@ -9056,10 +9056,10 @@
         <v>197.060393328079</v>
       </c>
       <c r="D507" t="n">
-        <v>191.6142578125</v>
+        <v>186.7757873535156</v>
       </c>
       <c r="E507" t="n">
-        <v>5.446136474609375</v>
+        <v>10.28460693359375</v>
       </c>
     </row>
     <row r="508">
@@ -9073,10 +9073,10 @@
         <v>199.28399025126</v>
       </c>
       <c r="D508" t="n">
-        <v>193.4189453125</v>
+        <v>188.7158355712891</v>
       </c>
       <c r="E508" t="n">
-        <v>5.86505126953125</v>
+        <v>10.56816101074219</v>
       </c>
     </row>
     <row r="509">
@@ -9090,10 +9090,10 @@
         <v>201.457976347494</v>
       </c>
       <c r="D509" t="n">
-        <v>198.8720703125</v>
+        <v>193.2705841064453</v>
       </c>
       <c r="E509" t="n">
-        <v>2.585906982421875</v>
+        <v>8.187393188476562</v>
       </c>
     </row>
     <row r="510">
@@ -9107,10 +9107,10 @@
         <v>203.552499145023</v>
       </c>
       <c r="D510" t="n">
-        <v>202.5905303955078</v>
+        <v>194.3308410644531</v>
       </c>
       <c r="E510" t="n">
-        <v>0.96197509765625</v>
+        <v>9.221664428710938</v>
       </c>
     </row>
     <row r="511">
@@ -9124,10 +9124,10 @@
         <v>205.580562096555</v>
       </c>
       <c r="D511" t="n">
-        <v>208.9136199951172</v>
+        <v>197.1433258056641</v>
       </c>
       <c r="E511" t="n">
-        <v>-3.333053588867188</v>
+        <v>8.437240600585938</v>
       </c>
     </row>
     <row r="512">
@@ -9141,10 +9141,10 @@
         <v>207.62409735083</v>
       </c>
       <c r="D512" t="n">
-        <v>214.2585906982422</v>
+        <v>201.0013732910156</v>
       </c>
       <c r="E512" t="n">
-        <v>-6.634490966796875</v>
+        <v>6.622726440429688</v>
       </c>
     </row>
     <row r="513">
@@ -9158,10 +9158,10 @@
         <v>209.716258190205</v>
       </c>
       <c r="D513" t="n">
-        <v>215.6180114746094</v>
+        <v>202.8586578369141</v>
       </c>
       <c r="E513" t="n">
-        <v>-5.901748657226562</v>
+        <v>6.85760498046875</v>
       </c>
     </row>
     <row r="514">
@@ -9175,10 +9175,10 @@
         <v>211.856662754547</v>
       </c>
       <c r="D514" t="n">
-        <v>215.5113677978516</v>
+        <v>205.3083801269531</v>
       </c>
       <c r="E514" t="n">
-        <v>-3.654708862304688</v>
+        <v>6.54827880859375</v>
       </c>
     </row>
     <row r="515">
@@ -9192,10 +9192,10 @@
         <v>214.079161903279</v>
       </c>
       <c r="D515" t="n">
-        <v>215.6788787841797</v>
+        <v>206.8055572509766</v>
       </c>
       <c r="E515" t="n">
-        <v>-1.599716186523438</v>
+        <v>7.273605346679688</v>
       </c>
     </row>
     <row r="516">
@@ -9209,10 +9209,10 @@
         <v>216.417301578074</v>
       </c>
       <c r="D516" t="n">
-        <v>216.826904296875</v>
+        <v>208.3311614990234</v>
       </c>
       <c r="E516" t="n">
-        <v>-0.40960693359375</v>
+        <v>8.086135864257812</v>
       </c>
     </row>
     <row r="517">
@@ -9226,10 +9226,10 @@
         <v>218.842105452637</v>
       </c>
       <c r="D517" t="n">
-        <v>218.1552734375</v>
+        <v>210.0976867675781</v>
       </c>
       <c r="E517" t="n">
-        <v>0.68682861328125</v>
+        <v>8.744415283203125</v>
       </c>
     </row>
     <row r="518">
@@ -9243,10 +9243,10 @@
         <v>221.347335111067</v>
       </c>
       <c r="D518" t="n">
-        <v>220.1519165039062</v>
+        <v>212.0313110351562</v>
       </c>
       <c r="E518" t="n">
-        <v>1.195419311523438</v>
+        <v>9.316024780273438</v>
       </c>
     </row>
     <row r="519">
@@ -9260,10 +9260,10 @@
         <v>223.994589242993</v>
       </c>
       <c r="D519" t="n">
-        <v>223.8934631347656</v>
+        <v>215.2447814941406</v>
       </c>
       <c r="E519" t="n">
-        <v>0.1011199951171875</v>
+        <v>8.749801635742188</v>
       </c>
     </row>
     <row r="520">
@@ -9277,10 +9277,10 @@
         <v>226.848207550975</v>
       </c>
       <c r="D520" t="n">
-        <v>227.1838684082031</v>
+        <v>217.4856109619141</v>
       </c>
       <c r="E520" t="n">
-        <v>-0.335662841796875</v>
+        <v>9.362594604492188</v>
       </c>
     </row>
     <row r="521">
@@ -9294,10 +9294,10 @@
         <v>229.926082484057</v>
       </c>
       <c r="D521" t="n">
-        <v>230.1618041992188</v>
+        <v>220.8401031494141</v>
       </c>
       <c r="E521" t="n">
-        <v>-0.2357177734375</v>
+        <v>9.085983276367188</v>
       </c>
     </row>
     <row r="522">
@@ -9311,10 +9311,10 @@
         <v>233.128897298419</v>
       </c>
       <c r="D522" t="n">
-        <v>232.1514892578125</v>
+        <v>222.8854370117188</v>
       </c>
       <c r="E522" t="n">
-        <v>0.9774017333984375</v>
+        <v>10.24345397949219</v>
       </c>
     </row>
     <row r="523">
@@ -9328,10 +9328,10 @@
         <v>236.321600056166</v>
       </c>
       <c r="D523" t="n">
-        <v>234.7481536865234</v>
+        <v>224.7908935546875</v>
       </c>
       <c r="E523" t="n">
-        <v>1.573440551757812</v>
+        <v>11.53070068359375</v>
       </c>
     </row>
     <row r="524">
@@ -9345,10 +9345,10 @@
         <v>239.367254532422</v>
       </c>
       <c r="D524" t="n">
-        <v>238.1392822265625</v>
+        <v>226.8780517578125</v>
       </c>
       <c r="E524" t="n">
-        <v>1.22796630859375</v>
+        <v>12.48919677734375</v>
       </c>
     </row>
     <row r="525">
@@ -9362,10 +9362,10 @@
         <v>242.216434064194</v>
       </c>
       <c r="D525" t="n">
-        <v>241.6703796386719</v>
+        <v>229.1741333007812</v>
       </c>
       <c r="E525" t="n">
-        <v>0.546051025390625</v>
+        <v>13.04229736328125</v>
       </c>
     </row>
     <row r="526">
@@ -9379,10 +9379,10 @@
         <v>244.923360079367</v>
       </c>
       <c r="D526" t="n">
-        <v>245.7837524414062</v>
+        <v>231.4039001464844</v>
       </c>
       <c r="E526" t="n">
-        <v>-0.8603973388671875</v>
+        <v>13.51945495605469</v>
       </c>
     </row>
     <row r="527">
@@ -9396,10 +9396,10 @@
         <v>247.486572001166</v>
       </c>
       <c r="D527" t="n">
-        <v>248.3459777832031</v>
+        <v>234.9101104736328</v>
       </c>
       <c r="E527" t="n">
-        <v>-0.859405517578125</v>
+        <v>12.57646179199219</v>
       </c>
     </row>
     <row r="528">
@@ -9413,10 +9413,10 @@
         <v>249.852230087918</v>
       </c>
       <c r="D528" t="n">
-        <v>250.0297546386719</v>
+        <v>237.3149108886719</v>
       </c>
       <c r="E528" t="n">
-        <v>-0.177520751953125</v>
+        <v>12.53732299804688</v>
       </c>
     </row>
     <row r="529">
@@ -9430,10 +9430,10 @@
         <v>252.010694206577</v>
       </c>
       <c r="D529" t="n">
-        <v>252.0490112304688</v>
+        <v>240.4415588378906</v>
       </c>
       <c r="E529" t="n">
-        <v>-0.0383148193359375</v>
+        <v>11.56913757324219</v>
       </c>
     </row>
     <row r="530">
@@ -9447,10 +9447,10 @@
         <v>253.946358505305</v>
       </c>
       <c r="D530" t="n">
-        <v>253.8490447998047</v>
+        <v>242.9593505859375</v>
       </c>
       <c r="E530" t="n">
-        <v>0.097320556640625</v>
+        <v>10.98701477050781</v>
       </c>
     </row>
     <row r="531">
@@ -9464,10 +9464,10 @@
         <v>255.703734271075</v>
       </c>
       <c r="D531" t="n">
-        <v>256.1656799316406</v>
+        <v>246.8200531005859</v>
       </c>
       <c r="E531" t="n">
-        <v>-0.461944580078125</v>
+        <v>8.883682250976562</v>
       </c>
     </row>
     <row r="532">
@@ -9481,10 +9481,10 @@
         <v>257.30655271874</v>
       </c>
       <c r="D532" t="n">
-        <v>258.1964111328125</v>
+        <v>249.4128875732422</v>
       </c>
       <c r="E532" t="n">
-        <v>-0.889862060546875</v>
+        <v>7.893661499023438</v>
       </c>
     </row>
   </sheetData>

--- a/data/stainless_steel_304_with_predictions.xlsx
+++ b/data/stainless_steel_304_with_predictions.xlsx
@@ -471,10 +471,10 @@
         <v>395.603300876209</v>
       </c>
       <c r="D2" t="n">
-        <v>418.48779296875</v>
+        <v>417.229736328125</v>
       </c>
       <c r="E2" t="n">
-        <v>-22.88449096679688</v>
+        <v>-21.62643432617188</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>399.477725504481</v>
       </c>
       <c r="D3" t="n">
-        <v>418.9270935058594</v>
+        <v>418.6798706054688</v>
       </c>
       <c r="E3" t="n">
-        <v>-19.44937133789062</v>
+        <v>-19.2021484375</v>
       </c>
     </row>
     <row r="4">
@@ -505,10 +505,10 @@
         <v>403.129622067849</v>
       </c>
       <c r="D4" t="n">
-        <v>419.4153442382812</v>
+        <v>420.1627197265625</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.28573608398438</v>
+        <v>-17.03311157226562</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>406.555897479841</v>
       </c>
       <c r="D5" t="n">
-        <v>419.957275390625</v>
+        <v>421.6616516113281</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.4013671875</v>
+        <v>-15.10574340820312</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         <v>409.757028790634</v>
       </c>
       <c r="D6" t="n">
-        <v>420.5559387207031</v>
+        <v>423.1623229980469</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.79891967773438</v>
+        <v>-13.40530395507812</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>412.737171626757</v>
       </c>
       <c r="D7" t="n">
-        <v>421.2115478515625</v>
+        <v>424.6572875976562</v>
       </c>
       <c r="E7" t="n">
-        <v>-8.474365234375</v>
+        <v>-11.92010498046875</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>415.510401390927</v>
       </c>
       <c r="D8" t="n">
-        <v>421.923095703125</v>
+        <v>426.1413269042969</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.412689208984375</v>
+        <v>-10.63092041015625</v>
       </c>
     </row>
     <row r="9">
@@ -590,10 +590,10 @@
         <v>418.090374171948</v>
       </c>
       <c r="D9" t="n">
-        <v>422.6917724609375</v>
+        <v>427.6015014648438</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.601409912109375</v>
+        <v>-9.511138916015625</v>
       </c>
     </row>
     <row r="10">
@@ -607,10 +607,10 @@
         <v>420.491343142817</v>
       </c>
       <c r="D10" t="n">
-        <v>423.5166015625</v>
+        <v>429.0297546386719</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.0252685546875</v>
+        <v>-8.538421630859375</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         <v>422.72583850844</v>
       </c>
       <c r="D11" t="n">
-        <v>424.3934631347656</v>
+        <v>430.4269409179688</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.667633056640625</v>
+        <v>-7.70111083984375</v>
       </c>
     </row>
     <row r="12">
@@ -641,10 +641,10 @@
         <v>424.807830694658</v>
       </c>
       <c r="D12" t="n">
-        <v>425.3181762695312</v>
+        <v>431.7953491210938</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.510345458984375</v>
+        <v>-6.987518310546875</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>426.7522086401821</v>
       </c>
       <c r="D13" t="n">
-        <v>426.2873229980469</v>
+        <v>433.1353759765625</v>
       </c>
       <c r="E13" t="n">
-        <v>0.464874267578125</v>
+        <v>-6.3831787109375</v>
       </c>
     </row>
     <row r="14">
@@ -675,10 +675,10 @@
         <v>428.5692326158421</v>
       </c>
       <c r="D14" t="n">
-        <v>427.2972412109375</v>
+        <v>434.4484558105469</v>
       </c>
       <c r="E14" t="n">
-        <v>1.272003173828125</v>
+        <v>-5.87921142578125</v>
       </c>
     </row>
     <row r="15">
@@ -692,10 +692,10 @@
         <v>430.2810408094271</v>
       </c>
       <c r="D15" t="n">
-        <v>428.344482421875</v>
+        <v>435.7366333007812</v>
       </c>
       <c r="E15" t="n">
-        <v>1.936553955078125</v>
+        <v>-5.455596923828125</v>
       </c>
     </row>
     <row r="16">
@@ -709,10 +709,10 @@
         <v>431.913928949627</v>
       </c>
       <c r="D16" t="n">
-        <v>429.4258728027344</v>
+        <v>437.0013427734375</v>
       </c>
       <c r="E16" t="n">
-        <v>2.488067626953125</v>
+        <v>-5.08740234375</v>
       </c>
     </row>
     <row r="17">
@@ -726,10 +726,10 @@
         <v>433.489415394423</v>
       </c>
       <c r="D17" t="n">
-        <v>430.539794921875</v>
+        <v>438.2398071289062</v>
       </c>
       <c r="E17" t="n">
-        <v>2.949615478515625</v>
+        <v>-4.750396728515625</v>
       </c>
     </row>
     <row r="18">
@@ -743,10 +743,10 @@
         <v>435.0243126933601</v>
       </c>
       <c r="D18" t="n">
-        <v>431.6826171875</v>
+        <v>439.4551391601562</v>
       </c>
       <c r="E18" t="n">
-        <v>3.341705322265625</v>
+        <v>-4.430816650390625</v>
       </c>
     </row>
     <row r="19">
@@ -760,10 +760,10 @@
         <v>436.527803060661</v>
       </c>
       <c r="D19" t="n">
-        <v>432.8517150878906</v>
+        <v>440.648681640625</v>
       </c>
       <c r="E19" t="n">
-        <v>3.67608642578125</v>
+        <v>-4.120880126953125</v>
       </c>
     </row>
     <row r="20">
@@ -777,10 +777,10 @@
         <v>438.001682240205</v>
       </c>
       <c r="D20" t="n">
-        <v>434.0453491210938</v>
+        <v>441.8192138671875</v>
       </c>
       <c r="E20" t="n">
-        <v>3.956329345703125</v>
+        <v>-3.817535400390625</v>
       </c>
     </row>
     <row r="21">
@@ -794,10 +794,10 @@
         <v>439.443744523748</v>
       </c>
       <c r="D21" t="n">
-        <v>435.2600402832031</v>
+        <v>442.971435546875</v>
       </c>
       <c r="E21" t="n">
-        <v>4.1837158203125</v>
+        <v>-3.527679443359375</v>
       </c>
     </row>
     <row r="22">
@@ -811,10 +811,10 @@
         <v>440.848074323229</v>
       </c>
       <c r="D22" t="n">
-        <v>436.4932250976562</v>
+        <v>444.1076354980469</v>
       </c>
       <c r="E22" t="n">
-        <v>4.3548583984375</v>
+        <v>-3.259552001953125</v>
       </c>
     </row>
     <row r="23">
@@ -828,10 +828,10 @@
         <v>442.208071069627</v>
       </c>
       <c r="D23" t="n">
-        <v>437.7439575195312</v>
+        <v>445.2265014648438</v>
       </c>
       <c r="E23" t="n">
-        <v>4.464111328125</v>
+        <v>-3.0184326171875</v>
       </c>
     </row>
     <row r="24">
@@ -845,10 +845,10 @@
         <v>443.519542436043</v>
       </c>
       <c r="D24" t="n">
-        <v>439.0098876953125</v>
+        <v>446.3299560546875</v>
       </c>
       <c r="E24" t="n">
-        <v>4.5096435546875</v>
+        <v>-2.8104248046875</v>
       </c>
     </row>
     <row r="25">
@@ -862,10 +862,10 @@
         <v>444.7838075429399</v>
       </c>
       <c r="D25" t="n">
-        <v>440.2900085449219</v>
+        <v>447.4176025390625</v>
       </c>
       <c r="E25" t="n">
-        <v>4.493804931640625</v>
+        <v>-2.6337890625</v>
       </c>
     </row>
     <row r="26">
@@ -879,10 +879,10 @@
         <v>446.004589943748</v>
       </c>
       <c r="D26" t="n">
-        <v>441.580322265625</v>
+        <v>448.4974670410156</v>
       </c>
       <c r="E26" t="n">
-        <v>4.42425537109375</v>
+        <v>-2.492889404296875</v>
       </c>
     </row>
     <row r="27">
@@ -896,10 +896,10 @@
         <v>447.185365792356</v>
       </c>
       <c r="D27" t="n">
-        <v>442.8803100585938</v>
+        <v>449.5694580078125</v>
       </c>
       <c r="E27" t="n">
-        <v>4.3050537109375</v>
+        <v>-2.38409423828125</v>
       </c>
     </row>
     <row r="28">
@@ -913,10 +913,10 @@
         <v>448.33179646193</v>
       </c>
       <c r="D28" t="n">
-        <v>444.1883544921875</v>
+        <v>450.635986328125</v>
       </c>
       <c r="E28" t="n">
-        <v>4.1434326171875</v>
+        <v>-2.30419921875</v>
       </c>
     </row>
     <row r="29">
@@ -930,10 +930,10 @@
         <v>449.4430736196809</v>
       </c>
       <c r="D29" t="n">
-        <v>445.503173828125</v>
+        <v>451.69921875</v>
       </c>
       <c r="E29" t="n">
-        <v>3.939910888671875</v>
+        <v>-2.256134033203125</v>
       </c>
     </row>
     <row r="30">
@@ -947,10 +947,10 @@
         <v>450.516546689884</v>
       </c>
       <c r="D30" t="n">
-        <v>446.8231506347656</v>
+        <v>452.7640075683594</v>
       </c>
       <c r="E30" t="n">
-        <v>3.693389892578125</v>
+        <v>-2.247467041015625</v>
       </c>
     </row>
     <row r="31">
@@ -964,10 +964,10 @@
         <v>451.551415719795</v>
       </c>
       <c r="D31" t="n">
-        <v>448.1480102539062</v>
+        <v>453.8299560546875</v>
       </c>
       <c r="E31" t="n">
-        <v>3.403411865234375</v>
+        <v>-2.278533935546875</v>
       </c>
     </row>
     <row r="32">
@@ -981,10 +981,10 @@
         <v>452.551730855008</v>
       </c>
       <c r="D32" t="n">
-        <v>449.4772338867188</v>
+        <v>454.8990173339844</v>
       </c>
       <c r="E32" t="n">
-        <v>3.074493408203125</v>
+        <v>-2.3472900390625</v>
       </c>
     </row>
     <row r="33">
@@ -998,10 +998,10 @@
         <v>453.5281279871621</v>
       </c>
       <c r="D33" t="n">
-        <v>450.8108520507812</v>
+        <v>455.9706115722656</v>
       </c>
       <c r="E33" t="n">
-        <v>2.71728515625</v>
+        <v>-2.442474365234375</v>
       </c>
     </row>
     <row r="34">
@@ -1015,10 +1015,10 @@
         <v>454.494356195184</v>
       </c>
       <c r="D34" t="n">
-        <v>452.150634765625</v>
+        <v>457.038818359375</v>
       </c>
       <c r="E34" t="n">
-        <v>2.343719482421875</v>
+        <v>-2.544464111328125</v>
       </c>
     </row>
     <row r="35">
@@ -1032,10 +1032,10 @@
         <v>455.456910103284</v>
       </c>
       <c r="D35" t="n">
-        <v>453.4964599609375</v>
+        <v>458.1029663085938</v>
       </c>
       <c r="E35" t="n">
-        <v>1.96044921875</v>
+        <v>-2.64605712890625</v>
       </c>
     </row>
     <row r="36">
@@ -1049,10 +1049,10 @@
         <v>456.419549877027</v>
       </c>
       <c r="D36" t="n">
-        <v>454.8463134765625</v>
+        <v>459.16796875</v>
       </c>
       <c r="E36" t="n">
-        <v>1.5732421875</v>
+        <v>-2.7484130859375</v>
       </c>
     </row>
     <row r="37">
@@ -1066,10 +1066,10 @@
         <v>457.383368841973</v>
       </c>
       <c r="D37" t="n">
-        <v>456.1995544433594</v>
+        <v>460.2359619140625</v>
       </c>
       <c r="E37" t="n">
-        <v>1.183807373046875</v>
+        <v>-2.85260009765625</v>
       </c>
     </row>
     <row r="38">
@@ -1083,10 +1083,10 @@
         <v>458.346881056813</v>
       </c>
       <c r="D38" t="n">
-        <v>457.5570373535156</v>
+        <v>461.303955078125</v>
       </c>
       <c r="E38" t="n">
-        <v>0.78985595703125</v>
+        <v>-2.957061767578125</v>
       </c>
     </row>
     <row r="39">
@@ -1100,10 +1100,10 @@
         <v>459.3056902717281</v>
       </c>
       <c r="D39" t="n">
-        <v>458.919189453125</v>
+        <v>462.3700256347656</v>
       </c>
       <c r="E39" t="n">
-        <v>0.386505126953125</v>
+        <v>-3.0643310546875</v>
       </c>
     </row>
     <row r="40">
@@ -1117,10 +1117,10 @@
         <v>460.257071814311</v>
       </c>
       <c r="D40" t="n">
-        <v>460.2855529785156</v>
+        <v>463.4347229003906</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.028472900390625</v>
+        <v>-3.177642822265625</v>
       </c>
     </row>
     <row r="41">
@@ -1134,10 +1134,10 @@
         <v>461.211656546065</v>
       </c>
       <c r="D41" t="n">
-        <v>461.656005859375</v>
+        <v>464.4974975585938</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.4443359375</v>
+        <v>-3.28582763671875</v>
       </c>
     </row>
     <row r="42">
@@ -1151,10 +1151,10 @@
         <v>462.176666239077</v>
       </c>
       <c r="D42" t="n">
-        <v>463.0300903320312</v>
+        <v>465.5594482421875</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.853424072265625</v>
+        <v>-3.382781982421875</v>
       </c>
     </row>
     <row r="43">
@@ -1168,10 +1168,10 @@
         <v>463.150431838265</v>
       </c>
       <c r="D43" t="n">
-        <v>464.4074401855469</v>
+        <v>466.6209716796875</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.25701904296875</v>
+        <v>-3.470550537109375</v>
       </c>
     </row>
     <row r="44">
@@ -1185,10 +1185,10 @@
         <v>464.13087981713</v>
       </c>
       <c r="D44" t="n">
-        <v>465.7876586914062</v>
+        <v>467.6829223632812</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.656768798828125</v>
+        <v>-3.552032470703125</v>
       </c>
     </row>
     <row r="45">
@@ -1202,10 +1202,10 @@
         <v>465.11381737751</v>
       </c>
       <c r="D45" t="n">
-        <v>467.1712036132812</v>
+        <v>468.7436828613281</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.057373046875</v>
+        <v>-3.629852294921875</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>466.093449295937</v>
       </c>
       <c r="D46" t="n">
-        <v>468.3474731445312</v>
+        <v>469.8061218261719</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.2540283203125</v>
+        <v>-3.712677001953125</v>
       </c>
     </row>
     <row r="47">
@@ -1236,10 +1236,10 @@
         <v>467.065282627381</v>
       </c>
       <c r="D47" t="n">
-        <v>469.0957641601562</v>
+        <v>470.8722229003906</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.030487060546875</v>
+        <v>-3.80694580078125</v>
       </c>
     </row>
     <row r="48">
@@ -1253,10 +1253,10 @@
         <v>468.028365014842</v>
       </c>
       <c r="D48" t="n">
-        <v>469.8453369140625</v>
+        <v>471.9401245117188</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.816986083984375</v>
+        <v>-3.911773681640625</v>
       </c>
     </row>
     <row r="49">
@@ -1270,10 +1270,10 @@
         <v>468.980682897926</v>
       </c>
       <c r="D49" t="n">
-        <v>470.5960083007812</v>
+        <v>472.9769897460938</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.615325927734375</v>
+        <v>-3.996307373046875</v>
       </c>
     </row>
     <row r="50">
@@ -1287,10 +1287,10 @@
         <v>469.9191282195241</v>
       </c>
       <c r="D50" t="n">
-        <v>471.346923828125</v>
+        <v>473.8587341308594</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.42779541015625</v>
+        <v>-3.939605712890625</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>470.842777793803</v>
       </c>
       <c r="D51" t="n">
-        <v>472.0988159179688</v>
+        <v>474.7431030273438</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.25604248046875</v>
+        <v>-3.90032958984375</v>
       </c>
     </row>
     <row r="52">
@@ -1321,10 +1321,10 @@
         <v>471.7556512590941</v>
       </c>
       <c r="D52" t="n">
-        <v>472.8510131835938</v>
+        <v>475.6324768066406</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.095367431640625</v>
+        <v>-3.8768310546875</v>
       </c>
     </row>
     <row r="53">
@@ -1338,10 +1338,10 @@
         <v>472.657554171301</v>
       </c>
       <c r="D53" t="n">
-        <v>473.6059875488281</v>
+        <v>476.5199890136719</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.94842529296875</v>
+        <v>-3.8624267578125</v>
       </c>
     </row>
     <row r="54">
@@ -1355,10 +1355,10 @@
         <v>473.543736147793</v>
       </c>
       <c r="D54" t="n">
-        <v>474.3638610839844</v>
+        <v>477.40478515625</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.82012939453125</v>
+        <v>-3.861053466796875</v>
       </c>
     </row>
     <row r="55">
@@ -1372,10 +1372,10 @@
         <v>474.410940570323</v>
       </c>
       <c r="D55" t="n">
-        <v>475.1248779296875</v>
+        <v>478.2855834960938</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.71392822265625</v>
+        <v>-3.8746337890625</v>
       </c>
     </row>
     <row r="56">
@@ -1389,10 +1389,10 @@
         <v>475.262352803119</v>
       </c>
       <c r="D56" t="n">
-        <v>475.8889770507812</v>
+        <v>479.1617431640625</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.626617431640625</v>
+        <v>-3.899383544921875</v>
       </c>
     </row>
     <row r="57">
@@ -1406,10 +1406,10 @@
         <v>476.1052025488499</v>
       </c>
       <c r="D57" t="n">
-        <v>476.6561889648438</v>
+        <v>480.03271484375</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.550994873046875</v>
+        <v>-3.927520751953125</v>
       </c>
     </row>
     <row r="58">
@@ -1423,10 +1423,10 @@
         <v>476.948782171043</v>
       </c>
       <c r="D58" t="n">
-        <v>477.4253540039062</v>
+        <v>480.9005737304688</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.4765625</v>
+        <v>-3.9517822265625</v>
       </c>
     </row>
     <row r="59">
@@ -1440,10 +1440,10 @@
         <v>477.802196933531</v>
       </c>
       <c r="D59" t="n">
-        <v>478.1982727050781</v>
+        <v>481.7599792480469</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.396087646484375</v>
+        <v>-3.957794189453125</v>
       </c>
     </row>
     <row r="60">
@@ -1457,10 +1457,10 @@
         <v>478.667774289469</v>
       </c>
       <c r="D60" t="n">
-        <v>478.9749755859375</v>
+        <v>482.6093139648438</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.30718994140625</v>
+        <v>-3.9415283203125</v>
       </c>
     </row>
     <row r="61">
@@ -1474,10 +1474,10 @@
         <v>479.542533797816</v>
       </c>
       <c r="D61" t="n">
-        <v>479.7554931640625</v>
+        <v>483.447265625</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.21295166015625</v>
+        <v>-3.90472412109375</v>
       </c>
     </row>
     <row r="62">
@@ -1491,10 +1491,10 @@
         <v>480.420709306088</v>
       </c>
       <c r="D62" t="n">
-        <v>480.5372924804688</v>
+        <v>484.279541015625</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1165771484375</v>
+        <v>-3.85882568359375</v>
       </c>
     </row>
     <row r="63">
@@ -1508,10 +1508,10 @@
         <v>481.298531072099</v>
       </c>
       <c r="D63" t="n">
-        <v>481.3170776367188</v>
+        <v>485.1151733398438</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.0185546875</v>
+        <v>-3.816650390625</v>
       </c>
     </row>
     <row r="64">
@@ -1525,10 +1525,10 @@
         <v>482.177826573142</v>
       </c>
       <c r="D64" t="n">
-        <v>482.0953979492188</v>
+        <v>485.953125</v>
       </c>
       <c r="E64" t="n">
-        <v>0.082427978515625</v>
+        <v>-3.775299072265625</v>
       </c>
     </row>
     <row r="65">
@@ -1542,10 +1542,10 @@
         <v>483.060910808503</v>
       </c>
       <c r="D65" t="n">
-        <v>482.8726806640625</v>
+        <v>486.7923583984375</v>
       </c>
       <c r="E65" t="n">
-        <v>0.188232421875</v>
+        <v>-3.7314453125</v>
       </c>
     </row>
     <row r="66">
@@ -1559,10 +1559,10 @@
         <v>483.949912896613</v>
       </c>
       <c r="D66" t="n">
-        <v>483.6481323242188</v>
+        <v>487.6357421875</v>
       </c>
       <c r="E66" t="n">
-        <v>0.301788330078125</v>
+        <v>-3.685821533203125</v>
       </c>
     </row>
     <row r="67">
@@ -1576,10 +1576,10 @@
         <v>484.844975749093</v>
       </c>
       <c r="D67" t="n">
-        <v>484.4210815429688</v>
+        <v>488.485595703125</v>
       </c>
       <c r="E67" t="n">
-        <v>0.42388916015625</v>
+        <v>-3.640625</v>
       </c>
     </row>
     <row r="68">
@@ -1593,10 +1593,10 @@
         <v>485.744020357855</v>
       </c>
       <c r="D68" t="n">
-        <v>485.1913452148438</v>
+        <v>489.3433532714844</v>
       </c>
       <c r="E68" t="n">
-        <v>0.55267333984375</v>
+        <v>-3.599334716796875</v>
       </c>
     </row>
     <row r="69">
@@ -1610,10 +1610,10 @@
         <v>486.642665222879</v>
       </c>
       <c r="D69" t="n">
-        <v>485.9592895507812</v>
+        <v>490.2092590332031</v>
       </c>
       <c r="E69" t="n">
-        <v>0.683380126953125</v>
+        <v>-3.56658935546875</v>
       </c>
     </row>
     <row r="70">
@@ -1627,10 +1627,10 @@
         <v>487.537224992439</v>
       </c>
       <c r="D70" t="n">
-        <v>486.7257690429688</v>
+        <v>491.0814208984375</v>
       </c>
       <c r="E70" t="n">
-        <v>0.81146240234375</v>
+        <v>-3.544189453125</v>
       </c>
     </row>
     <row r="71">
@@ -1644,10 +1644,10 @@
         <v>488.420856269206</v>
       </c>
       <c r="D71" t="n">
-        <v>487.4917907714844</v>
+        <v>491.958251953125</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9290771484375</v>
+        <v>-3.537384033203125</v>
       </c>
     </row>
     <row r="72">
@@ -1661,10 +1661,10 @@
         <v>489.2896929436931</v>
       </c>
       <c r="D72" t="n">
-        <v>488.2587890625</v>
+        <v>492.835693359375</v>
       </c>
       <c r="E72" t="n">
-        <v>1.030914306640625</v>
+        <v>-3.545989990234375</v>
       </c>
     </row>
     <row r="73">
@@ -1678,10 +1678,10 @@
         <v>490.1427074516311</v>
       </c>
       <c r="D73" t="n">
-        <v>489.0282287597656</v>
+        <v>493.7094116210938</v>
       </c>
       <c r="E73" t="n">
-        <v>1.114471435546875</v>
+        <v>-3.56671142578125</v>
       </c>
     </row>
     <row r="74">
@@ -1695,10 +1695,10 @@
         <v>490.983261379538</v>
       </c>
       <c r="D74" t="n">
-        <v>489.7986145019531</v>
+        <v>494.5831909179688</v>
       </c>
       <c r="E74" t="n">
-        <v>1.184661865234375</v>
+        <v>-3.59991455078125</v>
       </c>
     </row>
     <row r="75">
@@ -1712,10 +1712,10 @@
         <v>491.813853618332</v>
       </c>
       <c r="D75" t="n">
-        <v>490.5693969726562</v>
+        <v>495.4587707519531</v>
       </c>
       <c r="E75" t="n">
-        <v>1.24444580078125</v>
+        <v>-3.644927978515625</v>
       </c>
     </row>
     <row r="76">
@@ -1729,10 +1729,10 @@
         <v>492.634286527768</v>
       </c>
       <c r="D76" t="n">
-        <v>491.3410949707031</v>
+        <v>496.3341674804688</v>
       </c>
       <c r="E76" t="n">
-        <v>1.293182373046875</v>
+        <v>-3.69989013671875</v>
       </c>
     </row>
     <row r="77">
@@ -1746,10 +1746,10 @@
         <v>493.447403437293</v>
       </c>
       <c r="D77" t="n">
-        <v>492.1147766113281</v>
+        <v>497.206787109375</v>
       </c>
       <c r="E77" t="n">
-        <v>1.3326416015625</v>
+        <v>-3.759368896484375</v>
       </c>
     </row>
     <row r="78">
@@ -1763,10 +1763,10 @@
         <v>494.2590632122991</v>
       </c>
       <c r="D78" t="n">
-        <v>492.890380859375</v>
+        <v>498.0762329101562</v>
       </c>
       <c r="E78" t="n">
-        <v>1.368682861328125</v>
+        <v>-3.817169189453125</v>
       </c>
     </row>
     <row r="79">
@@ -1780,10 +1780,10 @@
         <v>495.069036974399</v>
       </c>
       <c r="D79" t="n">
-        <v>493.6680603027344</v>
+        <v>498.9412841796875</v>
       </c>
       <c r="E79" t="n">
-        <v>1.400970458984375</v>
+        <v>-3.87225341796875</v>
       </c>
     </row>
     <row r="80">
@@ -1797,10 +1797,10 @@
         <v>495.8777053753091</v>
       </c>
       <c r="D80" t="n">
-        <v>494.4472961425781</v>
+        <v>499.8026733398438</v>
       </c>
       <c r="E80" t="n">
-        <v>1.430419921875</v>
+        <v>-3.924957275390625</v>
       </c>
     </row>
     <row r="81">
@@ -1814,10 +1814,10 @@
         <v>496.69020134807</v>
       </c>
       <c r="D81" t="n">
-        <v>495.2271118164062</v>
+        <v>500.6631469726562</v>
       </c>
       <c r="E81" t="n">
-        <v>1.463104248046875</v>
+        <v>-3.972930908203125</v>
       </c>
     </row>
     <row r="82">
@@ -1831,10 +1831,10 @@
         <v>497.5100296993839</v>
       </c>
       <c r="D82" t="n">
-        <v>496.0060424804688</v>
+        <v>501.526611328125</v>
       </c>
       <c r="E82" t="n">
-        <v>1.503997802734375</v>
+        <v>-4.016571044921875</v>
       </c>
     </row>
     <row r="83">
@@ -1848,10 +1848,10 @@
         <v>498.341642030644</v>
       </c>
       <c r="D83" t="n">
-        <v>496.7841186523438</v>
+        <v>502.3935546875</v>
       </c>
       <c r="E83" t="n">
-        <v>1.557525634765625</v>
+        <v>-4.051910400390625</v>
       </c>
     </row>
     <row r="84">
@@ -1865,10 +1865,10 @@
         <v>499.184959764205</v>
       </c>
       <c r="D84" t="n">
-        <v>497.56103515625</v>
+        <v>503.2649230957031</v>
       </c>
       <c r="E84" t="n">
-        <v>1.623931884765625</v>
+        <v>-4.0799560546875</v>
       </c>
     </row>
     <row r="85">
@@ -1882,10 +1882,10 @@
         <v>500.036474759567</v>
       </c>
       <c r="D85" t="n">
-        <v>498.3380126953125</v>
+        <v>504.1380004882812</v>
       </c>
       <c r="E85" t="n">
-        <v>1.698455810546875</v>
+        <v>-4.101531982421875</v>
       </c>
     </row>
     <row r="86">
@@ -1899,10 +1899,10 @@
         <v>500.893958518343</v>
       </c>
       <c r="D86" t="n">
-        <v>499.1146240234375</v>
+        <v>505.0143127441406</v>
       </c>
       <c r="E86" t="n">
-        <v>1.779327392578125</v>
+        <v>-4.120361328125</v>
       </c>
     </row>
     <row r="87">
@@ -1916,10 +1916,10 @@
         <v>501.75496063733</v>
       </c>
       <c r="D87" t="n">
-        <v>499.8914489746094</v>
+        <v>505.8921203613281</v>
       </c>
       <c r="E87" t="n">
-        <v>1.863525390625</v>
+        <v>-4.13714599609375</v>
       </c>
     </row>
     <row r="88">
@@ -1933,10 +1933,10 @@
         <v>502.615028776655</v>
       </c>
       <c r="D88" t="n">
-        <v>500.6702270507812</v>
+        <v>506.766845703125</v>
       </c>
       <c r="E88" t="n">
-        <v>1.944793701171875</v>
+        <v>-4.151824951171875</v>
       </c>
     </row>
     <row r="89">
@@ -1950,10 +1950,10 @@
         <v>503.4725272339761</v>
       </c>
       <c r="D89" t="n">
-        <v>501.451416015625</v>
+        <v>507.6362915039062</v>
       </c>
       <c r="E89" t="n">
-        <v>2.0211181640625</v>
+        <v>-4.16375732421875</v>
       </c>
     </row>
     <row r="90">
@@ -1967,10 +1967,10 @@
         <v>504.329045479308</v>
       </c>
       <c r="D90" t="n">
-        <v>502.2357788085938</v>
+        <v>508.4977416992188</v>
       </c>
       <c r="E90" t="n">
-        <v>2.09326171875</v>
+        <v>-4.168701171875</v>
       </c>
     </row>
     <row r="91">
@@ -1984,10 +1984,10 @@
         <v>505.187877626213</v>
       </c>
       <c r="D91" t="n">
-        <v>503.0223693847656</v>
+        <v>509.352783203125</v>
       </c>
       <c r="E91" t="n">
-        <v>2.165496826171875</v>
+        <v>-4.1649169921875</v>
       </c>
     </row>
     <row r="92">
@@ -2001,10 +2001,10 @@
         <v>506.045120564935</v>
       </c>
       <c r="D92" t="n">
-        <v>503.8082885742188</v>
+        <v>510.2089538574219</v>
       </c>
       <c r="E92" t="n">
-        <v>2.236846923828125</v>
+        <v>-4.163818359375</v>
       </c>
     </row>
     <row r="93">
@@ -2018,10 +2018,10 @@
         <v>506.894402650837</v>
       </c>
       <c r="D93" t="n">
-        <v>504.5933837890625</v>
+        <v>511.0667114257812</v>
       </c>
       <c r="E93" t="n">
-        <v>2.301025390625</v>
+        <v>-4.17230224609375</v>
       </c>
     </row>
     <row r="94">
@@ -2035,10 +2035,10 @@
         <v>507.729759959008</v>
       </c>
       <c r="D94" t="n">
-        <v>505.3799438476562</v>
+        <v>511.9201049804688</v>
       </c>
       <c r="E94" t="n">
-        <v>2.349822998046875</v>
+        <v>-4.190338134765625</v>
       </c>
     </row>
     <row r="95">
@@ -2052,10 +2052,10 @@
         <v>508.548500683855</v>
       </c>
       <c r="D95" t="n">
-        <v>506.1670532226562</v>
+        <v>512.7706909179688</v>
       </c>
       <c r="E95" t="n">
-        <v>2.381439208984375</v>
+        <v>-4.222198486328125</v>
       </c>
     </row>
     <row r="96">
@@ -2069,10 +2069,10 @@
         <v>509.35051551836</v>
       </c>
       <c r="D96" t="n">
-        <v>506.9523315429688</v>
+        <v>513.6251831054688</v>
       </c>
       <c r="E96" t="n">
-        <v>2.398193359375</v>
+        <v>-4.274658203125</v>
       </c>
     </row>
     <row r="97">
@@ -2086,10 +2086,10 @@
         <v>510.1390004948551</v>
       </c>
       <c r="D97" t="n">
-        <v>507.7348022460938</v>
+        <v>514.4623413085938</v>
       </c>
       <c r="E97" t="n">
-        <v>2.404205322265625</v>
+        <v>-4.323333740234375</v>
       </c>
     </row>
     <row r="98">
@@ -2103,10 +2103,10 @@
         <v>510.916598314415</v>
       </c>
       <c r="D98" t="n">
-        <v>508.5154113769531</v>
+        <v>515.2598266601562</v>
       </c>
       <c r="E98" t="n">
-        <v>2.40118408203125</v>
+        <v>-4.343231201171875</v>
       </c>
     </row>
     <row r="99">
@@ -2120,10 +2120,10 @@
         <v>511.689313919243</v>
       </c>
       <c r="D99" t="n">
-        <v>509.2951354980469</v>
+        <v>516.0611572265625</v>
       </c>
       <c r="E99" t="n">
-        <v>2.3941650390625</v>
+        <v>-4.371856689453125</v>
       </c>
     </row>
     <row r="100">
@@ -2137,10 +2137,10 @@
         <v>512.462492884584</v>
       </c>
       <c r="D100" t="n">
-        <v>510.074462890625</v>
+        <v>516.8656005859375</v>
       </c>
       <c r="E100" t="n">
-        <v>2.38800048828125</v>
+        <v>-4.40313720703125</v>
       </c>
     </row>
     <row r="101">
@@ -2154,10 +2154,10 @@
         <v>513.237101541007</v>
       </c>
       <c r="D101" t="n">
-        <v>510.8543090820312</v>
+        <v>517.669921875</v>
       </c>
       <c r="E101" t="n">
-        <v>2.3828125</v>
+        <v>-4.43280029296875</v>
       </c>
     </row>
     <row r="102">
@@ -2171,10 +2171,10 @@
         <v>514.012907844708</v>
       </c>
       <c r="D102" t="n">
-        <v>511.6348876953125</v>
+        <v>518.4740600585938</v>
       </c>
       <c r="E102" t="n">
-        <v>2.37799072265625</v>
+        <v>-4.461181640625</v>
       </c>
     </row>
     <row r="103">
@@ -2188,10 +2188,10 @@
         <v>514.794184775429</v>
       </c>
       <c r="D103" t="n">
-        <v>512.415283203125</v>
+        <v>519.2802734375</v>
       </c>
       <c r="E103" t="n">
-        <v>2.37890625</v>
+        <v>-4.486083984375</v>
       </c>
     </row>
     <row r="104">
@@ -2205,10 +2205,10 @@
         <v>515.585042287075</v>
       </c>
       <c r="D104" t="n">
-        <v>513.19677734375</v>
+        <v>520.0853271484375</v>
       </c>
       <c r="E104" t="n">
-        <v>2.38824462890625</v>
+        <v>-4.50030517578125</v>
       </c>
     </row>
     <row r="105">
@@ -2222,10 +2222,10 @@
         <v>516.382043385204</v>
       </c>
       <c r="D105" t="n">
-        <v>513.98095703125</v>
+        <v>520.8836059570312</v>
       </c>
       <c r="E105" t="n">
-        <v>2.40106201171875</v>
+        <v>-4.5015869140625</v>
       </c>
     </row>
     <row r="106">
@@ -2239,10 +2239,10 @@
         <v>517.1815427831759</v>
       </c>
       <c r="D106" t="n">
-        <v>514.7674560546875</v>
+        <v>521.6754760742188</v>
       </c>
       <c r="E106" t="n">
-        <v>2.4140625</v>
+        <v>-4.49395751953125</v>
       </c>
     </row>
     <row r="107">
@@ -2256,10 +2256,10 @@
         <v>517.9794213237441</v>
       </c>
       <c r="D107" t="n">
-        <v>515.554931640625</v>
+        <v>522.46435546875</v>
       </c>
       <c r="E107" t="n">
-        <v>2.42449951171875</v>
+        <v>-4.48492431640625</v>
       </c>
     </row>
     <row r="108">
@@ -2273,10 +2273,10 @@
         <v>518.775930697411</v>
       </c>
       <c r="D108" t="n">
-        <v>516.3424682617188</v>
+        <v>523.25244140625</v>
       </c>
       <c r="E108" t="n">
-        <v>2.4334716796875</v>
+        <v>-4.47650146484375</v>
       </c>
     </row>
     <row r="109">
@@ -2290,10 +2290,10 @@
         <v>519.573257265865</v>
       </c>
       <c r="D109" t="n">
-        <v>517.1311645507812</v>
+        <v>524.036376953125</v>
       </c>
       <c r="E109" t="n">
-        <v>2.44207763671875</v>
+        <v>-4.463134765625</v>
       </c>
     </row>
     <row r="110">
@@ -2307,10 +2307,10 @@
         <v>520.369388681492</v>
       </c>
       <c r="D110" t="n">
-        <v>517.920654296875</v>
+        <v>524.8169555664062</v>
       </c>
       <c r="E110" t="n">
-        <v>2.44873046875</v>
+        <v>-4.44757080078125</v>
       </c>
     </row>
     <row r="111">
@@ -2324,10 +2324,10 @@
         <v>521.1644328619909</v>
       </c>
       <c r="D111" t="n">
-        <v>518.70947265625</v>
+        <v>525.5980224609375</v>
       </c>
       <c r="E111" t="n">
-        <v>2.4549560546875</v>
+        <v>-4.43359375</v>
       </c>
     </row>
     <row r="112">
@@ -2341,10 +2341,10 @@
         <v>521.961533450585</v>
       </c>
       <c r="D112" t="n">
-        <v>519.4969482421875</v>
+        <v>526.3822021484375</v>
       </c>
       <c r="E112" t="n">
-        <v>2.464599609375</v>
+        <v>-4.420654296875</v>
       </c>
     </row>
     <row r="113">
@@ -2358,10 +2358,10 @@
         <v>522.760464163294</v>
       </c>
       <c r="D113" t="n">
-        <v>520.2840576171875</v>
+        <v>527.16650390625</v>
       </c>
       <c r="E113" t="n">
-        <v>2.47637939453125</v>
+        <v>-4.40606689453125</v>
       </c>
     </row>
     <row r="114">
@@ -2375,10 +2375,10 @@
         <v>523.557609596411</v>
       </c>
       <c r="D114" t="n">
-        <v>521.072509765625</v>
+        <v>527.9458618164062</v>
       </c>
       <c r="E114" t="n">
-        <v>2.485107421875</v>
+        <v>-4.38824462890625</v>
       </c>
     </row>
     <row r="115">
@@ -2392,10 +2392,10 @@
         <v>524.3508763392609</v>
       </c>
       <c r="D115" t="n">
-        <v>521.8602905273438</v>
+        <v>528.7259521484375</v>
       </c>
       <c r="E115" t="n">
-        <v>2.4906005859375</v>
+        <v>-4.37506103515625</v>
       </c>
     </row>
     <row r="116">
@@ -2409,10 +2409,10 @@
         <v>525.13905408516</v>
       </c>
       <c r="D116" t="n">
-        <v>522.6453857421875</v>
+        <v>529.5131225585938</v>
       </c>
       <c r="E116" t="n">
-        <v>2.49365234375</v>
+        <v>-4.37408447265625</v>
       </c>
     </row>
     <row r="117">
@@ -2426,10 +2426,10 @@
         <v>525.92923097068</v>
       </c>
       <c r="D117" t="n">
-        <v>523.427978515625</v>
+        <v>530.3077392578125</v>
       </c>
       <c r="E117" t="n">
-        <v>2.50128173828125</v>
+        <v>-4.37847900390625</v>
       </c>
     </row>
     <row r="118">
@@ -2443,10 +2443,10 @@
         <v>526.7266300602059</v>
       </c>
       <c r="D118" t="n">
-        <v>524.207275390625</v>
+        <v>531.1133422851562</v>
       </c>
       <c r="E118" t="n">
-        <v>2.51934814453125</v>
+        <v>-4.38671875</v>
       </c>
     </row>
     <row r="119">
@@ -2460,10 +2460,10 @@
         <v>527.531264074822</v>
       </c>
       <c r="D119" t="n">
-        <v>524.9852294921875</v>
+        <v>531.9254150390625</v>
       </c>
       <c r="E119" t="n">
-        <v>2.5460205078125</v>
+        <v>-4.3941650390625</v>
       </c>
     </row>
     <row r="120">
@@ -2477,10 +2477,10 @@
         <v>528.337681948824</v>
       </c>
       <c r="D120" t="n">
-        <v>525.764892578125</v>
+        <v>532.7347412109375</v>
       </c>
       <c r="E120" t="n">
-        <v>2.57281494140625</v>
+        <v>-4.39703369140625</v>
       </c>
     </row>
     <row r="121">
@@ -2494,10 +2494,10 @@
         <v>529.141108687154</v>
       </c>
       <c r="D121" t="n">
-        <v>526.5457763671875</v>
+        <v>533.5424194335938</v>
       </c>
       <c r="E121" t="n">
-        <v>2.5953369140625</v>
+        <v>-4.40130615234375</v>
       </c>
     </row>
     <row r="122">
@@ -2511,10 +2511,10 @@
         <v>529.938784510251</v>
       </c>
       <c r="D122" t="n">
-        <v>527.3262939453125</v>
+        <v>534.3534545898438</v>
       </c>
       <c r="E122" t="n">
-        <v>2.61248779296875</v>
+        <v>-4.4146728515625</v>
       </c>
     </row>
     <row r="123">
@@ -2528,10 +2528,10 @@
         <v>530.730932788171</v>
       </c>
       <c r="D123" t="n">
-        <v>528.106201171875</v>
+        <v>535.1690673828125</v>
       </c>
       <c r="E123" t="n">
-        <v>2.624755859375</v>
+        <v>-4.4381103515625</v>
       </c>
     </row>
     <row r="124">
@@ -2545,10 +2545,10 @@
         <v>531.520061451296</v>
       </c>
       <c r="D124" t="n">
-        <v>528.8860473632812</v>
+        <v>535.987548828125</v>
       </c>
       <c r="E124" t="n">
-        <v>2.634033203125</v>
+        <v>-4.46746826171875</v>
       </c>
     </row>
     <row r="125">
@@ -2562,10 +2562,10 @@
         <v>532.30970074917</v>
       </c>
       <c r="D125" t="n">
-        <v>529.6661376953125</v>
+        <v>536.8087158203125</v>
       </c>
       <c r="E125" t="n">
-        <v>2.6435546875</v>
+        <v>-4.4990234375</v>
       </c>
     </row>
     <row r="126">
@@ -2579,10 +2579,10 @@
         <v>533.09975937603</v>
       </c>
       <c r="D126" t="n">
-        <v>530.4465942382812</v>
+        <v>537.63232421875</v>
       </c>
       <c r="E126" t="n">
-        <v>2.65313720703125</v>
+        <v>-4.5325927734375</v>
       </c>
     </row>
     <row r="127">
@@ -2596,10 +2596,10 @@
         <v>533.890796334353</v>
       </c>
       <c r="D127" t="n">
-        <v>531.2271728515625</v>
+        <v>538.4590454101562</v>
       </c>
       <c r="E127" t="n">
-        <v>2.66363525390625</v>
+        <v>-4.5682373046875</v>
       </c>
     </row>
     <row r="128">
@@ -2613,10 +2613,10 @@
         <v>534.685509182465</v>
       </c>
       <c r="D128" t="n">
-        <v>532.0072631835938</v>
+        <v>539.2913208007812</v>
       </c>
       <c r="E128" t="n">
-        <v>2.67822265625</v>
+        <v>-4.6058349609375</v>
       </c>
     </row>
     <row r="129">
@@ -2630,10 +2630,10 @@
         <v>535.488739001942</v>
       </c>
       <c r="D129" t="n">
-        <v>532.7880859375</v>
+        <v>540.1256103515625</v>
       </c>
       <c r="E129" t="n">
-        <v>2.70062255859375</v>
+        <v>-4.63690185546875</v>
       </c>
     </row>
     <row r="130">
@@ -2647,10 +2647,10 @@
         <v>536.300083591088</v>
       </c>
       <c r="D130" t="n">
-        <v>533.572021484375</v>
+        <v>540.9552001953125</v>
       </c>
       <c r="E130" t="n">
-        <v>2.72808837890625</v>
+        <v>-4.65509033203125</v>
       </c>
     </row>
     <row r="131">
@@ -2664,10 +2664,10 @@
         <v>537.1117940385531</v>
       </c>
       <c r="D131" t="n">
-        <v>534.35986328125</v>
+        <v>541.7761840820312</v>
       </c>
       <c r="E131" t="n">
-        <v>2.751953125</v>
+        <v>-4.66436767578125</v>
       </c>
     </row>
     <row r="132">
@@ -2681,10 +2681,10 @@
         <v>537.9202601223781</v>
       </c>
       <c r="D132" t="n">
-        <v>535.1514282226562</v>
+        <v>542.58837890625</v>
       </c>
       <c r="E132" t="n">
-        <v>2.76885986328125</v>
+        <v>-4.6680908203125</v>
       </c>
     </row>
     <row r="133">
@@ -2698,10 +2698,10 @@
         <v>538.722572709315</v>
       </c>
       <c r="D133" t="n">
-        <v>535.9459228515625</v>
+        <v>543.3927001953125</v>
       </c>
       <c r="E133" t="n">
-        <v>2.77667236328125</v>
+        <v>-4.67010498046875</v>
       </c>
     </row>
     <row r="134">
@@ -2715,10 +2715,10 @@
         <v>539.517546450646</v>
       </c>
       <c r="D134" t="n">
-        <v>536.742431640625</v>
+        <v>544.191162109375</v>
       </c>
       <c r="E134" t="n">
-        <v>2.77508544921875</v>
+        <v>-4.67364501953125</v>
       </c>
     </row>
     <row r="135">
@@ -2732,10 +2732,10 @@
         <v>540.303542877867</v>
       </c>
       <c r="D135" t="n">
-        <v>537.5394287109375</v>
+        <v>544.9878540039062</v>
       </c>
       <c r="E135" t="n">
-        <v>2.76409912109375</v>
+        <v>-4.684326171875</v>
       </c>
     </row>
     <row r="136">
@@ -2749,10 +2749,10 @@
         <v>541.077054873213</v>
       </c>
       <c r="D136" t="n">
-        <v>538.33447265625</v>
+        <v>545.7899169921875</v>
       </c>
       <c r="E136" t="n">
-        <v>2.7425537109375</v>
+        <v>-4.712890625</v>
       </c>
     </row>
     <row r="137">
@@ -2766,10 +2766,10 @@
         <v>541.834585991448</v>
       </c>
       <c r="D137" t="n">
-        <v>539.12841796875</v>
+        <v>546.5955200195312</v>
       </c>
       <c r="E137" t="n">
-        <v>2.7061767578125</v>
+        <v>-4.76092529296875</v>
       </c>
     </row>
     <row r="138">
@@ -2783,10 +2783,10 @@
         <v>542.584876679496</v>
       </c>
       <c r="D138" t="n">
-        <v>539.9229125976562</v>
+        <v>547.4000244140625</v>
       </c>
       <c r="E138" t="n">
-        <v>2.6619873046875</v>
+        <v>-4.81512451171875</v>
       </c>
     </row>
     <row r="139">
@@ -2800,10 +2800,10 @@
         <v>543.335969225772</v>
       </c>
       <c r="D139" t="n">
-        <v>540.7185668945312</v>
+        <v>548.201416015625</v>
       </c>
       <c r="E139" t="n">
-        <v>2.617431640625</v>
+        <v>-4.86541748046875</v>
       </c>
     </row>
     <row r="140">
@@ -2817,10 +2817,10 @@
         <v>544.089736943475</v>
       </c>
       <c r="D140" t="n">
-        <v>541.5154418945312</v>
+        <v>548.9989624023438</v>
       </c>
       <c r="E140" t="n">
-        <v>2.57427978515625</v>
+        <v>-4.90924072265625</v>
       </c>
     </row>
     <row r="141">
@@ -2834,10 +2834,10 @@
         <v>544.851398144488</v>
       </c>
       <c r="D141" t="n">
-        <v>542.31201171875</v>
+        <v>549.7967529296875</v>
       </c>
       <c r="E141" t="n">
-        <v>2.53936767578125</v>
+        <v>-4.94537353515625</v>
       </c>
     </row>
     <row r="142">
@@ -2851,10 +2851,10 @@
         <v>545.6258687875741</v>
       </c>
       <c r="D142" t="n">
-        <v>543.1089477539062</v>
+        <v>550.5933227539062</v>
       </c>
       <c r="E142" t="n">
-        <v>2.51690673828125</v>
+        <v>-4.96746826171875</v>
       </c>
     </row>
     <row r="143">
@@ -2868,10 +2868,10 @@
         <v>546.418037271244</v>
       </c>
       <c r="D143" t="n">
-        <v>543.9055786132812</v>
+        <v>551.39013671875</v>
       </c>
       <c r="E143" t="n">
-        <v>2.512451171875</v>
+        <v>-4.97210693359375</v>
       </c>
     </row>
     <row r="144">
@@ -2885,10 +2885,10 @@
         <v>547.226733806461</v>
       </c>
       <c r="D144" t="n">
-        <v>544.7005615234375</v>
+        <v>552.19140625</v>
       </c>
       <c r="E144" t="n">
-        <v>2.52618408203125</v>
+        <v>-4.96466064453125</v>
       </c>
     </row>
     <row r="145">
@@ -2902,10 +2902,10 @@
         <v>548.043876050138</v>
       </c>
       <c r="D145" t="n">
-        <v>545.49560546875</v>
+        <v>552.99267578125</v>
       </c>
       <c r="E145" t="n">
-        <v>2.54827880859375</v>
+        <v>-4.94879150390625</v>
       </c>
     </row>
     <row r="146">
@@ -2919,10 +2919,10 @@
         <v>548.860162671794</v>
       </c>
       <c r="D146" t="n">
-        <v>546.290771484375</v>
+        <v>553.7937622070312</v>
       </c>
       <c r="E146" t="n">
-        <v>2.56939697265625</v>
+        <v>-4.93359375</v>
       </c>
     </row>
     <row r="147">
@@ -2936,10 +2936,10 @@
         <v>549.669826655524</v>
       </c>
       <c r="D147" t="n">
-        <v>547.0852661132812</v>
+        <v>554.5968017578125</v>
       </c>
       <c r="E147" t="n">
-        <v>2.58453369140625</v>
+        <v>-4.927001953125</v>
       </c>
     </row>
     <row r="148">
@@ -2953,10 +2953,10 @@
         <v>550.4697453914939</v>
       </c>
       <c r="D148" t="n">
-        <v>547.879150390625</v>
+        <v>555.4021606445312</v>
       </c>
       <c r="E148" t="n">
-        <v>2.590576171875</v>
+        <v>-4.93243408203125</v>
       </c>
     </row>
     <row r="149">
@@ -2970,10 +2970,10 @@
         <v>551.2578901511171</v>
       </c>
       <c r="D149" t="n">
-        <v>548.6734619140625</v>
+        <v>556.20654296875</v>
       </c>
       <c r="E149" t="n">
-        <v>2.58441162109375</v>
+        <v>-4.94866943359375</v>
       </c>
     </row>
     <row r="150">
@@ -2987,10 +2987,10 @@
         <v>552.033748229647</v>
       </c>
       <c r="D150" t="n">
-        <v>549.4685668945312</v>
+        <v>557.009033203125</v>
       </c>
       <c r="E150" t="n">
-        <v>2.565185546875</v>
+        <v>-4.97528076171875</v>
       </c>
     </row>
     <row r="151">
@@ -3004,10 +3004,10 @@
         <v>552.798343373407</v>
       </c>
       <c r="D151" t="n">
-        <v>550.263427734375</v>
+        <v>557.8125610351562</v>
       </c>
       <c r="E151" t="n">
-        <v>2.534912109375</v>
+        <v>-5.01422119140625</v>
       </c>
     </row>
     <row r="152">
@@ -3021,10 +3021,10 @@
         <v>553.5542391086431</v>
       </c>
       <c r="D152" t="n">
-        <v>551.0576171875</v>
+        <v>558.618408203125</v>
       </c>
       <c r="E152" t="n">
-        <v>2.49664306640625</v>
+        <v>-5.06414794921875</v>
       </c>
     </row>
     <row r="153">
@@ -3038,10 +3038,10 @@
         <v>554.30511703942</v>
       </c>
       <c r="D153" t="n">
-        <v>551.8505859375</v>
+        <v>559.4285278320312</v>
       </c>
       <c r="E153" t="n">
-        <v>2.45452880859375</v>
+        <v>-5.1234130859375</v>
       </c>
     </row>
     <row r="154">
@@ -3055,10 +3055,10 @@
         <v>555.0512731800339</v>
       </c>
       <c r="D154" t="n">
-        <v>552.6432495117188</v>
+        <v>560.2409057617188</v>
       </c>
       <c r="E154" t="n">
-        <v>2.40802001953125</v>
+        <v>-5.18963623046875</v>
       </c>
     </row>
     <row r="155">
@@ -3072,10 +3072,10 @@
         <v>555.7934720108041</v>
       </c>
       <c r="D155" t="n">
-        <v>553.4384155273438</v>
+        <v>561.0467529296875</v>
       </c>
       <c r="E155" t="n">
-        <v>2.35504150390625</v>
+        <v>-5.2532958984375</v>
       </c>
     </row>
     <row r="156">
@@ -3089,10 +3089,10 @@
         <v>556.529665678295</v>
       </c>
       <c r="D156" t="n">
-        <v>554.235595703125</v>
+        <v>561.8466796875</v>
       </c>
       <c r="E156" t="n">
-        <v>2.2940673828125</v>
+        <v>-5.3170166015625</v>
       </c>
     </row>
     <row r="157">
@@ -3106,10 +3106,10 @@
         <v>557.261705510237</v>
       </c>
       <c r="D157" t="n">
-        <v>555.0341796875</v>
+        <v>562.6419677734375</v>
       </c>
       <c r="E157" t="n">
-        <v>2.2275390625</v>
+        <v>-5.3802490234375</v>
       </c>
     </row>
     <row r="158">
@@ -3123,10 +3123,10 @@
         <v>557.994565095105</v>
       </c>
       <c r="D158" t="n">
-        <v>555.8330078125</v>
+        <v>563.4357299804688</v>
       </c>
       <c r="E158" t="n">
-        <v>2.16156005859375</v>
+        <v>-5.441162109375</v>
       </c>
     </row>
     <row r="159">
@@ -3140,10 +3140,10 @@
         <v>558.73443819181</v>
       </c>
       <c r="D159" t="n">
-        <v>556.6309204101562</v>
+        <v>564.231201171875</v>
       </c>
       <c r="E159" t="n">
-        <v>2.103515625</v>
+        <v>-5.49676513671875</v>
       </c>
     </row>
     <row r="160">
@@ -3157,10 +3157,10 @@
         <v>559.4860486916471</v>
       </c>
       <c r="D160" t="n">
-        <v>557.42724609375</v>
+        <v>565.031005859375</v>
       </c>
       <c r="E160" t="n">
-        <v>2.05877685546875</v>
+        <v>-5.54498291015625</v>
       </c>
     </row>
     <row r="161">
@@ -3174,10 +3174,10 @@
         <v>560.2470921282111</v>
       </c>
       <c r="D161" t="n">
-        <v>558.2218017578125</v>
+        <v>565.8359375</v>
       </c>
       <c r="E161" t="n">
-        <v>2.0252685546875</v>
+        <v>-5.5888671875</v>
       </c>
     </row>
     <row r="162">
@@ -3191,10 +3191,10 @@
         <v>561.012226911323</v>
       </c>
       <c r="D162" t="n">
-        <v>559.0151977539062</v>
+        <v>566.6449584960938</v>
       </c>
       <c r="E162" t="n">
-        <v>1.99700927734375</v>
+        <v>-5.63275146484375</v>
       </c>
     </row>
     <row r="163">
@@ -3208,10 +3208,10 @@
         <v>561.77619213815</v>
       </c>
       <c r="D163" t="n">
-        <v>559.8088989257812</v>
+        <v>567.4542236328125</v>
       </c>
       <c r="E163" t="n">
-        <v>1.96728515625</v>
+        <v>-5.67803955078125</v>
       </c>
     </row>
     <row r="164">
@@ -3225,10 +3225,10 @@
         <v>562.5425275875859</v>
       </c>
       <c r="D164" t="n">
-        <v>560.6024780273438</v>
+        <v>568.2646484375</v>
       </c>
       <c r="E164" t="n">
-        <v>1.9400634765625</v>
+        <v>-5.72210693359375</v>
       </c>
     </row>
     <row r="165">
@@ -3242,10 +3242,10 @@
         <v>563.310378650635</v>
       </c>
       <c r="D165" t="n">
-        <v>561.3948974609375</v>
+        <v>569.0799560546875</v>
       </c>
       <c r="E165" t="n">
-        <v>1.91546630859375</v>
+        <v>-5.76959228515625</v>
       </c>
     </row>
     <row r="166">
@@ -3259,10 +3259,10 @@
         <v>564.076790434184</v>
       </c>
       <c r="D166" t="n">
-        <v>562.1868896484375</v>
+        <v>569.8980712890625</v>
       </c>
       <c r="E166" t="n">
-        <v>1.889892578125</v>
+        <v>-5.8212890625</v>
       </c>
     </row>
     <row r="167">
@@ -3276,10 +3276,10 @@
         <v>564.846380122058</v>
       </c>
       <c r="D167" t="n">
-        <v>562.9781494140625</v>
+        <v>570.7207641601562</v>
       </c>
       <c r="E167" t="n">
-        <v>1.86822509765625</v>
+        <v>-5.8743896484375</v>
       </c>
     </row>
     <row r="168">
@@ -3293,10 +3293,10 @@
         <v>565.6177463081809</v>
       </c>
       <c r="D168" t="n">
-        <v>563.7697143554688</v>
+        <v>571.544921875</v>
       </c>
       <c r="E168" t="n">
-        <v>1.8480224609375</v>
+        <v>-5.92718505859375</v>
       </c>
     </row>
     <row r="169">
@@ -3310,10 +3310,10 @@
         <v>566.3837947847439</v>
       </c>
       <c r="D169" t="n">
-        <v>564.5604858398438</v>
+        <v>572.3743286132812</v>
       </c>
       <c r="E169" t="n">
-        <v>1.82330322265625</v>
+        <v>-5.99053955078125</v>
       </c>
     </row>
     <row r="170">
@@ -3327,10 +3327,10 @@
         <v>567.147078184546</v>
       </c>
       <c r="D170" t="n">
-        <v>565.3495483398438</v>
+        <v>573.212158203125</v>
       </c>
       <c r="E170" t="n">
-        <v>1.79754638671875</v>
+        <v>-6.0650634765625</v>
       </c>
     </row>
     <row r="171">
@@ -3344,10 +3344,10 @@
         <v>567.913653135667</v>
       </c>
       <c r="D171" t="n">
-        <v>566.138916015625</v>
+        <v>574.0533447265625</v>
       </c>
       <c r="E171" t="n">
-        <v>1.77471923828125</v>
+        <v>-6.13970947265625</v>
       </c>
     </row>
     <row r="172">
@@ -3361,10 +3361,10 @@
         <v>568.685604495657</v>
       </c>
       <c r="D172" t="n">
-        <v>566.928955078125</v>
+        <v>574.8970336914062</v>
       </c>
       <c r="E172" t="n">
-        <v>1.75665283203125</v>
+        <v>-6.21142578125</v>
       </c>
     </row>
     <row r="173">
@@ -3378,10 +3378,10 @@
         <v>569.462648934653</v>
       </c>
       <c r="D173" t="n">
-        <v>567.721923828125</v>
+        <v>575.7362670898438</v>
       </c>
       <c r="E173" t="n">
-        <v>1.74072265625</v>
+        <v>-6.27362060546875</v>
       </c>
     </row>
     <row r="174">
@@ -3395,10 +3395,10 @@
         <v>570.240508587697</v>
       </c>
       <c r="D174" t="n">
-        <v>568.5183715820312</v>
+        <v>576.5682373046875</v>
       </c>
       <c r="E174" t="n">
-        <v>1.72210693359375</v>
+        <v>-6.3277587890625</v>
       </c>
     </row>
     <row r="175">
@@ -3412,10 +3412,10 @@
         <v>571.016013120167</v>
       </c>
       <c r="D175" t="n">
-        <v>569.3194580078125</v>
+        <v>577.3888549804688</v>
       </c>
       <c r="E175" t="n">
-        <v>1.696533203125</v>
+        <v>-6.37286376953125</v>
       </c>
     </row>
     <row r="176">
@@ -3429,10 +3429,10 @@
         <v>571.789637823436</v>
       </c>
       <c r="D176" t="n">
-        <v>570.1234130859375</v>
+        <v>577.9510498046875</v>
       </c>
       <c r="E176" t="n">
-        <v>1.66619873046875</v>
+        <v>-6.16143798828125</v>
       </c>
     </row>
     <row r="177">
@@ -3446,10 +3446,10 @@
         <v>572.565149511662</v>
       </c>
       <c r="D177" t="n">
-        <v>570.9278564453125</v>
+        <v>578.459228515625</v>
       </c>
       <c r="E177" t="n">
-        <v>1.63726806640625</v>
+        <v>-5.89410400390625</v>
       </c>
     </row>
     <row r="178">
@@ -3463,10 +3463,10 @@
         <v>573.343602866576</v>
       </c>
       <c r="D178" t="n">
-        <v>571.7315063476562</v>
+        <v>578.9681396484375</v>
       </c>
       <c r="E178" t="n">
-        <v>1.61212158203125</v>
+        <v>-5.62451171875</v>
       </c>
     </row>
     <row r="179">
@@ -3480,10 +3480,10 @@
         <v>574.126523624147</v>
       </c>
       <c r="D179" t="n">
-        <v>572.5341796875</v>
+        <v>579.4780883789062</v>
       </c>
       <c r="E179" t="n">
-        <v>1.59234619140625</v>
+        <v>-5.3515625</v>
       </c>
     </row>
     <row r="180">
@@ -3497,10 +3497,10 @@
         <v>574.909902208724</v>
       </c>
       <c r="D180" t="n">
-        <v>573.3370971679688</v>
+        <v>579.9881591796875</v>
       </c>
       <c r="E180" t="n">
-        <v>1.57281494140625</v>
+        <v>-5.0782470703125</v>
       </c>
     </row>
     <row r="181">
@@ -3514,10 +3514,10 @@
         <v>575.68657857253</v>
       </c>
       <c r="D181" t="n">
-        <v>574.1417846679688</v>
+        <v>580.4970092773438</v>
       </c>
       <c r="E181" t="n">
-        <v>1.5447998046875</v>
+        <v>-4.8104248046875</v>
       </c>
     </row>
     <row r="182">
@@ -3531,10 +3531,10 @@
         <v>576.449995797848</v>
       </c>
       <c r="D182" t="n">
-        <v>574.9481201171875</v>
+        <v>581.004638671875</v>
       </c>
       <c r="E182" t="n">
-        <v>1.50189208984375</v>
+        <v>-4.55462646484375</v>
       </c>
     </row>
     <row r="183">
@@ -3548,10 +3548,10 @@
         <v>577.199722184597</v>
       </c>
       <c r="D183" t="n">
-        <v>575.7556762695312</v>
+        <v>581.510986328125</v>
       </c>
       <c r="E183" t="n">
-        <v>1.44403076171875</v>
+        <v>-4.311279296875</v>
       </c>
     </row>
     <row r="184">
@@ -3565,10 +3565,10 @@
         <v>577.935739099875</v>
       </c>
       <c r="D184" t="n">
-        <v>576.5641479492188</v>
+        <v>582.0162353515625</v>
       </c>
       <c r="E184" t="n">
-        <v>1.37158203125</v>
+        <v>-4.08050537109375</v>
       </c>
     </row>
     <row r="185">
@@ -3582,10 +3582,10 @@
         <v>578.658247057946</v>
       </c>
       <c r="D185" t="n">
-        <v>577.3726806640625</v>
+        <v>582.5210571289062</v>
       </c>
       <c r="E185" t="n">
-        <v>1.28558349609375</v>
+        <v>-3.86279296875</v>
       </c>
     </row>
     <row r="186">
@@ -3599,10 +3599,10 @@
         <v>579.363985294252</v>
       </c>
       <c r="D186" t="n">
-        <v>578.18017578125</v>
+        <v>583.026123046875</v>
       </c>
       <c r="E186" t="n">
-        <v>1.183837890625</v>
+        <v>-3.662109375</v>
       </c>
     </row>
     <row r="187">
@@ -3616,10 +3616,10 @@
         <v>580.04698545442</v>
       </c>
       <c r="D187" t="n">
-        <v>578.9865112304688</v>
+        <v>583.53173828125</v>
       </c>
       <c r="E187" t="n">
-        <v>1.06048583984375</v>
+        <v>-3.4847412109375</v>
       </c>
     </row>
     <row r="188">
@@ -3633,10 +3633,10 @@
         <v>580.721074972618</v>
       </c>
       <c r="D188" t="n">
-        <v>579.7916870117188</v>
+        <v>584.0382080078125</v>
       </c>
       <c r="E188" t="n">
-        <v>0.92938232421875</v>
+        <v>-3.317138671875</v>
       </c>
     </row>
     <row r="189">
@@ -3650,10 +3650,10 @@
         <v>581.405491470642</v>
       </c>
       <c r="D189" t="n">
-        <v>580.596435546875</v>
+        <v>584.544677734375</v>
       </c>
       <c r="E189" t="n">
-        <v>0.80908203125</v>
+        <v>-3.13916015625</v>
       </c>
     </row>
     <row r="190">
@@ -3667,10 +3667,10 @@
         <v>582.124395497207</v>
       </c>
       <c r="D190" t="n">
-        <v>581.4012451171875</v>
+        <v>585.051025390625</v>
       </c>
       <c r="E190" t="n">
-        <v>0.72314453125</v>
+        <v>-2.9266357421875</v>
       </c>
     </row>
     <row r="191">
@@ -3684,10 +3684,10 @@
         <v>582.876182388795</v>
       </c>
       <c r="D191" t="n">
-        <v>582.2098999023438</v>
+        <v>585.5535278320312</v>
       </c>
       <c r="E191" t="n">
-        <v>0.666259765625</v>
+        <v>-2.6773681640625</v>
       </c>
     </row>
     <row r="192">
@@ -3701,10 +3701,10 @@
         <v>583.670106799146</v>
       </c>
       <c r="D192" t="n">
-        <v>583.0169677734375</v>
+        <v>586.053955078125</v>
       </c>
       <c r="E192" t="n">
-        <v>0.65313720703125</v>
+        <v>-2.38385009765625</v>
       </c>
     </row>
     <row r="193">
@@ -3718,10 +3718,10 @@
         <v>584.414259534326</v>
       </c>
       <c r="D193" t="n">
-        <v>583.8192138671875</v>
+        <v>586.5579833984375</v>
       </c>
       <c r="E193" t="n">
-        <v>0.59503173828125</v>
+        <v>-2.14373779296875</v>
       </c>
     </row>
     <row r="194">
@@ -3735,10 +3735,10 @@
         <v>585.1355745735659</v>
       </c>
       <c r="D194" t="n">
-        <v>584.6212158203125</v>
+        <v>587.062255859375</v>
       </c>
       <c r="E194" t="n">
-        <v>0.51434326171875</v>
+        <v>-1.92669677734375</v>
       </c>
     </row>
     <row r="195">
@@ -3752,10 +3752,10 @@
         <v>585.8493721784751</v>
       </c>
       <c r="D195" t="n">
-        <v>585.4234619140625</v>
+        <v>587.5663452148438</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4259033203125</v>
+        <v>-1.71697998046875</v>
       </c>
     </row>
     <row r="196">
@@ -3769,10 +3769,10 @@
         <v>586.561215476556</v>
       </c>
       <c r="D196" t="n">
-        <v>586.2261962890625</v>
+        <v>588.0703125</v>
       </c>
       <c r="E196" t="n">
-        <v>0.33502197265625</v>
+        <v>-1.50909423828125</v>
       </c>
     </row>
     <row r="197">
@@ -3786,10 +3786,10 @@
         <v>587.2730302167849</v>
       </c>
       <c r="D197" t="n">
-        <v>587.029052734375</v>
+        <v>588.5171508789062</v>
       </c>
       <c r="E197" t="n">
-        <v>0.24395751953125</v>
+        <v>-1.244140625</v>
       </c>
     </row>
     <row r="198">
@@ -3803,10 +3803,10 @@
         <v>587.9851294139361</v>
       </c>
       <c r="D198" t="n">
-        <v>587.83203125</v>
+        <v>588.9415283203125</v>
       </c>
       <c r="E198" t="n">
-        <v>0.153076171875</v>
+        <v>-0.9564208984375</v>
       </c>
     </row>
     <row r="199">
@@ -3820,10 +3820,10 @@
         <v>588.696958039101</v>
       </c>
       <c r="D199" t="n">
-        <v>588.6351928710938</v>
+        <v>589.317626953125</v>
       </c>
       <c r="E199" t="n">
-        <v>0.061767578125</v>
+        <v>-0.62066650390625</v>
       </c>
     </row>
     <row r="200">
@@ -3837,10 +3837,10 @@
         <v>589.4074008957271</v>
       </c>
       <c r="D200" t="n">
-        <v>589.4383544921875</v>
+        <v>589.6370239257812</v>
       </c>
       <c r="E200" t="n">
-        <v>-0.03094482421875</v>
+        <v>-0.2296142578125</v>
       </c>
     </row>
     <row r="201">
@@ -3854,10 +3854,10 @@
         <v>590.114891995119</v>
       </c>
       <c r="D201" t="n">
-        <v>590.2415161132812</v>
+        <v>589.95654296875</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.12664794921875</v>
+        <v>0.1583251953125</v>
       </c>
     </row>
     <row r="202">
@@ -3871,10 +3871,10 @@
         <v>590.818051071176</v>
       </c>
       <c r="D202" t="n">
-        <v>591.04443359375</v>
+        <v>590.276123046875</v>
       </c>
       <c r="E202" t="n">
-        <v>-0.22637939453125</v>
+        <v>0.54193115234375</v>
       </c>
     </row>
     <row r="203">
@@ -3888,10 +3888,10 @@
         <v>591.515826724007</v>
       </c>
       <c r="D203" t="n">
-        <v>591.8472900390625</v>
+        <v>590.5958862304688</v>
       </c>
       <c r="E203" t="n">
-        <v>-0.33148193359375</v>
+        <v>0.919921875</v>
       </c>
     </row>
     <row r="204">
@@ -3905,10 +3905,10 @@
         <v>592.208001982814</v>
       </c>
       <c r="D204" t="n">
-        <v>592.6499633789062</v>
+        <v>590.915771484375</v>
       </c>
       <c r="E204" t="n">
-        <v>-0.44195556640625</v>
+        <v>1.292236328125</v>
       </c>
     </row>
     <row r="205">
@@ -3922,10 +3922,10 @@
         <v>251.671021855103</v>
       </c>
       <c r="D205" t="n">
-        <v>260.3711547851562</v>
+        <v>260.9705200195312</v>
       </c>
       <c r="E205" t="n">
-        <v>-8.70013427734375</v>
+        <v>-9.29949951171875</v>
       </c>
     </row>
     <row r="206">
@@ -3939,10 +3939,10 @@
         <v>264.21622891732</v>
       </c>
       <c r="D206" t="n">
-        <v>262.1935424804688</v>
+        <v>268.6534729003906</v>
       </c>
       <c r="E206" t="n">
-        <v>2.022674560546875</v>
+        <v>-4.437255859375</v>
       </c>
     </row>
     <row r="207">
@@ -3956,10 +3956,10 @@
         <v>273.78575888259</v>
       </c>
       <c r="D207" t="n">
-        <v>267.5477905273438</v>
+        <v>275.6095581054688</v>
       </c>
       <c r="E207" t="n">
-        <v>6.23797607421875</v>
+        <v>-1.82379150390625</v>
       </c>
     </row>
     <row r="208">
@@ -3973,10 +3973,10 @@
         <v>281.271311585657</v>
       </c>
       <c r="D208" t="n">
-        <v>275.3547973632812</v>
+        <v>281.36669921875</v>
       </c>
       <c r="E208" t="n">
-        <v>5.91650390625</v>
+        <v>-0.09539794921875</v>
       </c>
     </row>
     <row r="209">
@@ -3990,10 +3990,10 @@
         <v>287.530316916377</v>
       </c>
       <c r="D209" t="n">
-        <v>284.7079162597656</v>
+        <v>287.3828125</v>
       </c>
       <c r="E209" t="n">
-        <v>2.8223876953125</v>
+        <v>0.147491455078125</v>
       </c>
     </row>
     <row r="210">
@@ -4007,10 +4007,10 @@
         <v>293.135799212507</v>
       </c>
       <c r="D210" t="n">
-        <v>292.8067016601562</v>
+        <v>293.3280944824219</v>
       </c>
       <c r="E210" t="n">
-        <v>0.3291015625</v>
+        <v>-0.192291259765625</v>
       </c>
     </row>
     <row r="211">
@@ -4024,10 +4024,10 @@
         <v>297.872315429841</v>
       </c>
       <c r="D211" t="n">
-        <v>299.2101745605469</v>
+        <v>298.6433715820312</v>
       </c>
       <c r="E211" t="n">
-        <v>-1.337860107421875</v>
+        <v>-0.77105712890625</v>
       </c>
     </row>
     <row r="212">
@@ -4041,10 +4041,10 @@
         <v>302.182437460197</v>
       </c>
       <c r="D212" t="n">
-        <v>304.6875</v>
+        <v>303.397216796875</v>
       </c>
       <c r="E212" t="n">
-        <v>-2.50506591796875</v>
+        <v>-1.21478271484375</v>
       </c>
     </row>
     <row r="213">
@@ -4058,10 +4058,10 @@
         <v>306.855290595792</v>
       </c>
       <c r="D213" t="n">
-        <v>308.6394348144531</v>
+        <v>308.4884033203125</v>
       </c>
       <c r="E213" t="n">
-        <v>-1.784149169921875</v>
+        <v>-1.63311767578125</v>
       </c>
     </row>
     <row r="214">
@@ -4075,10 +4075,10 @@
         <v>311.5812611667</v>
       </c>
       <c r="D214" t="n">
-        <v>312.1492614746094</v>
+        <v>313.7742614746094</v>
       </c>
       <c r="E214" t="n">
-        <v>-0.5679931640625</v>
+        <v>-2.1929931640625</v>
       </c>
     </row>
     <row r="215">
@@ -4092,10 +4092,10 @@
         <v>316.151980459623</v>
       </c>
       <c r="D215" t="n">
-        <v>315.9136962890625</v>
+        <v>318.8787536621094</v>
       </c>
       <c r="E215" t="n">
-        <v>0.23828125</v>
+        <v>-2.726776123046875</v>
       </c>
     </row>
     <row r="216">
@@ -4109,10 +4109,10 @@
         <v>321.024230909476</v>
       </c>
       <c r="D216" t="n">
-        <v>319.9871215820312</v>
+        <v>323.8369140625</v>
       </c>
       <c r="E216" t="n">
-        <v>1.037109375</v>
+        <v>-2.81268310546875</v>
       </c>
     </row>
     <row r="217">
@@ -4126,10 +4126,10 @@
         <v>325.720452469642</v>
       </c>
       <c r="D217" t="n">
-        <v>323.869140625</v>
+        <v>328.9361572265625</v>
       </c>
       <c r="E217" t="n">
-        <v>1.851318359375</v>
+        <v>-3.2156982421875</v>
       </c>
     </row>
     <row r="218">
@@ -4143,10 +4143,10 @@
         <v>329.938070675481</v>
       </c>
       <c r="D218" t="n">
-        <v>326.7734375</v>
+        <v>334.1578979492188</v>
       </c>
       <c r="E218" t="n">
-        <v>3.164642333984375</v>
+        <v>-4.219818115234375</v>
       </c>
     </row>
     <row r="219">
@@ -4160,10 +4160,10 @@
         <v>334.215214491751</v>
       </c>
       <c r="D219" t="n">
-        <v>330.3382568359375</v>
+        <v>337.4107971191406</v>
       </c>
       <c r="E219" t="n">
-        <v>3.876953125</v>
+        <v>-3.195587158203125</v>
       </c>
     </row>
     <row r="220">
@@ -4177,10 +4177,10 @@
         <v>337.884943190913</v>
       </c>
       <c r="D220" t="n">
-        <v>334.9405212402344</v>
+        <v>340.5513000488281</v>
       </c>
       <c r="E220" t="n">
-        <v>2.944427490234375</v>
+        <v>-2.666351318359375</v>
       </c>
     </row>
     <row r="221">
@@ -4194,10 +4194,10 @@
         <v>340.494973180004</v>
       </c>
       <c r="D221" t="n">
-        <v>339.186279296875</v>
+        <v>343.6280822753906</v>
       </c>
       <c r="E221" t="n">
-        <v>1.308685302734375</v>
+        <v>-3.13311767578125</v>
       </c>
     </row>
     <row r="222">
@@ -4211,10 +4211,10 @@
         <v>343.401474260756</v>
       </c>
       <c r="D222" t="n">
-        <v>343.4693603515625</v>
+        <v>346.8096008300781</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.06787109375</v>
+        <v>-3.408111572265625</v>
       </c>
     </row>
     <row r="223">
@@ -4228,10 +4228,10 @@
         <v>347.066950140101</v>
       </c>
       <c r="D223" t="n">
-        <v>347.6789855957031</v>
+        <v>349.9248962402344</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.612030029296875</v>
+        <v>-2.857940673828125</v>
       </c>
     </row>
     <row r="224">
@@ -4245,10 +4245,10 @@
         <v>350.64108801961</v>
       </c>
       <c r="D224" t="n">
-        <v>350.9049987792969</v>
+        <v>353.0596313476562</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.263916015625</v>
+        <v>-2.418548583984375</v>
       </c>
     </row>
     <row r="225">
@@ -4262,10 +4262,10 @@
         <v>354.109238630759</v>
       </c>
       <c r="D225" t="n">
-        <v>353.7635803222656</v>
+        <v>356.4117431640625</v>
       </c>
       <c r="E225" t="n">
-        <v>0.345672607421875</v>
+        <v>-2.302490234375</v>
       </c>
     </row>
     <row r="226">
@@ -4279,10 +4279,10 @@
         <v>357.621819120563</v>
       </c>
       <c r="D226" t="n">
-        <v>356.8741455078125</v>
+        <v>359.6178894042969</v>
       </c>
       <c r="E226" t="n">
-        <v>0.7476806640625</v>
+        <v>-1.996063232421875</v>
       </c>
     </row>
     <row r="227">
@@ -4296,10 +4296,10 @@
         <v>360.763218221998</v>
       </c>
       <c r="D227" t="n">
-        <v>360.4945068359375</v>
+        <v>363.0496215820312</v>
       </c>
       <c r="E227" t="n">
-        <v>0.268707275390625</v>
+        <v>-2.286407470703125</v>
       </c>
     </row>
     <row r="228">
@@ -4313,10 +4313,10 @@
         <v>364.206888941698</v>
       </c>
       <c r="D228" t="n">
-        <v>363.2923278808594</v>
+        <v>366.4388427734375</v>
       </c>
       <c r="E228" t="n">
-        <v>0.91455078125</v>
+        <v>-2.231964111328125</v>
       </c>
     </row>
     <row r="229">
@@ -4330,10 +4330,10 @@
         <v>368.431991902877</v>
       </c>
       <c r="D229" t="n">
-        <v>366.5613098144531</v>
+        <v>369.8535766601562</v>
       </c>
       <c r="E229" t="n">
-        <v>1.870697021484375</v>
+        <v>-1.42156982421875</v>
       </c>
     </row>
     <row r="230">
@@ -4347,10 +4347,10 @@
         <v>372.602133626715</v>
       </c>
       <c r="D230" t="n">
-        <v>370.2408142089844</v>
+        <v>373.4166870117188</v>
       </c>
       <c r="E230" t="n">
-        <v>2.361328125</v>
+        <v>-0.814544677734375</v>
       </c>
     </row>
     <row r="231">
@@ -4364,10 +4364,10 @@
         <v>376.112602258517</v>
       </c>
       <c r="D231" t="n">
-        <v>372.9504089355469</v>
+        <v>376.9024047851562</v>
       </c>
       <c r="E231" t="n">
-        <v>3.162200927734375</v>
+        <v>-0.789794921875</v>
       </c>
     </row>
     <row r="232">
@@ -4381,10 +4381,10 @@
         <v>378.8712623499</v>
       </c>
       <c r="D232" t="n">
-        <v>376.1628112792969</v>
+        <v>380.5635375976562</v>
       </c>
       <c r="E232" t="n">
-        <v>2.708465576171875</v>
+        <v>-1.6922607421875</v>
       </c>
     </row>
     <row r="233">
@@ -4398,10 +4398,10 @@
         <v>380.968581440183</v>
       </c>
       <c r="D233" t="n">
-        <v>379.6171569824219</v>
+        <v>383.9907836914062</v>
       </c>
       <c r="E233" t="n">
-        <v>1.351409912109375</v>
+        <v>-3.022216796875</v>
       </c>
     </row>
     <row r="234">
@@ -4415,10 +4415,10 @@
         <v>382.878105269777</v>
       </c>
       <c r="D234" t="n">
-        <v>383.1971740722656</v>
+        <v>386.9261474609375</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.319061279296875</v>
+        <v>-4.04803466796875</v>
       </c>
     </row>
     <row r="235">
@@ -4432,10 +4432,10 @@
         <v>385.12847359556</v>
       </c>
       <c r="D235" t="n">
-        <v>386.16748046875</v>
+        <v>389.4694213867188</v>
       </c>
       <c r="E235" t="n">
-        <v>-1.03900146484375</v>
+        <v>-4.3409423828125</v>
       </c>
     </row>
     <row r="236">
@@ -4449,10 +4449,10 @@
         <v>387.971702780591</v>
       </c>
       <c r="D236" t="n">
-        <v>389.2646484375</v>
+        <v>391.9878234863281</v>
       </c>
       <c r="E236" t="n">
-        <v>-1.292938232421875</v>
+        <v>-4.01611328125</v>
       </c>
     </row>
     <row r="237">
@@ -4466,10 +4466,10 @@
         <v>391.452552277676</v>
       </c>
       <c r="D237" t="n">
-        <v>392.4504089355469</v>
+        <v>394.8456115722656</v>
       </c>
       <c r="E237" t="n">
-        <v>-0.99786376953125</v>
+        <v>-3.39306640625</v>
       </c>
     </row>
     <row r="238">
@@ -4483,10 +4483,10 @@
         <v>395.032971553912</v>
       </c>
       <c r="D238" t="n">
-        <v>393.6382446289062</v>
+        <v>397.543701171875</v>
       </c>
       <c r="E238" t="n">
-        <v>1.39471435546875</v>
+        <v>-2.5107421875</v>
       </c>
     </row>
     <row r="239">
@@ -4500,10 +4500,10 @@
         <v>398.280777627916</v>
       </c>
       <c r="D239" t="n">
-        <v>394.0919189453125</v>
+        <v>400.4523620605469</v>
       </c>
       <c r="E239" t="n">
-        <v>4.188873291015625</v>
+        <v>-2.17156982421875</v>
       </c>
     </row>
     <row r="240">
@@ -4517,10 +4517,10 @@
         <v>401.319887746144</v>
       </c>
       <c r="D240" t="n">
-        <v>396.149169921875</v>
+        <v>403.101806640625</v>
       </c>
       <c r="E240" t="n">
-        <v>5.17071533203125</v>
+        <v>-1.78192138671875</v>
       </c>
     </row>
     <row r="241">
@@ -4534,10 +4534,10 @@
         <v>404.181049259923</v>
       </c>
       <c r="D241" t="n">
-        <v>399.6541748046875</v>
+        <v>405.9919738769531</v>
       </c>
       <c r="E241" t="n">
-        <v>4.526885986328125</v>
+        <v>-1.8109130859375</v>
       </c>
     </row>
     <row r="242">
@@ -4551,10 +4551,10 @@
         <v>406.987507775872</v>
       </c>
       <c r="D242" t="n">
-        <v>403.3746032714844</v>
+        <v>408.8443298339844</v>
       </c>
       <c r="E242" t="n">
-        <v>3.6129150390625</v>
+        <v>-1.8568115234375</v>
       </c>
     </row>
     <row r="243">
@@ -4568,10 +4568,10 @@
         <v>409.908858985516</v>
       </c>
       <c r="D243" t="n">
-        <v>407.0564880371094</v>
+        <v>411.5718688964844</v>
       </c>
       <c r="E243" t="n">
-        <v>2.85235595703125</v>
+        <v>-1.66302490234375</v>
       </c>
     </row>
     <row r="244">
@@ -4585,10 +4585,10 @@
         <v>412.755444712887</v>
       </c>
       <c r="D244" t="n">
-        <v>410.7958068847656</v>
+        <v>414.529296875</v>
       </c>
       <c r="E244" t="n">
-        <v>1.959625244140625</v>
+        <v>-1.77386474609375</v>
       </c>
     </row>
     <row r="245">
@@ -4602,10 +4602,10 @@
         <v>415.668896967125</v>
       </c>
       <c r="D245" t="n">
-        <v>414.4721069335938</v>
+        <v>417.3552551269531</v>
       </c>
       <c r="E245" t="n">
-        <v>1.19677734375</v>
+        <v>-1.686370849609375</v>
       </c>
     </row>
     <row r="246">
@@ -4619,10 +4619,10 @@
         <v>418.832170261699</v>
       </c>
       <c r="D246" t="n">
-        <v>418.30419921875</v>
+        <v>420.2425537109375</v>
       </c>
       <c r="E246" t="n">
-        <v>0.527984619140625</v>
+        <v>-1.410369873046875</v>
       </c>
     </row>
     <row r="247">
@@ -4636,10 +4636,10 @@
         <v>422.010877906935</v>
       </c>
       <c r="D247" t="n">
-        <v>422.2672424316406</v>
+        <v>423.0756530761719</v>
       </c>
       <c r="E247" t="n">
-        <v>-0.256378173828125</v>
+        <v>-1.064788818359375</v>
       </c>
     </row>
     <row r="248">
@@ -4653,10 +4653,10 @@
         <v>425.037382089327</v>
       </c>
       <c r="D248" t="n">
-        <v>426.3320617675781</v>
+        <v>426.1944580078125</v>
       </c>
       <c r="E248" t="n">
-        <v>-1.294677734375</v>
+        <v>-1.157073974609375</v>
       </c>
     </row>
     <row r="249">
@@ -4670,10 +4670,10 @@
         <v>427.868814223569</v>
       </c>
       <c r="D249" t="n">
-        <v>430.0924682617188</v>
+        <v>429.221435546875</v>
       </c>
       <c r="E249" t="n">
-        <v>-2.223663330078125</v>
+        <v>-1.352630615234375</v>
       </c>
     </row>
     <row r="250">
@@ -4687,10 +4687,10 @@
         <v>430.578997579081</v>
       </c>
       <c r="D250" t="n">
-        <v>433.7113647460938</v>
+        <v>432.2230224609375</v>
       </c>
       <c r="E250" t="n">
-        <v>-3.132354736328125</v>
+        <v>-1.644012451171875</v>
       </c>
     </row>
     <row r="251">
@@ -4704,10 +4704,10 @@
         <v>433.637530085374</v>
       </c>
       <c r="D251" t="n">
-        <v>437.4926147460938</v>
+        <v>435.3348999023438</v>
       </c>
       <c r="E251" t="n">
-        <v>-3.855072021484375</v>
+        <v>-1.697357177734375</v>
       </c>
     </row>
     <row r="252">
@@ -4721,10 +4721,10 @@
         <v>437.125932179922</v>
       </c>
       <c r="D252" t="n">
-        <v>440.4153747558594</v>
+        <v>438.4891967773438</v>
       </c>
       <c r="E252" t="n">
-        <v>-3.2894287109375</v>
+        <v>-1.363250732421875</v>
       </c>
     </row>
     <row r="253">
@@ -4738,10 +4738,10 @@
         <v>440.4055118365101</v>
       </c>
       <c r="D253" t="n">
-        <v>442.498046875</v>
+        <v>441.5814208984375</v>
       </c>
       <c r="E253" t="n">
-        <v>-2.092529296875</v>
+        <v>-1.1759033203125</v>
       </c>
     </row>
     <row r="254">
@@ -4755,10 +4755,10 @@
         <v>443.030677527441</v>
       </c>
       <c r="D254" t="n">
-        <v>444.6200866699219</v>
+        <v>444.4592590332031</v>
       </c>
       <c r="E254" t="n">
-        <v>-1.58941650390625</v>
+        <v>-1.4285888671875</v>
       </c>
     </row>
     <row r="255">
@@ -4772,10 +4772,10 @@
         <v>445.101870792375</v>
       </c>
       <c r="D255" t="n">
-        <v>446.6497192382812</v>
+        <v>446.9898071289062</v>
       </c>
       <c r="E255" t="n">
-        <v>-1.5478515625</v>
+        <v>-1.887939453125</v>
       </c>
     </row>
     <row r="256">
@@ -4789,10 +4789,10 @@
         <v>447.220367875882</v>
       </c>
       <c r="D256" t="n">
-        <v>448.5208129882812</v>
+        <v>449.8109436035156</v>
       </c>
       <c r="E256" t="n">
-        <v>-1.300445556640625</v>
+        <v>-2.590576171875</v>
       </c>
     </row>
     <row r="257">
@@ -4806,10 +4806,10 @@
         <v>449.90041684165</v>
       </c>
       <c r="D257" t="n">
-        <v>450.5614624023438</v>
+        <v>452.5900268554688</v>
       </c>
       <c r="E257" t="n">
-        <v>-0.661041259765625</v>
+        <v>-2.689605712890625</v>
       </c>
     </row>
     <row r="258">
@@ -4823,10 +4823,10 @@
         <v>453.08609835363</v>
       </c>
       <c r="D258" t="n">
-        <v>452.7743835449219</v>
+        <v>455.3170471191406</v>
       </c>
       <c r="E258" t="n">
-        <v>0.31170654296875</v>
+        <v>-2.23095703125</v>
       </c>
     </row>
     <row r="259">
@@ -4840,10 +4840,10 @@
         <v>456.288903224159</v>
       </c>
       <c r="D259" t="n">
-        <v>455.04345703125</v>
+        <v>458.1322937011719</v>
       </c>
       <c r="E259" t="n">
-        <v>1.245452880859375</v>
+        <v>-1.8433837890625</v>
       </c>
     </row>
     <row r="260">
@@ -4857,10 +4857,10 @@
         <v>459.272590377322</v>
       </c>
       <c r="D260" t="n">
-        <v>457.3591003417969</v>
+        <v>460.8427734375</v>
       </c>
       <c r="E260" t="n">
-        <v>1.913482666015625</v>
+        <v>-1.5701904296875</v>
       </c>
     </row>
     <row r="261">
@@ -4874,10 +4874,10 @@
         <v>461.846979094997</v>
       </c>
       <c r="D261" t="n">
-        <v>459.442138671875</v>
+        <v>463.8064575195312</v>
       </c>
       <c r="E261" t="n">
-        <v>2.40484619140625</v>
+        <v>-1.95947265625</v>
       </c>
     </row>
     <row r="262">
@@ -4891,10 +4891,10 @@
         <v>464.240694187358</v>
       </c>
       <c r="D262" t="n">
-        <v>461.6515197753906</v>
+        <v>466.4576416015625</v>
       </c>
       <c r="E262" t="n">
-        <v>2.58917236328125</v>
+        <v>-2.216949462890625</v>
       </c>
     </row>
     <row r="263">
@@ -4908,10 +4908,10 @@
         <v>466.983677783346</v>
       </c>
       <c r="D263" t="n">
-        <v>463.7926025390625</v>
+        <v>469.5079650878906</v>
       </c>
       <c r="E263" t="n">
-        <v>3.191070556640625</v>
+        <v>-2.5242919921875</v>
       </c>
     </row>
     <row r="264">
@@ -4925,10 +4925,10 @@
         <v>469.973982253232</v>
       </c>
       <c r="D264" t="n">
-        <v>466.0299987792969</v>
+        <v>472.4385375976562</v>
       </c>
       <c r="E264" t="n">
-        <v>3.9439697265625</v>
+        <v>-2.464569091796875</v>
       </c>
     </row>
     <row r="265">
@@ -4942,10 +4942,10 @@
         <v>473.183710603448</v>
       </c>
       <c r="D265" t="n">
-        <v>468.08056640625</v>
+        <v>475.3069152832031</v>
       </c>
       <c r="E265" t="n">
-        <v>5.1031494140625</v>
+        <v>-2.123199462890625</v>
       </c>
     </row>
     <row r="266">
@@ -4959,10 +4959,10 @@
         <v>476.273930801176</v>
       </c>
       <c r="D266" t="n">
-        <v>470.041748046875</v>
+        <v>478.28466796875</v>
       </c>
       <c r="E266" t="n">
-        <v>6.232177734375</v>
+        <v>-2.0107421875</v>
       </c>
     </row>
     <row r="267">
@@ -4976,10 +4976,10 @@
         <v>478.9648680035809</v>
       </c>
       <c r="D267" t="n">
-        <v>472.3172302246094</v>
+        <v>481.0628967285156</v>
       </c>
       <c r="E267" t="n">
-        <v>6.64764404296875</v>
+        <v>-2.0980224609375</v>
       </c>
     </row>
     <row r="268">
@@ -4993,10 +4993,10 @@
         <v>481.301869594563</v>
       </c>
       <c r="D268" t="n">
-        <v>474.5128173828125</v>
+        <v>484.0780639648438</v>
       </c>
       <c r="E268" t="n">
-        <v>6.7890625</v>
+        <v>-2.77618408203125</v>
       </c>
     </row>
     <row r="269">
@@ -5010,10 +5010,10 @@
         <v>483.404662241365</v>
       </c>
       <c r="D269" t="n">
-        <v>478.3568115234375</v>
+        <v>487.218994140625</v>
       </c>
       <c r="E269" t="n">
-        <v>5.0478515625</v>
+        <v>-3.8143310546875</v>
       </c>
     </row>
     <row r="270">
@@ -5027,10 +5027,10 @@
         <v>485.908303383375</v>
       </c>
       <c r="D270" t="n">
-        <v>483.0059204101562</v>
+        <v>489.9680786132812</v>
       </c>
       <c r="E270" t="n">
-        <v>2.902374267578125</v>
+        <v>-4.059783935546875</v>
       </c>
     </row>
     <row r="271">
@@ -5044,10 +5044,10 @@
         <v>489.179033892991</v>
       </c>
       <c r="D271" t="n">
-        <v>487.4470825195312</v>
+        <v>492.231201171875</v>
       </c>
       <c r="E271" t="n">
-        <v>1.731964111328125</v>
+        <v>-3.052154541015625</v>
       </c>
     </row>
     <row r="272">
@@ -5061,10 +5061,10 @@
         <v>492.769763847007</v>
       </c>
       <c r="D272" t="n">
-        <v>492.010986328125</v>
+        <v>494.4480285644531</v>
       </c>
       <c r="E272" t="n">
-        <v>0.7587890625</v>
+        <v>-1.678253173828125</v>
       </c>
     </row>
     <row r="273">
@@ -5078,10 +5078,10 @@
         <v>496.2343376394909</v>
       </c>
       <c r="D273" t="n">
-        <v>497.2636108398438</v>
+        <v>497.2037963867188</v>
       </c>
       <c r="E273" t="n">
-        <v>-1.029266357421875</v>
+        <v>-0.969451904296875</v>
       </c>
     </row>
     <row r="274">
@@ -5095,10 +5095,10 @@
         <v>499.506164512729</v>
       </c>
       <c r="D274" t="n">
-        <v>500.3978881835938</v>
+        <v>499.72314453125</v>
       </c>
       <c r="E274" t="n">
-        <v>-0.8917236328125</v>
+        <v>-0.21697998046875</v>
       </c>
     </row>
     <row r="275">
@@ -5112,10 +5112,10 @@
         <v>502.12503366448</v>
       </c>
       <c r="D275" t="n">
-        <v>502.208740234375</v>
+        <v>501.8228149414062</v>
       </c>
       <c r="E275" t="n">
-        <v>-0.083709716796875</v>
+        <v>0.302215576171875</v>
       </c>
     </row>
     <row r="276">
@@ -5129,10 +5129,10 @@
         <v>504.570658586534</v>
       </c>
       <c r="D276" t="n">
-        <v>504.1790466308594</v>
+        <v>504.0631408691406</v>
       </c>
       <c r="E276" t="n">
-        <v>0.3916015625</v>
+        <v>0.50750732421875</v>
       </c>
     </row>
     <row r="277">
@@ -5146,10 +5146,10 @@
         <v>507.426541289789</v>
       </c>
       <c r="D277" t="n">
-        <v>506.18310546875</v>
+        <v>507.8022766113281</v>
       </c>
       <c r="E277" t="n">
-        <v>1.243438720703125</v>
+        <v>-0.375732421875</v>
       </c>
     </row>
     <row r="278">
@@ -5163,10 +5163,10 @@
         <v>510.206821492631</v>
       </c>
       <c r="D278" t="n">
-        <v>508.60693359375</v>
+        <v>512.0169067382812</v>
       </c>
       <c r="E278" t="n">
-        <v>1.599884033203125</v>
+        <v>-1.810089111328125</v>
       </c>
     </row>
     <row r="279">
@@ -5180,10 +5180,10 @@
         <v>513.133422872093</v>
       </c>
       <c r="D279" t="n">
-        <v>511.1062622070312</v>
+        <v>516.2127685546875</v>
       </c>
       <c r="E279" t="n">
-        <v>2.02716064453125</v>
+        <v>-3.079345703125</v>
       </c>
     </row>
     <row r="280">
@@ -5197,10 +5197,10 @@
         <v>516.392326152721</v>
       </c>
       <c r="D280" t="n">
-        <v>513.5258178710938</v>
+        <v>520.2898559570312</v>
       </c>
       <c r="E280" t="n">
-        <v>2.86651611328125</v>
+        <v>-3.89752197265625</v>
       </c>
     </row>
     <row r="281">
@@ -5214,10 +5214,10 @@
         <v>519.867730694367</v>
       </c>
       <c r="D281" t="n">
-        <v>516.3817138671875</v>
+        <v>523.9247436523438</v>
       </c>
       <c r="E281" t="n">
-        <v>3.48602294921875</v>
+        <v>-4.0570068359375</v>
       </c>
     </row>
     <row r="282">
@@ -5231,10 +5231,10 @@
         <v>523.585325081704</v>
       </c>
       <c r="D282" t="n">
-        <v>519.0108032226562</v>
+        <v>526.935791015625</v>
       </c>
       <c r="E282" t="n">
-        <v>4.57452392578125</v>
+        <v>-3.3504638671875</v>
       </c>
     </row>
     <row r="283">
@@ -5248,10 +5248,10 @@
         <v>527.5624824212999</v>
       </c>
       <c r="D283" t="n">
-        <v>522.1494140625</v>
+        <v>530.591064453125</v>
       </c>
       <c r="E283" t="n">
-        <v>5.4130859375</v>
+        <v>-3.028564453125</v>
       </c>
     </row>
     <row r="284">
@@ -5265,10 +5265,10 @@
         <v>209.011927927369</v>
       </c>
       <c r="D284" t="n">
-        <v>225.4522399902344</v>
+        <v>215.2213592529297</v>
       </c>
       <c r="E284" t="n">
-        <v>-16.4403076171875</v>
+        <v>-6.209426879882812</v>
       </c>
     </row>
     <row r="285">
@@ -5282,10 +5282,10 @@
         <v>221.793120754345</v>
       </c>
       <c r="D285" t="n">
-        <v>229.0976867675781</v>
+        <v>223.2779846191406</v>
       </c>
       <c r="E285" t="n">
-        <v>-7.3045654296875</v>
+        <v>-1.48486328125</v>
       </c>
     </row>
     <row r="286">
@@ -5299,10 +5299,10 @@
         <v>232.08539600163</v>
       </c>
       <c r="D286" t="n">
-        <v>233.5123901367188</v>
+        <v>232.7765350341797</v>
       </c>
       <c r="E286" t="n">
-        <v>-1.426986694335938</v>
+        <v>-0.691131591796875</v>
       </c>
     </row>
     <row r="287">
@@ -5316,10 +5316,10 @@
         <v>240.627714197648</v>
       </c>
       <c r="D287" t="n">
-        <v>238.4453125</v>
+        <v>242.8541564941406</v>
       </c>
       <c r="E287" t="n">
-        <v>2.182403564453125</v>
+        <v>-2.2264404296875</v>
       </c>
     </row>
     <row r="288">
@@ -5333,10 +5333,10 @@
         <v>247.673377492787</v>
       </c>
       <c r="D288" t="n">
-        <v>243.6491394042969</v>
+        <v>250.6280517578125</v>
       </c>
       <c r="E288" t="n">
-        <v>4.02423095703125</v>
+        <v>-2.954681396484375</v>
       </c>
     </row>
     <row r="289">
@@ -5350,10 +5350,10 @@
         <v>253.62721707432</v>
       </c>
       <c r="D289" t="n">
-        <v>247.8821411132812</v>
+        <v>254.7830047607422</v>
       </c>
       <c r="E289" t="n">
-        <v>5.745071411132812</v>
+        <v>-1.155792236328125</v>
       </c>
     </row>
     <row r="290">
@@ -5367,10 +5367,10 @@
         <v>258.910505498735</v>
       </c>
       <c r="D290" t="n">
-        <v>252.6731414794922</v>
+        <v>259.2608032226562</v>
       </c>
       <c r="E290" t="n">
-        <v>6.237350463867188</v>
+        <v>-0.350311279296875</v>
       </c>
     </row>
     <row r="291">
@@ -5384,10 +5384,10 @@
         <v>263.769089088647</v>
       </c>
       <c r="D291" t="n">
-        <v>257.6070251464844</v>
+        <v>263.7308044433594</v>
       </c>
       <c r="E291" t="n">
-        <v>6.162078857421875</v>
+        <v>0.038299560546875</v>
       </c>
     </row>
     <row r="292">
@@ -5401,10 +5401,10 @@
         <v>268.326278819998</v>
       </c>
       <c r="D292" t="n">
-        <v>262.30810546875</v>
+        <v>268.1577758789062</v>
       </c>
       <c r="E292" t="n">
-        <v>6.0181884765625</v>
+        <v>0.16851806640625</v>
       </c>
     </row>
     <row r="293">
@@ -5418,10 +5418,10 @@
         <v>272.764100113871</v>
       </c>
       <c r="D293" t="n">
-        <v>267.0409545898438</v>
+        <v>272.65771484375</v>
       </c>
       <c r="E293" t="n">
-        <v>5.72314453125</v>
+        <v>0.10638427734375</v>
       </c>
     </row>
     <row r="294">
@@ -5435,10 +5435,10 @@
         <v>277.179396142188</v>
       </c>
       <c r="D294" t="n">
-        <v>272.3254089355469</v>
+        <v>277.4642333984375</v>
       </c>
       <c r="E294" t="n">
-        <v>4.853973388671875</v>
+        <v>-0.28485107421875</v>
       </c>
     </row>
     <row r="295">
@@ -5452,10 +5452,10 @@
         <v>281.596883976502</v>
       </c>
       <c r="D295" t="n">
-        <v>277.0194091796875</v>
+        <v>281.9053344726562</v>
       </c>
       <c r="E295" t="n">
-        <v>4.577484130859375</v>
+        <v>-0.308441162109375</v>
       </c>
     </row>
     <row r="296">
@@ -5469,10 +5469,10 @@
         <v>285.936384261871</v>
       </c>
       <c r="D296" t="n">
-        <v>281.371826171875</v>
+        <v>286.5425109863281</v>
       </c>
       <c r="E296" t="n">
-        <v>4.564544677734375</v>
+        <v>-0.60614013671875</v>
       </c>
     </row>
     <row r="297">
@@ -5486,10 +5486,10 @@
         <v>289.997027688002</v>
       </c>
       <c r="D297" t="n">
-        <v>285.7132873535156</v>
+        <v>291.0308227539062</v>
       </c>
       <c r="E297" t="n">
-        <v>4.28375244140625</v>
+        <v>-1.033782958984375</v>
       </c>
     </row>
     <row r="298">
@@ -5503,10 +5503,10 @@
         <v>293.644256271626</v>
       </c>
       <c r="D298" t="n">
-        <v>290.2544250488281</v>
+        <v>293.9971008300781</v>
       </c>
       <c r="E298" t="n">
-        <v>3.38983154296875</v>
+        <v>-0.35284423828125</v>
       </c>
     </row>
     <row r="299">
@@ -5520,10 +5520,10 @@
         <v>297.09172180026</v>
       </c>
       <c r="D299" t="n">
-        <v>295.2632446289062</v>
+        <v>297.787353515625</v>
       </c>
       <c r="E299" t="n">
-        <v>1.8284912109375</v>
+        <v>-0.69561767578125</v>
       </c>
     </row>
     <row r="300">
@@ -5537,10 +5537,10 @@
         <v>300.675120438056</v>
       </c>
       <c r="D300" t="n">
-        <v>300.1901550292969</v>
+        <v>301.0942077636719</v>
       </c>
       <c r="E300" t="n">
-        <v>0.484954833984375</v>
+        <v>-0.419097900390625</v>
       </c>
     </row>
     <row r="301">
@@ -5554,10 +5554,10 @@
         <v>304.535182081305</v>
       </c>
       <c r="D301" t="n">
-        <v>303.9707336425781</v>
+        <v>304.576904296875</v>
       </c>
       <c r="E301" t="n">
-        <v>0.564453125</v>
+        <v>-0.041717529296875</v>
       </c>
     </row>
     <row r="302">
@@ -5571,10 +5571,10 @@
         <v>308.817816097269</v>
       </c>
       <c r="D302" t="n">
-        <v>308.3745727539062</v>
+        <v>309.3707885742188</v>
       </c>
       <c r="E302" t="n">
-        <v>0.4432373046875</v>
+        <v>-0.552978515625</v>
       </c>
     </row>
     <row r="303">
@@ -5588,10 +5588,10 @@
         <v>313.470210775533</v>
       </c>
       <c r="D303" t="n">
-        <v>312.1659851074219</v>
+        <v>313.5123291015625</v>
       </c>
       <c r="E303" t="n">
-        <v>1.304229736328125</v>
+        <v>-0.0421142578125</v>
       </c>
     </row>
     <row r="304">
@@ -5605,10 +5605,10 @@
         <v>318.288355032208</v>
       </c>
       <c r="D304" t="n">
-        <v>316.9058227539062</v>
+        <v>319.0609130859375</v>
       </c>
       <c r="E304" t="n">
-        <v>1.382537841796875</v>
+        <v>-0.772552490234375</v>
       </c>
     </row>
     <row r="305">
@@ -5622,10 +5622,10 @@
         <v>323.194075039336</v>
       </c>
       <c r="D305" t="n">
-        <v>321.6812438964844</v>
+        <v>324.7900390625</v>
       </c>
       <c r="E305" t="n">
-        <v>1.5128173828125</v>
+        <v>-1.595977783203125</v>
       </c>
     </row>
     <row r="306">
@@ -5639,10 +5639,10 @@
         <v>328.042963331813</v>
       </c>
       <c r="D306" t="n">
-        <v>326.2820739746094</v>
+        <v>330.6534423828125</v>
       </c>
       <c r="E306" t="n">
-        <v>1.760894775390625</v>
+        <v>-2.6104736328125</v>
       </c>
     </row>
     <row r="307">
@@ -5656,10 +5656,10 @@
         <v>332.718792742664</v>
       </c>
       <c r="D307" t="n">
-        <v>331.3123779296875</v>
+        <v>335.1602783203125</v>
       </c>
       <c r="E307" t="n">
-        <v>1.406402587890625</v>
+        <v>-2.441497802734375</v>
       </c>
     </row>
     <row r="308">
@@ -5673,10 +5673,10 @@
         <v>337.13789681928</v>
       </c>
       <c r="D308" t="n">
-        <v>335.4370727539062</v>
+        <v>339.5791931152344</v>
       </c>
       <c r="E308" t="n">
-        <v>1.700836181640625</v>
+        <v>-2.4412841796875</v>
       </c>
     </row>
     <row r="309">
@@ -5690,10 +5690,10 @@
         <v>341.168194159613</v>
       </c>
       <c r="D309" t="n">
-        <v>338.8395690917969</v>
+        <v>343.161865234375</v>
       </c>
       <c r="E309" t="n">
-        <v>2.32861328125</v>
+        <v>-1.993682861328125</v>
       </c>
     </row>
     <row r="310">
@@ -5707,10 +5707,10 @@
         <v>344.610402220772</v>
       </c>
       <c r="D310" t="n">
-        <v>341.9697265625</v>
+        <v>346.8620910644531</v>
       </c>
       <c r="E310" t="n">
-        <v>2.64068603515625</v>
+        <v>-2.251678466796875</v>
       </c>
     </row>
     <row r="311">
@@ -5724,10 +5724,10 @@
         <v>347.323034102117</v>
       </c>
       <c r="D311" t="n">
-        <v>344.0932006835938</v>
+        <v>349.4756164550781</v>
       </c>
       <c r="E311" t="n">
-        <v>3.229827880859375</v>
+        <v>-2.152587890625</v>
       </c>
     </row>
     <row r="312">
@@ -5741,10 +5741,10 @@
         <v>349.262051131422</v>
       </c>
       <c r="D312" t="n">
-        <v>344.986083984375</v>
+        <v>350.5755615234375</v>
       </c>
       <c r="E312" t="n">
-        <v>4.275970458984375</v>
+        <v>-1.313507080078125</v>
       </c>
     </row>
     <row r="313">
@@ -5758,10 +5758,10 @@
         <v>350.623153543361</v>
       </c>
       <c r="D313" t="n">
-        <v>345.87744140625</v>
+        <v>352.0400085449219</v>
       </c>
       <c r="E313" t="n">
-        <v>4.745697021484375</v>
+        <v>-1.4168701171875</v>
       </c>
     </row>
     <row r="314">
@@ -5775,10 +5775,10 @@
         <v>351.72216236334</v>
       </c>
       <c r="D314" t="n">
-        <v>346.39892578125</v>
+        <v>352.5895690917969</v>
       </c>
       <c r="E314" t="n">
-        <v>5.3232421875</v>
+        <v>-0.867401123046875</v>
       </c>
     </row>
     <row r="315">
@@ -5792,10 +5792,10 @@
         <v>353.050699922034</v>
       </c>
       <c r="D315" t="n">
-        <v>346.7144470214844</v>
+        <v>352.99755859375</v>
       </c>
       <c r="E315" t="n">
-        <v>6.33624267578125</v>
+        <v>0.053131103515625</v>
       </c>
     </row>
     <row r="316">
@@ -5809,10 +5809,10 @@
         <v>354.925702251693</v>
       </c>
       <c r="D316" t="n">
-        <v>348.1537170410156</v>
+        <v>354.4728393554688</v>
       </c>
       <c r="E316" t="n">
-        <v>6.77197265625</v>
+        <v>0.452850341796875</v>
       </c>
     </row>
     <row r="317">
@@ -5826,10 +5826,10 @@
         <v>357.314769014477</v>
       </c>
       <c r="D317" t="n">
-        <v>350.4870300292969</v>
+        <v>356.85693359375</v>
       </c>
       <c r="E317" t="n">
-        <v>6.827728271484375</v>
+        <v>0.45782470703125</v>
       </c>
     </row>
     <row r="318">
@@ -5843,10 +5843,10 @@
         <v>360.24357637819</v>
       </c>
       <c r="D318" t="n">
-        <v>353.2635803222656</v>
+        <v>359.7816467285156</v>
       </c>
       <c r="E318" t="n">
-        <v>6.980010986328125</v>
+        <v>0.461944580078125</v>
       </c>
     </row>
     <row r="319">
@@ -5860,10 +5860,10 @@
         <v>363.750634890023</v>
       </c>
       <c r="D319" t="n">
-        <v>356.4617614746094</v>
+        <v>363.2332458496094</v>
       </c>
       <c r="E319" t="n">
-        <v>7.28887939453125</v>
+        <v>0.51739501953125</v>
       </c>
     </row>
     <row r="320">
@@ -5877,10 +5877,10 @@
         <v>367.670011298574</v>
       </c>
       <c r="D320" t="n">
-        <v>360.8521118164062</v>
+        <v>367.8684997558594</v>
       </c>
       <c r="E320" t="n">
-        <v>6.817901611328125</v>
+        <v>-0.198486328125</v>
       </c>
     </row>
     <row r="321">
@@ -5894,10 +5894,10 @@
         <v>371.723540462416</v>
       </c>
       <c r="D321" t="n">
-        <v>365.6392822265625</v>
+        <v>372.9673156738281</v>
       </c>
       <c r="E321" t="n">
-        <v>6.084259033203125</v>
+        <v>-1.2437744140625</v>
       </c>
     </row>
     <row r="322">
@@ -5911,10 +5911,10 @@
         <v>375.828570259432</v>
       </c>
       <c r="D322" t="n">
-        <v>370.65234375</v>
+        <v>378.33935546875</v>
       </c>
       <c r="E322" t="n">
-        <v>5.176239013671875</v>
+        <v>-2.510772705078125</v>
       </c>
     </row>
     <row r="323">
@@ -5928,10 +5928,10 @@
         <v>380.027046825786</v>
       </c>
       <c r="D323" t="n">
-        <v>375.3864440917969</v>
+        <v>383.4957275390625</v>
       </c>
       <c r="E323" t="n">
-        <v>4.640594482421875</v>
+        <v>-3.46868896484375</v>
       </c>
     </row>
     <row r="324">
@@ -5945,10 +5945,10 @@
         <v>384.289481143984</v>
       </c>
       <c r="D324" t="n">
-        <v>380.4378662109375</v>
+        <v>388.9031372070312</v>
       </c>
       <c r="E324" t="n">
-        <v>3.85162353515625</v>
+        <v>-4.6136474609375</v>
       </c>
     </row>
     <row r="325">
@@ -5962,10 +5962,10 @@
         <v>388.666525362425</v>
       </c>
       <c r="D325" t="n">
-        <v>384.91845703125</v>
+        <v>389.9640197753906</v>
       </c>
       <c r="E325" t="n">
-        <v>3.748077392578125</v>
+        <v>-1.2974853515625</v>
       </c>
     </row>
     <row r="326">
@@ -5979,10 +5979,10 @@
         <v>393.058846161206</v>
       </c>
       <c r="D326" t="n">
-        <v>390.0168762207031</v>
+        <v>392.4940795898438</v>
       </c>
       <c r="E326" t="n">
-        <v>3.041961669921875</v>
+        <v>0.56475830078125</v>
       </c>
     </row>
     <row r="327">
@@ -5996,10 +5996,10 @@
         <v>397.230082996873</v>
       </c>
       <c r="D327" t="n">
-        <v>395.076171875</v>
+        <v>397.4104614257812</v>
       </c>
       <c r="E327" t="n">
-        <v>2.153900146484375</v>
+        <v>-0.180389404296875</v>
       </c>
     </row>
     <row r="328">
@@ -6013,10 +6013,10 @@
         <v>400.9321721983069</v>
       </c>
       <c r="D328" t="n">
-        <v>399.6228637695312</v>
+        <v>401.4867858886719</v>
       </c>
       <c r="E328" t="n">
-        <v>1.309295654296875</v>
+        <v>-0.55462646484375</v>
       </c>
     </row>
     <row r="329">
@@ -6030,10 +6030,10 @@
         <v>404.173861373206</v>
       </c>
       <c r="D329" t="n">
-        <v>405.1124572753906</v>
+        <v>406.6416015625</v>
       </c>
       <c r="E329" t="n">
-        <v>-0.9385986328125</v>
+        <v>-2.467742919921875</v>
       </c>
     </row>
     <row r="330">
@@ -6047,10 +6047,10 @@
         <v>407.137933580303</v>
       </c>
       <c r="D330" t="n">
-        <v>409.072998046875</v>
+        <v>410.1564025878906</v>
       </c>
       <c r="E330" t="n">
-        <v>-1.93505859375</v>
+        <v>-3.018463134765625</v>
       </c>
     </row>
     <row r="331">
@@ -6064,10 +6064,10 @@
         <v>410.143853937496</v>
       </c>
       <c r="D331" t="n">
-        <v>412.8089904785156</v>
+        <v>413.7285766601562</v>
       </c>
       <c r="E331" t="n">
-        <v>-2.665130615234375</v>
+        <v>-3.584716796875</v>
       </c>
     </row>
     <row r="332">
@@ -6081,10 +6081,10 @@
         <v>413.356727583078</v>
       </c>
       <c r="D332" t="n">
-        <v>415.5892639160156</v>
+        <v>416.764892578125</v>
       </c>
       <c r="E332" t="n">
-        <v>-2.2325439453125</v>
+        <v>-3.408172607421875</v>
       </c>
     </row>
     <row r="333">
@@ -6098,10 +6098,10 @@
         <v>416.4861719071259</v>
       </c>
       <c r="D333" t="n">
-        <v>417.4444580078125</v>
+        <v>419.8807373046875</v>
       </c>
       <c r="E333" t="n">
-        <v>-0.958282470703125</v>
+        <v>-3.394561767578125</v>
       </c>
     </row>
     <row r="334">
@@ -6115,10 +6115,10 @@
         <v>419.208536681578</v>
       </c>
       <c r="D334" t="n">
-        <v>418.1759643554688</v>
+        <v>422.7605895996094</v>
       </c>
       <c r="E334" t="n">
-        <v>1.032562255859375</v>
+        <v>-3.55206298828125</v>
       </c>
     </row>
     <row r="335">
@@ -6132,10 +6132,10 @@
         <v>422.083256987245</v>
       </c>
       <c r="D335" t="n">
-        <v>417.6924438476562</v>
+        <v>425.135498046875</v>
       </c>
       <c r="E335" t="n">
-        <v>4.39080810546875</v>
+        <v>-3.05224609375</v>
       </c>
     </row>
     <row r="336">
@@ -6149,10 +6149,10 @@
         <v>425.5864835257109</v>
       </c>
       <c r="D336" t="n">
-        <v>416.5755615234375</v>
+        <v>426.7164611816406</v>
       </c>
       <c r="E336" t="n">
-        <v>9.01092529296875</v>
+        <v>-1.129974365234375</v>
       </c>
     </row>
     <row r="337">
@@ -6166,10 +6166,10 @@
         <v>429.787280922256</v>
       </c>
       <c r="D337" t="n">
-        <v>420.2939453125</v>
+        <v>429.9269714355469</v>
       </c>
       <c r="E337" t="n">
-        <v>9.49334716796875</v>
+        <v>-0.139678955078125</v>
       </c>
     </row>
     <row r="338">
@@ -6183,10 +6183,10 @@
         <v>434.722597592498</v>
       </c>
       <c r="D338" t="n">
-        <v>429.3371276855469</v>
+        <v>434.7850036621094</v>
       </c>
       <c r="E338" t="n">
-        <v>5.385467529296875</v>
+        <v>-0.062408447265625</v>
       </c>
     </row>
     <row r="339">
@@ -6200,10 +6200,10 @@
         <v>440.292863791475</v>
       </c>
       <c r="D339" t="n">
-        <v>444.3835754394531</v>
+        <v>441.3828430175781</v>
       </c>
       <c r="E339" t="n">
-        <v>-4.0906982421875</v>
+        <v>-1.0899658203125</v>
       </c>
     </row>
     <row r="340">
@@ -6217,10 +6217,10 @@
         <v>446.006814169471</v>
       </c>
       <c r="D340" t="n">
-        <v>445.4737854003906</v>
+        <v>449.6509399414062</v>
       </c>
       <c r="E340" t="n">
-        <v>0.53302001953125</v>
+        <v>-3.644134521484375</v>
       </c>
     </row>
     <row r="341">
@@ -6234,10 +6234,10 @@
         <v>451.709905357426</v>
       </c>
       <c r="D341" t="n">
-        <v>446.0475463867188</v>
+        <v>450.1159973144531</v>
       </c>
       <c r="E341" t="n">
-        <v>5.662353515625</v>
+        <v>1.593902587890625</v>
       </c>
     </row>
     <row r="342">
@@ -6251,10 +6251,10 @@
         <v>457.525865607838</v>
       </c>
       <c r="D342" t="n">
-        <v>443.1803588867188</v>
+        <v>458.1737060546875</v>
       </c>
       <c r="E342" t="n">
-        <v>14.34552001953125</v>
+        <v>-0.6478271484375</v>
       </c>
     </row>
     <row r="343">
@@ -6268,10 +6268,10 @@
         <v>108.375572266184</v>
       </c>
       <c r="D343" t="n">
-        <v>128.1800079345703</v>
+        <v>116.8243713378906</v>
       </c>
       <c r="E343" t="n">
-        <v>-19.80443572998047</v>
+        <v>-8.448799133300781</v>
       </c>
     </row>
     <row r="344">
@@ -6285,10 +6285,10 @@
         <v>119.65618088523</v>
       </c>
       <c r="D344" t="n">
-        <v>125.9435882568359</v>
+        <v>119.2582702636719</v>
       </c>
       <c r="E344" t="n">
-        <v>-6.287406921386719</v>
+        <v>0.3979110717773438</v>
       </c>
     </row>
     <row r="345">
@@ -6302,10 +6302,10 @@
         <v>127.481530358801</v>
       </c>
       <c r="D345" t="n">
-        <v>128.1161804199219</v>
+        <v>124.5923919677734</v>
       </c>
       <c r="E345" t="n">
-        <v>-0.6346511840820312</v>
+        <v>2.889137268066406</v>
       </c>
     </row>
     <row r="346">
@@ -6319,10 +6319,10 @@
         <v>133.098792746531</v>
       </c>
       <c r="D346" t="n">
-        <v>130.3376770019531</v>
+        <v>131.2418975830078</v>
       </c>
       <c r="E346" t="n">
-        <v>2.7611083984375</v>
+        <v>1.856887817382812</v>
       </c>
     </row>
     <row r="347">
@@ -6336,10 +6336,10 @@
         <v>137.275361727573</v>
       </c>
       <c r="D347" t="n">
-        <v>132.7183227539062</v>
+        <v>138.382568359375</v>
       </c>
       <c r="E347" t="n">
-        <v>4.557037353515625</v>
+        <v>-1.107208251953125</v>
       </c>
     </row>
     <row r="348">
@@ -6353,10 +6353,10 @@
         <v>140.603955700861</v>
       </c>
       <c r="D348" t="n">
-        <v>135.4092102050781</v>
+        <v>142.1484375</v>
       </c>
       <c r="E348" t="n">
-        <v>5.194747924804688</v>
+        <v>-1.544479370117188</v>
       </c>
     </row>
     <row r="349">
@@ -6370,10 +6370,10 @@
         <v>143.450429274047</v>
       </c>
       <c r="D349" t="n">
-        <v>140.6640319824219</v>
+        <v>147.1830139160156</v>
       </c>
       <c r="E349" t="n">
-        <v>2.786392211914062</v>
+        <v>-3.732589721679688</v>
       </c>
     </row>
     <row r="350">
@@ -6387,10 +6387,10 @@
         <v>146.001816392336</v>
       </c>
       <c r="D350" t="n">
-        <v>141.8224639892578</v>
+        <v>146.3053436279297</v>
       </c>
       <c r="E350" t="n">
-        <v>4.179351806640625</v>
+        <v>-0.30352783203125</v>
       </c>
     </row>
     <row r="351">
@@ -6404,10 +6404,10 @@
         <v>148.455202556295</v>
       </c>
       <c r="D351" t="n">
-        <v>144.7824401855469</v>
+        <v>148.4208526611328</v>
       </c>
       <c r="E351" t="n">
-        <v>3.672760009765625</v>
+        <v>0.0343475341796875</v>
       </c>
     </row>
     <row r="352">
@@ -6421,10 +6421,10 @@
         <v>150.787051222172</v>
       </c>
       <c r="D352" t="n">
-        <v>148.0869445800781</v>
+        <v>151.6439666748047</v>
       </c>
       <c r="E352" t="n">
-        <v>2.700103759765625</v>
+        <v>-0.8569183349609375</v>
       </c>
     </row>
     <row r="353">
@@ -6438,10 +6438,10 @@
         <v>152.891481299606</v>
       </c>
       <c r="D353" t="n">
-        <v>151.0805206298828</v>
+        <v>153.185302734375</v>
       </c>
       <c r="E353" t="n">
-        <v>1.810958862304688</v>
+        <v>-0.2938232421875</v>
       </c>
     </row>
     <row r="354">
@@ -6455,10 +6455,10 @@
         <v>154.831071218794</v>
       </c>
       <c r="D354" t="n">
-        <v>154.7073822021484</v>
+        <v>155.8452911376953</v>
       </c>
       <c r="E354" t="n">
-        <v>0.123687744140625</v>
+        <v>-1.01422119140625</v>
       </c>
     </row>
     <row r="355">
@@ -6472,10 +6472,10 @@
         <v>156.709487478947</v>
       </c>
       <c r="D355" t="n">
-        <v>157.4178924560547</v>
+        <v>156.6101684570312</v>
       </c>
       <c r="E355" t="n">
-        <v>-0.708404541015625</v>
+        <v>0.0993194580078125</v>
       </c>
     </row>
     <row r="356">
@@ -6489,10 +6489,10 @@
         <v>158.548685036231</v>
       </c>
       <c r="D356" t="n">
-        <v>159.3592681884766</v>
+        <v>159.4381866455078</v>
       </c>
       <c r="E356" t="n">
-        <v>-0.810577392578125</v>
+        <v>-0.889495849609375</v>
       </c>
     </row>
     <row r="357">
@@ -6506,10 +6506,10 @@
         <v>160.237070230666</v>
       </c>
       <c r="D357" t="n">
-        <v>160.2930450439453</v>
+        <v>160.6109619140625</v>
       </c>
       <c r="E357" t="n">
-        <v>-0.05596923828125</v>
+        <v>-0.3738861083984375</v>
       </c>
     </row>
     <row r="358">
@@ -6523,10 +6523,10 @@
         <v>161.811591750422</v>
       </c>
       <c r="D358" t="n">
-        <v>161.9408416748047</v>
+        <v>163.3495483398438</v>
       </c>
       <c r="E358" t="n">
-        <v>-0.1292572021484375</v>
+        <v>-1.5379638671875</v>
       </c>
     </row>
     <row r="359">
@@ -6540,10 +6540,10 @@
         <v>163.338650573511</v>
       </c>
       <c r="D359" t="n">
-        <v>162.86865234375</v>
+        <v>164.4325256347656</v>
       </c>
       <c r="E359" t="n">
-        <v>0.470001220703125</v>
+        <v>-1.0938720703125</v>
       </c>
     </row>
     <row r="360">
@@ -6557,10 +6557,10 @@
         <v>164.849590048401</v>
       </c>
       <c r="D360" t="n">
-        <v>164.5300750732422</v>
+        <v>166.9572143554688</v>
       </c>
       <c r="E360" t="n">
-        <v>0.31951904296875</v>
+        <v>-2.107620239257812</v>
       </c>
     </row>
     <row r="361">
@@ -6574,10 +6574,10 @@
         <v>166.427052700397</v>
       </c>
       <c r="D361" t="n">
-        <v>165.5114288330078</v>
+        <v>168.3985290527344</v>
       </c>
       <c r="E361" t="n">
-        <v>0.915618896484375</v>
+        <v>-1.971481323242188</v>
       </c>
     </row>
     <row r="362">
@@ -6591,10 +6591,10 @@
         <v>168.19170580456</v>
       </c>
       <c r="D362" t="n">
-        <v>167.9093322753906</v>
+        <v>170.6364135742188</v>
       </c>
       <c r="E362" t="n">
-        <v>0.282379150390625</v>
+        <v>-2.4447021484375</v>
       </c>
     </row>
     <row r="363">
@@ -6608,10 +6608,10 @@
         <v>170.246559597033</v>
       </c>
       <c r="D363" t="n">
-        <v>170.32373046875</v>
+        <v>172.90625</v>
       </c>
       <c r="E363" t="n">
-        <v>-0.0771636962890625</v>
+        <v>-2.659683227539062</v>
       </c>
     </row>
     <row r="364">
@@ -6625,10 +6625,10 @@
         <v>172.576103450926</v>
       </c>
       <c r="D364" t="n">
-        <v>171.7529754638672</v>
+        <v>173.9539184570312</v>
       </c>
       <c r="E364" t="n">
-        <v>0.8231353759765625</v>
+        <v>-1.3778076171875</v>
       </c>
     </row>
     <row r="365">
@@ -6642,10 +6642,10 @@
         <v>174.971178487314</v>
       </c>
       <c r="D365" t="n">
-        <v>174.2874145507812</v>
+        <v>176.3533172607422</v>
       </c>
       <c r="E365" t="n">
-        <v>0.6837615966796875</v>
+        <v>-1.38214111328125</v>
       </c>
     </row>
     <row r="366">
@@ -6659,10 +6659,10 @@
         <v>177.375146433468</v>
       </c>
       <c r="D366" t="n">
-        <v>175.7285766601562</v>
+        <v>177.8289031982422</v>
       </c>
       <c r="E366" t="n">
-        <v>1.646575927734375</v>
+        <v>-0.4537506103515625</v>
       </c>
     </row>
     <row r="367">
@@ -6676,10 +6676,10 @@
         <v>179.858881263736</v>
       </c>
       <c r="D367" t="n">
-        <v>178.2111663818359</v>
+        <v>180.5406188964844</v>
       </c>
       <c r="E367" t="n">
-        <v>1.647720336914062</v>
+        <v>-0.681732177734375</v>
       </c>
     </row>
     <row r="368">
@@ -6693,10 +6693,10 @@
         <v>182.464506294039</v>
       </c>
       <c r="D368" t="n">
-        <v>179.7119903564453</v>
+        <v>182.0388031005859</v>
       </c>
       <c r="E368" t="n">
-        <v>2.752517700195312</v>
+        <v>0.4257049560546875</v>
       </c>
     </row>
     <row r="369">
@@ -6710,10 +6710,10 @@
         <v>185.147280514462</v>
       </c>
       <c r="D369" t="n">
-        <v>182.2350158691406</v>
+        <v>185.716064453125</v>
       </c>
       <c r="E369" t="n">
-        <v>2.912261962890625</v>
+        <v>-0.56878662109375</v>
       </c>
     </row>
     <row r="370">
@@ -6727,10 +6727,10 @@
         <v>187.867710881684</v>
       </c>
       <c r="D370" t="n">
-        <v>184.8188171386719</v>
+        <v>189.0749053955078</v>
       </c>
       <c r="E370" t="n">
-        <v>3.04888916015625</v>
+        <v>-1.207199096679688</v>
       </c>
     </row>
     <row r="371">
@@ -6744,10 +6744,10 @@
         <v>190.529453689742</v>
       </c>
       <c r="D371" t="n">
-        <v>186.4032897949219</v>
+        <v>191.7024230957031</v>
       </c>
       <c r="E371" t="n">
-        <v>4.12615966796875</v>
+        <v>-1.1729736328125</v>
       </c>
     </row>
     <row r="372">
@@ -6761,10 +6761,10 @@
         <v>192.97133606788</v>
       </c>
       <c r="D372" t="n">
-        <v>189.0705718994141</v>
+        <v>194.7091522216797</v>
       </c>
       <c r="E372" t="n">
-        <v>3.9007568359375</v>
+        <v>-1.737823486328125</v>
       </c>
     </row>
     <row r="373">
@@ -6778,10 +6778,10 @@
         <v>195.209334210565</v>
       </c>
       <c r="D373" t="n">
-        <v>190.654296875</v>
+        <v>194.8846740722656</v>
       </c>
       <c r="E373" t="n">
-        <v>4.555038452148438</v>
+        <v>0.3246612548828125</v>
       </c>
     </row>
     <row r="374">
@@ -6795,10 +6795,10 @@
         <v>197.444883026885</v>
       </c>
       <c r="D374" t="n">
-        <v>193.3957061767578</v>
+        <v>196.4238891601562</v>
       </c>
       <c r="E374" t="n">
-        <v>4.049179077148438</v>
+        <v>1.02099609375</v>
       </c>
     </row>
     <row r="375">
@@ -6812,10 +6812,10 @@
         <v>199.775071481034</v>
       </c>
       <c r="D375" t="n">
-        <v>196.0163726806641</v>
+        <v>200.9027252197266</v>
       </c>
       <c r="E375" t="n">
-        <v>3.758697509765625</v>
+        <v>-1.127655029296875</v>
       </c>
     </row>
     <row r="376">
@@ -6829,10 +6829,10 @@
         <v>202.332528344675</v>
       </c>
       <c r="D376" t="n">
-        <v>197.6861572265625</v>
+        <v>204.5283355712891</v>
       </c>
       <c r="E376" t="n">
-        <v>4.646377563476562</v>
+        <v>-2.19580078125</v>
       </c>
     </row>
     <row r="377">
@@ -6846,10 +6846,10 @@
         <v>205.23764690517</v>
       </c>
       <c r="D377" t="n">
-        <v>200.4870758056641</v>
+        <v>208.9048461914062</v>
       </c>
       <c r="E377" t="n">
-        <v>4.750564575195312</v>
+        <v>-3.667205810546875</v>
       </c>
     </row>
     <row r="378">
@@ -6863,10 +6863,10 @@
         <v>208.200976952977</v>
       </c>
       <c r="D378" t="n">
-        <v>202.1721649169922</v>
+        <v>210.4555969238281</v>
       </c>
       <c r="E378" t="n">
-        <v>6.02880859375</v>
+        <v>-2.254623413085938</v>
       </c>
     </row>
     <row r="379">
@@ -6880,10 +6880,10 @@
         <v>211.052748902003</v>
       </c>
       <c r="D379" t="n">
-        <v>204.946533203125</v>
+        <v>213.1130065917969</v>
       </c>
       <c r="E379" t="n">
-        <v>6.106216430664062</v>
+        <v>-2.060256958007812</v>
       </c>
     </row>
     <row r="380">
@@ -6897,10 +6897,10 @@
         <v>214.055167841515</v>
       </c>
       <c r="D380" t="n">
-        <v>207.8092193603516</v>
+        <v>216.0336608886719</v>
       </c>
       <c r="E380" t="n">
-        <v>6.245941162109375</v>
+        <v>-1.978500366210938</v>
       </c>
     </row>
     <row r="381">
@@ -6914,10 +6914,10 @@
         <v>217.250777318866</v>
       </c>
       <c r="D381" t="n">
-        <v>210.6065521240234</v>
+        <v>218.9101257324219</v>
       </c>
       <c r="E381" t="n">
-        <v>6.64422607421875</v>
+        <v>-1.659347534179688</v>
       </c>
     </row>
     <row r="382">
@@ -6931,10 +6931,10 @@
         <v>220.518750744196</v>
       </c>
       <c r="D382" t="n">
-        <v>212.3531646728516</v>
+        <v>220.6396026611328</v>
       </c>
       <c r="E382" t="n">
-        <v>8.16558837890625</v>
+        <v>-0.120849609375</v>
       </c>
     </row>
     <row r="383">
@@ -6948,10 +6948,10 @@
         <v>223.63276890565</v>
       </c>
       <c r="D383" t="n">
-        <v>215.2525024414062</v>
+        <v>224.2422180175781</v>
       </c>
       <c r="E383" t="n">
-        <v>8.380264282226562</v>
+        <v>-0.6094512939453125</v>
       </c>
     </row>
     <row r="384">
@@ -6965,10 +6965,10 @@
         <v>226.670972013567</v>
       </c>
       <c r="D384" t="n">
-        <v>218.1457672119141</v>
+        <v>228.0097961425781</v>
       </c>
       <c r="E384" t="n">
-        <v>8.52520751953125</v>
+        <v>-1.338821411132812</v>
       </c>
     </row>
     <row r="385">
@@ -6982,10 +6982,10 @@
         <v>229.875627194916</v>
       </c>
       <c r="D385" t="n">
-        <v>222.5296936035156</v>
+        <v>231.5224151611328</v>
       </c>
       <c r="E385" t="n">
-        <v>7.345932006835938</v>
+        <v>-1.64678955078125</v>
       </c>
     </row>
     <row r="386">
@@ -6999,10 +6999,10 @@
         <v>233.373616234044</v>
       </c>
       <c r="D386" t="n">
-        <v>225.8943176269531</v>
+        <v>234.1116333007812</v>
       </c>
       <c r="E386" t="n">
-        <v>7.479293823242188</v>
+        <v>-0.7380218505859375</v>
       </c>
     </row>
     <row r="387">
@@ -7016,10 +7016,10 @@
         <v>236.901421973349</v>
       </c>
       <c r="D387" t="n">
-        <v>230.1880340576172</v>
+        <v>237.5451354980469</v>
       </c>
       <c r="E387" t="n">
-        <v>6.713394165039062</v>
+        <v>-0.643707275390625</v>
       </c>
     </row>
     <row r="388">
@@ -7033,10 +7033,10 @@
         <v>240.161412640479</v>
       </c>
       <c r="D388" t="n">
-        <v>234.5854644775391</v>
+        <v>240.8314819335938</v>
       </c>
       <c r="E388" t="n">
-        <v>5.575942993164062</v>
+        <v>-0.670074462890625</v>
       </c>
     </row>
     <row r="389">
@@ -7050,10 +7050,10 @@
         <v>243.401683736821</v>
       </c>
       <c r="D389" t="n">
-        <v>237.7047424316406</v>
+        <v>243.000244140625</v>
       </c>
       <c r="E389" t="n">
-        <v>5.696945190429688</v>
+        <v>0.4014434814453125</v>
       </c>
     </row>
     <row r="390">
@@ -7067,10 +7067,10 @@
         <v>246.938277682144</v>
       </c>
       <c r="D390" t="n">
-        <v>242.2966003417969</v>
+        <v>247.5021362304688</v>
       </c>
       <c r="E390" t="n">
-        <v>4.641677856445312</v>
+        <v>-0.5638580322265625</v>
       </c>
     </row>
     <row r="391">
@@ -7084,10 +7084,10 @@
         <v>250.525819756845</v>
       </c>
       <c r="D391" t="n">
-        <v>247.0724029541016</v>
+        <v>252.3762512207031</v>
       </c>
       <c r="E391" t="n">
-        <v>3.453414916992188</v>
+        <v>-1.850433349609375</v>
       </c>
     </row>
     <row r="392">
@@ -7101,10 +7101,10 @@
         <v>253.984006687524</v>
       </c>
       <c r="D392" t="n">
-        <v>251.6389007568359</v>
+        <v>256.4630432128906</v>
       </c>
       <c r="E392" t="n">
-        <v>2.345108032226562</v>
+        <v>-2.479034423828125</v>
       </c>
     </row>
     <row r="393">
@@ -7118,10 +7118,10 @@
         <v>257.359809696787</v>
       </c>
       <c r="D393" t="n">
-        <v>255.80859375</v>
+        <v>257.5739135742188</v>
       </c>
       <c r="E393" t="n">
-        <v>1.55120849609375</v>
+        <v>-0.214111328125</v>
       </c>
     </row>
     <row r="394">
@@ -7135,10 +7135,10 @@
         <v>261.037438353797</v>
       </c>
       <c r="D394" t="n">
-        <v>257.1102905273438</v>
+        <v>261.4032287597656</v>
       </c>
       <c r="E394" t="n">
-        <v>3.927154541015625</v>
+        <v>-0.36578369140625</v>
       </c>
     </row>
     <row r="395">
@@ -7152,10 +7152,10 @@
         <v>265.206865607514</v>
       </c>
       <c r="D395" t="n">
-        <v>259.2509765625</v>
+        <v>265.1174926757812</v>
       </c>
       <c r="E395" t="n">
-        <v>5.955902099609375</v>
+        <v>0.089385986328125</v>
       </c>
     </row>
     <row r="396">
@@ -7169,10 +7169,10 @@
         <v>269.642912311836</v>
       </c>
       <c r="D396" t="n">
-        <v>260.6565856933594</v>
+        <v>270.7297973632812</v>
       </c>
       <c r="E396" t="n">
-        <v>8.986328125</v>
+        <v>-1.086883544921875</v>
       </c>
     </row>
     <row r="397">
@@ -7186,10 +7186,10 @@
         <v>273.983317806087</v>
       </c>
       <c r="D397" t="n">
-        <v>264.7442016601562</v>
+        <v>273.7121887207031</v>
       </c>
       <c r="E397" t="n">
-        <v>9.239105224609375</v>
+        <v>0.2711181640625</v>
       </c>
     </row>
     <row r="398">
@@ -7203,10 +7203,10 @@
         <v>278.072404935537</v>
       </c>
       <c r="D398" t="n">
-        <v>265.3828125</v>
+        <v>278.7462463378906</v>
       </c>
       <c r="E398" t="n">
-        <v>12.68960571289062</v>
+        <v>-0.673828125</v>
       </c>
     </row>
     <row r="399">
@@ -7220,10 +7220,10 @@
         <v>281.993144500693</v>
       </c>
       <c r="D399" t="n">
-        <v>270.6253356933594</v>
+        <v>283.5770874023438</v>
       </c>
       <c r="E399" t="n">
-        <v>11.3677978515625</v>
+        <v>-1.583953857421875</v>
       </c>
     </row>
     <row r="400">
@@ -7237,10 +7237,10 @@
         <v>285.740001021874</v>
       </c>
       <c r="D400" t="n">
-        <v>275.0251159667969</v>
+        <v>289.1726379394531</v>
       </c>
       <c r="E400" t="n">
-        <v>10.71487426757812</v>
+        <v>-3.432647705078125</v>
       </c>
     </row>
     <row r="401">
@@ -7254,10 +7254,10 @@
         <v>289.555799094195</v>
       </c>
       <c r="D401" t="n">
-        <v>280.5401000976562</v>
+        <v>291.0839233398438</v>
       </c>
       <c r="E401" t="n">
-        <v>9.01568603515625</v>
+        <v>-1.52813720703125</v>
       </c>
     </row>
     <row r="402">
@@ -7271,10 +7271,10 @@
         <v>293.476749097268</v>
       </c>
       <c r="D402" t="n">
-        <v>284.8739013671875</v>
+        <v>296.5748901367188</v>
       </c>
       <c r="E402" t="n">
-        <v>8.60284423828125</v>
+        <v>-3.09814453125</v>
       </c>
     </row>
     <row r="403">
@@ -7288,10 +7288,10 @@
         <v>298.042958782342</v>
       </c>
       <c r="D403" t="n">
-        <v>290.8275451660156</v>
+        <v>300.7980651855469</v>
       </c>
       <c r="E403" t="n">
-        <v>7.215423583984375</v>
+        <v>-2.755096435546875</v>
       </c>
     </row>
     <row r="404">
@@ -7305,10 +7305,10 @@
         <v>302.969164957931</v>
       </c>
       <c r="D404" t="n">
-        <v>286.7405700683594</v>
+        <v>306.4967346191406</v>
       </c>
       <c r="E404" t="n">
-        <v>16.22860717773438</v>
+        <v>-3.527557373046875</v>
       </c>
     </row>
     <row r="405">
@@ -7322,10 +7322,10 @@
         <v>45.47141312754299</v>
       </c>
       <c r="D405" t="n">
-        <v>42.86874389648438</v>
+        <v>46.94696044921875</v>
       </c>
       <c r="E405" t="n">
-        <v>2.602668762207031</v>
+        <v>-1.475547790527344</v>
       </c>
     </row>
     <row r="406">
@@ -7339,10 +7339,10 @@
         <v>47.2757564894583</v>
       </c>
       <c r="D406" t="n">
-        <v>40.79629516601562</v>
+        <v>49.22146606445312</v>
       </c>
       <c r="E406" t="n">
-        <v>6.479461669921875</v>
+        <v>-1.945709228515625</v>
       </c>
     </row>
     <row r="407">
@@ -7356,10 +7356,10 @@
         <v>48.9381237530572</v>
       </c>
       <c r="D407" t="n">
-        <v>40.86941528320312</v>
+        <v>49.39324951171875</v>
       </c>
       <c r="E407" t="n">
-        <v>8.068710327148438</v>
+        <v>-0.4551239013671875</v>
       </c>
     </row>
     <row r="408">
@@ -7373,10 +7373,10 @@
         <v>50.4663419775198</v>
       </c>
       <c r="D408" t="n">
-        <v>41.66567993164062</v>
+        <v>50.12521362304688</v>
       </c>
       <c r="E408" t="n">
-        <v>8.800662994384766</v>
+        <v>0.3411293029785156</v>
       </c>
     </row>
     <row r="409">
@@ -7390,10 +7390,10 @@
         <v>51.8671681207707</v>
       </c>
       <c r="D409" t="n">
-        <v>43.47589111328125</v>
+        <v>51.92144775390625</v>
       </c>
       <c r="E409" t="n">
-        <v>8.391277313232422</v>
+        <v>-0.05427932739257812</v>
       </c>
     </row>
     <row r="410">
@@ -7407,10 +7407,10 @@
         <v>53.14567869490369</v>
       </c>
       <c r="D410" t="n">
-        <v>44.30703735351562</v>
+        <v>52.54574584960938</v>
       </c>
       <c r="E410" t="n">
-        <v>8.838642120361328</v>
+        <v>0.5999336242675781</v>
       </c>
     </row>
     <row r="411">
@@ -7424,10 +7424,10 @@
         <v>54.3044923307604</v>
       </c>
       <c r="D411" t="n">
-        <v>46.06716918945312</v>
+        <v>54.2086181640625</v>
       </c>
       <c r="E411" t="n">
-        <v>8.237323760986328</v>
+        <v>0.09587478637695312</v>
       </c>
     </row>
     <row r="412">
@@ -7441,10 +7441,10 @@
         <v>55.3429805742123</v>
       </c>
       <c r="D412" t="n">
-        <v>47.83572387695312</v>
+        <v>55.46136474609375</v>
       </c>
       <c r="E412" t="n">
-        <v>7.507255554199219</v>
+        <v>-0.1183853149414062</v>
       </c>
     </row>
     <row r="413">
@@ -7458,10 +7458,10 @@
         <v>56.25621193736519</v>
       </c>
       <c r="D413" t="n">
-        <v>49.69076538085938</v>
+        <v>56.97137451171875</v>
       </c>
       <c r="E413" t="n">
-        <v>6.565444946289062</v>
+        <v>-0.7151641845703125</v>
       </c>
     </row>
     <row r="414">
@@ -7475,10 +7475,10 @@
         <v>57.0340080837309</v>
       </c>
       <c r="D414" t="n">
-        <v>50.512451171875</v>
+        <v>57.42861938476562</v>
       </c>
       <c r="E414" t="n">
-        <v>6.521556854248047</v>
+        <v>-0.3946113586425781</v>
       </c>
     </row>
     <row r="415">
@@ -7492,10 +7492,10 @@
         <v>57.6585651402109</v>
       </c>
       <c r="D415" t="n">
-        <v>52.37985229492188</v>
+        <v>59.10546875</v>
       </c>
       <c r="E415" t="n">
-        <v>5.278713226318359</v>
+        <v>-1.446903228759766</v>
       </c>
     </row>
     <row r="416">
@@ -7509,10 +7509,10 @@
         <v>58.10219884868179</v>
       </c>
       <c r="D416" t="n">
-        <v>53.2308349609375</v>
+        <v>59.499755859375</v>
       </c>
       <c r="E416" t="n">
-        <v>4.871364593505859</v>
+        <v>-1.397556304931641</v>
       </c>
     </row>
     <row r="417">
@@ -7526,10 +7526,10 @@
         <v>58.34863514554451</v>
       </c>
       <c r="D417" t="n">
-        <v>55.03189086914062</v>
+        <v>60.87948608398438</v>
       </c>
       <c r="E417" t="n">
-        <v>3.316745758056641</v>
+        <v>-2.530849456787109</v>
       </c>
     </row>
     <row r="418">
@@ -7543,10 +7543,10 @@
         <v>58.54915787945701</v>
       </c>
       <c r="D418" t="n">
-        <v>55.89947509765625</v>
+        <v>61.17037963867188</v>
       </c>
       <c r="E418" t="n">
-        <v>2.649681091308594</v>
+        <v>-2.621223449707031</v>
       </c>
     </row>
     <row r="419">
@@ -7560,10 +7560,10 @@
         <v>59.0931575032202</v>
       </c>
       <c r="D419" t="n">
-        <v>57.52496337890625</v>
+        <v>62.320556640625</v>
       </c>
       <c r="E419" t="n">
-        <v>1.568195343017578</v>
+        <v>-3.227397918701172</v>
       </c>
     </row>
     <row r="420">
@@ -7577,10 +7577,10 @@
         <v>59.7652291418029</v>
       </c>
       <c r="D420" t="n">
-        <v>58.2703857421875</v>
+        <v>62.46328735351562</v>
       </c>
       <c r="E420" t="n">
-        <v>1.494842529296875</v>
+        <v>-2.69805908203125</v>
       </c>
     </row>
     <row r="421">
@@ -7594,10 +7594,10 @@
         <v>60.5382173049993</v>
       </c>
       <c r="D421" t="n">
-        <v>58.91595458984375</v>
+        <v>62.61752319335938</v>
       </c>
       <c r="E421" t="n">
-        <v>1.622261047363281</v>
+        <v>-2.079307556152344</v>
       </c>
     </row>
     <row r="422">
@@ -7611,10 +7611,10 @@
         <v>61.39270729554161</v>
       </c>
       <c r="D422" t="n">
-        <v>59.7022705078125</v>
+        <v>62.84939575195312</v>
       </c>
       <c r="E422" t="n">
-        <v>1.690437316894531</v>
+        <v>-1.456687927246094</v>
       </c>
     </row>
     <row r="423">
@@ -7628,10 +7628,10 @@
         <v>62.3183859029073</v>
       </c>
       <c r="D423" t="n">
-        <v>60.52444458007812</v>
+        <v>63.05673217773438</v>
       </c>
       <c r="E423" t="n">
-        <v>1.793941497802734</v>
+        <v>-0.7383460998535156</v>
       </c>
     </row>
     <row r="424">
@@ -7645,10 +7645,10 @@
         <v>63.3217893221117</v>
       </c>
       <c r="D424" t="n">
-        <v>61.63327026367188</v>
+        <v>63.280029296875</v>
       </c>
       <c r="E424" t="n">
-        <v>1.688518524169922</v>
+        <v>0.04175949096679688</v>
       </c>
     </row>
     <row r="425">
@@ -7662,10 +7662,10 @@
         <v>64.42003431961611</v>
       </c>
       <c r="D425" t="n">
-        <v>63.45269775390625</v>
+        <v>64.4075927734375</v>
       </c>
       <c r="E425" t="n">
-        <v>0.9673385620117188</v>
+        <v>0.01244354248046875</v>
       </c>
     </row>
     <row r="426">
@@ -7679,10 +7679,10 @@
         <v>65.60470672600461</v>
       </c>
       <c r="D426" t="n">
-        <v>64.29275512695312</v>
+        <v>64.54647827148438</v>
       </c>
       <c r="E426" t="n">
-        <v>1.31195068359375</v>
+        <v>1.0582275390625</v>
       </c>
     </row>
     <row r="427">
@@ -7696,10 +7696,10 @@
         <v>66.830061505426</v>
       </c>
       <c r="D427" t="n">
-        <v>66.16189575195312</v>
+        <v>66.22048950195312</v>
       </c>
       <c r="E427" t="n">
-        <v>0.6681671142578125</v>
+        <v>0.6095733642578125</v>
       </c>
     </row>
     <row r="428">
@@ -7713,10 +7713,10 @@
         <v>68.0331607182851</v>
       </c>
       <c r="D428" t="n">
-        <v>67.9891357421875</v>
+        <v>67.97564697265625</v>
       </c>
       <c r="E428" t="n">
-        <v>0.0440216064453125</v>
+        <v>0.0575103759765625</v>
       </c>
     </row>
     <row r="429">
@@ -7730,10 +7730,10 @@
         <v>69.1681923281255</v>
       </c>
       <c r="D429" t="n">
-        <v>68.9007568359375</v>
+        <v>69.01760864257812</v>
       </c>
       <c r="E429" t="n">
-        <v>0.2674331665039062</v>
+        <v>0.1505813598632812</v>
       </c>
     </row>
     <row r="430">
@@ -7747,10 +7747,10 @@
         <v>70.2265695377437</v>
       </c>
       <c r="D430" t="n">
-        <v>70.75079345703125</v>
+        <v>70.70370483398438</v>
       </c>
       <c r="E430" t="n">
-        <v>-0.5242233276367188</v>
+        <v>-0.4771347045898438</v>
       </c>
     </row>
     <row r="431">
@@ -7764,10 +7764,10 @@
         <v>71.2204876775977</v>
       </c>
       <c r="D431" t="n">
-        <v>72.69601440429688</v>
+        <v>73.044677734375</v>
       </c>
       <c r="E431" t="n">
-        <v>-1.47552490234375</v>
+        <v>-1.824188232421875</v>
       </c>
     </row>
     <row r="432">
@@ -7781,10 +7781,10 @@
         <v>72.19928398213349</v>
       </c>
       <c r="D432" t="n">
-        <v>73.84866333007812</v>
+        <v>74.10501098632812</v>
       </c>
       <c r="E432" t="n">
-        <v>-1.649375915527344</v>
+        <v>-1.905723571777344</v>
       </c>
     </row>
     <row r="433">
@@ -7798,10 +7798,10 @@
         <v>73.2080034278067</v>
       </c>
       <c r="D433" t="n">
-        <v>74.87008666992188</v>
+        <v>75.0633544921875</v>
       </c>
       <c r="E433" t="n">
-        <v>-1.662086486816406</v>
+        <v>-1.855354309082031</v>
       </c>
     </row>
     <row r="434">
@@ -7815,10 +7815,10 @@
         <v>74.25251173110971</v>
       </c>
       <c r="D434" t="n">
-        <v>75.78677368164062</v>
+        <v>75.85162353515625</v>
       </c>
       <c r="E434" t="n">
-        <v>-1.534263610839844</v>
+        <v>-1.599113464355469</v>
       </c>
     </row>
     <row r="435">
@@ -7832,10 +7832,10 @@
         <v>75.33334606563081</v>
       </c>
       <c r="D435" t="n">
-        <v>76.3597412109375</v>
+        <v>76.567626953125</v>
       </c>
       <c r="E435" t="n">
-        <v>-1.026397705078125</v>
+        <v>-1.234283447265625</v>
       </c>
     </row>
     <row r="436">
@@ -7849,10 +7849,10 @@
         <v>76.46166200894339</v>
       </c>
       <c r="D436" t="n">
-        <v>77.19921875</v>
+        <v>77.69735717773438</v>
       </c>
       <c r="E436" t="n">
-        <v>-0.7375564575195312</v>
+        <v>-1.235694885253906</v>
       </c>
     </row>
     <row r="437">
@@ -7866,10 +7866,10 @@
         <v>77.6425083740052</v>
       </c>
       <c r="D437" t="n">
-        <v>78.1812744140625</v>
+        <v>79.1282958984375</v>
       </c>
       <c r="E437" t="n">
-        <v>-0.5387649536132812</v>
+        <v>-1.485786437988281</v>
       </c>
     </row>
     <row r="438">
@@ -7883,10 +7883,10 @@
         <v>78.86260087967671</v>
       </c>
       <c r="D438" t="n">
-        <v>78.3203125</v>
+        <v>79.34732055664062</v>
       </c>
       <c r="E438" t="n">
-        <v>0.5422897338867188</v>
+        <v>-0.4847183227539062</v>
       </c>
     </row>
     <row r="439">
@@ -7900,10 +7900,10 @@
         <v>80.0662435476918</v>
       </c>
       <c r="D439" t="n">
-        <v>79.11306762695312</v>
+        <v>80.29391479492188</v>
       </c>
       <c r="E439" t="n">
-        <v>0.9531784057617188</v>
+        <v>-0.2276687622070312</v>
       </c>
     </row>
     <row r="440">
@@ -7917,10 +7917,10 @@
         <v>81.2096965077735</v>
       </c>
       <c r="D440" t="n">
-        <v>80.00155639648438</v>
+        <v>81.18478393554688</v>
       </c>
       <c r="E440" t="n">
-        <v>1.208137512207031</v>
+        <v>0.02490997314453125</v>
       </c>
     </row>
     <row r="441">
@@ -7934,10 +7934,10 @@
         <v>82.27958203919809</v>
       </c>
       <c r="D441" t="n">
-        <v>80.97967529296875</v>
+        <v>82.34024047851562</v>
       </c>
       <c r="E441" t="n">
-        <v>1.299903869628906</v>
+        <v>-0.06066131591796875</v>
       </c>
     </row>
     <row r="442">
@@ -7951,10 +7951,10 @@
         <v>83.29050188618669</v>
       </c>
       <c r="D442" t="n">
-        <v>81.59259033203125</v>
+        <v>83.57638549804688</v>
       </c>
       <c r="E442" t="n">
-        <v>1.697914123535156</v>
+        <v>-0.2858810424804688</v>
       </c>
     </row>
     <row r="443">
@@ -7968,10 +7968,10 @@
         <v>84.2813121483907</v>
       </c>
       <c r="D443" t="n">
-        <v>82.43045043945312</v>
+        <v>86.989501953125</v>
       </c>
       <c r="E443" t="n">
-        <v>1.850860595703125</v>
+        <v>-2.70819091796875</v>
       </c>
     </row>
     <row r="444">
@@ -7985,10 +7985,10 @@
         <v>85.3030762402106</v>
       </c>
       <c r="D444" t="n">
-        <v>83.41876220703125</v>
+        <v>87.49240112304688</v>
       </c>
       <c r="E444" t="n">
-        <v>1.884315490722656</v>
+        <v>-2.189323425292969</v>
       </c>
     </row>
     <row r="445">
@@ -8002,10 +8002,10 @@
         <v>86.3875496121448</v>
       </c>
       <c r="D445" t="n">
-        <v>84.42532348632812</v>
+        <v>87.78982543945312</v>
       </c>
       <c r="E445" t="n">
-        <v>1.962226867675781</v>
+        <v>-1.402275085449219</v>
       </c>
     </row>
     <row r="446">
@@ -8019,10 +8019,10 @@
         <v>87.53201901701449</v>
       </c>
       <c r="D446" t="n">
-        <v>84.96896362304688</v>
+        <v>87.98681640625</v>
       </c>
       <c r="E446" t="n">
-        <v>2.563056945800781</v>
+        <v>-0.4547958374023438</v>
       </c>
     </row>
     <row r="447">
@@ -8036,10 +8036,10 @@
         <v>88.72459856271981</v>
       </c>
       <c r="D447" t="n">
-        <v>86.30825805664062</v>
+        <v>89.57119750976562</v>
       </c>
       <c r="E447" t="n">
-        <v>2.416343688964844</v>
+        <v>-0.8465957641601562</v>
       </c>
     </row>
     <row r="448">
@@ -8053,10 +8053,10 @@
         <v>89.9350183243147</v>
       </c>
       <c r="D448" t="n">
-        <v>87.63375854492188</v>
+        <v>91.22744750976562</v>
       </c>
       <c r="E448" t="n">
-        <v>2.301261901855469</v>
+        <v>-1.292427062988281</v>
       </c>
     </row>
     <row r="449">
@@ -8070,10 +8070,10 @@
         <v>91.17148570577081</v>
       </c>
       <c r="D449" t="n">
-        <v>87.98013305664062</v>
+        <v>91.83685302734375</v>
       </c>
       <c r="E449" t="n">
-        <v>3.191352844238281</v>
+        <v>-0.6653671264648438</v>
       </c>
     </row>
     <row r="450">
@@ -8087,10 +8087,10 @@
         <v>92.40370506791639</v>
       </c>
       <c r="D450" t="n">
-        <v>89.32821655273438</v>
+        <v>93.30392456054688</v>
       </c>
       <c r="E450" t="n">
-        <v>3.075485229492188</v>
+        <v>-0.9002227783203125</v>
       </c>
     </row>
     <row r="451">
@@ -8104,10 +8104,10 @@
         <v>93.5831221633926</v>
       </c>
       <c r="D451" t="n">
-        <v>89.734130859375</v>
+        <v>93.7271728515625</v>
       </c>
       <c r="E451" t="n">
-        <v>3.848991394042969</v>
+        <v>-0.1440505981445312</v>
       </c>
     </row>
     <row r="452">
@@ -8121,10 +8121,10 @@
         <v>94.69783036963079</v>
       </c>
       <c r="D452" t="n">
-        <v>91.14651489257812</v>
+        <v>95.08123779296875</v>
       </c>
       <c r="E452" t="n">
-        <v>3.551315307617188</v>
+        <v>-0.3834075927734375</v>
       </c>
     </row>
     <row r="453">
@@ -8138,10 +8138,10 @@
         <v>95.773090355503</v>
       </c>
       <c r="D453" t="n">
-        <v>93.43524169921875</v>
+        <v>97.61676025390625</v>
       </c>
       <c r="E453" t="n">
-        <v>2.337844848632812</v>
+        <v>-1.843673706054688</v>
       </c>
     </row>
     <row r="454">
@@ -8155,10 +8155,10 @@
         <v>96.84132102908059</v>
       </c>
       <c r="D454" t="n">
-        <v>93.7542724609375</v>
+        <v>97.93949890136719</v>
       </c>
       <c r="E454" t="n">
-        <v>3.087051391601562</v>
+        <v>-1.098175048828125</v>
       </c>
     </row>
     <row r="455">
@@ -8172,10 +8172,10 @@
         <v>97.9501686382833</v>
       </c>
       <c r="D455" t="n">
-        <v>94.92584228515625</v>
+        <v>99.51319885253906</v>
       </c>
       <c r="E455" t="n">
-        <v>3.024330139160156</v>
+        <v>-1.563026428222656</v>
       </c>
     </row>
     <row r="456">
@@ -8189,10 +8189,10 @@
         <v>99.11614037361251</v>
       </c>
       <c r="D456" t="n">
-        <v>95.15937805175781</v>
+        <v>100.0418243408203</v>
       </c>
       <c r="E456" t="n">
-        <v>3.956764221191406</v>
+        <v>-0.9256820678710938</v>
       </c>
     </row>
     <row r="457">
@@ -8206,10 +8206,10 @@
         <v>100.338427885202</v>
       </c>
       <c r="D457" t="n">
-        <v>96.44479370117188</v>
+        <v>101.7014007568359</v>
       </c>
       <c r="E457" t="n">
-        <v>3.893630981445312</v>
+        <v>-1.36297607421875</v>
       </c>
     </row>
     <row r="458">
@@ -8223,10 +8223,10 @@
         <v>101.618469716582</v>
       </c>
       <c r="D458" t="n">
-        <v>97.78485107421875</v>
+        <v>103.1633911132812</v>
       </c>
       <c r="E458" t="n">
-        <v>3.8336181640625</v>
+        <v>-1.544921875</v>
       </c>
     </row>
     <row r="459">
@@ -8240,10 +8240,10 @@
         <v>102.950829996277</v>
       </c>
       <c r="D459" t="n">
-        <v>99.21403503417969</v>
+        <v>104.4607696533203</v>
       </c>
       <c r="E459" t="n">
-        <v>3.736793518066406</v>
+        <v>-1.509941101074219</v>
       </c>
     </row>
     <row r="460">
@@ -8257,10 +8257,10 @@
         <v>104.292987580663</v>
       </c>
       <c r="D460" t="n">
-        <v>99.85232543945312</v>
+        <v>104.7930755615234</v>
       </c>
       <c r="E460" t="n">
-        <v>4.440658569335938</v>
+        <v>-0.500091552734375</v>
       </c>
     </row>
     <row r="461">
@@ -8274,10 +8274,10 @@
         <v>105.618037137215</v>
       </c>
       <c r="D461" t="n">
-        <v>101.3759460449219</v>
+        <v>106.1698150634766</v>
       </c>
       <c r="E461" t="n">
-        <v>4.242088317871094</v>
+        <v>-0.5517807006835938</v>
       </c>
     </row>
     <row r="462">
@@ -8291,10 +8291,10 @@
         <v>106.927228675612</v>
       </c>
       <c r="D462" t="n">
-        <v>102.7212982177734</v>
+        <v>107.5246124267578</v>
       </c>
       <c r="E462" t="n">
-        <v>4.2059326171875</v>
+        <v>-0.597381591796875</v>
       </c>
     </row>
     <row r="463">
@@ -8308,10 +8308,10 @@
         <v>108.23064173082</v>
       </c>
       <c r="D463" t="n">
-        <v>101.9177551269531</v>
+        <v>108.9889831542969</v>
       </c>
       <c r="E463" t="n">
-        <v>6.312889099121094</v>
+        <v>-0.7583389282226562</v>
       </c>
     </row>
     <row r="464">
@@ -8325,10 +8325,10 @@
         <v>109.559054324185</v>
       </c>
       <c r="D464" t="n">
-        <v>103.5565032958984</v>
+        <v>110.6150360107422</v>
       </c>
       <c r="E464" t="n">
-        <v>6.002548217773438</v>
+        <v>-1.055984497070312</v>
       </c>
     </row>
     <row r="465">
@@ -8342,10 +8342,10 @@
         <v>110.950571576039</v>
       </c>
       <c r="D465" t="n">
-        <v>105.0426177978516</v>
+        <v>112.1513824462891</v>
       </c>
       <c r="E465" t="n">
-        <v>5.907951354980469</v>
+        <v>-1.200813293457031</v>
       </c>
     </row>
     <row r="466">
@@ -8359,10 +8359,10 @@
         <v>112.457434780862</v>
       </c>
       <c r="D466" t="n">
-        <v>106.6908264160156</v>
+        <v>113.8968963623047</v>
       </c>
       <c r="E466" t="n">
-        <v>5.766609191894531</v>
+        <v>-1.439460754394531</v>
       </c>
     </row>
     <row r="467">
@@ -8376,10 +8376,10 @@
         <v>114.058617507951</v>
       </c>
       <c r="D467" t="n">
-        <v>108.3025665283203</v>
+        <v>115.6234741210938</v>
       </c>
       <c r="E467" t="n">
-        <v>5.756050109863281</v>
+        <v>-1.564857482910156</v>
       </c>
     </row>
     <row r="468">
@@ -8393,10 +8393,10 @@
         <v>115.705064738273</v>
       </c>
       <c r="D468" t="n">
-        <v>109.7804565429688</v>
+        <v>117.2202911376953</v>
       </c>
       <c r="E468" t="n">
-        <v>5.924606323242188</v>
+        <v>-1.515228271484375</v>
       </c>
     </row>
     <row r="469">
@@ -8410,10 +8410,10 @@
         <v>117.36333203</v>
       </c>
       <c r="D469" t="n">
-        <v>111.2807159423828</v>
+        <v>118.8439788818359</v>
       </c>
       <c r="E469" t="n">
-        <v>6.082618713378906</v>
+        <v>-1.480644226074219</v>
       </c>
     </row>
     <row r="470">
@@ -8427,10 +8427,10 @@
         <v>119.037871021201</v>
       </c>
       <c r="D470" t="n">
-        <v>112.7070159912109</v>
+        <v>120.3992614746094</v>
       </c>
       <c r="E470" t="n">
-        <v>6.330856323242188</v>
+        <v>-1.36138916015625</v>
       </c>
     </row>
     <row r="471">
@@ -8444,10 +8444,10 @@
         <v>120.729323233116</v>
       </c>
       <c r="D471" t="n">
-        <v>114.1460113525391</v>
+        <v>121.9378814697266</v>
       </c>
       <c r="E471" t="n">
-        <v>6.58331298828125</v>
+        <v>-1.20855712890625</v>
       </c>
     </row>
     <row r="472">
@@ -8461,10 +8461,10 @@
         <v>122.425141425812</v>
       </c>
       <c r="D472" t="n">
-        <v>115.7293395996094</v>
+        <v>123.6246643066406</v>
       </c>
       <c r="E472" t="n">
-        <v>6.69580078125</v>
+        <v>-1.19952392578125</v>
       </c>
     </row>
     <row r="473">
@@ -8478,10 +8478,10 @@
         <v>124.127474832464</v>
       </c>
       <c r="D473" t="n">
-        <v>117.3079071044922</v>
+        <v>125.4290466308594</v>
       </c>
       <c r="E473" t="n">
-        <v>6.819564819335938</v>
+        <v>-1.30157470703125</v>
       </c>
     </row>
     <row r="474">
@@ -8495,10 +8495,10 @@
         <v>125.854142465012</v>
       </c>
       <c r="D474" t="n">
-        <v>118.7534637451172</v>
+        <v>127.2020416259766</v>
       </c>
       <c r="E474" t="n">
-        <v>7.100677490234375</v>
+        <v>-1.347900390625</v>
       </c>
     </row>
     <row r="475">
@@ -8512,10 +8512,10 @@
         <v>127.662025712345</v>
       </c>
       <c r="D475" t="n">
-        <v>120.2256469726562</v>
+        <v>128.9780883789062</v>
       </c>
       <c r="E475" t="n">
-        <v>7.436378479003906</v>
+        <v>-1.316062927246094</v>
       </c>
     </row>
     <row r="476">
@@ -8529,10 +8529,10 @@
         <v>129.611451962231</v>
       </c>
       <c r="D476" t="n">
-        <v>123.0006408691406</v>
+        <v>131.8097229003906</v>
       </c>
       <c r="E476" t="n">
-        <v>6.610809326171875</v>
+        <v>-2.198272705078125</v>
       </c>
     </row>
     <row r="477">
@@ -8546,10 +8546,10 @@
         <v>131.703048421255</v>
       </c>
       <c r="D477" t="n">
-        <v>126.5163269042969</v>
+        <v>134.1750030517578</v>
       </c>
       <c r="E477" t="n">
-        <v>5.186721801757812</v>
+        <v>-2.471954345703125</v>
       </c>
     </row>
     <row r="478">
@@ -8563,10 +8563,10 @@
         <v>133.879029404038</v>
       </c>
       <c r="D478" t="n">
-        <v>129.0879516601562</v>
+        <v>134.6906890869141</v>
       </c>
       <c r="E478" t="n">
-        <v>4.79107666015625</v>
+        <v>-0.8116607666015625</v>
       </c>
     </row>
     <row r="479">
@@ -8580,10 +8580,10 @@
         <v>136.058790154797</v>
       </c>
       <c r="D479" t="n">
-        <v>133.2911071777344</v>
+        <v>137.26025390625</v>
       </c>
       <c r="E479" t="n">
-        <v>2.767684936523438</v>
+        <v>-1.201461791992188</v>
       </c>
     </row>
     <row r="480">
@@ -8597,10 +8597,10 @@
         <v>138.220970681154</v>
       </c>
       <c r="D480" t="n">
-        <v>137.2900543212891</v>
+        <v>140.0916137695312</v>
       </c>
       <c r="E480" t="n">
-        <v>0.9309234619140625</v>
+        <v>-1.870635986328125</v>
       </c>
     </row>
     <row r="481">
@@ -8614,10 +8614,10 @@
         <v>140.379938162677</v>
       </c>
       <c r="D481" t="n">
-        <v>141.1703948974609</v>
+        <v>142.9741668701172</v>
       </c>
       <c r="E481" t="n">
-        <v>-0.7904510498046875</v>
+        <v>-2.594223022460938</v>
       </c>
     </row>
     <row r="482">
@@ -8631,10 +8631,10 @@
         <v>142.508323511621</v>
       </c>
       <c r="D482" t="n">
-        <v>146.1062316894531</v>
+        <v>145.4214172363281</v>
       </c>
       <c r="E482" t="n">
-        <v>-3.597915649414062</v>
+        <v>-2.913101196289062</v>
       </c>
     </row>
     <row r="483">
@@ -8648,10 +8648,10 @@
         <v>144.526566787916</v>
       </c>
       <c r="D483" t="n">
-        <v>145.6506195068359</v>
+        <v>146.5023498535156</v>
       </c>
       <c r="E483" t="n">
-        <v>-1.124053955078125</v>
+        <v>-1.975784301757812</v>
       </c>
     </row>
     <row r="484">
@@ -8665,10 +8665,10 @@
         <v>146.363766354088</v>
       </c>
       <c r="D484" t="n">
-        <v>144.82421875</v>
+        <v>148.0608673095703</v>
       </c>
       <c r="E484" t="n">
-        <v>1.53955078125</v>
+        <v>-1.697097778320312</v>
       </c>
     </row>
     <row r="485">
@@ -8682,10 +8682,10 @@
         <v>148.04810308747</v>
       </c>
       <c r="D485" t="n">
-        <v>144.4034729003906</v>
+        <v>149.6608276367188</v>
       </c>
       <c r="E485" t="n">
-        <v>3.644622802734375</v>
+        <v>-1.61273193359375</v>
       </c>
     </row>
     <row r="486">
@@ -8699,10 +8699,10 @@
         <v>149.636500024526</v>
       </c>
       <c r="D486" t="n">
-        <v>143.5999298095703</v>
+        <v>151.3271942138672</v>
       </c>
       <c r="E486" t="n">
-        <v>6.036575317382812</v>
+        <v>-1.690689086914062</v>
       </c>
     </row>
     <row r="487">
@@ -8716,10 +8716,10 @@
         <v>151.193118974174</v>
       </c>
       <c r="D487" t="n">
-        <v>142.9005279541016</v>
+        <v>152.9433441162109</v>
       </c>
       <c r="E487" t="n">
-        <v>8.292587280273438</v>
+        <v>-1.750228881835938</v>
       </c>
     </row>
     <row r="488">
@@ -8733,10 +8733,10 @@
         <v>152.769928971357</v>
       </c>
       <c r="D488" t="n">
-        <v>144.0588989257812</v>
+        <v>154.7270355224609</v>
       </c>
       <c r="E488" t="n">
-        <v>8.711029052734375</v>
+        <v>-1.957107543945312</v>
       </c>
     </row>
     <row r="489">
@@ -8750,10 +8750,10 @@
         <v>154.406649606657</v>
       </c>
       <c r="D489" t="n">
-        <v>146.2647552490234</v>
+        <v>156.6712188720703</v>
       </c>
       <c r="E489" t="n">
-        <v>8.141891479492188</v>
+        <v>-2.264572143554688</v>
       </c>
     </row>
     <row r="490">
@@ -8767,10 +8767,10 @@
         <v>156.106761670804</v>
       </c>
       <c r="D490" t="n">
-        <v>148.5572357177734</v>
+        <v>158.6623992919922</v>
       </c>
       <c r="E490" t="n">
-        <v>7.549530029296875</v>
+        <v>-2.555633544921875</v>
       </c>
     </row>
     <row r="491">
@@ -8784,10 +8784,10 @@
         <v>157.863985411716</v>
       </c>
       <c r="D491" t="n">
-        <v>150.5675506591797</v>
+        <v>160.3935699462891</v>
       </c>
       <c r="E491" t="n">
-        <v>7.296432495117188</v>
+        <v>-2.529586791992188</v>
       </c>
     </row>
     <row r="492">
@@ -8801,10 +8801,10 @@
         <v>159.722269667763</v>
       </c>
       <c r="D492" t="n">
-        <v>153.8173065185547</v>
+        <v>162.7357177734375</v>
       </c>
       <c r="E492" t="n">
-        <v>5.90496826171875</v>
+        <v>-3.013442993164062</v>
       </c>
     </row>
     <row r="493">
@@ -8818,10 +8818,10 @@
         <v>161.767623419939</v>
       </c>
       <c r="D493" t="n">
-        <v>155.8054351806641</v>
+        <v>164.6832580566406</v>
       </c>
       <c r="E493" t="n">
-        <v>5.962188720703125</v>
+        <v>-2.915634155273438</v>
       </c>
     </row>
     <row r="494">
@@ -8835,10 +8835,10 @@
         <v>164.016827955843</v>
       </c>
       <c r="D494" t="n">
-        <v>157.5509948730469</v>
+        <v>166.5568542480469</v>
       </c>
       <c r="E494" t="n">
-        <v>6.465835571289062</v>
+        <v>-2.540023803710938</v>
       </c>
     </row>
     <row r="495">
@@ -8852,10 +8852,10 @@
         <v>166.387513968761</v>
       </c>
       <c r="D495" t="n">
-        <v>159.3507232666016</v>
+        <v>168.3480072021484</v>
       </c>
       <c r="E495" t="n">
-        <v>7.036788940429688</v>
+        <v>-1.960494995117188</v>
       </c>
     </row>
     <row r="496">
@@ -8869,10 +8869,10 @@
         <v>168.807264444714</v>
       </c>
       <c r="D496" t="n">
-        <v>161.3189544677734</v>
+        <v>170.4318084716797</v>
       </c>
       <c r="E496" t="n">
-        <v>7.488311767578125</v>
+        <v>-1.624542236328125</v>
       </c>
     </row>
     <row r="497">
@@ -8886,10 +8886,10 @@
         <v>171.242556810676</v>
       </c>
       <c r="D497" t="n">
-        <v>164.5173492431641</v>
+        <v>173.1621704101562</v>
       </c>
       <c r="E497" t="n">
-        <v>6.725204467773438</v>
+        <v>-1.91961669921875</v>
       </c>
     </row>
     <row r="498">
@@ -8903,10 +8903,10 @@
         <v>173.709108388715</v>
       </c>
       <c r="D498" t="n">
-        <v>166.5051574707031</v>
+        <v>175.3578491210938</v>
       </c>
       <c r="E498" t="n">
-        <v>7.203948974609375</v>
+        <v>-1.64874267578125</v>
       </c>
     </row>
     <row r="499">
@@ -8920,10 +8920,10 @@
         <v>176.22479882031</v>
       </c>
       <c r="D499" t="n">
-        <v>168.6745758056641</v>
+        <v>177.7207946777344</v>
       </c>
       <c r="E499" t="n">
-        <v>7.550216674804688</v>
+        <v>-1.496002197265625</v>
       </c>
     </row>
     <row r="500">
@@ -8937,10 +8937,10 @@
         <v>178.838571731788</v>
       </c>
       <c r="D500" t="n">
-        <v>170.5955200195312</v>
+        <v>179.9437255859375</v>
       </c>
       <c r="E500" t="n">
-        <v>8.243057250976562</v>
+        <v>-1.105148315429688</v>
       </c>
     </row>
     <row r="501">
@@ -8954,10 +8954,10 @@
         <v>181.582842380231</v>
       </c>
       <c r="D501" t="n">
-        <v>173.9925384521484</v>
+        <v>183.0861358642578</v>
       </c>
       <c r="E501" t="n">
-        <v>7.590301513671875</v>
+        <v>-1.5032958984375</v>
       </c>
     </row>
     <row r="502">
@@ -8971,10 +8971,10 @@
         <v>184.365159273187</v>
       </c>
       <c r="D502" t="n">
-        <v>176.1675872802734</v>
+        <v>185.9239349365234</v>
       </c>
       <c r="E502" t="n">
-        <v>8.19757080078125</v>
+        <v>-1.55877685546875</v>
       </c>
     </row>
     <row r="503">
@@ -8988,10 +8988,10 @@
         <v>187.104079113293</v>
       </c>
       <c r="D503" t="n">
-        <v>179.2908172607422</v>
+        <v>189.2431640625</v>
       </c>
       <c r="E503" t="n">
-        <v>7.813262939453125</v>
+        <v>-2.139083862304688</v>
       </c>
     </row>
     <row r="504">
@@ -9005,10 +9005,10 @@
         <v>189.78946151721</v>
       </c>
       <c r="D504" t="n">
-        <v>181.2456665039062</v>
+        <v>191.5442810058594</v>
       </c>
       <c r="E504" t="n">
-        <v>8.543792724609375</v>
+        <v>-1.75482177734375</v>
       </c>
     </row>
     <row r="505">
@@ -9022,10 +9022,10 @@
         <v>192.358001129075</v>
       </c>
       <c r="D505" t="n">
-        <v>182.9333801269531</v>
+        <v>193.1464691162109</v>
       </c>
       <c r="E505" t="n">
-        <v>9.42462158203125</v>
+        <v>-0.7884674072265625</v>
       </c>
     </row>
     <row r="506">
@@ -9039,10 +9039,10 @@
         <v>194.773081982769</v>
       </c>
       <c r="D506" t="n">
-        <v>184.251220703125</v>
+        <v>194.0649108886719</v>
       </c>
       <c r="E506" t="n">
-        <v>10.52186584472656</v>
+        <v>0.7081756591796875</v>
       </c>
     </row>
     <row r="507">
@@ -9056,10 +9056,10 @@
         <v>197.060393328079</v>
       </c>
       <c r="D507" t="n">
-        <v>186.7757873535156</v>
+        <v>196.3149108886719</v>
       </c>
       <c r="E507" t="n">
-        <v>10.28460693359375</v>
+        <v>0.7454833984375</v>
       </c>
     </row>
     <row r="508">
@@ -9073,10 +9073,10 @@
         <v>199.28399025126</v>
       </c>
       <c r="D508" t="n">
-        <v>188.7158355712891</v>
+        <v>198.4305572509766</v>
       </c>
       <c r="E508" t="n">
-        <v>10.56816101074219</v>
+        <v>0.8534393310546875</v>
       </c>
     </row>
     <row r="509">
@@ -9090,10 +9090,10 @@
         <v>201.457976347494</v>
       </c>
       <c r="D509" t="n">
-        <v>193.2705841064453</v>
+        <v>202.6179351806641</v>
       </c>
       <c r="E509" t="n">
-        <v>8.187393188476562</v>
+        <v>-1.159957885742188</v>
       </c>
     </row>
     <row r="510">
@@ -9107,10 +9107,10 @@
         <v>203.552499145023</v>
       </c>
       <c r="D510" t="n">
-        <v>194.3308410644531</v>
+        <v>204.9126586914062</v>
       </c>
       <c r="E510" t="n">
-        <v>9.221664428710938</v>
+        <v>-1.360153198242188</v>
       </c>
     </row>
     <row r="511">
@@ -9124,10 +9124,10 @@
         <v>205.580562096555</v>
       </c>
       <c r="D511" t="n">
-        <v>197.1433258056641</v>
+        <v>209.2906188964844</v>
       </c>
       <c r="E511" t="n">
-        <v>8.437240600585938</v>
+        <v>-3.710052490234375</v>
       </c>
     </row>
     <row r="512">
@@ -9141,10 +9141,10 @@
         <v>207.62409735083</v>
       </c>
       <c r="D512" t="n">
-        <v>201.0013732910156</v>
+        <v>213.6475067138672</v>
       </c>
       <c r="E512" t="n">
-        <v>6.622726440429688</v>
+        <v>-6.023406982421875</v>
       </c>
     </row>
     <row r="513">
@@ -9158,10 +9158,10 @@
         <v>209.716258190205</v>
       </c>
       <c r="D513" t="n">
-        <v>202.8586578369141</v>
+        <v>215.6811676025391</v>
       </c>
       <c r="E513" t="n">
-        <v>6.85760498046875</v>
+        <v>-5.96490478515625</v>
       </c>
     </row>
     <row r="514">
@@ -9175,10 +9175,10 @@
         <v>211.856662754547</v>
       </c>
       <c r="D514" t="n">
-        <v>205.3083801269531</v>
+        <v>216.7372283935547</v>
       </c>
       <c r="E514" t="n">
-        <v>6.54827880859375</v>
+        <v>-4.880569458007812</v>
       </c>
     </row>
     <row r="515">
@@ -9192,10 +9192,10 @@
         <v>214.079161903279</v>
       </c>
       <c r="D515" t="n">
-        <v>206.8055572509766</v>
+        <v>217.7742156982422</v>
       </c>
       <c r="E515" t="n">
-        <v>7.273605346679688</v>
+        <v>-3.695053100585938</v>
       </c>
     </row>
     <row r="516">
@@ -9209,10 +9209,10 @@
         <v>216.417301578074</v>
       </c>
       <c r="D516" t="n">
-        <v>208.3311614990234</v>
+        <v>219.1382446289062</v>
       </c>
       <c r="E516" t="n">
-        <v>8.086135864257812</v>
+        <v>-2.720947265625</v>
       </c>
     </row>
     <row r="517">
@@ -9226,10 +9226,10 @@
         <v>218.842105452637</v>
       </c>
       <c r="D517" t="n">
-        <v>210.0976867675781</v>
+        <v>221.2375793457031</v>
       </c>
       <c r="E517" t="n">
-        <v>8.744415283203125</v>
+        <v>-2.395477294921875</v>
       </c>
     </row>
     <row r="518">
@@ -9243,10 +9243,10 @@
         <v>221.347335111067</v>
       </c>
       <c r="D518" t="n">
-        <v>212.0313110351562</v>
+        <v>223.3942565917969</v>
       </c>
       <c r="E518" t="n">
-        <v>9.316024780273438</v>
+        <v>-2.046920776367188</v>
       </c>
     </row>
     <row r="519">
@@ -9260,10 +9260,10 @@
         <v>223.994589242993</v>
       </c>
       <c r="D519" t="n">
-        <v>215.2447814941406</v>
+        <v>226.254638671875</v>
       </c>
       <c r="E519" t="n">
-        <v>8.749801635742188</v>
+        <v>-2.260055541992188</v>
       </c>
     </row>
     <row r="520">
@@ -9277,10 +9277,10 @@
         <v>226.848207550975</v>
       </c>
       <c r="D520" t="n">
-        <v>217.4856109619141</v>
+        <v>229.3899383544922</v>
       </c>
       <c r="E520" t="n">
-        <v>9.362594604492188</v>
+        <v>-2.541732788085938</v>
       </c>
     </row>
     <row r="521">
@@ -9294,10 +9294,10 @@
         <v>229.926082484057</v>
       </c>
       <c r="D521" t="n">
-        <v>220.8401031494141</v>
+        <v>232.6037750244141</v>
       </c>
       <c r="E521" t="n">
-        <v>9.085983276367188</v>
+        <v>-2.677688598632812</v>
       </c>
     </row>
     <row r="522">
@@ -9311,10 +9311,10 @@
         <v>233.128897298419</v>
       </c>
       <c r="D522" t="n">
-        <v>222.8854370117188</v>
+        <v>234.9131011962891</v>
       </c>
       <c r="E522" t="n">
-        <v>10.24345397949219</v>
+        <v>-1.784210205078125</v>
       </c>
     </row>
     <row r="523">
@@ -9328,10 +9328,10 @@
         <v>236.321600056166</v>
       </c>
       <c r="D523" t="n">
-        <v>224.7908935546875</v>
+        <v>237.2367553710938</v>
       </c>
       <c r="E523" t="n">
-        <v>11.53070068359375</v>
+        <v>-0.9151611328125</v>
       </c>
     </row>
     <row r="524">
@@ -9345,10 +9345,10 @@
         <v>239.367254532422</v>
       </c>
       <c r="D524" t="n">
-        <v>226.8780517578125</v>
+        <v>240.127685546875</v>
       </c>
       <c r="E524" t="n">
-        <v>12.48919677734375</v>
+        <v>-0.76043701171875</v>
       </c>
     </row>
     <row r="525">
@@ -9362,10 +9362,10 @@
         <v>242.216434064194</v>
       </c>
       <c r="D525" t="n">
-        <v>229.1741333007812</v>
+        <v>243.4370422363281</v>
       </c>
       <c r="E525" t="n">
-        <v>13.04229736328125</v>
+        <v>-1.220611572265625</v>
       </c>
     </row>
     <row r="526">
@@ -9379,10 +9379,10 @@
         <v>244.923360079367</v>
       </c>
       <c r="D526" t="n">
-        <v>231.4039001464844</v>
+        <v>246.7249908447266</v>
       </c>
       <c r="E526" t="n">
-        <v>13.51945495605469</v>
+        <v>-1.8016357421875</v>
       </c>
     </row>
     <row r="527">
@@ -9396,10 +9396,10 @@
         <v>247.486572001166</v>
       </c>
       <c r="D527" t="n">
-        <v>234.9101104736328</v>
+        <v>249.2802429199219</v>
       </c>
       <c r="E527" t="n">
-        <v>12.57646179199219</v>
+        <v>-1.793670654296875</v>
       </c>
     </row>
     <row r="528">
@@ -9413,10 +9413,10 @@
         <v>249.852230087918</v>
       </c>
       <c r="D528" t="n">
-        <v>237.3149108886719</v>
+        <v>251.3244018554688</v>
       </c>
       <c r="E528" t="n">
-        <v>12.53732299804688</v>
+        <v>-1.47216796875</v>
       </c>
     </row>
     <row r="529">
@@ -9430,10 +9430,10 @@
         <v>252.010694206577</v>
       </c>
       <c r="D529" t="n">
-        <v>240.4415588378906</v>
+        <v>253.8095397949219</v>
       </c>
       <c r="E529" t="n">
-        <v>11.56913757324219</v>
+        <v>-1.798843383789062</v>
       </c>
     </row>
     <row r="530">
@@ -9447,10 +9447,10 @@
         <v>253.946358505305</v>
       </c>
       <c r="D530" t="n">
-        <v>242.9593505859375</v>
+        <v>255.9931335449219</v>
       </c>
       <c r="E530" t="n">
-        <v>10.98701477050781</v>
+        <v>-2.046768188476562</v>
       </c>
     </row>
     <row r="531">
@@ -9464,10 +9464,10 @@
         <v>255.703734271075</v>
       </c>
       <c r="D531" t="n">
-        <v>246.8200531005859</v>
+        <v>258.7736206054688</v>
       </c>
       <c r="E531" t="n">
-        <v>8.883682250976562</v>
+        <v>-3.06988525390625</v>
       </c>
     </row>
     <row r="532">
@@ -9481,10 +9481,10 @@
         <v>257.30655271874</v>
       </c>
       <c r="D532" t="n">
-        <v>249.4128875732422</v>
+        <v>261.01806640625</v>
       </c>
       <c r="E532" t="n">
-        <v>7.893661499023438</v>
+        <v>-3.711517333984375</v>
       </c>
     </row>
   </sheetData>
